--- a/mergedODI.xlsx
+++ b/mergedODI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,25 +631,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibrahim Zadran</t>
+          <t>Azmatullah Omarzai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023_216</t>
+          <t>2023_214</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>133.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -658,25 +658,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>41.7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -694,61 +694,61 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="W2" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="n">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
         <v>5</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTERUQEhIVFhUWGBoYFRgYFRUZFhUYFxUXGBUYFxYYHSggGBolGxUYITEhJSktLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABJEAABAwEFBAcFAwgJAwUAAAABAAIDEQQFEiExQVFhcQYHEyIygaFCkbHB0WKi8BQjM1JzgrLhFTVTcpKjs9LxFjTCCCQlY3T/xAAaAQEAAgMBAAAAAAAAAAAAAAAABAUBAgMG/8QANhEAAgECAwUGBQMEAwEAAAAAAAECAxEEITESQVFhcQUygZGh8BOxwdHhFCIzNFKy8UJygiT/2gAMAwEAAhEDEQA/APbKJRVos3BRRKKtEuCjCmFV0SizcFtFXRRRAUqFUQmFARRKIiAIiICEUohghFKlARRERDISiJRAEU4UwoAikBKIClFXRKJcFCKuiJcEqURagIiIAoRSsghFKICFClEBTRKKpRRLgpIUqVRLIGgucQABUkmgAGpJOgWQEXKv6yrpBINujyyNA8jyIbQ+SWbrHup5IFuiBGfexMHveACUB1SLHu+8oZ2dpBKyRn6zHBw9FloCEopUpcFNFKlFgBERAEUogIUooQEooRYBKKUQEIpUIAiIgCIiAIoUrIIRSoQGJeVvigjdNM9rGNFXOcaAfzXgPWR0/kt5MEBdHZRkRo6Wh1fuG5vvWx68emUNoY2w2dxcWSVlcPBkKYa7TXyXnlnuS0uaMFHVGmYPmsNpamVFvQwJbMKZarFfD71uDdlrFcUD92iwmMcXEGNwpr3ScPNE0Zsy3c98T2SQTWaV8TxtadeDho4cCF9EdVHWF/SDHQ2jA20x55ZCVv6wGwimYHNfNrwK0pmNVsuit9yWO1R2qLxRnQjJzTk5p5gkLY1PsVFi3ZbmTwxzxmrJGh7TwcKhZawCFKIgCIiwCFKIgCIiAIiICUREAREQEIpRAQiIgChSiALV9J3OFjtJYaOEMhaRqDgNKLaLHt0eKN7d7HD3tIQHxzYSS5gJrUivJe43NZ24Wu2UC8p6L3V2jmuOjQCeOS7l3SqzwAMc4uIyIbs5lRMQnJpRROwrUE28jtsbeCtyxszOFtTqaDNai6ekljno1szQ46A5H+a2lstEMTC+R4DQdeaiOEk7ExTg87nPX7clmmGbGg7wKFeWdJbk/J5QGmrXAkcKLvr16aWUEiPE/kKc9VoL4mZa2Y48y3UHUb1KoqpB/u0Itf4c1+3U9z6q2EXRY6/2dRTcXEtrxpRdaue6v20uuxjdBH/CF0CmleSiIsAIiIAiKUBClEQBERAEREAREQBERAFClQgCIiALFt9ujiaHSuDQThFa5k7BTzWUub6b2NskLC4VDJA7lkcxxy9VrOWzFs3pxUpqL3nj1gu8NlliZSgkc0EbQHGhHlRY1puSWrmRxxCmjntaS41zzOi213zVtDq1FTXPUjMA+i7GAN2gKFKo1K5YRpLZtwODs3RBpaHPa3EACS0ADFXZQaLfX1ZWyRRRbNvMBbq85gABUCvoBkVr7yZRjHAj36ZLRycmdVCKRyc9yTMNY3MaPaBaPu5Z5cUs93uwukka0OPdNMgRsOi7uGSrG1pmFp75kGHdRbqo20jR0kk2dt1fXr2kDLP2eHsYowDWuKjQHcs/iuuXC9XZGI02RN+I/Hku6UunJyjdlfWgozsuXyCIi6HIIilAEREAREQBERAEREAREQBERAEREAUKVCALBvexdtC6KtCdDuIzHks5Fhq5lO2aPDL/ALHJZ7WztI3MDm0rQ4SWn2XaaErbPtzY2Y3nICvHkup62bJiu90wFXQPbIOVcDvuvJ8l5GLzBaGv0IFOYKiVaOlidSrt3vqZt533LahgbC3CNryB6rWuFtwgENpXOsjSABpTPNbgRWdtJqbMxq33GoBWK297O84Gx0JNMg3dwCR0yR1aW+Xrb6F+x9JXtLY5Y6DSoOgWReTjM9sEfikcGj95wFfVae8pYYoyABV1Drn/ACW86p7MbTbxKQSyBped1TVsY55k/upCmnLaRzq1XFNXPW+j1yiztdUgvdSpAyAGjR7zmtyiKWkkrIgSk5O7CIpWTAREQBERAEREAREQBERAEREAREQBERAEREBCIrVomaxpe40a0Ek7gBUoDUdNWB1gtDTtZT3kL5lvntbO7snDuVqx3D6rvukN9y2y8IXYnCKr6MqQ0NAo2o2mrgf+Fm3xdLZo8LhXyWmJToVdiXDPkdsMlWpbceOR55Yb50AcQNq2JvKJtSwAEUNfLNa63dDJA49k7yP1VqLoZa9pa0b6rR/D4m6+IsrGvtNqMr6CrnOIAA1PL3+i946mLu7Bk7HeI9mXffyXBdGOjrIDi8Tx7RG3gr/SG32iEdpZ3va4ZnA4jEG1NDTVZpyUqkYJ2XFidOSpyk83+T6BRefdWvTc2trYZyO0LcUbtC8DxAj9Ya8c16CpFSnKnLZZDhNTV0SiItDcIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCtTSta0uc4NaMySaADiSuN6U9YcFmJihHbzDIgHuMP2nbeQXk/SLpRarYaTSGlcmN7rBuo3bzNVNoYGpVzeS97iLVxcKeSzfveeq331nWKGojxzu+wKN/xu2cQCvPekHWJabYx8dBFEaVa2tSNznnUcqLkRGWg11O07Fcs0YJDc+8PXUK1pYGlTads+ZX1MXOcXnlyN5dVoGKOQ6DXgu5s4BHA6LyyySGNxY7Q6LbQ9KHQkMa4kbQG4gOHNQ+0uzXXl8SDSlo77/n8vEmYDHqgnTmm46q275e9x1lss1HVCxZA/wUy3pdl8stEYcCMQ8QGzjRZeKuVV5ydOVOThNZo9BGcakVKOjLdjgo1YF4xVz/VNTy2rfxwZUAWm6QyCNhYNXeLgDs80o0Z1qihBZv05vkK1aFGDnN5L3bqchHanQlr43FjgS5pGRaSSRT3r0G4etgtDW2yMuGnasArzczQ+XuXmQYXuJ93JV2uKjW10XsKmFpzgotaKy45Hk415QntJ6u78T6Tue/LPam44JWvG0A94f3mnMLZVXyxY7S+N4fE9zCNC0kEciPgu96P9adpioy0sE7B7Yo2Uc9jvcFWVuz5Rzg7r19+RNpY2Lynk/fke1otN0e6R2e2MxwSB1PE05Pb/AHmnPz0W5UBpp2ZMTTV0ERFgyEREAREQBERAEREARFBNNUBjW62xwsMsrg1jRUkn8VK8i6X9OprTWKGsUByJBPaSDiR4RwCwemfSc2u0uDXfmWHDG3YaavPE/BaOdoNWjUCo+avcHgIxW3UzfDh+SnxWNbexDT5mGWtCpEQ1CyTBXaKhW5oCC2hypmrS2ehW7XMsiKuhNeOik2d2rTmFWxpBOxbqy9G7QQ55jIwtxEHJxaWlwcAdlARzWJSjFfudjZbcn+3M5+2SSHVrRxGv8lTDYsg5pz+PBba0WV7H4JY3MNNHNIPqNFYaBWgTZi8zO3NZWsWrNd5Y8zRvIOtPiDv5L0O6A2SNstAKjMbiNQuLY0jMkK9/S3ZMc3FRrs6DNxyoaDdxVb2jgViIrZspJ+j1+6LHs/HOjJ7Waa05rT7M6O/r+azuRnmRqeDd3NcJe1+VrH2ZdiBDhsFdhdtPJT+W1JyLK7T3nHz0CrZIBQNaCOQ966UMJCjDZp+L3vqc6+KlVntVPBbkYF2CQNAc3TbXXmN6uWyatBTTVZ1olOxYksQJ4qYoNRsiF8VOV2W4ogMwjeAVcbCHErIazu1pzW2zfIORjWeaSJwkjc6N7dHMJB9F7T0B6aC0tFntDgLQBrSgk5bncNq8eiiJzOlKqqzyujdUEhwNQ4HOo0IUTEYWFaPPc+BIoYmVJ8uB9MouZ6C9Ivy2yh7qdqw4JR9oDJwG4jP3rpl5yUXGTi9UX0ZKSugiItTIREQBERAEREAXKdZV6mz2CQtNHyUibv7/AIqfugrq15T14Tu/9swA4Bje47Ae61td2pXfDQU6sU+Jyry2aba4HmEDqE02gj0JHwWxszw6Rjv12+40qR72rU46gEa686Eq7Y5xmK6HGzltHuJXpU1bIotlvPebJstC4H2SQacdFFpjJ0OQp8FbP6Qg6Gh9xV6F5qQusVfUjydtDOuOEOtUYJY3PIuJArsIwg1IOdCKFemF1rbIcXbS0cRkyEBzA1hFA4A1q87csJyXA9HbEHyYnmmECndc4kkjNuHaBXguniMkDjJG6X845ra5YcBcwd3F3hm46ZHJV2MW1O2Wm9cXuZYYN7ML567n7v8AksdKrNKYC+YEhpoztJQXNJIDqDFmctKZVC4JjcLs9F3D/wA49xnDZHgkNL3VNMntxB2ndIbQ7a1XN3xZYxLhjkJGru7ha1x9lo3DRdsK2lsPXXLT35HHEpN7a6Z2v9DWWrJ4IWFLZS/vkmo2cj8FlP8AFQnYT8goja6uzyOzPYpWym8yOptLIp7AUFdDodacCrhswY3tAC7MNbGDQve4EgB2xoDSSfqq7PHWo8/I7Fbvlj2WcPjz7OTvCgNGyMwV94p+8Fwxk3ToynDX8nbCRVSqoz0+eRkXZeBDntfLQgAFsbQxrTU6OILnaakrY4hKNcZpo4d40I8DgA4HnlwVmwRskd272kxPY0NL8JfRrTQVZtyADiOa3rmtfau0aGiJrHDF3mx1oKCrR6cF5KVaoqu0pO91vZ7ydKnDslrY1i87KyvNK2muZxdssZjcCCSw1oTrkaFrhscDl7jtVMcpLfxvW3vOZr2F4BoXinE9n+cPKoafNaYMoCBWh9DlovVYStKrQjJ65+n3PBVYpSt0LzwSAwaanlr9FRO0Vpu156qr8oAo3cM+PBW3toDnntPF2YHz9y77zTcdb1TXr2dv7KvcnaW/vNBc34OHmvb18x3FazFaIJh7ErT5YhX0JX04qHtGNqilxRdYKX7GuAREUAmBERAEREAREQBeOdcN7M/KHWYgh3YNLXZ0xYy5rSBsOHblovY18/8AXMK3o4DXsWedKmnuqpOEipVTjXk1A4+OUFpzzac+Tv5j1VETu9u2t3V9pp4H5rFB0f7Jyd8x81MsRbtqCNm0HdxV4pu2hW7CW828NrDnDZQUzKzrPONhC5ZktHga1rQ7HceBW0s1p2fVdaVbcyNWw/A7q574cxpjq7Ac6NIBrVurqE07ug+ZVy13s41/Ntz4uJpu8S5ezT0/4+pW0gmxDZ72hbulBvasclUmlstl8XrKK0cG11who2AbBXYsICpLjt2k1JWQ5nH730CiJnH4/RbpRWaRpLaeTZgRNrK4fZoOYp81XQEYqUOh18lTZm98mm13suPtN3qbQ0gOGntDJw5+oWyZhxFn1B/FDmFnRkiuQIORBFQQdQeCxrLIC4faG8a67eazWNB2enzBWJWeTMRTTuhd9hiYCI34amuGQHLkQO9t1Cz3vows7ZrWOpiDMTiaVOlAPeVhUA2+tPisa02imn1+CqX2Th3Paz6X/Fy8n25ip4X9NPZtlnZp5O+5pdcixeMoNA0YWNqGjXXUk7XGnw3LUTTgLKtM/wCP+Vob2tGkY1OdeCnylGlBRitNEVVOm6ksy/DaMRrX+SvduScsg31JP1+BWts0OQAOuv1WwiIpX2G6faP49FrFt6neaitDJjjq5jd2Z4VOdeQX05Z3Va07wPgvnfokzFIZHlgDKvc1xAxs8DgK6ZPJ/dX0Hd7qxRkaFjSOWEKp7SknNE/AxaizKREVaTgiIgCIiAIiICCvn7rmdS83PGrGxH0z9CvoEr5860z/APLTVGQDAeIMTVNwCvV8CNinamctIxrHEkfmZd3sHYQrcUWEmN2lasPy81k2RtWPs7qHBm3iw6euSsQu7uB2dPD9DxV5bP34rpcqb3XvwfW2viYN4tAo5opnnw2FTZxUjP8AHmVN4P7hbt2cc/irl3DKv4+ChSqJYhU+Kv5f6LCnRcsLKrfutLrey9Lm9uSwumlZC0gOeaCtKeeu5dN0auF0rpmOmZD2BAeXOAFS4t2Upm3bvWp6E/8Aewb6up4dQ11NldV2lnsjRJajanOhZLBDK93tMdiaCAKH2wd+q71K0otxT3Ldd962m/IiQoqa2mt75br69feRj2W42Omla+0s7GENL5Q7u97QDZWvFU2u4uzdaO/ibHG2VjhjIka40G3LbpuWJL2X5JK2GRzonWqNuN2KuHB4nZDQ1NOC3tnsMFnZP2sr54XQQ94Y8RD5HYGszyFGg5LR1Zp3u+Fra931d9OGRuqUbaLje/X0VtTUWToqwmVtSS2ztm0PjeA7DmcxkdM8lRB0bD4IZ6luOcxP7p7rXGjTSu/4hdnYLC508zo2jCZIWOrX9G2DMZnM98LEuKz/AJhtkI1fKW91w78Mkb268jzXNYqdr7X9vgtl39czd4aG13f7v8lb0OQu3opLJUCVgDaOBeaAlz3tawAjM1Y5U3f0ctUrS5kbSA5zCKsDg5hodo2hdNb3sYWMlxCImZkj2hxMTo7QTFIcjkCTrlmuYjbPA68HmVxcI8TXtcBUvlYQ4YaUqM/NdlXqyu01yuudt3rvWWTuc3h6d0mnzz32vv8Afkay0PlZjxscBG7A81OFrv1STlXzWstUvDPXQZ+YXW3kC66mt1llcyd3ixOxSFoJrXc33qnpXYGxwNLTUtgbCT3csEjhJrtLqD3rb9Q72tvt8s/U0/TJJu+iv+DhZ8R09a09Vppml8udAG5cN63BjwjUEc2laO2Dvg7Cfx8FwrztOK43y6EvC0XKlUmv+Nlfrf7LzNoyMFuopuBBrzp8FehjLjRwoB6fzVqyR0GufoP5rNNMOGuup/H41U5LK5XTlZ2RZxVJIPLkNF9KdGn1sdmdvhjP+W1fN7mAVK+iuhv9X2X9hH/AFVdpK0Y35k7AO7lbkbpERVJZhERAEREARFCAFfPvW+T/AEnLT9WP+AL6CK+e+tlxN6zU0DYxzOAH5qbgf5fB/QjYvueJzMjT3J27MnU2j2gfLPyV2Zod3m5tdnkpu46scRR3EZFY5spjJbjNNhYdm0FXy4rfr796FNvtfNadPwy9dt1tnmbBLibixUcKVJDHFgz0q7CDzWtu59AOPPZyXQ9C7ujlt0TX43jvvb3j4o43PbXhUBc7YWZtB4b943KnxE3DFwaXLzdj0OApKpg66lolfhms/odT0fvBsFojlcTRta0NTm0jIU3lb/8A6ga6yOZJI90zoyyprqJg9udP1eC5RjTWpruH6RZU79lTl9qQ+lFbOlGTu+XpcolUlFWRueil6xs7SG0RukgkoXAYy5rm5tI/5WzvW+2TB8bIy0F0QYA19BHEHAA0251yXL2JmWYP+GRZtlizrQ79JCsulDb2t/vdpuV+I+JPZ2d3+/uzo71v7tTiia9lHl5q12ZOAN0I9lgCybVfzTPFJHGRglfLm05iTDiAodcne8Lmo4sj3fuSf7lckio5pw/5cn+5c/g00lHw88jLrTd299vTM6Vt/R9s4SMd2UpmD2kOHdkwmgp7QIJ+C0963vDKLTZmAsaY4ooy7xERvaQ52IbqipOwLGtFnOwZ6ijJB64lqbyqC2UA/qvFJBlxNFmFCF7rl6O/vkbSrzaa95q3vnmdTd/SSN0z7A1sfZMYOxkzaSYWte0EnYXMOWSwL/tjW2JkeIF8kslc9A17nbRtLguTvSDSVuZGvhz4gChorlcQDhUA6HvAA7d61/Swi01yfkrfa/Q2eIlKLT3+/fUw7W7It5+1XhuWNel2sFks9oz7R00rCa5FjGxFuW+r3LKt7jTPjtdz2jgt5fFlA6P2Z5HeNqdTLYWuaanZ4PQKvxj/APpguXzbLbBq3Z9SXGdvKJycb6VrotiIyQ0cKu+XosKyMBOI0oNOK2AfQE1zdkAraKyKCbtKyLD60O5fRnRD/sLJT+wi/wBNq+c53kUB5+WxfQnQGTFdtlP/ANQHuqPkqztS2zHr9Cd2fe7udCiIqctAiIgCKEQBERACvnnrbYDe8sRzxMjcOBwUp931X0LVeCdbVhcLye890vDTGT7TWtaDTiHD4b1MwKvV8PPTIjYp2p+8jinWNppQUO8K4YwcgAHj2gciVXJZXvFWN5jjtoseV5bk7DXaBr5q9aSzsVSblkmdx1SsBtM7sAq2zyd7Y0mgqOei8+sBJJG7L5L1bqKjDnWsnaxjacKvqV5zeFgdZ7RLC/xRvc13GjqNPmKHzXn8bUcMQp8LfT6XPU9jUI1qM6LdtpP5NejaZsrKK50y5P1PEEq7ICTTP/MPoVTd8OFoBGep7pOvFpV+KOrtPuuPxK9JHieUZkxR02fcf8is6Gy0bpn/AHZPqsezw65fdd8nLLYRu+6/6o2LcipkIp4fuSfVVWmzigOH7j/qjGDd9x/1V2SMHKn3H/VaXzM7OWiKhACB3fuP/wBy19psozaW5O+y/I/4lnwju6afYd/uWNPGDXL7jvqsJ5mXHkjSWWoxRPrUZaVJbs8YoAOawrMzC50dOLcq/wALlnW+MtcJANMj3Xivqsa8WeGYbNagDLgDQrrqaosXg00FfKtdgO9dr0jiI6M2bShkY52Web3kU3Z0XB3m/MU0qBpTWvFex9KLqH/T3ZOBBjgjeKbJG4Xe7ET5KgxU74tctlfX6noqUXDs2N33pSfl+36eR4lZnCmGvlTJZ0MeKhoeHzWthaTSuTuOVeRWe1ktBQ0HvV3DNaHnKmTydiJpQ559w4AL6E6voy27bKD/AGQPvJI9CvnyWOgplU65jLyX0rchZ+TQ9nTB2TMNNMOAUp5Kt7UbUYrm/fqTuz0rtrgjYIiKnLMIiICEREAQoiAFeJ9fv6aH9n/5lEUvB/y+D+Rxr91dUefWD9CVqpPCoRXE+6ujK2HffU9V/wDT9+km/Zn/AFAud6xP63n/AGjP4WoiosX/ACr/AM/JHpOxu9P/AKy/yMZniPmoh8SIvUR1Z49d02Vi0KuRbERYWpmOplt0UyfJEWI6mxEe1WZERbbgzXW3wHmqIv0Z/uuRFgxE1MmkPJvzX0H01/qq0fsfopRedxH9Y+qPUS/oKHSfzPnK06NV6X9GiK/3s82tEYFi8a+oehn9X2T/APPF/ptRFUY/ux6sscN3n0N0pRFWE0IiID//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhURERMVFRUWFhcYFxYXFRUXFRcYGBUXFxcXFRcYHSggGB0lGxUaITEhJikrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQ8AugMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYHAgj/xABJEAACAQIDBAYFCAYKAQUBAAABAgADEQQSIQUxQVEGEyJhcYEHkaGxwRQyQlJyktHwYmOCssLhIyRDU6Kjs9Li8ZMVJXOD0wj/xAAbAQEAAgMBAQAAAAAAAAAAAAAABAUBAgMGB//EADERAAIBAgMFBwQCAwEAAAAAAAABAgMRBCExBRJBYfAiUXGBobHBEzKR0eHxFCMzQv/aAAwDAQACEQMRAD8A7jCEIAkIsSAEIQgBCJFmQJCLEMAITlnSz0yYeiWpYFRiHFwapNqAP6NtanlYciZgq3pc2qST1tNR+hRTKPDNc+2YM2PpCE4bsL004hBbF0ErD69Mim48VN1byyzofRH0h4PaDdWmalW/uqgALDmjAlW8L37oFjXxYQmTAQhCYAQhCAEIsIAkIsIAQhCAEIQgBEiwgCQhCAJOZ+nTpQMLgvkqMRVxV104UhbrCTwzXCeDNynTZ89//wBBJm2lQBvb5Kmn/wB1YH4QZSucuoDN5d/u7o+g8fYR75rOjfRRL5qhzDSw3Ddy4fymsw3Q2jmBItrewY2PIAcvG84SxEU7EmOFm1c5lQwtW2YU2K20PMbjod/H8ZCw+NrUaiujMhRgVIJuPAzsm0dkKqkAsOYGXXx0vMdtzDotNrC+nibTSGIu7WOk8Luxvc+i+juKarhaFVmVy9JGLLua6g3FpZTIeiapm2ThNb2V1HgtV1HsE18lEEIQiwAhCEAIQhACEIQAhCEAIQhACEIQAiRYkAJwv0xGlXxmExNFxUTK1F7blZKhYb+BzNru7M7pOGdLcF1eZTZbOxZbbyrLY+oEzlVnay7yRQpqV33FMcTXogtTtfKW1S9lFrnfL/o9trFMy08QiHMoZXUWFiL2bkbSfswU6lJQygkW8vAx+jhV60Ko0APrI99pDck1a2ZYRi73vkZzpDt/E3YUVVUXeStydQOzr3++UGL6x0Z6hBIBuAoA1W44+E2mEwSszBt9yRw333Sv23RQJ1YAFzb1m02jJZK2ZrOLV3c3nooxVJcDQwi5usp0g73UgZqjF2APGzP7Rvm6mH9HuEAarUF8oCoCeJOp9ir65uJMpyco3ZXVoKE3FBCEJucghCEAIQhACEIQAhCEAIQhACEIQAhCEASZjpb0VpYunUN2VyjfNt2iFOW9weNt008JhpPUypNaHz70Z2oer1GYgaDx3e+WNVTiWzAVEdAfmgUzoNxLMCwmLrYxsNjHCnKvWGw4Wzm1pt8PtFaoGWplNtxsfYd8h1IbsrllSkpLdb0IVUVaDFFBZjqb5G1GtyUJt5x3ZNH5btChh3uFPbexsRlp9Zx/SyjzkXbG2Uoo9nu9rA2H/UmegZDUxlau+p6llUnW39Il7eweU3pQu95nPETst1M7Vs/A06CCnTFgNeZJ4kniZLhCSlkQG76hCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQiEzIbe9ImBw11D9fUH0KVmt4uTlHrv3TaEJTdoq5rKSirt2NfOTekX0gYqkz0cCQpVurz5VdmcHK1gwKgA3G7heVmO9JeLxTFKWWhTKnRCWqnxqcOfZAPfMnha5YHNcsrkknUnW9yeJlnSwE4wlOSu7Oy59acyFUxcHOMU7K6u+XWpJx+wvlVEN9PU5uNzqfK8osL0cxe5awUDmTflyM32yeyAOBEknDrmJnm1WlHI9HKjGWbOcnotWZgtaqWHcJqdkbYqbNrUzQCgEdWUIuCvzrE7wTl3y1ejYlrTP7WoXqIeRJ9hHx9klYSUquIhFq+env6EbFwjTw82sstfb1O/bF2mmKoJXp/NcbuKkGzKe8EEeUsJ8zUOkmMwjkYXEPTF75b3Qk77owK3032m56P+l97hMZRDfp0tG+4xs3kR4S0rYCpFvczXqVNPFxcVvZM7BCUewulOExmmHrBmtcowKVAOeVrEjvFxLyQZRcXZolJpq6CEITBkIQhACEIQAhCEAIQhACUnSzbq4LDPiCuYiwRL5c7HcL2NtASdNwMu5xL0l9IPlGM6lT/AEVAlO41Ppt32Iy+R5yRhaH1qii9OJwxNb6VNyWvAo9v9K8bjiRWqZaZ/sqd1p2/S1u3mfVKanQO7KLcvzxjiVWAIvpfj9W/A926SKdMlRl8Z6WlShCNorIoKtWUneTIuEpqHV0tcGxXxFr+2O1bU6hc/NI1jqYY1dEVus3DKCWJ5ADfJNXYWLpgM9AP2Qc6qWGU3yktqADY8Zs2o5N267jMd6Wib4dMb2R0nAJR1ZQCbEgkZQBbVRoe6abZ+0cPijlpPZwLlWDKfEBgLjwmRKa2CDXkZJwtHKym2V1bMDfcBrc8tLyrxeyqdZOSylnmlq+dsvRMssJtWdJqLzjlk3fLk9fK9jV7TdaYC/Obfb8ZjOlFZzlam4V76gAEEW0BHC0MXtI1GazFwDw0XvJ4tI3yfORlNzuCgeoATfB7PhQhZZyestPxy6ZrjNoTrTvLKK0j++fSK7UjM+jX1tu3EaHlJNDLvtblJtPZpcnK6mxylbl7N9UlAQD3XvPNbDGnbMNNbEaqbaGx566jeJKp1KUpbsZJtc036M4VqNaMFOUJJPR2aXlkR6WcEMrFGU3VlNiCOII3GdF6C+kSstQUMe+ek1lWsQAyNew6wj5ynmdRvOm7C0EGYi3AxjEUyGIHM+dt8V8PCpG0l+zlRxEoO8f4PqKExXos22cTgwjm9SgerJO8ra9Nj5dn9gzazzVSDhJxfAv4TU4qS4hCEJobBCEIAQhCAEIQgFR0r2p8lwlavxRDl+23ZT/ERPnNCSL3uQSRc3JIF9fuTq3ps2pkoU8OD85jUb7KaC/iWJ/YnJmOViBwvu3kjd6xf1y72dT3ae8+Ptp+yqxs96e6uHvr+h5a+o00YAj3e0FPvGSlplbFTofx4yleplUi57F3U8xvAHrEtaVYtwuPzqJZwlfrruK6rG2nXSNX0QOWrWdapov1bZGyqUU5ToxYnKDxspOm8W12GMe9O9SuppkEhEZqtQ02tYGn2bgi28aZjuBsMz0Vp01oseySb5wVbsgiw7RIQGwJF+drjWP43H0la/WXs+ZbHVeyENhTGQaANqdTwPGBXhv1XZel+C6X8k6hNQoq74d9uL5/n3MttBGpvcqVY65SoU6k/RG7w4WtIFax3sO184k2zW4eG6W+2Mb1pWw7I3dkKbm2YnUnkBcmwkPDnUAm3LdrcaXv4SwinureVmQG0pPdeRCpUgDpx3W3abx4Ee6FRwlOq/aGUKCVHaVXqU6dQr35HYecmYlOW9TfhwseHcTFZdb2uGUggg2ZSLMDbmDMVqbqU5QXFMxRqKnUjN8GPbBwfX1erFQpTGQgIUIAKAZUKEgAOcuuupJAN48tINRUue1UzjcQG6sdnuJDW14AsL62jGEoIKYpGqCqk9WtRmVkBvdQyqVI7+z4aRzH4gE/OViENNQgIVFIsxN1GZrEru777hPM0cHiFiF2Ws9bZarjpw4M9btHG4aez6SjOLd/tTV1ZSvlrndXussu8qVUg3XuPlc3kZH1N+Nz95gI/UfV+QHu/nIFFuzrvI87C9vz3T0tR5nlaUcjeehrHFMa1K+lWk1x+khDKfVn9c7dPn/0e9naFJwSQmpsbGxARjrvF2N+4HlPoCUG0I2q+RdYJt0/MIQhIJLCEIQAhCEAIQlZ0h2j8mw1WvlLGmhIABJJ3Lu4XIueAuZlJt2Rhu2ZyD0j9I0rVK1IKTkqqqm91IprUV9DoDnbTTnrrMXUpZ7a2J0B/WJu9dvdGqzlrl73Yklt+pJJJA1GpMZpE6qTo1tRqM491xb1T0tKEacdy39lHUk6kt+/9fwNY0EhiN+ot3gdtP4hzBkzZ2J7KnfcD87o3XcEEsNfpd44OPD8RyjGyCCgHIcBy8oT3amT1XyZa3qea0fx/BpsLXv+b+y590sANL7vZ75WbGwjVS6pa6IzkEnVU3gC5u2vETRUtn0koU6vygdbVA6uj1banrDT1dbAbjvtund1o6Xz04+PDT2I6oS1tl5eHF9+XeVdaloT5c/5aePOMva5IO5VI1HBj+lNficDg85pU2arUpCsjqdc1VaLEMmUE2Dgix9vFrFbMTqqpCFWX5NcHOCA1L+kBBNxd3BOgnNYiLtzty1djr/jSSbuuPPRXftYzr6tca6X3/gY4MLoNN27Q7vVNbi9hUkr1UyXXM5p6topwteoF8qiH7vlI+PGCodWj0qgtkuQCflCNTJLoSuUZXsLAjf5TVYpStupu6v1n14JszLByjdtoydWlb8295lfiWt+f+5udsbLw5fErRZ1GHpsXzMtjUFyqjKRpZW3i+kym2Njmkqux+ctNgMuvbQsRe30bAb/AKU2jiItK3V1f2ZpLDSTv11dMo672Q94tpbifGM4ZN7HXj3G3D2W/wC4m2KtgqX3nx0A8TzjdHVd2m6/D8j8Jje7Vu4yo9i/eS6TlBmGjDthhoQw1BHfxn0j0fx/yjDUK/8AeUkc9xZQSPXPmxKRYMBqTYAf9+PtnfPR1gcRQwSUMUmR6bOFGZWJQsWUnKSAe0RbkBK7aaW7Fk7A/dJGphCEqCyCEIQAhEhAFiQiQDinpa2Wn/qFMU7Uw1AM2RVAZusftNpqdBrv0mWbo++9Tm+z2W9R/Gbf0pNfaVMcsMntq1fwlfg900/z69CVovLuea/a8miTDA0a0LyWfesn+n5pmH2hg6iDtr5lSP5yt2cjUy9N1KsrspUjVSCQQQRoRunSHXPWo0/r1aa/ecD4zF9MqLJtHF6dk4qsQftVWb4yXHacqkozkrWeefBo509kq06cG3eN1lxTyvb8XsXXQpyMUG6xECozMXayZRa4btaA6Ddxl5tWuuGw1lpU6gFVhRrEXK0myVkKG3ElgdfozE4bGsqvla2ZShG+4YgkasSNw1AkkVahWnSZmyLqFJOUWvawKrbVm4/SPOXf0t6e9wy9Cj+ruxtbPPrP1Oj9Z1VM1VNNTWaviKLi3WZXw9Qm51PZeplA5jcY/RxiOKtKpZ6lWiGNYtftJTSyHsWuWo3111FhrOcL2mOtwotz+LSeBlJIG7LwHL/4zCwqXHPq3Wj7hLEt8OuPXA6FtLHUySSy9nE1LEnQ06lHE2IJFiL1WGmnaGutjmdtKFo0qPXCoj1qbUFvd6SFCKiv2Rl7TAAHl5CqrHOhFu/5o/8AxlTjqWma2630bbx3ION+MLDpO9+uv0HiG9Ub3F0xVXEAM2etWrZLEZMhr0qBZtSeyWa24WLaSk6XYlaqYWqugZapHci1MtPeBbsjmJm8LWJTRiLXGjHS+v8AeTy1ZigDE2QFV/RBJay9kWFyTvmqobkt5vTP0sZlWdROKjm/3crNrYSs1SlUCE03zqjXFiyFc43m1gy93a04y52fsGoQC5t7fd+M0G2sFk2Zs6pbVq9U+VQOR7KaxcM2ko6+06sW/p2SeemfLl6F1S2ZS+2pduOTzyutdM/UpFwIWtRW5OatTHmXUbhPo2cBrD+sYc/r6P8AqLO/SNTqTqXlNtvmb16cKdowSS5BCEJ0OAQhCAJCJeF5kCwvPN55zQDkvpITNtMd2Hpj/HVPxlc7ZRJ/Sa77TxJP0TTUeAoofeT65X7VXS0rqrvNlrQVqaH+itLrcfhxwD5z+wpf3qJl/SbhSNoYgrp2wWHMMoYH2zc+jOhbGsW3ig5H/kpC/qPtmJ9I+0Ot2liCTorZB3Cl2T49pD6510p+fwStn9rFST03PlMoaSnspvv2jx/EbgOEs8OLEtusPD4L+RIGxUNTM5HcPCWVbsqFG9tTaw8NxHunsqMVGEYp3SSz+TxGIk51JSatdt27ru9vgewY014nifxJlg9MEnQHTkD/AAmRaIsBr7f+UnWueB07j8WnVnDUhottMv8AhH+yeTRBFrcCNw4a/Vj2LoW1AHdp/wAI1RbQ34a8PAwLFbs9rFkPv5ftTxWFg/MEHd4g627+ceIy1f5/zEXqBUxNKmSFFV1Qtp2czhb8d177+EjYz/jPwfsTtnS3cXSla9pRfknn+Fn5HSemGAI2FhSw1ojCuRyLKKR/1TMfga+gE6307oA7NxKgaLRJA+xZh+7OOYakAaZU3Bnk68dC/wAPK6b5+5N2pSIUMu9SGHiDce2dx2djFrUqdZPm1EVx4MAfjOPYpAU15Tono4cnZ1C/DrV8lrVFHsAmMM9UYxayTNNCJFkohBCEIA1eF43niZpuYHbxLxrNDPFgcf2pjlqbRxZG7rcv/jRaZ9qmMY0yj2NW62pUrf3js/32LfGXWJbSVknebZcUlaCRo/R2f6xXrtotOjYn7TBvYKRnJMTevVZmJylzpxJZidfXOw9BcL1uBxaDQ1DUp38aIA9rTkWEZcwtxtYeGk7uL3Ypcfcn7J+m6lWU9Fa/gt754eBf0KSqgIsAfDcNDx/N5BpMalS/DxP+6e67NUK0E4DtHWwtw3ywweDFMaG/f+TPZwioR3VorJeCyR89qVJVZOpLVtt+LzfqwB13+3/nJaG7DX2/8jI+bX+Z/GTaQNx+fjDMITGUAy3AHq5eRlJQbK+U6X0/O6aYLoe4+z2yk25gytqi8PzymI9wfeQcclmU/snX+YkPFUDdkF7r26Z14bwDf82lu9Lrk0OpFx9oc/GQsYjZBUtZ6e/y3zStTVWDhLjl17nbD15UKsasdU7+PLzWR3Bqvy7ZZI+diMI3k7UiCPJr+qcY2NVz5T3X9c6v6LsWlXZ1NUIJRqiMPqkuWt6nHrnJujy205aeqeSq6I9NSio1JxWif7NBjXAp+U6D6LqubZtHuasP8+p+M5vj/mGb70RvfZy91Wt+/f4znh9Ri/tXibaES8W8lkAIQheAV/WQzyKKkXNO1jBJzxrFP2G+y3uM8Z4ha4tziwOCdGTYL9kS/wAW3ZMoti0svYO9GK/dNj7pcbReyyoazLiOaL7ZPSens7Z3WEB6lWrUKJewOUhCzHgoK+e7vHNqOKD1GqsEVmYsqqMqKWJa4B3AX0Ea2rtAuVUbqdIJccPpuPHO5k7YuxaLrmZ2N9AeenH1y0wH+zERi1dLP8aP8muNp/QwE6sHaU7JvlJ3svLV+OZZYHq1GRSLnVje5MmGv2d1uQhQ6PUxY0nt331ks7IYm5YH2T0zknqeO3WV6tLXCG9j3SJiNnuutrju4STs4HlEndGVqOjFXuLEMOEj1buCCNCLSwxGEzWZTZh7e4xqrTKgE8tw1sZorcDZ3WpnMGerYod19PGPYlb5ltqynz0tJG0MOr6/NbnY2PjaN0UcCzgG25hqP5GdHzNESvRFthsNjThmv1eIJA5BwSVPn2l8xykXB08lasn1K1Vfu1GHwj3RzZubaWGIH9oH378l3P7vtj22KPV7Rxafri3/AJAKn8c8hiKMqV4Pg/TgeznXp15xrQ/9xTa7ndpryat4WGtrv/RmdH9FNPLs2kfrPVP+a4HsE5jttuz5Tr3Qqh1eAwyHQ9ShPiwzn2tNMOtSJi3oi/vDNG88W8lkM95ot41nhngwUIqRRUkQVIoqTqYJgqQzyKHi54sDk9en1eMxKfr6hH7TFv4o9tNSyhBvawHidB7556Rrl2jiO8o3rppHUN6mHH66kP8AMWVc1/stz+S0hK1O/IgdM9jUqOOqJRU2Kq7AOAQz3LIqn5w3Nv0zW4RcG1CkgDGoNxI6tjqR+jflaJt6p1mOxTnUdcV71yKKYt5JI2e2gFuV+HeeU9PgsHCP+xate5QY/alepBYeVnGLyyz0tm+Ns+fe2SqmPw/Co4/YqD4SM20hfs4iuvhRJ96zxfjz3D4mJUUbgNecsdx95VfW7kOvtiqNFr1G+2lMe439kYpbXxS7qtPX9Vr+/PVh+TPDrpumFTRh1mx4bVxTf25H2UA9943WxOIb52IqnwZV/dE83AF7ernwim5F+ImfpofWkeEZx/aVD41KnwYR2nUq8areGnva5PrjasTrHVj6cTH1ZvK5Z7CxRp4mjWv82olyTwzANr9kmX3Tmnl2ix+vSpse8jMnuQTHo2tuc0e2Md8ofDVTq3ycI545kqVFJPjv85S7Xp9nf8i52TVvPcfj7XKjb5JGUbzoPPSd2oKFVVH0QB6hacLcZ8VQTnXpDyNRb+ydvzypwq7LLTFvtIk54meR88TPJViKSc8TPIxeJmiwM4KkcWrIQee1ebmCcKkXPIYees8AwnS1f6655on7tvhPFM26tvq1EbyDA/Ce+m9O2JVr/OpD1qzfAj1TxQpkp+fzxlXX7NRvmWdDOnbkUleoKletVGmaq7eTOWHj86e7A8dN55nx/CM4nD9VUYN802seY5eMUG+lrDf/ADM9lhpxlBSjozx2JhKE3GWqHA30ueiiNFtfzvM9s/HyHhGhvkkjDn/US+ntni8RoAitrFL28TPOa2p3TygJOY6DhMGbD6844I1RfhwjkyDyTxkzYKlnqPfs5wo5fMW9pFyEkKNSd00GBwApIEGtrknmx1J9sods1oxpqnxbv5L+S92NRcqjqcEreb/gi7IXNj8OP1qn1a/Cdjzzk/RCjm2il/oJUf2Zf4p0/PK3DrsFjiX2yRnnkvGs08Fp3sRx4vEzxktEzRYGbDR1WkcRwGbsD4aKGjF56BmAYzprXviqa8qQP3nb/bJeAAyiVfTLTGISbXpJb77A+0+0SdgMQuqE6qPhKvEfeyzw32Ij7Zp3BFhde0Pz4XlHSYn3ky6ri5q66gL7Rwmeo1biw3DeZebFm9yUHwa9f6KTbdNb8Z96a/Fv2Sma5vy3RsGIpnkGXxQWPZMbqVbTzUqyDXrEzSUraHSFPeZMSuCb2J90fVC2rEAcpV08v0ifI/hHkp0vrv53M1Uurm8oJPL2LC6bifMRxSODAyLSRRuN/X8RHlYcJ0uzm0kWmxFBd2P0dB4nU+y0uw4K5hKHYdULTrVTrYsR+yoH8Jk3Z+JthKTtoWpqbAk7wCPOeNx8nUxE3zsey2fBQw8I8r/nP5J3Qo/+4Nb+5f8AeSdGvOe9A8OxxL1eC0rN3M7AgepT6pv7ztQ+xEfEf9GeiYhMSJOxxFvC88wmQZ6LPeWGWAebxRC0IBivSRhRanVa+UdnMN6nNcH1XP7IlNhKui1CbsjZKnIg/Nb12+9Oi7RwKV6bUaoujix59xB4EGYHaHRTEYVKtQVFq0ra8KqoALORuJW2v2Qe6Ra1Jt3RIo1UsmWVPL14pu4QVkBRj9ZDZlN9NzKfXKDGYdqTlG5XUgWVlubMvMG0dweL60dU7L1i9qjUGgPhf1EHcbd0TG7Qetl6wLdbgEKFNtNDbTTh4yfsiLTbT5P4fwQ9rzTik1zT918jKvpEapwAuZ5nio53CXt8ihSzG6x+sbnlwH4yJWMkFbS46KbETGVKlJ72FF2FiRZrqEOm+xa9uNpwqy3YuRKpRvJJFBRdbAspt9YaiTKVRODjzkPZlS6gj9od/OWK0b6gD1A++dKd2ro51naTTFDjmDHFMZuOa+QntnsLnh3Trc4NFngatKrhhhqCua9Qla11IFOmXJqNc6biQLcSJbV6iZjlAyUwFQDcWOigeA+EoaG1KdOkBT+dUUNUYauf0ByA3a+M1Po+2amI6yrWTsoQEpnVASCWZh9I7t+ms8lVoyqTcoJ7t9Xxb6+eJ66FdQioytvW0XBd3lfXyNN0OwJp0SxFjUOYfZsAp89W/al5FtC07xjuqxGk7u4kJ6tEtMmohiRbRbTIKbLEKx+0TJAI5WGWSMkOrgEa0Y2hh89KpT+sjr95SPjJ/Vz0tKAcA2XVcDfyI33U81lmjX14yNWo5HZB9FmUfssR8I6pMtMNCKV0tdSrxUpOW63pdIfLQIiAxWMmkIZqGb70W4UgVq3Mqg8rs3vWYBjOwdCcF1eDpc2Gc+La+6w8pCxs7U7d5Owkbzv3HIdqYY0MZiaW4LWe32SxZf8ACRPKMXOp05bry79JGEybRYj+1p03PjY0z/pykpVBy0G4cz3zfDO9NDEq03YkqNNL+y09xsHn/Ke7yYQWeVtuAtOoejWlbD1Dzqn2U6f4mcupi7TrXQBf6oD9arUPqOX+GV2OfYXiT8DHtN8vlGjtC09WgBKwsjzaLaLaEA82iWnuJAP/2Q==</t>
         </is>
       </c>
     </row>
@@ -758,124 +758,124 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ikram Alikhil</t>
+          <t>Fareed Ahmad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023_214</t>
+          <t>2023_216</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Wicketkeeper Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgSEhYYGBgaGBoYGBgaGhgZGhwcGBkZGhoZHBgcIS4lHB4rIRoYJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJCw0ND00NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND00NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQYAwAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIEBQYDBwj/xABAEAACAQIDBQUFBwMCBQUAAAABAgADEQQSIQUxQVFhBiJxgZETMkKhsQcUUmJywdGC4fAjkhUWM8LxRGODk6L/xAAaAQACAwEBAAAAAAAAAAAAAAAAAgEDBAUG/8QAKhEAAwACAQMDBQABBQAAAAAAAAECAxEhBBIxEyJBBTJRYXGRFDNCocH/2gAMAwEAAhEDEQA/APVoRITEWiwiQgAsIQEYAEWEIAKIsibR2jSw6GrWYIg3k/IAcT0E8m7SfanVclMIoRNwc95yOdtyw/gaPXcRjadP/qOifqZV+pldi+1GEpjM1dD+g5z6Le0+da20XqMXqMWY72a5PqYntjzk9tDJSfQWC7aYKqyotWzMbDMrKL8rkWmgM+XRiSCLmehfZ/27ZHXC4t7oxsjsfcJ3Ak/D9JGmgaXwevGIYt4GQxRpiRTEkAES8IkCRbxIRJACwiXheAHWEISSAhCEACKIkUQAWRNq49cPReu+oRC1t17cLndJYnkX2ndohUf7rRqlkH/UUAZc6nQBt7W48L2jEpbMr2s7UV8a49owCAkoi+6t/qbcT8pQLTA6xxYDXSM9pLJWkD0DuN1vCcsplng9jV62qLYcCZPfsfXHvMPnB5IXDZPp0/gzjNzMazTVp2Ma13ac17Oop7xJi+tAywWep/Zp2hSvhKVKpUQ1lzJkLjOyoTlOUm57ltek2k+asSrYSulWixUqcyMOBHDqOY4gz6H2Jj/vGHpYi1vaIj25FlBIkPnleBHLl6ZMMbHGNisBIkCYhiki3iXiQgAsS8ISAO8IkIwosIQgARREiiACifN3a6on33ElLZfbOABu0Yg28wZ9IieFfaT2aXC4oVEPcxGdwv4WBGceBLAjxMsnyBQbA2M+JfIGCDmRf5Tf7M7BYamQ9QtUYa97Rb/pEpOxuFY1O4NxUnoNZ6O72lGTJW9I1RCS5IL0ETRQB4aSPU1k5qiEe8D4ESK7LffvmdovRAxgNt0zeJbvGanH4lFW7EDzmMxe16BYjNx4aiNMtvgZ0kuSr7QrdV6Ez2n7P8Tn2dhW5U8n/wBZKf8AbPHsdTSpSdkINgWBHThPUPsmqltm0wfhqVVHhnLf9xmuPs0Yc33bNiYwzoZzMUrEMbFiGQSEIQkAEIQgB2hEixhQixIQJFixsWBA4TzH7ZVVlw7hlOR3RgCCVzhWFxwHcM9NE87xFBLV/bkMqVHBz97ukk5R8pDvt0W48fdsgdggBQZxvLG58Bp+859pMUD/ANZ2RCbIi726kb9TJ3ZHBezpOnAVnA8AQB8pOxuyVY58oJta7a/+JRT9xplcaPM8fQKOaaJWRwCSM43Lv08jL3sjhHqXtUfQbmJP1k/Edm2die4l95Fzp8rzSbC2OlBbJc82PH03RqtOdIlT28nmXaqnVWqKVQk3OnASsCZcyBE7oJJJuTY2tccek9C7dbODlWtuvqN8zybJJUd828NY8ZEp0RWN09lXsunmFQKCMyN3eRsbTZfZdt16YpYHICrs7ZtcwJBa++1rKBbrKnDUBTcW8DeTOxVMjHUwg0V6g/pyuP2tJm97EvGvn8HsJjDHmMMdmUaY0x0aYpIQgISACEIQA6whCMQEIQgAsURsUQIHTF9qtik5vZm3tGD2O7Ot7i/UfSbQThjsMKilDx3eMip7kWYr7a2YDZWJtia1JtC2SoF6lQr256rfzmlNrTD9pcM+Gxi1GIBanmUqSR3SVsSRqdBfxlvhtsCumhytuI/iUVufJplqnwO2jtVVb2dOxb6SywWJRVXO4uRcgnW56TzaltZxiHRVQnNYZyBuHXeZI2phMfVIZLi3woKgvqeS67jJUPfI9UtcGk7WY1AVGYW6kD6zPYfFKHKIcyfCb3t0vM7tXD4okCocxAsTuOm+97GRKOOenZWXS8sWLjhirLp6aNdUe7eGsuvsrAaq78fZsSDvu7rqOlrzGbQ2jkUfiI/wz2LsXsijQw1KpTTK9SlTZySSSSgJGu4XJ0EIjS2Jmtco0DRhjmjTLGZRpiRTEikhCEJABCEIAdYQhGICEIQAIoiRRAgcIoiCKIyA84+1ygwGHrKNFzox/VkIv00Mwmy9qFGTXTjflPY+2NNXpqjgEEsCD4CeG7YwLYdymuQm6N05HrE9tNyy+G1Ko12ytmU6j1KjqDmfNY7xyPQy52hjmw2VvvToNLBwrqbEnUlb/EdbzF9nNuZHs+46H+ZodpY6jVTKzBhwBlTVTXJoVTS4KvanaBqn/qQSb7kQe91tKZ6ChXZzdmuSTxJ1kt8NTU5iFvvuBa1/GU+19oKRkTdxMslbekLVKZ29BhqDYzE08Ol7u6oLcF+JvJQx8p9JUqYRVRRZVUKo5BRYD0E80+yjsm1Mff8AELZ3W1FTvVWGrkcCw0HIX5z00y2tLhGNt09saTGxY2ISBiQhIAIQhIAIQhADpFiRYxAQhCABHRBHWgQccVXFNHqNuRSx8FF55tj/ALV2puV+6acCatrjnok1/bXGZMMUHvVDl/pGrfQDznk20cIrizAGxv6Tbhwd0Oii8vbWjbr2ibGqlRk9n3bhM2bed5NhvAGko9tYQOpVxcTjsLFgtlOhta38S2xgnKyd0298M62NS4WuUec4rZDqe5r0NgfXcZCatUT3gynqD9ZtMTR1vOFSkGFjLpzflbErAt7l6MdXxzubk9Jedhdi/eMZRWqt0z5mU/EFUvY9NBFxmCA1sBNV9mYRcUudgpKMEB0zO1u6OuUMfKWrIte1FN4muWz10xhjzGNFZUNjYpiGKSESEJABCEIALCJFgB0ixIsYgBFhFECBQJX7a2xSwtI1qzWUbgPeY8FUcTGbb23SwyM9Rh3Ru68B1J5Tw7tP2gq4yqajmyjRE4KP56x1P5JXJP2r21q4jEFqoC07WRR8AvxPxX0v8o9nB1HGZN1uOollsGq7E0wpZQL/AKByPTlN/TZde1mbPi/5Isq1IizobMNQf2ltgNsCouV9HGhEqa+0KaDvuvhe59BKkYrM4emCNd/MeAidbgi57vlFvQ5amu3W0zW4hbg2lYWN7RaGO4N6zjWezjrOOk1wdmlrycseTulNtHFMhTISrKwcEGxBG4g8xLnFHNu4TNbR1YzTh8mXP9rPfOwnab79hwXI9rTstQc/wuByP1B6TSmfMWDx9WgVem7I1swZSVYa6ajh0OnOeq9lPtMRwtHHd1xp7ZR3G6su9W52uOOkuuPleDFO1wz0aNMSlWR1DowZSLhlIIPgRFMpHEiRTEigEI2EAHXixkdADtFiCOjEAJW7T2jk/wBOn73E/h6eM6bWxnskvexOgPLmfKZGpi7+76nefWa+nwd3ufgz5svbwjA9rtpNWxDrmJRDkUX0zD328b3F+koXHGbmv2fw7XNmBJJLBiTc6nfcSi2j2ddAXpH2ijetrOB4fF5ekfJgvex8eeNdpn92s2uxNmilRSsL5nGZx0PujyHzMxFQW/ccvKejiutEBSCUIFjvtce6ekbpo9zYnVV7UikxnZ2mzs6DR++vQn3h66+cjUNmCmSrISp8mH7Hzl4HKOafA9+mfqvpJDuGF983dqXwY++kUT4HS6EsvI+8JBxGotxG4zQOoU3U+IlbiqYe7Lv+swdR0ifuj/B1em+od2oy8r4fyv6R8NqhB32lbtDZlwpB5A+HP6yalTLe41tGPVZgBboBOdPcq4Ol2J+fH/hFfZ+cBgNzWt+Ww/vOL7Ou1wSGW2n4hwN+fDymgw1k7vIfONxlG+Vx+k+B3HyNvWdeMSUpUjhZ8u8jc/kbsjG4nD2qYOoQL9+mx0v1U90+OhnovZftqmIYUK6ijiPwnRX/AEE7j+U+RM8wR2Rzb4tCOGYfzukupTzodwbLdW4qRqCDvFjK8vSp8yEZ2uGe4GMmI+z7ta2IJwmJN61NSVf8arYG/wCcXBvxGvAzcmc6paema1yNhCJFAWKI2KIASYoiCNq1AilzuAJ9I6WxWZTtHVL1cvwpoBwvxPr9JUlZMqnMSTxJPrOLJO1inthI5t13U2RnXlv5c5BqNvI3j1HjJ2I01G7jzHXwkDEm+vz/AM3yxFZT7Twa1BmKgtxG4sPytwb5HjHU6x9moZs4A961iV4E/mGgPWLiH9ZXvWKtcaZrnwexJ8mAPmOsjtS5LNtrRPxDkIdbtTtUQ81v3hJFOtvA3cPA6iQMNiFcXGlgy2Nr2IK29bGcMDWNlJ4gD0Vf7yWLrgsWe8gElTJGecKshkpHIIHOXc0dh8MV7xNzuHTrOJNnU85MpvvU7wZT6MOu7XJo/wBTlWP00+AtOi94FOYnN3teGDYl1Uakm3rLfBR5I9elezDQkA+Yk6gmhH+a6x2Jw4XNTv30Ykjha12Qc2B9RyItOHtcrkHig9VuJKpNEUmiNg39hXpYlNHUFj1tpr5Ejznt+Hrq6LUQ3V1DKejC4nguIq949FVfM6/S89T+z7aWeh7Bj3qYFuqNcj0Nx6Tn9XjWu5GvBT8M1JiXjjGznmoLxYkIASxK7b7kUWtxKg+F/wC0sBKLtTXsqIOJLHysB9TNGCe60irI9SyiDSRhcK9Q5aa3PHkOpPCV7PbQ7ju8Ztey1dTRtoCrEN9QT5aeU6eRuJ2jDEqq0zJ9osI+HU+ypHE1VQ1XQEqiU1vdmI7zMSCFVbE5WOuWxjdrsMtP2VamhRKqAlDplYAEq19zWIv1Bmqxbu5yUWyNXqHNU+IUadlJT8IygWb8VTQa3B2y2cr4Vgot7MB1H5VFiP8Abf0maMtKk6fk0VjntaSPJ8TVBlRiahvbjw8QbqfUCSsUChtwO7+DK3FN3SRvXWbmzPKHbPqd823EqfmJsti7OwxwgxTCs4Q/6liiIHye4LnMRcrqLzDYJ7O55Zm8lU2+bD0mjw20alPC/dly5KlS7Arc3yDcb6e6JTU1U+16LFUy/ctmwqdn0V6QShmV6puWqkgJkLKjZb5b782vLjMxtrB+ze6gZKih0yksMrX7uYgEkHTdHL2kxK+7VZe6qaBdyAheG/Xfvle9d2RULEqt8qk6LmNzYcLmJjjJL3T2TdzS1K0RMSdAeRnd27wYcR9Jwri6mdA10U8jb1mlFI6pUuOsm7CYq7VADemjMu62a1hc38fSQkGpglQpmsBZgASd41B09ImRPtehseu7kmVjSUVmqOVqqVdBqSWFie8N3HWRsfis9nNy2Q3Y8V7gUdLAN6xu00Qs5L3cgd22hXKdc3O4GkgVycqJxKgeRJ/aYsFe5PbezXllcrXg5ot9TwGY+J0Uf5zmy+zrEH75kG403U+C5T9V+cxr1NO7uBvf8Tfi/SBu8pofs/qFMbRUfFnB/Tke3zAM0ZluGUR9yPZDGmOMaZxzcEIkIASxMl2xq5alPkRb1Yia0Si7W7O9pRLj3k18v7HX1mnpmlkTZTml1L0Zh0uCh5aeUndkdqGnX9hUNs4yg8G/CR1vp5yKxuFb18xOOJTc1txzKRvUjcROtSVS0zBNdr2egBEWo1Xvkqgpga5QEJYgADViSDrwAkbE41mUFgqpvdAPaMVIHdNiFS92uST7otv0y+0dvO65UGQG5zLvFzciw5nedb9JR4nF1CLVGLKNwHujwUbpjnpafLZpeeV4KDbOFyO9MEMoZgrbxoSAb8QR9Zn3Nrg/pPn/AJ+/GarEoG3TN7VSxv5fxNdLSKZ8kTA6g82IXyBzN9BNCy2FNTzLHzmewjDML7rk+pl/Ua7p0hH2kZFyOxFLXT0nJd0k1jINWpYxmLI4a3E54Y9xhysfQxUfWNw5s7JzuPUQRJJU74xjGI+k5s8GA/KrVFzOE7uXUE8G108h5yBUfO+psiKAT4/D58omIa7KZ0wFMsS35u6OFxYZj4cJmnClW0aHkrt0xGvcEjX4E5DgW/iW/ZyqaFelWbf7Rb/pY2b5ExnsFXdqTvO8kzm12cKPh3+MtyT7dFU1ye7tGGc8JVDojg3DIrX8QDOpnEa0zoIbCEIpJLE449b0nH5G+hnURtVbqw5qR6iWy9NCvwYNCCLX/wAEces5KdbR1WsVHXhOxVqJ7q8GDFirLkUT5Zyqoo1uB0/zdIFdwPdB89xnSo3EnU7uZPID9hF/4e7a5LfqNvkLn1nLyfULp+1aR6HF9I6fGt5nt/8ARS4k7yoseIvof7yGi3PtHpl1Qgtdcy66am1hLTHYR03hT4E/xFw2MqU8M59mwpl7l+6QDYAgi98u7W1oi63JS0+QzdB0qXdien/TIbVwqpVNSnqjm62+E7yv8f2k2i5sG4cD/eS8bhUqofZAA2vlGi3BuLDhyl7jaIXZaUyLPTWnXI5Cq7i/zb0mrp+o9qT/ACcrqsGq2vBVUdn16gzU6VRgdxCMQfA2tItHZVaqj1qaFkT3jccBc2BNzYam00P/ADDiMPhsKlAKc9JmN0LEWcjnoLRi7YbCUsGq6oyPVqqLd8OxAFz0/aXvNdLhL9Geccr5M1TwNQd6wt7I1xqNUDZSR1vwnarsyqKa4xQDTvYm+oysFuRyu1tORl3SwLtRSqqf6YwNVC110N3IFr3O4cJbYRFbArheP3dXP/ztU/fLK/Xc/wCR/STZhmpOqlsrZc+XNY2uRmAvzykG0jYhWQlXBUjeGBU69DN6oVVwqBczCkMUyfienhkRB/ut6Sp/5qBZ65RGY4emjnvKBUzv3QDfTv3O/wByD6in4QLAvyYxqvev4yfs8nKFGUDwuSeJ5SNjg9azUKbFEGXOBv1uznqSSemgknZqPYXIt4AmWT1ESt0x56TJlrthbLZFIG/0AE4UBkUsbX6a6mSVp6fz/Ej1yBvb0/tM99fLftR0Y+i0lu6S/h6b2FxZfDBDvRin9J7y/UjymhM8s7EbbWjiFplmyVSE1vYMT3Drxvp5z1MzHVdz3oqy4fSfbvf7EiRYkRlRKEcI2OEcg862mCjsB8LEehkPGY1QCzGyqmYn/OMue1NHLWf8wDeo1+YmP2st6NUAfDoOZBB/adLPLy4E1+hPp+WMPUvu/D1/TXbAodwVXALuAeeUHUIvQfMyXXlR2R2kKuGRr6gZH/UmnzFj5y5xC3nFtaejqOnVbZQbTQEEyi/4uyKMOQSpfuEXOrH3SBvuSfWaTFpvEoMTgWzBkNnUhgd9iN0SWk+R/gjPQKMSilWFi6WtfqBwPTjG4jGtUp4hg3d+7hLHeAjM4t4XaMxuKfMXqKQ/Maq3TpM7tPHnvOo99Sjf1bz46CasKfdtGbPrt5Na3aZ8Ph6GGpopDYZSzMWuM4YaASUmPNE7PrqmcHD+zAva7XykbjqMw0nnmM2k1RgxFsqKgHRRYTSdn+2j4emKRRXCklCTbKTryNxcndbfN2kp4XPyc1+TWYvFVEqigHPs2GMDJZbEqarjW19zpxkiliMOqOiE/eVwtMuvftlpIjqNe7fUbucxK9oKjEO2VnD1Xub6+2QIwsNwAGk4jbdQVmrjKHZShFjlylAlrX5AcYei/BPqIt620iuMo10IyBadD+kpc+mp8hKi3t6jKgstR3qvpwcsEXocpY/1yJS2xkovTKKzs5IY27oKZe6Oepl12ao5UGmp1J8eUpzV2LgvwR3Pk0eAwwRAoFgNABaNqbKoBWOSzEG1iRrz5SZTqKRYcJyq3tYaTnbZ0pbnwV+yaSMneW7jRg3MdN0fjlA0AA8BDGOUKOBoDZzxsR9L2kfGVswvD5GdVXLZw2U6e3pZxdRUQkbtzgg6cjYz2Azw9Xs4PW/znt6NcA8wD6iXSY83kQxIsDGZnJMURoiiMBlu162dW/J9GP8AMx+IpErlHEn5zcdsEuiN+Yjytf8AaZamO/0UfOdnpXvGjm51q2N2eq0nKIoVXsNABdwpuT6D5S+R7iYDH4pw4sdQM5PIu9x8kX1m1wVYOi1BuZQfA8R63nH65T6z7TudLFLAqr5ExNPjK1jYy6qC4lPixYzE0aJZCxKrrKPE0aINyi3J5CTMdXI0lPlJN2jxsKSZ2fA0H0yL4gW+krsTsJLXpkqeR1EmvVtunF6xl81a8MqrHD8orsPs9xvaw6DWSX2WBrmJ4+Mk/eNNfSNrYrhHeW38lawxPwNpYBFOYBf6heXGGZwO6V8JRfet3jJeGxgF+kSlT8jz2rwaTAVHbQi3OScTmA0OvzlDS2nuVbAngJMqbRVEu7a79TKXL2W7RyxG0vZ5gwvcH6SLs7M6AnykGvijWYXUqg1NxYt/aWCYwKLDQR3Ol+yE9/w4YhMrT2rANekh5oh//Inh9fE5mHjPaNgVM+GotzpJ8lA/aTK0ijOTjGxxiGMzMdxFESCxgKjtSl6Q6OPoZjKzWDW3swUfT95vNvJeg/Sx+YmEHfqhBuTvHx3j52nU6J7howdSveZ7baAVGUb+6Cf0i4HhZgPKX3ZvFBQaDHXLnHmdR9D5ymrrnxDtvAJJ8Af/ABK841qdT2o3hr+I4j0nJzvuyN/s9bhw66SZ/SPQXe0hYtxaOw2MSsgqIdCL9R0PIyNj0I1mZoxIpMadZW1SJNx1SU9Vt4lkImmI7KPGcDUEYwjSptL0iptiM84O8eymcXFtTHlFdMZcmNapbdqY7vNougkjD4bnG2l5K0m3wOwCOTfNbwloqopzWueban57pHp2FrQqa7pTT2zRK0jrWxYIta0hmqeca63gqc5KlJENtnak2s9v7MLbCUB/7a/MXniWHplmVEFyxCgdSbD5z3vCUMiJTG5EVf8AaAP2kMpy+EdTGxYSGUnaKIQkgRtpn/Re/wCAzAbPFlqVOPePpe0ITpdH/t0ZM3OSSjYZaZI3ubX5CUOONtIQnJnmj2WXjEWOyHZRdTa3z8pcf8VzqbrYjfbcYQnR6rFHbvR5bp8t+rrZn8bitd0iMYQmCVwdCnyAQRrCEI5HwR67DgJHanxOpiwlklVeTphjYmdmqG+kSESvI0+BwOsQtCEgYS+sUCJCAGw+zzZYfE+0YgikM4HMnur6b/IT1aEIpnv7hIQhBlZ//9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgWFhYYGRgaGhwZGRwcHBkaHRoaHBoaHB0cHB0cIS4lHB4rHxoYJzgrLS8xNTU1HCQ7QDszPy40NTEBDAwMEA8QHhISHzYsJCs0NDU9PzQ0NDExMTQ0NDQ1NjE0NDQ0NDQ0NDE0NTQ0NDQ0NDQ0NDY0PzQ0NDQ1NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABAEAACAQIEAgcFBAkDBQEAAAABAgADEQQSITEFQQYiUWFxgZETMqGxwUJS0fAHFCMzYpKisvFyguE0Y3PC0hb/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAwQFAgEGB//EAC8RAAICAQMDAgQEBwAAAAAAAAABAgMRBBIhMUFxIjITM1FhBYGR0SMkNHKhscH/2gAMAwEAAhEDEQA/AOgREQBERAEREAREQBMWJxCIhd2CqNSTMs51036To6VKSEHKwQENuR7zC3IGw9YBPVOnmBW96p0vfqNy7L7mar/pIwAOju2gOiHXu1I1nHq+ELWI5/n8PWEwpFrakcvz5Qe4O7YDpZhKoutUDuYFSPHkJNqb6jUT85EspUqOsDfzBuPHlLT0a6c4mjdHUVEJvYk3Gg90k7WGxgHZYkF0e6TUsSLAZHAByk7g7Wk7B4IiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiJ9EA5x+kjpc1JhhaJ61garb2vsg7zufIczKnwTo0+Js7E5NLHbMeZ8J7PCGxOMqs5OQVXLX3PWJyjs5TpnDaShQqiwAsAOVpBdZt4RZpq3cyKfU6CuBdHHhMZ6D17XLqD3D8J0gLPLrK/wAaSLHwYs5t/wDiGt13ueRHLylf4vwerhzmtmW1sy6agbkds69WXTWROPw6utiAQeU6jfJPk8lRFrg5Dw7itSjUWorWYdt7EHe45/iBO89GOMjFYdKugYg5lGwIYr9JxvpRwpKTHIpAJFtSfE6mX/8ARI98M+guHI8eevrLcZblkoyi4vDL5EROjkREQBERAEREAREQBERAEREAREQBERAEREAREQDnC0clasu37aofVrj4Wlk4bW6okP0hKpWdmIF3v4/s0PzJnzhvSfDr1S4vKdkW5M0KpJRWS1I9+2eXY+M8UOII23MXmvi+kFClcuRz8JEot8EjkkMTVPMSLxFYXmviOlFOqvUR278pse6+00a+LDMuW4PMHeeuLQUosjOkqZ0btBuPG0mf0Q4dxRrOfcaoAB/Eo6x9CvpIjjIv5iXfoDhfZ4GmDuxd/wCZ2I+FpbpfpKV69RY4iJKQCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCeKzWViNwCfQT3PjqCCDsRY+cBHNOKYh66rUABZhmBtbSwAuNr6fCRr8OaoEzpTbN7xKspp69t7tprpbYyy8OwmVwh+yMo8t/rJZqSICcov3ASm5tPk0FUn0IHo1w803cXLKBpc7X2mPH8ODlrKM1+evpeT/CMISrueZtNWitn13vY32P8AzI3J5ySqK24K4eG1Q5CVOoALAqgYkKbi1jYZiNmvYdus2RgHyguesNby5pSBFhp8Zq8RwoAnTk2cKCRSsfTzZF5lsvrpLngMS9IUaYt7MBafiB1bjtN/CVDEkZ1T+Mfn4iWzC07lEvmKuoB7t/Ww+E6UpLGDlxi8tlmiIlwzxERAEREAREQBERAEREAREQBERAEREAREQBERAKTxLFKmIcDfMSR3Nz9Q00eI464Xr5R71t725eEyfpIQ03oVlAGbMjn71rMoP9UrK0KlVjUQK5UXyMbDL49sryrW7Jcha9uET3COk9VAyZQ2pKspsLHmQeye6fEQznPUVl3OVSNf9WbbyvNbAITcsiISmYj2dQ+V0QgnXkZs1MCipdMu17Cgy8r2u5W2s5cUSKUiVw3EU+w9+4/SMTjCwudu/slQxGBqpas5VVzABVBuB2m5tfu+czcVx18q36oW577jSc7OeA7GlyYKdT2mKUA6FrD8fiJ0jhWGGbNlAyrlAGw228pyTAderY3AOYAqbEabgjadn4QP2FPmTTQk8ycouT3yWMOV9ivKzEX9zciIk5XEREAREQBERAEREAREQBERAEREAREQBERAEREAg+mPBjicK9NffHXp/wCtdQPMXHnOZdGOIrTYo91zAqb7rYjf5eM7TOX/AKSODrSqriEHUqXDgcnFusOy4uT3icyWVg6jJxeUesRxhqJyU2RwbHe9vTnNjAcYapmWqVUKdBtm79fESnYbiKICbDlvpoZlxHFlOul+VrWHLUSLY+hZ+N9yY6T8cVlFFNVFix7TfS3mBKs+JNiSbnYd1uz4zXr1xmPM35bDawAHh8JL8I4C72aoCq/ZT7Tdt+xfxkiUYIhblOXBm6PUCb1DsAbHUXuLc/Odb6O18+GpnsXKf9unytKMaIVMoAA7tB5d02uDcXqUcyIquCQbMSAvInTut6TmrM54Xc7uShDL7HQokNwrjftHCOoDEEgi9iRqRr3fKTMsTrlB4kVYzjJZiIiJwdCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCQ3SzBiphn0uUs48t/wCkmTM8VQMpzWy2N77WtreeNZPU8PJwXH8IBPU0/h7PWYMPwN2OpsOcu2K4aCM66gEi45gHeYVA0H0kLsa4LKqi+TT4TwSmhzWBbtOvpJxSFFyQB8+6a5OXQC55D87CZqVDXM+rfAeA5SajSzue6XCI7tTClbVywwL6jqr/AFH8Pn4T0AALAac5lK3mpisSFBy8udr27fP8902qKIVrEUY9187HmTJDgzKuJpljbceN1IHhL1OUqAFDtoxJN7677X/PKXHo7x/PanUOuyOftdzd/fzkOsok/VE70tqXpZZYiJmF8REQBERAEREAREQBERAEREAREQBERAEREA+E21lQ6ScVNRSiGyczzfutyEx9KekxUtRota2juNTfbKttvGVXAVWDjO1w9wL66gXuD4Aj0mhpqEvVNeCnddn0xLF0afOjqfski3ZtpIjj9YUAzjKbG1r2Lai9jbe0jV4i1E1UQ2apUuDvkXIuZreTSHr0TUbrEgche7W5XJ5ncntJlevR5sc2uMvCLU9VtrjFPnCyXPhuNpVEFRDvvf3lI3Dd8yviUJsCJWOG8J9mhIdlZtxytyveS2CwKqLtck7Zj8xtNeuD2rPDMuycdzwblXEX6inTmw+h+s1nTYW08beGnZMykch/qJ0v5z0qB9bH8ZMljhEMpZNWvY3vsOqLT7h37DcelpmdCBroOQsD6zw6Kw7O22kYCZbejvHc5FKobt9hvvdx7+/nLJOVI5Ug7MOY017fkZ0LgXEhWTX310YdvY3n85kavT7Xuj0NLT3bltZJxESiWhERAEREAREQBERAEREAREQBERAEiekvEDRokqbO5yJ3E7t5C59JLSrdJ6bVa9KkouFUu38Kk2JPkAPOTUpOaz0I7W1F46lRTAXXOR1A1vFiCQD6TSxIuykbgm19r2I9NT6S5dJMWEoJh1BC2VrZSgIUkqSG6xJbmdypNtZTzSNRso2+0fpNip7llozJLbLGTSWhe5F2Y898x307FGh79O6SOB4ZqOqXc8gC3joLkzYp0ACAuwBGvdcknsAAJMzColyrKXCnUahSQN3AIzG52JsNNz1jHqL4URy+WT6XTWaqajHobD4VlsWUqSNMw003PYbbd0wBbZr3I7978vWSeJprTRgq2VsjZdbK9qg0vrYhGHp2CayvrmYaAZvPkPnJNPc7YKTWCHUVxrscIPKXcxUBfRvz+TPavZu4aWGk90icik2uxuO23L8fOeuqD39nefrJ0QYPFemWG3/E162H6va350m7kJJJOu2mwmBaRG89R4azroCBqOXbM2A4k1Bw4FuRF7gjsM8FhcjY7TSZWOjetpzOEZLDOoTcXlHU8Di1qorpseXYewzPKR0Tx5SpkJOR9Nfvcj9D4iXeYWop+FPHY16bN8ciIiQEoiIgCIiAIiIAiIgCIiAIiIAkLVdkxDVFtmaygEAmwCjT7ouH1PMDfWTRMpHFeMBsypsbgnULr2Ddz3nT+HnLOmg5yeCC+Silk0OMNmd7EsSdy2Ym1getsfLTkNLSPpdU6C3cd/O/51nug4Oa40uoG+1yNx33nysLtYctB4mbUI7Y4MqcsvJ5ysbKoc3DO5W11RANSSLAGoy9/wCzIFibyfwqoEX3GUXq1329q+ZmVLganMSxGm493YR2Gwt2V1RH6ns2UsFZbVHe4uRcFXAvrqpv37tWqAqKSCEvkQEMqk7l2Gja7KLjt5g4l9dl17il+xuRshp9EnF+qX0fRfccQr5iTYjQGx3F1AUHvygE9hcjlI6o5IYdpCedh/8AU2KNW4e5uytma+5B1v331kZiKxzKumlRD/Ot9fNbeU2aq1XBRXYxG3J5JGtUXPYHZQAOwdp8rT7nGYMCOzWRGFZixL7kkE+c3U5C+xveSpHD6m3Ur7WO9/mfpaKzjQE2Px5TXRxlUCx0HyHZGIQswP8AEo/pnoMr0he/+DNdjy59++02cYhGUcresw1KdgNbGeZBrYOqQbncW9eXrtOm4DE+0po/3lB8+fxnN3AH1lz6I1CaGU/YYjyIDfUzP18cxUvoy7pJctE7ERMk0RERAEREAREQBERAEREAREQDW4k+Wk7diN8pzN2Opt9PiZfelbkYZ7cyoOttL338pQmosouy265Q9ViQygMykNzAI9ZqaBLa39yhq220jxT6uYdhQaMCdDc6c956oG7XPeddD+E818FUFPOUuruMpy2v1SbWTbRGOvIRSfLobi2hBswB7P4fnL25N8FNxa6m9lt3eP4xmn1DdTb+k3Hpv6zWqORtY/0/HYfGdHiR5xGIK9dRcqLOPvIdx4jceB7ZHcQrDquPddV171YH19+bX62gPWYpfTrqWU/70v8AFRNdsKCrUwysjXNNlYMFf7ptqAYz2JFHHUxU8U2fffXs1Fw3xBPnNmk7Z78rH0kGGYuFYZXBNwe3KQ39q285LpVyp1t7fX/ieRllvJzZDa0b2DOg7bD5Tb4cFdwruEBqMMxBKjKi2Gmup085q4emCAbnkZ9wS3FNiN8z+rXHwtPZZxhHMcdWWziPAriyVkZ1IDLZlKhiBmN9gL38JH47gxCXFagwVS2YNYEKbZQCLliNgOySVPjjmu9cKAzLlK5iLdUD3rfwg7TFh+kIWiuHqU89NUysA2rEMCrC66EWOnPSU/5hY7/oWv4Dzw1+ZXuJ4GrSKo4sSgfcG6naxHgRLd0QpkUSxFs1RreC2UfIyucb4ilZVZVyur1bgKADTZsyajQlfdl8wyZURRyVR6ASDVTk60pLDf8Awl08IqbcXwZYiJnF0REQBERAEREAREQBERAEREA0+LBvYvlF2CMQLXv1TcW53Fx5yo4jGtiKGIqMhRkyPqcobM1OmWB5aU7HfW8vUpGDoEfruHDE/s3IXL7jg03IF/eVi2ZfE8wZa08sPw1+ncgujlEtRo/sKKD3kqoPP9VK69xe8jTxKnX/AFem9IDNiXUnVHUKczKdMwJNTWx+zJBcR7RK4pjKQUKXGub2lYZu++W48ZqUcP7TEUGYFTVqpVZRYhS9JHNr+6CaL/zSZdW2RvphEO3CiKGIrAm9CtkZbWBW9s2nO5GvZNbH4Z1IW5a6K/V64syhhuBbeXbhfD2omth2IZ65Kg7iwpPlax59Rb97SndLaZpVaLqth+rUQ4IOhynQkbHbTulim5ylghsqUY5IOvcbqpHPMGB+EjKlIqc1M6bkX+m8t2DelVGmjc7VFF/IzXx3AH95Fc/yv8pck0yCLwV6vVFULUFg6HrD7y7E68xrM6dcEdlh46m8j+I4d0JbKVI30t43HKZOF4m695bfwF/nf1kW5Ke19ySUW4bl0RYXfKr2GiobHvmzSSyoL7KAB4DaR9Vg2VbnrMoPZYHMfgDJnDILnN2bSZ9Sv2MyvYac95jr0xqbzLSZQdb+fKYcQ3XPZc+hniYZGFtCp21P1nVMM10U9qqfUCcvq0sut9j8PxnSeFPejTP/AG0/tEzvxBcJl7RvqbcREzC8IiIAiIgCIiAIiIAiIgCIiAJQumdMU8QHRgjVEGY3dSbdTdDsQF9JfZRenLn29MDN+7v1Sv3j9k7y1pHiz8mQaj2EPw7itanqhYgOmgK1FslyBbRrdY8+c3anHX/WlxDhSWI0syBStOoqgE329od/rIJLXN8t8w94Gm23auk26lNmQhc1xqLVFYXGo0M1PhweXgoKclxkkaWOXD5K4UEpUpMcrhrZSVckE31RmGl9QJN9MKSVqrOjKwyrYrUAuLAi3LnITAgVEIbZhreiD8RMPAMQVL4ZzdkuUHsw105jXWcutKzejre3HayFei9NtAbeCv8AEayXwPFwNGCHxzqZscTwqEZhk17nQgyDxGHIHVbfTR8w9N5ZWJIiJfiKJVQlbZvzv2ynYSgVZl7Ln5CblZmXZjIylimFQ35/5mNO/OrS7Lg+jWjjD8NzJep8k9g3zVFUj3QTfv2HwvLJh6K3O9xy2/yJX+FdZ2e21gPiT85YKDqbFb3/ADebC6HzPcyM5y67HQC21p4ep1L9ml/z4zM7Na5UWttMLsGVhbaD0jao3zW1+PO/jOicBe+Hpf6APS4nP8UBpfaXrox/0tP/AHf3tKOv9i8lrRv1PwSsREyTREREAREQBERAEREAREQBERAEpHT6l+0pMbW9m41W40ZDuNR70u8qfTll/Yj7VqluRtZefLUDfST6d4sRHcsxZScK2pC35e4Q45jUNtN1QL65dR9qmw+ImhT985v67D0ZJJ0gdMt9vs1M3902YmZJH3g9UJUZAdL5hlqFLA8rN3/ObfSLAuMuIQPnTX31a45i41kbjFZWVyH00OZUcWO/u6yzYco9PX2Wosbo6/GeS4PUauBxvtFVgXCONgyOVbmCraiRnE6JVspv5oEOvhvNZcuHrFGKexqHkM+R+RANiPKbvELnMp95QPvarbQjNraeuSjFy+iyd11uyyMF3aX+SCrIdSF/xykDiwQbgCWJsTbeQnEcWL7CfL75OW7ufomqqgqFB8JLBMcDrXO2h1PdpaWLA2B3BB5Sr9HawYDTWx+Zliw7WINj5+M+qpblXFv6H5tqIxjbKMeibN81xtbunmoFAtteeEUXvuNTMQr3IBH55TpIjyR7sWUg8jv5zoPRpbYamO5v72lCxDC7KN9/T6y+9GmvhqZ7j/c0pa/2LyW9H734JSIiZBoiIiAIiIAiIgCIiAIiIAiIgCU3px+9o/8Ajq/+sRJqPeiO32spHBffPhN3HbiIm1EzZdDAv4y+9G/3Xp8oieWisgennuN5TDi/fo/+FPmYiQ3fJl4Lmh/qa/7l/sr2O94yu43efInzsep91+I+wsHRr94ngfnLJU99fERE+o03yl4PzrWfPl5Zs0Ofn9Zq0/fHlPsSZFc0qv7w+M6B0V/6Wn4N/e0+xKOv9i8lzR+9+CWiImQaIiIgCIiAIiIB/9k=</t>
         </is>
       </c>
     </row>
@@ -885,124 +885,124 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Najibullah Zadran</t>
+          <t>Fazalhaq Farooqi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023_202</t>
+          <t>2023_216</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>45</v>
+      </c>
+      <c r="R4" t="n">
+        <v>42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>153.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>38</v>
-      </c>
-      <c r="X4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>42</v>
-      </c>
       <c r="AF4" t="n">
-        <v>-0</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYYGBgaGBoZHBoZGBgZGhwcGRoZGhgaHBkcIS4lHR4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHj0rJSs2NDQ0NDE2NDQ0NDQ0NDQ0NDQ0NTQ0NDY0NDQ0NTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABAEAACAQIEAwYDBgQEBgMBAAABAgADEQQSITEFQVEGImFxgZETobEyQlJywdEHYpLwFCOCsiQzQ6Lh8XOzwhX/xAAaAQADAQEBAQAAAAAAAAAAAAAAAgMBBAUG/8QAKBEAAgIBBAEEAgIDAAAAAAAAAAECEQMEEiExIjJBUWFxkQWxFEKh/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABISN4jxqhQ+24v+Eat7Db1lWx/bdzcUaYUfic5j/SNB7mY2kak2Xu8aV+I0U+3URfNgPlMvxfFsRV+3VcjoCVX+lbCMIu4baadU7VYQf8AVv5I5+eW04N2yww/GfJP3MzljbfQdToPecWxVMGxqID0LoP1mbmG1Gljtnhv5x/o/YzvT7WYQ/8AUI80qfXLaZitRTqGUjqGBHuIoMNzDajXcPxWhU+xVRvDML+0e3mLx1heJVqf2Kjr4Bjb+k6H2m7g2mvQlAwHbSqthVVXHUd1v2Pylo4b2goVrBXCsfuP3W9OR9JqkmK00TEIQjGBCEIAEIQgAQhCABCEIAEIQgAQhCABEhK52h7SrQuiWar05L4t4+ExujUrJbiPEadBc1Rgo5DcnwA5yjcX7XVat1pXpr6ZyPE/d9PeQOMxT1WL1GLMeZ6dAOQ8JxERysdRoUkk3OpPMxDPFasqWzEC5ygnQX1OpO2xlZ452k3Sg3UNU0Ponz19oqVmt0TeP4xSo3ztc/hXVvLoPUyvY7tBWYXQimDqAAC5HizD6Aesr7IDrc9ST15mw3M9I1vDxsMx87nSOkK2dTXdzepmceJt87ztQoNVOWkirtzGny/cxqVUnvXLW21Pv/fpPZCrb7N/yXsPMwAfVSKLWQsX2JORgD4WUX9bicmxTowY0jTIOrLnTXxGov6Tvh8IK2jXPT/M0Hh8MKet9xG1bA082WkWdumUC9t7aD21PnGMolsN2pdTZ0zqNL3AfpqdFPsJZcFjkqgFGBuD3dMwtuCv9iZ3VzKAGW172LLoRsdtbi22/hPS1ypGRtjcWBUA8yBuIrigTaNMhKpwvtM5ISsoIvbOujAW3K/e+Rlq/v8AvwiNUOnZO8I7T1qNlY/ET8LHUeTb+9xL1wvi9LELem2o3U6MPTp4iZTOlCqyMHQlWGoI0IjKTRjimbHFlU7P9qBUtTr2V9AG2VvPofkZao6diNULCEJpgQhCABCEIAEIQgARIStdq+P/AAF+HTP+Yw3/AAg8/M8veY3RqVjftT2l+HejRPf1DMPueA/m+koTEk3JuTuTqT5mBN9TuYSTdlEqCEJW+1nFygFBDq4Oc9FOgXzOpPp1glYN0N+0HFxUvRQgppmbfMRfur0A5nwlb0JFhpewHXxMGIA0BF9PT9zPdKlzYEC9he9yd9BHE5Yhp+gHmD6/tOnwwLEoAB1Nr+u95N8J4M1UXGijmTa56DfbnJnBdi2Y3aoAvQBnP1AHzk5Zop1ZeOCTV0UsqLgqCDy5tPdLDtrdXBHgdPl4Gadw/sbhqZuc7n+c2Gv8q2B9ZO0sDTUWVQAOQAAkpaj4ReOlX+zMoo4V8veXMo2IYq9jzyb+o12iVMCL5WvfdcgU5rXJAVSSGFtuduXLYaVBb2tOuI4RRrLldFceViLbEMNQfETFnb7RstPFdMxFqVQDvl3p3tdMjNvfW9ypuB9q3SR9WmRqbAHymt8R7DqTmp1CpB++vxPQ3ILesqvF+x7oCzanqisQemwOtuttue8ss0WQenkUtX8jpbXXla/nrL92bxavQRQbsihGHPS4Q+IIG/hKLiaeQ2uTbna1/EDpJLsticmJQXstQFD0uRdfmB7yj5RBcMvsWIIsQoEt/ZftLa1Gu2myuTt0VieXQyoQM1OhWrNliyndkuPZrUKpu33GPMDkfHpLhKJ2TaoWEITTAhCEACEIQAjuN8SXD0i7anZR+JjsP19JlNfEM7M7G7Mbk+MmO1fFvj1iFPcS6r0J+83qdPISDkpO2UiqQQhPUUY8mZlxPEl6rve+ZmI20W9lAt/LaaViD3G/Kfpr8rzLzT0BvyHpoP3EeIkjwpPK+nrJ3gvCGq3Z7qCdWP2iNyFHK/4j6SMwbWIUDUmXrh6WUXks03FUjo0+NSdsksMioAqiwUWAHykthsX0FpFUEvJjDUBbcTj5O+0O0xF51FUTmuHiMhvaKaqHC1xyjqnXMa4ah1kglIDSakzJNIVXvGnENFNukd3AnPEqGWxm0KYZxWj/AJzIPxG3kT+hMaUaLI9Njp31tqPuOtz/AH0lp4/RShiGDix0IPI5jv8A039vCQOPoszKV+86AC2wAJDW8QST+XxnoQ5ijzsqqTL+d4TlhXzIjdUQ+pUE/O86zDAhCLAARiCCDYg3B6EbTS+znFhiKev21sGHXo3kbfWZpJDgfETh6quPs7OOqnf1G/pNi6ZklZqsJzpuGAYG4IuD1B2nSVJBCEIAJIPtXxH4OHaxsz9xeouO8fQX+UnZm3bbHfExGQfZpjL/AKjYt+g9IsnSNirZXIQhJFRZ6nmeoAcsQt0cdUYe6mZnyt/ID8r++00nHW+G/wCSp/saZoNQT1sB6x4iSJTszhszFjyFh5m36Sx4jHLTFt2Ow/WRfZte4bfiMl0ool3cXJ9ZyTac3Z6GJVjVDfD4vFHVEY36Aa+E7CvjUN3RwDy009joJ2ocdqAP8FLhELsLagKCdTyJAOgBPW08U+P13dqeai4U7pVIuDTdyysVsVXLlJI+0wAve4dKTXCQjcU6bZLcN465sHvfbXQ+olmwblzYc9vXaZ7garuSz+FrgXsettLy7dncURYW2kJOnydEVxwP+JYp6Ysn2vAZvlKzX4vxEkBaZcHfKgQr5FiL+v8A5lt4m5yMyfb00677nkOcoXFOJYmkpqF0U3fum+rJ8MlAE5kPcXOytqI8G30TmklbJ5KmOdO+lQc7WVstraZge8DrobkdY94fj3BWnWBuQcr2Pe8Cev7TlwPjGJ/w/wAepkqIpUM9IlguZEfVDq1s5VspzKVPdblL0XXEIGsVP2hY3F+TKw0I8fQ2Ok3Ja4YuNp8opn8RcAHorWG6WQ+TOoH+4+0quCxV0BIUkLTfzFMsrgeOVjYeE0ftJQvhqynco3uNQfcTJqVQqKYUnVgDYaWZhmB6i97ecrp5XGiOqityZd+EPmoUz0UqfNHZCfXJf1j2R/AT/wAOlvxVP/scn5kyRlH2RQQhCABaLCFoAX3sVxHPSNJj3k2/KdvY3HtLNMv7N434OIRjordxvJrfrY+k1CUi+CclyLCJFjCnHEVQiMx2UFj6C8x2vVLuzndmLHzY3P1mmdr8Rkwr23bKo/1MM3/bmmXxJMeCFiRYSY4oiwhADnXTMrL+JWX+pSP1mc4vBPSbI4sQbE8j0IPPczSpG8TwautTNsELA/hfK2Uj2+sHLaPGCla+iI7NJ/l+ZPyNpPmiHFrSD7Ot/kjrr8yZYcLOWfrZ24/SvwMaXDsjE5Db+UkfQzlX4dc2VAgPgPoP3k8xFt/acxTvMUmPtRFUcKEFpYOAG5tIjEfayj1k12fpnU252iP7KRLEaYYWNiCLWMhK/Zlc1wAVJ1FgPlsfWTaqVNyNOceuRNSEk6I1OFJkCBdBtcXA8FXYekf06AUWA5TwanS4nsMTzuYN2LTRD8ep5qVQDmjD3UzLuz/DXrsqILqHTO4Fgis4Gp5Fu9/T4TWMebqw/lMr/YDDr/hKo0DvUJU/kAy+mfOZTHJxTonkgm1YwwOHyJk5B3sOYDVGYA9SM28cTtjbfEe22d7f1GcZ0o4n2EWFoTTAhCEACatwjFfFoo/MqL+Y0PzBmVy+dhq+agyn7jm3kwB+uaPHsWXRZoQhHJlS/iBVtSpr1e/9Kn95QDLr/ENv+SPzn/b+8pclLspHoBCJFEUY9wiRYAEZ4+rYBbaE6+oA/f5x5OFdNR0Isf8ATqPOJkXiWwOpFb4Norptldh85P0qmgHW3/uReJoqtVmUWDWJtsWWwNvl7yQoHac8nbs64KuCXw1C4iV6RB02jnCEWkfxHH2Fl6zB26GeOdkBKgFjsSbAX67yY7NcTYZUZe8e8AhzgX373oJAqHfy9h7mTeG4PlQGmBnNgCrKNzrfrN4ozyZYhj3asVyK1NgSXDEMrad1lYWN9bZb7Tvicy2v0+UbLhKhswKlrWOUg6+XMxWrsQQ429Lehg+RU6H+Es2k610yxpgbj6x1iXuCZnsa+/or3aHEZKNRr2IQ6+J0HzMiuydCplpFR3AuZm0ABzlnFjqdx7yR4tRWqDTbZiB7MLH3tJZbUqVlUL8JTcDnl39/1EF1QJ07+itYlbO4/mb6mc56Zrkk7kkn1N55nYujzpO22EIQmmBPQhFEACWzsHU79VeqqfYkfrKpLF2Hf/iGHWmfky/vNj2ZLovsIQlSRSP4hjvUfJ/qkpkvH8Qk7tJv5mHuAf0lHkpdlI9CT0IkURRj1CEIAE8VEzC3Oe4l4NXwam07RF8SpMEVrAKhtYG5Oc6ttoLhR6xcM0ka9POjJ+JSPXl87SDwtbbxkckUujqxTcrssNJzYgdJE8Tq5FAVczDyAjrCV7XO9xPFamrayK4L1ZH8OZqjqHRiL6qh71rbLe1je3zltwdPCoqlqWKzWAa1RbFra2BcZRfykNg6bqQVMe/4mqD3XTxU/vGUjXXvf7JPEU6ZUmh/iUazNlezKTYZVJzEi5+8DGqcUxJXK9LvXF2LA5RzF+cleFYyqRZgLfL2j0pm3A8oSlZiS6/sOEvmTNtp/wCfqT7zviDpPGHsikDnOGMr6RTCEx9Ug6GxuLed836TtxDi5qqFCZSbZze+a2wHQRhijd/ADfx5/p7znL44qrOXLN7mkEIoiyxAIQhAAiwhABZYOxA/4g//ABt/uSV6WfsKt6zt0S3uw/abHsyXReYQhKkitduqObDZvwup9D3fqRM8ms8bwvxMPUTqpt5jVfmBMmk5djx6CEIgiDnqEITQCEIQAVRqPOVhu6R46+R5j9fWWddx5iV2pTzJbmCbe8lk9i+D3OtOpOoq3kWlUjQ8o5w9USe0vuJBajkhVuL9JLYfhzADXXnc8/GRVGrlP0P13k7TxIYDXe1wLbDW/wDfSK4jKQ+o4V0tYkj0j2k55/34zzh8UCoHL39omJrKBpuf/d4bUZuY4app/fzkZjK9tRcm+g5zzXxelp1wOEJOd/8ASOnifGK+BlyMeIJlZF6ILkbEkkt841j3i/2x+X9TGU6cXpRx5vWxRFnmepQkEIQvABRCEIABly7BUu7Vfqyr7C5/3CU0zRuyeGyYZOrEufXb5ARo9iy6JuEIShMSZLxzB/BxFROWYlfytqvyNvSa1KZ294fcJXA27jeR1U+9x6iJJcDRfJSosSLJlAhCE0AhCEAPSbjzEgKW5HifqZPoNR5iQdFdz4n6mSzdI6NP2xtjMJfvLvGBuPCWApGlSgLnSTjKi0o2M6GKbqPWPaNdhtack4arHQkeUlsD2dLH7ZmuURVFhhsa/h/fhH6VGbnc9Bv/AOJIYfs1TUd4s3rb6SSw+FRdFUAdBaI5DqI1wPDjoz+gktlAGkVE9+k6BJOTHRWuKjvj8v6mMZIcbIDqLgE3ABOpIsSB1NtbSPnXi9KOLN62KIs8wlCR6hCEAFEIkIAdcNQNR1Rd2YKPXnNYpUwoCjYAAeQFhKT2JwOao1UjuoLD8zfsL+4l6jxROT5CEWEcUI1x+FWrTem2zKR5dCPEHWOoQAxzGYZqbvTb7SGx/Q+RFj6zlLx224RmUV0HeUWYdV5N5j6eUo0k1TKp2LCEIpoTxVqKil3IVVFyT/ep6DnFq1FRSzsFUbk7CVDi/EfjuLXCLfIDpcndyOp+Q8zLYsTm/oSc1FDHjnGKtZ8illRjZUBtfldiNyfYS04MaAeA+kqFKnaunje3tLjgRoPKc+sW2W34OrRrxcvkfLTnDEUeYklRpz1Xo6bTis7WRuGp6giWHhzkbiRuEobSewuF0vBswkaJBEBT1nSjSAnSwG00w55OVvP9Z6Inv0iMJjAov8RqJ+Crg2NOorC38xyH17wPpOHDMSXpgsbuO6/ievqNfeSH8QlBw6rfVqtMAdbEs3sFvKtSd0N0Nja21wfAjnPY0OB5sDrtPg83V5FHKvxyWOeowwHEA/dcBX8L5W/KTsfA+l4/k545QlUlQsZqStBCEW0mMIJ6RCxCgXJIAHUk2AiCWrsbwnM3x2HdXRPFuben18pqVmN0WfguAFCitPnux6sdT+3pJCEJUkEIQgAQhCAHhgCLHUGZr2n4IcO+ZB/lue6fwn8B/SaZG2Mwi1UZHF1Yaj6EdCIslZqdGQxvjcYlJczm3RRbM35V5+e059scNi8JVKXVaTXKVFW5dRyJYHKwuLgSn5SxLkkk82JJPqZfHpXJKTfAs8yXCHXEsc1dte6g+ygNwPEnm3jy2HizFO0CDPSzvjCMVSRzuTfIY1copVB918p9QT/+TLXgdbEbGQFWnmw7jpZv6Tf6X95N9mHz0wOYNp5n8njqSl8o9HQT8XEsOGXaO6lAMCCAQeRiUKVhHajnPHPRsjkpEGS2GJnKpRsL+UcYY/PSBjHtNp0vOBqgcx1A29TOlLURjDsmsV1iokbcbx64ei9Q7gaDqeUFGzHKjP8Athj/AIuKWkuqUV18aj/a9lCj/UYxCRhwpWYs7as7FmPUmO69QAaT6zQY1DCkeBqpOWVnLE17aAXMdYfjmQD4ym2xca26Fl/Ue0YqbTy7BtCARz8RzErnwwyxpiY5OL4LWjhgGUgqdQQbgjwM9yh4HF1KTMiuVKtbqGG6kg73Ftd5buzWKqYuqKIp9612dfsKB95gdh5Xnj5NK4rcuUdkcqbpk9wThbV6gUaKNXboP3M0uhRVFCKLBQAAOgjfhfDkoIEQeJPMnmTH0jFUbJ2EIQjGBCEIAEIQgAQhCAEfxfhdLE0mo1lzI3oQeTA8mHIzEe1XZKtgm1BegSAtX00VwPstv4H5DfZxxFBHUo6hlYWKsAQR0IO8piyuD+hJR3HzcKIbw+kbfD1sN+k0/tV2CqU1apgVRtP+Uylm31yuzWK2+7YeZmb1GxOqlmpmxuqIKRBHI2AYeU9GE1kVxIOLj2SfD8E+WzI3e05DfoDqec9dkkKuyNfQ2IOhuNDcdZWsLhipzvme11bMWut9mB3/APcmcPxWrQfOyh+eYkZyDzcrufPXnOfVYZZoJJU0X0+WOKTvpmoU6PdvONP7Wh25SL4T2soVVytdG6HUe8k6T3YkH+/MTw82CeN1JUetjywmvF2PkQEdNflyvPDr0+UFewv/AHp4eojSviQF0322tbTa3WwEiUPeYBrSXwgFv70lapVLHQayQr8RFJCxNgBfWC7NfCJmpiEXVjtrKX2sxoxAVFayXJvYkG34QPteJ0UcyJyNZ65L1CVQbISRm/N4eHv0jCpXFRmC3Wmls7Bbs9rWXkFQG1l5m2mk9nS/x1rfl/R5Oo1tPbj/AGQ9fNRy2ohkY2UCpaptc5gCVVrd629mF9TOQxVFtc7IdiKlNjY3/HTBHuJN0sITZ2UBjoqgABBvYAaa7k8zG/8A/LsLW1O/nPYVLhM8/d7tEb8At9h6b32y1E18g+UxGwVYfc0650A87lo6q8MFjTYA5lzLpfVTqLeV/aWTsp/Ddm72IX4aBgyjKBUYW/7Be2+vgN4uTJGCuTHj5dFZ4Z2WrYyugw7I2UKtZwbpTBzaFho7gLspO67akbf2f4FSwdIU6QvzZjbMzdWI+Q5R3w/h9KhTFOiiog2VQALncnqTzJjyeVlzOb+jpUUhYQhJDBCEIAEIQgAQhCABCEIAEIQgAkhuNdnMPitaiDOBYOujj1G48DcSZhNi2naMaT4Zk2P/AIfV6Ts1MrWQ+jjwKnQ+YPpISrgAhNN1KAm5BW7A67A7a2+m03ONsVgqdUWqIrC1u8AdJ1w1clxJWRlhvlM+e8VwhkYFQQDqL6adR+3KSvBuKVKJGuYcwdiOh/cTTOKdh6FU5leohAsBmLoBzAVtr87GQOK/h7WH/LqI35rqfoZZZ8WRNT/6JtyQdx7+jzhuII692+a2xPP6GcMWq+pHzO/pynA9lMcl8tK+2qshB9M143xPB8cFuKFQnmtr77lSDb0+s83VaKK8sUk18Xyelp9Y345FT+fY9VsYKZJJ06+cja2KaqwZrhRsp6jmfHw5TqvZzGuQXoVL9MugPrzjxOyWObagR4s9MfItedOi0uPF55Gr/PRz6vUzyeMU6/sicVimayLz6W25nXSP8M9G60lGQIbtcs2ZyNSXOhsL9Bct0kzw7sDiNWqGkrHa+aoV9NBp66ye4f2BoJ9t3c8wLID1vbX5ibk1Ut3j0c0cPHJXjSuBbntbW/l1kjgOzFaobsMi33be3gv72l14fwyjQXLSpqg8Br77x7F/ype3Yywr3IbhnZ6jRIcLmcC2dtSPyjZfSTMISEpOTtssopKkLCEJhoQhCABCEIAEIQgAQhCABCEIAEIQgAQhCACQhCABCEIe4CxIQgYwhCEDQiwhABIRYQAIQhAAhCEACEIQAIQhAAhCEAP/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFRYYGBgYGhgcGBgYHBgaGhgYHBoaHB4aGhocIS4lHCErHxwcJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHzYsJSw0MTQxNDQ0NDQ2NDc1NDQ0NDQ0NDY0NDQ0NDQ0NDQ9NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAD8QAAIBAgQEAwYEBAUCBwAAAAECAAMRBBIhMQVBUWEicYEGEzKRobFCUsHRFHLh8GKCkqLxssIHFSMzNENT/8QAGgEAAgMBAQAAAAAAAAAAAAAABAUBAgMABv/EAC0RAAICAQMDAwQBBAMAAAAAAAABAhEDBBIhMUFRBRNhFCIycTMjgZGxNKHh/9oADAMBAAIRAxEAPwCvhfBmqgMWyqb28hu3kDpH4pwcU1zo5dNAbqQRfYg7MD1HaaHBMcjIKZIDZSoDGwbxZgL9DcgxuK8RyJ7tcubwXtY3ZWDZ2I5m21zvv1cbp7qBEltMCphnUgMjAkEgEW0G/wAo1LDuwJVSQu5A0HOFpxELmyJbObsC2YHR9Ntrte2uw1lh4rc3KZtSVDsGAJtcWK6roLAWItvrLty8HJIzY81E4yw/D6ZrC3h3FtSMuh7mCYzGGplzbrzve+ij7qT/AJjO3Pui1A0UUU5kpDO4UXO0zxXLOCduQ6R8bVuco2H3lFM6jzg+SV8G2PiSYbHikWcDUmwgjY06Eo8qfF0gL5ie1jf6yr/zaltle/p+8o5R8ke5HyFS9NpmpxZb/BcfzAH7TTweNoOPESlvzbfSUckwXVyjOFR62SUywS3E4Mprup1BGxEoQzXFkp7WCYZNPayceNHm7YWkKKKUviBcgakb9pWUklbNIxbdIuJtvIGuPODE33ig8sr7BcMC7l/8R2+skMR2g4imbnI2WGPgMSqDz+ctmeIUr2ke75B89YmvDLopH3oik74+SnuQ8gMUraqOWsgapjqWaCFEdPOXav2ER4L7w9ZIVTK+/E1+ll8BEUrSpeWSVNS6GLi4umKNVfKpPQSUHxx8HmR+8iTpEpGdGEeQdrCDtmiCcTiAomJXxRY6knpa9vlJYisT6aHz/aUZCdL7mL5ztm+TI5P4GzDncxyj6Npbt+ssGVTl3PUD6GKtVufht5bH0mdlaEpBH31j++tqCbj5/wBZB6DtsrW5abesg1FxrY6fUTrR1M6f2d4vlPu31pubb/ATqCL8r3uPLprq4zDlHI+U4OhUtqOvqPKd1w7EtWw93OZ0Nsx3ZTqCfqPSWTMZx7jiKMm0d3sCTyhqdqwuPKsGxuIy+EbnfsIFhjr6St3JJJ3MlQPiEzm7Rpjf3oMiEUuo0c25sOsHGfQqjwv+GW2h156jSI4QH4Tyv1HlKslSQJCF2lBEvTaZSBddH7E/klFFFKCyjLiiijgLFFFFIJROnvCAYMm4hEo5OLtCzWqsikvBMGD44eD1EuUxsQl0I7fbWExyb4/JTHLcjJlFU+IdBqR1tL4Fi9Dp+UzHI/tZsizB4JsQ+VbAt15eU6nhXseuazMSBu21zzCiZHsmxWqANdNe09HoPppEuaclKkMNPji420D0fZzDoBamvqLmVv7NUM+coOWnK81mZiNpBlYiY7mE7Y+AN8AgFgi28hMbFcPT8om7WVrTMxDW0kcnNKjzXjGFFOo4HPab3sZXJL0zqDTzeRDAbepmZx1CapLAg99iO0J9j0tX8kf7AfrGGN/aK8sfuZtAWg3EHslup+0MqbnzMz+Jn4fX9Id0jRqlUaAJKnuPORjiZsmPDs1cLRzsBy3PkIRiVsVRWNj9joL9dLyfDaYIuSbE2Nult/rGxNMZ3N1DKVyryYdrekHGN3IKw2CYq13tlLKNDyNrnX6QEgIUa1wyAkE73uD9po1MRUFzTUFdy1he5sfMnWDVKwOR3BI8VwLC5O399pEmjoN9+g+LQOAQNdweoOw05wOltNfCU2CZbEZWJOotysL8wAfpMtxZ3HRj95nLoZ5+cTXihRR4pkLDLUXha01XRgCT19eV9OW8swFNcpJFye17KOekqpqHZz/hZl3vcEW8zHRu5W2vBa5UakdAQLG2mn0kDRVxdBqTpbQbc7/3rNSvgFshCnRlJub6X1JDb6TMosUdlv4c1jsQN7HzkS4KxlatAZFjrCYRj8OfiNrgA+YOgPaDrtMpAus+6Kf7FJJGjpJxSqSBMbqRmYmllY9DqIFiB4lsL7i3oZvYiiHFufIwXhOBNTEohB8JLsAbXCa2vY6E2HkZpmqMW30DYpt0joPYvDIMOz2GbMbnnYDaSxfGnQ5lRAov8ZsW/pDfZfCFKNWk34KhX0yqw+hEIrcGV6nvAdcpWzAEWOhsOR7xJNrdYwgpbaRk4H2trM2X3KnuG0nQPxF/dZ8mU8x2teA0OFCmMqai5bYXBPO9ppFBkZd9NZnJ2+DWEXXJyOO4/iSfCiZT+Jjb13g1LH1XN89NxzVTcjymxw3Cgq6Nex05fDe4F9xY9JJvZ1AUa7eD4bWH2GstcaKbZX8AuJwwrUGzDXKbaahh0mF7GUSalR+S07erMLfRTO0p0gcy9QdO5E5z2VosinKfE7Le98oUE7jnzhGOaSswljblRY41MB4muinuR8/+Jr49gXJAtAMYmZCOmo9IxvgmrRjyUUUzbISNzhFYDwkA3AIvpqB1H96S7HoWC5VsCRdb3swGXc8radNBMnDNoCNx+hm5h8aG0FkOl7bt2BP2g7fYPpqpIsR8oAV1vYXFwdbanQknUDkIPXRH8IYZi1xYNbbbUC3W94Q+AA9b38JNr769PSSp0lU3Yi2pvovqFGvLtIZyaXKI+5ZEUm5CAncZSefPz+cyUa5J66y3F4gN4U0X5Zj1tKae8ykzScH7TvwWxR4pmJy2iAEOgBKKQeYNj9DBqRCsosVbIQ2ujXBIItJ4DFNlyhiCp25FfWSbDZH961wo1AtrfyuLCOjkqbTI18K6gOGzDcjoDK6j+J0PhDnMTl1JtcAdNxCBWXUqr+W3K1r+I7HmekZVV2zOpTLYC3iJ000AG1xIaLRbXUuxpGR7sCbWIUaA6W19ZlodIXxJwBlDAljc2BGnK9/T5QOltM5mGoj/AEb+ScSbxSSCVh+SAYL7kTkuH1AmKoOTYElCezqVAP8AmIkYNxFCUNr3Gotv6QrJFSi0w+PDs7nCECpWUG+bI/8AtyH5ZPrDUIIExsVxKmKivTdHJBzBSCcrHfTaxGx11h+ExKtoIgyRaqxhjkrdBtZAFJ520/eBUsVSyN4xdb3vcajzg3FOMFT7umud+fQXGgM5nE4TEMc3vUVtfDfQLa4tpveUirNG32NvA10eqChJWoWA0I8Sak67ialZrTj8BjMRQfM4V7XswNzl8p0K8RSomceo5g9DOaOT8liOBmb8oJmD7O4VwKlUrZbAC51zHnb5yVbFmoQiaAsAe4On6wijigilAG2t4ul7i/U94Xhg3XANf3MEdrkmREUcQ5sukZOLoZG7Hb9pRNqtSDix/wCJk16JQ2PoeszZDjRbh9vWXwfC8/SEQefUY4eYIlnNrXNukjFHlGzdIUkm4kY4lGdKNxaCIo9o8oJtj8GXSqMhDKSCOYmnhsYjG76Mdyb2PQX1tMlDoPKPHN0Q4qSNipVpDp2sXNrdrfrI1MeiqQviN9NLAfvMqKQ5HLEu47uSSTuZZSlcnSlJdCupjeFlsmgkVEtEvhjzuYtww5sUVo8UIYWkDAZKqMBo90Pmfh/3BZs4XFhSLmw2+g1+hmJjaihSzXCqVuQLm5OgAuO59Jb7QUijm1wpN1/aK9ZBOSNMcqbOkw1BKhcm+rEgAlTbqYsaq08o91muQLi3Pr2nL4DjTX5Bh1vr/es6OnxdHS5IHWAuMkGRyquB6mCQgFlA6ZeXymXiayIHC6XN/W0q4lxrLcK2npp0nN4jiBdvMyYwbM8mVHS8HXNUBGy3Y+YGn1tL8Q12JmIvEXw9A1ktnLIviFwVJ1H0mzwXiAxaNdAlQANYHRlPMX215dxGGFfbwDxmlKn3GAjxyLaRCXbC0hRnphhYi4khFKNmiQEMFlJKnTof3jMhG4h4kplJWb45bVRmxwJoZR0jgSjibLJ8ASUWPK3nCqWHA13MtilaSJcmxRR4pxWjnKJ8Ilkt/hwNtJE0jG0oST6CfHli4pWQjx/dnpJiiZntl4Nt8V3RXLKK6yaURz1lwEusTf5GOXLGUXFdxKI8UupYdmFwLD8zaD+vpNG1Fc8IwhBviKKomQnbQc2OwH6ntI10J8KPbq5UH/Sp0Hrf0lKYdUa+ZnNhmdmLFu3YdhMceaOSe2P+TXUYMmHHvkq8eeQL2jqDIEUWABsPPmepNp2OJwa1kAbmFsehtOD4s+e5856JwdronkPtBfU04uJTQfcnZxGO9nqiNp6HWxHmIOvB62ujN5Nb7z1M0lPYyuphrDQLFyzSC3hj2PIq+Be9sp+d/tNXhfs+zeJ9B0najhilrkD7yWIAUWEl5m+EcsMU7ZxftPSUU0QaXb7AwHhmKNJ1dfw29RtY+mkM9pGu6jpf9plUukdaHH/St9xXq5/1KXY9AxFAPZ0IIYBrX11gLIRoRMXAOpZM5syaK4YqwBPIzosNiWPhqZX5ZgMreo+E/SDZZRjNxfYbaeM541Lr+uv9waPDThA3wHXodD/X0gz0iu4lGzdUyMeNEJRs0SHEeKKVbLpCjiKOJRsukKKPFIstRlRRR56Fnl0hR4pF2t3J0AG5PQSrZdImikkKASTsALk+kKOFyi7sqdvib5CBs5RWCnxm2dhyH5F7dTzPlAKzkam5MGyyyblGK5asylqIxtJW/wDo1WxtJPhUuer/ALbCZ+K4pUc72HIAaf1gDuZTcyv0Waf5sp9Zl7Ov0FPimJtmNudtL/KCYniDk5VFgOuv02iUa+Zk0UW21hmDRrF0fUynnnN3KTb+XYElRs93YsOmw+Qnbez/ABhVVaTjLlACtfSw2v27zmfcqeQhlCnqO21v0l8ujhljtkv0/DOx6iWOVo9KoPmWSZLzmOFcSal4WuUI5a5e69R2nVYSqGUMCGB2I1E83qNLPBLa1+n5HeHURyxtf3KnpWWYfEMQlMFna3Ref9ITxvjQQFEsW1u24XsOp+gnD4qqznMxJ89ST3hmk9MllW7JwvHkG1GujD7Y8sB4vii7lwoAOwa5NhtsdIGtXqtu42+Rhzrc2v5ypxHkcOxbY9EK3O3bIBrsCNgB9+8NTFPyYj1MDXkPKSS9hrBcugjN3fLJjllHmLaNnDcYqp+LMOhm3huPo/hdbHr/AFnHWYSxP0gOXRZMatcr4CcevywdSdr56/2O5OER/gOu9tr/ALwJ0KmxmJgOIsnhJPb9P+Z0eCqe/o5ibut79SORg0YSlFyroOMerxycafXt3T+QWPFaPMmxgkIR4opDZdIUUUUrZNGXFFHnoWzy6QibSCPlGf8AEwsn+Fb/ABeZtYdvMSL2Y5Te1iWI6dPU2HrKqlTMSf8AgAch0AGktjjul8IxzT2qkWIt1brZv9tjJphgyk9du99ZOjo1jtnt6Msag1sidMw+RtCqp2BpFFPB5kDef3MAq0rA+k2uHnwAf4ngGJTftaWRFGeqant+skiQjJZQOupjCnLUcRSn3hSIBrreMiWlqrecyUiauwsV57jcE+UNwvEGUMillzA5l216jpM8ar/KeXSOtbxX1Jta/wDSZThGSqSslNxdxYVVFx4ibDy29BAKpvsJa7k7/KUm0siChkFrWlZpi20IsImUSSbB0pC40hGEogpsNBePTAvLeGVAuW+2oPlK8pk8F+JoDIWHNSf9sHxNEZXIH4fuLw1U+JL7EgeTKbQRXzU2b/Av2A/WRLk5IAY2t12HnzM0+F440ai9Ncw6g2mVQGZlbkTZR26+u8JxL3dT2b6ECYLDFY9qXB0ZOMrR1mNpAEOuqsLg9jBpHgWIzo1E7qMyeRPiHobH/NIvVVdCdYhzw9ubR63R5vexp9+5ZFB/4teh+kkMUveDthqiy6KV/wASvX6GKRZO1gEUeU4p8qE9p6Fs8skVB7Jc/jcj0WwH1LRgthr+Yr8xpLcTQIU02BBRVAHci9/U3PrB6Yzoyk2On+oXAP2+cKwqooAytuTZa7+AHnZb+aG32MlTqeMeZPqQD+8BWoWQf5lPmf62iwj5nQ9xf66TYyNPAv4ANvi+8g9K66fib6RqakL5MwPrrCqTAlRyB+luUm6OZv8ADOB0EXPWrItYMhWm5FkVWBZXX8RZb9oRxbgGEa5R2UlQyGmpdCNSA3LMxNgARsOs0MNh0ZabUHSm5V1u7K1TMwRQbLuQAbcx9I/EuH+6VTiK6qi6IEptbTTLbNq1uZBO+t4reSTn1d+AnatvQ86qo6EqwKkbgixEghPUw3ELmZjcm5JvtfXe3LykaNEH/mNVLgFoEok3IvLDSymw/rbpCDSAci3I/aEOgzDQagSHJHKLMutSynzlBWbz078oM9LtO3E7TOp0RYu5yotszWubnZVUfEx1sOxOlptYDhyMmY0gupFqrtntpqVSwG+3aVGmuekrFQEUOobbPUZlzlfxZEVdLdYVw2mXBXNtUdb5r/CxBN73ba9/KJdZq5ttRdL4G/pmmhKf3pPi+UJ+AqSSgyG2hzZ0Y/zHVfqPKc8tEqASLG7Kw6EG1jO44Sh8d9VTRrmw109ZgY+mBdeqBv8ANqD9RNNBqpze2TvjjyCa7EoZ2opJfHQCo6vf+T7GZXvT7soD8TZD5Btbegm/gFBQtbmPoJzTGzPb8LvbsWO/yv8AOMZPogVJoKw7+MHkuvkAJEv41H+AX9TeNQTQLzcjzyA3v6mTDXquQL2soky7L5Kovw2LNJw4NrfUcxNus6VUFZBa5IKnkR+nOcpiACRmNzrcDkJ0HBKmelUTmtmA7Wtbvaw+cW6/HGWNy7obel5pQzKN8MaKKPER64aKPFIOFKKpVjlY2UWLHe/RQOZNj9ZOvUCKSY2JpIoAJzNclugO301A8zPSRW50jxmWe2N9xyWCMy6Zmut9dTrp0109YNTAuHGzgjyb/kSbO9vDYlQCt+nb1kKFRXRraHfL0YcxCsMNid9W7Bc+VTaUeiSX/oE5szD83iHmNxI4J7VLdww8j/WPiWDHw7jX56n0lFD40Yfhax/lMtIxR0hTR/O8bALeoikhQWUXOwudz2llM39RIcPxvuqmfIr2BGVtRfkfQ2Pp3ku9rrqQup1qKhZHDs7LexogqASUBy9F1Yb3HaD06jMRUyXBSm7XJdrqWBtozBSWS9zsD6AYfj5IYu7Jc6LTVfEL6As9wAu2gg//AJir57Je5IDuc7AEcuQ5nTrBVhl0Zq5rsG8boqcrF1zjwZEF1Cgk3JvpuCB0PaZaJrGV7c9TFUa9tYVCG1VZm3bsaulqi9x+kmD408pn41znXe+kcsbr2vJ2kbjXBHaU1QOsEpvqfOPiqgW3edto62LFuUNLEodaRyPscqsWytbp42X/AEzYpIqkGm3vA5ZiwXILlsxsu4F/tMKjWKkkW1BBBAIIO6kHQg9IdhuKU1CrldLG9kbMt/JtR6kxVq9HKTuCsa+nauGOf3uuK6G1qiMBkZqhPhJOZdN1HPc6662nN1KgLsCb5LJv+XQ/W8L4jxvKL01IYggu5BYDbwgaKe+vpOdwex85fRaWWOW6XHhAeryrJlclymzbwZsjC+xM5cWL1CfhD3IvYE2G55CbgcBD3nN4fWu99QLG2+tt7dYdPiSoxjymHUazM910G7ORa4H4UB2W3ODYaqz5gpygklm5noBCsc5VP8T6AdB+5jUqeRcoOXKLu/5ew7yGm5cvoQugRw3hT1XK0kZyN7f9zHQdfSdnw/2WeijO7LnbTKpJCg678yfLlAf/AA6VvfuCMqtSVlXoM99ep1uZ6DXAJsdmGUxDr9bNZ/ZXC4/fIx0sIxrJ3TPOXwJF9bm/KM2DOljvfft3mviuHOHYeHTcnnptte2sySrJlY31LXA01VrECAyVHqseTerTK/4N+n1H7xQr3lLqfr+0UgvukYGIQ1Hy5sqIdTfViNbL3212F79BJu92OYfESe1zI8RFgoZyulgvJCD8V/8AFqT56wT+JZTle1+RFtR5HQ+hnqcEa+7yeGzScpBYbTfa4+e3yIEEC2bMNjv5kQhFD3t65dx5qdRBK9UofEDY6MB17ff/AIhLdcmAHUcq5KkXF9+Yv/xI8PqZ6wXMED66i+qqxyjzIA9ZHEOjMMrWB3uNusnwjhxq1AAQApuWPTlp3Nh6wXJKnwzaMbR1VAmwlDJ4jLcM3hEasPFCbMWioiXYE2QnvKap0k6JsnrLXZxF2zG2sPoUwQBM6lq3lNTDHT+/3kM5AVdAaoFpa6C40G8p/wDtvL3OsryWpErDNtKuInxCWOdRBuKPZhrOdnEKb8oynxSGYX3ESuM24nM4vx58EG4fsZdinBTeD4BhaUd7iewUyC205KorCu24DXseRA0PnOsrMLGZ3G6Z91h3XezLfsxbX/Z9ZjnlUo/s0xR3J/CK8JTNRwx1CDS/XvIV6gdxTX4FOdz+Zun6QCurU9C2pAJykgeRHWaPDKGVNvEfE3/ap8zY+k3Tt1/kyqjb4Bj/AHWKR/5UbybQ/Im/pPTKtyA3IWNzoLes8bXwXufEed138r3nptP2iw3uVZ3GcqLrYlgba+HziP1XTSnkjOK56OvjoG6XIlFxkT4q/hLouYjffW3O3S05itUVwpICjP4rDYc9O5l9T2tvUUIoVLgPfUleeg2lnEsOhBKMoD5WXUWJ56Xvr5QTLhyRipSVWO/T9RCVwXVf6AstDq/+kRSn+AqfkMUw5GtR8mbxSsatV6qqPGzMAuwBOxXn/e0DYeG2RD+Zb6H/AC/hPlJjDj4nsOyj+yfpLMrbC4Hckj5G/wBJ62PCpHgWwMUENshI6KxsR/I/6GV4lKqEBznRtAToR595fiqAtdsvmQB/UzORmZgiszeIWW9wTfS0iWRR4fUsothGF4UazWp2uLm9zpbXUC/ymu9FcM7BAbF0zE8wCNV08Ivc8999BbR4fgWw9IVFUhzfODe6i4Gi6W57wLi1S9zYXcLqfw7a/MRbnzbpUhrpcCUHKS55oWGPLXTSWV5Umjv/ADt/1Gdf7L8Mo1KdRqyg53WlTYi5VypN16G5HyEZyyRhjUmKtrk6OLrtJsfAJ0nBKb0kxBXDrXqpURMrrmyiz5iO11EvTGHB4SlVpIhr4lm1K5sqg/Co8yNO8q8/LUVfRLn4s7Zxyzk8Oel/SG0HOU76TqsJXapjMLUqYZ6LnMrsVyrUbIdQO2u/WWYHgtWhRxjVVADU2y2YNfVjy20IlfqUlyueO/ySsbfQ8/BJcnXTc66efSX2N+vznZeyVBFoFHGuMaoq/wAqIdf9V5Z7F0kU4laoGXKquD3ZlP1M56mt3HQ727rnqcXUOognEtWAGunKehYfAmiq02Hw45ANNxluD6iSTPmxZwwQ4gVgbPa7UhuFv3v/AHaVlqlzSJWHnlnmpbaJTcztuGcXb+MNNaCotaqodKihmQ7NbkOZi4jX/isWMItKmirWIzooVyq3zZiO1/pL+/JOmuKvqR7arqcbXPgMpwk7X20wVIe6egqqlS6+EWBZXyk+v6SJ4LSSrjbpdKVJXpi7eFntbY62IYa3kfURbUq6k+1Vo5OudJpPTH8Lh2I6BgeamoT/AFECxZspm22HvhqSH/8ANfmRf9YL6hkpRfyHem4985LymcdiHS9zYtc7AlieljoPWOKbPoxKjcImrE9XbYHz2hOJwxzl9AyqM9wc3TOPzX0ud7nyMGS5bLqT0JA/ZRCcWVZIp31A8uOWObi10JBMjEIqA9T4vtq3zkjhXa7NnbqWbKvoq6mGNUKixKKeiDOfU/CPlKXJb87di2X6KCJq0mZWBqxG4Nh+FVyjzJJ1nbezdcV6RRguambrYi5XU3PYE/accE6It/8AESfuNJq+z2OKOaZQLn/Ep/KCdD+kC1cN2NoM0WTZmTuux1mQfnX5iKcv/FCKIdp6rb8mWjEWub6Qmriwi33J+ESGLwzI7I6lWQkMDyImPjahz26AWnosmbbC11PGxhcqGxTsxuxufoO0bB0XLBqYN1IOYbAjudPSE8KwhrOE2G7HoP6zr2wyogVBoLAD9z1ifLqKfyMsODcrfQOwmKFZRrkqAeNBrc3uSuoFjrpuOcxuLorJazKUA1YWBW/S57yp8OwYMjHPe9xyPnyh9biSVKZSsuV7aOo8LMNNen28pEMql1CuYqjNv/6j/wA7/wDUZ3eHrUKGEw4rq7FnaqoQ2IZT4SbkciJ50cUvvH1/ExHcEmaT4ksBck2Fhck2HQdI9jBZYrnjrx+hG5OEnwdTx/FNTWrWoMU/iWwzgiwJDJUzD5rrBaCpicNTw/vUpVsO2amXNgynXQ9QbfITlFe72kce1yBJWnqNXzfUo58nob8RRamEpviFqvTd2qVTYKMytYZtuYHpMvhOLAo4wO4u6EIGf4jdtFufKcqNFEud7Jzk/TJKr8f7sn3XdnXP7QU8OaNKmlKqKSJ/6lwSrnV8pHOEY2rSBxuSohFZEZbMLlibsB3vc27zzuixvzhytpzkfSx8/v55J910d43FEqUsKzMocV6fvLkA+EEZj2tbWZmKw1Ks9bJWWjiFrF0qFyFamTqAQbd/lOSY6iD49dJH0qSdM73X3R1eCxtOpxMVM65A58ZIAbJTK5r92Es9n8XTpHFY1yGu7KiggM2dyWK9NCNfOcJQ2IlgFpKwKSq+KS/wRvaPQ8b7mvg6Rw6sq0sVTGVzcjMwvrc6XYfKV4rFK2BrVb+J6poseyVndfo04g4hlQ5XZRcEhWIBI2OnMQTB1nKFc7FScxXMcpb8xG1+8o9Ptklfey3u3F8BOOcZbAzrcYtsq9FA+QAnEV918xO54gNQ3IgH5wH1PsN/R63NsxOK0fDnXR1+Eje/lz8pj47Dgu3IBmuL7m+pJ7nWw0E1sbjQvdgdB+XoSOZ7dtZkBLm5O/4h+omnp+GcYty6PoY+q5oTyKMO3Vj01RRoQPIE/vI1W5qRbtt6qfh8xaSZR+I+TDl59oO1+frGcmhSip3udd/r6EcpocFqXqoG3GYq3UhG8J6GZ1Rb+Y2mvwSjf3jgaKh06OSLH5ZoFnlUG34YVpouWWKXlFF4oF7xo8QnqrZ2X/iH/wDNb+VPtPP+IfGfIfaPFG+T+NHlofmbHsl8VT/L950mI/D5N+kUUS5vzG2n/jGo7N/m/SZw2PkIopEeppIxOJ8vMzQwvwDyiinoPTugm1ZDD/HGx/xiKKMWBBLfCJKv8EUUsupwHh4cNoopL6kEBuI2O/SKKRMkDwu5l1X9YopnAsyT/AYLw/aKKRP80SvxFifiH99Z29X4E/kT7CKKKfUew39K6yONxX/ut/M33kaX4vOKKNMP8aFOX82VVdj5iVPFFJkURVOl9nP/AGKnmv8A0x4ou1f8TGOg/wCREGiiiiY9Of/Z</t>
         </is>
       </c>
     </row>
@@ -1012,25 +1012,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rahmanullah Gurbaz</t>
+          <t>Ikram Alikhil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023_216</t>
+          <t>2023_214</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>44.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>73.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>WK Keeper - Batter</t>
+          <t>Wicketkeeper Batter</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXGBgYGBcYFxgWGBgaGBcXFxUaFRoaHSggHRolHRgYITEhJSkrLi4uGB8zODMsNygtLisBCgoKDg0OGxAQGzAmICUwLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABFEAABAwICBggDBQYEBQUAAAABAAIRAyEEMQUSQVFhgQYTIjJxkaGxB8HwQmKC0eEUIzNScrJzksLxNEOz0uIWJCVTY//EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAA3EQABAgQDBQYFAwQDAAAAAAABAAIDESExQVHwBBJhcYEykaGxwdEFIjNC4ROC8RRSssIVkqL/2gAMAwEAAhEDEQA/AO4oiIiIiIiIiIiIiIiIiIiIiIiIixPrtGbmiM5ICIsqKG3SVEmBVpk7g4T7rPSrsd3XNd4EH2RFlRERERERERERERERERERERERERERERERERERERERERERERFT9JtMswlA1XZyGtAiS47ptYSSTkAURW5K5p04+KtPCl1HDNFWsM3OB6th+9BBPgD5Ln/Sjpg6u0vZWcxzzdraz4bTl4LHMsD2dUl15IN720Kvjpl0ElxuSZm4JJ4qF0Bmtk0509x+IeTUrEfdaNVrYtAgyDNs54rW6+MqHtOcdY53Mb73XqpWl0hwAOc5HyB238fBeTUBEN2HPMW7xEjf8kUpTxMGTMnvEnWnl+qs8Fpvqu5WqN40y5ngSNeA4b7qkq0ybxAJOrO4Qs9PCkkNDSHQd2sdthuhFBC6boD4xYmkxrKjBir95z2sq6u4Bohx8l1bol01w2Pb+6LmVAJNN4AdG0tgkOA2wbSJhflsUAD2oHOCfDNWGhtKPwtdlfD1IqMOZ7UjIg2u0iVKSX67RaB0K+JNLFh9OqAzEMAOo0yKoJiaUwSZ2cQt/RcoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIuZfFYOrVcLh3OLKJdUc8tBJ7DWy62yajW/jXTVyv4xaSdhqTXMcW1i57WG921GBtTxgeRDSikLiunNUVKjGElrSWtMRIaYBjZIGSqBTMBWGFwzqpaxonmfMrbtFdExqjXz3DIfqqnxA260w4Dollouq60yQLZ+g4KQLiIAZOTTOzadv1wXTqHQ2kRebqt0j0BEzTJnkPJcCO0rs7K4WWhPOqLi3kcjYFZaOu0ZuaDckQJudu0hbJU6F1G5zw4ePovT+izxTdrOgNE5TYHb5Lr9Vtlz/TPktNNGT3wecE8s1ldhalOCRAORBz8FaYjQzxrZHqyWujha3lCrH6zC5okDdePAg5GNysDgVS5hapNHEPpuZVaS1zHNLXNzBmWxGVwv090C6SDH4RlaRrjs1ANjxnyOY4FfllucawAzibWOXmfqV1X4DaUayviKTiQKmoGyDBcC+xcLAxMA5wVK5K7qiIpXCIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLhfx+xutiaFHZTpuefF5AEf5V3Rfnj47O/wDkI/8AyZlulygqW3VJ0PAk7zZb1gxBWldDaNi+0ZBblQrMy1hPisESryvZgUhgK/oPACzANKg4SjrKaaO5RVTRHkBVGk6BN2wcwQciCDYxsOXNWzaO9e3U2gZhJFJgLkmkNHYmgw2JZUparjGtYsABkWnITntIlUGNf2WkxrQAbyTAF+a69iKVPutqEN2sBaW+FxIHCfBafpzolR7VSnrNtOoO6I3SJA4K5sQTqqIkEkfLrGi0EXLpsSfnP5Lu3wK0fUp4brC0GniC5xMCQWdlp8CJt+a4mKInft4/V1+h/gnXLtFsB+w+o3lrkj3WkLzit+REXS4RERERERERERERERERERERERERERERERERcB+P1CMdSP8ANQ/teV3uo4AEkwBcncBmuLfGvEUcV+yPovDi19Sk4RBHWamqe0ASOyeF1BIC6a0mwWomm9mHpU6ZDS5oLieIk/ksQ6P4hwOo5w8TbhcfkVs1OhA8LDwAUH9hxDi+HhpHdyM8O1YDksbXysvWfBBEyqKnTxlFwGu4EZQ8+o2rf9AaXqupS8S8WO9ag/DVDTLa1SamsNQBrDbWMkloBECBneMlsWhK5ZAzO/ej3pChUoCOan9JMXiNSKViduZAjy/3Wh18JjXmC8/iqQujaRriowhtjkPFajicE/qiadQisSbQwCIMdpwdJmN24QjHlQ+FO8+iw4bopULdapUDj/MHF3IXj6yU7Qoexxovu0dwk3jaOS94XCYtrGuMEkwRAaQABfWZE3mxbzV07Dy0ONnBHuJoVMOGBUUXJ9N4YUq9Ros3WMcNa/zXevgrRLdHNn7T3uHgXGDO3Jcb6XYV37SYBJe0EAb7ggcwu8/D99GnhKOGpul9Om3W7Lm6xzcRIvclaWOBAXnxmGZIFJra0RFYs6IiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiq+klIuwtdoME0335FcWxmGDaVBokgPYZMk9xxBk8Ysu9VGggg5EQea47pzCFjqlOOzTLr8Wukeg9VnjCoK37G75XN6qHgqfaVu4QMh4KvweYVk8CFmC3lUuLptnISsujqUO5L3i6rA2S7VA7zvkI38FK0LiqHah0nyjxBukqrrekF7fTvZe/2RpEwmOxeH1wOtawuIAEzJjeMuakUqxmDfcUlJc7017o07bfT8lGxbFaU2BRcWBBUkUXE6rXhRDsZh3RMCpORhsCSJ2zHmtt6E6PAx2IrAnuQQTtmOVgPNas5pIqFrZcA1osTEkuJ8g1dC6EURq1an2nOaDyY2fdWQxNwVUc7sJxzp5ey2lERbF5KIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLQuk2g6hrucym57at+yJ7UQQdwtMlb6i5cwOEirIUQwzMLieHBY4scIIJBG4gwVNrV9WMtWOc7Fl6UYXqsZVGxx1x4Ov7yoXU64g/VlgIk4heu1280FV2JxQvq3lZadSf4gERIDtm4gKvfhazKhBLAJsWgk3y3D1WwUMMdUfvapsDBpCNaDObsp2rtoUu4z7lFpVyWhxbrNzysDlabeSscPpNkgFpBWGrg65ux7gLTrwPGA07o2rBhdH1tcl7mkDZqxfeDNkdRJUWydZ2ZGSrcY8kqSOyFBxDtq5KgKbovRdYiW039sy0xLHCImdmW1b/AKFwAoUWs23LjvcblZtH4cU6TGD7LWjyClLYyGG1Xlxo7olMEREVioREREREREREREREREREREREREREREREREREUbGY2nSGtVqMpje5waPVEXOviO6MW3d1TZ/zvVPhan+6sem+NpVsS11Koyo3qmjWa4OE6z5EjateJNM37pyKwxO2V68H6TeSs6+GJyzXl9XFgANa0j1Xmjjezc+ean4Wq0iSZUNVhK+YNmJcBruAG4XVgGwLqL+0AA+nnksGJ0haymS5ms2Jq7FADtZ4GyRPmsfWueYHMqTqhmrwIJ87yuDRdSXXQvq16p020c0ScZQj+sLP0f6UYTG637LWbV1O9EgjkQJHFekQV4YIV0iIoUoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKn6Tadp4Kg6tUvsYza92wD5nYFIBJkFBIAmVD6YdKKeBpyRr1Xz1dOc4+07c0b1+bemmJqV63X1Xa7394n0A3DgrvSOmauJrurVX6z3cgBsa0bAFWabohzMrfX5L1f6QMgO/u9sAsI2gujDJWfQAfuDH/wBjv7WLc3MDhB8Fq/RQjqmwAJnhk4j2C2vDtXzMQzcSvqobZQwOCqMVhXsPYPJQRjsSw2YT+Ekei2bEU+C+UQAZlA4qC0KkoYjFP/5ZA3kEe6ssNgHu755BXJdrQCVnoUwkygACwUKAYLBRMaQZCsarVW41tiuDVdtzXD61R0kcSPIrcugukKmEcytTPabcjY4E9pp4FV/SbRrOuOrZziCY2y0TbzU/BUdVoC+j+HD9ZxcRSUqr5nbx+jJgNZz7l+jdAaZp4ui2tTNjZzdrHbWu4hWa4b8PNPnC4sMcf3VWGvGwE2Y7zt4FdyWfaoH6L5C2C7gRf1GTx15oiIs6uREREREREREREREREREWqdJem+Hwssaeuq/yNIhp++7Z4ZqWtLjIBQSBUra1rGnenGEw0gv61/8AJThx/EZgea5fprpTi8WSH1Cxhyps7LeZzdzVIKEZLbD2M3cfHVFndtAs3X5W2aa+JmLqSKLWUWbDGu/mTb0WoYjH1a8OrVX1XS673F0b4E25BY8W4NaScrrHTZFNg+1GseBd2iPVb9lgtbEkBh6y7781jjxC5lTjr05KPiKEdoLLSh41TcHP63qQ2/17rM3DMb2rmMyYa0eM281v3JWssZiUrdeeiDY6ymc2Pt/S4BwPnK3Gg1aa39xiaVc/wqoFN52C8td4XzXQmYey+K2yG1kZwaaTpKq+12SI50Fu+CDKoIIPisQbIWI4IHNTKbIWTUWVaFgw2DDVNa0ALGAvcKVCwvUTEUpVmyjKqukmILKTm0odWIhokdmbFztwAv5KJKRMmQEyud4iKmJrPF2sdqN3S0AE+YUhjV56gYekAIqOF3wYAJz7cQV4o6SYQNdr6Otlrgah8HgWPiAvrvh0WAIIa08zIynjXnTLivlfimz7Q2Of1BI5TBMsKAnCsr8FkpNEkk3mAOa2vQPxExdHsvIrsBIh9niDFnDw2grV24Z2ez33XyKxYWmdeq0D7bjwvD/9Sv2qG1wbvCldZ9yy7O8tJkV3XQHTTC4qA1/V1D/y6kNM/dOTuRWyr82OpK+0J0wxeGADamvT/kqdocj3hyPJeXE2IjseOrrczaR92vwu6otP6P8AT/DYiGVP3NQ2hx7BP3X/AJwtwWNzS0yK0gg2RERcqUREREWDFYhlNhfUcGtaJJJgBZ1yz4qY7rKrKANqY1iNmsYmeIBHqrYMIxX7qrixBDbNVvS3p1VxLjToF1KjvBLXv4uIuGn+Xz3LVmUCpGCwpJM24qW6iAYzXsQ4LWCQGtTnW2S86JFLjOevHoZXUFuHOS+lin1aNoAvvWB7ZExEZ/orp6077rAYGyprlruwxONlU4/Bl4kCRa07iD6r1WDT9ipJPeLmi+4Qp8b18ibQoEhMg364czas13UyBHmMeQvSSr2NImGtaBt7/kDAnkVGfgOsk1C5+4OMgAbm930Vu5k22D1WRjbceKFu9evPwzFU3t2uuOVclG0drtp6jmdYwCHMMTH3QbERsWx6D0ywQzWlosJnWb/UDeOKqdTaM7r5Xwof3mj8uI3Lzdo+Gw4lWUPmeInc+S9fZ/jMRjRDjDfaP+zRwMrDI40FFvzIcARcHaLr0aQWj4GpiKR/d1J+6/tA/qrrD6ccYFWmR95naHMd4LwIjHQ3brhXVuC+jZs5iQxEgneae/kQbEYhXhphHVGtEkgAbTkqyvpRos0hzt27xVbiKpfcmeGwfW9cLqDsrohyClY7TjndmlLW7XbT/Tu8VVzUcNWmyZze4Z+efNZBVZ9qY3AZ+JOzgsjsfAs1wOyYXsbJ8OJ+eL3e+PMd+S8vb/jDIE4OyS4vv3TEuRtPs5qG3RYaJqGXZ9o9nhbKVC0rQZU7Be0g2hrJ9TZSMRVc65NzGd/aFFcwiwMeED9V7QbISw8M+4ZTqvlzELiXEzPOuVampxMqKFRwPUgGnUqtGUF0tNtgiAvlOnJJyBMkwBJy2ZCBHJSuqGZudpN/dfDewiEDRSWvOuQsQpLjXXtTPIrGQvnVk+O6FM6iGyY4cVmdTgTaVIadfxbPKwXJfrRvlndVjqS2rol00q4UinVJqUNxJLmD7hOz7vlCgYPA603vuWHFYDVGVwqYkNrxI69vHNWMilpmPx+fDJdywWMZWY2pTcHMcJBH1mpK4T0b01WwlZpY46pcBUYbtcJE22OjIruVGoHNDgZBAIPA3C8qNBMI8MF6EOKH81kREVKtULSuNbQpPquyaCY3nYOZgLg2kcc6piS55kuILvGp1g8l0f4naT7mHB++72aPc+S5JjT/AO5PGlS960r2Ngh7rN/PyC8vbIm8/cy81s+EIDXuIkudI4ACF9rd5s7o9FE0fjespEbQSD/q/wC78SlC7hF7tv6FaHCWtAclUPbWZqKVyXyqOzM3so7m7dm1T8S0wTwCh8JsuwZnXWwwwVdgPWnI1OOKjvZfLw8l4LNm3epAzPp6LyWeEqajR9+/ikhh6e18uCxtZ42WUDbdfQzbC9Bu2DsUSGpd1zzXRnqffQC1kjjmstMgWkQvjQeN16a05XUTGes7YWQg5ayvjcr0Y9LZLI3tZ5rGL2k2CzCzQZvHzVEfZmR27r+hyOGFjitmw/EIuxP34Zobgyk4YzrcWacOVCIA8h81jJ1jnAXotnM+luSPYRI2T81j2XYGwnb8QzOF6cai+QXq/E/jj9pZ+lBBaD2pymSftobZmczagmD7pMbtcbZQ0LFUM31jadyGoTyHyXku2x9SvR1h3W+5fPmep99z2bLC9u26wup7IKkFu8LwRwuuhw1TgcFBnqedcPuwUV1I7I2KThcMBnAF/dfW+tpX1zibA2UyOtHpwQka8Bh+7isdV2s+Js3LiVlqUzAP1mmGYSSb2Kkht5iy4oMPLuwvdSZ5+ffjY0UnCGARzle8Q2WvaLgj3E/IKMXEFwyED1OxSwZki36CFwc/41yXfDPvxEv5E1U1qI1wc5AM+It9cF0/oFj+sw2oT2qZj8Ju35jkuSUa01i45SGN3AAfXotv6C6Q6rFBpPZqdg+P2fW3NTtcCcCWIrroq9njSj8DTXVdTREXgr21w/pVpDrsTVfMguIHg3sj0C1fG2rUT/M0j/K//wA1PrvtPFQtJt7NN38taOT2/m0L6QN3WgDCS8Hem4k4z8QfWS96OeGPq7gWu4QTqu5XB5K7ouyGy3hnZa9SI64jY9jmnnJHsrPR2JkAk3iD4gwfZcvFVY22sadbFX2NaIyEQq+mDly9FY4+pDInMKspFROYn+eV6c1EpEiXSg5ilZWkvrhcHkpWi6NN9Vjar9VhPaIEkWPzgc1ie24IC2bRmCo029ut1NWpSp1GVC2Q0OJ1gzjqgCZm5hcRHhracqfwc5+ishtLnTJ7599SKns8lUY/Q7m1CKYc9hdDSMzOVpkXm5jJedJaKFEDWqNc8x2GgmPF30N0ra8LVY5jnNqvqilqh1arMgONxSacrSZdOQsbRpVRxcSSTJMybnmVVBfEeZE0F7zPhTwK7ishsEwBM2tIeku8TldY2tysvuraIuvo8V6aOImy2fNP+b+yyfLLpwtLz9F9pUjOWSz1jGzaF7oMFrhYsXExIhV9PA2x713PiO8XwNrL5q7xmUFxqxdAPO6+OG0G66AOp39lBLZfxbEWvkvlSnuGxeC0clmB2T7rwRsnb9eygHVbaspIrYf+b4Y2z4rEQPqEayYyn6CytbJ2qbhKQkFwtME8SeyOE/LiqI8cQm1vrhY5YlWQ4Tojg1gvanLI4YZCagdQRJkcl8/ZjED8lc41rC5rQxtsyLA8OO2+++5ZtJ6F6pjXSO0MxvufoLMNtYCxr3Sc6wIHofzWytOzPkSKgcxxN81QUaUbNv5qXh2g+GxWNbR41AWkkECTbgJGzOxCiUqD2utBA5K+HtAiA4d/rx81W6EWmUvKtOEja/EKt0rbrD9y3jeFk0jii2m4nYLc/wDceqdIHQJ3mk3x7Yn3KpNJ4qabr51CB4A/XktEIbzuSriSDef49pjEYqJSqavV8Xj2Kv2VyyprDNrpHiDK1XrNarRbvf8AKPmr6rU7Z8VqNSdYLK8ESOrrq3/rSlvXxcv64L4vO/42HmVu/wCRiZBQagkFQ8SNajVG0Br/APIQfkrfSmCNGpUpHNjoPlI91W4fvEbCCDzELaPmAlj7LNVpM8PRVeJqEajxwP15FS2YoNqgbKhaR4yAfl6qFhBrUyw5tJYeRj3HqsOIJ1GHbTePQ3VD3fLPr7+C1MEnS1w9FubcWHMANiN6z0wDeVSUhJurfB3NhskyQBzJshz14rgCVNeHPO3JSSzyWxYPSdB1AU67CX0xFMgAhwnstdNhE57tqi4TRzmOBeGQJJa6SDBgg7Jk2G1SepbrBsgd4TqyJFhYEkyJI4lZokRj6XliCfRXw2OZW3AgeveOKiY3FgURh6cQXa1RwEBztgYDfUbxuYlVTmHjaPZbQ0tP26hB2tYBIMaxs3iYAmbb1Ddgg8h0OeSwEuvBdDYOYMQHgbO7uKlkYN7Ql33xvL8I6Fvdkz9srHn3qhg53+isjGnO9x8lYYllEtimwzJJcSe7aBE8c+HFYm0hut+i0Agi3gO6+azmf93WZvadkptI33R1KbxcCyytpWy8F9ZSgKNW/OSmep4ZW68lgHaExBGxY9WJN7/XzXpsB/BZalMHd6p08PDvSZzrnPG07KG9sWuvkTaNyzFkjjfcvmpx3LrX5uuKEcOYtK1r4rw3PI7clc4OTSgU3Frg64iDeBImdgyCrAzirTR1PWGprwQT9mTFp1NxtxWDb2ThTAtLO1fWq27A5ojfMRznjQgjdmbDI1Vdg9HvqOLWtJdumN+/wKx0yRf6Mz+Su8RhXNOvTc4m5cdpJvJ1Y2zPJRKVCSBG4ec3PnPmp/qjEk4H5ZifC8wZ53nTDNVRIIhkNbetcDWhEpES4qRo9hLSCbNFgALl2U8LT4wqnFtIMiQNqt6upSa4EOBAkEEt1pNtWLRkDKoRpAOkTlZc7Md6I57ez3YAT8lo2qHutY115WocZis5kXmemCqekOLPVsi7i9oaOIIcOVj5Khxr41WTIbt3naeasekeJ1GtdEkVQB+JrlSYipLvBenClM9FgcDIDnqS96HOvjG7mMLvIfqFeh1yd3ucvmeSo+iYnr634B+K59IV7UsANp7R+Xou4R3m72ZKqjiT93IAJrIvPn5IrZKneV50u/43E/1j+xq1uh3wiLPA+mzk3yV8X6j+Z81T4Pv1v8Sp/cseNyqeKIq3dk9fVaG3HRXNHNbJ0f8A4o/pd/aURcR+yeXsu9nv191a1e+78PuFd6Pyp/j9wiLHG+mNYFXwvqHWIWTC/wAFn+Ez2WGp9j+kf2MXxFQ256rQbjoqWnlyWU93l8kRem6/VecOx+1ZTs8Pkvo/L5oirw6equ+/r/qq2rn5KU/LkURdG/X0XA7PQeaxu7w8fmvjF9RMOnqu/u6/6lfWZD63qRo3+JS/qHuiKInYfyPkqR2mdPMKQcqP4/8AqBbDU7h8PmiLyduuP3f5uW/ZOy7p/i1U2mf4D/Ef3Lnzu+vqL0PhP0jz9li2/tDkfVVPSz+Gz/Fp+z1WVc3c/ZEWyDjyHkVET38wpnRH/hKv+P8A6WK7rd/y+SIrtn+k3kscb6ruZ9EREVyzr//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgSEhYYGBgaGBoYGBgaGhgZGhwcGBkZGhoZHBgcIS4lHB4rIRoYJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJCw0ND00NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND00NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQYAwAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIEBQYDBwj/xABAEAACAQIDBQUFBwMCBQUAAAABAgADEQQSIQUxQVFhBiJxgZETMkKhsQcUUmJywdGC4fAjkhUWM8LxRGODk6L/xAAaAQACAwEBAAAAAAAAAAAAAAAAAgEDBAUG/8QAKhEAAwACAQMDBQABBQAAAAAAAAECAxEhBBIxEyJBBTJRYXGRFDNCocH/2gAMAwEAAhEDEQA/APVoRITEWiwiQgAsIQEYAEWEIAKIsibR2jSw6GrWYIg3k/IAcT0E8m7SfanVclMIoRNwc95yOdtyw/gaPXcRjadP/qOifqZV+pldi+1GEpjM1dD+g5z6Le0+da20XqMXqMWY72a5PqYntjzk9tDJSfQWC7aYKqyotWzMbDMrKL8rkWmgM+XRiSCLmehfZ/27ZHXC4t7oxsjsfcJ3Ak/D9JGmgaXwevGIYt4GQxRpiRTEkAES8IkCRbxIRJACwiXheAHWEISSAhCEACKIkUQAWRNq49cPReu+oRC1t17cLndJYnkX2ndohUf7rRqlkH/UUAZc6nQBt7W48L2jEpbMr2s7UV8a49owCAkoi+6t/qbcT8pQLTA6xxYDXSM9pLJWkD0DuN1vCcsplng9jV62qLYcCZPfsfXHvMPnB5IXDZPp0/gzjNzMazTVp2Ma13ac17Oop7xJi+tAywWep/Zp2hSvhKVKpUQ1lzJkLjOyoTlOUm57ltek2k+asSrYSulWixUqcyMOBHDqOY4gz6H2Jj/vGHpYi1vaIj25FlBIkPnleBHLl6ZMMbHGNisBIkCYhiki3iXiQgAsS8ISAO8IkIwosIQgARREiiACifN3a6on33ElLZfbOABu0Yg28wZ9IieFfaT2aXC4oVEPcxGdwv4WBGceBLAjxMsnyBQbA2M+JfIGCDmRf5Tf7M7BYamQ9QtUYa97Rb/pEpOxuFY1O4NxUnoNZ6O72lGTJW9I1RCS5IL0ETRQB4aSPU1k5qiEe8D4ESK7LffvmdovRAxgNt0zeJbvGanH4lFW7EDzmMxe16BYjNx4aiNMtvgZ0kuSr7QrdV6Ez2n7P8Tn2dhW5U8n/wBZKf8AbPHsdTSpSdkINgWBHThPUPsmqltm0wfhqVVHhnLf9xmuPs0Yc33bNiYwzoZzMUrEMbFiGQSEIQkAEIQgB2hEixhQixIQJFixsWBA4TzH7ZVVlw7hlOR3RgCCVzhWFxwHcM9NE87xFBLV/bkMqVHBz97ukk5R8pDvt0W48fdsgdggBQZxvLG58Bp+859pMUD/ANZ2RCbIi726kb9TJ3ZHBezpOnAVnA8AQB8pOxuyVY58oJta7a/+JRT9xplcaPM8fQKOaaJWRwCSM43Lv08jL3sjhHqXtUfQbmJP1k/Edm2die4l95Fzp8rzSbC2OlBbJc82PH03RqtOdIlT28nmXaqnVWqKVQk3OnASsCZcyBE7oJJJuTY2tccek9C7dbODlWtuvqN8zybJJUd828NY8ZEp0RWN09lXsunmFQKCMyN3eRsbTZfZdt16YpYHICrs7ZtcwJBa++1rKBbrKnDUBTcW8DeTOxVMjHUwg0V6g/pyuP2tJm97EvGvn8HsJjDHmMMdmUaY0x0aYpIQgISACEIQA6whCMQEIQgAsURsUQIHTF9qtik5vZm3tGD2O7Ot7i/UfSbQThjsMKilDx3eMip7kWYr7a2YDZWJtia1JtC2SoF6lQr256rfzmlNrTD9pcM+Gxi1GIBanmUqSR3SVsSRqdBfxlvhtsCumhytuI/iUVufJplqnwO2jtVVb2dOxb6SywWJRVXO4uRcgnW56TzaltZxiHRVQnNYZyBuHXeZI2phMfVIZLi3woKgvqeS67jJUPfI9UtcGk7WY1AVGYW6kD6zPYfFKHKIcyfCb3t0vM7tXD4okCocxAsTuOm+97GRKOOenZWXS8sWLjhirLp6aNdUe7eGsuvsrAaq78fZsSDvu7rqOlrzGbQ2jkUfiI/wz2LsXsijQw1KpTTK9SlTZySSSSgJGu4XJ0EIjS2Jmtco0DRhjmjTLGZRpiRTEikhCEJABCEIAdYQhGICEIQAIoiRRAgcIoiCKIyA84+1ygwGHrKNFzox/VkIv00Mwmy9qFGTXTjflPY+2NNXpqjgEEsCD4CeG7YwLYdymuQm6N05HrE9tNyy+G1Ko12ytmU6j1KjqDmfNY7xyPQy52hjmw2VvvToNLBwrqbEnUlb/EdbzF9nNuZHs+46H+ZodpY6jVTKzBhwBlTVTXJoVTS4KvanaBqn/qQSb7kQe91tKZ6ChXZzdmuSTxJ1kt8NTU5iFvvuBa1/GU+19oKRkTdxMslbekLVKZ29BhqDYzE08Ol7u6oLcF+JvJQx8p9JUqYRVRRZVUKo5BRYD0E80+yjsm1Mff8AELZ3W1FTvVWGrkcCw0HIX5z00y2tLhGNt09saTGxY2ISBiQhIAIQhIAIQhADpFiRYxAQhCABHRBHWgQccVXFNHqNuRSx8FF55tj/ALV2puV+6acCatrjnok1/bXGZMMUHvVDl/pGrfQDznk20cIrizAGxv6Tbhwd0Oii8vbWjbr2ibGqlRk9n3bhM2bed5NhvAGko9tYQOpVxcTjsLFgtlOhta38S2xgnKyd0298M62NS4WuUec4rZDqe5r0NgfXcZCatUT3gynqD9ZtMTR1vOFSkGFjLpzflbErAt7l6MdXxzubk9Jedhdi/eMZRWqt0z5mU/EFUvY9NBFxmCA1sBNV9mYRcUudgpKMEB0zO1u6OuUMfKWrIte1FN4muWz10xhjzGNFZUNjYpiGKSESEJABCEIALCJFgB0ixIsYgBFhFECBQJX7a2xSwtI1qzWUbgPeY8FUcTGbb23SwyM9Rh3Ru68B1J5Tw7tP2gq4yqajmyjRE4KP56x1P5JXJP2r21q4jEFqoC07WRR8AvxPxX0v8o9nB1HGZN1uOollsGq7E0wpZQL/AKByPTlN/TZde1mbPi/5Isq1IizobMNQf2ltgNsCouV9HGhEqa+0KaDvuvhe59BKkYrM4emCNd/MeAidbgi57vlFvQ5amu3W0zW4hbg2lYWN7RaGO4N6zjWezjrOOk1wdmlrycseTulNtHFMhTISrKwcEGxBG4g8xLnFHNu4TNbR1YzTh8mXP9rPfOwnab79hwXI9rTstQc/wuByP1B6TSmfMWDx9WgVem7I1swZSVYa6ajh0OnOeq9lPtMRwtHHd1xp7ZR3G6su9W52uOOkuuPleDFO1wz0aNMSlWR1DowZSLhlIIPgRFMpHEiRTEigEI2EAHXixkdADtFiCOjEAJW7T2jk/wBOn73E/h6eM6bWxnskvexOgPLmfKZGpi7+76nefWa+nwd3ufgz5svbwjA9rtpNWxDrmJRDkUX0zD328b3F+koXHGbmv2fw7XNmBJJLBiTc6nfcSi2j2ddAXpH2ijetrOB4fF5ekfJgvex8eeNdpn92s2uxNmilRSsL5nGZx0PujyHzMxFQW/ccvKejiutEBSCUIFjvtce6ekbpo9zYnVV7UikxnZ2mzs6DR++vQn3h66+cjUNmCmSrISp8mH7Hzl4HKOafA9+mfqvpJDuGF983dqXwY++kUT4HS6EsvI+8JBxGotxG4zQOoU3U+IlbiqYe7Lv+swdR0ifuj/B1em+od2oy8r4fyv6R8NqhB32lbtDZlwpB5A+HP6yalTLe41tGPVZgBboBOdPcq4Ol2J+fH/hFfZ+cBgNzWt+Ww/vOL7Ou1wSGW2n4hwN+fDymgw1k7vIfONxlG+Vx+k+B3HyNvWdeMSUpUjhZ8u8jc/kbsjG4nD2qYOoQL9+mx0v1U90+OhnovZftqmIYUK6ijiPwnRX/AEE7j+U+RM8wR2Rzb4tCOGYfzukupTzodwbLdW4qRqCDvFjK8vSp8yEZ2uGe4GMmI+z7ta2IJwmJN61NSVf8arYG/wCcXBvxGvAzcmc6paema1yNhCJFAWKI2KIASYoiCNq1AilzuAJ9I6WxWZTtHVL1cvwpoBwvxPr9JUlZMqnMSTxJPrOLJO1inthI5t13U2RnXlv5c5BqNvI3j1HjJ2I01G7jzHXwkDEm+vz/AM3yxFZT7Twa1BmKgtxG4sPytwb5HjHU6x9moZs4A961iV4E/mGgPWLiH9ZXvWKtcaZrnwexJ8mAPmOsjtS5LNtrRPxDkIdbtTtUQ81v3hJFOtvA3cPA6iQMNiFcXGlgy2Nr2IK29bGcMDWNlJ4gD0Vf7yWLrgsWe8gElTJGecKshkpHIIHOXc0dh8MV7xNzuHTrOJNnU85MpvvU7wZT6MOu7XJo/wBTlWP00+AtOi94FOYnN3teGDYl1Uakm3rLfBR5I9elezDQkA+Yk6gmhH+a6x2Jw4XNTv30Ykjha12Qc2B9RyItOHtcrkHig9VuJKpNEUmiNg39hXpYlNHUFj1tpr5Ejznt+Hrq6LUQ3V1DKejC4nguIq949FVfM6/S89T+z7aWeh7Bj3qYFuqNcj0Nx6Tn9XjWu5GvBT8M1JiXjjGznmoLxYkIASxK7b7kUWtxKg+F/wC0sBKLtTXsqIOJLHysB9TNGCe60irI9SyiDSRhcK9Q5aa3PHkOpPCV7PbQ7ju8Ztey1dTRtoCrEN9QT5aeU6eRuJ2jDEqq0zJ9osI+HU+ypHE1VQ1XQEqiU1vdmI7zMSCFVbE5WOuWxjdrsMtP2VamhRKqAlDplYAEq19zWIv1Bmqxbu5yUWyNXqHNU+IUadlJT8IygWb8VTQa3B2y2cr4Vgot7MB1H5VFiP8Abf0maMtKk6fk0VjntaSPJ8TVBlRiahvbjw8QbqfUCSsUChtwO7+DK3FN3SRvXWbmzPKHbPqd823EqfmJsti7OwxwgxTCs4Q/6liiIHye4LnMRcrqLzDYJ7O55Zm8lU2+bD0mjw20alPC/dly5KlS7Arc3yDcb6e6JTU1U+16LFUy/ctmwqdn0V6QShmV6puWqkgJkLKjZb5b782vLjMxtrB+ze6gZKih0yksMrX7uYgEkHTdHL2kxK+7VZe6qaBdyAheG/Xfvle9d2RULEqt8qk6LmNzYcLmJjjJL3T2TdzS1K0RMSdAeRnd27wYcR9Jwri6mdA10U8jb1mlFI6pUuOsm7CYq7VADemjMu62a1hc38fSQkGpglQpmsBZgASd41B09ImRPtehseu7kmVjSUVmqOVqqVdBqSWFie8N3HWRsfis9nNy2Q3Y8V7gUdLAN6xu00Qs5L3cgd22hXKdc3O4GkgVycqJxKgeRJ/aYsFe5PbezXllcrXg5ot9TwGY+J0Uf5zmy+zrEH75kG403U+C5T9V+cxr1NO7uBvf8Tfi/SBu8pofs/qFMbRUfFnB/Tke3zAM0ZluGUR9yPZDGmOMaZxzcEIkIASxMl2xq5alPkRb1Yia0Si7W7O9pRLj3k18v7HX1mnpmlkTZTml1L0Zh0uCh5aeUndkdqGnX9hUNs4yg8G/CR1vp5yKxuFb18xOOJTc1txzKRvUjcROtSVS0zBNdr2egBEWo1Xvkqgpga5QEJYgADViSDrwAkbE41mUFgqpvdAPaMVIHdNiFS92uST7otv0y+0dvO65UGQG5zLvFzciw5nedb9JR4nF1CLVGLKNwHujwUbpjnpafLZpeeV4KDbOFyO9MEMoZgrbxoSAb8QR9Zn3Nrg/pPn/AJ+/GarEoG3TN7VSxv5fxNdLSKZ8kTA6g82IXyBzN9BNCy2FNTzLHzmewjDML7rk+pl/Ua7p0hH2kZFyOxFLXT0nJd0k1jINWpYxmLI4a3E54Y9xhysfQxUfWNw5s7JzuPUQRJJU74xjGI+k5s8GA/KrVFzOE7uXUE8G108h5yBUfO+psiKAT4/D58omIa7KZ0wFMsS35u6OFxYZj4cJmnClW0aHkrt0xGvcEjX4E5DgW/iW/ZyqaFelWbf7Rb/pY2b5ExnsFXdqTvO8kzm12cKPh3+MtyT7dFU1ye7tGGc8JVDojg3DIrX8QDOpnEa0zoIbCEIpJLE449b0nH5G+hnURtVbqw5qR6iWy9NCvwYNCCLX/wAEces5KdbR1WsVHXhOxVqJ7q8GDFirLkUT5Zyqoo1uB0/zdIFdwPdB89xnSo3EnU7uZPID9hF/4e7a5LfqNvkLn1nLyfULp+1aR6HF9I6fGt5nt/8ARS4k7yoseIvof7yGi3PtHpl1Qgtdcy66am1hLTHYR03hT4E/xFw2MqU8M59mwpl7l+6QDYAgi98u7W1oi63JS0+QzdB0qXdien/TIbVwqpVNSnqjm62+E7yv8f2k2i5sG4cD/eS8bhUqofZAA2vlGi3BuLDhyl7jaIXZaUyLPTWnXI5Cq7i/zb0mrp+o9qT/ACcrqsGq2vBVUdn16gzU6VRgdxCMQfA2tItHZVaqj1qaFkT3jccBc2BNzYam00P/ADDiMPhsKlAKc9JmN0LEWcjnoLRi7YbCUsGq6oyPVqqLd8OxAFz0/aXvNdLhL9Geccr5M1TwNQd6wt7I1xqNUDZSR1vwnarsyqKa4xQDTvYm+oysFuRyu1tORl3SwLtRSqqf6YwNVC110N3IFr3O4cJbYRFbArheP3dXP/ztU/fLK/Xc/wCR/STZhmpOqlsrZc+XNY2uRmAvzykG0jYhWQlXBUjeGBU69DN6oVVwqBczCkMUyfienhkRB/ut6Sp/5qBZ65RGY4emjnvKBUzv3QDfTv3O/wByD6in4QLAvyYxqvev4yfs8nKFGUDwuSeJ5SNjg9azUKbFEGXOBv1uznqSSemgknZqPYXIt4AmWT1ESt0x56TJlrthbLZFIG/0AE4UBkUsbX6a6mSVp6fz/Ej1yBvb0/tM99fLftR0Y+i0lu6S/h6b2FxZfDBDvRin9J7y/UjymhM8s7EbbWjiFplmyVSE1vYMT3Drxvp5z1MzHVdz3oqy4fSfbvf7EiRYkRlRKEcI2OEcg862mCjsB8LEehkPGY1QCzGyqmYn/OMue1NHLWf8wDeo1+YmP2st6NUAfDoOZBB/adLPLy4E1+hPp+WMPUvu/D1/TXbAodwVXALuAeeUHUIvQfMyXXlR2R2kKuGRr6gZH/UmnzFj5y5xC3nFtaejqOnVbZQbTQEEyi/4uyKMOQSpfuEXOrH3SBvuSfWaTFpvEoMTgWzBkNnUhgd9iN0SWk+R/gjPQKMSilWFi6WtfqBwPTjG4jGtUp4hg3d+7hLHeAjM4t4XaMxuKfMXqKQ/Maq3TpM7tPHnvOo99Sjf1bz46CasKfdtGbPrt5Na3aZ8Ph6GGpopDYZSzMWuM4YaASUmPNE7PrqmcHD+zAva7XykbjqMw0nnmM2k1RgxFsqKgHRRYTSdn+2j4emKRRXCklCTbKTryNxcndbfN2kp4XPyc1+TWYvFVEqigHPs2GMDJZbEqarjW19zpxkiliMOqOiE/eVwtMuvftlpIjqNe7fUbucxK9oKjEO2VnD1Xub6+2QIwsNwAGk4jbdQVmrjKHZShFjlylAlrX5AcYei/BPqIt620iuMo10IyBadD+kpc+mp8hKi3t6jKgstR3qvpwcsEXocpY/1yJS2xkovTKKzs5IY27oKZe6Oepl12ao5UGmp1J8eUpzV2LgvwR3Pk0eAwwRAoFgNABaNqbKoBWOSzEG1iRrz5SZTqKRYcJyq3tYaTnbZ0pbnwV+yaSMneW7jRg3MdN0fjlA0AA8BDGOUKOBoDZzxsR9L2kfGVswvD5GdVXLZw2U6e3pZxdRUQkbtzgg6cjYz2Azw9Xs4PW/znt6NcA8wD6iXSY83kQxIsDGZnJMURoiiMBlu162dW/J9GP8AMx+IpErlHEn5zcdsEuiN+Yjytf8AaZamO/0UfOdnpXvGjm51q2N2eq0nKIoVXsNABdwpuT6D5S+R7iYDH4pw4sdQM5PIu9x8kX1m1wVYOi1BuZQfA8R63nH65T6z7TudLFLAqr5ExNPjK1jYy6qC4lPixYzE0aJZCxKrrKPE0aINyi3J5CTMdXI0lPlJN2jxsKSZ2fA0H0yL4gW+krsTsJLXpkqeR1EmvVtunF6xl81a8MqrHD8orsPs9xvaw6DWSX2WBrmJ4+Mk/eNNfSNrYrhHeW38lawxPwNpYBFOYBf6heXGGZwO6V8JRfet3jJeGxgF+kSlT8jz2rwaTAVHbQi3OScTmA0OvzlDS2nuVbAngJMqbRVEu7a79TKXL2W7RyxG0vZ5gwvcH6SLs7M6AnykGvijWYXUqg1NxYt/aWCYwKLDQR3Ol+yE9/w4YhMrT2rANekh5oh//Inh9fE5mHjPaNgVM+GotzpJ8lA/aTK0ijOTjGxxiGMzMdxFESCxgKjtSl6Q6OPoZjKzWDW3swUfT95vNvJeg/Sx+YmEHfqhBuTvHx3j52nU6J7howdSveZ7baAVGUb+6Cf0i4HhZgPKX3ZvFBQaDHXLnHmdR9D5ymrrnxDtvAJJ8Af/ABK841qdT2o3hr+I4j0nJzvuyN/s9bhw66SZ/SPQXe0hYtxaOw2MSsgqIdCL9R0PIyNj0I1mZoxIpMadZW1SJNx1SU9Vt4lkImmI7KPGcDUEYwjSptL0iptiM84O8eymcXFtTHlFdMZcmNapbdqY7vNougkjD4bnG2l5K0m3wOwCOTfNbwloqopzWueban57pHp2FrQqa7pTT2zRK0jrWxYIta0hmqeca63gqc5KlJENtnak2s9v7MLbCUB/7a/MXniWHplmVEFyxCgdSbD5z3vCUMiJTG5EVf8AaAP2kMpy+EdTGxYSGUnaKIQkgRtpn/Re/wCAzAbPFlqVOPePpe0ITpdH/t0ZM3OSSjYZaZI3ubX5CUOONtIQnJnmj2WXjEWOyHZRdTa3z8pcf8VzqbrYjfbcYQnR6rFHbvR5bp8t+rrZn8bitd0iMYQmCVwdCnyAQRrCEI5HwR67DgJHanxOpiwlklVeTphjYmdmqG+kSESvI0+BwOsQtCEgYS+sUCJCAGw+zzZYfE+0YgikM4HMnur6b/IT1aEIpnv7hIQhBlZ//9k=</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Riaz Hassan</t>
+          <t>Ibrahim Zadran</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1148,16 +1148,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77.3</v>
+        <v>100</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="X6" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="n">
         <v>5</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhMWFRUXGRobFhcYFxcdFxcYFhgYGBgdGRcYHSggGBolGxgYITEhJykrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLy01LS8vLS0tLSstNS8tLS0vLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUBAwYCB//EAD0QAAEDAgQDBgIIBAYDAAAAAAEAAhEDIQQFEjFBUWEGEyJxgZEyoUJSYnKxwdHwFCOC4RUzksLS8QcXQ//EABoBAQACAwEAAAAAAAAAAAAAAAAEBQIDBgH/xAA0EQABAwIEAgoBAwQDAAAAAAABAAIDESEEEjFBUWEFE3GBkaGxwdHwMhQi4TNCYvEVI3L/2gAMAwEAAhEDEQA/AKZERYrJERERERERERERERERFj8t1lRcRUdOkfrJ4QOf6BZsbmKwe4tFgpFbE0mNl7r8B+91G/xRpADbecFx9OAVhl/Yd9ZupxqMPN2/oOSYnsRiqTj3ZDxzAg8V4JGaLMxPUWnWkSQfkFtUDH5TiaN6lAx9YjUPcWC15biDMFrIvEAgSRG4WyjXCy0kuYbqzRCEWlbkREREREREREREREREREREREREREREREREREREREREREREU3IabDi2OdBhth14k9dgoSvuymGaypWc8Xa1hBsfC4EyDyMboTQFehpLgV2bavJb21ei+f5h22qMcdFJrhMATDjwsDvfiF0PZ7PamJpl+jSRwKimoUwCtld1qh5LiO3OT0u6NemwMe03LRE+Y2WrGdvqneaG0NjEvcAD5cFb0MybisPVDmxLHSIMbHnv6LJlQQVi+hBC4bL8TrbfcWPopS10MH3bW2guAdHGHbEjhK2KSSCbKIAQBVERF4iIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiywwQeRXV5JR8VSdIa5jA0DeGzM9JcuTVxlWPHgpkHUJAcI2INj6x7BYPadQt0bwAWnl5Lof8ABcOXBwABBkQ1u+0yQSD1VjleDa0PDRY29FX5dUAaXuMKqrVsWHu7msO7dwe5gLR9mBb16KOpmuit35RRddwgggyI3GxuDfqs1sPSYx5YABodPsd1py2pDO7fUL6h3LiCT5FtiFCzGuGh03AiRzGoSPZes1C1yfiVT5m0taxjoLwBJHGJ/UKtUjMMWary+I5Doo6kMFBRRpn53khERFktSIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiL1TeQQRuDK8rTjK2im53IE/JZsYXuDW6lYveGNqV0+CxLXt0OMNkfNZdlFJlmYWm8c3TPuZJVJm2Ee/D0ajDD+7ZqAsHENHzmVSjtdXZZ0z1uozo92lTWTFliF3lLA0aPjaxtJ25AsJAPA+apcyxRfq5BwBPWCYXOszbE4stpiYm5PBdHm9DucPRY0XNUA8zLXFx87BZxQkvDdyaLVPMMjn7AVVeiyQsLNaUREREREREREREREREREREREREREREREREREREREREWF6WCf2VYwdGTy3P7Rz+NVXT9JwR2BzHlp4/FVguXnM8ORQOoQXNc4fcBhvvDj5OClZZhxUrU6Z2e5rT5OcAfxWrtpnDDjKtNjXP8WiGbNAhoB6W+as4sHDh3UJqSDc87AAePHRQXYubENqBYEWHK9Se4cNVMyfE6qfdO4AR7KhzTJgXzMK7ybBvY7xtcWQNLgJcI2DgLmNpEnnzVziMPQqf/SnI3BcAR5g3XH53bLsSxu6qezeBbTFvdeMxxfeVj9Slt1cRf2H4q3xHdMZHeMA+8J9BxXN4h7e6Okg6iSSOZN/krfoSAyTmQ6NHmbDwue2ip+m5hHhxG3V5p3an7wqpNbD6adF5M961zo+rpqOYPQ6VoWH1SQ0H6LQ0dAB+sn1RpVtiOig/wDe00canlr4hUsPSpZ+1wq3z+D3+KyiyQsKlmw0sP8AUFOe3jormHFRTf03V5b+GqIiLQt6IiIiIiIiIiIiIiIiIiIiIiIiIiIiLBKyo9apdWvRWHEkuc6N9dvC6rOlJi2Lq26u9Br52UhoStDRJXjDVhds3BNvMqTUpgujlHvw9t/Ucl0dVzNKG699n2k4mgTYd4y3Ia279VFq4en32KLTfvCQDuQDAJPEkA+qs6dB1N1JxECzh6EEEjqoOe4M4fG1aYBgPdH3X+JvyIWioMoPK3cbqYxxMDhTf1H8LrOyWYsrN7l4AqtFvtgcuv8A2rPE4ITDgD5hfO6DKjSHtdpg+Fw3nhC6HF9pq9VoYBpOxIs5x59B0HuqXGdCl8uaGgB15dnL7orvB9ONjiyzVJGlN/52UrM30mDumMD6j/CGNAFzYSRt5Knz/stTwTaFNjpe+TUbeJES4chNusdF0/YfKmgvxVWIpgwfoi0uM9B+PRctmWYHFV31iLGzR9Vg+Efr1JW/BYVkM2WM1y/keJOg5AD+VFx2OfNBnkFM34t4Dc11JJUBzFre0i/JWDKEr06gLc/xV1mCoGkqIxqOathbp1D6p+Ugj5FQKOMLy4ngbeSxoHWKzDXA1Gy3lFlYXJYuDqJSzbbsOnwuvwk/XQh++/bv8oiIoykoiIiIiIiIiIiIiIiIiIiIiIiLxVdAVdi6u45KbiDZVWKYSZXU9GRdXhwdzf48lz+MeJMQeVvnzqvDcSO+DpgOZf0I/VdPlDDUIdpcW7mBeDLtzaQxp9lxOMBDerT8j/ePZdd2b7QVGUadMaY8LxqAMEtcw2No0yIutxkcSWtF9fH+VonhZlDjppx+2XY51TNTVVIawNc6lpkSHNJJEAQYDheSq7/yJQ1HD4kbVaQDvvM3nrDo/pVV/idRw8TyZLnX5vPiPmYCvscf4jK3Hd1B4PXS7f08Z/0LQWGExnYGncRT1ovI5BKZGjcV7239FR4WNMODdMWidt/Qhe2lohjZdUcQAOJnYfZBPuoWDoOqUwRWc2LQOEbfJdJ2ByUHE6yS7uhJJ4k2aPxP9KkSyCOMvOwUeOIyvDNyafKsu2WJ/hsLSwNP46g8ZHIEaj/U75ArnsBgQGkn4W78z5frwXjOcx7/ABtWruxh0M8myAR53P8AUt+ExIJDSXcdtM3Ebu/fJRGh8GHLv7qZjxrqpEzmTYkM/tBAGwppvYcVMZTcWuc2k0tZ8RHAW3JMnzCh5hTGmW+fkRcDy/updIU20qhdJqAWE83QLC//AEeYVfUxA0FgcZkWmQWw4k+UFtvNexvPWZa1FeG1BfU1FTY21AWqSOkefhThqa22va4vudFQZlXAa4j7Meuq3t+CrMLV3jn+X916zqpFuEz+ICi4SzW8zJ91PBvRbY4x1deKuWVtlJVW1WbHSAVUdMxfjJ3e491YdFPoXR9/yvSIioVcIiIiIiIiIiIiIiIiIiIiIiLDivaVsEJpcqPWEkj7K8sp66YPKy2uEOYTsbH1WrDHSajDYbhdsxoY0NG1lxxeX1dvr53VZmlIA7RIgrRklQ62jg1sewK3ZnUkRM/ivOSPZ/M+sBPoQtDqdaPvP2U0V6g1v9p7q0oO1UWldP2FxjD31Gq4Np1aZa4ucBBEgbkcC5clk7ppRyUjA/GB0f8ANjlhi74Z3ZXwv7LXhgG4gD/L1t7qzwGD7uQ6vQE8A+TI+6D+wuoy/MqWHwNRneBtWpql/jLGl3hb4mtNw28c581yTqYpYnCVIGiqyi46mhzbgU6kg2NwXeq8dpKztTqLR4BVc6PtCWj2BPuoMjpJzGwuFHfusOG2pqpzI44s8gFxbXj4UW1tBrKZcK7HAcAKsk8gDTHlMwodPGiYlSMBl761MU2iXHbzDh+RlXX/AK+MA9/4/uEtnz1THWF67pSHDktxDwDmI0NaClyBWnaaLR/xpmoYm2Irrue0rnq+c1hLNRja8WuDY8NhsqjH5g9vjBMgg+fAqzz3APpP0vEOFjyPIg8QQq5lEVGupnf6P6KcA1zM0dLixG+4UdoDPzGliOGxUHH4sVAHAESBv94qdgqcmOAAVI0OE03CC2B7vCu8I/fzXuHfnGb7vVScQwMblat4FypuEfIjktGi0hMG6HR+7LzHx9Zh3N5V8LrTg5cszTzp42U5ERciumREREREREREREREREREREReKmy9qPjq2huqJuOMKRhKGdldKhaMVm6l+XWiwa4gB8hvB/AOHA8l5zCzg/gR6KtdmrBIZMm7hAcxR3ZmB4Z8JMxpjQekk2XSjHYfNlzivaqEdHzhufIadh+P9rVXqBzrGfRbMppiKr+hHsolfEETIEnjAiOkbqzw1LRTqDo33c1pPzlYh4dKBvc/fFb5GlsVuQ81vyg/EPVb6P8AmAdVGwFnDqFIY6KgdvBHrHBbZqdS8HgfRRmWxAPMeqvc7pNqUMvpsl1bu3DQy741DSTwaJDrnqrfEUqVEvr4ote/UJp0Q0ua+oHO8TnbWafRvULVVwlTCUC+kzVjKwBc6002G0CbA/ofqrjy9wlriRMFwJmXBu5gmTd1+p5rmcJI/GOY3PlaCRb8jxO9BWwsSeSusQBAxxy1NjfTanad+S73I8/pVKzGMpd2CHwS8kkgNsRECzj7LshA818YptIpl7XEgGxHhc0mNwPhMt3mOqsKfavGAAawRz0jUPy+Si4roWTEyl+HIy1p+4ngL1NSR58lsj6QbCwNlF6VtRWnbuox9fu2mXNYHH1Jt7X9Vy2HwTx44A5cyteLLmVRWLi7UfGSZN+PVZFZ+stB9eQPJdXgcN+mw7Ia1yilfP1NByVDiJDNI6Rujr+yqcZQPeFxJJlsn1P/ABC2U3wVY4vCwD0DfxVc5i2QChfTj7A+63Zg6NnZ709lbUSSJbdvzHmvJs8FR8vxVQGGNaRsZMT5c1JxbgRIBaeLTuCpINVDLHNfRT0WGmwWVxcjOre5nAkeC6qJ+dgdxAKIiLWs0REREREREREREREREUXMqRczS0Alzmi+24mekKUst3E7ah8zCE0uvRWtlU1MTAig1gaNnvaIPC2mPmotVznjxjUOgj2JMlb2y47eHX8PRv8AcqRig07X6AC3ryldFHho2tDQBQch8etVz/66cmuZ37r/AJO3vx57WGy5pzfhp6SCXQLzEmF0WNaPGBzb8gotPCh1VhNoM+1x8wpeJMl3349mtWGGBbi8pNg2337ot8zw7Dh3+V1YYHIHOZQqaw1tXvLkWZ3DS46j1APsVvyLAl2Nw7HiGu/mQdnNbJHp4T7Lp8pwQ/hcPqcw/Ae7LofFStVpVDA+iWVon7KrHVGMxmX1BYGm5jqcyacue1snjd0f0Fa+kMU/9PKBwcB2itPblbWuuOHgHWsceXnT7xXnttWc6uYtpe1oJcRPgB0iOJLiuexQ1uqH6RIcJ+y0FwPW5P8ASun7b4UNrNc5gcHOa9hJd4XgBhiB0HvsqvKsFWdiS6kxtV1PTULHbPF2uaBN/iECeC5/ouUN6tzOHxVW2KbXMDxUPJLh516dLSdMSHiNnA2LbH9le24XWzW3TTdfwl3hcGiSWgiQel+HpqzjNm0vFRohjNdQB2zyHO1ta4cNIgRKkZFVGKfULKZaRSc43bomm2RpHAudpEcJcV0BnLJ3gWJIPHbQjnx2VX1OaFpoCADyr3qjr4Z5aSVPyGux8Mf8bdjzHBW+b4Njar2ts0RbzaDx81XuyykzxuBJGwnjuNlctIIDgqgvDgWO1HDituZsBLh0g/iqKrmFFo+gRwBkk+gVtRBBdJk6ifdc9UwTRWcWjW2eNtJ4gHjx9lVx4iVmIkjArUjmAKa25U+3VoMPEcPG4nQeJr81XpmbP3FNrG8P+tQU9mN1EGqW6TYPb8M8jvBWikWwRpaRxG/D5eawzCgH+UBezmmdLh7fNYyuxUZ6xr8wGrTS/ZQLKN2DILJo8vB4qS3mRUhw4igOpB2NxhzaOIGn2W1RsJhu7JuYtAJJ0nYw43IUlU+ImbNIZGigOx81bR4d2HHVOcHEbi4I1BHdRERFpWaIiIiIiIiIiIiIiIiLD2yFlEXosaqrAhzwbDUb3mNx+S3C4tMf2ub+S2YmmAdXPdaQ5wEzbYHpF7Lo8LL1kTSezwXM4mMxylv2i0Vx9IcOPG21pTA4mlfU7Zxc4X1EmDYfuFJxNABpdP79evuufzDBuJ17CPw4ea9nc9hEkYqRbut8LbBkewxPNASDzqKinfVdLi+1jwWlggtboa5wFmmbRx3JUDD5/ua06xJY5ot4nOeRYiAdbxI2kHgoOWBzXODXweAfpIcOs/kpr2jEOFJ7XseAYMyL3McxZUWIxkwJD2/tpQ22PZ8q/wCjuj8HiBkjlpLUUa4G55OqRptSlbWrVfTsur0sdSY158bC13UgRJ8nCxjY+ip8Blxp412t/wDDDU/unvdALW1tQAcTeabiI6QuSpZo7DvBExvqBu0kkH0I/Fdnhe2FKowDEMbUYfpgAjoS07HqFT4brcI7/rbmYTt+Q40rYi+hWUzRI2ktjxNcpoeWlCKVC5LtTWa+k94tqxFZ0cQ0taW29YUXsdnTcM8CqC2lUIl8GwmHRzaZvG0K27Ztwb2M/gxqfUJDgC4wBBAh/wAJJI9AVB7TZR3ApUdQcarGajYtY8WfEdYjoT6XLcXFNJVuZpcCWhwof20BBvbtULq3sjANDQipBte9uPYFZ4rG0zXqVKjwAXOLbgy3UQ3bYwAYWqlj2v1PFNxaDDXE/E47AcyePkoeAyqiNIqOgNHHc7n8SpdbFgvHdgNYyzPM7uPWF1EeYNaHC9FzsvVuc4tutWPr6ZLgA6wtzhU1GiCRcjrz817xlcveTuJtYnj0WalU2Ba0+TmfgVocG5y6nDy9FIZnbGGdvdVSdoa0yemx/d1h8AhseIkRHNaHVX/R0tHM3I9AN1NwGGLRqcSXHid4/JR8ZiBHHbU2+9nctmGw3WvodN6a/ClNECFlEXPAUXRIiIiIiIiIiIiIiIiIiIiIiIiLxUZIhQ++gFptNhIU9RcXS48OP5FWHR8+R2Q6H1/lV3SGHztzjUen8KLO28bk+lvz/wBRTF4IObLYMiTYyOUx6e6kNZ4LHZ14HA/3KMfO+xFrf3+fRXdARQqmzEUIVfRwpEOjcFlubRx91JpUHMeyodMHndsD4vSCtdao6m7wuDrXHDzWcwxT+7p03m5NrXa0jxb8yo87R1bmvFltaXPIAOv3y1qt+aUmspsqOmHzpLfsxBjiDNucFVtak7+GdVpSGio0cjeZtyVu3s5jH0qZAqvpaZp+JsNB3hpktmArnKuzeIdhH0/o6g4sIbd3A6TRInrK5nqcpzVXV/rXOwzcObgGtTSvppeprU86UA5/s5hH1KXeQS4OdAa0QGgSS47DY2jZTqWTNcQ4OkOvPncEdFvb2PxRpv1OeGNBc5pdaAJMMa6JiOCg5Fjyxz6R8bWEQHb6SBt++KuujHBr3N3dTyrbvXP9JNdlD22pr5KzxGVnTd4kcbqhxNMzoD7DcxueQ4q5x2c3002Xi5JkDpHNVhI0y4zM7H3mONlcOcSKH4VVCC2+y1Uoa2CR6ry9zOYJ3ho/tb1XnYnSAQsUw9xH5LUTt7LeG1UvCDVwAHEDj5n9FOXijS0gBe1zuJmMshNbbdi6DDQ9VGBS+/3loiIijqQiIiIiIiIiIiIiIiIiIiIiIiIiwQsovUVfUlp0Wg9Ykg29VuybCirXZTLoBkdYbcx6x7rOPoktDh9Er32OeHYwmCXBpDTwa0Dxe5LfLR1VzJiJBhOs3p9KpooIzi+r/tBuPbzX0luBpaBT7tpA2aQCPO/4r5x20wTaOJbDSA+SOIBEAx6RZd3j2vA79rgNAuDs4bkdDyVf2jysY6nTfT+Jjmubye0xqHqNuoC5qOdzXa668+1dRLhmkaXGmlleZJS0UGN5MHyaFGyPF1prNBOoOYGU9PgdTJGp2qOrrzbSpNV5ZAtBng4ngNmjaFK7P4kik8crfBU5jpyPurUOoK0r9+8+aozGSaaffvwpOFb/ADajeYHsbf7SvlfZLJO9xtZxb4KJ0GfpOuL+gmOoX0jDYl/f6vo6DY03tJiwguPN3JVFXF0MFRq1PhBc6o8n6TnwP0A8lDxMpbTLuFPwkIeCXC3PRb8dkWHrN06GsI2LQAR6CxXzrMcCaNZ1N24tPMcB1tdfS8mYdBeXF5f4p5AiwA4Bcb25qt79gETofJ6NI/5FSOisW/rBE41B8t7fC1dL4NnVmUajzGl/lc1UEgTt0Jv7KwwVABodETw5X49V5y7C7PI42/VW+LwmkE8NUjyd+wrvHNcYHX5/K57BzNGJa0/6O3moKIUXPrpEREXiIiIiIiIiIiIiIiIiIiIiIiIiIiIi9U3DUQWE/aUPKcP3GI79oLtxoEDfqeNrK/yDBd85lAOgugSRtYnZUeMp7sPAwYMXaeBG2yupnxRwCB+7fXvG/ouewrJpMScRGRTNfnQ6aHZdjhc0oYmk+i6QHCHsIIcJHI3Cj5Iypl9J7KjH4ikz/KewAv0x8L2TMjaRaOS5bAd014fWp1KxA8P8+oxwNvpCbdIV/is/oGjFKlWp1id3Vi5rRO4Ni4xzAXN9S4cF136mM61+9642v2xxjaj3OfVpy5xa1zGwxpJIaNTZMCB6K6yn/wAh93Tc1ziXHjp/KIWrMsXUrsNOrUc5h3E/nuFS/wCA0Pqu/wBRUlpdShUF7W5qtXQdn+2r3YnVUZXr0yC0NawO0uJEEBoFotHVX+Oyp2OqB2IY6hQY4ObSJZqqkXBfpJDWD6u+8wuVy9zqI003vDeWokfNdJQz7DaA2rQqudHiLaxAJ6CLLTIyRxtT73KVE+NjaX8B8qzxuc6T3dEAnYvPwM6k8T0HRcfnlBtTEhwOprGAA/WLiHOPlYe6l1aeVOPiweIPni6n4bLbj8bgyzTQwzmO4OdULgBx8PEqVgGRwS9ZISeQG/HVQukpJcRD1cIpXUk/AKj934XdIKsGgPpNafpNLR94XCpBWd0utlHGvaIBtMwRxCuH9IwuFCD4fyuei6JxEZqC2vb37gKOVhbK4GoxtNlrVM5uVxadl0THZmhw3v4oiIsVkiIiIiIiIiIiIiIiIiIiIiIiIiIiHRehW+T/AOY3y/2lVDURTsf+bewe6rejvwd/6KFAiKAFYBZXlEXqFZWERFkFlZCIi8RERF6vVXcrwiLbN/Vd2n1WmD+k3sHoiIi1LaiIiIiIiIiIiIv/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTERUQEhIVFhUWGBoYFRgYFRUZFhUYFxUXGBUYFxYYHSggGBolGxUYITEhJSktLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABJEAABAwEFBAcFAwgJAwUAAAABAAIDEQQFEiExQVFhcQYHEyIygaFCkbHB0WKi8BQjM1JzgrLhFTVTcpKjs9LxFjTCCCQlY3T/xAAaAQEAAgMBAAAAAAAAAAAAAAAABAUBAgMG/8QANhEAAgECAwUGBQMEAwEAAAAAAAECAxEEITESQVFhcQUygZGh8BOxwdHhFCIzNFKy8UJygiT/2gAMAwEAAhEDEQA/APbKJRVos3BRRKKtEuCjCmFV0SizcFtFXRRRAUqFUQmFARRKIiAIiICEUohghFKlARRERDISiJRAEU4UwoAikBKIClFXRKJcFCKuiJcEqURagIiIAoRSsghFKICFClEBTRKKpRRLgpIUqVRLIGgucQABUkmgAGpJOgWQEXKv6yrpBINujyyNA8jyIbQ+SWbrHup5IFuiBGfexMHveACUB1SLHu+8oZ2dpBKyRn6zHBw9FloCEopUpcFNFKlFgBERAEUogIUooQEooRYBKKUQEIpUIAiIgCIiAIoUrIIRSoQGJeVvigjdNM9rGNFXOcaAfzXgPWR0/kt5MEBdHZRkRo6Wh1fuG5vvWx68emUNoY2w2dxcWSVlcPBkKYa7TXyXnlnuS0uaMFHVGmYPmsNpamVFvQwJbMKZarFfD71uDdlrFcUD92iwmMcXEGNwpr3ScPNE0Zsy3c98T2SQTWaV8TxtadeDho4cCF9EdVHWF/SDHQ2jA20x55ZCVv6wGwimYHNfNrwK0pmNVsuit9yWO1R2qLxRnQjJzTk5p5gkLY1PsVFi3ZbmTwxzxmrJGh7TwcKhZawCFKIgCIiwCFKIgCIiAIiICUREAREQEIpRAQiIgChSiALV9J3OFjtJYaOEMhaRqDgNKLaLHt0eKN7d7HD3tIQHxzYSS5gJrUivJe43NZ24Wu2UC8p6L3V2jmuOjQCeOS7l3SqzwAMc4uIyIbs5lRMQnJpRROwrUE28jtsbeCtyxszOFtTqaDNai6ekljno1szQ46A5H+a2lstEMTC+R4DQdeaiOEk7ExTg87nPX7clmmGbGg7wKFeWdJbk/J5QGmrXAkcKLvr16aWUEiPE/kKc9VoL4mZa2Y48y3UHUb1KoqpB/u0Itf4c1+3U9z6q2EXRY6/2dRTcXEtrxpRdaue6v20uuxjdBH/CF0CmleSiIsAIiIAiKUBClEQBERAEREAREQBERAFClQgCIiALFt9ujiaHSuDQThFa5k7BTzWUub6b2NskLC4VDJA7lkcxxy9VrOWzFs3pxUpqL3nj1gu8NlliZSgkc0EbQHGhHlRY1puSWrmRxxCmjntaS41zzOi213zVtDq1FTXPUjMA+i7GAN2gKFKo1K5YRpLZtwODs3RBpaHPa3EACS0ADFXZQaLfX1ZWyRRRbNvMBbq85gABUCvoBkVr7yZRjHAj36ZLRycmdVCKRyc9yTMNY3MaPaBaPu5Z5cUs93uwukka0OPdNMgRsOi7uGSrG1pmFp75kGHdRbqo20jR0kk2dt1fXr2kDLP2eHsYowDWuKjQHcs/iuuXC9XZGI02RN+I/Hku6UunJyjdlfWgozsuXyCIi6HIIilAEREAREQBERAEREAREQBERAEREAUKVCALBvexdtC6KtCdDuIzHks5Fhq5lO2aPDL/ALHJZ7WztI3MDm0rQ4SWn2XaaErbPtzY2Y3nICvHkup62bJiu90wFXQPbIOVcDvuvJ8l5GLzBaGv0IFOYKiVaOlidSrt3vqZt533LahgbC3CNryB6rWuFtwgENpXOsjSABpTPNbgRWdtJqbMxq33GoBWK297O84Gx0JNMg3dwCR0yR1aW+Xrb6F+x9JXtLY5Y6DSoOgWReTjM9sEfikcGj95wFfVae8pYYoyABV1Drn/ACW86p7MbTbxKQSyBped1TVsY55k/upCmnLaRzq1XFNXPW+j1yiztdUgvdSpAyAGjR7zmtyiKWkkrIgSk5O7CIpWTAREQBERAEREAREQBERAEREAREQBERAEREBCIrVomaxpe40a0Ek7gBUoDUdNWB1gtDTtZT3kL5lvntbO7snDuVqx3D6rvukN9y2y8IXYnCKr6MqQ0NAo2o2mrgf+Fm3xdLZo8LhXyWmJToVdiXDPkdsMlWpbceOR55Yb50AcQNq2JvKJtSwAEUNfLNa63dDJA49k7yP1VqLoZa9pa0b6rR/D4m6+IsrGvtNqMr6CrnOIAA1PL3+i946mLu7Bk7HeI9mXffyXBdGOjrIDi8Tx7RG3gr/SG32iEdpZ3va4ZnA4jEG1NDTVZpyUqkYJ2XFidOSpyk83+T6BRefdWvTc2trYZyO0LcUbtC8DxAj9Ya8c16CpFSnKnLZZDhNTV0SiItDcIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCtTSta0uc4NaMySaADiSuN6U9YcFmJihHbzDIgHuMP2nbeQXk/SLpRarYaTSGlcmN7rBuo3bzNVNoYGpVzeS97iLVxcKeSzfveeq331nWKGojxzu+wKN/xu2cQCvPekHWJabYx8dBFEaVa2tSNznnUcqLkRGWg11O07Fcs0YJDc+8PXUK1pYGlTads+ZX1MXOcXnlyN5dVoGKOQ6DXgu5s4BHA6LyyySGNxY7Q6LbQ9KHQkMa4kbQG4gOHNQ+0uzXXl8SDSlo77/n8vEmYDHqgnTmm46q275e9x1lss1HVCxZA/wUy3pdl8stEYcCMQ8QGzjRZeKuVV5ydOVOThNZo9BGcakVKOjLdjgo1YF4xVz/VNTy2rfxwZUAWm6QyCNhYNXeLgDs80o0Z1qihBZv05vkK1aFGDnN5L3bqchHanQlr43FjgS5pGRaSSRT3r0G4etgtDW2yMuGnasArzczQ+XuXmQYXuJ93JV2uKjW10XsKmFpzgotaKy45Hk415QntJ6u78T6Tue/LPam44JWvG0A94f3mnMLZVXyxY7S+N4fE9zCNC0kEciPgu96P9adpioy0sE7B7Yo2Uc9jvcFWVuz5Rzg7r19+RNpY2Lynk/fke1otN0e6R2e2MxwSB1PE05Pb/AHmnPz0W5UBpp2ZMTTV0ERFgyEREAREQBERAEREARFBNNUBjW62xwsMsrg1jRUkn8VK8i6X9OprTWKGsUByJBPaSDiR4RwCwemfSc2u0uDXfmWHDG3YaavPE/BaOdoNWjUCo+avcHgIxW3UzfDh+SnxWNbexDT5mGWtCpEQ1CyTBXaKhW5oCC2hypmrS2ehW7XMsiKuhNeOik2d2rTmFWxpBOxbqy9G7QQ55jIwtxEHJxaWlwcAdlARzWJSjFfudjZbcn+3M5+2SSHVrRxGv8lTDYsg5pz+PBba0WV7H4JY3MNNHNIPqNFYaBWgTZi8zO3NZWsWrNd5Y8zRvIOtPiDv5L0O6A2SNstAKjMbiNQuLY0jMkK9/S3ZMc3FRrs6DNxyoaDdxVb2jgViIrZspJ+j1+6LHs/HOjJ7Waa05rT7M6O/r+azuRnmRqeDd3NcJe1+VrH2ZdiBDhsFdhdtPJT+W1JyLK7T3nHz0CrZIBQNaCOQ966UMJCjDZp+L3vqc6+KlVntVPBbkYF2CQNAc3TbXXmN6uWyatBTTVZ1olOxYksQJ4qYoNRsiF8VOV2W4ogMwjeAVcbCHErIazu1pzW2zfIORjWeaSJwkjc6N7dHMJB9F7T0B6aC0tFntDgLQBrSgk5bncNq8eiiJzOlKqqzyujdUEhwNQ4HOo0IUTEYWFaPPc+BIoYmVJ8uB9MouZ6C9Ivy2yh7qdqw4JR9oDJwG4jP3rpl5yUXGTi9UX0ZKSugiItTIREQBERAEREAXKdZV6mz2CQtNHyUibv7/AIqfugrq15T14Tu/9swA4Bje47Ae61td2pXfDQU6sU+Jyry2aba4HmEDqE02gj0JHwWxszw6Rjv12+40qR72rU46gEa686Eq7Y5xmK6HGzltHuJXpU1bIotlvPebJstC4H2SQacdFFpjJ0OQp8FbP6Qg6Gh9xV6F5qQusVfUjydtDOuOEOtUYJY3PIuJArsIwg1IOdCKFemF1rbIcXbS0cRkyEBzA1hFA4A1q87csJyXA9HbEHyYnmmECndc4kkjNuHaBXguniMkDjJG6X845ra5YcBcwd3F3hm46ZHJV2MW1O2Wm9cXuZYYN7ML567n7v8AksdKrNKYC+YEhpoztJQXNJIDqDFmctKZVC4JjcLs9F3D/wA49xnDZHgkNL3VNMntxB2ndIbQ7a1XN3xZYxLhjkJGru7ha1x9lo3DRdsK2lsPXXLT35HHEpN7a6Z2v9DWWrJ4IWFLZS/vkmo2cj8FlP8AFQnYT8goja6uzyOzPYpWym8yOptLIp7AUFdDodacCrhswY3tAC7MNbGDQve4EgB2xoDSSfqq7PHWo8/I7Fbvlj2WcPjz7OTvCgNGyMwV94p+8Fwxk3ToynDX8nbCRVSqoz0+eRkXZeBDntfLQgAFsbQxrTU6OILnaakrY4hKNcZpo4d40I8DgA4HnlwVmwRskd272kxPY0NL8JfRrTQVZtyADiOa3rmtfau0aGiJrHDF3mx1oKCrR6cF5KVaoqu0pO91vZ7ydKnDslrY1i87KyvNK2muZxdssZjcCCSw1oTrkaFrhscDl7jtVMcpLfxvW3vOZr2F4BoXinE9n+cPKoafNaYMoCBWh9DlovVYStKrQjJ65+n3PBVYpSt0LzwSAwaanlr9FRO0Vpu156qr8oAo3cM+PBW3toDnntPF2YHz9y77zTcdb1TXr2dv7KvcnaW/vNBc34OHmvb18x3FazFaIJh7ErT5YhX0JX04qHtGNqilxRdYKX7GuAREUAmBERAEREAREQBeOdcN7M/KHWYgh3YNLXZ0xYy5rSBsOHblovY18/8AXMK3o4DXsWedKmnuqpOEipVTjXk1A4+OUFpzzac+Tv5j1VETu9u2t3V9pp4H5rFB0f7Jyd8x81MsRbtqCNm0HdxV4pu2hW7CW828NrDnDZQUzKzrPONhC5ZktHga1rQ7HceBW0s1p2fVdaVbcyNWw/A7q574cxpjq7Ac6NIBrVurqE07ug+ZVy13s41/Ntz4uJpu8S5ezT0/4+pW0gmxDZ72hbulBvasclUmlstl8XrKK0cG11who2AbBXYsICpLjt2k1JWQ5nH730CiJnH4/RbpRWaRpLaeTZgRNrK4fZoOYp81XQEYqUOh18lTZm98mm13suPtN3qbQ0gOGntDJw5+oWyZhxFn1B/FDmFnRkiuQIORBFQQdQeCxrLIC4faG8a67eazWNB2enzBWJWeTMRTTuhd9hiYCI34amuGQHLkQO9t1Cz3vows7ZrWOpiDMTiaVOlAPeVhUA2+tPisa02imn1+CqX2Th3Paz6X/Fy8n25ip4X9NPZtlnZp5O+5pdcixeMoNA0YWNqGjXXUk7XGnw3LUTTgLKtM/wCP+Vob2tGkY1OdeCnylGlBRitNEVVOm6ksy/DaMRrX+SvduScsg31JP1+BWts0OQAOuv1WwiIpX2G6faP49FrFt6neaitDJjjq5jd2Z4VOdeQX05Z3Va07wPgvnfokzFIZHlgDKvc1xAxs8DgK6ZPJ/dX0Hd7qxRkaFjSOWEKp7SknNE/AxaizKREVaTgiIgCIiAIiICCvn7rmdS83PGrGxH0z9CvoEr5860z/APLTVGQDAeIMTVNwCvV8CNinamctIxrHEkfmZd3sHYQrcUWEmN2lasPy81k2RtWPs7qHBm3iw6euSsQu7uB2dPD9DxV5bP34rpcqb3XvwfW2viYN4tAo5opnnw2FTZxUjP8AHmVN4P7hbt2cc/irl3DKv4+ChSqJYhU+Kv5f6LCnRcsLKrfutLrey9Lm9uSwumlZC0gOeaCtKeeu5dN0auF0rpmOmZD2BAeXOAFS4t2Upm3bvWp6E/8Aewb6up4dQ11NldV2lnsjRJajanOhZLBDK93tMdiaCAKH2wd+q71K0otxT3Ldd962m/IiQoqa2mt75br69feRj2W42Omla+0s7GENL5Q7u97QDZWvFU2u4uzdaO/ibHG2VjhjIka40G3LbpuWJL2X5JK2GRzonWqNuN2KuHB4nZDQ1NOC3tnsMFnZP2sr54XQQ94Y8RD5HYGszyFGg5LR1Zp3u+Fra931d9OGRuqUbaLje/X0VtTUWToqwmVtSS2ztm0PjeA7DmcxkdM8lRB0bD4IZ6luOcxP7p7rXGjTSu/4hdnYLC508zo2jCZIWOrX9G2DMZnM98LEuKz/AJhtkI1fKW91w78Mkb268jzXNYqdr7X9vgtl39czd4aG13f7v8lb0OQu3opLJUCVgDaOBeaAlz3tawAjM1Y5U3f0ctUrS5kbSA5zCKsDg5hodo2hdNb3sYWMlxCImZkj2hxMTo7QTFIcjkCTrlmuYjbPA68HmVxcI8TXtcBUvlYQ4YaUqM/NdlXqyu01yuudt3rvWWTuc3h6d0mnzz32vv8Afkay0PlZjxscBG7A81OFrv1STlXzWstUvDPXQZ+YXW3kC66mt1llcyd3ixOxSFoJrXc33qnpXYGxwNLTUtgbCT3csEjhJrtLqD3rb9Q72tvt8s/U0/TJJu+iv+DhZ8R09a09Vppml8udAG5cN63BjwjUEc2laO2Dvg7Cfx8FwrztOK43y6EvC0XKlUmv+Nlfrf7LzNoyMFuopuBBrzp8FehjLjRwoB6fzVqyR0GufoP5rNNMOGuup/H41U5LK5XTlZ2RZxVJIPLkNF9KdGn1sdmdvhjP+W1fN7mAVK+iuhv9X2X9hH/AFVdpK0Y35k7AO7lbkbpERVJZhERAEREARFCAFfPvW+T/AEnLT9WP+AL6CK+e+tlxN6zU0DYxzOAH5qbgf5fB/QjYvueJzMjT3J27MnU2j2gfLPyV2Zod3m5tdnkpu46scRR3EZFY5spjJbjNNhYdm0FXy4rfr796FNvtfNadPwy9dt1tnmbBLibixUcKVJDHFgz0q7CDzWtu59AOPPZyXQ9C7ujlt0TX43jvvb3j4o43PbXhUBc7YWZtB4b943KnxE3DFwaXLzdj0OApKpg66lolfhms/odT0fvBsFojlcTRta0NTm0jIU3lb/8A6ga6yOZJI90zoyyprqJg9udP1eC5RjTWpruH6RZU79lTl9qQ+lFbOlGTu+XpcolUlFWRueil6xs7SG0RukgkoXAYy5rm5tI/5WzvW+2TB8bIy0F0QYA19BHEHAA0251yXL2JmWYP+GRZtlizrQ79JCsulDb2t/vdpuV+I+JPZ2d3+/uzo71v7tTiia9lHl5q12ZOAN0I9lgCybVfzTPFJHGRglfLm05iTDiAodcne8Lmo4sj3fuSf7lckio5pw/5cn+5c/g00lHw88jLrTd299vTM6Vt/R9s4SMd2UpmD2kOHdkwmgp7QIJ+C0963vDKLTZmAsaY4ooy7xERvaQ52IbqipOwLGtFnOwZ6ijJB64lqbyqC2UA/qvFJBlxNFmFCF7rl6O/vkbSrzaa95q3vnmdTd/SSN0z7A1sfZMYOxkzaSYWte0EnYXMOWSwL/tjW2JkeIF8kslc9A17nbRtLguTvSDSVuZGvhz4gChorlcQDhUA6HvAA7d61/Swi01yfkrfa/Q2eIlKLT3+/fUw7W7It5+1XhuWNel2sFks9oz7R00rCa5FjGxFuW+r3LKt7jTPjtdz2jgt5fFlA6P2Z5HeNqdTLYWuaanZ4PQKvxj/APpguXzbLbBq3Z9SXGdvKJycb6VrotiIyQ0cKu+XosKyMBOI0oNOK2AfQE1zdkAraKyKCbtKyLD60O5fRnRD/sLJT+wi/wBNq+c53kUB5+WxfQnQGTFdtlP/ANQHuqPkqztS2zHr9Cd2fe7udCiIqctAiIgCKEQBERACvnnrbYDe8sRzxMjcOBwUp931X0LVeCdbVhcLye890vDTGT7TWtaDTiHD4b1MwKvV8PPTIjYp2p+8jinWNppQUO8K4YwcgAHj2gciVXJZXvFWN5jjtoseV5bk7DXaBr5q9aSzsVSblkmdx1SsBtM7sAq2zyd7Y0mgqOei8+sBJJG7L5L1bqKjDnWsnaxjacKvqV5zeFgdZ7RLC/xRvc13GjqNPmKHzXn8bUcMQp8LfT6XPU9jUI1qM6LdtpP5NejaZsrKK50y5P1PEEq7ICTTP/MPoVTd8OFoBGep7pOvFpV+KOrtPuuPxK9JHieUZkxR02fcf8is6Gy0bpn/AHZPqsezw65fdd8nLLYRu+6/6o2LcipkIp4fuSfVVWmzigOH7j/qjGDd9x/1V2SMHKn3H/VaXzM7OWiKhACB3fuP/wBy19psozaW5O+y/I/4lnwju6afYd/uWNPGDXL7jvqsJ5mXHkjSWWoxRPrUZaVJbs8YoAOawrMzC50dOLcq/wALlnW+MtcJANMj3Xivqsa8WeGYbNagDLgDQrrqaosXg00FfKtdgO9dr0jiI6M2bShkY52Web3kU3Z0XB3m/MU0qBpTWvFex9KLqH/T3ZOBBjgjeKbJG4Xe7ET5KgxU74tctlfX6noqUXDs2N33pSfl+36eR4lZnCmGvlTJZ0MeKhoeHzWthaTSuTuOVeRWe1ktBQ0HvV3DNaHnKmTydiJpQ559w4AL6E6voy27bKD/AGQPvJI9CvnyWOgplU65jLyX0rchZ+TQ9nTB2TMNNMOAUp5Kt7UbUYrm/fqTuz0rtrgjYIiKnLMIiICEREAQoiAFeJ9fv6aH9n/5lEUvB/y+D+Rxr91dUefWD9CVqpPCoRXE+6ujK2HffU9V/wDT9+km/Zn/AFAud6xP63n/AGjP4WoiosX/ACr/AM/JHpOxu9P/AKy/yMZniPmoh8SIvUR1Z49d02Vi0KuRbERYWpmOplt0UyfJEWI6mxEe1WZERbbgzXW3wHmqIv0Z/uuRFgxE1MmkPJvzX0H01/qq0fsfopRedxH9Y+qPUS/oKHSfzPnK06NV6X9GiK/3s82tEYFi8a+oehn9X2T/APPF/ptRFUY/ux6sscN3n0N0pRFWE0IiID//2Q==</t>
         </is>
       </c>
     </row>
@@ -1266,25 +1266,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azmatullah Omarzai</t>
+          <t>Mohammad Nabi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023_214</t>
+          <t>2023_216</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>133.3</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.7</v>
+        <v>86.7</v>
       </c>
       <c r="M7" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.57</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1323,58 +1323,58 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>64.3</v>
+        <v>54.2</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X7" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>1</v>
       </c>
       <c r="AB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
         <v>8</v>
       </c>
-      <c r="AC7" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>61</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhURERMVFRUWFhcYFxYXFRUXFRcYGBUXFxcXFRcYHSggGB0lGxUaITEhJikrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQ8AugMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYHAgj/xABJEAACAQIDBAYFCAYKAQUBAAABAgADEQQSIQUxQVEGEyJhcYEHkaGxwRQyQlJyktHwYmOCssLhIyRDU6Kjs9Li8ZMVJXOD0wj/xAAbAQEAAgMBAQAAAAAAAAAAAAAABAUBAgMGB//EADERAAIBAgMFBwQCAwEAAAAAAAABAgMRBCExBRJBYfAiUXGBobHBEzKR0eHxFCMzQv/aAAwDAQACEQMRAD8A7jCEIAkIsSAEIQgBCJFmQJCLEMAITlnSz0yYeiWpYFRiHFwapNqAP6NtanlYciZgq3pc2qST1tNR+hRTKPDNc+2YM2PpCE4bsL004hBbF0ErD69Mim48VN1byyzofRH0h4PaDdWmalW/uqgALDmjAlW8L37oFjXxYQmTAQhCYAQhCAEIsIAkIsIAQhCAEIQgBEiwgCQhCAJOZ+nTpQMLgvkqMRVxV104UhbrCTwzXCeDNynTZ89//wBBJm2lQBvb5Kmn/wB1YH4QZSucuoDN5d/u7o+g8fYR75rOjfRRL5qhzDSw3Ddy4fymsw3Q2jmBItrewY2PIAcvG84SxEU7EmOFm1c5lQwtW2YU2K20PMbjod/H8ZCw+NrUaiujMhRgVIJuPAzsm0dkKqkAsOYGXXx0vMdtzDotNrC+nibTSGIu7WOk8Luxvc+i+juKarhaFVmVy9JGLLua6g3FpZTIeiapm2ThNb2V1HgtV1HsE18lEEIQiwAhCEAIQhACEIQAhCEAIQhACEIQAiRYkAJwv0xGlXxmExNFxUTK1F7blZKhYb+BzNru7M7pOGdLcF1eZTZbOxZbbyrLY+oEzlVnay7yRQpqV33FMcTXogtTtfKW1S9lFrnfL/o9trFMy08QiHMoZXUWFiL2bkbSfswU6lJQygkW8vAx+jhV60Ko0APrI99pDck1a2ZYRi73vkZzpDt/E3YUVVUXeStydQOzr3++UGL6x0Z6hBIBuAoA1W44+E2mEwSszBt9yRw333Sv23RQJ1YAFzb1m02jJZK2ZrOLV3c3nooxVJcDQwi5usp0g73UgZqjF2APGzP7Rvm6mH9HuEAarUF8oCoCeJOp9ir65uJMpyco3ZXVoKE3FBCEJucghCEAIQhACEIQAhCEAIQhACEIQAhCEASZjpb0VpYunUN2VyjfNt2iFOW9weNt008JhpPUypNaHz70Z2oer1GYgaDx3e+WNVTiWzAVEdAfmgUzoNxLMCwmLrYxsNjHCnKvWGw4Wzm1pt8PtFaoGWplNtxsfYd8h1IbsrllSkpLdb0IVUVaDFFBZjqb5G1GtyUJt5x3ZNH5btChh3uFPbexsRlp9Zx/SyjzkXbG2Uoo9nu9rA2H/UmegZDUxlau+p6llUnW39Il7eweU3pQu95nPETst1M7Vs/A06CCnTFgNeZJ4kniZLhCSlkQG76hCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQiEzIbe9ImBw11D9fUH0KVmt4uTlHrv3TaEJTdoq5rKSirt2NfOTekX0gYqkz0cCQpVurz5VdmcHK1gwKgA3G7heVmO9JeLxTFKWWhTKnRCWqnxqcOfZAPfMnha5YHNcsrkknUnW9yeJlnSwE4wlOSu7Oy59acyFUxcHOMU7K6u+XWpJx+wvlVEN9PU5uNzqfK8osL0cxe5awUDmTflyM32yeyAOBEknDrmJnm1WlHI9HKjGWbOcnotWZgtaqWHcJqdkbYqbNrUzQCgEdWUIuCvzrE7wTl3y1ejYlrTP7WoXqIeRJ9hHx9klYSUquIhFq+env6EbFwjTw82sstfb1O/bF2mmKoJXp/NcbuKkGzKe8EEeUsJ8zUOkmMwjkYXEPTF75b3Qk77owK3032m56P+l97hMZRDfp0tG+4xs3kR4S0rYCpFvczXqVNPFxcVvZM7BCUewulOExmmHrBmtcowKVAOeVrEjvFxLyQZRcXZolJpq6CEITBkIQhACEIQAhCEAIQhACUnSzbq4LDPiCuYiwRL5c7HcL2NtASdNwMu5xL0l9IPlGM6lT/AEVAlO41Ppt32Iy+R5yRhaH1qii9OJwxNb6VNyWvAo9v9K8bjiRWqZaZ/sqd1p2/S1u3mfVKanQO7KLcvzxjiVWAIvpfj9W/A926SKdMlRl8Z6WlShCNorIoKtWUneTIuEpqHV0tcGxXxFr+2O1bU6hc/NI1jqYY1dEVus3DKCWJ5ADfJNXYWLpgM9AP2Qc6qWGU3yktqADY8Zs2o5N267jMd6Wib4dMb2R0nAJR1ZQCbEgkZQBbVRoe6abZ+0cPijlpPZwLlWDKfEBgLjwmRKa2CDXkZJwtHKym2V1bMDfcBrc8tLyrxeyqdZOSylnmlq+dsvRMssJtWdJqLzjlk3fLk9fK9jV7TdaYC/Obfb8ZjOlFZzlam4V76gAEEW0BHC0MXtI1GazFwDw0XvJ4tI3yfORlNzuCgeoATfB7PhQhZZyestPxy6ZrjNoTrTvLKK0j++fSK7UjM+jX1tu3EaHlJNDLvtblJtPZpcnK6mxylbl7N9UlAQD3XvPNbDGnbMNNbEaqbaGx566jeJKp1KUpbsZJtc036M4VqNaMFOUJJPR2aXlkR6WcEMrFGU3VlNiCOII3GdF6C+kSstQUMe+ek1lWsQAyNew6wj5ynmdRvOm7C0EGYi3AxjEUyGIHM+dt8V8PCpG0l+zlRxEoO8f4PqKExXos22cTgwjm9SgerJO8ra9Nj5dn9gzazzVSDhJxfAv4TU4qS4hCEJobBCEIAQhCAEIQgFR0r2p8lwlavxRDl+23ZT/ERPnNCSL3uQSRc3JIF9fuTq3ps2pkoU8OD85jUb7KaC/iWJ/YnJmOViBwvu3kjd6xf1y72dT3ae8+Ptp+yqxs96e6uHvr+h5a+o00YAj3e0FPvGSlplbFTofx4yleplUi57F3U8xvAHrEtaVYtwuPzqJZwlfrruK6rG2nXSNX0QOWrWdapov1bZGyqUU5ToxYnKDxspOm8W12GMe9O9SuppkEhEZqtQ02tYGn2bgi28aZjuBsMz0Vp01oseySb5wVbsgiw7RIQGwJF+drjWP43H0la/WXs+ZbHVeyENhTGQaANqdTwPGBXhv1XZel+C6X8k6hNQoq74d9uL5/n3MttBGpvcqVY65SoU6k/RG7w4WtIFax3sO184k2zW4eG6W+2Mb1pWw7I3dkKbm2YnUnkBcmwkPDnUAm3LdrcaXv4SwinureVmQG0pPdeRCpUgDpx3W3abx4Ee6FRwlOq/aGUKCVHaVXqU6dQr35HYecmYlOW9TfhwseHcTFZdb2uGUggg2ZSLMDbmDMVqbqU5QXFMxRqKnUjN8GPbBwfX1erFQpTGQgIUIAKAZUKEgAOcuuupJAN48tINRUue1UzjcQG6sdnuJDW14AsL62jGEoIKYpGqCqk9WtRmVkBvdQyqVI7+z4aRzH4gE/OViENNQgIVFIsxN1GZrEru777hPM0cHiFiF2Ws9bZarjpw4M9btHG4aez6SjOLd/tTV1ZSvlrndXussu8qVUg3XuPlc3kZH1N+Nz95gI/UfV+QHu/nIFFuzrvI87C9vz3T0tR5nlaUcjeehrHFMa1K+lWk1x+khDKfVn9c7dPn/0e9naFJwSQmpsbGxARjrvF2N+4HlPoCUG0I2q+RdYJt0/MIQhIJLCEIQAhCEAIQlZ0h2j8mw1WvlLGmhIABJJ3Lu4XIueAuZlJt2Rhu2ZyD0j9I0rVK1IKTkqqqm91IprUV9DoDnbTTnrrMXUpZ7a2J0B/WJu9dvdGqzlrl73Yklt+pJJJA1GpMZpE6qTo1tRqM491xb1T0tKEacdy39lHUk6kt+/9fwNY0EhiN+ot3gdtP4hzBkzZ2J7KnfcD87o3XcEEsNfpd44OPD8RyjGyCCgHIcBy8oT3amT1XyZa3qea0fx/BpsLXv+b+y590sANL7vZ75WbGwjVS6pa6IzkEnVU3gC5u2vETRUtn0koU6vygdbVA6uj1banrDT1dbAbjvtund1o6Xz04+PDT2I6oS1tl5eHF9+XeVdaloT5c/5aePOMva5IO5VI1HBj+lNficDg85pU2arUpCsjqdc1VaLEMmUE2Dgix9vFrFbMTqqpCFWX5NcHOCA1L+kBBNxd3BOgnNYiLtzty1djr/jSSbuuPPRXftYzr6tca6X3/gY4MLoNN27Q7vVNbi9hUkr1UyXXM5p6topwteoF8qiH7vlI+PGCodWj0qgtkuQCflCNTJLoSuUZXsLAjf5TVYpStupu6v1n14JszLByjdtoydWlb8295lfiWt+f+5udsbLw5fErRZ1GHpsXzMtjUFyqjKRpZW3i+kym2Njmkqux+ctNgMuvbQsRe30bAb/AKU2jiItK3V1f2ZpLDSTv11dMo672Q94tpbifGM4ZN7HXj3G3D2W/wC4m2KtgqX3nx0A8TzjdHVd2m6/D8j8Jje7Vu4yo9i/eS6TlBmGjDthhoQw1BHfxn0j0fx/yjDUK/8AeUkc9xZQSPXPmxKRYMBqTYAf9+PtnfPR1gcRQwSUMUmR6bOFGZWJQsWUnKSAe0RbkBK7aaW7Fk7A/dJGphCEqCyCEIQAhEhAFiQiQDinpa2Wn/qFMU7Uw1AM2RVAZusftNpqdBrv0mWbo++9Tm+z2W9R/Gbf0pNfaVMcsMntq1fwlfg900/z69CVovLuea/a8miTDA0a0LyWfesn+n5pmH2hg6iDtr5lSP5yt2cjUy9N1KsrspUjVSCQQQRoRunSHXPWo0/r1aa/ecD4zF9MqLJtHF6dk4qsQftVWb4yXHacqkozkrWeefBo509kq06cG3eN1lxTyvb8XsXXQpyMUG6xECozMXayZRa4btaA6Ddxl5tWuuGw1lpU6gFVhRrEXK0myVkKG3ElgdfozE4bGsqvla2ZShG+4YgkasSNw1AkkVahWnSZmyLqFJOUWvawKrbVm4/SPOXf0t6e9wy9Cj+ruxtbPPrP1Oj9Z1VM1VNNTWaviKLi3WZXw9Qm51PZeplA5jcY/RxiOKtKpZ6lWiGNYtftJTSyHsWuWo3111FhrOcL2mOtwotz+LSeBlJIG7LwHL/4zCwqXHPq3Wj7hLEt8OuPXA6FtLHUySSy9nE1LEnQ06lHE2IJFiL1WGmnaGutjmdtKFo0qPXCoj1qbUFvd6SFCKiv2Rl7TAAHl5CqrHOhFu/5o/8AxlTjqWma2630bbx3ION+MLDpO9+uv0HiG9Ub3F0xVXEAM2etWrZLEZMhr0qBZtSeyWa24WLaSk6XYlaqYWqugZapHci1MtPeBbsjmJm8LWJTRiLXGjHS+v8AeTy1ZigDE2QFV/RBJay9kWFyTvmqobkt5vTP0sZlWdROKjm/3crNrYSs1SlUCE03zqjXFiyFc43m1gy93a04y52fsGoQC5t7fd+M0G2sFk2Zs6pbVq9U+VQOR7KaxcM2ko6+06sW/p2SeemfLl6F1S2ZS+2pduOTzyutdM/UpFwIWtRW5OatTHmXUbhPo2cBrD+sYc/r6P8AqLO/SNTqTqXlNtvmb16cKdowSS5BCEJ0OAQhCAJCJeF5kCwvPN55zQDkvpITNtMd2Hpj/HVPxlc7ZRJ/Sa77TxJP0TTUeAoofeT65X7VXS0rqrvNlrQVqaH+itLrcfhxwD5z+wpf3qJl/SbhSNoYgrp2wWHMMoYH2zc+jOhbGsW3ig5H/kpC/qPtmJ9I+0Ot2liCTorZB3Cl2T49pD6510p+fwStn9rFST03PlMoaSnspvv2jx/EbgOEs8OLEtusPD4L+RIGxUNTM5HcPCWVbsqFG9tTaw8NxHunsqMVGEYp3SSz+TxGIk51JSatdt27ru9vgewY014nifxJlg9MEnQHTkD/AAmRaIsBr7f+UnWueB07j8WnVnDUhottMv8AhH+yeTRBFrcCNw4a/Vj2LoW1AHdp/wAI1RbQ34a8PAwLFbs9rFkPv5ftTxWFg/MEHd4g627+ceIy1f5/zEXqBUxNKmSFFV1Qtp2czhb8d177+EjYz/jPwfsTtnS3cXSla9pRfknn+Fn5HSemGAI2FhSw1ojCuRyLKKR/1TMfga+gE6307oA7NxKgaLRJA+xZh+7OOYakAaZU3Bnk68dC/wAPK6b5+5N2pSIUMu9SGHiDce2dx2djFrUqdZPm1EVx4MAfjOPYpAU15Tono4cnZ1C/DrV8lrVFHsAmMM9UYxayTNNCJFkohBCEIA1eF43niZpuYHbxLxrNDPFgcf2pjlqbRxZG7rcv/jRaZ9qmMY0yj2NW62pUrf3js/32LfGXWJbSVknebZcUlaCRo/R2f6xXrtotOjYn7TBvYKRnJMTevVZmJylzpxJZidfXOw9BcL1uBxaDQ1DUp38aIA9rTkWEZcwtxtYeGk7uL3Ypcfcn7J+m6lWU9Fa/gt754eBf0KSqgIsAfDcNDx/N5BpMalS/DxP+6e67NUK0E4DtHWwtw3ywweDFMaG/f+TPZwioR3VorJeCyR89qVJVZOpLVtt+LzfqwB13+3/nJaG7DX2/8jI+bX+Z/GTaQNx+fjDMITGUAy3AHq5eRlJQbK+U6X0/O6aYLoe4+z2yk25gytqi8PzymI9wfeQcclmU/snX+YkPFUDdkF7r26Z14bwDf82lu9Lrk0OpFx9oc/GQsYjZBUtZ6e/y3zStTVWDhLjl17nbD15UKsasdU7+PLzWR3Bqvy7ZZI+diMI3k7UiCPJr+qcY2NVz5T3X9c6v6LsWlXZ1NUIJRqiMPqkuWt6nHrnJujy205aeqeSq6I9NSio1JxWif7NBjXAp+U6D6LqubZtHuasP8+p+M5vj/mGb70RvfZy91Wt+/f4znh9Ri/tXibaES8W8lkAIQheAV/WQzyKKkXNO1jBJzxrFP2G+y3uM8Z4ha4tziwOCdGTYL9kS/wAW3ZMoti0svYO9GK/dNj7pcbReyyoazLiOaL7ZPSens7Z3WEB6lWrUKJewOUhCzHgoK+e7vHNqOKD1GqsEVmYsqqMqKWJa4B3AX0Ea2rtAuVUbqdIJccPpuPHO5k7YuxaLrmZ2N9AeenH1y0wH+zERi1dLP8aP8muNp/QwE6sHaU7JvlJ3svLV+OZZYHq1GRSLnVje5MmGv2d1uQhQ6PUxY0nt331ks7IYm5YH2T0zknqeO3WV6tLXCG9j3SJiNnuutrju4STs4HlEndGVqOjFXuLEMOEj1buCCNCLSwxGEzWZTZh7e4xqrTKgE8tw1sZorcDZ3WpnMGerYod19PGPYlb5ltqynz0tJG0MOr6/NbnY2PjaN0UcCzgG25hqP5GdHzNESvRFthsNjThmv1eIJA5BwSVPn2l8xykXB08lasn1K1Vfu1GHwj3RzZubaWGIH9oH378l3P7vtj22KPV7Rxafri3/AJAKn8c8hiKMqV4Pg/TgeznXp15xrQ/9xTa7ndpryat4WGtrv/RmdH9FNPLs2kfrPVP+a4HsE5jttuz5Tr3Qqh1eAwyHQ9ShPiwzn2tNMOtSJi3oi/vDNG88W8lkM95ot41nhngwUIqRRUkQVIoqTqYJgqQzyKHi54sDk9en1eMxKfr6hH7TFv4o9tNSyhBvawHidB7556Rrl2jiO8o3rppHUN6mHH66kP8AMWVc1/stz+S0hK1O/IgdM9jUqOOqJRU2Kq7AOAQz3LIqn5w3Nv0zW4RcG1CkgDGoNxI6tjqR+jflaJt6p1mOxTnUdcV71yKKYt5JI2e2gFuV+HeeU9PgsHCP+xate5QY/alepBYeVnGLyyz0tm+Ns+fe2SqmPw/Co4/YqD4SM20hfs4iuvhRJ96zxfjz3D4mJUUbgNecsdx95VfW7kOvtiqNFr1G+2lMe439kYpbXxS7qtPX9Vr+/PVh+TPDrpumFTRh1mx4bVxTf25H2UA9943WxOIb52IqnwZV/dE83AF7ernwim5F+ImfpofWkeEZx/aVD41KnwYR2nUq8areGnva5PrjasTrHVj6cTH1ZvK5Z7CxRp4mjWv82olyTwzANr9kmX3Tmnl2ix+vSpse8jMnuQTHo2tuc0e2Md8ofDVTq3ycI545kqVFJPjv85S7Xp9nf8i52TVvPcfj7XKjb5JGUbzoPPSd2oKFVVH0QB6hacLcZ8VQTnXpDyNRb+ydvzypwq7LLTFvtIk54meR88TPJViKSc8TPIxeJmiwM4KkcWrIQee1ebmCcKkXPIYees8AwnS1f6655on7tvhPFM26tvq1EbyDA/Ce+m9O2JVr/OpD1qzfAj1TxQpkp+fzxlXX7NRvmWdDOnbkUleoKletVGmaq7eTOWHj86e7A8dN55nx/CM4nD9VUYN802seY5eMUG+lrDf/ADM9lhpxlBSjozx2JhKE3GWqHA30ueiiNFtfzvM9s/HyHhGhvkkjDn/US+ntni8RoAitrFL28TPOa2p3TygJOY6DhMGbD6844I1RfhwjkyDyTxkzYKlnqPfs5wo5fMW9pFyEkKNSd00GBwApIEGtrknmx1J9sods1oxpqnxbv5L+S92NRcqjqcEreb/gi7IXNj8OP1qn1a/Cdjzzk/RCjm2il/oJUf2Zf4p0/PK3DrsFjiX2yRnnkvGs08Fp3sRx4vEzxktEzRYGbDR1WkcRwGbsD4aKGjF56BmAYzprXviqa8qQP3nb/bJeAAyiVfTLTGISbXpJb77A+0+0SdgMQuqE6qPhKvEfeyzw32Ij7Zp3BFhde0Pz4XlHSYn3ky6ri5q66gL7Rwmeo1biw3DeZebFm9yUHwa9f6KTbdNb8Z96a/Fv2Sma5vy3RsGIpnkGXxQWPZMbqVbTzUqyDXrEzSUraHSFPeZMSuCb2J90fVC2rEAcpV08v0ifI/hHkp0vrv53M1Uurm8oJPL2LC6bifMRxSODAyLSRRuN/X8RHlYcJ0uzm0kWmxFBd2P0dB4nU+y0uw4K5hKHYdULTrVTrYsR+yoH8Jk3Z+JthKTtoWpqbAk7wCPOeNx8nUxE3zsey2fBQw8I8r/nP5J3Qo/+4Nb+5f8AeSdGvOe9A8OxxL1eC0rN3M7AgepT6pv7ztQ+xEfEf9GeiYhMSJOxxFvC88wmQZ6LPeWGWAebxRC0IBivSRhRanVa+UdnMN6nNcH1XP7IlNhKui1CbsjZKnIg/Nb12+9Oi7RwKV6bUaoujix59xB4EGYHaHRTEYVKtQVFq0ra8KqoALORuJW2v2Qe6Ra1Jt3RIo1UsmWVPL14pu4QVkBRj9ZDZlN9NzKfXKDGYdqTlG5XUgWVlubMvMG0dweL60dU7L1i9qjUGgPhf1EHcbd0TG7Qetl6wLdbgEKFNtNDbTTh4yfsiLTbT5P4fwQ9rzTik1zT918jKvpEapwAuZ5nio53CXt8ihSzG6x+sbnlwH4yJWMkFbS46KbETGVKlJ72FF2FiRZrqEOm+xa9uNpwqy3YuRKpRvJJFBRdbAspt9YaiTKVRODjzkPZlS6gj9od/OWK0b6gD1A++dKd2ro51naTTFDjmDHFMZuOa+QntnsLnh3Trc4NFngatKrhhhqCua9Qla11IFOmXJqNc6biQLcSJbV6iZjlAyUwFQDcWOigeA+EoaG1KdOkBT+dUUNUYauf0ByA3a+M1Po+2amI6yrWTsoQEpnVASCWZh9I7t+ms8lVoyqTcoJ7t9Xxb6+eJ66FdQioytvW0XBd3lfXyNN0OwJp0SxFjUOYfZsAp89W/al5FtC07xjuqxGk7u4kJ6tEtMmohiRbRbTIKbLEKx+0TJAI5WGWSMkOrgEa0Y2hh89KpT+sjr95SPjJ/Vz0tKAcA2XVcDfyI33U81lmjX14yNWo5HZB9FmUfssR8I6pMtMNCKV0tdSrxUpOW63pdIfLQIiAxWMmkIZqGb70W4UgVq3Mqg8rs3vWYBjOwdCcF1eDpc2Gc+La+6w8pCxs7U7d5Owkbzv3HIdqYY0MZiaW4LWe32SxZf8ACRPKMXOp05bry79JGEybRYj+1p03PjY0z/pykpVBy0G4cz3zfDO9NDEq03YkqNNL+y09xsHn/Ke7yYQWeVtuAtOoejWlbD1Dzqn2U6f4mcupi7TrXQBf6oD9arUPqOX+GV2OfYXiT8DHtN8vlGjtC09WgBKwsjzaLaLaEA82iWnuJAP/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYWFhUZGRgaGBwdHBwaHBweGh4cGSEaHBwcHhocIS4lIR4rIxkYJzgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHjQnJCs0NDE0NDo1NDQ0NjQ0NTY0NDUxNDQ2NDQ7NDQ0NDQ0NDQ0NDQ0NDQ0NzQ0NDY0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABHEAACAQIDBAYFCQcCBAcAAAABAgADEQQSIQUxQVEGImFxgZETMqGxwQcjM0JSYnLR8BRzgpKisvHS4RY0NcIVU3SDo7O0/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAUBBv/EADMRAAIBAwIEBAMHBQEAAAAAAAABAgMRIQQxEkFRcQUTMoEiM2EUNJGhsdHhNUNygvAj/9oADAMBAAIRAxEAPwD2aIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiVm3NtUcJSNWswVRuHFjyUcTAJ1SoFBZiABqSTYAdpM0XpF8qGFw5KUgcQ4+xYUwe1zv8AZ5Z0x6ZVsc7ZmKUQepSB0Ftxe3rMe3QcJrgTSRbJKJt+1PlL2hWJy1ForwFNdQO1nuSe3SUD7fxbG5xeIJ5+lf85CCD4zuKYINhqPhPLntjYdn9Oto0tVxDuOVQBx5kX9s2zZPyvVdBiMMrfepEr7GJHtnmRLZrC9rAeJmapQe27Tl8Y4rcz3hb5Hvmwen2DxLBFdqdQ6Baoy3PIMCVJ7L3m2T5Ozkm27sm+dDvlErYfLTrsatEaa+ug+63EDkfCepkXE92iQdmbSpYimKlF1dTxU7jxBHAjkZOkiIiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBTdJ9uJg8M9d9cuiruLOdFUd59l588dJ+kVbGVPSVmufqIt8iDko+O8zcflr25nxFPCqerSAZ/wAbjTyQ/wBc83pUy7BefukZMlFXwiRs3ANVN9yjjzMuv/AiR1TLbZmCyoq20Eu6GG3TDOs28HShQio5NNOwKg1C37Z3o7AqFvVsfZpPQaWG3SalADcBI+cz3yImpYHoxazEDuk8bCUcjwt7/wBdk2B6cy08LeQc5MtUIo0nHdFkdTY2bhYaTSMZRelUKOLH2ab/AD3z218LaaZ052TmVXUajf2jgZbRqtSs9imtRTjdbmv9D+lL4LEI4JNJyFqLfQqSLsB9pd48RPo2k4YAg3BAIPMHUGfKTJpu4z3n5JdpGrgFVmLNSdqdzvyjrKPBWA8JuRzZI3iIiSIiIiAIiIAiIgCIiAIiIAiIgCIiAIiIB8wdLcV6bH4mpzqsB3U+r/2zHsKl87rw+MgVm67njnck97G/slt0ePzp7QPMb/bKavpZfQ9aN1wqS3wtIcZV4KT0BM5x1C0pkcJkJkXD0WMmGgQJ7YHVXF5MoMOUjU6BMmU6BtCTPG0H1lVtmgrUnuPqmW1rSHi0zKRPQeN1UtnFr9aw1/XZPS/kRY5MWOHpEPiVIP8AaJouPwuWuVOgzb+W++nhN6+RdMoxg+9T38rPadGDukcqorNnqUREsKhERAEREAREQBERAEREAREQBERAERODAPlTH0DTq1EYHMtR1I7iRLTozQOcvwC28TaZ/lAVP2/EOjB1dg4K6jVRmF/xAiZ+julIkDiZnrS+HBqoR+LPIvDjUpgZjqdwG+ZE6SUk0bSQgtOmueogZjv033kDaGMpEXOFUqQpuqC/XbKpuSDqdBpKIRT5XNU5NZvY3/ZW3aFQDI6E8ri/lL5QCLzxg0lpuhCEZtQCCpAubaXtw8Jv+wtotazE93wkZpRZKPFJGx1ayJqxAlHjOnmFQ5Vzs1/skDzO+WG00TKXYXsDpNAxSVLPWCKgDDS4S2a9sznW5t7hvM9g10PJRbV2zaKfSWpV1SiwXmVN+/ulkmILAEjKT5HuPPsmt9HMfXq0TUIZQqq2ZXD3VywUlG13o1wGzbtJtWGJqJrbNzG6/jE1bDQg7q6ZofS7D5KqOPraHtIP5E+U275IcMFp4htbl1BPPKp08M01/p0tkRuTgHx3e6XHQSrXw9NbsDTqOpC2F+tYXB36gXl1KolFXM9ak5Sdulz0+JwJzNRiEREAREQBERAEREAREQBERAEREA4lftvDs9CqikhmUgEb/wBcJYRPGro9Ts7nz1tTZgfDlxvppft00bvGkdGj80vaT75tPSPCCk2Ip2tmZrcrOAf+4zU+jT9RByJB85hd+FxfJnUw5qS5ova2Gz3B8pH2ngEqKmcOWQWB4gDUC/G3bLmgnLfMj0ddZXGTRY4p7mtJhajsCTZVUIB90bhpumw7FTKbdk61xYSVsmndi1uQnkm3uSiki7xlLOmnKa+cHVBYOzMrCzAm9wN2h08ZstNraGZ2p8Dvnsb8jx22ZU4DCIlPIlO2t9ee6/fJyHKJlShqZlajprDuyN0jUOl9HNh6vYuYfwm/wmw7Jw1kwi6EFaev4VuT7ZSdMHyUHNt628z+UuuhbOy0VcHqLYXFrhVy38biTgr2X1IVHa7XJG8CcxE6ByhERAEREAREQBERAEREAREQBERAEREA0X5QNnZsj20bqtbeCLlT5Zh5TzTZmGanUdGt69xY30Ovxnt3STBmrQdQLsNVHaP9rzx7aaZKqnUEi5B0PEbvKY6sWpP6m+hO8V1Re4Yyz9B1b8ZS4Otul6K6qhbsmc13KLEIwZmbUDhJOwtpsFKumS7dXUG/iPdKrHYpnJCjS8y4OgwAIIJB7yO20lYjdvZG21MaxcI1FwpAy1BlKX5EA3B8JLqOQRyIHnKnCFzTBN7i/wDmTaOMzDK48Z610G25Z0tZzUMw0Klor1rQtiL3Nf27hFrstJycpYE232HCbXsOgFfS9glhx5cZr2BotVxSgWsAWN9wA0v39ZZu+Ewopiw1PEyyjBuSfJFFeolFx5slxETaYBERAEREAREQBERAEREAREQBERAEREA4mifKjg1NGlVt1kfLfjZxuPiom9zWvlAw+fA1ea5XH8LC/sJkJq8WTpu0keYYerYCXznPSFvGarRqXEvsPivm7TA0dOLwU20KpDooHUJsSD6vaRxlvhcPhjr6WuhUDrZQwY63IUC4G7fID0s2o3yVhsTZQrU92l7c5NPBYkurRbO1JOtSxTs1ho1Nt5NrcOEx4XbTs7K1I2U2z2ADAnQ23jxEkYB0KlQmvMi3tMlNSRVyi2vvhyVjxpdWyxpNpcTDVO/9aRh3stuUj4irYHxkSDJvRQ3xT9lM/wBy/lN1mj9CNa1Ruaf9w/3m8TZR9Jz6/rOYiJaUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIBxKXpcwGCxF/wDyyPPQe+XU8z+VbbDq1DDq1lYhqluPWAQd1wT5TzhbTt0PYu0l3NAQlTbgd35SUlbhODTDDWRHBQ67uBmJZOg8FnRqNw3/AAlhQWq2uYjwlThcWNL7x5y9w+OUISbXtPHFk4zRIw4cDUk+ElLm0mPCYxCL6dnj+hMlTFqLW1PCeKJ65Epqlha8h1XLnIDpx7pHeqzEAC5Pl3ydhqGQHiTvPbPXgisl30SKrWZbi5TQc7EXt5iblPF+k20XwzYauhsUrgHtVla6nsIE9b2VtBMRSWqh6rDyPEHtBmuiv/NMxajFSxOiIlhSIiIAiIgCIiAIiIAiIgCIiAIiIBxEg7R2pRoLmrVVQfeIBPcN58J55t35VlUlMLSLn7b6DvCj4kd0lGEpbIi5JHplaqqi7MFA4kgDzM8K6d7QGIxdZ0YMqlVUjcQgG7sLZpVYvbGIxL5sRUZ+IB9UdyiwHgJjtrN1HTWu5c1YpnU6FlhnDKGG4i4marRBG6VmzKmV3pHceuncd487zYKNKcOtB0puL5HapyVSCfUoamEsdPb+clUKT2tYnxlzWwJI0Ej0UZGGmnd+chxkuBGPDbPc7gQO1tPZLTD7NYeswH4d/mZa4cArff4WmZafZ8Z5xnvCjBh6AUWAEy5uU7BDymdKI0Mg5ElE0/p6g/Z05mslvANf2Xlt8n23vQHJUa1N7ancrbge47j4Sg+ULFBqlCiOBLnyIHvMw4BbIJ2/DaSnSalzOTr58NRNcj3tGBAINwdbid541g+kWIwgDIxZB6yN1lA5jiPCbxsPp1hq9ldhSc8HIyk9j7vA2irpZ0/qimNWMjbonVTfdO0zloiIgCIiAIiIAiJwTAETVdudO8Jh7qH9K4+rSs1j95r5R537JoG2/lAxVe6oRQQ8F+kI7XO7wA75bCjOeyIuaR6ltjpDh8MPnagB4IOs57lGvidJ55t75Rar3WgPRLz9aofHcvhfvmilt5LEk6nXUnmTvvMVSvwUWm2GljHMslEqknsdsfi3qMWdmZjvLMWbxJJlZUfQ2G72yVayM54D/AmLDJ6t+LA+WvwlrjyPFgl0UI3cAB5TNmnQJpcHwnKm5liVit5Ou0kIyVF3qbHuOo93tm07FxgqKDxlI9PMjLzHtG6Y9lVGRxynI8UpWkpdV+h1fD5uzXQ9CoLcWnZ8IDvEw7KrZgJdLSvOGzqkahhwOEkBAJz6MicqsXPDgJ2TpiXCIWPASYqTXelNUimQDJI8bPNsfiDWxbOe23cNPjL3DDSU2EwhzsxNgouTa+lxuHEyWu3qCEq3pgeJyKR5B7z6fw9qFG7OBrE5VGkXOS4sd3Ka9Ww5puU1sdQeY5HmRp7Jd4HatCoQErLfcFfqN/V1T4GddvYeyFzvQg2Oltcp05WY+U3cUZK6ZkipRdmZtgdKcRhrBWLpxRrsPAE3XwPhN+2b8omGewqBqZ4m2ZfMajxE8eZ8u+FxObePz85nqaenLuWxnJH0Vg9o0qovTqK4+6wMlz5upYplOZWKkbiCQQewix9s2PZfT7F0/r+kQb84zD+a4b2mY56Rr0u5cqq5nt0TQdk/KXQewq02Qn6w6y/6h5Gbls/aVKuoek4cHlvHeN43HfM0oSjuixNPYmxESJ6UvSDpFQwaZ6zWJ9VRq7HkB8d08o290vxGMDWPo6GYLlQ7y24M2hc9g0lNtHGPjK74isbA6235E3Iig8TbQcTcmYDWzsgAyqpGReAuR5k8TNNOOcK9t3y9hOPClxbvZfuYKyFSVsVsSDuvobcN0xZDx85abRpgVagA+uxA59ZgR3giRWXiBpN9FqcFLqZ6seCbj0I5pHvmIiSiLW5HcfhAQGWOJVxELHA/NpwN2PuHxkrDUCXGmioSe9tB7L+cy18Nesij7C28S0k4PDs4dkRmBZgLA2sDkX2IT4zzh+LJ63giMgFrGZKCXI/yfASQuEBYK7qGIvlUhnsOJA0UdpPhIdbFvm9HSXIu4vvdv4vqjsE97IjYn1ai09Kjoh+yxJc/wJcjxkzC0UfVWVvwn9HwM1jCbMAdmbWzWOa50YAq3PjLqjgRcMAVbTUaeMzaig9RHhm7W2sX0a/kSvHN9zcMACnDyl1QxQtvmubLxvB+zWWeJQLrfQ8bz57UaWdF2e3JncoaiFaN1v0LVsYtjMRx6jUnwG+VCVtd47pzVtx0maxdgl4jarG9hYTXsbimqNkGvMncJ3xWLLHKm4DrN7wIwVKwBUEsTZABc3GrMRyA117J2NF4dxLzKu3JdTl6vXKPwU9+vQwVaCL1QOqmrnm2/XTW3LmZq1fDhmF19dST4m82zaCZUdRcKo1zEFmc8yNNL37+6V2Jwtsh5KJ3oqKjZLByOJt3bNUTCAMVI8PfL/FO64aoli65DlDHVPvK2psNDl3acJxtPCZSHA7/AIyxogFFO8bu8f4MjwrKR65PDNeqjPTVx3H9ecxYNM11k/C4PJUq4c+qwzJ3bx+X8JnTZmFP7Qi9rA+AJ+Ehm6fsTvhmLD4bNdn0Qf1HlMjXfkqDhwsOMssclzkXRR+ryLhqQcsTpTp6seZH++gHPuk2rYIp3yc4KgHqUwbqgemTzN3UAH26SyfaValiajqxQ52uAdBYmwHL3cwZj2emtMkWL1kJHIZlAXwFp22r9NVPOo/tYzHSaq1HdYyl2R0NVT8iMUt7Jvuy/wD+PsR9r+hP9UTVMh/QES/7HT6GP7TIg4ltQgNwpJJH1n3M3d9Udg7Z2w5CspYdW4J56G8xU07NZPpU7jWIUlGHCjydSUpuT3Mm16RFSoQbkOzqftI9n9x9kgmqFIJ9R9D91vyO+3fLvGYf5vDPwKFDbgabEKfAHxGnKQMRgtGRtA2nYp+qw7AfZeVaaVlwc1f8jTqYuaVVLGE+51/ZwbqfVbjyPAjzB7iOc64fD65Toymx8Jk2IxZSjDro2RvbkPnmXxBltVwvzlJrakMCeeUrY+R9s2JpmCWCtxVIrUd/sYdSPxMWVfbaQ8NgMxwyWv8ANFj3Z2tfxmx7UojOBb1iAfwUENRj/NVQeBnOysNkWpWcfRUUTxRc7/1vl8JXxK5K+CqwWGGfEVLaKMi/rvnWjgLOmnP3SywlSlTwyK7jOzF3FiTcnkB3SK20xmuiXsLXbt7AZVPWUoLLRfHSVpvEWu50x2HCMlS2hIRvwt6p8D7CZIGIS2QXdxopzAKBx375W7RxdR0YEgC19AOGvfMeApmooYHrWvft4zDV8QT+X+Z7LSygviLzDG8v2uoXS6W63Mfe/OVWytns6dSmwcb7kBdN5zNYWlmmMCkg7gB7h/vNNOUNVScZe/8ABVGc6M1JYKnHuqNc2ym4vpv0t+u2V37U76A9T2+B5STtbBq7h1DKl+sv1WPA24fGYaNO7ACU6bw1RnxTzbb+TXX17lG0cX3Mq2VeQtMaY9hrZbEZUUk7hqWIG+x18hJNakhJD1VTLqbqxFrXtdQbHdv5iRnwDu75Sj5UFgjhmsddF9bTjpJ62vOLUY3SXMx06blncxYraaeiAZSpLX01uPzljdKgUob6buI7COE1jafLdb9bpirDrX4yinrpr1ZL3p01jBtlTCZkII3e4yDgKRGelxAzJ221A948Zr9PG1EYMrtpzYkdxBNiJK/4ns6O9KxU70O8ciG995qhrIy3wQlp5LbJebUwoKU8Qu+nZj2obZ/Ia92aS8Hs0CsX+65Hkov/AFyfsLHUcRn9GDlFiUcAEB73GhIK3DecmUcLkS2p9GjoOZVShXxy5Zepp2a2ZQ01hml49StMsPWc5V8TYeNhecPRCqlFfUpkZz9p+A7Qvv7pYV6RZxl1NNsics9tXPMDVv8A2zzmGnTXOQvqUxa/2mO8ntka9Xy6Tnz2Xc3eH0PPrxhy3fZGTCrmxFBOToT4HN7lkPFEM7tfe7HzJ1k/YRJrPUO6nTd/EDKo82Ehmnew/wA90ho6fC88kvxeWS8SreZVcltfHZYImft9k5kz0HaYnQObcqaSAH3ywSiRrv5zFTThp/tJmHIBs28DTtEpR62WDAPhAR9SvbwdPzEjtTDKDa+lj3cZnwb2TEIPsB8vEqjC7gdgOsUlsByOonM1F4JyjupX9mdzwy1SToy2lH81sUiUitdTewcGmx+8ozI/eVG/mpm1sodKbgcrjkxsD4AgDwlLtqnkRao9UsoJ5MGBHtuP4zNm2cBkYcA4cdzWJH82ab+NOKktmcatBwm4PdNr8CDtej1yOa5L9lR6j1P/AIqVvKUe1sa4orSUgZ3UPYC5Yn0huT22l3tzE2qU6ABLtSXNb7VYqPMJTbT78pcFVBq0GBJbNWqsCoIAzFEGu82B4cJy68qlSap0n3Ozo4UaFB1q6TvsnzsQ8TQLPZQWI0AUEnyEkU9jVMt2CJ+8dFPkTf2STjNoVixDOwB4LZV8QgExpsus1ytF91ycra+z2yMPCn/cml2Pa3i/H6IHT9gQaNiE5dQO/tygTBsjFegzLSZWYMeuU1UC2UKH8TunJUW3dluN5CUZKpv9a02w8NpQabbf0exzamsnO+EuxseI2yKlnqO+ZR1Te4vx6u6ZExefrWvb1lGhUaagfWEqP2QtrbXlJtLDkML3Ww38Qd1pvjCMVaKsY5O+WybiHDISCCLXFuzWRsIMil97HRAefM9gmM1QrWbqt2WCN/pM6VXfMAGAci2h6qJzvztc+3lPdjyxGdizsm8U+s5+2511PEC3mZGwDMM77iWvcbwRu1memFGHzjT0jll55RoundadKaWWx323SO5LY5q7SrsD843ZfU+ZF5lbHF8uenTqGwu1RSX00tmUgnxkRlsCATb3TJlGVCO4dsrempPeKLFWmtmzs1HDt61AqedOow/pcNaRcb0dpuH9HWyG1wlRSdf3ii1u0gdvOXuB2QWUu7Ki6XLHgSV0HYRqCQdxmc4FMgIcXDsuYk5WUC6WFtcxBG8cBreZp6Wg/Tddi6NeqvVb3NMweIxGCcMrqCyA3Wzoyk2KkkWJU2JA3eM3nYfSRsSHR0VXGQXW+RsxOtiSQbqARcjUSu2nhfQLTYlXo5yWVrFcjn0bXXcPWvf7vZMOC2d+zAv6ZXGcJaxWoClRH1U3B6qPqDM/BOnJJO6f/ZJycZxbtZkmpWCUyw3lSE5/OMzk95BQeExJQyoqfWOrd5/RmOmmZ1U6qi0796U6Yt/MTLPDUSxZu2w/XlPa782rCnyWWdLRL7NpKmoe7wv0OMPSyYZ2HrVHVB+FBnY+dhK6wKk2so3lvhzMudoANkTMFo0167je7ucxRBxt1RpxNpjyKgFSooWx+apkgAHcCb739wnQoStFy6tv25HDq5aXRFTYfYqfyNEtP22r9hP50/1RJefDqR8uXQ1+j9Xxmb66d8RPVuRZdYH6Zf3WI/8ArMh7P+hp/hiJzdZ6an+p2fCfvNP3O+2f+QxH6+skutnfQt+7T3tES+l8iPsY9d95n3ZAb/rPhT//ADtKXo39Kv8A6Zf7miJl0Xz5mnXfd6X+JZ4b6ZP3ie8Tcav/ACz+H9kRNOp9aMNH0s86f1h3CQ8X6694iJvexnW5ebN3CScRw7viYiekSj2jvf8ABMGC9Sp+6f8AsaIkZbEluSq/0OH7vynGI+rEREMxp6o8ZlwPrU+8++IkpbM9jujYOlX0572/tSR3+hHePfESij6ESq+og7Y/6fX/ABH31Ji6SfQ1P31P+x4iVPZli2O2C9et+Ie5ZdbP+jPc3uiJhh96fY7mo/pcO/7mLFethv3n+uQ+nfqJEToQ+UuxwZfM9zXIiJyzaf/Z</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mohammad Nabi</t>
+          <t>Mujeeb Ur Rahman</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1402,115 +1402,115 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>173</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>50</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>50</v>
+      </c>
+      <c r="R8" t="n">
+        <v>60</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>65</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
         <v>20</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>18</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>22</v>
-      </c>
-      <c r="X8" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ8" t="n">
         <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYWFhUZGRgaGBwdHBwaHBweGh4cGSEaHBwcHhocIS4lIR4rIxkYJzgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHjQnJCs0NDE0NDo1NDQ0NjQ0NTY0NDUxNDQ2NDQ7NDQ0NDQ0NDQ0NDQ0NDQ0NzQ0NDY0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABHEAACAQIDBAYFCQcCBAcAAAABAgADEQQSIQUxQVEGImFxgZETMqGxwQcjM0JSYnLR8BRzgpKisvHS4RY0NcIVU3SDo7O0/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAUBBv/EADMRAAIBAwIEBAMHBQEAAAAAAAABAgMRIQQxEkFRcQUTMoEiM2EUNJGhsdHhNUNygvAj/9oADAMBAAIRAxEAPwD2aIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiVm3NtUcJSNWswVRuHFjyUcTAJ1SoFBZiABqSTYAdpM0XpF8qGFw5KUgcQ4+xYUwe1zv8AZ5Z0x6ZVsc7ZmKUQepSB0Ftxe3rMe3QcJrgTSRbJKJt+1PlL2hWJy1ForwFNdQO1nuSe3SUD7fxbG5xeIJ5+lf85CCD4zuKYINhqPhPLntjYdn9Oto0tVxDuOVQBx5kX9s2zZPyvVdBiMMrfepEr7GJHtnmRLZrC9rAeJmapQe27Tl8Y4rcz3hb5Hvmwen2DxLBFdqdQ6Baoy3PIMCVJ7L3m2T5Ozkm27sm+dDvlErYfLTrsatEaa+ug+63EDkfCepkXE92iQdmbSpYimKlF1dTxU7jxBHAjkZOkiIiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBTdJ9uJg8M9d9cuiruLOdFUd59l588dJ+kVbGVPSVmufqIt8iDko+O8zcflr25nxFPCqerSAZ/wAbjTyQ/wBc83pUy7BefukZMlFXwiRs3ANVN9yjjzMuv/AiR1TLbZmCyoq20Eu6GG3TDOs28HShQio5NNOwKg1C37Z3o7AqFvVsfZpPQaWG3SalADcBI+cz3yImpYHoxazEDuk8bCUcjwt7/wBdk2B6cy08LeQc5MtUIo0nHdFkdTY2bhYaTSMZRelUKOLH2ab/AD3z218LaaZ052TmVXUajf2jgZbRqtSs9imtRTjdbmv9D+lL4LEI4JNJyFqLfQqSLsB9pd48RPo2k4YAg3BAIPMHUGfKTJpu4z3n5JdpGrgFVmLNSdqdzvyjrKPBWA8JuRzZI3iIiSIiIiAIiIAiIgCIiAIiIAiIgCIiAIiIB8wdLcV6bH4mpzqsB3U+r/2zHsKl87rw+MgVm67njnck97G/slt0ePzp7QPMb/bKavpZfQ9aN1wqS3wtIcZV4KT0BM5x1C0pkcJkJkXD0WMmGgQJ7YHVXF5MoMOUjU6BMmU6BtCTPG0H1lVtmgrUnuPqmW1rSHi0zKRPQeN1UtnFr9aw1/XZPS/kRY5MWOHpEPiVIP8AaJouPwuWuVOgzb+W++nhN6+RdMoxg+9T38rPadGDukcqorNnqUREsKhERAEREAREQBERAEREAREQBERAERODAPlTH0DTq1EYHMtR1I7iRLTozQOcvwC28TaZ/lAVP2/EOjB1dg4K6jVRmF/xAiZ+julIkDiZnrS+HBqoR+LPIvDjUpgZjqdwG+ZE6SUk0bSQgtOmueogZjv033kDaGMpEXOFUqQpuqC/XbKpuSDqdBpKIRT5XNU5NZvY3/ZW3aFQDI6E8ri/lL5QCLzxg0lpuhCEZtQCCpAubaXtw8Jv+wtotazE93wkZpRZKPFJGx1ayJqxAlHjOnmFQ5Vzs1/skDzO+WG00TKXYXsDpNAxSVLPWCKgDDS4S2a9sznW5t7hvM9g10PJRbV2zaKfSWpV1SiwXmVN+/ulkmILAEjKT5HuPPsmt9HMfXq0TUIZQqq2ZXD3VywUlG13o1wGzbtJtWGJqJrbNzG6/jE1bDQg7q6ZofS7D5KqOPraHtIP5E+U275IcMFp4htbl1BPPKp08M01/p0tkRuTgHx3e6XHQSrXw9NbsDTqOpC2F+tYXB36gXl1KolFXM9ak5Sdulz0+JwJzNRiEREAREQBERAEREAREQBERAEREA4lftvDs9CqikhmUgEb/wBcJYRPGro9Ts7nz1tTZgfDlxvppft00bvGkdGj80vaT75tPSPCCk2Ip2tmZrcrOAf+4zU+jT9RByJB85hd+FxfJnUw5qS5ova2Gz3B8pH2ngEqKmcOWQWB4gDUC/G3bLmgnLfMj0ddZXGTRY4p7mtJhajsCTZVUIB90bhpumw7FTKbdk61xYSVsmndi1uQnkm3uSiki7xlLOmnKa+cHVBYOzMrCzAm9wN2h08ZstNraGZ2p8Dvnsb8jx22ZU4DCIlPIlO2t9ee6/fJyHKJlShqZlajprDuyN0jUOl9HNh6vYuYfwm/wmw7Jw1kwi6EFaev4VuT7ZSdMHyUHNt628z+UuuhbOy0VcHqLYXFrhVy38biTgr2X1IVHa7XJG8CcxE6ByhERAEREAREQBERAEREAREQBERAEREA0X5QNnZsj20bqtbeCLlT5Zh5TzTZmGanUdGt69xY30Ovxnt3STBmrQdQLsNVHaP9rzx7aaZKqnUEi5B0PEbvKY6sWpP6m+hO8V1Re4Yyz9B1b8ZS4Otul6K6qhbsmc13KLEIwZmbUDhJOwtpsFKumS7dXUG/iPdKrHYpnJCjS8y4OgwAIIJB7yO20lYjdvZG21MaxcI1FwpAy1BlKX5EA3B8JLqOQRyIHnKnCFzTBN7i/wDmTaOMzDK48Z610G25Z0tZzUMw0Klor1rQtiL3Nf27hFrstJycpYE232HCbXsOgFfS9glhx5cZr2BotVxSgWsAWN9wA0v39ZZu+Ewopiw1PEyyjBuSfJFFeolFx5slxETaYBERAEREAREQBERAEREAREQBERAEREA4mifKjg1NGlVt1kfLfjZxuPiom9zWvlAw+fA1ea5XH8LC/sJkJq8WTpu0keYYerYCXznPSFvGarRqXEvsPivm7TA0dOLwU20KpDooHUJsSD6vaRxlvhcPhjr6WuhUDrZQwY63IUC4G7fID0s2o3yVhsTZQrU92l7c5NPBYkurRbO1JOtSxTs1ho1Nt5NrcOEx4XbTs7K1I2U2z2ADAnQ23jxEkYB0KlQmvMi3tMlNSRVyi2vvhyVjxpdWyxpNpcTDVO/9aRh3stuUj4irYHxkSDJvRQ3xT9lM/wBy/lN1mj9CNa1Ruaf9w/3m8TZR9Jz6/rOYiJaUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIBxKXpcwGCxF/wDyyPPQe+XU8z+VbbDq1DDq1lYhqluPWAQd1wT5TzhbTt0PYu0l3NAQlTbgd35SUlbhODTDDWRHBQ67uBmJZOg8FnRqNw3/AAlhQWq2uYjwlThcWNL7x5y9w+OUISbXtPHFk4zRIw4cDUk+ElLm0mPCYxCL6dnj+hMlTFqLW1PCeKJ65Epqlha8h1XLnIDpx7pHeqzEAC5Pl3ydhqGQHiTvPbPXgisl30SKrWZbi5TQc7EXt5iblPF+k20XwzYauhsUrgHtVla6nsIE9b2VtBMRSWqh6rDyPEHtBmuiv/NMxajFSxOiIlhSIiIAiIgCIiAIiIAiIgCIiAIiIBxEg7R2pRoLmrVVQfeIBPcN58J55t35VlUlMLSLn7b6DvCj4kd0lGEpbIi5JHplaqqi7MFA4kgDzM8K6d7QGIxdZ0YMqlVUjcQgG7sLZpVYvbGIxL5sRUZ+IB9UdyiwHgJjtrN1HTWu5c1YpnU6FlhnDKGG4i4marRBG6VmzKmV3pHceuncd487zYKNKcOtB0puL5HapyVSCfUoamEsdPb+clUKT2tYnxlzWwJI0Ej0UZGGmnd+chxkuBGPDbPc7gQO1tPZLTD7NYeswH4d/mZa4cArff4WmZafZ8Z5xnvCjBh6AUWAEy5uU7BDymdKI0Mg5ElE0/p6g/Z05mslvANf2Xlt8n23vQHJUa1N7ancrbge47j4Sg+ULFBqlCiOBLnyIHvMw4BbIJ2/DaSnSalzOTr58NRNcj3tGBAINwdbid541g+kWIwgDIxZB6yN1lA5jiPCbxsPp1hq9ldhSc8HIyk9j7vA2irpZ0/qimNWMjbonVTfdO0zloiIgCIiAIiIAiJwTAETVdudO8Jh7qH9K4+rSs1j95r5R537JoG2/lAxVe6oRQQ8F+kI7XO7wA75bCjOeyIuaR6ltjpDh8MPnagB4IOs57lGvidJ55t75Rar3WgPRLz9aofHcvhfvmilt5LEk6nXUnmTvvMVSvwUWm2GljHMslEqknsdsfi3qMWdmZjvLMWbxJJlZUfQ2G72yVayM54D/AmLDJ6t+LA+WvwlrjyPFgl0UI3cAB5TNmnQJpcHwnKm5liVit5Ou0kIyVF3qbHuOo93tm07FxgqKDxlI9PMjLzHtG6Y9lVGRxynI8UpWkpdV+h1fD5uzXQ9CoLcWnZ8IDvEw7KrZgJdLSvOGzqkahhwOEkBAJz6MicqsXPDgJ2TpiXCIWPASYqTXelNUimQDJI8bPNsfiDWxbOe23cNPjL3DDSU2EwhzsxNgouTa+lxuHEyWu3qCEq3pgeJyKR5B7z6fw9qFG7OBrE5VGkXOS4sd3Ka9Ww5puU1sdQeY5HmRp7Jd4HatCoQErLfcFfqN/V1T4GddvYeyFzvQg2Oltcp05WY+U3cUZK6ZkipRdmZtgdKcRhrBWLpxRrsPAE3XwPhN+2b8omGewqBqZ4m2ZfMajxE8eZ8u+FxObePz85nqaenLuWxnJH0Vg9o0qovTqK4+6wMlz5upYplOZWKkbiCQQewix9s2PZfT7F0/r+kQb84zD+a4b2mY56Rr0u5cqq5nt0TQdk/KXQewq02Qn6w6y/6h5Gbls/aVKuoek4cHlvHeN43HfM0oSjuixNPYmxESJ6UvSDpFQwaZ6zWJ9VRq7HkB8d08o290vxGMDWPo6GYLlQ7y24M2hc9g0lNtHGPjK74isbA6235E3Iig8TbQcTcmYDWzsgAyqpGReAuR5k8TNNOOcK9t3y9hOPClxbvZfuYKyFSVsVsSDuvobcN0xZDx85abRpgVagA+uxA59ZgR3giRWXiBpN9FqcFLqZ6seCbj0I5pHvmIiSiLW5HcfhAQGWOJVxELHA/NpwN2PuHxkrDUCXGmioSe9tB7L+cy18Nesij7C28S0k4PDs4dkRmBZgLA2sDkX2IT4zzh+LJ63giMgFrGZKCXI/yfASQuEBYK7qGIvlUhnsOJA0UdpPhIdbFvm9HSXIu4vvdv4vqjsE97IjYn1ai09Kjoh+yxJc/wJcjxkzC0UfVWVvwn9HwM1jCbMAdmbWzWOa50YAq3PjLqjgRcMAVbTUaeMzaig9RHhm7W2sX0a/kSvHN9zcMACnDyl1QxQtvmubLxvB+zWWeJQLrfQ8bz57UaWdF2e3JncoaiFaN1v0LVsYtjMRx6jUnwG+VCVtd47pzVtx0maxdgl4jarG9hYTXsbimqNkGvMncJ3xWLLHKm4DrN7wIwVKwBUEsTZABc3GrMRyA117J2NF4dxLzKu3JdTl6vXKPwU9+vQwVaCL1QOqmrnm2/XTW3LmZq1fDhmF19dST4m82zaCZUdRcKo1zEFmc8yNNL37+6V2Jwtsh5KJ3oqKjZLByOJt3bNUTCAMVI8PfL/FO64aoli65DlDHVPvK2psNDl3acJxtPCZSHA7/AIyxogFFO8bu8f4MjwrKR65PDNeqjPTVx3H9ecxYNM11k/C4PJUq4c+qwzJ3bx+X8JnTZmFP7Qi9rA+AJ+Ehm6fsTvhmLD4bNdn0Qf1HlMjXfkqDhwsOMssclzkXRR+ryLhqQcsTpTp6seZH++gHPuk2rYIp3yc4KgHqUwbqgemTzN3UAH26SyfaValiajqxQ52uAdBYmwHL3cwZj2emtMkWL1kJHIZlAXwFp22r9NVPOo/tYzHSaq1HdYyl2R0NVT8iMUt7Jvuy/wD+PsR9r+hP9UTVMh/QES/7HT6GP7TIg4ltQgNwpJJH1n3M3d9Udg7Z2w5CspYdW4J56G8xU07NZPpU7jWIUlGHCjydSUpuT3Mm16RFSoQbkOzqftI9n9x9kgmqFIJ9R9D91vyO+3fLvGYf5vDPwKFDbgabEKfAHxGnKQMRgtGRtA2nYp+qw7AfZeVaaVlwc1f8jTqYuaVVLGE+51/ZwbqfVbjyPAjzB7iOc64fD65Toymx8Jk2IxZSjDro2RvbkPnmXxBltVwvzlJrakMCeeUrY+R9s2JpmCWCtxVIrUd/sYdSPxMWVfbaQ8NgMxwyWv8ANFj3Z2tfxmx7UojOBb1iAfwUENRj/NVQeBnOysNkWpWcfRUUTxRc7/1vl8JXxK5K+CqwWGGfEVLaKMi/rvnWjgLOmnP3SywlSlTwyK7jOzF3FiTcnkB3SK20xmuiXsLXbt7AZVPWUoLLRfHSVpvEWu50x2HCMlS2hIRvwt6p8D7CZIGIS2QXdxopzAKBx375W7RxdR0YEgC19AOGvfMeApmooYHrWvft4zDV8QT+X+Z7LSygviLzDG8v2uoXS6W63Mfe/OVWytns6dSmwcb7kBdN5zNYWlmmMCkg7gB7h/vNNOUNVScZe/8ABVGc6M1JYKnHuqNc2ym4vpv0t+u2V37U76A9T2+B5STtbBq7h1DKl+sv1WPA24fGYaNO7ACU6bw1RnxTzbb+TXX17lG0cX3Mq2VeQtMaY9hrZbEZUUk7hqWIG+x18hJNakhJD1VTLqbqxFrXtdQbHdv5iRnwDu75Sj5UFgjhmsddF9bTjpJ62vOLUY3SXMx06blncxYraaeiAZSpLX01uPzljdKgUob6buI7COE1jafLdb9bpirDrX4yinrpr1ZL3p01jBtlTCZkII3e4yDgKRGelxAzJ221A948Zr9PG1EYMrtpzYkdxBNiJK/4ns6O9KxU70O8ciG995qhrIy3wQlp5LbJebUwoKU8Qu+nZj2obZ/Ia92aS8Hs0CsX+65Hkov/AFyfsLHUcRn9GDlFiUcAEB73GhIK3DecmUcLkS2p9GjoOZVShXxy5Zepp2a2ZQ01hml49StMsPWc5V8TYeNhecPRCqlFfUpkZz9p+A7Qvv7pYV6RZxl1NNsics9tXPMDVv8A2zzmGnTXOQvqUxa/2mO8ntka9Xy6Tnz2Xc3eH0PPrxhy3fZGTCrmxFBOToT4HN7lkPFEM7tfe7HzJ1k/YRJrPUO6nTd/EDKo82Ehmnew/wA90ho6fC88kvxeWS8SreZVcltfHZYImft9k5kz0HaYnQObcqaSAH3ywSiRrv5zFTThp/tJmHIBs28DTtEpR62WDAPhAR9SvbwdPzEjtTDKDa+lj3cZnwb2TEIPsB8vEqjC7gdgOsUlsByOonM1F4JyjupX9mdzwy1SToy2lH81sUiUitdTewcGmx+8ozI/eVG/mpm1sodKbgcrjkxsD4AgDwlLtqnkRao9UsoJ5MGBHtuP4zNm2cBkYcA4cdzWJH82ab+NOKktmcatBwm4PdNr8CDtej1yOa5L9lR6j1P/AIqVvKUe1sa4orSUgZ3UPYC5Yn0huT22l3tzE2qU6ABLtSXNb7VYqPMJTbT78pcFVBq0GBJbNWqsCoIAzFEGu82B4cJy68qlSap0n3Ozo4UaFB1q6TvsnzsQ8TQLPZQWI0AUEnyEkU9jVMt2CJ+8dFPkTf2STjNoVixDOwB4LZV8QgExpsus1ytF91ycra+z2yMPCn/cml2Pa3i/H6IHT9gQaNiE5dQO/tygTBsjFegzLSZWYMeuU1UC2UKH8TunJUW3dluN5CUZKpv9a02w8NpQabbf0exzamsnO+EuxseI2yKlnqO+ZR1Te4vx6u6ZExefrWvb1lGhUaagfWEqP2QtrbXlJtLDkML3Ww38Qd1pvjCMVaKsY5O+WybiHDISCCLXFuzWRsIMil97HRAefM9gmM1QrWbqt2WCN/pM6VXfMAGAci2h6qJzvztc+3lPdjyxGdizsm8U+s5+2511PEC3mZGwDMM77iWvcbwRu1memFGHzjT0jll55RoundadKaWWx323SO5LY5q7SrsD843ZfU+ZF5lbHF8uenTqGwu1RSX00tmUgnxkRlsCATb3TJlGVCO4dsrempPeKLFWmtmzs1HDt61AqedOow/pcNaRcb0dpuH9HWyG1wlRSdf3ii1u0gdvOXuB2QWUu7Ki6XLHgSV0HYRqCQdxmc4FMgIcXDsuYk5WUC6WFtcxBG8cBreZp6Wg/Tddi6NeqvVb3NMweIxGCcMrqCyA3Wzoyk2KkkWJU2JA3eM3nYfSRsSHR0VXGQXW+RsxOtiSQbqARcjUSu2nhfQLTYlXo5yWVrFcjn0bXXcPWvf7vZMOC2d+zAv6ZXGcJaxWoClRH1U3B6qPqDM/BOnJJO6f/ZJycZxbtZkmpWCUyw3lSE5/OMzk95BQeExJQyoqfWOrd5/RmOmmZ1U6qi0796U6Yt/MTLPDUSxZu2w/XlPa782rCnyWWdLRL7NpKmoe7wv0OMPSyYZ2HrVHVB+FBnY+dhK6wKk2so3lvhzMudoANkTMFo0167je7ucxRBxt1RpxNpjyKgFSooWx+apkgAHcCb739wnQoStFy6tv25HDq5aXRFTYfYqfyNEtP22r9hP50/1RJefDqR8uXQ1+j9Xxmb66d8RPVuRZdYH6Zf3WI/8ArMh7P+hp/hiJzdZ6an+p2fCfvNP3O+2f+QxH6+skutnfQt+7T3tES+l8iPsY9d95n3ZAb/rPhT//ADtKXo39Kv8A6Zf7miJl0Xz5mnXfd6X+JZ4b6ZP3ie8Tcav/ACz+H9kRNOp9aMNH0s86f1h3CQ8X6694iJvexnW5ebN3CScRw7viYiekSj2jvf8ABMGC9Sp+6f8AsaIkZbEluSq/0OH7vynGI+rEREMxp6o8ZlwPrU+8++IkpbM9jujYOlX0572/tSR3+hHePfESij6ESq+og7Y/6fX/ABH31Ji6SfQ1P31P+x4iVPZli2O2C9et+Ie5ZdbP+jPc3uiJhh96fY7mo/pcO/7mLFethv3n+uQ+nfqJEToQ+UuxwZfM9zXIiJyzaf/Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFhUWGBgYGRgYGBsYGBodGhgXGBgXFxgaHSggGBolGxYXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABFEAABAwEEBQgHBwIFBAMAAAABAAIRAwQSITEFQVFhcQYTIjKBkaGxB0JSYnKCwSMzkrLR4fCi8SRjg8LSFENT4hc1c//EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAA3EQACAQIDBQYFAQgDAAAAAAAAAQIDEQQhMRJBUWHwBXGBkbHREyIyocHxBhQjQlJywuEzgpL/2gAMAwEAAhEDEQA/APcUREAREQBERAEREAREQBERAEUera6betUY3i4DzKxDStA/9+l+Nv6oCaiiUNI0X4Mq03fC9p8iszazSYDgTuIQGVERAEREAREQBERAEREAREQBERAEREAREQBERAEREAXRzwBJMAZkruvCfShy9faHvsdnJbRaS17gfvCDjj7Eg4a0BtPK30s0aBNOyNFZ4wLz90DujF/ZA3rzLSnLu22gnnbS8NPqUzcb4R4ytYqYGISk8Tr8PGUOGetVcTLjIOsm8VySYlsx/NSxFuOMDhn4rI6sMmtLu9dAp3usJB2hd6depekPII1gkHvUdjXZ6uKxGsd64dPQuS3pMtdmIbVJrUsiHmXAbWPz75Xt2gNOUbZSFag6805j1mn2XDUV8oCtKu+TPKG0WGpztF90nrNOLXjY4fXMID6oRVXJrTTLZZqdoZgHjEey4YOaeBlWqAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAqeVVuNGx2iqOs2m678REN8SF8t1nmSBHEjHxX0d6UXkaMrke5+dq+b6pkzrKAwvcTrlcU2E5ALG5WdnsbnDCGjZ/dG7BK5Bo0ccTks1S0gYAnjJ/gUqjoKrVd9m0uG2D5q2sfIiocajg0bsT5KLnFbyyNKb0RqZeTrXIZxW/0+StJmoujalo0ayIuhV/HRasLK2bNDaNy6hx1lbPW0U2cFUW+xXDuU41FIqnSlFXZ7L6BLUXWSvTJwZVkfMwT4tK9RXhfoR00adqdZjFyu0kbnsxHYW3u4L3RTKwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDTvS1/wDV1+NP87V892Syl7hsJ/uvoX0rOjRlbeWDve1eKaI0cXOB1BRm7IlCO0zK7kvecCyANh+i2TRvJym0C/DvAKTQhoCnUazSYlY9uTPRVOC3EulQptbAAEatXcuTB1DvXJssiWlYDScEzRLIx2mmIy/bwVPaGj+yu6rIGJ71V2qmBjgotE75FLWoqg0zTwWz1SFUaRs14GFZTdmZ6yuiJyBrFmkLKf8ANYPxG79V9PL5h5JUv8fZR/n0vB4K+nlsPPCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgNQ9KrCdGVo1Gme57V5toVl2i0nWJXpPLvSVJ9ltVmvRU5pxEjo3mi+GztwHevPtGsmjT1SxvkqarujRQTUs+BBrWSvWm6bjcsQZO8EZBVdo0E9h+ztNKRn04dwwlbJpew1HNa1hN2QXXTBjWAoOk9ANfVY6k25TFyW3ek27ndxh0zJJUYSyyJ1IN6q5WaKstra++KmRxuuvAjet4fa3c2Sc4Heq4WdrXOexhY32SfKMuEws1Z4DDeVc5O5fTp20Na5QvtFZ32ckDHDuVVR0VbnjN7W7yB4K60cHkup75GOY4YXo2SFzyl0USGGi990gB9+80ggmTDejdMgYZQrYSehROCeeZVCyWinn0m+IU6i6QAfHNdW2ZzKoFIvcyBId4kEnEblJrUIdO1cbVzqTSyMfI+zTpSzj/MDu4E/RfQq8A5N6QpWbSYq1ZIYxxAaJJc5oAaO84nYva9AaYZaqXOMBEEtIMSCMxhgrkzK082WiIikRCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDz3lPZ/8AEVBHWkn8IzWr2Fl2nTaMg0DuwW+crLrarSfWbB7CVpFlbF5vsvcP6isslmz0E7qD5WJ1nkBS2twkx5rpZzgFnLVVoXJFZazBk5KA+iXtcduSm6ZDeiXGGjUBJJlG2+mxhB6MiekIwXUrnU0jV7LUioGnMHt7FtQd0cYI25d61W0VWPLnglhGIcQQMMiCc1s2i3c7RY5whzmgkb113IKxFtIwyVY8mYV1a6cBVcdILsdTlTJZFPbIbXLhi43QN3REn+bV7H6NLFzVhb77nO8bv+1eKW0/bh2ZvAdi+gOSw/wlDCPs2+OKvj9RmnlSSW9+5bIiK0yhERAEREAREQBERAEREAREQBERAEREBrvK2xhzWvIkDA8DiD3jxXnbmXKtQCYvAid4C9iq0w4FpEgiCtE5ZaHZR5uqycZY6TO9n+5VTjvNFOpkosqG1IXS1W0Nk/wlYi7orFWoX+zEcdqym2+WRHNoe85Hs+q6u50YEE7IxHdqXQUamTnnsEDtXetZHe2IO9WJcCUYbWrKa1Nc1+Iz3SMFYWLSctAyOpQ7RQdqcfD9FJs1j6GOJzxz8FySW8hZxdkT7Va5YHfzYq8OOHau1U9Fre0+axWh0JDUrqO6MOhdHGta2MAkuF2dk6+wGV77ZqAYxrG5NAaOAELVeQ3JinQpstBk1qlMTJwaHY9ERgYhbgtUVYxTleyCIikQCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAq/TmjxXovpHWJB2EYg/wA2qwRAeN03yIOYMHswUqg6WhRNIsuWipsL3A/iK7UbQAsco8D0IT3MkVaAPHaqStoyreJkxx+mpS9KaU5sQDqB7CY81GqaVAeWO9m8e9IxepKU47zLRshAlxnYu1JwxVfQ0oJx1wf5uXarbBqOeK5ssbSsd3PxJWbk3Yf+qtbKPqYl3AYnviFT1q+G5bR6Na7G2tskAXXySYxI2n+Yq6EbO7M1STasj2BogQMguy6tcDiDK7K8zBERAEREAREQBERAEREAREQBERAEREAREQBanyt5Xtsp5tgD6hzk4N2TtO5WnKXTDbLRNQ9Y4MG12rsGZXgnK3SDuepFzpJvOcdpOvxK24WhFp1ai+VWXe7+iKK1Rp7MdTbqjzWc55iXm9hlJxw71U6QJZIdMbQpmgqt6mw7WjyVpa7KKjIIXjylszfez11Hagu5HmNs0q9xIzAMA9siVhNscS4k4xCutJ8n+nhLdcjH+YrE3kdWcLwdhwy44q9TiZXCaZRMtL8phWlir7TKx1NAuaYc/IxxJ7cFPsejADGrbtXJTVjsIO5ls9F1Q7lk0tRihVHuHwg/RX7LMGNHkqTTn3dTe1w7wqoyvJF8oWgyq9H2lX2W0CpSMe00YBw1tI14Svpew2ptWm2qwy14BBXynyZd9u0bf0K9l9HnKQUi2z1XQx+DScmumI3A+a9Z0dugprVN9eB5W3s1Nl6M9QREWMvCIiAIiIAiIgCIiAIiIAiIgCLqTGJWv6W5X2ahIvc44amY95yUoQlN2irkZSUVds2JVml9N0LM0uq1GggSGyLx4Bec6X5dWmqS2meab7uLu12Y7IWp2kl0lxvHEkkydkk9u1epQ7KlLOo7ckZp4tLKKLTlDygfbK184NGDW6gN287VqnKKzX7RQacjI7oKmUH4rnSw6dnqahUg/Nh5rXjaaWFlGK0Xo0yqg/40W+Je6BENu7MFsFPJU2j6cTxKt6JXx71Po46EW00MZ1rhjywEFsgqfVZOK5NIEQupnWjXatnvEuujio9Gn0/54K/tbAAq1jcVy4sc1iIWu6ZPRcr20KktzJwXY6nJ6FJoCzRVDtk+RVnTtGreubHSuNc73SBxOChMOK+mwK/gJ8W36L8Hg4pL4jXJHrHJPl7TbTbRtJcC0QKkSCBgL2uRtW+WK30qwvUqjXj3SD3jUvnumCA08Rr46sVnoV3NN5ji07Wkz4fqp1uzoTe1F2f2/wBEIYmUcnmfRCLx7RXLq10oDnCq3Y8SfxDHvlbZYvSJZ3feMcw7ocPofBefUwNaG6/d1c0RxEHyN1RQdHaVo1xNKo1+0A4jiMwpyytNOzLk76BERcAREQBFhtFdrGl7yA1okkrzLlPyzfUJbTdzdIYZgE73for6GHlWdlpvZXUqqCzPQLdpuhS69QTsGJ8MlrWkuXrRIo07x2uy7hmvKLbyhHqy47TgOzX5KufVtFbU4jcLrf38Ve1haWbe0/JeftchCOIrPZirckm2bhp3lhUqSKtfD2GTHaG/Va3U05S949n6/oo1LQDz1qgbuGJ+gUtnJ6nrLz2gfRVvtbYygklyT916Ho0/2fxNTNq3e7fZXf2Ir9OU/fPYPqY8FZ6NtIqMvD1iRju7dp8EZyfoDC5wJJPYsL9HspGafR23b0HiMirKPbctr543XJJMliP2dlSp7U6kY97dvukcWijDsFitNrZUpupNdeeIOGIaQcLzshiFgtdeeu1zm6xq7gcVmsGlaAF2LpOERdXcT2tKS2adPJ737J/kqwnZmGb2q2IjZZ/K76c3+Is3HQxFSm12sgSNYOtWNwhaXZq7mOmm75R/64ELaNG6eZU6NUXHf09uxeFJWdmelCnGrT+LQe1Hya71099rZlkx0hdHFSaVBY+Zkwo3sVpJkCuyVHdSgSrxlhWDSFnhsBAa85kqJUsuKvKVENBLiqLSlsvEhmDdbv5rXS6jQdV8EtXwRV26oSbjMRr47iotGjtEfzas1O1R1GFwykAnxAkLs41shTLPiJnjC9KhisVRSWzePP3MdePZNVN/EcWt6T+bno7/AGZxpCq0Uy1rofm0AXiSNUQcxhiquz1LW7KcfaDfIqxZScDi+T/MhClstN0YtDvNSr9oV6jThluyb/0Y8NHsxPZqSnbi4x/G0/sUtelbNd/5XD/YsDTaRkave5bC7SDfZP4v2XQW33f6v2Wb96xD1v5v3PQlQ7J3Vn5X/wACssek7XSdfaagI1wQe8QVuWiPSzaKUNtFMVBt6ru+Me1UItfu/wBX7LILS04E94kI8VVa+ZX+5COF7Om7U8Qk+asv8Uew8mOXFktpDWPuVP8AxvwcfhOTuxbOvm6rYWO6TOg4HB7cMR7oXqvo15WOtLDZrQf8RSGf/kbqdvI19+1dhUU9NSrFYOeHs3ZxejWj68U+JviIimZDy30kcpenzLT0GGCAes/X2D+al5fXq1K77g1ZAZDef1WyaTpc9ec44k3p2EnE8FxQszKLWgazJOtxnWt3aKqYenGCXyvTm99/wuBPsvD0sTOc6krKCvLjbl6N7tN5FsWiWUxeMOd7RyHAKTUtbY6PS8PoubQC6R3Bc0tF5y4ADrRkOJ1ncJXnUMHVxDulf8GnE/tAqX8PBRUY8Wrt87PL/wBJvuzRCfannKB3ErDStLzgXLZm6NpiBdOOIGb3b9jGpbaMXThGV0E3ZGoBvSqHacl6lPsV2+aSXcr+x4tTtXFVPrqSf/ZpeSy+xr1Ok9wJgkDWMB3qxstmfgHCNxxMbYEkBWN/IY3hqESOA6tMbzJXHNyJN27O0hk8es92/UtcOyKS+pt+S/BhlVcnd68d5xS0VTcJJLt7cQOLcHBHaEs7xixvxME/iY7EI1xbF48HPxGHs1W4jtWc1ci7DY5x8qzfqttPC0qX0RXq/N5/jkQ2pceuvAj0uTdwTSfhtAvRxaekOwqPW0c7Mj5gbze/NvaO1WhruEGeBJDXdjx0XdsLs+u4nHF27oVP0eo1cLTqw2JpW3WytzXDv05M04XHV8LU+JSlZ7+DXBrevTVZkTRWl3USGulzNmscN25bK2o18PYQ5p1ha3WY184YjMtEPHxs18QsFnq1KJvMILTsxYdxGo+K+ZxvZ1TDLa1jx4d/vvPrMNjMP2g/k+Sr/S9Jf2vjy1785G7UnKPpF7GtvvIDR/IG0qvp6fpc2XmQ4ep6xO46xvWu6Qtr6rr1R0D1W6gPdGvjisdKjOrPYgrvryLfgqmnUrvYitW9b8Et77r8ri3201jgLrBrnxcdq7UrK0CTiDrxAPZ1ncBA4rmlQDYn8MTU+VuTOJkrK+zCegXA+yDef8zzgzsX1WB7NjhvnlnPjuXJe/hZHzvaXa8sSvhUls01u3vnL2823mZg0CBkdQAl/wArcmDjisTiTIaCNoBlx+N5yXRrIBxEaw04fPUOJO4LrVfAAMAahBj5aebjvcvTT6664HjHFRrYEhpA2dFg+fN54KFWsTDhEE5Zz8rJmN5IUiSXa727pVO/q0wsbqjWg+IacD8dTN3AKqdGnU+qKferkk2tCMNGsJwneAZ7xAcO4rKNFMzE/mHeBLe0LKx7XZ6va6QHb12qQ5pzOWpzpcOyo3GOKr/csP8A0LyR3blxI1PRrDkbvzS124OjonDIrpaNDnJpk62kQ4cPaG8Kzsrpv8YIJvYADrD1m+8MQpBp4DIjUHHD/TqauBVUsBh56wt3XXp1zOfEkjS6Ty1ztznCNWBI+in6PtDmVKdopGHsdM7pxady7tsd6lfh94gkEtAGJJxOvPNdLHRAa5vswTxK8qHZU3Wu38ut+O+3J7ny8D2MP2nKnRnRa2ovRP8AleWa9ss8+N/Q/wD5L/yR+M/8UXlf/UIpfCpcCj4k+JfeqR7o8z+iwUKJqObGbTBkx24rK/CN7fJw/UrBZKhFQ74719DXoRrU/hy09s+uVzAsuuuT70jYrNY7mID5OBPNteOwyuKlIgziIkAubAG5lPW5SGQ4B104+4DuOLCPJcWp4GImThABvHDKXdRu9UUoRppQgrLrf73K7mTmxdnVALpO3H7RwzPuBYLUwuBGOQOYZI2uPqM2DWptlZ9mwkiA1omJa3AYMHru3qvtb5N0Zb+kSdp2ndkF2Du+uuu5nCAHtb0cCJwABDP+VTtwXV9QkyTjxjs2DgF1r04k95J8zmeAVloWwc9VDSSGgFziIvXRqaMmySAOKum1GO09xbGN3kY7BY3OvVADdaBexDWuMgAOeehEGcccFY09Hh5LaQZzsSRSeDOImabyQcDmD5qfQtbTZ7QKTWgU6zH3A3C64BplrsxIzwOAOBWbRzObtdOAA0tqPddBE3GGJDiTAJORjJYKlefzPRq9l3JSs9P93NEaUXZcbfdmsNpETdz13B+ai76Lq3IiJGu6LzfmpnFvEQrewkWmg6mQOcpAupumTrcROYBxEajG2FUtqzBcJ2GYd2PH1WyMnJuLWaf6PrIzShazWjOwjA5gZGSQOD+szg7Bd39LNgk+s7oEj4h0H9q5FOTIJLvwVO/qvWakCJjHbdEO+amcHdi6+uur+RWQ3WFt4C6QTqdABn2XDAnw8lkZTuE3cScw3pP7ahwaOCnsALSBF3XAJb8zOsw7wo1SAIdF3VgQ08GDpVOJVNGlTpXUIpX1sus+WqL6+JrV7fFk5WVldt2Xj+r3t5EU0WwYAa3WGmG/PUOfASuhaAIMBpyEENPBnWqcTgpNScMwdUi8/wCVgwYsLoaTJIOuDeqH4n5M7FeuuuuZSdHkkjMHVIBqfKwYUxvXSlQJMNBJJxDSXO385UG4HBuxdH1CcGgNBwwMTPtPOLvAKTWbzbW0RF5wl7hBw1NaRkMPCdajVqKnFt834LNvrwLaVKVR2S8t5EtVNjW3TUBIj7Ng6IxhwJ1mBIcdyxDmXOPSc2SQ0wSA31ZxJnHGD6u9GUWueBk3arPSehaLGBzKrXnWAQT4FYp4+lCUIVNpOXLTvsrLx8y6NJuLcbWXXiQKtjLWtc2XNImRkDj0ZBJBAzjKeE4aLy2XAxw/bB3as9nqQDBI1OAMEjCQDjEgZrvpimxoBYAGOa05k8ZB/fbK00q+1eLWav792azTWpGdO0VLc+vtvO1hMsbGckgDAjEkmmdefVKsXuhj3ZiDJA3f9ynq4hUdHAMGvAn9/wDkFc2ut9k+9N4MMOGDxh3PCskrRM7WZrVMAMpNaBJDQCJ2S447MVns7ftK7Rqu+SUR9u1uplEntJa0fVLA6a1o4gf0hSWqXB28oss3MquYC4U7m9y5WD92L/iGauIw2Od3ET5grFzc1OLVktBkvG+e4z5OKx2Y9Ju4FetbIzlloK3ZseBIMEkkGcgZGojDiArW3VG3TnHsgkz0fWecQ3ctTrPuVm1Bk7ou7cir977zHTmI3zhmBtOG5Uyh8ykRlFMntqksZPstA1QI9UeqN6jvHSHDgO3Y3xK7td0I2doG9x1ncurMwTtGeJ3SNZ2N1KEVYidK9KRP0/KMgN5U3QjoZXaM3U5GubrgSBrecZ2YLGac3p7Zxx972ne6FzZ5Y4OaYcNZ1bn6gPcGajNbUHHriThLZdzjQtcBzmO6lRhpujFovdVxB6TQHQe9XmlX3aYqZONnFPPC9UcQ8B24MdnuVW2lTc4OeHhuMgC9wDKkyAdjslY6QtTarAw0qwLeqZbeE7BdAeDsnFUVc6kZJd/W/n+hdTlaLV+4rNAG5Uc85NpuOOeq7DsiCYChMZq169R7snKbzb7vNtpkCZdhiXD2mHICRAG3WVgq0iMCOzrN28WK+LTk3fN/j9SmWiXAxQMvCPNuY4hZhVwAdiNRJxHwv1cCsFUxHhJ/K9ZmjDf3O7Rk5TZAmU23jIMn8NUfR6wWmnGJJBOM4GqfpTasdI+Hd3Zt7FxVxGP6j9XFQtZ9ddcRYiG0GCG9Ea4OfxPOJ4BR3DV4R5N+pWZ4x1zu636NCxRns1wcPmdr4K9LgdRxQi+Jg7ZJAj3nAG6OAKmVa16o4jEYBu8ZzljJJ71Dj9hH5W6+JWezPLXE9+M47zlO5Yu0KTnQk46208U39jVhJpVY7Wl+Oz3Z7rPMg0rMXODAMXYCcMSsr7FdDg4Q5pcCOEjzB7lItNnOLgIOeH04LreHSG6Bvwdj2k+KqeLnWpqVJ5ZXS1TTzV76O6aXJka8FB7Oru89zW7VJ8btrhuzcewiHYfRZ9KdKg3EGHOaIPSAJPq/38VzQYGYx27FDtIBA1a8cMJ262+9qKhTmq2KnOGiSV+O7rlY0VVsUIJ5vP8AmvZa22bXWfOzztvOod0gPLGN7do2hWWm3XbPUPumNmWr2TuVZZTLxO3gZ+jvNTuUlUNoknKRe34iQ4ait85XXmYUs0VVifNoqnYGM7oJ8SuuiHS+qdtU+H9lj0ITBcc3G+eJl0dy50DiC7a+oe6f1U4LOPi+vMse/wADNfRYpRVXJWMtT7x/A/kWKhmfm8lyi27ioj27IcW+YWxWDqv/APzPkiKM9H4HHoSLP9234x5NXah1mcXoiqlv8fRkCVZs6fF/kVK0b92PjP0RFmraeXqyUNfP8lvZcz83k5V9H7qp8bfyIix0tZdbzTPReHoRtJdalwPm1RKf3zviRFvp/R4P1M09SLV6j/i/3KQ7qM4HzC4RWP8AL9CJ2H3g4N8l2d1xwPkURVPTwOsr/UfwH1XT1afH6oi0vXx/BxnDOvU4HzCO+7p8T5oi6vqXh6AsdbPjp/mXSj12/G7zKIvDof8ADHr+VG+X1dcWRrR1CoAyZxqflRFb2d9FT+9ldfVdyMNkzdwp/lUnlv8AcP8AgZ+Zi4RbZ/8AE+6XoUx+td5X6LyPE/lK45P/AHTf9XzRFpX1x7pfg69H4fkxoiLCWH//2Q==</t>
         </is>
       </c>
     </row>
@@ -1520,25 +1520,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rahmat Shah</t>
+          <t>Najibullah Zadran</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023_214</t>
+          <t>2023_202</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>153.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1547,31 +1547,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1583,61 +1583,61 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="X9" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRUYGBgYGhkYGhgYGBgYGBkZGBgZGhgYGhgcIS4lHB4rIRgYJjgmKy8xNjU1GiQ7QDszPy40NTEBDAwMEA8QHxISHjQrJSw0NDU0NDQ0NDQ0NzY0NDE0NDExNDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAQMEBQYAB//EAD8QAAIBAgQCBwUFBwIHAAAAAAECAAMRBBIhMQVBBiJRYXGBkRMyUqGxQnLB0fAUIzNigpKyB/E0Y3Ois8Lh/8QAGwEAAgMBAQEAAAAAAAAAAAAAAAQBAwUCBgf/xAArEQACAgEDAwMEAgMBAAAAAAAAAQIRAwQhMRJBUQUycRMiM2EUgTRCkQb/2gAMAwEAAhEDEQA/AM4Kz/G39xhrWf42/uMYWOASSB0Vn+JvUw/bP8TepjQhQAcFRvib1MIVW+JvUxoQhALHBVb4m9TFWs3xN6mNCEIEjvtW+NvUzvbt8TepgzoAOCq3xN6mKtVvib1MavykXEY4KDbU3CjvY6/QjWBJY+0b4m/uML2zfE3qZmsVx8p1U6xGmZtttdAe28g0+kFe5OhHeuny2kWQbRKrfEfUwxVb4j6mY6n0kqDdVNuQ0/GW+A4/Tewa6E6dbVSezN2+MLIsvPat8R9TCWo3xH1MZENZJI6KrfEfUw/aN8R9TGVhiAB+0b4j6mGjt8R9TGoaCABio3xN6mEKjdp9TGxHBAA1dviPqY5nPxH1MaWOQAMOfiPqYSubjU+pjamENx4wAkZz2n1M6JadCwMEsdAgKsMCBAYnCcIsAFEIQQIYEAOEJYCxwQJFJnd84iI4uDrbvgBCxWPVGBO1reOu3jcjyEo3xJYsx01YAaaFmyj/AH7oxxOoXcpe4BO2xN/XkJO4LwOtiG6qmw3YaAbcz4SuUkuTqMXJ0iJUpjRNMxXMW0JGpJB8tfMQhTQkra212tcgnZdBqb/jN1hOgiKB7R99wN/WHjOiNPdGK2HnrzvK/rRLVgkzzutgrA5dcpynsv8Aq3rIZDBjy8gL3mzr9H8mmdtCT4mx1PqZRYi6mzqKig6gi1++62I8Z3GcZcFcsUojnBuMtTsjXZOzcr4d3cfKbCjUDAMDcEXBG1p5ziEphupe3Ydwd7X7vwmo6K4vMGpnl1l8D7w9dfOWJlZpFhCCsOBIsJDBirJAKGIAhgQAIGOrGhHVgASwhuPGCDFEAH50S86AGFURwXgLHLQICnRIogAQEW14gMIQAVVhWiLCgApkXiVTJTZjfQcu+SryNj6eam4203kMCjw+DzBAB13IHcobbc32vfv0nsfBOGpRpKigaAXPabTzfonhlfEopX3OZ7QBZR4T1dDbQRTK/uodwqlY1Xw47ZDemNZZVKN9SZXYmkVI7NJU0X2Zzii2Vrrvpf8ACYiqAWM9J4rTXLqQO25085gcclJTZaik31A1tznUDmbVGe4rw/L117Y/0YrWrJ35lI8Rf6gSfiEzobG+mnjKjgin9oS2hzA/r9c41B2txHJGnseiCEDBUQwJYcCxVnCcokgEI4IAEMQAIQ0gCGsADEURBFEAHJ06dADFKsK0FY5Ag6dacIoEAFAhWiAQrQAUQognGBIUDEJdGHaDDEewyqXUNsWAPgTaQwXI5/p4gaq722pk+DM4Lfr8pt8RWqKOqLE7X+vdKfh3DFw2KYJcI9PMAdcpDjMt/O/9UvcbglrAK+awtcA5b25Ejcaajnz0icpXIfhFqJjqnGCtXK+MDXOopgEDx0N95sFQPSJDZhbMD29hlJiujqNWNRAAWsCd9jcALsovrp2maBKJVMvdbxtIlR0kePdJuNu7lb2ANvTn3QEXDUlBe1V2AYgowADAm6vbnY63O0DpBhAarjQWY/WRMCjjqELbbNa7W9dZbFJRKZWpDxroXvTVkU/ZY3t4HmJH4YQmJuxsFJN7E793nJeJwoRhZr6SBjCMzDmyj15fQTqL8Fcot8m+EIRrDXyr90fSPCXIoYoEJYIirJAcWEIKmEIAEIaxsRwQAMRREEUQAcnRbToAYhTDEbWOCBAohCJOEADEKCIt4AGIoiKYsAFvFUzp0CUb13DslTW2UAH7JDgHQ+IUecuEtbymKwHG1Sg1KoD1QSjDXUdYAjfcTW4F8yA7ggHyIBiU49LNCE1JbBsbbCFUsQ2o0HnG8TiUQi5APITPcb4ytNHamgZiLlgNSRpY2F+z0nPJJhek9MCvUS4BJLAeOtpnEc9uoln0jQmr7Yg3ezHNY28DYd/KQUqUyTff5Xl0eCibuQlLEkmxjtHC+1qgC5NwO6w94/ONMoGo8ppujtBRTD2GZybnnYGwHhpO4qziUi3WEIAhiW0UC2hCDCWSASwxBEJYAKBDEGEJABiKIghD9esAHZ06dJAwywxAWEsCA4oMQThAAwYogiEBAkMQrwBCG8AFhAQRCEADmw6P4z9ynOy5T4r1d/KY68suEV3TOFGdRZmUasoOmYLuRodB+MqyxuJdhlUqNRjsA1V1YMABqQQGueQ8PykDEYZ0Qs9dR5BB428xv2QcDx8Z8mpXtsABblLPHUKVZOvlYDviqtDkZI8x6ToVNhVJuTcFswv2a7b7SlwyUQj5gfaaZG5bi4tsJr+kHDqKKxCKBY2O7ctr8tfnMLia6qco17/P8pdB2UZnTsLP3zbcJTLSQH4b+uv4zB0rnUDQAnXY2vp4aTW8L6QI4CvZG/7D4Hl4H5y+MW+BVy8l4DFEGEJ0QEsOAIYkAEsMRsQxJAMQxGxDUwAMQhBvCkAOToNp0mwMSsMQFEcECBROE4RYAKDDEACEsADCxYgiwJFEKCINauqC7G3dzPgIESklyLWrBFJPkO0yZ0DxBOJqZjqyBvNWA0/ulBWxBdttBt+ctuhtQLjFB+2jqPEWb6KfSaOTS9GlcnyxXFn6tQkuDZ8Y4AlU506lSx64AIOn202b5HvmZx3DeIIrCyOu4KMQb6DZtRzO834BtGwdCDtMBM2XE8f4wcVkVatMjKLA+G20zpoc21PZy0npPTTHoi5BqzXHh2mYFKZc9w1MuhLYpyR3EwwlfS2En13yqQNzoPPSRGpZerHNNF7sUzNKkaXonimZnpsxKhcygm+WzAG3d1h6TUCeeYOq9M50JU2ttfTexB5aCX+D6TbCon9SajzU7eRMnNBxZxDIqpmnEUSJhMdTqDqOrHsB1HlvJQMpLghHBGxHFkgEIaxtYYgA4sWIsWAB550GdIAxgMIRsGGskgMRYk4QJCEMQVE53Ci5/OB1GLnJKK3HBGcTi0QXdgPqfASvxPEX1CDKO06n8pUYmmXuWJJPMzj6kXwNT0OWMbkqLdeMZzZFt3tv6CNFesSxudB37byowFQq3hp5mXIwjBPasQM7EIt+syi93A5LcAAnflsZdp4OWaKMPUKSk74H0OkQYpqL06y7o6v4gEBl81zDzjNJ+UXEDMpUakjQaaz0eo6XhafgUwRkssenyez4Wsrorobq4DA9xEWsosb9kyv+m2OY0noPf92boT8Lbr5H6zR8dulJnXkD9J4mWzPWK+5kOknCqbXfS4+frMvj8N7GgOpYudyLab7Te8EoriSjnUWvKf8A1D4bUd19mnVUHMRYBb9sIN3uEorhcnnlHDs7Bvsh1B9RAyZqhHfL7F1Uw9IUUGeqbszckvr5mUGFzXLEA2tfkdZt6J9UaruZetxOEt+aJyoAbDzjeHw4K1FO4Nx22P6EcV7CFgqWdmCHK9uoGIAc/Bc6K3ZewO1wbXZ12JuCcVuZ+O3sUxUhu8Hzl/guOVUtrnXsff8Au39bxvAIjlqdRSjk2Ba46w3Vr7HlGK+Bem+VgR2eHKYs5Uej0ekc4p1aNNhOkFN9HBQ/zar/AHD8QJdo4IuCCDqCDcTBupA1F7STwDi5pNkckU22/kPxeB5+vbfvC5ZE/wBE+o6WGl6Wnz2NqDDEbUxwGdmcOLCgrFgA5knQp0AMMIYMAQxAgIRREAiiABCBiU0F+0fjHqa3MTiOiEjlYjxvaauj0qljlKS54EMuteLURUezTZXtSuCJAqUrGX74cZVPMjL3FrRHweduqQFVM7MdkRVLux8h62EwJYpQyuPfg+jTy4s+mWXs1ZS4DCoGavUAZUIyU9hUqW2bnkXTNbcm197HXxTuWdzmZiTroNTewA2A7BYCLRp/uw7aA3ax3A5RvC0y5zHbl4T0ulwLHFeWfONTmU5yfZMVKZOrN5DT/wCyRhgVYsthsRtv8J7iLiFa5sI/QCgnN8o5PHFx6WhWGolCSlHZovcBicuWrQOVha6k9V15o34HcH0mwGOTFUv3Z30dTbMp7GH4855xRq2BA0B1Hc35H8PGFRxr03DoxRxz3BHwsp0InktZppYcjT47HvNJGHqOBZYP7lyv2bzozhDQJTlckdnhInTHjgVTSp6s253yj84xS6UB6JOXJUBynmu3vKd/WUGJcLmdusxva/aYvjg5yUY8s7w6ZYbzZ9ku3wZbFpYm+/M8+35xnCbNf7WsnYqncHtMZWnppPV4MCxJR8I8frNX/Iyyn5e3wAm1oLJ9oeYjuWILiXyVqmJqVOy0RkxVIq9lxCapUO1QDanV/mtor+APIxEJr0Ln36VrHnl5g+Bv6SvuEa/2WGvdfSTOGYgI7DtFmvzBtkfwJsD685h+oaVRXXH+z0vomtqf0pPZ8EepqnedLd95XcUf96yjZeoP6dPwlziECuvwllceR1HrM3UfM7MdySfUyrRLpg35Zd/6CTlmin2RteinEM6Gmx6yar3p2eR09JoRPN+E4v2VVH5A2b7p0P1v5T0dZ1lj0uzHxStDyxYCwxKi0dzTo3OkAYwQliLDkkBTrxBOEmKbdIiUulNsk0NIxjGBpsOYF/K4jity7ZHcZgw2OqsOy4+nPznqYQUcaivB5y3LI5PySPalgw7ArjyIv+MY4lUZaDgXAqMidxAIIHqAbd0i0K5UI99B1W7weqw9bHzlnxRNcNQt1lvUf77hWA8kyDxvMbLp71Sl2qz1mLXqHpTxPm6/ognBNUanh13ewuATZVF2aw32MuanAgabexvmprmdC9Njlvp7p6psCbHsI5SzwqrRxFVE61VcNVW+jA1MgewB5aEW2I8TLPEkIruhGV8IG0AVS9VlUNYADYAeAl888utdP6o8+kujf5ZhzhGQlXBVhoQRYjxEay3NppON4n22Hp12A9ojGi52zdXOp+XzPdKFKdhftj2LI5xtqmJz2fI8qDLaM1KN+4/rf84+u0bOsq1GnjnjUhn071LNoc31Mb+V2YWBIXOX0y5TbvNxaM12Lm507uzujgN7d3P9c9T4Xi1k0vFdFoFgk5S3fY1vV/X5ayKhBNLv8kGokiqltO+WTCBh6YzrfQX3va3nNKXkwYT7HJhlQBnBYsLhAbadpPIafrlHeup+wMt76cr2G/l8/CTceQ12DasbFd9Bse7baScMtZsPUQIgpqM5LIQxuGIytzuFbu9YjPLKrS70ORjXPiysrlFZANVZLEMLMDfTy21HZ3yv4jRFO1RTqNB58j2g6x8uS6a/Zyd5DEjbnraRsYSyMp95b38pHV1wlGXJ3j6oTjOLokY+vehTqWyjOyg+ABYeIJ+nbM+N4/W4kzUVo/ZFRqnLRyoU2PIEBdP5RGqNMkgDmQB4zNxR6bivNmrq9TLO1KXKVDg2noXR/Fe0oITuoyHxXQfKx85g69O7hR3L+f4zTdD6gAZLm7EuBYWGUhT33Nx8p3nj9orhe5qhDEAQlMTGQrzo5OgSYlYsERwSSDo/hqSvmzOEAVmBIJzMBogtzJtGAJcdH0VjiMyqwTD1G6wuQxsFyj4iTp4S3B70yrO/sZS59COdgR5bxupUIIYcxbu13BnVOrr8J1+6ecYd2TY3Ru0XE9NZiRiR6rgEr9l7t4E+8O7nLCjxJmqe2axYkux5XU30HZoB4SoxikNmtYHs27iPOFhagII01sD5/wC0X/2pjbVwNfUrs2I/aKOlNmFRWOuY6XpN2W1BHMHncE6jpHgnWhSCI2WyqwsboqZiitb79if5RMzwdHCKyF8pymy5N85VDZjzZTY25GXFajbOajsSLEF6jsWzFlIXLlB2v4ERPIqmnfBRbcWq5KnG2SmtLchmd+52GUL4gDXvJHKQLS94pToBCqsuZWBXKPeBtfXU2sW0vyG8pyI5gacRHKnF0xttAZHzaGPVjItZtLS1kQVkahUPLwlxVHVUSl4aR7Qg8jL97GEXaO9RtJIgOsYcSZVEitJZEGP4dwUKM1lBvoBc69stMPnVPZ5Swam6hs6EZmvl3bqgKo031Omszrm0jVa3fE54Um2maEcspJJ9thvFPlFgRvcG1mGw38ryrxWIYknMdRvzOnMxcVWvpIVR7CJTfTdMegrqwB29pMteEjXMdkUt/UdvrKYNeWiPlQLzYgnuHISvC/us7yJtUP4I3ZnOygm/edB8zLfgqFXouhZ0DOrdTKwV7jOddVzL5Ze+U+J6iBObWZv/AFX8fSTMLh3dAzHJkyhbAj3TcNvqbufXyneZVt/05g6dnoSwrRnD1AyhhsQCNQdxfcbx3eIMbQV50S06QBjTFBgiFJIHFmp4Ri6bo1NahpOKYTQLmdSwzgX965JsFIMyqmM0cOwZmDEHNmXsBFiD2g941jmjxfUk0K6qSjFNj2LXKzLcMabMjdjKrEZvkZBrjJsbrup5EcwY85NyCpLb+973abnU+sinEKLqcwHYQDbw1m5wqfJnRW+3A04uCV/tP58pGoJlY8r2P1nYp1XTN8v/ALIaVlVgcxI220+sXlkipDUIScWaHCY50sAxy75SbrqCDddjoTJycVqW0YLtoiqmoNx7olAlcd/0k6ji1FgVHjL4qD3pCuSEkWgxDNqxJJ5k3PqYLYkbSuxmNtosiiqfWDaXBQsDluy2auJDq4i5AjQZijMFJC7kAkDsueWukj0sO7VKYyn95qn81zl089JXOaRdj0/cdwL/AL5hL4PK/C8Frftr0AtnRSzKSNlAY2INjoRLnDcMqOntBlylHcdbXLTYK+lt7kTnHlgo7vucanG3JUuxAqv2yG9WaHiXR3EJh/2hguWwYqCc4U/aK2tbbnzjFboXigpcmlYDMeu2wF/hnX8jH5DHgl3RnKlS8rsVVtDxSMoRzbK+bLa9+qbG4/W0HiOBdTkYDMq5zY36pAP4xXLlUk0hzHh6XuVxbW8brm6mEsaxosVH8ouPHrfQiIZJVEdgrYC1Lcpb4GnlX2jj7qncnl5Sqwx1FpdGsosWGYjkdvOWaeO3UznM+yQeGo3YO+rMbqvbruewQMZVbMyk9W50Gg7NRzllwZTf21TsOUeR1tyAlNWfMzHtJPzjE41FX3YtGVzf6N30Wr58Mnal0P8ASdPkVl2syXQiv/ETvVx5gq30X1msEy8kam0PwdxCnTrH9GdODsxYimcphAiSQKpgGw11v2g6js0hMwAJ5CQ6LO1/Ziw5k7nwHZ3zT9O2bYjrVaSJFVr8iR4EEHtH5SPVp5gbi48LH58/COpghu5dz5gRa1Gnb+Ew/umpJyfYRTjHZMp8Vgr6rr5ajuIlVWWzKCNLi47ddZa4sZfdLL5mQsNRNWqqXF/rbs75n6lJ7dzRwNvuafins6mUhcuZEZbDQrly28QVI8ofRfgDVcQiMLqTdr6dUAk+G0smwqBKQKkEU7kHYZndgPQg+ckcGxBau1Kn75pVQpvbr5OrY8ow/wAPUuaEHN/VcI8XuQ+jww6JiamIw/tGout1tcgOxS2Um1gwknhnEqdFcXjKVEA5qaU0awCBzr7uwv2dgEtkwgpYqoa1MFMThjWenoQaiFGqINbHrAkfelJhK9PFHFU6FP2avSSoidX36BBNgNNRy8YrfVbY37US8XiqdWnimpIVarhqbuiqdKqP1sotr9k3G5J75F6PcOc1eHl1IJLaEagU3DbHuMm9IsSiLSqYdAmfC1hYAC7IyakDQ7GWPRStnp4XEVm/hriyzWAsqhADYDkGHfK5SpWkFbfsb4Xilfi4r/Zegzk/dQhv8ZZ18J7KnVTklPFhfuNVplfkRKTgqUjiab4e5pBcVSBbNfRCw97XmZoMVXV8Ork2zYRcxHa1SmrN49WVS5XjYifFdyv6XCui1MRTYVMPXoqhXMf3YZVUMFv535ZjftmWxPEqo4eh9rUu2IdS2d8xVaajLe98tzttL7G4Oth1xlMlzhRQcoXIKl3Xq5Tbe+a4HYJnaVD2mGwdP48VUB8OoG+UuhSVc7gk+SD0nphRRpDemKSN950zN8zGeNV7Z3+OmqDxLsG/7UIk7jeKo16rtSUgirTLk/aOfICNT/tKHiL5qCH/AJjjyUtb/KLtuxmlRX2BEZ4mnXJ5EKR4FRaGgjfEHu1uSgL/AGgA/O8MtNE4+SPSNiJb0KedlX9eMg+xBZQSFuqt3aqL/O8vsNTyKMoDt8h433/W8u0kW1+ivUOvkk8Tq5aYVdL2AHMKNvWUZQyTiMPWc3Y798a/Z2UEs2w27e6X5bbunQvjSSpNWWvROtlxIHxqyf8AsP8AH5zfieYcMxQWrTb4XU+V9fleenCZ2ZfdY7ie1Czp06UFxixFiCLeSQC+3LwOx8Y3RxjEWVF00JvlF+wdsccGxtvY2iUKL5cosirzZbse02mt6f1dL8CGs6bVge1b4F/vH5zmepa4CqPG/wCMN6TAXFYeYX8JX1q7bMQw7RNCUq5E4xT4ohY5zfU3PdIOGqEVl5cr+IOsfxTdawFhIFW6uCRbZh4cjMrUz3XyaeCNI2mP4i91LaZ0Qi23VGQ6/eRonR/HrRxC1GLBQrg5dTdkZRbzIjnE6YbD4Zhvkc+RqPb6SkvNGDU8dMTkoqbcTUYLpKFSma7O70qjMD7xam9Mo6lmPaQR4CR+ilX2NcVwLqhJyk2uhBUrftymZ4LeX2lOh3t9JCwx3vgry5GkkubE6V9JTiK4KoqIiNTROxXFmJtax0FgNrCSsDxSpTwrU1y5StRLkHNarlz2N/5F5TI0VzPeaLHHJQA7ZxjxRcXa2ROebTjFPdjfRvidVLKrAAMzjqgm7KUbXsysdJfYzHOtL2YbqZctrD3c2a19/e1mZ6N07m8teL1LLaWY8Uem2hXPOTzdKZE4lx/EVKYoPUJQW0sLnLbKC25AtIVLiVVAgV7ezLNT0Xql/eOo1J75Ec6wHOkqcYrsOq9iM2IZCcrEXIJtzKm49DGTUJFiTa5IHK53MGqbmJEH7htcEjBC9RAdi6/5CV9e97fq8m0HysrfCwPobyLVN2J7Tf11lWbgsxkiuhVqV/tU0PlYj8JbYHCuxuhI+ke41wwnDUKiC5REVu3KQNfI/wCXdK3AYtgOY79YxoppfayrUxk1cS8qU6qKc9jpptqZV16tUassnrhC4BNcEnXKGBt6kaxMRgygF3fU21sR9Y/OLkvAlBqL3q/gozWvcEWPKer0HzKG+IA+ov8AjPMsUhG9rfnPQ+DtehSP/LT/ABEydTFxpM0MLT4J06JOigxRjBOnTpJAQjuH9xfE/jFnTa9N/GzJ9Q5RR4rcyIZ06M5Ax8EfEbmMcY/if0U//GsWdMnU+40MPBr6f/DYb/pt/wCWpKWpuZ06aeH2Izn72dS3Eu+Mfwl8PwE6dLuzKsvvj8me4d70vuN/wx4Tp04xfjZ1m/NEZ6L+75H6yVxjf9d86dLIfjFsv+SyhbeA+xnTotLg0EVp3nTp0QGheRjI3Hl9J06VZeEWYz0DF/8AAt/0V/wEyvD/ALc6dJ0vIZvaAm8vML/BM6dNbyZ2XsVOL930+s9C4V/Bp/cT/ETp0y9byhzS8EydOnRIcP/Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYYGBgaGBoZHBoZGBgZGhwcGRoZGhgaHBkcIS4lHR4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHj0rJSs2NDQ0NDE2NDQ0NDQ0NDQ0NDQ0NTQ0NDY0NDQ0NTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABAEAACAQIEAwYDBgQEBgMBAAABAgADEQQSITEFQVEGImFxgZETobEyQlJywdEHYpLwFCOCsiQzQ6Lh8XOzwhX/xAAaAQADAQEBAQAAAAAAAAAAAAAAAgMBBAUG/8QAKBEAAgIBBAEEAgIDAAAAAAAAAAECEQMEEiExIjJBUWFxkQWxFEKh/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABISN4jxqhQ+24v+Eat7Db1lWx/bdzcUaYUfic5j/SNB7mY2kak2Xu8aV+I0U+3URfNgPlMvxfFsRV+3VcjoCVX+lbCMIu4baadU7VYQf8AVv5I5+eW04N2yww/GfJP3MzljbfQdToPecWxVMGxqID0LoP1mbmG1Gljtnhv5x/o/YzvT7WYQ/8AUI80qfXLaZitRTqGUjqGBHuIoMNzDajXcPxWhU+xVRvDML+0e3mLx1heJVqf2Kjr4Bjb+k6H2m7g2mvQlAwHbSqthVVXHUd1v2Pylo4b2goVrBXCsfuP3W9OR9JqkmK00TEIQjGBCEIAEIQgAQhCABCEIAEIQgAQhCABEhK52h7SrQuiWar05L4t4+ExujUrJbiPEadBc1Rgo5DcnwA5yjcX7XVat1pXpr6ZyPE/d9PeQOMxT1WL1GLMeZ6dAOQ8JxERysdRoUkk3OpPMxDPFasqWzEC5ygnQX1OpO2xlZ452k3Sg3UNU0Ponz19oqVmt0TeP4xSo3ztc/hXVvLoPUyvY7tBWYXQimDqAAC5HizD6Aesr7IDrc9ST15mw3M9I1vDxsMx87nSOkK2dTXdzepmceJt87ztQoNVOWkirtzGny/cxqVUnvXLW21Pv/fpPZCrb7N/yXsPMwAfVSKLWQsX2JORgD4WUX9bicmxTowY0jTIOrLnTXxGov6Tvh8IK2jXPT/M0Hh8MKet9xG1bA082WkWdumUC9t7aD21PnGMolsN2pdTZ0zqNL3AfpqdFPsJZcFjkqgFGBuD3dMwtuCv9iZ3VzKAGW172LLoRsdtbi22/hPS1ypGRtjcWBUA8yBuIrigTaNMhKpwvtM5ISsoIvbOujAW3K/e+Rlq/v8AvwiNUOnZO8I7T1qNlY/ET8LHUeTb+9xL1wvi9LELem2o3U6MPTp4iZTOlCqyMHQlWGoI0IjKTRjimbHFlU7P9qBUtTr2V9AG2VvPofkZao6diNULCEJpgQhCABCEIAEIQgARIStdq+P/AAF+HTP+Yw3/AAg8/M8veY3RqVjftT2l+HejRPf1DMPueA/m+koTEk3JuTuTqT5mBN9TuYSTdlEqCEJW+1nFygFBDq4Oc9FOgXzOpPp1glYN0N+0HFxUvRQgppmbfMRfur0A5nwlb0JFhpewHXxMGIA0BF9PT9zPdKlzYEC9he9yd9BHE5Yhp+gHmD6/tOnwwLEoAB1Nr+u95N8J4M1UXGijmTa56DfbnJnBdi2Y3aoAvQBnP1AHzk5Zop1ZeOCTV0UsqLgqCDy5tPdLDtrdXBHgdPl4Gadw/sbhqZuc7n+c2Gv8q2B9ZO0sDTUWVQAOQAAkpaj4ReOlX+zMoo4V8veXMo2IYq9jzyb+o12iVMCL5WvfdcgU5rXJAVSSGFtuduXLYaVBb2tOuI4RRrLldFceViLbEMNQfETFnb7RstPFdMxFqVQDvl3p3tdMjNvfW9ypuB9q3SR9WmRqbAHymt8R7DqTmp1CpB++vxPQ3ILesqvF+x7oCzanqisQemwOtuttue8ss0WQenkUtX8jpbXXla/nrL92bxavQRQbsihGHPS4Q+IIG/hKLiaeQ2uTbna1/EDpJLsticmJQXstQFD0uRdfmB7yj5RBcMvsWIIsQoEt/ZftLa1Gu2myuTt0VieXQyoQM1OhWrNliyndkuPZrUKpu33GPMDkfHpLhKJ2TaoWEITTAhCEACEIQAjuN8SXD0i7anZR+JjsP19JlNfEM7M7G7Mbk+MmO1fFvj1iFPcS6r0J+83qdPISDkpO2UiqQQhPUUY8mZlxPEl6rve+ZmI20W9lAt/LaaViD3G/Kfpr8rzLzT0BvyHpoP3EeIkjwpPK+nrJ3gvCGq3Z7qCdWP2iNyFHK/4j6SMwbWIUDUmXrh6WUXks03FUjo0+NSdsksMioAqiwUWAHykthsX0FpFUEvJjDUBbcTj5O+0O0xF51FUTmuHiMhvaKaqHC1xyjqnXMa4ah1kglIDSakzJNIVXvGnENFNukd3AnPEqGWxm0KYZxWj/AJzIPxG3kT+hMaUaLI9Njp31tqPuOtz/AH0lp4/RShiGDix0IPI5jv8A039vCQOPoszKV+86AC2wAJDW8QST+XxnoQ5ijzsqqTL+d4TlhXzIjdUQ+pUE/O86zDAhCLAARiCCDYg3B6EbTS+znFhiKev21sGHXo3kbfWZpJDgfETh6quPs7OOqnf1G/pNi6ZklZqsJzpuGAYG4IuD1B2nSVJBCEIAJIPtXxH4OHaxsz9xeouO8fQX+UnZm3bbHfExGQfZpjL/AKjYt+g9IsnSNirZXIQhJFRZ6nmeoAcsQt0cdUYe6mZnyt/ID8r++00nHW+G/wCSp/saZoNQT1sB6x4iSJTszhszFjyFh5m36Sx4jHLTFt2Ow/WRfZte4bfiMl0ool3cXJ9ZyTac3Z6GJVjVDfD4vFHVEY36Aa+E7CvjUN3RwDy009joJ2ocdqAP8FLhELsLagKCdTyJAOgBPW08U+P13dqeai4U7pVIuDTdyysVsVXLlJI+0wAve4dKTXCQjcU6bZLcN465sHvfbXQ+olmwblzYc9vXaZ7garuSz+FrgXsettLy7dncURYW2kJOnydEVxwP+JYp6Ysn2vAZvlKzX4vxEkBaZcHfKgQr5FiL+v8A5lt4m5yMyfb00677nkOcoXFOJYmkpqF0U3fum+rJ8MlAE5kPcXOytqI8G30TmklbJ5KmOdO+lQc7WVstraZge8DrobkdY94fj3BWnWBuQcr2Pe8Cev7TlwPjGJ/w/wAepkqIpUM9IlguZEfVDq1s5VspzKVPdblL0XXEIGsVP2hY3F+TKw0I8fQ2Ok3Ja4YuNp8opn8RcAHorWG6WQ+TOoH+4+0quCxV0BIUkLTfzFMsrgeOVjYeE0ftJQvhqynco3uNQfcTJqVQqKYUnVgDYaWZhmB6i97ecrp5XGiOqityZd+EPmoUz0UqfNHZCfXJf1j2R/AT/wAOlvxVP/scn5kyRlH2RQQhCABaLCFoAX3sVxHPSNJj3k2/KdvY3HtLNMv7N434OIRjordxvJrfrY+k1CUi+CclyLCJFjCnHEVQiMx2UFj6C8x2vVLuzndmLHzY3P1mmdr8Rkwr23bKo/1MM3/bmmXxJMeCFiRYSY4oiwhADnXTMrL+JWX+pSP1mc4vBPSbI4sQbE8j0IPPczSpG8TwautTNsELA/hfK2Uj2+sHLaPGCla+iI7NJ/l+ZPyNpPmiHFrSD7Ot/kjrr8yZYcLOWfrZ24/SvwMaXDsjE5Db+UkfQzlX4dc2VAgPgPoP3k8xFt/acxTvMUmPtRFUcKEFpYOAG5tIjEfayj1k12fpnU252iP7KRLEaYYWNiCLWMhK/Zlc1wAVJ1FgPlsfWTaqVNyNOceuRNSEk6I1OFJkCBdBtcXA8FXYekf06AUWA5TwanS4nsMTzuYN2LTRD8ep5qVQDmjD3UzLuz/DXrsqILqHTO4Fgis4Gp5Fu9/T4TWMebqw/lMr/YDDr/hKo0DvUJU/kAy+mfOZTHJxTonkgm1YwwOHyJk5B3sOYDVGYA9SM28cTtjbfEe22d7f1GcZ0o4n2EWFoTTAhCEACatwjFfFoo/MqL+Y0PzBmVy+dhq+agyn7jm3kwB+uaPHsWXRZoQhHJlS/iBVtSpr1e/9Kn95QDLr/ENv+SPzn/b+8pclLspHoBCJFEUY9wiRYAEZ4+rYBbaE6+oA/f5x5OFdNR0Isf8ATqPOJkXiWwOpFb4Norptldh85P0qmgHW3/uReJoqtVmUWDWJtsWWwNvl7yQoHac8nbs64KuCXw1C4iV6RB02jnCEWkfxHH2Fl6zB26GeOdkBKgFjsSbAX67yY7NcTYZUZe8e8AhzgX373oJAqHfy9h7mTeG4PlQGmBnNgCrKNzrfrN4ozyZYhj3asVyK1NgSXDEMrad1lYWN9bZb7Tvicy2v0+UbLhKhswKlrWOUg6+XMxWrsQQ429Lehg+RU6H+Es2k610yxpgbj6x1iXuCZnsa+/or3aHEZKNRr2IQ6+J0HzMiuydCplpFR3AuZm0ABzlnFjqdx7yR4tRWqDTbZiB7MLH3tJZbUqVlUL8JTcDnl39/1EF1QJ07+itYlbO4/mb6mc56Zrkk7kkn1N55nYujzpO22EIQmmBPQhFEACWzsHU79VeqqfYkfrKpLF2Hf/iGHWmfky/vNj2ZLovsIQlSRSP4hjvUfJ/qkpkvH8Qk7tJv5mHuAf0lHkpdlI9CT0IkURRj1CEIAE8VEzC3Oe4l4NXwam07RF8SpMEVrAKhtYG5Oc6ttoLhR6xcM0ka9POjJ+JSPXl87SDwtbbxkckUujqxTcrssNJzYgdJE8Tq5FAVczDyAjrCV7XO9xPFamrayK4L1ZH8OZqjqHRiL6qh71rbLe1je3zltwdPCoqlqWKzWAa1RbFra2BcZRfykNg6bqQVMe/4mqD3XTxU/vGUjXXvf7JPEU6ZUmh/iUazNlezKTYZVJzEi5+8DGqcUxJXK9LvXF2LA5RzF+cleFYyqRZgLfL2j0pm3A8oSlZiS6/sOEvmTNtp/wCfqT7zviDpPGHsikDnOGMr6RTCEx9Ug6GxuLed836TtxDi5qqFCZSbZze+a2wHQRhijd/ADfx5/p7znL44qrOXLN7mkEIoiyxAIQhAAiwhABZYOxA/4g//ABt/uSV6WfsKt6zt0S3uw/abHsyXReYQhKkitduqObDZvwup9D3fqRM8ms8bwvxMPUTqpt5jVfmBMmk5djx6CEIgiDnqEITQCEIQAVRqPOVhu6R46+R5j9fWWddx5iV2pTzJbmCbe8lk9i+D3OtOpOoq3kWlUjQ8o5w9USe0vuJBajkhVuL9JLYfhzADXXnc8/GRVGrlP0P13k7TxIYDXe1wLbDW/wDfSK4jKQ+o4V0tYkj0j2k55/34zzh8UCoHL39omJrKBpuf/d4bUZuY4app/fzkZjK9tRcm+g5zzXxelp1wOEJOd/8ASOnifGK+BlyMeIJlZF6ILkbEkkt841j3i/2x+X9TGU6cXpRx5vWxRFnmepQkEIQvABRCEIABly7BUu7Vfqyr7C5/3CU0zRuyeGyYZOrEufXb5ARo9iy6JuEIShMSZLxzB/BxFROWYlfytqvyNvSa1KZ294fcJXA27jeR1U+9x6iJJcDRfJSosSLJlAhCE0AhCEAPSbjzEgKW5HifqZPoNR5iQdFdz4n6mSzdI6NP2xtjMJfvLvGBuPCWApGlSgLnSTjKi0o2M6GKbqPWPaNdhtack4arHQkeUlsD2dLH7ZmuURVFhhsa/h/fhH6VGbnc9Bv/AOJIYfs1TUd4s3rb6SSw+FRdFUAdBaI5DqI1wPDjoz+gktlAGkVE9+k6BJOTHRWuKjvj8v6mMZIcbIDqLgE3ABOpIsSB1NtbSPnXi9KOLN62KIs8wlCR6hCEAFEIkIAdcNQNR1Rd2YKPXnNYpUwoCjYAAeQFhKT2JwOao1UjuoLD8zfsL+4l6jxROT5CEWEcUI1x+FWrTem2zKR5dCPEHWOoQAxzGYZqbvTb7SGx/Q+RFj6zlLx224RmUV0HeUWYdV5N5j6eUo0k1TKp2LCEIpoTxVqKil3IVVFyT/ep6DnFq1FRSzsFUbk7CVDi/EfjuLXCLfIDpcndyOp+Q8zLYsTm/oSc1FDHjnGKtZ8illRjZUBtfldiNyfYS04MaAeA+kqFKnaunje3tLjgRoPKc+sW2W34OrRrxcvkfLTnDEUeYklRpz1Xo6bTis7WRuGp6giWHhzkbiRuEobSewuF0vBswkaJBEBT1nSjSAnSwG00w55OVvP9Z6Inv0iMJjAov8RqJ+Crg2NOorC38xyH17wPpOHDMSXpgsbuO6/ievqNfeSH8QlBw6rfVqtMAdbEs3sFvKtSd0N0Nja21wfAjnPY0OB5sDrtPg83V5FHKvxyWOeowwHEA/dcBX8L5W/KTsfA+l4/k545QlUlQsZqStBCEW0mMIJ6RCxCgXJIAHUk2AiCWrsbwnM3x2HdXRPFuben18pqVmN0WfguAFCitPnux6sdT+3pJCEJUkEIQgAQhCAHhgCLHUGZr2n4IcO+ZB/lue6fwn8B/SaZG2Mwi1UZHF1Yaj6EdCIslZqdGQxvjcYlJczm3RRbM35V5+e059scNi8JVKXVaTXKVFW5dRyJYHKwuLgSn5SxLkkk82JJPqZfHpXJKTfAs8yXCHXEsc1dte6g+ygNwPEnm3jy2HizFO0CDPSzvjCMVSRzuTfIY1copVB918p9QT/+TLXgdbEbGQFWnmw7jpZv6Tf6X95N9mHz0wOYNp5n8njqSl8o9HQT8XEsOGXaO6lAMCCAQeRiUKVhHajnPHPRsjkpEGS2GJnKpRsL+UcYY/PSBjHtNp0vOBqgcx1A29TOlLURjDsmsV1iokbcbx64ei9Q7gaDqeUFGzHKjP8Athj/AIuKWkuqUV18aj/a9lCj/UYxCRhwpWYs7as7FmPUmO69QAaT6zQY1DCkeBqpOWVnLE17aAXMdYfjmQD4ym2xca26Fl/Ue0YqbTy7BtCARz8RzErnwwyxpiY5OL4LWjhgGUgqdQQbgjwM9yh4HF1KTMiuVKtbqGG6kg73Ftd5buzWKqYuqKIp9612dfsKB95gdh5Xnj5NK4rcuUdkcqbpk9wThbV6gUaKNXboP3M0uhRVFCKLBQAAOgjfhfDkoIEQeJPMnmTH0jFUbJ2EIQjGBCEIAEIQgAQhCAEfxfhdLE0mo1lzI3oQeTA8mHIzEe1XZKtgm1BegSAtX00VwPstv4H5DfZxxFBHUo6hlYWKsAQR0IO8piyuD+hJR3HzcKIbw+kbfD1sN+k0/tV2CqU1apgVRtP+Uylm31yuzWK2+7YeZmb1GxOqlmpmxuqIKRBHI2AYeU9GE1kVxIOLj2SfD8E+WzI3e05DfoDqec9dkkKuyNfQ2IOhuNDcdZWsLhipzvme11bMWut9mB3/APcmcPxWrQfOyh+eYkZyDzcrufPXnOfVYZZoJJU0X0+WOKTvpmoU6PdvONP7Wh25SL4T2soVVytdG6HUe8k6T3YkH+/MTw82CeN1JUetjywmvF2PkQEdNflyvPDr0+UFewv/AHp4eojSviQF0322tbTa3WwEiUPeYBrSXwgFv70lapVLHQayQr8RFJCxNgBfWC7NfCJmpiEXVjtrKX2sxoxAVFayXJvYkG34QPteJ0UcyJyNZ65L1CVQbISRm/N4eHv0jCpXFRmC3Wmls7Bbs9rWXkFQG1l5m2mk9nS/x1rfl/R5Oo1tPbj/AGQ9fNRy2ohkY2UCpaptc5gCVVrd629mF9TOQxVFtc7IdiKlNjY3/HTBHuJN0sITZ2UBjoqgABBvYAaa7k8zG/8A/LsLW1O/nPYVLhM8/d7tEb8At9h6b32y1E18g+UxGwVYfc0650A87lo6q8MFjTYA5lzLpfVTqLeV/aWTsp/Ddm72IX4aBgyjKBUYW/7Be2+vgN4uTJGCuTHj5dFZ4Z2WrYyugw7I2UKtZwbpTBzaFho7gLspO67akbf2f4FSwdIU6QvzZjbMzdWI+Q5R3w/h9KhTFOiiog2VQALncnqTzJjyeVlzOb+jpUUhYQhJDBCEIAEIQgAQhCABCEIAEIQgAkhuNdnMPitaiDOBYOujj1G48DcSZhNi2naMaT4Zk2P/AIfV6Ts1MrWQ+jjwKnQ+YPpISrgAhNN1KAm5BW7A67A7a2+m03ONsVgqdUWqIrC1u8AdJ1w1clxJWRlhvlM+e8VwhkYFQQDqL6adR+3KSvBuKVKJGuYcwdiOh/cTTOKdh6FU5leohAsBmLoBzAVtr87GQOK/h7WH/LqI35rqfoZZZ8WRNT/6JtyQdx7+jzhuII692+a2xPP6GcMWq+pHzO/pynA9lMcl8tK+2qshB9M143xPB8cFuKFQnmtr77lSDb0+s83VaKK8sUk18Xyelp9Y345FT+fY9VsYKZJJ06+cja2KaqwZrhRsp6jmfHw5TqvZzGuQXoVL9MugPrzjxOyWObagR4s9MfItedOi0uPF55Gr/PRz6vUzyeMU6/sicVimayLz6W25nXSP8M9G60lGQIbtcs2ZyNSXOhsL9Bct0kzw7sDiNWqGkrHa+aoV9NBp66ye4f2BoJ9t3c8wLID1vbX5ibk1Ut3j0c0cPHJXjSuBbntbW/l1kjgOzFaobsMi33be3gv72l14fwyjQXLSpqg8Br77x7F/ype3Yywr3IbhnZ6jRIcLmcC2dtSPyjZfSTMISEpOTtssopKkLCEJhoQhCABCEIAEIQgAQhCABCEIAEIQgAQhCACQhCABCEIe4CxIQgYwhCEDQiwhABIRYQAIQhAAhCEACEIQAIQhAAhCEAP/2Q==</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rashid Khan</t>
+          <t>Riaz Hassan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1656,16 +1656,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>133.3</v>
+        <v>51.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1674,97 +1674,97 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>41.7</v>
+        <v>77.3</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRYWFhYZGBgYGBoeGhYcHRweIR4eHBoaHBoeGRwcJC4lHB4tHx8cKTgmKy8xNjU2HCQ7QDszPy40NTEBDAwMEA8QHxISHzEsJSs1ODY0Nz00PjQ2PTc1Pz81MTQ0NDY0MTQ2NDY2NDo0NDQ0ND00NDQ3NDQ2NDQ0NDQ0NP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xAA8EAACAQIEAgYJAwMEAgMAAAABAgADEQQSITEFQQYiUWFxgQcTMkKRobHB8FJy0RRi4ZKissIjgjNTY//EABsBAQADAQEBAQAAAAAAAAAAAAADBAUCAQYH/8QAKhEAAgIBAwMEAgIDAQAAAAAAAAECEQMEEiExQVEFE2FxIjKBkbHR4SP/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQBERAERKQBE550l9KFDDu1OihruuhbMFQHsDWJPwtIGn6YavPCIfCqRp4ZPnAOxROecF9K2FqlVrI1An3iQ6ebL1h4lbd83zD4hXVXR1dWF1ZSCCO0EaEQC/ERAEREAREQBERAEREAREQBERAEREAREQBERAEREApOY+ljpYaa/0VFuvUF6rA6oh2UW95vp4ib7x3iH9Ph61e1/V02YL2kA2HmbT5jAq4muWZi7uxZ2OpLNvpy7h/E8bPUrPYTQWBP52TzVQ5Qc1twDa/jf85cpvnCOgq5Q1QsSRsCRb4S/ifR7QOqs633F7g/GRe9Gyx7EqOasbHMLEX2B3/PKT3RDppXwNUFSz0WPXoEmxH6lvord43tY8rTmI9HKWJV2U8r2I85pnGeA1sOevqv6hO45IydIjlilFW0fT/CeI08RRSvSOZKihlPPvBHIg3BHaDM6cF9DnSOtTxK4QuDRq5iEb3XsDdD2kD2djvvv3qdkQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgEL0twbVsFiaai7PRcKO05TYfGcd6G8HRFRzu12v4iyj4fWd2rsArEkAAEknYWG5nEauGfMVFYUUTRRa98otfcXkWW2qJ8FJt0dJQnKBbS09ty0mg8M4ji0dQayVadwAV+VwdvImT3FeLYhAMgUsRpz187Ss0k6stqVq6JHHVJpnSemGpuCt/y33lXx3EKilmWn4BxfyAv8J5o441EYOmVtmHI6bqez+I2uL3DcpLbVGl9Ecx4jhAmjevTUXH7ttbZbgz6enJ/Rj0cX+rq4ojSmuRP3t7R8lFv/adYl1O1ZnyVOisRE9ORERAEREAREQBERAEREAREQBERAEREAREQDC4tf1FbLv6t7eOUzntLg61CX1DAuoI16puCDfkZ0jFpmR15FSPiCJz2lxYU6ZJ2zH68zIM3YtaandnpOErTVEUAagKAAABe5AsO03nnG0c7sjaXFhf80kLxLpKwdHotcKQXzLdT+0jUS3S6TesqAuVAJAJymwI5DY303tINjfJaU4p0ZeN6NltQcjZQMyk6WtYgbE6bne5vvMXF08gAOpW4J7e8zZKPF0JIuGDDqnfXci45zXeN1Abnl/M8ttqw0km0bV6OqTKr6nKwDEcszHe3gLeU3ma10MoMKQY7FEVe/KNT8dPIzZZcx/qZ+Wt7orEROyMREQBERAEREAREQBERAEREAREQBERAEREA8kTiDYlGqDDVdClYo3K5W6nyv8AWdwnGvSr0fajXGNpf/HUYB7e5UtYE9zaeY/uE4lFSO4ScTOo4ZKF81RsnIszaDssGUfnOW6y06osrLUA+XhcHxkHwrirVaZWr1vH87Jdq8RSgh9Tk5aHXXXnzNhK9P8Akubk18HpsImGqU2zkhs+ZdOSki3cP4ng4sYitRor77qLfuIGs1DHcXeo+d2vYEDz0PxmfwWjVUrWUlHven23Bvn/AGjw8JLDFbV9SCWXh10Po3DYdUUKoCqNgO83Pzl6at0G4jVq0nFV87IwGawB1F9bTaJYnBwk4vsVYy3Kz1EROToREQBERAEREAREQBERAEREAREQBERAERLdSoFBJIAAJJOgAGpJPZAPVpq/T7iFOnhHpvZjX/8AGq/u3bwG/jaQPG/SATdcNZVF713HIblV2A7z8BNYxtA1gWeqzMwv6w9Yk2NgNdATYabXlmOlltc327dyH3luSXk1TGYSqhITrrfmbHwM8YfheJq6BQt/eJv56TcanDbMrMNGAOukutj1DGkhUMBflcgb2HdKWNZMrqCv57F7J7eNXN18EDhOjVKkwaofW1Nwmyjvbu8ZIsxJ01Y7ty8AOQHZLqp/ljuZaesPZX4zc0+lWJW+X5/0ZGfUPJxFUvBJ9HOkIwlRhbMGsHF7bXsRyvqZ1LhnE6VdM9Jgw5jmD2MNwZxEYe+ul+0fU9plzhXEq1BgyPlI56ajsYbEdxnmo0qyfkuGc4c7jw+h3iJrvRrpKmJBQ2WqouU5EfqXtHdy+c2KZUouD2y6mhGSkrRWIicnoiIgCIiAIiIAiIgCIiAIiIAiIgFJonpL4syJToKbesuz/tUiw8CfpN6nMunimpjqdMf/AFKNBc6s5Y/6fpJ9Mk8ib7ckOZtRpGk18PnDLcgEe72XsfjMvgw9VTKn2QQV7jcZh8SD8ZL9JsJRptSFLMDlbPcgm24Jtpf2hobaC1ucdUuQtMAajMBv7WpLWOwva3O3w1ajkjflUUbcJfXJhcU4i2IewNkUWVRfqqNLm2uc93dbndh+EqSpy2I1BBII5XzCxv3TPw2GRNNzfVjzPOSFLDVLEqrNyFlJH53TuOOGOKikkkcyyTyO+bMKph2t1n077faWkoAg6nffwma1MnR73U6jax5g98p6rlyO/Z5SUjLFNBbS5HPT80mNicIeQJv2afSSaVgCRyHOXRTOU66n8uZ5Z4iFwj1aTo69V0swYHXs8xbccxpOwdHONJiqQcaMNHT9LW/4ncH7gzlzoQNdTPfCuJVMPVWom3vDky31VvseRlXVadZI2upZwZnF0+h2eJaw1dXRXU3VlDA9xFxLsxuhpFYiIAiIgCIiAIiIAiIgCIiAIiIBSaV0go5catWysDRVcpub3Z73UctF303m6znPTrijJiAgA9hTc7alvduAde28n08XKdIizSUY2zWeL3NepfU7bKNlGgC6ADa2+mut5g4TE2YgqQeZI1P+J6EuDUj8+E24xpJGVJ22zLLrdAWVWfUM1tApVSxvodWAAOmjE3CFWyMDSJCu1AHOyrnqdZyDcqLt1rZTey2GulhMKnQBq5mJVWwzIGzBVuKrsyPcHMLMjFbi+Zd5sNOsyhCwHrFVlp0luMpO73vtaw7st+8YOtySnlcPB9DoYw0+meoaVvj+fKMTiuHAy72Quo1ucoVGVSedsxF+wAcpHGs3lb6SQxVTObXB/u5FiSWPcL6DuUSHxpJAAOUgWPjmH2+k2dNFxxJS60YOSTlNyb6suCoDftGpI7TsPvMwMWHdf8MhqeLCi+5udfA/nwmXh6+ZiD7I0t4afW8mZwZ+JAW2m1tZG13AJA0t2fWSYxCsOWnb4afSROJFnNhuNDPEe9zpno/xmfChCdabFfI9YfUjym0znnoyc5641Ay0yfG7j+Z0OYepio5XRqYXcFZWIiQkoiIgCIiAIiIAiIgCIiAIiIBSc09JSWxFJv1Urc/dcnl+6dLmodOOGI/qqtRbqhKk3PVztTsdORsV7s9+8TaeW3ImyLNHdBpHOTe3P/d/mWsNU1P+Pz6GTtLhKtSqm1ilKg3u+07WfkOSsZh4ro9VR29X1wGy5dm3cc9wMvfqwsJr+9G+pn+1KuhWnXK3GhB3VgGBtscrc99RrqZV8WbZQFUHdVAW/cbC5HcbzCLMrFGUoy7qwsQe8G4HyljEPp3dvLztcDxkmzG3upX5o83z27Lddaviy7Vra3DFTyYai4/Up37xvMV8RnbrABwOsl9DbZl7RqQRvqPE2KlQi+ZS6H2lvY6bEa2Yjt0PjPP9GtUdSpmy6gEWdT3He3dqJ05Hiii3hsRpY7BvMENt9ZI0HvlbbtHlr9Zr6qy1mV+0Ena91YXsdthJ5HGa/K21u0/4nMZWdTjTJThOFNd8qi25JFzYKrMTYak93O4khX4E7hWonOrKD1rKcxZ1y5cxucykbzH6KYhEeoxdkbK3q2GoDED2h7w028ZtNbilOogYvkDKcxDqhUqxzAqOspIu4OurMLm4Bq5cmSM/xXBJCEJR5LPQeg1DEPTZkJqU81lNyCrCwbTS4Ymb/ac+wOJoHiFFqThizVVaxc9QoSmp6osysLDWxF50GZ+otz3Pq0XMVKNLsViIkBKIiIAiIgCIiAIiIAiIgCIiAUkR0mYDDPcA3KCx2u1RQN+8yXmlelSoy4JMp0NekH71uf8AtlPlOoK5JHMnSZZzq6VHdiGqFkUAGzFErKAbXCizXv2gSN41dhVZWZGy51YWsbEO6E2NjswOh6m81rDYx/Vrdz1GLKCVOVjqSAwBBMzKHG3yOjqrFwQH2Kk3BIBIv1WYdVuc0vYkqa5Knupppkli8I9ZK7Ld6oroyL2qtE1FF+9CE13OWYvF+FqVxGIornVvUNTUAnKr5s4tY3Fx5W5TLw/SVqLIyhgGNFal10IRArG5vYnKLeO/bZ4rxSlh1tTs1GodTYdQrVYroRYLlfyI757FZFJKuOP+nknCS+TVqaKdi6HsBIt5TxisKDa5LeJ18j2yexGGpO3VKqxGlsgv3i1ryNxSlLh0JXbOhv8AEcuctZZKMHJ9kc6fE82WONd2katxO6uj5iQCBr2X/PjJ3ANddL3sAR4C0xON4am9Isrgka2J1nrhdbNSG17C1u2wH1lD0/M57lLr1NX1vSRwzi4qlSX9E1wwt1bD5jmSfvPdXZxc31Hdry+UsYWygAnTNMyqdW6um++9ppUYLL3RipbF4e22ddf3afedmnE+EsFxFBhyqp/tcfadrmXr1+afwXtI/wAWvk9RESiWxERAEREAREQBERAEREAREQCk5N6Z+InNh6Cn2b1WGo19lDcd3rNO+dZnBPSHifW8Qr81TKo0B9lQCNf7s0n00d0/oizS2xL2Bvka19GO2e3+0kfLylvDjQ27eV/nlH1WV4fYo17cjrl5j+4feVorve243t2DbNf5NNePRFB9WXnRSpDWHf1AR3g5VIl/AP61Hov1io1F2YEcj7dp4pN3nyLf9XMt4xGRlqJfMvKzG4O462YfKdnhYw6lf/BULWufVOSbg7lLl7Ajl2iYrVa4JAYPbWzbkdoPxkziKKVkDAEq24F7gjvCaMD9pAVC2bKx663yvtmAP/LtHnKevbWF18Gv6JGEtYt3WnX2YWPamysGQq39vb3zA4A5uU7G+A3/AJk5UxoIK1BZhsw5/wATX+FNbE9lwfjp+eczNDLblRs+v4U8Sl3RttNSAC219CJnVqhzpp7QkcMQwzA3AHaLXPjMum5ZVJ5XHjzH3+E+iPi2UrEq4Ye4Vb4b/SdyUzhGKQhWIPK07hw+pmpU2/Uin4qDMz1Bfq/suaTuZUREzi6IiIAiIgCIiAIiIAiIgCIiAeTPmridfPWrOdc9R3/1OW+8+ieL4j1dCtU/RTdv9Kk/afNNVSBvfvGvzlzSL9mVs75SNo4I110v7KdvZ3EfSX8KN/L/AIjsIPyMw+j5ui35oPl4gzOw43Hh/HYRNCL4RWa5ZddNNj8D90MyMMiuMpsD3hR/0lpVHd8F/wASpBBzKfzyaSnBjBWwznMCabHrC17d4uoExeKYIOeqQRclSO+xBUj6cptFB0rLlaxby+7TWuJ4VsO+l2pmxtzU66ixOndKet/LBJdzU9HajrIN9HaIatduo+jDY20I/ma1isyVNdDrrN7r01qrra9rgj6j+JqvEaBLqpIvmABO3iRvymJgb3Kup9V6rh3YXJvobBwvixdQlZkBIsGubG+wfkp22kg+HCgqDYjXLcHwtbz+MYVlCC6B12JQCx8U+0x3CBgFJYD2QykED9Ou4HLutPp42lTPz+VN8HtqhYEHYg6+E7N0YqZsJhz/APjT+SgfacYz9wsAdJ2no7hjTw1BGFiKa3HYSLkeRMo69qolnSdWSkREzC8IiIAiIgCIiAIiIAiIgCIiAaz0/wAX6vA1zexYKnk7BWGuns5pwPiLXsT8lOnmNfnOs+lTGnNQoXspzO2oFz7KXHMe1ORcTSxO4H6hofgND5TS08NuG/JTySUsleCf6NP1VtfYjXfc+clqA1P5zM1foxVKgXJ1JtebNRqC8sY3wiOa5ZmoOX8/zPamx1285YD7GSHqC65lFyOUmsjotKhBDL9Tr8pY4pWJYaXOXVTzsT2+MuCrk308ZEcbxQIUg7X1HiDIdTHdhl9Mu+nS26rG/lGJiQFu6ezzXsPMr9xIjhrZqrN7WUaee9u+31nvG46666NyYc+5hLnBqQVAToz3N+WvYfC0yfT8W7Jb7cn0fr+q2Yfbj3JekARbW973H+JklbKCSWJ7eVvwS3R12PkOZnuq5AYkb2sDN5nxRk8DwXrsXRp26rNdv2qMzA+IFvOdrE5z6MsDmetXYeyAinvNme3kE+JnRpj6ye7JXg0dNGoX5KxESqWBERAEREAREQBERAEREASkrLVeqFVmY2CgknuAuYBx7pZWapjMQSdUYKt7EZVAHV7NTr3kzR+O3X537L9oHIyerVGd6lQoQXd3ygE5SzFrDXS15DYuirugJNi2x5c+y820l7aivBmJ/wDo2xw/REPNd/PrC/Z7w+En6W95BU2yMbki/vAX8QwO4ktQri21+8H7Hb4xGIc/Jnk30mXQxXqNXcLfkTrIw4gjVQbjYEHz1Eu4biFjcUqebmztdvKwP1Elo83Ik245Rfemangl/tLONek6HLhGUjW9kHI3uCwOxlUrO2pakB2BXP0f7S+b26xTL3q5HmXLZfOcyhFqueSTHNwkprqnf9GjcVqIxVFplSxA90b+BmbRQKQpG2lrfblLFbDKa73VFCi4J6yG/wDcoGU99uckKFViNVqW5ZaisPibGVdFgeNO+tl/1bVLUTi0+Ev8l6nUBvbQ+Eo9SwAJvLTOEsAtr9pzHwuNBJ3oXwv+oxS3HUpWdzyvfqr5tY+CmWss1CLkzKhFydI6X0T4aaGFpows5GZ/3NqQfDQeUmoiYTbbbZqpJKkViInh6IiIAiIgH//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhMWFRUXGRobFhcYFxcdFxcYFhgYGBgdGRcYHSggGBolGxgYITEhJykrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLy01LS8vLS0tLSstNS8tLS0vLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUBAwYCB//EAD0QAAEDAgQDBgIIBAYDAAAAAAEAAhEDIQQFEjFBUWEGEyJxgZEyoUJSYnKxwdHwFCOC4RUzksLS8QcXQ//EABoBAQACAwEAAAAAAAAAAAAAAAAEBQIDBgH/xAA0EQABAwIEAgoBAwQDAAAAAAABAAIDESEEEjFBUWEFE3GBkaGxwdHwMhQi4TNCYvEVI3L/2gAMAwEAAhEDEQA/AKZERYrJERERERERERERERERFj8t1lRcRUdOkfrJ4QOf6BZsbmKwe4tFgpFbE0mNl7r8B+91G/xRpADbecFx9OAVhl/Yd9ZupxqMPN2/oOSYnsRiqTj3ZDxzAg8V4JGaLMxPUWnWkSQfkFtUDH5TiaN6lAx9YjUPcWC15biDMFrIvEAgSRG4WyjXCy0kuYbqzRCEWlbkREREREREREREREREREREREREREREREREREREREREREREU3IabDi2OdBhth14k9dgoSvuymGaypWc8Xa1hBsfC4EyDyMboTQFehpLgV2bavJb21ei+f5h22qMcdFJrhMATDjwsDvfiF0PZ7PamJpl+jSRwKimoUwCtld1qh5LiO3OT0u6NemwMe03LRE+Y2WrGdvqneaG0NjEvcAD5cFb0MybisPVDmxLHSIMbHnv6LJlQQVi+hBC4bL8TrbfcWPopS10MH3bW2guAdHGHbEjhK2KSSCbKIAQBVERF4iIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiywwQeRXV5JR8VSdIa5jA0DeGzM9JcuTVxlWPHgpkHUJAcI2INj6x7BYPadQt0bwAWnl5Lof8ABcOXBwABBkQ1u+0yQSD1VjleDa0PDRY29FX5dUAaXuMKqrVsWHu7msO7dwe5gLR9mBb16KOpmuit35RRddwgggyI3GxuDfqs1sPSYx5YABodPsd1py2pDO7fUL6h3LiCT5FtiFCzGuGh03AiRzGoSPZes1C1yfiVT5m0taxjoLwBJHGJ/UKtUjMMWary+I5Doo6kMFBRRpn53khERFktSIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiL1TeQQRuDK8rTjK2im53IE/JZsYXuDW6lYveGNqV0+CxLXt0OMNkfNZdlFJlmYWm8c3TPuZJVJm2Ee/D0ajDD+7ZqAsHENHzmVSjtdXZZ0z1uozo92lTWTFliF3lLA0aPjaxtJ25AsJAPA+apcyxRfq5BwBPWCYXOszbE4stpiYm5PBdHm9DucPRY0XNUA8zLXFx87BZxQkvDdyaLVPMMjn7AVVeiyQsLNaUREREREREREREREREREREREREREREREREREREREREWF6WCf2VYwdGTy3P7Rz+NVXT9JwR2BzHlp4/FVguXnM8ORQOoQXNc4fcBhvvDj5OClZZhxUrU6Z2e5rT5OcAfxWrtpnDDjKtNjXP8WiGbNAhoB6W+as4sHDh3UJqSDc87AAePHRQXYubENqBYEWHK9Se4cNVMyfE6qfdO4AR7KhzTJgXzMK7ybBvY7xtcWQNLgJcI2DgLmNpEnnzVziMPQqf/SnI3BcAR5g3XH53bLsSxu6qezeBbTFvdeMxxfeVj9Slt1cRf2H4q3xHdMZHeMA+8J9BxXN4h7e6Okg6iSSOZN/krfoSAyTmQ6NHmbDwue2ip+m5hHhxG3V5p3an7wqpNbD6adF5M961zo+rpqOYPQ6VoWH1SQ0H6LQ0dAB+sn1RpVtiOig/wDe00canlr4hUsPSpZ+1wq3z+D3+KyiyQsKlmw0sP8AUFOe3jormHFRTf03V5b+GqIiLQt6IiIiIiIiIiIiIiIiIiIiIiIiIiIiLBKyo9apdWvRWHEkuc6N9dvC6rOlJi2Lq26u9Br52UhoStDRJXjDVhds3BNvMqTUpgujlHvw9t/Ucl0dVzNKG699n2k4mgTYd4y3Ia279VFq4en32KLTfvCQDuQDAJPEkA+qs6dB1N1JxECzh6EEEjqoOe4M4fG1aYBgPdH3X+JvyIWioMoPK3cbqYxxMDhTf1H8LrOyWYsrN7l4AqtFvtgcuv8A2rPE4ITDgD5hfO6DKjSHtdpg+Fw3nhC6HF9pq9VoYBpOxIs5x59B0HuqXGdCl8uaGgB15dnL7orvB9ONjiyzVJGlN/52UrM30mDumMD6j/CGNAFzYSRt5Knz/stTwTaFNjpe+TUbeJES4chNusdF0/YfKmgvxVWIpgwfoi0uM9B+PRctmWYHFV31iLGzR9Vg+Efr1JW/BYVkM2WM1y/keJOg5AD+VFx2OfNBnkFM34t4Dc11JJUBzFre0i/JWDKEr06gLc/xV1mCoGkqIxqOathbp1D6p+Ugj5FQKOMLy4ngbeSxoHWKzDXA1Gy3lFlYXJYuDqJSzbbsOnwuvwk/XQh++/bv8oiIoykoiIiIiIiIiIiIiIiIiIiIiIiLxVdAVdi6u45KbiDZVWKYSZXU9GRdXhwdzf48lz+MeJMQeVvnzqvDcSO+DpgOZf0I/VdPlDDUIdpcW7mBeDLtzaQxp9lxOMBDerT8j/ePZdd2b7QVGUadMaY8LxqAMEtcw2No0yIutxkcSWtF9fH+VonhZlDjppx+2XY51TNTVVIawNc6lpkSHNJJEAQYDheSq7/yJQ1HD4kbVaQDvvM3nrDo/pVV/idRw8TyZLnX5vPiPmYCvscf4jK3Hd1B4PXS7f08Z/0LQWGExnYGncRT1ovI5BKZGjcV7239FR4WNMODdMWidt/Qhe2lohjZdUcQAOJnYfZBPuoWDoOqUwRWc2LQOEbfJdJ2ByUHE6yS7uhJJ4k2aPxP9KkSyCOMvOwUeOIyvDNyafKsu2WJ/hsLSwNP46g8ZHIEaj/U75ArnsBgQGkn4W78z5frwXjOcx7/ABtWruxh0M8myAR53P8AUt+ExIJDSXcdtM3Ebu/fJRGh8GHLv7qZjxrqpEzmTYkM/tBAGwppvYcVMZTcWuc2k0tZ8RHAW3JMnzCh5hTGmW+fkRcDy/updIU20qhdJqAWE83QLC//AEeYVfUxA0FgcZkWmQWw4k+UFtvNexvPWZa1FeG1BfU1FTY21AWqSOkefhThqa22va4vudFQZlXAa4j7Meuq3t+CrMLV3jn+X916zqpFuEz+ICi4SzW8zJ91PBvRbY4x1deKuWVtlJVW1WbHSAVUdMxfjJ3e491YdFPoXR9/yvSIioVcIiIiIiIiIiIiIiIiIiIiIiLDivaVsEJpcqPWEkj7K8sp66YPKy2uEOYTsbH1WrDHSajDYbhdsxoY0NG1lxxeX1dvr53VZmlIA7RIgrRklQ62jg1sewK3ZnUkRM/ivOSPZ/M+sBPoQtDqdaPvP2U0V6g1v9p7q0oO1UWldP2FxjD31Gq4Np1aZa4ucBBEgbkcC5clk7ppRyUjA/GB0f8ANjlhi74Z3ZXwv7LXhgG4gD/L1t7qzwGD7uQ6vQE8A+TI+6D+wuoy/MqWHwNRneBtWpql/jLGl3hb4mtNw28c581yTqYpYnCVIGiqyi46mhzbgU6kg2NwXeq8dpKztTqLR4BVc6PtCWj2BPuoMjpJzGwuFHfusOG2pqpzI44s8gFxbXj4UW1tBrKZcK7HAcAKsk8gDTHlMwodPGiYlSMBl761MU2iXHbzDh+RlXX/AK+MA9/4/uEtnz1THWF67pSHDktxDwDmI0NaClyBWnaaLR/xpmoYm2Irrue0rnq+c1hLNRja8WuDY8NhsqjH5g9vjBMgg+fAqzz3APpP0vEOFjyPIg8QQq5lEVGupnf6P6KcA1zM0dLixG+4UdoDPzGliOGxUHH4sVAHAESBv94qdgqcmOAAVI0OE03CC2B7vCu8I/fzXuHfnGb7vVScQwMblat4FypuEfIjktGi0hMG6HR+7LzHx9Zh3N5V8LrTg5cszTzp42U5ERciumREREREREREREREREREREReKmy9qPjq2huqJuOMKRhKGdldKhaMVm6l+XWiwa4gB8hvB/AOHA8l5zCzg/gR6KtdmrBIZMm7hAcxR3ZmB4Z8JMxpjQekk2XSjHYfNlzivaqEdHzhufIadh+P9rVXqBzrGfRbMppiKr+hHsolfEETIEnjAiOkbqzw1LRTqDo33c1pPzlYh4dKBvc/fFb5GlsVuQ81vyg/EPVb6P8AmAdVGwFnDqFIY6KgdvBHrHBbZqdS8HgfRRmWxAPMeqvc7pNqUMvpsl1bu3DQy741DSTwaJDrnqrfEUqVEvr4ote/UJp0Q0ua+oHO8TnbWafRvULVVwlTCUC+kzVjKwBc6002G0CbA/ofqrjy9wlriRMFwJmXBu5gmTd1+p5rmcJI/GOY3PlaCRb8jxO9BWwsSeSusQBAxxy1NjfTanad+S73I8/pVKzGMpd2CHwS8kkgNsRECzj7LshA818YptIpl7XEgGxHhc0mNwPhMt3mOqsKfavGAAawRz0jUPy+Si4roWTEyl+HIy1p+4ngL1NSR58lsj6QbCwNlF6VtRWnbuox9fu2mXNYHH1Jt7X9Vy2HwTx44A5cyteLLmVRWLi7UfGSZN+PVZFZ+stB9eQPJdXgcN+mw7Ia1yilfP1NByVDiJDNI6Rujr+yqcZQPeFxJJlsn1P/ABC2U3wVY4vCwD0DfxVc5i2QChfTj7A+63Zg6NnZ709lbUSSJbdvzHmvJs8FR8vxVQGGNaRsZMT5c1JxbgRIBaeLTuCpINVDLHNfRT0WGmwWVxcjOre5nAkeC6qJ+dgdxAKIiLWs0REREREREREREREREUXMqRczS0Alzmi+24mekKUst3E7ah8zCE0uvRWtlU1MTAig1gaNnvaIPC2mPmotVznjxjUOgj2JMlb2y47eHX8PRv8AcqRig07X6AC3ryldFHho2tDQBQch8etVz/66cmuZ37r/AJO3vx57WGy5pzfhp6SCXQLzEmF0WNaPGBzb8gotPCh1VhNoM+1x8wpeJMl3349mtWGGBbi8pNg2337ot8zw7Dh3+V1YYHIHOZQqaw1tXvLkWZ3DS46j1APsVvyLAl2Nw7HiGu/mQdnNbJHp4T7Lp8pwQ/hcPqcw/Ae7LofFStVpVDA+iWVon7KrHVGMxmX1BYGm5jqcyacue1snjd0f0Fa+kMU/9PKBwcB2itPblbWuuOHgHWsceXnT7xXnttWc6uYtpe1oJcRPgB0iOJLiuexQ1uqH6RIcJ+y0FwPW5P8ASun7b4UNrNc5gcHOa9hJd4XgBhiB0HvsqvKsFWdiS6kxtV1PTULHbPF2uaBN/iECeC5/ouUN6tzOHxVW2KbXMDxUPJLh516dLSdMSHiNnA2LbH9le24XWzW3TTdfwl3hcGiSWgiQel+HpqzjNm0vFRohjNdQB2zyHO1ta4cNIgRKkZFVGKfULKZaRSc43bomm2RpHAudpEcJcV0BnLJ3gWJIPHbQjnx2VX1OaFpoCADyr3qjr4Z5aSVPyGux8Mf8bdjzHBW+b4Njar2ts0RbzaDx81XuyykzxuBJGwnjuNlctIIDgqgvDgWO1HDituZsBLh0g/iqKrmFFo+gRwBkk+gVtRBBdJk6ifdc9UwTRWcWjW2eNtJ4gHjx9lVx4iVmIkjArUjmAKa25U+3VoMPEcPG4nQeJr81XpmbP3FNrG8P+tQU9mN1EGqW6TYPb8M8jvBWikWwRpaRxG/D5eawzCgH+UBezmmdLh7fNYyuxUZ6xr8wGrTS/ZQLKN2DILJo8vB4qS3mRUhw4igOpB2NxhzaOIGn2W1RsJhu7JuYtAJJ0nYw43IUlU+ImbNIZGigOx81bR4d2HHVOcHEbi4I1BHdRERFpWaIiIiIiIiIiIiIiIiLD2yFlEXosaqrAhzwbDUb3mNx+S3C4tMf2ub+S2YmmAdXPdaQ5wEzbYHpF7Lo8LL1kTSezwXM4mMxylv2i0Vx9IcOPG21pTA4mlfU7Zxc4X1EmDYfuFJxNABpdP79evuufzDBuJ17CPw4ea9nc9hEkYqRbut8LbBkewxPNASDzqKinfVdLi+1jwWlggtboa5wFmmbRx3JUDD5/ua06xJY5ot4nOeRYiAdbxI2kHgoOWBzXODXweAfpIcOs/kpr2jEOFJ7XseAYMyL3McxZUWIxkwJD2/tpQ22PZ8q/wCjuj8HiBkjlpLUUa4G55OqRptSlbWrVfTsur0sdSY158bC13UgRJ8nCxjY+ip8Blxp412t/wDDDU/unvdALW1tQAcTeabiI6QuSpZo7DvBExvqBu0kkH0I/Fdnhe2FKowDEMbUYfpgAjoS07HqFT4brcI7/rbmYTt+Q40rYi+hWUzRI2ktjxNcpoeWlCKVC5LtTWa+k94tqxFZ0cQ0taW29YUXsdnTcM8CqC2lUIl8GwmHRzaZvG0K27Ztwb2M/gxqfUJDgC4wBBAh/wAJJI9AVB7TZR3ApUdQcarGajYtY8WfEdYjoT6XLcXFNJVuZpcCWhwof20BBvbtULq3sjANDQipBte9uPYFZ4rG0zXqVKjwAXOLbgy3UQ3bYwAYWqlj2v1PFNxaDDXE/E47AcyePkoeAyqiNIqOgNHHc7n8SpdbFgvHdgNYyzPM7uPWF1EeYNaHC9FzsvVuc4tutWPr6ZLgA6wtzhU1GiCRcjrz817xlcveTuJtYnj0WalU2Ba0+TmfgVocG5y6nDy9FIZnbGGdvdVSdoa0yemx/d1h8AhseIkRHNaHVX/R0tHM3I9AN1NwGGLRqcSXHid4/JR8ZiBHHbU2+9nctmGw3WvodN6a/ClNECFlEXPAUXRIiIiIiIiIiIiIiIiIiIiIiIiLxUZIhQ++gFptNhIU9RcXS48OP5FWHR8+R2Q6H1/lV3SGHztzjUen8KLO28bk+lvz/wBRTF4IObLYMiTYyOUx6e6kNZ4LHZ14HA/3KMfO+xFrf3+fRXdARQqmzEUIVfRwpEOjcFlubRx91JpUHMeyodMHndsD4vSCtdao6m7wuDrXHDzWcwxT+7p03m5NrXa0jxb8yo87R1bmvFltaXPIAOv3y1qt+aUmspsqOmHzpLfsxBjiDNucFVtak7+GdVpSGio0cjeZtyVu3s5jH0qZAqvpaZp+JsNB3hpktmArnKuzeIdhH0/o6g4sIbd3A6TRInrK5nqcpzVXV/rXOwzcObgGtTSvppeprU86UA5/s5hH1KXeQS4OdAa0QGgSS47DY2jZTqWTNcQ4OkOvPncEdFvb2PxRpv1OeGNBc5pdaAJMMa6JiOCg5Fjyxz6R8bWEQHb6SBt++KuujHBr3N3dTyrbvXP9JNdlD22pr5KzxGVnTd4kcbqhxNMzoD7DcxueQ4q5x2c3002Xi5JkDpHNVhI0y4zM7H3mONlcOcSKH4VVCC2+y1Uoa2CR6ry9zOYJ3ho/tb1XnYnSAQsUw9xH5LUTt7LeG1UvCDVwAHEDj5n9FOXijS0gBe1zuJmMshNbbdi6DDQ9VGBS+/3loiIijqQiIiIiIiIiIiIiIiIiIiIiIiIiwQsovUVfUlp0Wg9Ykg29VuybCirXZTLoBkdYbcx6x7rOPoktDh9Er32OeHYwmCXBpDTwa0Dxe5LfLR1VzJiJBhOs3p9KpooIzi+r/tBuPbzX0luBpaBT7tpA2aQCPO/4r5x20wTaOJbDSA+SOIBEAx6RZd3j2vA79rgNAuDs4bkdDyVf2jysY6nTfT+Jjmubye0xqHqNuoC5qOdzXa668+1dRLhmkaXGmlleZJS0UGN5MHyaFGyPF1prNBOoOYGU9PgdTJGp2qOrrzbSpNV5ZAtBng4ngNmjaFK7P4kik8crfBU5jpyPurUOoK0r9+8+aozGSaaffvwpOFb/ADajeYHsbf7SvlfZLJO9xtZxb4KJ0GfpOuL+gmOoX0jDYl/f6vo6DY03tJiwguPN3JVFXF0MFRq1PhBc6o8n6TnwP0A8lDxMpbTLuFPwkIeCXC3PRb8dkWHrN06GsI2LQAR6CxXzrMcCaNZ1N24tPMcB1tdfS8mYdBeXF5f4p5AiwA4Bcb25qt79gETofJ6NI/5FSOisW/rBE41B8t7fC1dL4NnVmUajzGl/lc1UEgTt0Jv7KwwVABodETw5X49V5y7C7PI42/VW+LwmkE8NUjyd+wrvHNcYHX5/K57BzNGJa0/6O3moKIUXPrpEREXiIiIiIiIiIiIiIiIiIiIiIiIiIiIi9U3DUQWE/aUPKcP3GI79oLtxoEDfqeNrK/yDBd85lAOgugSRtYnZUeMp7sPAwYMXaeBG2yupnxRwCB+7fXvG/ouewrJpMScRGRTNfnQ6aHZdjhc0oYmk+i6QHCHsIIcJHI3Cj5Iypl9J7KjH4ikz/KewAv0x8L2TMjaRaOS5bAd014fWp1KxA8P8+oxwNvpCbdIV/is/oGjFKlWp1id3Vi5rRO4Ni4xzAXN9S4cF136mM61+9642v2xxjaj3OfVpy5xa1zGwxpJIaNTZMCB6K6yn/wAh93Tc1ziXHjp/KIWrMsXUrsNOrUc5h3E/nuFS/wCA0Pqu/wBRUlpdShUF7W5qtXQdn+2r3YnVUZXr0yC0NawO0uJEEBoFotHVX+Oyp2OqB2IY6hQY4ObSJZqqkXBfpJDWD6u+8wuVy9zqI003vDeWokfNdJQz7DaA2rQqudHiLaxAJ6CLLTIyRxtT73KVE+NjaX8B8qzxuc6T3dEAnYvPwM6k8T0HRcfnlBtTEhwOprGAA/WLiHOPlYe6l1aeVOPiweIPni6n4bLbj8bgyzTQwzmO4OdULgBx8PEqVgGRwS9ZISeQG/HVQukpJcRD1cIpXUk/AKj934XdIKsGgPpNafpNLR94XCpBWd0utlHGvaIBtMwRxCuH9IwuFCD4fyuei6JxEZqC2vb37gKOVhbK4GoxtNlrVM5uVxadl0THZmhw3v4oiIsVkiIiIiIiIiIiIiIiIiIiIiIiIiIiHRehW+T/AOY3y/2lVDURTsf+bewe6rejvwd/6KFAiKAFYBZXlEXqFZWERFkFlZCIi8RERF6vVXcrwiLbN/Vd2n1WmD+k3sHoiIi1LaiIiIiIiIiIiIv/2Q==</t>
         </is>
       </c>
     </row>
@@ -1774,25 +1774,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abdul Rahman</t>
+          <t>Rahmanullah Gurbaz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023_215</t>
+          <t>2023_216</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1807,76 +1807,76 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>37</v>
+      </c>
+      <c r="X11" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD11" t="n">
         <v>40</v>
       </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>WK Keeper - Batter</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMWFhUXExkYFxcWFRkYGhgVFRgXFxUWFxcYHSggHRolHRUYITIhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0rLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUBAwYCB//EAEAQAAIBAgMEBgkCBAQHAQAAAAABAgMRBBIhBTFBURMiYXGBkQYyQlJyobHB8CPRFGKy8TOCkuEVJCVDg6LSB//EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAA0EQACAQIEAwUHBAIDAAAAAAAAAQIDEQQSITFBUZEFE2FxsVKBocHR4fAUIjJCIzMGgvH/2gAMAwEAAhEDEQA/AKYAGpsAAAAAAAAAAAAADKQBgEerjacXaU4p+f0PdLEwkrxnF9zQuZNoDQBgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA0YvFKnHtk7Lu4tfJeLDMmjGbSjDRdZ8eSIVXGzlLLmtdPcrLRXNdHZk3aai3p9BjdnVYr1JX7iPMuZKoSXAr62Dk9dHd8zXCi07cfz9iVT2RXktIs11NlV46uMkMy5ju5cj3/AB0t13GS7eRdYLaUZ2TaT58LnM1731TvZLyNcKmV9lrPuMkbO6BB2Ti+khra6dvDhcmm5qZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI1ehnq0o8737EnfTvJJvwFDNUi1v18rEdX+LJKSvNI6DA4fXLHRF5DB27SFsukXEnJWuU4RT1Z1akneyKnGYdLcku5HP7XpXR1uLpuSvyZz21cO95iUTanI4XG0Fm1RSY6jZnT7R3lJjKd9SemypiFd6Gz0afWkv5fudAUWwElOS/lL4sxKDAAMmAAAAAAAAAAAAAAAAAAAAAAAAAAAAW/o3NdI01vX9ynR2OG2fCPRVVFLNdJp6Pq3WnavoaVHpYmowcndcCplHGJZlUpUk9VmduO4k7F23iXPJUqUq0b2zQauu9WRYT2DGtKUms2aOWzb0T4xfsvtRHwWxIYNXtreTWt23Pe5N6sr3tG6LqjeVjb6U+kH8Mml7UY204nKVsNVrZp4jF9ErXyxjJ2Vm7u2m5GfSyv0lWKbvlsXey6UMThZ0nbrP9RNt3ad1L+xiEtdTepTsjhsThkv8LEKqt/f4Glx5nQ4/YOR3uuqrRSXDvKrGxXDkbZrshcHHVnnZFCydR7vVT7eJaJnMxkoyj4F9gE+jjft+rJacruxXqUXGCmSAASlcAAAAAAAAAAAAAAAAAAAAAAAAAAAHU7Om5UqVk2o77cJJtO/gzli12DtNUZNSvlfLg+ZpUjdaE9CahJ34qx2mGq8L8CJtBRco9JLLFvi9+ttL8TVRq2aNG2K1OtljljNwkmm1dJreymnfc6Eb7o4r0njBVWoTTa3K+rJPo3iHkbXB6j0j2bDScYKMr6qNr+HZ3HvY2KpRg4JZb8/eMvbQ3u812Ssfiro5TG1PWLHF1es+SKmFJ1KkY+9NLzdjaKsV68rkf8AhnOoraK6XlxOjhGySRqoYSNNtLXXezeWKcbalStVz2S2QABIQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHTYatemmuMd/atGR/+GuXrVGob8sbR83xImx8Rvpvc9U+T437C6wii9G09NxSqJxkdPD1LrxRzm0sFh3dRlNvtk/3K/ZmGUZSzttNaJu9uR1+L2VSjJzaW7n9jl8ZOOZ2drXF9SacrrUqMZV61k7nrZKvWi+Tv47o/NorcRXV27mMFiXni93WRNaxz5SudQzB4qVEt7Mwkmk1xVyxZ2uVbrY9AAwZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJOzZWqR7/qmaNrOtCbnTu1fy46HvCevH4l9S8q0GnmSumtdCvVeWSZbw8FKL8Dicb6RVmnGSafj8yir4qcnxO7xGxnVlJuNtdDVW9HFFbtTRVUlsTSw8pcThIQb1ZLoYWU2uC4s6GvslQV5aI9U6UFuaS77HQ7PoLEz/c7JeOr+xQ7Qm8LTVk23xs7L78iPTo/nPtJeGfVXZp5aIhY3bVKmmoPPPckt1+be63cVWD2tUjvea7u0+3kX+0alLLGnB6rlwOZgYVG3OS0fPdnUAg4XaUJ9j5MmpnLudIyAAYAAAAAAAAAAAAAAAAAAAAAAAABgye6UW9FfX81MoN2KjamNkujjTvec0k1xakkl5n0jCO8b9px1fCxeXi6c4y07HrbwujtcHFKnvVnK9+Ft5WxcpKfdyVsuh0sLQjCkqsXdTV+mjR6dN8uJC2jiKdPf1pcIr6vkiNtbbV240ty0c//AJZy2JlJvV/naWMB2XVxf7lpHn9Fx89jGLx9DBaVdZ+wt/8As/6rw3aNmNxmaTk3d8Lbo9yIGKpRmrSUH9TE4nlQZ6nD9n4fDwcIR33b3f5yVjzGM7UxGMknUlZLaK0ivJfN3ZVVdlpPq38rnmOz376/0su4w5m6eFTi5bmjm4nsZ2cqMn5P5Nm9PtVwspxUvO662aKJ4CpHdaX52ijtCcHZrXla39y3o0rJPnwLCNBZoU+acpPlGOmVd7fyORhMPVrVcn9eL5ffwOxWxmAeGdaF4zWmS97+Ke9vR6W1K/D16zWaVO0e3T5byZCae5m7G8ikqNxd1w18OJ1sR2dGEf2t3OPQx0qj/clYuAacPWUlc3HKaa0Z007gAGAAAAAAAAAAAAAAAADBlLm7Li+S4k3CpWvFO1tZPf3LkSUqcqs8kFd+nn+eRpWqQpQzzenxfkaaeH9527N7JjtGLjHTnz7rmqMOO48tN6I9Fhez6dKzesuf0PPYnHzraLRcvqaoQtK99+8mLETydFm6l72W/uvyNNOn+c2blTM4ns2hiKqqzWq3S2fK/kWML29isLh5Yem1bdNq7i+Ljw+nA0ThpZLREerRd/AsFC+iV293eWNPBuLjGEFOq+eqi78FudubLVStToxSdkuit6JI5kFOrJyd29293r8XdnMywtluZHnTZ1dONWlUdOajKy1hJLVRst9t+iNOLwMYWklmUlmUbpvL2208DFPEwm7Jp6J6eP2JZwlCOZp72OYS4rfdfX/f5G2vFuVOl77zP4Y8PNom47CRks9Oytra9k1+/YeMD18VN29ShTilycnJv6G85aW8TEZXWbkn9F8Wa9orLNKPrStGHZLfKXdFa99iRgKazTnwVqUe6G9/6myNiZLppSWvRwsvib+82l/42WMKXRwUPdheT7XvK1KEYyeVWu2zappTS4/j9LEPFlbRpp1Mr3O680WOI3X/ADUr5SyzjLlJfUkq20N6N7OxDoVHTllfsyyv4Xufn9S4InpLhbVtN1Wnp8SWnzsbMFUzU4y5xXnxPN4unkqNHcwlTvKSf5+XJAAKpaAAAAAAAAAAAAABmEbtLtMpX0DdtT0qbnNw9lRV+96lts+h0lSFJX1klor2XF27CJWqZIya9ac0l5JX+p0/o9hlSoxqypRlGbcnUk/VhSk7xUPabaXi49h6aMVhqLUVq2+v2sealOeKqJ1Hovglw/OZB2lstUc0ZyvUb6kV7ML6SqO29rdFd5BhS9leL+56x+OdScqj9aUr9y4JdyPCk0rcXv7uRapxko/vepSqSi5PIrLge1FX09WP1PB6Ut67vN6/Sx5JCIn7MileT+Fbt8r6+CXzNalUX6kG4q7Sadnor2VtbWMbMms/LeWEdjzctGsr3Nvsv56bjl4mo1Vmn7KtfVePhy3udCMW8KlT3u72evg/XzIGDi5zcpuUrPV3bevNja90qUoyj1afvX4t2fJ67izxLhShlg31lxXFabznMW0u03wqdSo6trLRJeCvrbhqbYiUadKNFPM9XJ+Ltp0W5BxtS7aSspq6XKS0l3pqz8CP6P4xR6V29mHneUbeFmaMXaLvF21u1wfauTIODr2qzjuUpJrucJv63LFWdpR8zanTUqbXh6WLvZcL2b41HJ/5W0l4ycpEitVvCcuM62Rd0d/9LIuAqZKMZv2aeb6tfNi7TpU3vjDNL46v4/MzbKlEh/nNs9452hBe9Nvwiv3ZV45/Usdov9WEPcpa98t5f14YONGFanhM8eljB9NWlmvJXvkirW8SKtUyrRN3dtCxhqebilo3r+cin9IsNJ0YVVFtU3HM0nZJ2Wr4a28yBhYZY24Xdu5ttfJn0nacqKoVMNOo+ilhc1O2ZLpJNyjmjFttp29ZvcfOcO+pH4V8tDjY2bm87Vr/AJ15nSwNONNOCle2/h9uWxsABQL4AAAAAAAAAAAAN+DXXXi/JM0G7CytLwf0JaH+2PmvUir/AOqXk/Q90abq1acFwb87O2i70dlhsElTySqZoqTyxcnlve3qR63rX3tbjk9g43oq05Wu+jll4a3it/Zx8CXV2lUmrZssb3yx6q+XcemqQnUlaLskecjKFON5asm46hTpuSytybum3ZRV3oor78Cuit7ZmOv55mcQrQtxei8SxCOVWbuVJyzPkaaMrpdrb83p8kbJS4GJJJ2XBW8jCi7m5q9zNF62JHSNO93c0KGp5xFVxkuW41smF4HutiraX+ZTYzG27eziecdiNWivlXUurLR8HzNJystC1Ro8WR8dWbjdarn+5Ho6yg+Kf2a+78zdWouLvHy5mnOsyfqu+t93aUJ3b/d+anTha1kdO4LJSg/VyqU/hgk/rYbEg6knWlpnlmXw7oI1V05qFNf9xKLfKlFJzfjoiZjcQqVGclpplj9Fb84F2Vr3eyRzdbZVvJ/P6+hW0JdLXqS4OeVdyJ06reKVOLapwim1wbjub7f3Ho9hejpdJLk3r9TOyYLr1ZPWctOdiHRQUptLi79SVKVSco0k5NLKklfXbgWk3oyldPLddr+paVcQo6Jac3/cr8TK7vzORj8dQrJQpu7T9x28D2JjcJCVatHLGy0ur78kagAc0tAAAAAAAAAAAAA24d9ZeXmaj1Deu82hJxkmjWcc0WuafobaVLLUuvV1T7Lrj2X1ub1oaK61zXcXxa+6ejRup0ZzlLJFyUY5pNcI82ewTS14Hk2nJG+c1Ejxm5Si33/sX21fQjEKManSxfq56adpQjJpOSb0dr9nibpbJpxxWKjl/To06jSu/Zisqv8AE0RRxVKV8rv5dPmbywlSNr6X+7+RRUlvZJjQm4uajLLH1pWdl3vgditlKlVjFJWdHDJ6e06sFJ97yPzMYnaEqOHScL0a1Os3JRu+lqTllu+CSt+Ir/rszShG9/H81JP0Nr55Wt4HNVNj4iMHN0ZqKWZtq1lvuVu18NOCjni454ZoN8Y8zrtq7crywNFuS/VdSE7RWsYvKkuRo/8A0ajfD0JRX+DLoZeNOMvsZp4mpnjGaWra0vw+5l4allbg3ok9bcfscPX2fVzxpunLpJJWhld3fVNLtRWYjC30a42fNNbz6/trAf8AN7Orx96NKduajnh8nL5HzDakLVqvLpZ/1MzRr9+lpw+N2vkTVKXdcePyTKeMJR0aujM4xlvSZaEGvSTJXG3iawncsNnL2lbSnGnHsb1f28jGMXTVYQX+FS1k+cuRpwF8tlq0zdUUaaWeajyit/gl1pPyPOY7tWs5ypQWVJ+9nt+yf+N4Tu44ms8zavbaKv0b9/Ql4/EuaUE0o8VdrRcDTG+5OXYkvuyDPEVmn0WHk/5qkVFd9t5AxOBxUl15ZVyj1V8t5x5udR5pu78Wd1YrC4aOSjH3RVl1/wDSzxG0KcNJTimubzvyVzzhNoRrerfTi1bfwOaqbNa7y19HVaMlxUtfIlpwSkmcjGdpVKtOUHFJfHfmXAALRxAAAAAAAAAAAAAZjv8AEweqcrNPkwzK1epsqSXOz5PS5aYHAVv4d4qhdpQqKtDc1CLzLR74u3D3SjxEHe+njyLKeNrQ2dUdFuEoV1GTg2m6deNnF8bZoR8y7hO1a9aapTt5u+vmWe1f+P4TDUXiaLlq1pdW15aX+LOqjClPaP8AGVpS6GtRpOllzdZzSSi8vBODdt2qJ+0MLL/qFRLR1FG/c4Nrxzf+pzmDrwjhsDTc1enJud/ZWZSXgry+Zb1duw6WunKTpTV4pbnJ1FNu3O11fsOi6NTSye1vdGSt1SueXlXpu92tX6xfpsdLiamaUJcsTKPhRVWZR4CvUjQrYSqlKH8LKrB+6ms0Vfv8mQo+kqV+o3+tWmtUtKsZRivDMzVifShvC/w/RrPkUJVL6umuG6/Zv5msMLVSy5dLr3b6mZYmk5XzcH79tPf8jZCi54fAw96rVXnUVy29LMPRnhMX0VXpJqoqs43TyNNQaVlorRe/kzmsFtxwWHXRp9BKbWr6zm768rfsRNn7SlTdfRSVanKEk/53e67VqWJYeo55lwba21vNv01IYYinGOV8Uk3ytG3rc73ZFZVMVUw8n6scPXh3xhFS+x8r2qv1avxz/qZb0/SicMbHFZFdU1TcE2k4qOXf5PwKfFPNKUucm/N3M4XDypyd9rLrszbE14zikub6cCLF2I+InZMkyiRq/wAizN6EVPcm+ieF6ec1JuKjZu2930sr7t287ilgKNJdSnFN73a8n3yerOM9Cav61Rfyp+TZ3VTVHjcdHLiJHtMJWnUw0It6JWS4aMrMSyk2hIusXojncfUKTLkVoUOM3k7D0VFXW+UY38EV+KeparcvhX0LVFalDEvUGTBknKaAABkAAAAAAAAAAAA6XZdGMoQUop9Xik+0p/SqtkrUqFK0ITtKpGKSz2el+7KWeAxUIqN5xVoxWrXIpdsSz42M1rBQXWWqvrdXJOykv1V5bWfqkb9pSawlo/DyZLcT0po1OpF8YnnpFzieu72n7S6o8X3M/ZfRm+Mrh0zEKsV7UfMTrx96PmO9p+0uqMd1P2X0YhH8/PzUxJWPHTLnHzMTqrT1fMx3tP2l1Rnuaj/q+j+hCxrs7iNRNI945J7rESkmlayNHVgn/JdUWY0ZOP8AF9Ge3PkRcQnI31E9bX/3NE4y10fkRTqw5rqieFKS4PoTPRV5cTbg4tfR/ud5GpofOdmuUKsJNOyevc9DtqOPp8Zx80eY7Tj/AJsy4rzPTdmT/wANpaWfHxPW0Hocxjpas6HH4yDWk4v/ADI5rFu7OdlfI6alG26KivvLd/ZfQq6lGV/VfkWsizSRz8Q7swACYrgAAAAAAAAAAAAAAAyAYlwMLZ/nEBgGGTGGEAYBlhAGeJG9zBgAwzCBhAG3EHpGGAI7szwMoxIAIxwMoMAcQAAZAAAAAAB//9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXGBgYGBcYFxgWGBgaGBcXFxUaFRoaHSggHRolHRgYITEhJSkrLi4uGB8zODMsNygtLisBCgoKDg0OGxAQGzAmICUwLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABFEAABAwICBggDBQYEBQUAAAABAAIRAyEEMQUSQVFhgQYTIjJxkaGxB8HwQmKC0eEUIzNScrJzksLxNEOz0uIWJCVTY//EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAA3EQABAgQDBQYFAwQDAAAAAAABAAIDESExQVHwBBJhcYEykaGxwdEFIjNC4ROC8RRSssIVkqL/2gAMAwEAAhEDEQA/AO4oiIiIiIiIiIiIiIiIiIiIiIiIixPrtGbmiM5ICIsqKG3SVEmBVpk7g4T7rPSrsd3XNd4EH2RFlRERERERERERERERERERERERERERERERERERERERERERERFT9JtMswlA1XZyGtAiS47ptYSSTkAURW5K5p04+KtPCl1HDNFWsM3OB6th+9BBPgD5Ln/Sjpg6u0vZWcxzzdraz4bTl4LHMsD2dUl15IN720Kvjpl0ElxuSZm4JJ4qF0Bmtk0509x+IeTUrEfdaNVrYtAgyDNs54rW6+MqHtOcdY53Mb73XqpWl0hwAOc5HyB238fBeTUBEN2HPMW7xEjf8kUpTxMGTMnvEnWnl+qs8Fpvqu5WqN40y5ngSNeA4b7qkq0ybxAJOrO4Qs9PCkkNDSHQd2sdthuhFBC6boD4xYmkxrKjBir95z2sq6u4Bohx8l1bol01w2Pb+6LmVAJNN4AdG0tgkOA2wbSJhflsUAD2oHOCfDNWGhtKPwtdlfD1IqMOZ7UjIg2u0iVKSX67RaB0K+JNLFh9OqAzEMAOo0yKoJiaUwSZ2cQt/RcoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIuZfFYOrVcLh3OLKJdUc8tBJ7DWy62yajW/jXTVyv4xaSdhqTXMcW1i57WG921GBtTxgeRDSikLiunNUVKjGElrSWtMRIaYBjZIGSqBTMBWGFwzqpaxonmfMrbtFdExqjXz3DIfqqnxA260w4Dollouq60yQLZ+g4KQLiIAZOTTOzadv1wXTqHQ2kRebqt0j0BEzTJnkPJcCO0rs7K4WWhPOqLi3kcjYFZaOu0ZuaDckQJudu0hbJU6F1G5zw4ePovT+izxTdrOgNE5TYHb5Lr9Vtlz/TPktNNGT3wecE8s1ldhalOCRAORBz8FaYjQzxrZHqyWujha3lCrH6zC5okDdePAg5GNysDgVS5hapNHEPpuZVaS1zHNLXNzBmWxGVwv090C6SDH4RlaRrjs1ANjxnyOY4FfllucawAzibWOXmfqV1X4DaUayviKTiQKmoGyDBcC+xcLAxMA5wVK5K7qiIpXCIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLhfx+xutiaFHZTpuefF5AEf5V3Rfnj47O/wDkI/8AyZlulygqW3VJ0PAk7zZb1gxBWldDaNi+0ZBblQrMy1hPisESryvZgUhgK/oPACzANKg4SjrKaaO5RVTRHkBVGk6BN2wcwQciCDYxsOXNWzaO9e3U2gZhJFJgLkmkNHYmgw2JZUparjGtYsABkWnITntIlUGNf2WkxrQAbyTAF+a69iKVPutqEN2sBaW+FxIHCfBafpzolR7VSnrNtOoO6I3SJA4K5sQTqqIkEkfLrGi0EXLpsSfnP5Lu3wK0fUp4brC0GniC5xMCQWdlp8CJt+a4mKInft4/V1+h/gnXLtFsB+w+o3lrkj3WkLzit+REXS4RERERERERERERERERERERERERERERERERcB+P1CMdSP8ANQ/teV3uo4AEkwBcncBmuLfGvEUcV+yPovDi19Sk4RBHWamqe0ASOyeF1BIC6a0mwWomm9mHpU6ZDS5oLieIk/ksQ6P4hwOo5w8TbhcfkVs1OhA8LDwAUH9hxDi+HhpHdyM8O1YDksbXysvWfBBEyqKnTxlFwGu4EZQ8+o2rf9AaXqupS8S8WO9ag/DVDTLa1SamsNQBrDbWMkloBECBneMlsWhK5ZAzO/ej3pChUoCOan9JMXiNSKViduZAjy/3Wh18JjXmC8/iqQujaRriowhtjkPFajicE/qiadQisSbQwCIMdpwdJmN24QjHlQ+FO8+iw4bopULdapUDj/MHF3IXj6yU7Qoexxovu0dwk3jaOS94XCYtrGuMEkwRAaQABfWZE3mxbzV07Dy0ONnBHuJoVMOGBUUXJ9N4YUq9Ros3WMcNa/zXevgrRLdHNn7T3uHgXGDO3Jcb6XYV37SYBJe0EAb7ggcwu8/D99GnhKOGpul9Om3W7Lm6xzcRIvclaWOBAXnxmGZIFJra0RFYs6IiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiq+klIuwtdoME0335FcWxmGDaVBokgPYZMk9xxBk8Ysu9VGggg5EQea47pzCFjqlOOzTLr8Wukeg9VnjCoK37G75XN6qHgqfaVu4QMh4KvweYVk8CFmC3lUuLptnISsujqUO5L3i6rA2S7VA7zvkI38FK0LiqHah0nyjxBukqrrekF7fTvZe/2RpEwmOxeH1wOtawuIAEzJjeMuakUqxmDfcUlJc7017o07bfT8lGxbFaU2BRcWBBUkUXE6rXhRDsZh3RMCpORhsCSJ2zHmtt6E6PAx2IrAnuQQTtmOVgPNas5pIqFrZcA1osTEkuJ8g1dC6EURq1an2nOaDyY2fdWQxNwVUc7sJxzp5ey2lERbF5KIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLQuk2g6hrucym57at+yJ7UQQdwtMlb6i5cwOEirIUQwzMLieHBY4scIIJBG4gwVNrV9WMtWOc7Fl6UYXqsZVGxx1x4Ov7yoXU64g/VlgIk4heu1280FV2JxQvq3lZadSf4gERIDtm4gKvfhazKhBLAJsWgk3y3D1WwUMMdUfvapsDBpCNaDObsp2rtoUu4z7lFpVyWhxbrNzysDlabeSscPpNkgFpBWGrg65ux7gLTrwPGA07o2rBhdH1tcl7mkDZqxfeDNkdRJUWydZ2ZGSrcY8kqSOyFBxDtq5KgKbovRdYiW039sy0xLHCImdmW1b/AKFwAoUWs23LjvcblZtH4cU6TGD7LWjyClLYyGG1Xlxo7olMEREVioREREREREREREREREREREREREREREREREREUbGY2nSGtVqMpje5waPVEXOviO6MW3d1TZ/zvVPhan+6sem+NpVsS11Koyo3qmjWa4OE6z5EjateJNM37pyKwxO2V68H6TeSs6+GJyzXl9XFgANa0j1Xmjjezc+ean4Wq0iSZUNVhK+YNmJcBruAG4XVgGwLqL+0AA+nnksGJ0haymS5ms2Jq7FADtZ4GyRPmsfWueYHMqTqhmrwIJ87yuDRdSXXQvq16p020c0ScZQj+sLP0f6UYTG637LWbV1O9EgjkQJHFekQV4YIV0iIoUoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKn6Tadp4Kg6tUvsYza92wD5nYFIBJkFBIAmVD6YdKKeBpyRr1Xz1dOc4+07c0b1+bemmJqV63X1Xa7394n0A3DgrvSOmauJrurVX6z3cgBsa0bAFWabohzMrfX5L1f6QMgO/u9sAsI2gujDJWfQAfuDH/wBjv7WLc3MDhB8Fq/RQjqmwAJnhk4j2C2vDtXzMQzcSvqobZQwOCqMVhXsPYPJQRjsSw2YT+Ekei2bEU+C+UQAZlA4qC0KkoYjFP/5ZA3kEe6ssNgHu755BXJdrQCVnoUwkygACwUKAYLBRMaQZCsarVW41tiuDVdtzXD61R0kcSPIrcugukKmEcytTPabcjY4E9pp4FV/SbRrOuOrZziCY2y0TbzU/BUdVoC+j+HD9ZxcRSUqr5nbx+jJgNZz7l+jdAaZp4ui2tTNjZzdrHbWu4hWa4b8PNPnC4sMcf3VWGvGwE2Y7zt4FdyWfaoH6L5C2C7gRf1GTx15oiIs6uREREREREREREREREREWqdJem+Hwssaeuq/yNIhp++7Z4ZqWtLjIBQSBUra1rGnenGEw0gv61/8AJThx/EZgea5fprpTi8WSH1Cxhyps7LeZzdzVIKEZLbD2M3cfHVFndtAs3X5W2aa+JmLqSKLWUWbDGu/mTb0WoYjH1a8OrVX1XS673F0b4E25BY8W4NaScrrHTZFNg+1GseBd2iPVb9lgtbEkBh6y7781jjxC5lTjr05KPiKEdoLLSh41TcHP63qQ2/17rM3DMb2rmMyYa0eM281v3JWssZiUrdeeiDY6ymc2Pt/S4BwPnK3Gg1aa39xiaVc/wqoFN52C8td4XzXQmYey+K2yG1kZwaaTpKq+12SI50Fu+CDKoIIPisQbIWI4IHNTKbIWTUWVaFgw2DDVNa0ALGAvcKVCwvUTEUpVmyjKqukmILKTm0odWIhokdmbFztwAv5KJKRMmQEyud4iKmJrPF2sdqN3S0AE+YUhjV56gYekAIqOF3wYAJz7cQV4o6SYQNdr6Otlrgah8HgWPiAvrvh0WAIIa08zIynjXnTLivlfimz7Q2Of1BI5TBMsKAnCsr8FkpNEkk3mAOa2vQPxExdHsvIrsBIh9niDFnDw2grV24Z2ez33XyKxYWmdeq0D7bjwvD/9Sv2qG1wbvCldZ9yy7O8tJkV3XQHTTC4qA1/V1D/y6kNM/dOTuRWyr82OpK+0J0wxeGADamvT/kqdocj3hyPJeXE2IjseOrrczaR92vwu6otP6P8AT/DYiGVP3NQ2hx7BP3X/AJwtwWNzS0yK0gg2RERcqUREREWDFYhlNhfUcGtaJJJgBZ1yz4qY7rKrKANqY1iNmsYmeIBHqrYMIxX7qrixBDbNVvS3p1VxLjToF1KjvBLXv4uIuGn+Xz3LVmUCpGCwpJM24qW6iAYzXsQ4LWCQGtTnW2S86JFLjOevHoZXUFuHOS+lin1aNoAvvWB7ZExEZ/orp6077rAYGyprlruwxONlU4/Bl4kCRa07iD6r1WDT9ipJPeLmi+4Qp8b18ibQoEhMg364czas13UyBHmMeQvSSr2NImGtaBt7/kDAnkVGfgOsk1C5+4OMgAbm930Vu5k22D1WRjbceKFu9evPwzFU3t2uuOVclG0drtp6jmdYwCHMMTH3QbERsWx6D0ywQzWlosJnWb/UDeOKqdTaM7r5Xwof3mj8uI3Lzdo+Gw4lWUPmeInc+S9fZ/jMRjRDjDfaP+zRwMrDI40FFvzIcARcHaLr0aQWj4GpiKR/d1J+6/tA/qrrD6ccYFWmR95naHMd4LwIjHQ3brhXVuC+jZs5iQxEgneae/kQbEYhXhphHVGtEkgAbTkqyvpRos0hzt27xVbiKpfcmeGwfW9cLqDsrohyClY7TjndmlLW7XbT/Tu8VVzUcNWmyZze4Z+efNZBVZ9qY3AZ+JOzgsjsfAs1wOyYXsbJ8OJ+eL3e+PMd+S8vb/jDIE4OyS4vv3TEuRtPs5qG3RYaJqGXZ9o9nhbKVC0rQZU7Be0g2hrJ9TZSMRVc65NzGd/aFFcwiwMeED9V7QbISw8M+4ZTqvlzELiXEzPOuVampxMqKFRwPUgGnUqtGUF0tNtgiAvlOnJJyBMkwBJy2ZCBHJSuqGZudpN/dfDewiEDRSWvOuQsQpLjXXtTPIrGQvnVk+O6FM6iGyY4cVmdTgTaVIadfxbPKwXJfrRvlndVjqS2rol00q4UinVJqUNxJLmD7hOz7vlCgYPA603vuWHFYDVGVwqYkNrxI69vHNWMilpmPx+fDJdywWMZWY2pTcHMcJBH1mpK4T0b01WwlZpY46pcBUYbtcJE22OjIruVGoHNDgZBAIPA3C8qNBMI8MF6EOKH81kREVKtULSuNbQpPquyaCY3nYOZgLg2kcc6piS55kuILvGp1g8l0f4naT7mHB++72aPc+S5JjT/AO5PGlS960r2Ngh7rN/PyC8vbIm8/cy81s+EIDXuIkudI4ACF9rd5s7o9FE0fjespEbQSD/q/wC78SlC7hF7tv6FaHCWtAclUPbWZqKVyXyqOzM3so7m7dm1T8S0wTwCh8JsuwZnXWwwwVdgPWnI1OOKjvZfLw8l4LNm3epAzPp6LyWeEqajR9+/ikhh6e18uCxtZ42WUDbdfQzbC9Bu2DsUSGpd1zzXRnqffQC1kjjmstMgWkQvjQeN16a05XUTGes7YWQg5ayvjcr0Y9LZLI3tZ5rGL2k2CzCzQZvHzVEfZmR27r+hyOGFjitmw/EIuxP34Zobgyk4YzrcWacOVCIA8h81jJ1jnAXotnM+luSPYRI2T81j2XYGwnb8QzOF6cai+QXq/E/jj9pZ+lBBaD2pymSftobZmczagmD7pMbtcbZQ0LFUM31jadyGoTyHyXku2x9SvR1h3W+5fPmep99z2bLC9u26wup7IKkFu8LwRwuuhw1TgcFBnqedcPuwUV1I7I2KThcMBnAF/dfW+tpX1zibA2UyOtHpwQka8Bh+7isdV2s+Js3LiVlqUzAP1mmGYSSb2Kkht5iy4oMPLuwvdSZ5+ffjY0UnCGARzle8Q2WvaLgj3E/IKMXEFwyED1OxSwZki36CFwc/41yXfDPvxEv5E1U1qI1wc5AM+It9cF0/oFj+sw2oT2qZj8Ju35jkuSUa01i45SGN3AAfXotv6C6Q6rFBpPZqdg+P2fW3NTtcCcCWIrroq9njSj8DTXVdTREXgr21w/pVpDrsTVfMguIHg3sj0C1fG2rUT/M0j/K//wA1PrvtPFQtJt7NN38taOT2/m0L6QN3WgDCS8Hem4k4z8QfWS96OeGPq7gWu4QTqu5XB5K7ouyGy3hnZa9SI64jY9jmnnJHsrPR2JkAk3iD4gwfZcvFVY22sadbFX2NaIyEQq+mDly9FY4+pDInMKspFROYn+eV6c1EpEiXSg5ilZWkvrhcHkpWi6NN9Vjar9VhPaIEkWPzgc1ie24IC2bRmCo029ut1NWpSp1GVC2Q0OJ1gzjqgCZm5hcRHhracqfwc5+ishtLnTJ7599SKns8lUY/Q7m1CKYc9hdDSMzOVpkXm5jJedJaKFEDWqNc8x2GgmPF30N0ra8LVY5jnNqvqilqh1arMgONxSacrSZdOQsbRpVRxcSSTJMybnmVVBfEeZE0F7zPhTwK7ishsEwBM2tIeku8TldY2tysvuraIuvo8V6aOImy2fNP+b+yyfLLpwtLz9F9pUjOWSz1jGzaF7oMFrhYsXExIhV9PA2x713PiO8XwNrL5q7xmUFxqxdAPO6+OG0G66AOp39lBLZfxbEWvkvlSnuGxeC0clmB2T7rwRsnb9eygHVbaspIrYf+b4Y2z4rEQPqEayYyn6CytbJ2qbhKQkFwtME8SeyOE/LiqI8cQm1vrhY5YlWQ4Tojg1gvanLI4YZCagdQRJkcl8/ZjED8lc41rC5rQxtsyLA8OO2+++5ZtJ6F6pjXSO0MxvufoLMNtYCxr3Sc6wIHofzWytOzPkSKgcxxN81QUaUbNv5qXh2g+GxWNbR41AWkkECTbgJGzOxCiUqD2utBA5K+HtAiA4d/rx81W6EWmUvKtOEja/EKt0rbrD9y3jeFk0jii2m4nYLc/wDceqdIHQJ3mk3x7Yn3KpNJ4qabr51CB4A/XktEIbzuSriSDef49pjEYqJSqavV8Xj2Kv2VyyprDNrpHiDK1XrNarRbvf8AKPmr6rU7Z8VqNSdYLK8ESOrrq3/rSlvXxcv64L4vO/42HmVu/wCRiZBQagkFQ8SNajVG0Br/APIQfkrfSmCNGpUpHNjoPlI91W4fvEbCCDzELaPmAlj7LNVpM8PRVeJqEajxwP15FS2YoNqgbKhaR4yAfl6qFhBrUyw5tJYeRj3HqsOIJ1GHbTePQ3VD3fLPr7+C1MEnS1w9FubcWHMANiN6z0wDeVSUhJurfB3NhskyQBzJshz14rgCVNeHPO3JSSzyWxYPSdB1AU67CX0xFMgAhwnstdNhE57tqi4TRzmOBeGQJJa6SDBgg7Jk2G1SepbrBsgd4TqyJFhYEkyJI4lZokRj6XliCfRXw2OZW3AgeveOKiY3FgURh6cQXa1RwEBztgYDfUbxuYlVTmHjaPZbQ0tP26hB2tYBIMaxs3iYAmbb1Ddgg8h0OeSwEuvBdDYOYMQHgbO7uKlkYN7Ql33xvL8I6Fvdkz9srHn3qhg53+isjGnO9x8lYYllEtimwzJJcSe7aBE8c+HFYm0hut+i0Agi3gO6+azmf93WZvadkptI33R1KbxcCyytpWy8F9ZSgKNW/OSmep4ZW68lgHaExBGxY9WJN7/XzXpsB/BZalMHd6p08PDvSZzrnPG07KG9sWuvkTaNyzFkjjfcvmpx3LrX5uuKEcOYtK1r4rw3PI7clc4OTSgU3Frg64iDeBImdgyCrAzirTR1PWGprwQT9mTFp1NxtxWDb2ThTAtLO1fWq27A5ojfMRznjQgjdmbDI1Vdg9HvqOLWtJdumN+/wKx0yRf6Mz+Su8RhXNOvTc4m5cdpJvJ1Y2zPJRKVCSBG4ec3PnPmp/qjEk4H5ZifC8wZ53nTDNVRIIhkNbetcDWhEpES4qRo9hLSCbNFgALl2U8LT4wqnFtIMiQNqt6upSa4EOBAkEEt1pNtWLRkDKoRpAOkTlZc7Md6I57ez3YAT8lo2qHutY115WocZis5kXmemCqekOLPVsi7i9oaOIIcOVj5Khxr41WTIbt3naeasekeJ1GtdEkVQB+JrlSYipLvBenClM9FgcDIDnqS96HOvjG7mMLvIfqFeh1yd3ucvmeSo+iYnr634B+K59IV7UsANp7R+Xou4R3m72ZKqjiT93IAJrIvPn5IrZKneV50u/43E/1j+xq1uh3wiLPA+mzk3yV8X6j+Z81T4Pv1v8Sp/cseNyqeKIq3dk9fVaG3HRXNHNbJ0f8A4o/pd/aURcR+yeXsu9nv191a1e+78PuFd6Pyp/j9wiLHG+mNYFXwvqHWIWTC/wAFn+Ez2WGp9j+kf2MXxFQ256rQbjoqWnlyWU93l8kRem6/VecOx+1ZTs8Pkvo/L5oirw6equ+/r/qq2rn5KU/LkURdG/X0XA7PQeaxu7w8fmvjF9RMOnqu/u6/6lfWZD63qRo3+JS/qHuiKInYfyPkqR2mdPMKQcqP4/8AqBbDU7h8PmiLyduuP3f5uW/ZOy7p/i1U2mf4D/Ef3Lnzu+vqL0PhP0jz9li2/tDkfVVPSz+Gz/Fp+z1WVc3c/ZEWyDjyHkVET38wpnRH/hKv+P8A6WK7rd/y+SIrtn+k3kscb6ruZ9EREVyzr//Z</t>
         </is>
       </c>
     </row>
@@ -1901,124 +1901,124 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fazalhaq Farooqi</t>
+          <t>Rahmat Shah</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023_216</t>
+          <t>2023_214</t>
         </is>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
         <v>6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>45</v>
+      </c>
+      <c r="X12" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>75</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>75</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>45</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>45</v>
-      </c>
-      <c r="R12" t="n">
-        <v>42</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>6</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>20</v>
-      </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFRYYGBgYGhgcGBgYHBgaGhgYHBoaHB4aGhocIS4lHCErHxwcJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHzYsJSw0MTQxNDQ0NDQ2NDc1NDQ0NDQ0NDY0NDQ0NDQ0NDQ9NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAD8QAAIBAgQEAwYEBAUCBwAAAAECAAMRBBIhMQVBUWEicYEGEzKRobFCUsHRFHLh8GKCkqLxssIHFSMzNENT/8QAGgEAAgMBAQAAAAAAAAAAAAAABAUBAgMABv/EAC0RAAICAQMDAwQBBAMAAAAAAAABAhEDBBIhMUFRBRNhFCIycTMjgZGxNKHh/9oADAMBAAIRAxEAPwCvhfBmqgMWyqb28hu3kDpH4pwcU1zo5dNAbqQRfYg7MD1HaaHBMcjIKZIDZSoDGwbxZgL9DcgxuK8RyJ7tcubwXtY3ZWDZ2I5m21zvv1cbp7qBEltMCphnUgMjAkEgEW0G/wAo1LDuwJVSQu5A0HOFpxELmyJbObsC2YHR9Ntrte2uw1lh4rc3KZtSVDsGAJtcWK6roLAWItvrLty8HJIzY81E4yw/D6ZrC3h3FtSMuh7mCYzGGplzbrzve+ij7qT/AJjO3Pui1A0UUU5kpDO4UXO0zxXLOCduQ6R8bVuco2H3lFM6jzg+SV8G2PiSYbHikWcDUmwgjY06Eo8qfF0gL5ie1jf6yr/zaltle/p+8o5R8ke5HyFS9NpmpxZb/BcfzAH7TTweNoOPESlvzbfSUckwXVyjOFR62SUywS3E4Mprup1BGxEoQzXFkp7WCYZNPayceNHm7YWkKKKUviBcgakb9pWUklbNIxbdIuJtvIGuPODE33ig8sr7BcMC7l/8R2+skMR2g4imbnI2WGPgMSqDz+ctmeIUr2ke75B89YmvDLopH3oik74+SnuQ8gMUraqOWsgapjqWaCFEdPOXav2ER4L7w9ZIVTK+/E1+ll8BEUrSpeWSVNS6GLi4umKNVfKpPQSUHxx8HmR+8iTpEpGdGEeQdrCDtmiCcTiAomJXxRY6knpa9vlJYisT6aHz/aUZCdL7mL5ztm+TI5P4GzDncxyj6Npbt+ssGVTl3PUD6GKtVufht5bH0mdlaEpBH31j++tqCbj5/wBZB6DtsrW5abesg1FxrY6fUTrR1M6f2d4vlPu31pubb/ATqCL8r3uPLprq4zDlHI+U4OhUtqOvqPKd1w7EtWw93OZ0Nsx3ZTqCfqPSWTMZx7jiKMm0d3sCTyhqdqwuPKsGxuIy+EbnfsIFhjr6St3JJJ3MlQPiEzm7Rpjf3oMiEUuo0c25sOsHGfQqjwv+GW2h156jSI4QH4Tyv1HlKslSQJCF2lBEvTaZSBddH7E/klFFFKCyjLiiijgLFFFFIJROnvCAYMm4hEo5OLtCzWqsikvBMGD44eD1EuUxsQl0I7fbWExyb4/JTHLcjJlFU+IdBqR1tL4Fi9Dp+UzHI/tZsizB4JsQ+VbAt15eU6nhXseuazMSBu21zzCiZHsmxWqANdNe09HoPppEuaclKkMNPji420D0fZzDoBamvqLmVv7NUM+coOWnK81mZiNpBlYiY7mE7Y+AN8AgFgi28hMbFcPT8om7WVrTMxDW0kcnNKjzXjGFFOo4HPab3sZXJL0zqDTzeRDAbepmZx1CapLAg99iO0J9j0tX8kf7AfrGGN/aK8sfuZtAWg3EHslup+0MqbnzMz+Jn4fX9Id0jRqlUaAJKnuPORjiZsmPDs1cLRzsBy3PkIRiVsVRWNj9joL9dLyfDaYIuSbE2Nult/rGxNMZ3N1DKVyryYdrekHGN3IKw2CYq13tlLKNDyNrnX6QEgIUa1wyAkE73uD9po1MRUFzTUFdy1he5sfMnWDVKwOR3BI8VwLC5O399pEmjoN9+g+LQOAQNdweoOw05wOltNfCU2CZbEZWJOotysL8wAfpMtxZ3HRj95nLoZ5+cTXihRR4pkLDLUXha01XRgCT19eV9OW8swFNcpJFye17KOekqpqHZz/hZl3vcEW8zHRu5W2vBa5UakdAQLG2mn0kDRVxdBqTpbQbc7/3rNSvgFshCnRlJub6X1JDb6TMosUdlv4c1jsQN7HzkS4KxlatAZFjrCYRj8OfiNrgA+YOgPaDrtMpAus+6Kf7FJJGjpJxSqSBMbqRmYmllY9DqIFiB4lsL7i3oZvYiiHFufIwXhOBNTEohB8JLsAbXCa2vY6E2HkZpmqMW30DYpt0joPYvDIMOz2GbMbnnYDaSxfGnQ5lRAov8ZsW/pDfZfCFKNWk34KhX0yqw+hEIrcGV6nvAdcpWzAEWOhsOR7xJNrdYwgpbaRk4H2trM2X3KnuG0nQPxF/dZ8mU8x2teA0OFCmMqai5bYXBPO9ppFBkZd9NZnJ2+DWEXXJyOO4/iSfCiZT+Jjb13g1LH1XN89NxzVTcjymxw3Cgq6Nex05fDe4F9xY9JJvZ1AUa7eD4bWH2GstcaKbZX8AuJwwrUGzDXKbaahh0mF7GUSalR+S07erMLfRTO0p0gcy9QdO5E5z2VosinKfE7Le98oUE7jnzhGOaSswljblRY41MB4muinuR8/+Jr49gXJAtAMYmZCOmo9IxvgmrRjyUUUzbISNzhFYDwkA3AIvpqB1H96S7HoWC5VsCRdb3swGXc8radNBMnDNoCNx+hm5h8aG0FkOl7bt2BP2g7fYPpqpIsR8oAV1vYXFwdbanQknUDkIPXRH8IYZi1xYNbbbUC3W94Q+AA9b38JNr769PSSp0lU3Yi2pvovqFGvLtIZyaXKI+5ZEUm5CAncZSefPz+cyUa5J66y3F4gN4U0X5Zj1tKae8ykzScH7TvwWxR4pmJy2iAEOgBKKQeYNj9DBqRCsosVbIQ2ujXBIItJ4DFNlyhiCp25FfWSbDZH961wo1AtrfyuLCOjkqbTI18K6gOGzDcjoDK6j+J0PhDnMTl1JtcAdNxCBWXUqr+W3K1r+I7HmekZVV2zOpTLYC3iJ000AG1xIaLRbXUuxpGR7sCbWIUaA6W19ZlodIXxJwBlDAljc2BGnK9/T5QOltM5mGoj/AEb+ScSbxSSCVh+SAYL7kTkuH1AmKoOTYElCezqVAP8AmIkYNxFCUNr3Gotv6QrJFSi0w+PDs7nCECpWUG+bI/8AtyH5ZPrDUIIExsVxKmKivTdHJBzBSCcrHfTaxGx11h+ExKtoIgyRaqxhjkrdBtZAFJ520/eBUsVSyN4xdb3vcajzg3FOMFT7umud+fQXGgM5nE4TEMc3vUVtfDfQLa4tpveUirNG32NvA10eqChJWoWA0I8Sak67ialZrTj8BjMRQfM4V7XswNzl8p0K8RSomceo5g9DOaOT8liOBmb8oJmD7O4VwKlUrZbAC51zHnb5yVbFmoQiaAsAe4On6wijigilAG2t4ul7i/U94Xhg3XANf3MEdrkmREUcQ5sukZOLoZG7Hb9pRNqtSDix/wCJk16JQ2PoeszZDjRbh9vWXwfC8/SEQefUY4eYIlnNrXNukjFHlGzdIUkm4kY4lGdKNxaCIo9o8oJtj8GXSqMhDKSCOYmnhsYjG76Mdyb2PQX1tMlDoPKPHN0Q4qSNipVpDp2sXNrdrfrI1MeiqQviN9NLAfvMqKQ5HLEu47uSSTuZZSlcnSlJdCupjeFlsmgkVEtEvhjzuYtww5sUVo8UIYWkDAZKqMBo90Pmfh/3BZs4XFhSLmw2+g1+hmJjaihSzXCqVuQLm5OgAuO59Jb7QUijm1wpN1/aK9ZBOSNMcqbOkw1BKhcm+rEgAlTbqYsaq08o91muQLi3Pr2nL4DjTX5Bh1vr/es6OnxdHS5IHWAuMkGRyquB6mCQgFlA6ZeXymXiayIHC6XN/W0q4lxrLcK2npp0nN4jiBdvMyYwbM8mVHS8HXNUBGy3Y+YGn1tL8Q12JmIvEXw9A1ktnLIviFwVJ1H0mzwXiAxaNdAlQANYHRlPMX215dxGGFfbwDxmlKn3GAjxyLaRCXbC0hRnphhYi4khFKNmiQEMFlJKnTof3jMhG4h4kplJWb45bVRmxwJoZR0jgSjibLJ8ASUWPK3nCqWHA13MtilaSJcmxRR4pxWjnKJ8Ilkt/hwNtJE0jG0oST6CfHli4pWQjx/dnpJiiZntl4Nt8V3RXLKK6yaURz1lwEusTf5GOXLGUXFdxKI8UupYdmFwLD8zaD+vpNG1Fc8IwhBviKKomQnbQc2OwH6ntI10J8KPbq5UH/Sp0Hrf0lKYdUa+ZnNhmdmLFu3YdhMceaOSe2P+TXUYMmHHvkq8eeQL2jqDIEUWABsPPmepNp2OJwa1kAbmFsehtOD4s+e5856JwdronkPtBfU04uJTQfcnZxGO9nqiNp6HWxHmIOvB62ujN5Nb7z1M0lPYyuphrDQLFyzSC3hj2PIq+Be9sp+d/tNXhfs+zeJ9B0najhilrkD7yWIAUWEl5m+EcsMU7ZxftPSUU0QaXb7AwHhmKNJ1dfw29RtY+mkM9pGu6jpf9plUukdaHH/St9xXq5/1KXY9AxFAPZ0IIYBrX11gLIRoRMXAOpZM5syaK4YqwBPIzosNiWPhqZX5ZgMreo+E/SDZZRjNxfYbaeM541Lr+uv9waPDThA3wHXodD/X0gz0iu4lGzdUyMeNEJRs0SHEeKKVbLpCjiKOJRsukKKPFIstRlRRR56Fnl0hR4pF2t3J0AG5PQSrZdImikkKASTsALk+kKOFyi7sqdvib5CBs5RWCnxm2dhyH5F7dTzPlAKzkam5MGyyyblGK5asylqIxtJW/wDo1WxtJPhUuer/ALbCZ+K4pUc72HIAaf1gDuZTcyv0Waf5sp9Zl7Ov0FPimJtmNudtL/KCYniDk5VFgOuv02iUa+Zk0UW21hmDRrF0fUynnnN3KTb+XYElRs93YsOmw+Qnbez/ABhVVaTjLlACtfSw2v27zmfcqeQhlCnqO21v0l8ujhljtkv0/DOx6iWOVo9KoPmWSZLzmOFcSal4WuUI5a5e69R2nVYSqGUMCGB2I1E83qNLPBLa1+n5HeHURyxtf3KnpWWYfEMQlMFna3Ref9ITxvjQQFEsW1u24XsOp+gnD4qqznMxJ89ST3hmk9MllW7JwvHkG1GujD7Y8sB4vii7lwoAOwa5NhtsdIGtXqtu42+Rhzrc2v5ypxHkcOxbY9EK3O3bIBrsCNgB9+8NTFPyYj1MDXkPKSS9hrBcugjN3fLJjllHmLaNnDcYqp+LMOhm3huPo/hdbHr/AFnHWYSxP0gOXRZMatcr4CcevywdSdr56/2O5OER/gOu9tr/ALwJ0KmxmJgOIsnhJPb9P+Z0eCqe/o5ibut79SORg0YSlFyroOMerxycafXt3T+QWPFaPMmxgkIR4opDZdIUUUUrZNGXFFHnoWzy6QibSCPlGf8AEwsn+Fb/ABeZtYdvMSL2Y5Te1iWI6dPU2HrKqlTMSf8AgAch0AGktjjul8IxzT2qkWIt1brZv9tjJphgyk9du99ZOjo1jtnt6Msag1sidMw+RtCqp2BpFFPB5kDef3MAq0rA+k2uHnwAf4ngGJTftaWRFGeqant+skiQjJZQOupjCnLUcRSn3hSIBrreMiWlqrecyUiauwsV57jcE+UNwvEGUMillzA5l216jpM8ar/KeXSOtbxX1Jta/wDSZThGSqSslNxdxYVVFx4ibDy29BAKpvsJa7k7/KUm0siChkFrWlZpi20IsImUSSbB0pC40hGEogpsNBePTAvLeGVAuW+2oPlK8pk8F+JoDIWHNSf9sHxNEZXIH4fuLw1U+JL7EgeTKbQRXzU2b/Av2A/WRLk5IAY2t12HnzM0+F440ai9Ncw6g2mVQGZlbkTZR26+u8JxL3dT2b6ECYLDFY9qXB0ZOMrR1mNpAEOuqsLg9jBpHgWIzo1E7qMyeRPiHobH/NIvVVdCdYhzw9ubR63R5vexp9+5ZFB/4teh+kkMUveDthqiy6KV/wASvX6GKRZO1gEUeU4p8qE9p6Fs8skVB7Jc/jcj0WwH1LRgthr+Yr8xpLcTQIU02BBRVAHci9/U3PrB6Yzoyk2On+oXAP2+cKwqooAytuTZa7+AHnZb+aG32MlTqeMeZPqQD+8BWoWQf5lPmf62iwj5nQ9xf66TYyNPAv4ANvi+8g9K66fib6RqakL5MwPrrCqTAlRyB+luUm6OZv8ADOB0EXPWrItYMhWm5FkVWBZXX8RZb9oRxbgGEa5R2UlQyGmpdCNSA3LMxNgARsOs0MNh0ZabUHSm5V1u7K1TMwRQbLuQAbcx9I/EuH+6VTiK6qi6IEptbTTLbNq1uZBO+t4reSTn1d+AnatvQ86qo6EqwKkbgixEghPUw3ELmZjcm5JvtfXe3LykaNEH/mNVLgFoEok3IvLDSymw/rbpCDSAci3I/aEOgzDQagSHJHKLMutSynzlBWbz078oM9LtO3E7TOp0RYu5yotszWubnZVUfEx1sOxOlptYDhyMmY0gupFqrtntpqVSwG+3aVGmuekrFQEUOobbPUZlzlfxZEVdLdYVw2mXBXNtUdb5r/CxBN73ba9/KJdZq5ttRdL4G/pmmhKf3pPi+UJ+AqSSgyG2hzZ0Y/zHVfqPKc8tEqASLG7Kw6EG1jO44Sh8d9VTRrmw109ZgY+mBdeqBv8ANqD9RNNBqpze2TvjjyCa7EoZ2opJfHQCo6vf+T7GZXvT7soD8TZD5Btbegm/gFBQtbmPoJzTGzPb8LvbsWO/yv8AOMZPogVJoKw7+MHkuvkAJEv41H+AX9TeNQTQLzcjzyA3v6mTDXquQL2soky7L5Kovw2LNJw4NrfUcxNus6VUFZBa5IKnkR+nOcpiACRmNzrcDkJ0HBKmelUTmtmA7Wtbvaw+cW6/HGWNy7obel5pQzKN8MaKKPER64aKPFIOFKKpVjlY2UWLHe/RQOZNj9ZOvUCKSY2JpIoAJzNclugO301A8zPSRW50jxmWe2N9xyWCMy6Zmut9dTrp0109YNTAuHGzgjyb/kSbO9vDYlQCt+nb1kKFRXRraHfL0YcxCsMNid9W7Bc+VTaUeiSX/oE5szD83iHmNxI4J7VLdww8j/WPiWDHw7jX56n0lFD40Yfhax/lMtIxR0hTR/O8bALeoikhQWUXOwudz2llM39RIcPxvuqmfIr2BGVtRfkfQ2Pp3ku9rrqQup1qKhZHDs7LexogqASUBy9F1Yb3HaD06jMRUyXBSm7XJdrqWBtozBSWS9zsD6AYfj5IYu7Jc6LTVfEL6As9wAu2gg//AJir57Je5IDuc7AEcuQ5nTrBVhl0Zq5rsG8boqcrF1zjwZEF1Cgk3JvpuCB0PaZaJrGV7c9TFUa9tYVCG1VZm3bsaulqi9x+kmD408pn41znXe+kcsbr2vJ2kbjXBHaU1QOsEpvqfOPiqgW3edto62LFuUNLEodaRyPscqsWytbp42X/AEzYpIqkGm3vA5ZiwXILlsxsu4F/tMKjWKkkW1BBBAIIO6kHQg9IdhuKU1CrldLG9kbMt/JtR6kxVq9HKTuCsa+nauGOf3uuK6G1qiMBkZqhPhJOZdN1HPc6662nN1KgLsCb5LJv+XQ/W8L4jxvKL01IYggu5BYDbwgaKe+vpOdwex85fRaWWOW6XHhAeryrJlclymzbwZsjC+xM5cWL1CfhD3IvYE2G55CbgcBD3nN4fWu99QLG2+tt7dYdPiSoxjymHUazM910G7ORa4H4UB2W3ODYaqz5gpygklm5noBCsc5VP8T6AdB+5jUqeRcoOXKLu/5ew7yGm5cvoQugRw3hT1XK0kZyN7f9zHQdfSdnw/2WeijO7LnbTKpJCg678yfLlAf/AA6VvfuCMqtSVlXoM99ep1uZ6DXAJsdmGUxDr9bNZ/ZXC4/fIx0sIxrJ3TPOXwJF9bm/KM2DOljvfft3mviuHOHYeHTcnnptte2sySrJlY31LXA01VrECAyVHqseTerTK/4N+n1H7xQr3lLqfr+0UgvukYGIQ1Hy5sqIdTfViNbL3212F79BJu92OYfESe1zI8RFgoZyulgvJCD8V/8AFqT56wT+JZTle1+RFtR5HQ+hnqcEa+7yeGzScpBYbTfa4+e3yIEEC2bMNjv5kQhFD3t65dx5qdRBK9UofEDY6MB17ff/AIhLdcmAHUcq5KkXF9+Yv/xI8PqZ6wXMED66i+qqxyjzIA9ZHEOjMMrWB3uNusnwjhxq1AAQApuWPTlp3Nh6wXJKnwzaMbR1VAmwlDJ4jLcM3hEasPFCbMWioiXYE2QnvKap0k6JsnrLXZxF2zG2sPoUwQBM6lq3lNTDHT+/3kM5AVdAaoFpa6C40G8p/wDtvL3OsryWpErDNtKuInxCWOdRBuKPZhrOdnEKb8oynxSGYX3ESuM24nM4vx58EG4fsZdinBTeD4BhaUd7iewUyC205KorCu24DXseRA0PnOsrMLGZ3G6Z91h3XezLfsxbX/Z9ZjnlUo/s0xR3J/CK8JTNRwx1CDS/XvIV6gdxTX4FOdz+Zun6QCurU9C2pAJykgeRHWaPDKGVNvEfE3/ap8zY+k3Tt1/kyqjb4Bj/AHWKR/5UbybQ/Im/pPTKtyA3IWNzoLes8bXwXufEed138r3nptP2iw3uVZ3GcqLrYlgba+HziP1XTSnkjOK56OvjoG6XIlFxkT4q/hLouYjffW3O3S05itUVwpICjP4rDYc9O5l9T2tvUUIoVLgPfUleeg2lnEsOhBKMoD5WXUWJ56Xvr5QTLhyRipSVWO/T9RCVwXVf6AstDq/+kRSn+AqfkMUw5GtR8mbxSsatV6qqPGzMAuwBOxXn/e0DYeG2RD+Zb6H/AC/hPlJjDj4nsOyj+yfpLMrbC4Hckj5G/wBJ62PCpHgWwMUENshI6KxsR/I/6GV4lKqEBznRtAToR595fiqAtdsvmQB/UzORmZgiszeIWW9wTfS0iWRR4fUsothGF4UazWp2uLm9zpbXUC/ymu9FcM7BAbF0zE8wCNV08Ivc8999BbR4fgWw9IVFUhzfODe6i4Gi6W57wLi1S9zYXcLqfw7a/MRbnzbpUhrpcCUHKS55oWGPLXTSWV5Umjv/ADt/1Gdf7L8Mo1KdRqyg53WlTYi5VypN16G5HyEZyyRhjUmKtrk6OLrtJsfAJ0nBKb0kxBXDrXqpURMrrmyiz5iO11EvTGHB4SlVpIhr4lm1K5sqg/Co8yNO8q8/LUVfRLn4s7Zxyzk8Oel/SG0HOU76TqsJXapjMLUqYZ6LnMrsVyrUbIdQO2u/WWYHgtWhRxjVVADU2y2YNfVjy20IlfqUlyueO/ySsbfQ8/BJcnXTc66efSX2N+vznZeyVBFoFHGuMaoq/wAqIdf9V5Z7F0kU4laoGXKquD3ZlP1M56mt3HQ727rnqcXUOognEtWAGunKehYfAmiq02Hw45ANNxluD6iSTPmxZwwQ4gVgbPa7UhuFv3v/AHaVlqlzSJWHnlnmpbaJTcztuGcXb+MNNaCotaqodKihmQ7NbkOZi4jX/isWMItKmirWIzooVyq3zZiO1/pL+/JOmuKvqR7arqcbXPgMpwk7X20wVIe6egqqlS6+EWBZXyk+v6SJ4LSSrjbpdKVJXpi7eFntbY62IYa3kfURbUq6k+1Vo5OudJpPTH8Lh2I6BgeamoT/AFECxZspm22HvhqSH/8ANfmRf9YL6hkpRfyHem4985LymcdiHS9zYtc7AlieljoPWOKbPoxKjcImrE9XbYHz2hOJwxzl9AyqM9wc3TOPzX0ud7nyMGS5bLqT0JA/ZRCcWVZIp31A8uOWObi10JBMjEIqA9T4vtq3zkjhXa7NnbqWbKvoq6mGNUKixKKeiDOfU/CPlKXJb87di2X6KCJq0mZWBqxG4Nh+FVyjzJJ1nbezdcV6RRguambrYi5XU3PYE/accE6It/8AESfuNJq+z2OKOaZQLn/Ep/KCdD+kC1cN2NoM0WTZmTuux1mQfnX5iKcv/FCKIdp6rb8mWjEWub6Qmriwi33J+ESGLwzI7I6lWQkMDyImPjahz26AWnosmbbC11PGxhcqGxTsxuxufoO0bB0XLBqYN1IOYbAjudPSE8KwhrOE2G7HoP6zr2wyogVBoLAD9z1ifLqKfyMsODcrfQOwmKFZRrkqAeNBrc3uSuoFjrpuOcxuLorJazKUA1YWBW/S57yp8OwYMjHPe9xyPnyh9biSVKZSsuV7aOo8LMNNen28pEMql1CuYqjNv/6j/wA7/wDUZ3eHrUKGEw4rq7FnaqoQ2IZT4SbkciJ50cUvvH1/ExHcEmaT4ksBck2Fhck2HQdI9jBZYrnjrx+hG5OEnwdTx/FNTWrWoMU/iWwzgiwJDJUzD5rrBaCpicNTw/vUpVsO2amXNgynXQ9QbfITlFe72kce1yBJWnqNXzfUo58nob8RRamEpviFqvTd2qVTYKMytYZtuYHpMvhOLAo4wO4u6EIGf4jdtFufKcqNFEud7Jzk/TJKr8f7sn3XdnXP7QU8OaNKmlKqKSJ/6lwSrnV8pHOEY2rSBxuSohFZEZbMLlibsB3vc27zzuixvzhytpzkfSx8/v55J910d43FEqUsKzMocV6fvLkA+EEZj2tbWZmKw1Ks9bJWWjiFrF0qFyFamTqAQbd/lOSY6iD49dJH0qSdM73X3R1eCxtOpxMVM65A58ZIAbJTK5r92Es9n8XTpHFY1yGu7KiggM2dyWK9NCNfOcJQ2IlgFpKwKSq+KS/wRvaPQ8b7mvg6Rw6sq0sVTGVzcjMwvrc6XYfKV4rFK2BrVb+J6poseyVndfo04g4hlQ5XZRcEhWIBI2OnMQTB1nKFc7FScxXMcpb8xG1+8o9Ptklfey3u3F8BOOcZbAzrcYtsq9FA+QAnEV918xO54gNQ3IgH5wH1PsN/R63NsxOK0fDnXR1+Eje/lz8pj47Dgu3IBmuL7m+pJ7nWw0E1sbjQvdgdB+XoSOZ7dtZkBLm5O/4h+omnp+GcYty6PoY+q5oTyKMO3Vj01RRoQPIE/vI1W5qRbtt6qfh8xaSZR+I+TDl59oO1+frGcmhSip3udd/r6EcpocFqXqoG3GYq3UhG8J6GZ1Rb+Y2mvwSjf3jgaKh06OSLH5ZoFnlUG34YVpouWWKXlFF4oF7xo8QnqrZ2X/iH/wDNb+VPtPP+IfGfIfaPFG+T+NHlofmbHsl8VT/L950mI/D5N+kUUS5vzG2n/jGo7N/m/SZw2PkIopEeppIxOJ8vMzQwvwDyiinoPTugm1ZDD/HGx/xiKKMWBBLfCJKv8EUUsupwHh4cNoopL6kEBuI2O/SKKRMkDwu5l1X9YopnAsyT/AYLw/aKKRP80SvxFifiH99Z29X4E/kT7CKKKfUew39K6yONxX/ut/M33kaX4vOKKNMP8aFOX82VVdj5iVPFFJkURVOl9nP/AGKnmv8A0x4ou1f8TGOg/wCREGiiiiY9Of/Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRUYGBgYGhkYGhgYGBgYGBkZGBgZGhgYGhgcIS4lHB4rIRgYJjgmKy8xNjU1GiQ7QDszPy40NTEBDAwMEA8QHxISHjQrJSw0NDU0NDQ0NDQ0NzY0NDE0NDExNDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAQMEBQYAB//EAD8QAAIBAgQCBwUFBwIHAAAAAAECAAMRBBIhMQVBBiJRYXGBkRMyUqGxQnLB0fAUIzNigpKyB/E0Y3Ois8Lh/8QAGwEAAgMBAQEAAAAAAAAAAAAAAAQBAwUCBgf/xAArEQACAgEDAwMEAgMBAAAAAAAAAQIRAwQhMRJBUQUycRMiM2EUgTRCkQb/2gAMAwEAAhEDEQA/AM4Kz/G39xhrWf42/uMYWOASSB0Vn+JvUw/bP8TepjQhQAcFRvib1MIVW+JvUxoQhALHBVb4m9TFWs3xN6mNCEIEjvtW+NvUzvbt8TepgzoAOCq3xN6mKtVvib1MavykXEY4KDbU3CjvY6/QjWBJY+0b4m/uML2zfE3qZmsVx8p1U6xGmZtttdAe28g0+kFe5OhHeuny2kWQbRKrfEfUwxVb4j6mY6n0kqDdVNuQ0/GW+A4/Tewa6E6dbVSezN2+MLIsvPat8R9TCWo3xH1MZENZJI6KrfEfUw/aN8R9TGVhiAB+0b4j6mGjt8R9TGoaCABio3xN6mEKjdp9TGxHBAA1dviPqY5nPxH1MaWOQAMOfiPqYSubjU+pjamENx4wAkZz2n1M6JadCwMEsdAgKsMCBAYnCcIsAFEIQQIYEAOEJYCxwQJFJnd84iI4uDrbvgBCxWPVGBO1reOu3jcjyEo3xJYsx01YAaaFmyj/AH7oxxOoXcpe4BO2xN/XkJO4LwOtiG6qmw3YaAbcz4SuUkuTqMXJ0iJUpjRNMxXMW0JGpJB8tfMQhTQkra212tcgnZdBqb/jN1hOgiKB7R99wN/WHjOiNPdGK2HnrzvK/rRLVgkzzutgrA5dcpynsv8Aq3rIZDBjy8gL3mzr9H8mmdtCT4mx1PqZRYi6mzqKig6gi1++62I8Z3GcZcFcsUojnBuMtTsjXZOzcr4d3cfKbCjUDAMDcEXBG1p5ziEphupe3Ydwd7X7vwmo6K4vMGpnl1l8D7w9dfOWJlZpFhCCsOBIsJDBirJAKGIAhgQAIGOrGhHVgASwhuPGCDFEAH50S86AGFURwXgLHLQICnRIogAQEW14gMIQAVVhWiLCgApkXiVTJTZjfQcu+SryNj6eam4203kMCjw+DzBAB13IHcobbc32vfv0nsfBOGpRpKigaAXPabTzfonhlfEopX3OZ7QBZR4T1dDbQRTK/uodwqlY1Xw47ZDemNZZVKN9SZXYmkVI7NJU0X2Zzii2Vrrvpf8ACYiqAWM9J4rTXLqQO25085gcclJTZaik31A1tznUDmbVGe4rw/L117Y/0YrWrJ35lI8Rf6gSfiEzobG+mnjKjgin9oS2hzA/r9c41B2txHJGnseiCEDBUQwJYcCxVnCcokgEI4IAEMQAIQ0gCGsADEURBFEAHJ06dADFKsK0FY5Ag6dacIoEAFAhWiAQrQAUQognGBIUDEJdGHaDDEewyqXUNsWAPgTaQwXI5/p4gaq722pk+DM4Lfr8pt8RWqKOqLE7X+vdKfh3DFw2KYJcI9PMAdcpDjMt/O/9UvcbglrAK+awtcA5b25Ejcaajnz0icpXIfhFqJjqnGCtXK+MDXOopgEDx0N95sFQPSJDZhbMD29hlJiujqNWNRAAWsCd9jcALsovrp2maBKJVMvdbxtIlR0kePdJuNu7lb2ANvTn3QEXDUlBe1V2AYgowADAm6vbnY63O0DpBhAarjQWY/WRMCjjqELbbNa7W9dZbFJRKZWpDxroXvTVkU/ZY3t4HmJH4YQmJuxsFJN7E793nJeJwoRhZr6SBjCMzDmyj15fQTqL8Fcot8m+EIRrDXyr90fSPCXIoYoEJYIirJAcWEIKmEIAEIaxsRwQAMRREEUQAcnRbToAYhTDEbWOCBAohCJOEADEKCIt4AGIoiKYsAFvFUzp0CUb13DslTW2UAH7JDgHQ+IUecuEtbymKwHG1Sg1KoD1QSjDXUdYAjfcTW4F8yA7ggHyIBiU49LNCE1JbBsbbCFUsQ2o0HnG8TiUQi5APITPcb4ytNHamgZiLlgNSRpY2F+z0nPJJhek9MCvUS4BJLAeOtpnEc9uoln0jQmr7Yg3ezHNY28DYd/KQUqUyTff5Xl0eCibuQlLEkmxjtHC+1qgC5NwO6w94/ONMoGo8ppujtBRTD2GZybnnYGwHhpO4qziUi3WEIAhiW0UC2hCDCWSASwxBEJYAKBDEGEJABiKIghD9esAHZ06dJAwywxAWEsCA4oMQThAAwYogiEBAkMQrwBCG8AFhAQRCEADmw6P4z9ynOy5T4r1d/KY68suEV3TOFGdRZmUasoOmYLuRodB+MqyxuJdhlUqNRjsA1V1YMABqQQGueQ8PykDEYZ0Qs9dR5BB428xv2QcDx8Z8mpXtsABblLPHUKVZOvlYDviqtDkZI8x6ToVNhVJuTcFswv2a7b7SlwyUQj5gfaaZG5bi4tsJr+kHDqKKxCKBY2O7ctr8tfnMLia6qco17/P8pdB2UZnTsLP3zbcJTLSQH4b+uv4zB0rnUDQAnXY2vp4aTW8L6QI4CvZG/7D4Hl4H5y+MW+BVy8l4DFEGEJ0QEsOAIYkAEsMRsQxJAMQxGxDUwAMQhBvCkAOToNp0mwMSsMQFEcECBROE4RYAKDDEACEsADCxYgiwJFEKCINauqC7G3dzPgIESklyLWrBFJPkO0yZ0DxBOJqZjqyBvNWA0/ulBWxBdttBt+ctuhtQLjFB+2jqPEWb6KfSaOTS9GlcnyxXFn6tQkuDZ8Y4AlU506lSx64AIOn202b5HvmZx3DeIIrCyOu4KMQb6DZtRzO834BtGwdCDtMBM2XE8f4wcVkVatMjKLA+G20zpoc21PZy0npPTTHoi5BqzXHh2mYFKZc9w1MuhLYpyR3EwwlfS2En13yqQNzoPPSRGpZerHNNF7sUzNKkaXonimZnpsxKhcygm+WzAG3d1h6TUCeeYOq9M50JU2ttfTexB5aCX+D6TbCon9SajzU7eRMnNBxZxDIqpmnEUSJhMdTqDqOrHsB1HlvJQMpLghHBGxHFkgEIaxtYYgA4sWIsWAB550GdIAxgMIRsGGskgMRYk4QJCEMQVE53Ci5/OB1GLnJKK3HBGcTi0QXdgPqfASvxPEX1CDKO06n8pUYmmXuWJJPMzj6kXwNT0OWMbkqLdeMZzZFt3tv6CNFesSxudB37byowFQq3hp5mXIwjBPasQM7EIt+syi93A5LcAAnflsZdp4OWaKMPUKSk74H0OkQYpqL06y7o6v4gEBl81zDzjNJ+UXEDMpUakjQaaz0eo6XhafgUwRkssenyez4Wsrorobq4DA9xEWsosb9kyv+m2OY0noPf92boT8Lbr5H6zR8dulJnXkD9J4mWzPWK+5kOknCqbXfS4+frMvj8N7GgOpYudyLab7Te8EoriSjnUWvKf8A1D4bUd19mnVUHMRYBb9sIN3uEorhcnnlHDs7Bvsh1B9RAyZqhHfL7F1Uw9IUUGeqbszckvr5mUGFzXLEA2tfkdZt6J9UaruZetxOEt+aJyoAbDzjeHw4K1FO4Nx22P6EcV7CFgqWdmCHK9uoGIAc/Bc6K3ZewO1wbXZ12JuCcVuZ+O3sUxUhu8Hzl/guOVUtrnXsff8Au39bxvAIjlqdRSjk2Ba46w3Vr7HlGK+Bem+VgR2eHKYs5Uej0ekc4p1aNNhOkFN9HBQ/zar/AHD8QJdo4IuCCDqCDcTBupA1F7STwDi5pNkckU22/kPxeB5+vbfvC5ZE/wBE+o6WGl6Wnz2NqDDEbUxwGdmcOLCgrFgA5knQp0AMMIYMAQxAgIRREAiiABCBiU0F+0fjHqa3MTiOiEjlYjxvaauj0qljlKS54EMuteLURUezTZXtSuCJAqUrGX74cZVPMjL3FrRHweduqQFVM7MdkRVLux8h62EwJYpQyuPfg+jTy4s+mWXs1ZS4DCoGavUAZUIyU9hUqW2bnkXTNbcm197HXxTuWdzmZiTroNTewA2A7BYCLRp/uw7aA3ax3A5RvC0y5zHbl4T0ulwLHFeWfONTmU5yfZMVKZOrN5DT/wCyRhgVYsthsRtv8J7iLiFa5sI/QCgnN8o5PHFx6WhWGolCSlHZovcBicuWrQOVha6k9V15o34HcH0mwGOTFUv3Z30dTbMp7GH4855xRq2BA0B1Hc35H8PGFRxr03DoxRxz3BHwsp0InktZppYcjT47HvNJGHqOBZYP7lyv2bzozhDQJTlckdnhInTHjgVTSp6s253yj84xS6UB6JOXJUBynmu3vKd/WUGJcLmdusxva/aYvjg5yUY8s7w6ZYbzZ9ku3wZbFpYm+/M8+35xnCbNf7WsnYqncHtMZWnppPV4MCxJR8I8frNX/Iyyn5e3wAm1oLJ9oeYjuWILiXyVqmJqVOy0RkxVIq9lxCapUO1QDanV/mtor+APIxEJr0Ln36VrHnl5g+Bv6SvuEa/2WGvdfSTOGYgI7DtFmvzBtkfwJsD685h+oaVRXXH+z0vomtqf0pPZ8EepqnedLd95XcUf96yjZeoP6dPwlziECuvwllceR1HrM3UfM7MdySfUyrRLpg35Zd/6CTlmin2RteinEM6Gmx6yar3p2eR09JoRPN+E4v2VVH5A2b7p0P1v5T0dZ1lj0uzHxStDyxYCwxKi0dzTo3OkAYwQliLDkkBTrxBOEmKbdIiUulNsk0NIxjGBpsOYF/K4jity7ZHcZgw2OqsOy4+nPznqYQUcaivB5y3LI5PySPalgw7ArjyIv+MY4lUZaDgXAqMidxAIIHqAbd0i0K5UI99B1W7weqw9bHzlnxRNcNQt1lvUf77hWA8kyDxvMbLp71Sl2qz1mLXqHpTxPm6/ognBNUanh13ewuATZVF2aw32MuanAgabexvmprmdC9Njlvp7p6psCbHsI5SzwqrRxFVE61VcNVW+jA1MgewB5aEW2I8TLPEkIruhGV8IG0AVS9VlUNYADYAeAl888utdP6o8+kujf5ZhzhGQlXBVhoQRYjxEay3NppON4n22Hp12A9ojGi52zdXOp+XzPdKFKdhftj2LI5xtqmJz2fI8qDLaM1KN+4/rf84+u0bOsq1GnjnjUhn071LNoc31Mb+V2YWBIXOX0y5TbvNxaM12Lm507uzujgN7d3P9c9T4Xi1k0vFdFoFgk5S3fY1vV/X5ayKhBNLv8kGokiqltO+WTCBh6YzrfQX3va3nNKXkwYT7HJhlQBnBYsLhAbadpPIafrlHeup+wMt76cr2G/l8/CTceQ12DasbFd9Bse7baScMtZsPUQIgpqM5LIQxuGIytzuFbu9YjPLKrS70ORjXPiysrlFZANVZLEMLMDfTy21HZ3yv4jRFO1RTqNB58j2g6x8uS6a/Zyd5DEjbnraRsYSyMp95b38pHV1wlGXJ3j6oTjOLokY+vehTqWyjOyg+ABYeIJ+nbM+N4/W4kzUVo/ZFRqnLRyoU2PIEBdP5RGqNMkgDmQB4zNxR6bivNmrq9TLO1KXKVDg2noXR/Fe0oITuoyHxXQfKx85g69O7hR3L+f4zTdD6gAZLm7EuBYWGUhT33Nx8p3nj9orhe5qhDEAQlMTGQrzo5OgSYlYsERwSSDo/hqSvmzOEAVmBIJzMBogtzJtGAJcdH0VjiMyqwTD1G6wuQxsFyj4iTp4S3B70yrO/sZS59COdgR5bxupUIIYcxbu13BnVOrr8J1+6ecYd2TY3Ru0XE9NZiRiR6rgEr9l7t4E+8O7nLCjxJmqe2axYkux5XU30HZoB4SoxikNmtYHs27iPOFhagII01sD5/wC0X/2pjbVwNfUrs2I/aKOlNmFRWOuY6XpN2W1BHMHncE6jpHgnWhSCI2WyqwsboqZiitb79if5RMzwdHCKyF8pymy5N85VDZjzZTY25GXFajbOajsSLEF6jsWzFlIXLlB2v4ERPIqmnfBRbcWq5KnG2SmtLchmd+52GUL4gDXvJHKQLS94pToBCqsuZWBXKPeBtfXU2sW0vyG8pyI5gacRHKnF0xttAZHzaGPVjItZtLS1kQVkahUPLwlxVHVUSl4aR7Qg8jL97GEXaO9RtJIgOsYcSZVEitJZEGP4dwUKM1lBvoBc69stMPnVPZ5Swam6hs6EZmvl3bqgKo031Omszrm0jVa3fE54Um2maEcspJJ9thvFPlFgRvcG1mGw38ryrxWIYknMdRvzOnMxcVWvpIVR7CJTfTdMegrqwB29pMteEjXMdkUt/UdvrKYNeWiPlQLzYgnuHISvC/us7yJtUP4I3ZnOygm/edB8zLfgqFXouhZ0DOrdTKwV7jOddVzL5Ze+U+J6iBObWZv/AFX8fSTMLh3dAzHJkyhbAj3TcNvqbufXyneZVt/05g6dnoSwrRnD1AyhhsQCNQdxfcbx3eIMbQV50S06QBjTFBgiFJIHFmp4Ri6bo1NahpOKYTQLmdSwzgX965JsFIMyqmM0cOwZmDEHNmXsBFiD2g941jmjxfUk0K6qSjFNj2LXKzLcMabMjdjKrEZvkZBrjJsbrup5EcwY85NyCpLb+973abnU+sinEKLqcwHYQDbw1m5wqfJnRW+3A04uCV/tP58pGoJlY8r2P1nYp1XTN8v/ALIaVlVgcxI220+sXlkipDUIScWaHCY50sAxy75SbrqCDddjoTJycVqW0YLtoiqmoNx7olAlcd/0k6ji1FgVHjL4qD3pCuSEkWgxDNqxJJ5k3PqYLYkbSuxmNtosiiqfWDaXBQsDluy2auJDq4i5AjQZijMFJC7kAkDsueWukj0sO7VKYyn95qn81zl089JXOaRdj0/cdwL/AL5hL4PK/C8Frftr0AtnRSzKSNlAY2INjoRLnDcMqOntBlylHcdbXLTYK+lt7kTnHlgo7vucanG3JUuxAqv2yG9WaHiXR3EJh/2hguWwYqCc4U/aK2tbbnzjFboXigpcmlYDMeu2wF/hnX8jH5DHgl3RnKlS8rsVVtDxSMoRzbK+bLa9+qbG4/W0HiOBdTkYDMq5zY36pAP4xXLlUk0hzHh6XuVxbW8brm6mEsaxosVH8ouPHrfQiIZJVEdgrYC1Lcpb4GnlX2jj7qncnl5Sqwx1FpdGsosWGYjkdvOWaeO3UznM+yQeGo3YO+rMbqvbruewQMZVbMyk9W50Gg7NRzllwZTf21TsOUeR1tyAlNWfMzHtJPzjE41FX3YtGVzf6N30Wr58Mnal0P8ASdPkVl2syXQiv/ETvVx5gq30X1msEy8kam0PwdxCnTrH9GdODsxYimcphAiSQKpgGw11v2g6js0hMwAJ5CQ6LO1/Ziw5k7nwHZ3zT9O2bYjrVaSJFVr8iR4EEHtH5SPVp5gbi48LH58/COpghu5dz5gRa1Gnb+Ew/umpJyfYRTjHZMp8Vgr6rr5ajuIlVWWzKCNLi47ddZa4sZfdLL5mQsNRNWqqXF/rbs75n6lJ7dzRwNvuafins6mUhcuZEZbDQrly28QVI8ofRfgDVcQiMLqTdr6dUAk+G0smwqBKQKkEU7kHYZndgPQg+ckcGxBau1Kn75pVQpvbr5OrY8ow/wAPUuaEHN/VcI8XuQ+jww6JiamIw/tGout1tcgOxS2Um1gwknhnEqdFcXjKVEA5qaU0awCBzr7uwv2dgEtkwgpYqoa1MFMThjWenoQaiFGqINbHrAkfelJhK9PFHFU6FP2avSSoidX36BBNgNNRy8YrfVbY37US8XiqdWnimpIVarhqbuiqdKqP1sotr9k3G5J75F6PcOc1eHl1IJLaEagU3DbHuMm9IsSiLSqYdAmfC1hYAC7IyakDQ7GWPRStnp4XEVm/hriyzWAsqhADYDkGHfK5SpWkFbfsb4Xilfi4r/Zegzk/dQhv8ZZ18J7KnVTklPFhfuNVplfkRKTgqUjiab4e5pBcVSBbNfRCw97XmZoMVXV8Ork2zYRcxHa1SmrN49WVS5XjYifFdyv6XCui1MRTYVMPXoqhXMf3YZVUMFv535ZjftmWxPEqo4eh9rUu2IdS2d8xVaajLe98tzttL7G4Oth1xlMlzhRQcoXIKl3Xq5Tbe+a4HYJnaVD2mGwdP48VUB8OoG+UuhSVc7gk+SD0nphRRpDemKSN950zN8zGeNV7Z3+OmqDxLsG/7UIk7jeKo16rtSUgirTLk/aOfICNT/tKHiL5qCH/AJjjyUtb/KLtuxmlRX2BEZ4mnXJ5EKR4FRaGgjfEHu1uSgL/AGgA/O8MtNE4+SPSNiJb0KedlX9eMg+xBZQSFuqt3aqL/O8vsNTyKMoDt8h433/W8u0kW1+ivUOvkk8Tq5aYVdL2AHMKNvWUZQyTiMPWc3Y798a/Z2UEs2w27e6X5bbunQvjSSpNWWvROtlxIHxqyf8AsP8AH5zfieYcMxQWrTb4XU+V9fleenCZ2ZfdY7ie1Czp06UFxixFiCLeSQC+3LwOx8Y3RxjEWVF00JvlF+wdsccGxtvY2iUKL5cosirzZbse02mt6f1dL8CGs6bVge1b4F/vH5zmepa4CqPG/wCMN6TAXFYeYX8JX1q7bMQw7RNCUq5E4xT4ohY5zfU3PdIOGqEVl5cr+IOsfxTdawFhIFW6uCRbZh4cjMrUz3XyaeCNI2mP4i91LaZ0Qi23VGQ6/eRonR/HrRxC1GLBQrg5dTdkZRbzIjnE6YbD4Zhvkc+RqPb6SkvNGDU8dMTkoqbcTUYLpKFSma7O70qjMD7xam9Mo6lmPaQR4CR+ilX2NcVwLqhJyk2uhBUrftymZ4LeX2lOh3t9JCwx3vgry5GkkubE6V9JTiK4KoqIiNTROxXFmJtax0FgNrCSsDxSpTwrU1y5StRLkHNarlz2N/5F5TI0VzPeaLHHJQA7ZxjxRcXa2ROebTjFPdjfRvidVLKrAAMzjqgm7KUbXsysdJfYzHOtL2YbqZctrD3c2a19/e1mZ6N07m8teL1LLaWY8Uem2hXPOTzdKZE4lx/EVKYoPUJQW0sLnLbKC25AtIVLiVVAgV7ezLNT0Xql/eOo1J75Ec6wHOkqcYrsOq9iM2IZCcrEXIJtzKm49DGTUJFiTa5IHK53MGqbmJEH7htcEjBC9RAdi6/5CV9e97fq8m0HysrfCwPobyLVN2J7Tf11lWbgsxkiuhVqV/tU0PlYj8JbYHCuxuhI+ke41wwnDUKiC5REVu3KQNfI/wCXdK3AYtgOY79YxoppfayrUxk1cS8qU6qKc9jpptqZV16tUassnrhC4BNcEnXKGBt6kaxMRgygF3fU21sR9Y/OLkvAlBqL3q/gozWvcEWPKer0HzKG+IA+ov8AjPMsUhG9rfnPQ+DtehSP/LT/ABEydTFxpM0MLT4J06JOigxRjBOnTpJAQjuH9xfE/jFnTa9N/GzJ9Q5RR4rcyIZ06M5Ax8EfEbmMcY/if0U//GsWdMnU+40MPBr6f/DYb/pt/wCWpKWpuZ06aeH2Izn72dS3Eu+Mfwl8PwE6dLuzKsvvj8me4d70vuN/wx4Tp04xfjZ1m/NEZ6L+75H6yVxjf9d86dLIfjFsv+SyhbeA+xnTotLg0EVp3nTp0QGheRjI3Hl9J06VZeEWYz0DF/8AAt/0V/wEyvD/ALc6dJ0vIZvaAm8vML/BM6dNbyZ2XsVOL930+s9C4V/Bp/cT/ETp0y9byhzS8EydOnRIcP/Z</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mujeeb Ur Rahman</t>
+          <t>Rashid Khan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2037,46 +2037,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>173</v>
+        <v>133.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>40.5</v>
+        <v>41.7</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R13" t="n">
         <v>60</v>
@@ -2085,52 +2085,52 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>65</v>
+        <v>56.7</v>
       </c>
       <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
         <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>1</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFhUWGBgYGRgYGBsYGBodGhgXGBgXFxgaHSggGBolGxYXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABFEAABAwEEBQgHBwIFBAMAAAABAAIRAwQSITEFQVFhcQYTIjKBkaGxB0JSYnKCwSMzkrLR4fCi8SRjg8LSFENT4hc1c//EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAA3EQACAQIDBQYFAQgDAAAAAAAAAQIDEQQhMRJBUWHwBXGBkbHREyIyocHxBhQjQlJywuEzgpL/2gAMAwEAAhEDEQA/APcUREAREQBERAEREAREQBERAEUera6betUY3i4DzKxDStA/9+l+Nv6oCaiiUNI0X4Mq03fC9p8iszazSYDgTuIQGVERAEREAREQBERAEREAREQBERAEREAREQBERAEREAXRzwBJMAZkruvCfShy9faHvsdnJbRaS17gfvCDjj7Eg4a0BtPK30s0aBNOyNFZ4wLz90DujF/ZA3rzLSnLu22gnnbS8NPqUzcb4R4ytYqYGISk8Tr8PGUOGetVcTLjIOsm8VySYlsx/NSxFuOMDhn4rI6sMmtLu9dAp3usJB2hd6depekPII1gkHvUdjXZ6uKxGsd64dPQuS3pMtdmIbVJrUsiHmXAbWPz75Xt2gNOUbZSFag6805j1mn2XDUV8oCtKu+TPKG0WGpztF90nrNOLXjY4fXMID6oRVXJrTTLZZqdoZgHjEey4YOaeBlWqAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAqeVVuNGx2iqOs2m678REN8SF8t1nmSBHEjHxX0d6UXkaMrke5+dq+b6pkzrKAwvcTrlcU2E5ALG5WdnsbnDCGjZ/dG7BK5Bo0ccTks1S0gYAnjJ/gUqjoKrVd9m0uG2D5q2sfIiocajg0bsT5KLnFbyyNKb0RqZeTrXIZxW/0+StJmoujalo0ayIuhV/HRasLK2bNDaNy6hx1lbPW0U2cFUW+xXDuU41FIqnSlFXZ7L6BLUXWSvTJwZVkfMwT4tK9RXhfoR00adqdZjFyu0kbnsxHYW3u4L3RTKwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDTvS1/wDV1+NP87V892Syl7hsJ/uvoX0rOjRlbeWDve1eKaI0cXOB1BRm7IlCO0zK7kvecCyANh+i2TRvJym0C/DvAKTQhoCnUazSYlY9uTPRVOC3EulQptbAAEatXcuTB1DvXJssiWlYDScEzRLIx2mmIy/bwVPaGj+yu6rIGJ71V2qmBjgotE75FLWoqg0zTwWz1SFUaRs14GFZTdmZ6yuiJyBrFmkLKf8ANYPxG79V9PL5h5JUv8fZR/n0vB4K+nlsPPCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgNQ9KrCdGVo1Gme57V5toVl2i0nWJXpPLvSVJ9ltVmvRU5pxEjo3mi+GztwHevPtGsmjT1SxvkqarujRQTUs+BBrWSvWm6bjcsQZO8EZBVdo0E9h+ztNKRn04dwwlbJpew1HNa1hN2QXXTBjWAoOk9ANfVY6k25TFyW3ek27ndxh0zJJUYSyyJ1IN6q5WaKstra++KmRxuuvAjet4fa3c2Sc4Heq4WdrXOexhY32SfKMuEws1Z4DDeVc5O5fTp20Na5QvtFZ32ckDHDuVVR0VbnjN7W7yB4K60cHkup75GOY4YXo2SFzyl0USGGi990gB9+80ggmTDejdMgYZQrYSehROCeeZVCyWinn0m+IU6i6QAfHNdW2ZzKoFIvcyBId4kEnEblJrUIdO1cbVzqTSyMfI+zTpSzj/MDu4E/RfQq8A5N6QpWbSYq1ZIYxxAaJJc5oAaO84nYva9AaYZaqXOMBEEtIMSCMxhgrkzK082WiIikRCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDz3lPZ/8AEVBHWkn8IzWr2Fl2nTaMg0DuwW+crLrarSfWbB7CVpFlbF5vsvcP6isslmz0E7qD5WJ1nkBS2twkx5rpZzgFnLVVoXJFZazBk5KA+iXtcduSm6ZDeiXGGjUBJJlG2+mxhB6MiekIwXUrnU0jV7LUioGnMHt7FtQd0cYI25d61W0VWPLnglhGIcQQMMiCc1s2i3c7RY5whzmgkb113IKxFtIwyVY8mYV1a6cBVcdILsdTlTJZFPbIbXLhi43QN3REn+bV7H6NLFzVhb77nO8bv+1eKW0/bh2ZvAdi+gOSw/wlDCPs2+OKvj9RmnlSSW9+5bIiK0yhERAEREAREQBERAEREAREQBERAEREBrvK2xhzWvIkDA8DiD3jxXnbmXKtQCYvAid4C9iq0w4FpEgiCtE5ZaHZR5uqycZY6TO9n+5VTjvNFOpkosqG1IXS1W0Nk/wlYi7orFWoX+zEcdqym2+WRHNoe85Hs+q6u50YEE7IxHdqXQUamTnnsEDtXetZHe2IO9WJcCUYbWrKa1Nc1+Iz3SMFYWLSctAyOpQ7RQdqcfD9FJs1j6GOJzxz8FySW8hZxdkT7Va5YHfzYq8OOHau1U9Fre0+axWh0JDUrqO6MOhdHGta2MAkuF2dk6+wGV77ZqAYxrG5NAaOAELVeQ3JinQpstBk1qlMTJwaHY9ERgYhbgtUVYxTleyCIikQCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAq/TmjxXovpHWJB2EYg/wA2qwRAeN03yIOYMHswUqg6WhRNIsuWipsL3A/iK7UbQAsco8D0IT3MkVaAPHaqStoyreJkxx+mpS9KaU5sQDqB7CY81GqaVAeWO9m8e9IxepKU47zLRshAlxnYu1JwxVfQ0oJx1wf5uXarbBqOeK5ssbSsd3PxJWbk3Yf+qtbKPqYl3AYnviFT1q+G5bR6Na7G2tskAXXySYxI2n+Yq6EbO7M1STasj2BogQMguy6tcDiDK7K8zBERAEREAREQBERAEREAREQBERAEREAREQBanyt5Xtsp5tgD6hzk4N2TtO5WnKXTDbLRNQ9Y4MG12rsGZXgnK3SDuepFzpJvOcdpOvxK24WhFp1ai+VWXe7+iKK1Rp7MdTbqjzWc55iXm9hlJxw71U6QJZIdMbQpmgqt6mw7WjyVpa7KKjIIXjylszfez11Hagu5HmNs0q9xIzAMA9siVhNscS4k4xCutJ8n+nhLdcjH+YrE3kdWcLwdhwy44q9TiZXCaZRMtL8phWlir7TKx1NAuaYc/IxxJ7cFPsejADGrbtXJTVjsIO5ls9F1Q7lk0tRihVHuHwg/RX7LMGNHkqTTn3dTe1w7wqoyvJF8oWgyq9H2lX2W0CpSMe00YBw1tI14Svpew2ptWm2qwy14BBXynyZd9u0bf0K9l9HnKQUi2z1XQx+DScmumI3A+a9Z0dugprVN9eB5W3s1Nl6M9QREWMvCIiAIiIAiIgCIiAIiIAiIgCLqTGJWv6W5X2ahIvc44amY95yUoQlN2irkZSUVds2JVml9N0LM0uq1GggSGyLx4Bec6X5dWmqS2meab7uLu12Y7IWp2kl0lxvHEkkydkk9u1epQ7KlLOo7ckZp4tLKKLTlDygfbK184NGDW6gN287VqnKKzX7RQacjI7oKmUH4rnSw6dnqahUg/Nh5rXjaaWFlGK0Xo0yqg/40W+Je6BENu7MFsFPJU2j6cTxKt6JXx71Po46EW00MZ1rhjywEFsgqfVZOK5NIEQupnWjXatnvEuujio9Gn0/54K/tbAAq1jcVy4sc1iIWu6ZPRcr20KktzJwXY6nJ6FJoCzRVDtk+RVnTtGreubHSuNc73SBxOChMOK+mwK/gJ8W36L8Hg4pL4jXJHrHJPl7TbTbRtJcC0QKkSCBgL2uRtW+WK30qwvUqjXj3SD3jUvnumCA08Rr46sVnoV3NN5ji07Wkz4fqp1uzoTe1F2f2/wBEIYmUcnmfRCLx7RXLq10oDnCq3Y8SfxDHvlbZYvSJZ3feMcw7ocPofBefUwNaG6/d1c0RxEHyN1RQdHaVo1xNKo1+0A4jiMwpyytNOzLk76BERcAREQBFhtFdrGl7yA1okkrzLlPyzfUJbTdzdIYZgE73for6GHlWdlpvZXUqqCzPQLdpuhS69QTsGJ8MlrWkuXrRIo07x2uy7hmvKLbyhHqy47TgOzX5KufVtFbU4jcLrf38Ve1haWbe0/JeftchCOIrPZirckm2bhp3lhUqSKtfD2GTHaG/Va3U05S949n6/oo1LQDz1qgbuGJ+gUtnJ6nrLz2gfRVvtbYygklyT916Ho0/2fxNTNq3e7fZXf2Ir9OU/fPYPqY8FZ6NtIqMvD1iRju7dp8EZyfoDC5wJJPYsL9HspGafR23b0HiMirKPbctr543XJJMliP2dlSp7U6kY97dvukcWijDsFitNrZUpupNdeeIOGIaQcLzshiFgtdeeu1zm6xq7gcVmsGlaAF2LpOERdXcT2tKS2adPJ737J/kqwnZmGb2q2IjZZ/K76c3+Is3HQxFSm12sgSNYOtWNwhaXZq7mOmm75R/64ELaNG6eZU6NUXHf09uxeFJWdmelCnGrT+LQe1Hya71099rZlkx0hdHFSaVBY+Zkwo3sVpJkCuyVHdSgSrxlhWDSFnhsBAa85kqJUsuKvKVENBLiqLSlsvEhmDdbv5rXS6jQdV8EtXwRV26oSbjMRr47iotGjtEfzas1O1R1GFwykAnxAkLs41shTLPiJnjC9KhisVRSWzePP3MdePZNVN/EcWt6T+bno7/AGZxpCq0Uy1rofm0AXiSNUQcxhiquz1LW7KcfaDfIqxZScDi+T/MhClstN0YtDvNSr9oV6jThluyb/0Y8NHsxPZqSnbi4x/G0/sUtelbNd/5XD/YsDTaRkave5bC7SDfZP4v2XQW33f6v2Wb96xD1v5v3PQlQ7J3Vn5X/wACssek7XSdfaagI1wQe8QVuWiPSzaKUNtFMVBt6ru+Me1UItfu/wBX7LILS04E94kI8VVa+ZX+5COF7Om7U8Qk+asv8Uew8mOXFktpDWPuVP8AxvwcfhOTuxbOvm6rYWO6TOg4HB7cMR7oXqvo15WOtLDZrQf8RSGf/kbqdvI19+1dhUU9NSrFYOeHs3ZxejWj68U+JviIimZDy30kcpenzLT0GGCAes/X2D+al5fXq1K77g1ZAZDef1WyaTpc9ec44k3p2EnE8FxQszKLWgazJOtxnWt3aKqYenGCXyvTm99/wuBPsvD0sTOc6krKCvLjbl6N7tN5FsWiWUxeMOd7RyHAKTUtbY6PS8PoubQC6R3Bc0tF5y4ADrRkOJ1ncJXnUMHVxDulf8GnE/tAqX8PBRUY8Wrt87PL/wBJvuzRCfannKB3ErDStLzgXLZm6NpiBdOOIGb3b9jGpbaMXThGV0E3ZGoBvSqHacl6lPsV2+aSXcr+x4tTtXFVPrqSf/ZpeSy+xr1Ok9wJgkDWMB3qxstmfgHCNxxMbYEkBWN/IY3hqESOA6tMbzJXHNyJN27O0hk8es92/UtcOyKS+pt+S/BhlVcnd68d5xS0VTcJJLt7cQOLcHBHaEs7xixvxME/iY7EI1xbF48HPxGHs1W4jtWc1ci7DY5x8qzfqttPC0qX0RXq/N5/jkQ2pceuvAj0uTdwTSfhtAvRxaekOwqPW0c7Mj5gbze/NvaO1WhruEGeBJDXdjx0XdsLs+u4nHF27oVP0eo1cLTqw2JpW3WytzXDv05M04XHV8LU+JSlZ7+DXBrevTVZkTRWl3USGulzNmscN25bK2o18PYQ5p1ha3WY184YjMtEPHxs18QsFnq1KJvMILTsxYdxGo+K+ZxvZ1TDLa1jx4d/vvPrMNjMP2g/k+Sr/S9Jf2vjy1785G7UnKPpF7GtvvIDR/IG0qvp6fpc2XmQ4ep6xO46xvWu6Qtr6rr1R0D1W6gPdGvjisdKjOrPYgrvryLfgqmnUrvYitW9b8Et77r8ri3201jgLrBrnxcdq7UrK0CTiDrxAPZ1ncBA4rmlQDYn8MTU+VuTOJkrK+zCegXA+yDef8zzgzsX1WB7NjhvnlnPjuXJe/hZHzvaXa8sSvhUls01u3vnL2823mZg0CBkdQAl/wArcmDjisTiTIaCNoBlx+N5yXRrIBxEaw04fPUOJO4LrVfAAMAahBj5aebjvcvTT6664HjHFRrYEhpA2dFg+fN54KFWsTDhEE5Zz8rJmN5IUiSXa727pVO/q0wsbqjWg+IacD8dTN3AKqdGnU+qKferkk2tCMNGsJwneAZ7xAcO4rKNFMzE/mHeBLe0LKx7XZ6va6QHb12qQ5pzOWpzpcOyo3GOKr/csP8A0LyR3blxI1PRrDkbvzS124OjonDIrpaNDnJpk62kQ4cPaG8Kzsrpv8YIJvYADrD1m+8MQpBp4DIjUHHD/TqauBVUsBh56wt3XXp1zOfEkjS6Ty1ztznCNWBI+in6PtDmVKdopGHsdM7pxady7tsd6lfh94gkEtAGJJxOvPNdLHRAa5vswTxK8qHZU3Wu38ut+O+3J7ny8D2MP2nKnRnRa2ovRP8AleWa9ss8+N/Q/wD5L/yR+M/8UXlf/UIpfCpcCj4k+JfeqR7o8z+iwUKJqObGbTBkx24rK/CN7fJw/UrBZKhFQ74719DXoRrU/hy09s+uVzAsuuuT70jYrNY7mID5OBPNteOwyuKlIgziIkAubAG5lPW5SGQ4B104+4DuOLCPJcWp4GImThABvHDKXdRu9UUoRppQgrLrf73K7mTmxdnVALpO3H7RwzPuBYLUwuBGOQOYZI2uPqM2DWptlZ9mwkiA1omJa3AYMHru3qvtb5N0Zb+kSdp2ndkF2Du+uuu5nCAHtb0cCJwABDP+VTtwXV9QkyTjxjs2DgF1r04k95J8zmeAVloWwc9VDSSGgFziIvXRqaMmySAOKum1GO09xbGN3kY7BY3OvVADdaBexDWuMgAOeehEGcccFY09Hh5LaQZzsSRSeDOImabyQcDmD5qfQtbTZ7QKTWgU6zH3A3C64BplrsxIzwOAOBWbRzObtdOAA0tqPddBE3GGJDiTAJORjJYKlefzPRq9l3JSs9P93NEaUXZcbfdmsNpETdz13B+ai76Lq3IiJGu6LzfmpnFvEQrewkWmg6mQOcpAupumTrcROYBxEajG2FUtqzBcJ2GYd2PH1WyMnJuLWaf6PrIzShazWjOwjA5gZGSQOD+szg7Bd39LNgk+s7oEj4h0H9q5FOTIJLvwVO/qvWakCJjHbdEO+amcHdi6+uur+RWQ3WFt4C6QTqdABn2XDAnw8lkZTuE3cScw3pP7ahwaOCnsALSBF3XAJb8zOsw7wo1SAIdF3VgQ08GDpVOJVNGlTpXUIpX1sus+WqL6+JrV7fFk5WVldt2Xj+r3t5EU0WwYAa3WGmG/PUOfASuhaAIMBpyEENPBnWqcTgpNScMwdUi8/wCVgwYsLoaTJIOuDeqH4n5M7FeuuuuZSdHkkjMHVIBqfKwYUxvXSlQJMNBJJxDSXO385UG4HBuxdH1CcGgNBwwMTPtPOLvAKTWbzbW0RF5wl7hBw1NaRkMPCdajVqKnFt834LNvrwLaVKVR2S8t5EtVNjW3TUBIj7Ng6IxhwJ1mBIcdyxDmXOPSc2SQ0wSA31ZxJnHGD6u9GUWueBk3arPSehaLGBzKrXnWAQT4FYp4+lCUIVNpOXLTvsrLx8y6NJuLcbWXXiQKtjLWtc2XNImRkDj0ZBJBAzjKeE4aLy2XAxw/bB3as9nqQDBI1OAMEjCQDjEgZrvpimxoBYAGOa05k8ZB/fbK00q+1eLWav792azTWpGdO0VLc+vtvO1hMsbGckgDAjEkmmdefVKsXuhj3ZiDJA3f9ynq4hUdHAMGvAn9/wDkFc2ut9k+9N4MMOGDxh3PCskrRM7WZrVMAMpNaBJDQCJ2S447MVns7ftK7Rqu+SUR9u1uplEntJa0fVLA6a1o4gf0hSWqXB28oss3MquYC4U7m9y5WD92L/iGauIw2Od3ET5grFzc1OLVktBkvG+e4z5OKx2Y9Ju4FetbIzlloK3ZseBIMEkkGcgZGojDiArW3VG3TnHsgkz0fWecQ3ctTrPuVm1Bk7ou7cir977zHTmI3zhmBtOG5Uyh8ykRlFMntqksZPstA1QI9UeqN6jvHSHDgO3Y3xK7td0I2doG9x1ncurMwTtGeJ3SNZ2N1KEVYidK9KRP0/KMgN5U3QjoZXaM3U5GubrgSBrecZ2YLGac3p7Zxx972ne6FzZ5Y4OaYcNZ1bn6gPcGajNbUHHriThLZdzjQtcBzmO6lRhpujFovdVxB6TQHQe9XmlX3aYqZONnFPPC9UcQ8B24MdnuVW2lTc4OeHhuMgC9wDKkyAdjslY6QtTarAw0qwLeqZbeE7BdAeDsnFUVc6kZJd/W/n+hdTlaLV+4rNAG5Uc85NpuOOeq7DsiCYChMZq169R7snKbzb7vNtpkCZdhiXD2mHICRAG3WVgq0iMCOzrN28WK+LTk3fN/j9SmWiXAxQMvCPNuY4hZhVwAdiNRJxHwv1cCsFUxHhJ/K9ZmjDf3O7Rk5TZAmU23jIMn8NUfR6wWmnGJJBOM4GqfpTasdI+Hd3Zt7FxVxGP6j9XFQtZ9ddcRYiG0GCG9Ea4OfxPOJ4BR3DV4R5N+pWZ4x1zu636NCxRns1wcPmdr4K9LgdRxQi+Jg7ZJAj3nAG6OAKmVa16o4jEYBu8ZzljJJ71Dj9hH5W6+JWezPLXE9+M47zlO5Yu0KTnQk46208U39jVhJpVY7Wl+Oz3Z7rPMg0rMXODAMXYCcMSsr7FdDg4Q5pcCOEjzB7lItNnOLgIOeH04LreHSG6Bvwdj2k+KqeLnWpqVJ5ZXS1TTzV76O6aXJka8FB7Oru89zW7VJ8btrhuzcewiHYfRZ9KdKg3EGHOaIPSAJPq/38VzQYGYx27FDtIBA1a8cMJ262+9qKhTmq2KnOGiSV+O7rlY0VVsUIJ5vP8AmvZa22bXWfOzztvOod0gPLGN7do2hWWm3XbPUPumNmWr2TuVZZTLxO3gZ+jvNTuUlUNoknKRe34iQ4ait85XXmYUs0VVifNoqnYGM7oJ8SuuiHS+qdtU+H9lj0ITBcc3G+eJl0dy50DiC7a+oe6f1U4LOPi+vMse/wADNfRYpRVXJWMtT7x/A/kWKhmfm8lyi27ioj27IcW+YWxWDqv/APzPkiKM9H4HHoSLP9234x5NXah1mcXoiqlv8fRkCVZs6fF/kVK0b92PjP0RFmraeXqyUNfP8lvZcz83k5V9H7qp8bfyIix0tZdbzTPReHoRtJdalwPm1RKf3zviRFvp/R4P1M09SLV6j/i/3KQ7qM4HzC4RWP8AL9CJ2H3g4N8l2d1xwPkURVPTwOsr/UfwH1XT1afH6oi0vXx/BxnDOvU4HzCO+7p8T5oi6vqXh6AsdbPjp/mXSj12/G7zKIvDof8ADHr+VG+X1dcWRrR1CoAyZxqflRFb2d9FT+9ldfVdyMNkzdwp/lUnlv8AcP8AgZ+Zi4RbZ/8AE+6XoUx+td5X6LyPE/lK45P/AHTf9XzRFpX1x7pfg69H4fkxoiLCWH//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRYWFhYZGBgYGBoeGhYcHRweIR4eHBoaHBoeGRwcJC4lHB4tHx8cKTgmKy8xNjU2HCQ7QDszPy40NTEBDAwMEA8QHxISHzEsJSs1ODY0Nz00PjQ2PTc1Pz81MTQ0NDY0MTQ2NDY2NDo0NDQ0ND00NDQ3NDQ2NDQ0NDQ0NP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xAA8EAACAQIEAgYJAwMEAgMAAAABAgADEQQSITEFQQYiUWFxgQcTMkKRobHB8FJy0RRi4ZKissIjgjNTY//EABsBAQADAQEBAQAAAAAAAAAAAAADBAUCAQYH/8QAKhEAAgIBAwMEAgIDAQAAAAAAAAECEQMEEiExQVEFE2FxIjKBkbHR4SP/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQBERAERKQBE550l9KFDDu1OihruuhbMFQHsDWJPwtIGn6YavPCIfCqRp4ZPnAOxROecF9K2FqlVrI1An3iQ6ebL1h4lbd83zD4hXVXR1dWF1ZSCCO0EaEQC/ERAEREAREQBERAEREAREQBERAEREAREQBERAEREApOY+ljpYaa/0VFuvUF6rA6oh2UW95vp4ib7x3iH9Ph61e1/V02YL2kA2HmbT5jAq4muWZi7uxZ2OpLNvpy7h/E8bPUrPYTQWBP52TzVQ5Qc1twDa/jf85cpvnCOgq5Q1QsSRsCRb4S/ifR7QOqs633F7g/GRe9Gyx7EqOasbHMLEX2B3/PKT3RDppXwNUFSz0WPXoEmxH6lvord43tY8rTmI9HKWJV2U8r2I85pnGeA1sOevqv6hO45IydIjlilFW0fT/CeI08RRSvSOZKihlPPvBHIg3BHaDM6cF9DnSOtTxK4QuDRq5iEb3XsDdD2kD2djvvv3qdkQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgEL0twbVsFiaai7PRcKO05TYfGcd6G8HRFRzu12v4iyj4fWd2rsArEkAAEknYWG5nEauGfMVFYUUTRRa98otfcXkWW2qJ8FJt0dJQnKBbS09ty0mg8M4ji0dQayVadwAV+VwdvImT3FeLYhAMgUsRpz187Ss0k6stqVq6JHHVJpnSemGpuCt/y33lXx3EKilmWn4BxfyAv8J5o441EYOmVtmHI6bqez+I2uL3DcpLbVGl9Ecx4jhAmjevTUXH7ttbZbgz6enJ/Rj0cX+rq4ojSmuRP3t7R8lFv/adYl1O1ZnyVOisRE9ORERAEREAREQBERAEREAREQBERAEREAREQDC4tf1FbLv6t7eOUzntLg61CX1DAuoI16puCDfkZ0jFpmR15FSPiCJz2lxYU6ZJ2zH68zIM3YtaandnpOErTVEUAagKAAABe5AsO03nnG0c7sjaXFhf80kLxLpKwdHotcKQXzLdT+0jUS3S6TesqAuVAJAJymwI5DY303tINjfJaU4p0ZeN6NltQcjZQMyk6WtYgbE6bne5vvMXF08gAOpW4J7e8zZKPF0JIuGDDqnfXci45zXeN1Abnl/M8ttqw0km0bV6OqTKr6nKwDEcszHe3gLeU3ma10MoMKQY7FEVe/KNT8dPIzZZcx/qZ+Wt7orEROyMREQBERAEREAREQBERAEREAREQBERAEREA8kTiDYlGqDDVdClYo3K5W6nyv8AWdwnGvSr0fajXGNpf/HUYB7e5UtYE9zaeY/uE4lFSO4ScTOo4ZKF81RsnIszaDssGUfnOW6y06osrLUA+XhcHxkHwrirVaZWr1vH87Jdq8RSgh9Tk5aHXXXnzNhK9P8Akubk18HpsImGqU2zkhs+ZdOSki3cP4ng4sYitRor77qLfuIGs1DHcXeo+d2vYEDz0PxmfwWjVUrWUlHven23Bvn/AGjw8JLDFbV9SCWXh10Po3DYdUUKoCqNgO83Pzl6at0G4jVq0nFV87IwGawB1F9bTaJYnBwk4vsVYy3Kz1EROToREQBERAEREAREQBERAEREAREQBERAERLdSoFBJIAAJJOgAGpJPZAPVpq/T7iFOnhHpvZjX/8AGq/u3bwG/jaQPG/SATdcNZVF713HIblV2A7z8BNYxtA1gWeqzMwv6w9Yk2NgNdATYabXlmOlltc327dyH3luSXk1TGYSqhITrrfmbHwM8YfheJq6BQt/eJv56TcanDbMrMNGAOukutj1DGkhUMBflcgb2HdKWNZMrqCv57F7J7eNXN18EDhOjVKkwaofW1Nwmyjvbu8ZIsxJ01Y7ty8AOQHZLqp/ljuZaesPZX4zc0+lWJW+X5/0ZGfUPJxFUvBJ9HOkIwlRhbMGsHF7bXsRyvqZ1LhnE6VdM9Jgw5jmD2MNwZxEYe+ul+0fU9plzhXEq1BgyPlI56ajsYbEdxnmo0qyfkuGc4c7jw+h3iJrvRrpKmJBQ2WqouU5EfqXtHdy+c2KZUouD2y6mhGSkrRWIicnoiIgCIiAIiIAiIgCIiAIiIAiIgFJonpL4syJToKbesuz/tUiw8CfpN6nMunimpjqdMf/AFKNBc6s5Y/6fpJ9Mk8ib7ckOZtRpGk18PnDLcgEe72XsfjMvgw9VTKn2QQV7jcZh8SD8ZL9JsJRptSFLMDlbPcgm24Jtpf2hobaC1ucdUuQtMAajMBv7WpLWOwva3O3w1ajkjflUUbcJfXJhcU4i2IewNkUWVRfqqNLm2uc93dbndh+EqSpy2I1BBII5XzCxv3TPw2GRNNzfVjzPOSFLDVLEqrNyFlJH53TuOOGOKikkkcyyTyO+bMKph2t1n077faWkoAg6nffwma1MnR73U6jax5g98p6rlyO/Z5SUjLFNBbS5HPT80mNicIeQJv2afSSaVgCRyHOXRTOU66n8uZ5Z4iFwj1aTo69V0swYHXs8xbccxpOwdHONJiqQcaMNHT9LW/4ncH7gzlzoQNdTPfCuJVMPVWom3vDky31VvseRlXVadZI2upZwZnF0+h2eJaw1dXRXU3VlDA9xFxLsxuhpFYiIAiIgCIiAIiIAiIgCIiAIiIBSaV0go5catWysDRVcpub3Z73UctF303m6znPTrijJiAgA9hTc7alvduAde28n08XKdIizSUY2zWeL3NepfU7bKNlGgC6ADa2+mut5g4TE2YgqQeZI1P+J6EuDUj8+E24xpJGVJ22zLLrdAWVWfUM1tApVSxvodWAAOmjE3CFWyMDSJCu1AHOyrnqdZyDcqLt1rZTey2GulhMKnQBq5mJVWwzIGzBVuKrsyPcHMLMjFbi+Zd5sNOsyhCwHrFVlp0luMpO73vtaw7st+8YOtySnlcPB9DoYw0+meoaVvj+fKMTiuHAy72Quo1ucoVGVSedsxF+wAcpHGs3lb6SQxVTObXB/u5FiSWPcL6DuUSHxpJAAOUgWPjmH2+k2dNFxxJS60YOSTlNyb6suCoDftGpI7TsPvMwMWHdf8MhqeLCi+5udfA/nwmXh6+ZiD7I0t4afW8mZwZ+JAW2m1tZG13AJA0t2fWSYxCsOWnb4afSROJFnNhuNDPEe9zpno/xmfChCdabFfI9YfUjym0znnoyc5641Ay0yfG7j+Z0OYepio5XRqYXcFZWIiQkoiIgCIiAIiIAiIgCIiAIiIBSc09JSWxFJv1Urc/dcnl+6dLmodOOGI/qqtRbqhKk3PVztTsdORsV7s9+8TaeW3ImyLNHdBpHOTe3P/d/mWsNU1P+Pz6GTtLhKtSqm1ilKg3u+07WfkOSsZh4ro9VR29X1wGy5dm3cc9wMvfqwsJr+9G+pn+1KuhWnXK3GhB3VgGBtscrc99RrqZV8WbZQFUHdVAW/cbC5HcbzCLMrFGUoy7qwsQe8G4HyljEPp3dvLztcDxkmzG3upX5o83z27Lddaviy7Vra3DFTyYai4/Up37xvMV8RnbrABwOsl9DbZl7RqQRvqPE2KlQi+ZS6H2lvY6bEa2Yjt0PjPP9GtUdSpmy6gEWdT3He3dqJ05Hiii3hsRpY7BvMENt9ZI0HvlbbtHlr9Zr6qy1mV+0Ena91YXsdthJ5HGa/K21u0/4nMZWdTjTJThOFNd8qi25JFzYKrMTYak93O4khX4E7hWonOrKD1rKcxZ1y5cxucykbzH6KYhEeoxdkbK3q2GoDED2h7w028ZtNbilOogYvkDKcxDqhUqxzAqOspIu4OurMLm4Bq5cmSM/xXBJCEJR5LPQeg1DEPTZkJqU81lNyCrCwbTS4Ymb/ac+wOJoHiFFqThizVVaxc9QoSmp6osysLDWxF50GZ+otz3Pq0XMVKNLsViIkBKIiIAiIgCIiAIiIAiIgCIiAUkR0mYDDPcA3KCx2u1RQN+8yXmlelSoy4JMp0NekH71uf8AtlPlOoK5JHMnSZZzq6VHdiGqFkUAGzFErKAbXCizXv2gSN41dhVZWZGy51YWsbEO6E2NjswOh6m81rDYx/Vrdz1GLKCVOVjqSAwBBMzKHG3yOjqrFwQH2Kk3BIBIv1WYdVuc0vYkqa5Knupppkli8I9ZK7Ld6oroyL2qtE1FF+9CE13OWYvF+FqVxGIornVvUNTUAnKr5s4tY3Fx5W5TLw/SVqLIyhgGNFal10IRArG5vYnKLeO/bZ4rxSlh1tTs1GodTYdQrVYroRYLlfyI757FZFJKuOP+nknCS+TVqaKdi6HsBIt5TxisKDa5LeJ18j2yexGGpO3VKqxGlsgv3i1ryNxSlLh0JXbOhv8AEcuctZZKMHJ9kc6fE82WONd2katxO6uj5iQCBr2X/PjJ3ANddL3sAR4C0xON4am9Isrgka2J1nrhdbNSG17C1u2wH1lD0/M57lLr1NX1vSRwzi4qlSX9E1wwt1bD5jmSfvPdXZxc31Hdry+UsYWygAnTNMyqdW6um++9ppUYLL3RipbF4e22ddf3afedmnE+EsFxFBhyqp/tcfadrmXr1+afwXtI/wAWvk9RESiWxERAEREAREQBERAEREAREQCk5N6Z+InNh6Cn2b1WGo19lDcd3rNO+dZnBPSHifW8Qr81TKo0B9lQCNf7s0n00d0/oizS2xL2Bvka19GO2e3+0kfLylvDjQ27eV/nlH1WV4fYo17cjrl5j+4feVorve243t2DbNf5NNePRFB9WXnRSpDWHf1AR3g5VIl/AP61Hov1io1F2YEcj7dp4pN3nyLf9XMt4xGRlqJfMvKzG4O462YfKdnhYw6lf/BULWufVOSbg7lLl7Ajl2iYrVa4JAYPbWzbkdoPxkziKKVkDAEq24F7gjvCaMD9pAVC2bKx663yvtmAP/LtHnKevbWF18Gv6JGEtYt3WnX2YWPamysGQq39vb3zA4A5uU7G+A3/AJk5UxoIK1BZhsw5/wATX+FNbE9lwfjp+eczNDLblRs+v4U8Sl3RttNSAC219CJnVqhzpp7QkcMQwzA3AHaLXPjMum5ZVJ5XHjzH3+E+iPi2UrEq4Ye4Vb4b/SdyUzhGKQhWIPK07hw+pmpU2/Uin4qDMz1Bfq/suaTuZUREzi6IiIAiIgCIiAIiIAiIgCIiAeTPmridfPWrOdc9R3/1OW+8+ieL4j1dCtU/RTdv9Kk/afNNVSBvfvGvzlzSL9mVs75SNo4I110v7KdvZ3EfSX8KN/L/AIjsIPyMw+j5ui35oPl4gzOw43Hh/HYRNCL4RWa5ZddNNj8D90MyMMiuMpsD3hR/0lpVHd8F/wASpBBzKfzyaSnBjBWwznMCabHrC17d4uoExeKYIOeqQRclSO+xBUj6cptFB0rLlaxby+7TWuJ4VsO+l2pmxtzU66ixOndKet/LBJdzU9HajrIN9HaIatduo+jDY20I/ma1isyVNdDrrN7r01qrra9rgj6j+JqvEaBLqpIvmABO3iRvymJgb3Kup9V6rh3YXJvobBwvixdQlZkBIsGubG+wfkp22kg+HCgqDYjXLcHwtbz+MYVlCC6B12JQCx8U+0x3CBgFJYD2QykED9Ou4HLutPp42lTPz+VN8HtqhYEHYg6+E7N0YqZsJhz/APjT+SgfacYz9wsAdJ2no7hjTw1BGFiKa3HYSLkeRMo69qolnSdWSkREzC8IiIAiIgCIiAIiIAiIgCIiAaz0/wAX6vA1zexYKnk7BWGuns5pwPiLXsT8lOnmNfnOs+lTGnNQoXspzO2oFz7KXHMe1ORcTSxO4H6hofgND5TS08NuG/JTySUsleCf6NP1VtfYjXfc+clqA1P5zM1foxVKgXJ1JtebNRqC8sY3wiOa5ZmoOX8/zPamx1285YD7GSHqC65lFyOUmsjotKhBDL9Tr8pY4pWJYaXOXVTzsT2+MuCrk308ZEcbxQIUg7X1HiDIdTHdhl9Mu+nS26rG/lGJiQFu6ezzXsPMr9xIjhrZqrN7WUaee9u+31nvG46666NyYc+5hLnBqQVAToz3N+WvYfC0yfT8W7Jb7cn0fr+q2Yfbj3JekARbW973H+JklbKCSWJ7eVvwS3R12PkOZnuq5AYkb2sDN5nxRk8DwXrsXRp26rNdv2qMzA+IFvOdrE5z6MsDmetXYeyAinvNme3kE+JnRpj6ye7JXg0dNGoX5KxESqWBERAEREAREQBERAEREASkrLVeqFVmY2CgknuAuYBx7pZWapjMQSdUYKt7EZVAHV7NTr3kzR+O3X537L9oHIyerVGd6lQoQXd3ygE5SzFrDXS15DYuirugJNi2x5c+y820l7aivBmJ/wDo2xw/REPNd/PrC/Z7w+En6W95BU2yMbki/vAX8QwO4ktQri21+8H7Hb4xGIc/Jnk30mXQxXqNXcLfkTrIw4gjVQbjYEHz1Eu4biFjcUqebmztdvKwP1Elo83Ik245Rfemangl/tLONek6HLhGUjW9kHI3uCwOxlUrO2pakB2BXP0f7S+b26xTL3q5HmXLZfOcyhFqueSTHNwkprqnf9GjcVqIxVFplSxA90b+BmbRQKQpG2lrfblLFbDKa73VFCi4J6yG/wDcoGU99uckKFViNVqW5ZaisPibGVdFgeNO+tl/1bVLUTi0+Ev8l6nUBvbQ+Eo9SwAJvLTOEsAtr9pzHwuNBJ3oXwv+oxS3HUpWdzyvfqr5tY+CmWss1CLkzKhFydI6X0T4aaGFpows5GZ/3NqQfDQeUmoiYTbbbZqpJKkViInh6IiIAiIgH//Z</t>
         </is>
       </c>
     </row>
@@ -2155,25 +2155,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Josh Inglis</t>
+          <t>Shahidullah</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023_223</t>
+          <t>2023_216</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>66.7</v>
+        <v>56.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMWFhMSFhUXFhASEhIQFRgYFxUYFhUXFxcYHSggGBolGxYVITEhJSkrLy4uFx8zODMsNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABEEAABAwIDBAYGBwYFBQEAAAABAAIDBBEFEiEGMUFREyJhcYGRBzKhscHRFDNCUmKSsiMkcnPh8VOCg6LwJTRDRMII/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADQRAAIBAgMFBgUDBQEAAAAAAAABAgMRBCExEkFRYXEFEzKBsfAikcHR4WKh8RQzQsLyBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIixTStY0ueQ1rQSXOIAAG8kncgKrabaamoIulqZA0G+Vg1e8jg1vFcd2j9LNbOf3Rv0eIHebSSO7TcWb3C/etZ9JG0Arq+SSN2aFnUidqRlG9wHIm6oKIG5BNz2X96g2WRibRVbeYm4WfVyN7W5We0BecK9JGJ05P7yZR92cB489/tWpzxyXyetdYm0T9WvuLLiZK3I77sJ6WYqt4gqg2GU2DXg9Rx5a+qV09fjMU2Wzg7UcRprzuv0B6K9v46iJtNUSAVLNG3P1jQNLHi7sU0yto6Yi8tdcXHFel0iEREAREQBERAEREAREQBERAEREAREQBERAEREAXPPTbjZp8OMbfWq3dFe2gbYueb87C3iuhrkf/wCiAfo1L/Pdp/pu+XtRnVqcr2fwnp3BrOFszraALqGD7PwRNsGA83EXJWu7DRBjALamxJst/p2iyxzld2N8IpIrpcHp3HWJtxuIFioMuytNmzFhJ7yFsDdHXtosj5RyXEWOKNFxvZ2AtIDAAeIWo7JURgxCIOjz9cANzmO9zoQ7ge9dKxIXWnPpC/EKJrdM1RG2/ZnB+CnTk72Ka0Fs3P0JQStdG1zQQCNzhYjsPapK8tFtF6WowhERAEREAREQBERAEREAREQBERAEREAREQBERAFy308BjqanGYZ2zh2S4zZTFIL25XsupLjvpEi6Waovck2a0DW3RtuT2D5qE5bKLaNPbb5IrMEc1kTT2Aq3jxOa2ZsQI5F4aVCwGFrmsH4R7lnxPZwSB13PNxYWI07gskbN5m53SyM1FtW1z8kkTmO56Ob5hWmJYoyGMvcLBVdFgzG2IZYtaADca24ntXraMNfGwOFwHWI8FJ62CTsUB2ifOT0cPVH2nvDb9wWfY4dLiNL0jMrmSOda9xdsTyCDyuoT9nmuzFocC6wAuAG9o48FsuwdA1ldFmNy1shaTzy29xKsjsqSsU1NrZdzriIi0GIIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAtB23whzS+Vvqyg6nWzi2xB7DZb8sNTTtkaWPaHNO8FRnHaRZTqOErnDdmqvqgn7AsVukM7cmYlc8xB30StqYLWa2V2UH7jjmb3ixU6qxCR0DRDclzw0jjr7lklG0jdTmtk2SoxcNBe4ZYzexALj5DVQMVxan+j5ukG8EA6Hy3qjiw+pmJjmaY8pFszwAe5fcY2WDYxlZ1hbrulY4HnpfRdUSTm0XmHVYc3Ubxdrt1x3Kbsm7/qMQvuElvyFaHg1bNnawse1pNmufxtvV/shUudi0Aab2c+9ter0br39nmpQVpldWd4M7miItR54REQBERAEREAREQBERAEREAREQBERAEREAREQBRMRnyRkjedB3lS1QYhVh87odxja11uYdfUc91lmxlV0qMprX75X8iUVdpHCtuaeSKsLpnFxlJcHONyW3017N3gveB4uGPaOBcDfkAuo7YbJR1sOUnLIy5jlG9p5Hm08QuK4hhs1JIYpmWcBcOHEcHNPELBg8TGrFRfiX7819eZpu0zsEk7DH0m9tr81S1GJRvGUNtfTNktdaRhm0L2gMc4hnIkq1qtp48gGm467zf4Lasi+NTmfdo8SEMLWt9cOuOzS3xWz+g3BSelrn/avFGCNeBe6/K9h4FaZshgDsVqgx78sLLOkN7OLb+q3tNvDVfoqjpWRMbHG0NYwANY0WAAV1ONkY6tTaZnREVpSEREAREQBERAEREAREQBERAEREAREQBERAERVVZiH2Y/F/yVVatClHakdSuS6mrazTeTwHxWr4zBK54qY9ZYr/ALPg6P7UfxHaFYMZxJueZWW9l4NfHVKjy04cevG6y/OZcqasfKGpZLG2Rhu14uOzmDyIVDtps6ypj1Fnt1ZIN7T8uxey76HMXf8Aqzuu4f4Uh+1/CePJbEQCOYKxVI93JSpvLc965dVo+Kz0aJwk3k9fefmcDqcE6zmSMyyDfbQHtHYVXu2csezvXZdosAD+sALjcePcexagKPrWI1G8L1sPiu9hfSS1X25cC1RTMOwVO6Koe6PQxMYbcDqSR5X8122mqGyNDmnQ6rl2xMBE81x62Wx8Ny2KSJ0bzkcWm1xlJHeqY9oOhWkpK6dvLL7FdWnd5G6otYp8dlZ9YA8cx1XfJXNDiccujTZ33XaH+q9WhjqFbKLz4PJmaUHHUnIiLWRCIiAIiIAiIgCIiAIiIAiIgCIiAIiiV9Rkbp6x0HzUZzUIuUtEdSuRcUqL/s2n+Ij3KLHHYbl9gi/upQavlcTWlWntP+DVCKSMIC8EKSWrBKOW+2hWdNrUkQKmLPdptk3W35ud+xRMOqTTObBK68TzaGVx3H/CcfcfBW5Zr2OGneq3GmwdEfpIHRhzTqCesDpoNVdCX+LzT3Ljua5+qut5XNbzxjG0MTT0cQM0u7Iw9UH8b9w7tSubbXY5X00ueWNuSRvVyt6rSN99LldQpIYg0OhDcjhcFgFj3WWDaHBm1MDmEXcOsw8nAaeB3eKnhZ04Vk5rLR8V/G9cDlTb2Xs6lHs1ikTKSOoqHsidMLi5Db206oOp3KBim237WMmlmEOodUEX37jlbc27VcYbg1PNFDI6MXETGgcGhosWgcLG6u4aVrG5QOr5qM9nvJSlHPPfpny+t+hNttLMj0wZKwPY45XC4NvmvhpnNs4bxrcaeSmtbbcsh3HzWdwW4XLfDarpGAneND81MVRhYyvI4Ov8/mrdfVYGs6tFSlro/L8WM81Z2CIi1kAiIgCIiAIiIAiIgCIiAIiIAqapd0kht6rdPHip+IVIjYXeSqsOfmF7W03d/FeR2pXtaktdX9C2lHeTALaL6F8X268YvPhWF/8AX5r05+qxvcq5Zg+O/qFQ7bYc6aOIBxDelbmAJaCdcgJGoBdZpP4le5l6nia9hY4XDxa3x7LLtGpsyT4CSyOc7MNlhkkERP7Jri+lc4uDsrySQSLtdkezdpdpW+UVQ1zGvbq17Q4doIuFrOItdBVGXpIQ7o+jf0nSNz3JLXHK0gOsBrxstiwinDaeEA5srGguF7GwsTr23WrEPb+N77emf45alcMsiJhjOjfLHwEheB+GTrfqLvJW2T+yqcUk6OWKX7Dz0L+wuN4nfmu3/OrhmoVE+PH2/wB8+lia4FTtBijaaPPlL3H1YxvPWDd/IZgVB2X2jFUHBwa14zdVji4FoNr3IBBvwsvO1NLnqaQvuYR0oe1ptYubZj3W3gG2nyVDBs/K6rljlY1rDE90U8DXxnqlvR63t9p1287rXTpUXS+J2et+V7ZceLXAqlJpnQKSa2Q8iL+4rYFqVIXZGZvWIbfhrpfTvutpjdcA8wFt7Kn44dH9H6I5U3MyIiL2CoIiIAiIgCIiAIiIAiIgCIiA1naeVwc1p9U5beeqk0IsFLxukbJHroWuaQfEaLXsYxBrAI87w91yY4GGSbI3e4W9QfiPhqvmsbRlHESd77VmvfvI0wkthF+SvDita2FqjIydzZHyQdORA+Rxe4sDRm6x1Lc2ay2aRY6sXGVmSi7owTFY3O07QsjwsElxry3qgmfI33PgPeVkq4Gy9R27W9iR3blV4HVZ5JWn/wAbreFyR7LK1pDo53euR2oyd+P5DtY1iLZiQE5nxFuZoLRHJwBsA7Nqdd6scLwB0T2ue9r8oNrNc2xtYEXcd2o8VfxssG9l3HvXpy2utUazevJFSiiJNStewscLg8O7Ue0L3AN+u9fZCsER1VT0JaH3E6R0jHNY8xv0tI3Ug33248dFRjZwkl0lTM599Hg5beF1smZYJipwqSivh+hZGrOKsn766+RXUEJYGRlxeW/bdqTY7ytponXYOy49q16BvXJ5ADzd/RXmHyjrM4tsfA/2K29mzf8AUNcU/uUVM43ZOREX0JnCIiAIiIAiIgCIiAIiIAiIgIOMSZYXutfKLgDeSCLBcf2dGI1klQwsMDJ3kzVjmkS9HubBEHchxtz4ldixX6p3gfJwUCB2g42FrjVeL2lVUJ2ss0s3us2W04OR5w+gjgibDEMrI2hrR2D4rO7cvrXcfNG8QvHbvmXmKRU2OYrHTRmWQ6DQN4ucfVaO0q54LmPpWnd0kLT9WxrpBrvf6vsF/NW4PD9/iFTej16LUrr1O7puRbejyvMzaqV9uk6W1xoBeNug7FuUQ6rR94rl/odq7sqWHe57Xjxu0+5q6hCLuA5Bc7SjsYqcUraW6NIYd3pq/vMkTHUN57+4I9/FQMVrGx5nvNmMbdxAJIaN+gUWTaGEwxSszOZPI2JhAsQ45h1gToOqfYqoxk80sr287Xt8iTnFOzfvQspHLFGestck2rv0LWROc6SSVrhmHUZFJ0bnnn1iNFFw7aipdKWy0ojDJGsf17kZhmPkNVojh6jTy/ddPVFbqxubs0KJK7RxVNLtDI3EhSkDoXMADrdbpCwvAvfdZpUHDcTlfLC1zyQ+nnc5tgAXsnawO0G+1/NcVCSSb3pPyd7eh3vE3ZdPQ2elOo5uN/AD5lZ4qjJODwcWs/MbD22VHiW0FPSG8r7vIAZE2xeb8hw7yrLD8JnmkbNVWjaxweymY7McwN2ukdxINtBotOBwtWdRVVlFO93v6cfTmcqVEls6v3r7vyNpREX0ZSEREAREQBERAEREAREQBERAVG1ND01JNHnLMzD122uMvW491lx3DsAqrXZUuHhl/SQu3Yp9TL/A/wDSVzvBXdQdypq1JRsky+hRp1LuST8ik6fF4N0hkHIku9jrqXS+kWaMgVUB7XDqH4g+xbQxeaiFjhZzQRyIBWWUKc/HBPys/mrMueHivC2vO/7O6JWDY7BUi8T7neWHRw8OPguZel7GopJGRROzOizB7huBJHV8LK2xzAqaNrpmZonMBdeN2UXA5cPBcozGR9zqXEkntOq5hMDThW7yLeWifF5a71blcxYiUox2ZWz39OXXmzevRjL0czR98Ob8R7l2Wh1u48VxjZLq1MP8xo/Np8V2z1W9wWDtunbExl+n0bR3Ay2qb6/k1jbR/wC6zfjdFH+aVoPsuqOrjbBHJTg36Csppm9jJJANO65Ww7R4a+ogbG1pcHTRl9iBZgN3FVWJbGFsjvowyxSQOY4ucTaQOa9jrHfq0KnC1KaobM3q2/ls8+CaWTvfcdqxn3l0tyXr+PkQIKRzWtnY4dJTVVWHREj9pC6YmSw5j1vBe8YeRLWlu9klO63MdE7MB2kC3iptVspNLFE4TNiqG9N0jmtzNInN5A34KzGzzc0ry8npuhNrDTohbfxupRqwWbld5rT9afmsm0+b5DYlolb/AJa9cjUsexS1TNIyKR2SSklEzW3ZG1sbcweeF2uKkxTBtQMhBLYaoDX71YwgHlo4LbMN2bhjjlju57Z2ta/ORqGsEelgLaBY4MEp2Dqxi4uA43c62YHee1rT4Lrr0rJJPK3nkuOmj+fz6qc9Xv8Auyg2mw6J8znFgLy0DORroNNeC6ZhlR0kMb/vMafG2vtWiV8N5XHsHuWxbEVN4XRnfE/T+F2o9uYeC9XBN93FfpRfWj8CZsiIi3GUIiIAiIgCIiAIiIAiIgCIiAhYs4CCUncI3/pK5ngzrNAXQNr3EUc1t5bbzcB8Vz2KF2S7d4Cy4h5o24RZNmwwvXypksFDwirzsB48Vkrb2We5pZo3pAxi0RiB60h1/hGp+S0bCoruuVHxurfJUSOcTo4gN5AGyl4f1BmO8r0sPDZSPDxc9pt+RsWFy2ni/ms94Xc6x2lua4Rsm0yVUJO4yxW/MCu4ynM8BeJ/6CS2odH6os7OVoy6kunbZoSo3LI0LFUbl4iyRuMUA0WIFZqdYbe9dejZwzQKEXb/APnFTYjvUEDU+Ks4nGV8sYzkrLsvPlqyzhIw+bTcewlYpHanvUCgqMtbT9r8v5gQvoaHwqHl6Fzjem1y/J0pERegeeEREAREQBERAEREAREQBERAQcapxJTysP2mO91wue4TJdg7QunPbcEc9FyjC35XPYfsPc38riFmxCyTNeFeqJGHtyvfbQFx0U+qBssEHFZJX9VZTWct202eyO6do6kjiCRua/eWnv3ha3cmzBw3nsXZ6aBkwlgeLtlaNPG1/C4PgudYxsxLRylrxdpPUlHquHfwPYtWExO3J0peJac191v+Z4+Mpd29paehZ7FRWqoBye32C67NSt1JXI9iYiauO2tsx/2ldjpYja5FuxeV26nLEwit0f8AaR3s/Km3z+iM6wTrOVHlXky1NqPNOsJGrlmp1jeOuUW84z7CFE3F3ZdZ82VyiuOj/wDm8rtN3TRyRVVD9T3lVeFHNX04/HfyaT8FOqH7+8qLss3NiMf4Wvd/tI+K+ipZuPkXv+2+n0OpIiL0TzgiIgCIiAIiIAiIgCIiAIiIAuTYq3o6+oZuBeXj/OA73krrK5l6QIujrWP4Sxjzabe6yprq8S/Du0zzSv3r1O7QqLC9ZZnafJYTeYML1qGjNlzAi/hor5+CueHMeQ5h+y8XB+S1OnsZ2AmwLt9/at1BnbbVrxpY7vNeTjElVT32RGV/fuxW7MbJ/Rqt0jXZosrg1rjdzXEi47RbcVugKg4dKTfMLHvupjjZcnXnU+Oo75W+RkjTjDKKPMhWB692J1Xh53rG5XdywQrFN6/gs0QWN41vx3KcXaRx6HiVml1CqT1XdtverHMAFX4mw5CR3olaaa3nHoa5Lrm7ysvo8YHVsruLIrebh8ljy3HtUr0dNtWVH8tn6ivpqK+JL3oWVcqbOioiLcYAiIgCIiAIiIAiIgCIiAIiIAtC9JX1lN/qf/KIoT8LLKXjRU06zBEWFm8g0/1zP4x71vLkReXj/HEi9TLTet4D3lWLty+Io09ZFNTVDgofNfUVdbVdDiPUS8u3lfUUHqup0wS7vJYaz1PA+5EUt5FGuQ7lL2F/7yo/ls/UURfQ0vEW1vAzfERFrMIREQBERAEREB//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUUFBcUFRUYGBcZGhkYGRoaFxcZFxkZFxgZGRgXFxcaICwjGh0pIBgXJDYkKS0vMzMzGSI4PjgyPSwyMy8BCwsLDw4PHhISHi8pIioyMjIyMjI0MjIyMjI0MjIyNDMyNDIyNDQyMjIyMjIyMjIyNDIyMjI0MjI0MjIyMjIyMv/AABEIALcBEwMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAAAgEDBAUGB//EAD0QAAEDAgQDBgQEBQMEAwAAAAEAAhEDIRIxQVEEYXEFEyKBkaEGMrHwQsHR4RQjUmLxB4KSFUNyohYkU//EABsBAAIDAQEBAAAAAAAAAAAAAAABAgQFBgMH/8QALxEAAgIBAwQCAQIEBwAAAAAAAAECEQMEEiEFMUFRE2FxIoEyocHRBhSRseHw8f/aAAwDAQACEQMRAD8A6shQkLiFLXrlinQyIUOcgFANDyoKWVMoGAU2SkoKiIaQmJCrwqYRQDWUWSqCgB5QCkwpoToKJUYUJSUqChwEAJcSYPToKRICmEoeiUUFIkhAKUvQih0NZQEpJUhFCskkIhDkQhIAhACGhSnQUDUIxIJQAYVIaoBUEoGEKJUyhAEShNZCXIqFQEkoDk7HYwCA3moKAihcj4eaXCoa5SYRQAGqYShykiUIaJwqYSNCcp0PuQgqFMIoRF0GVlcE6mD4wXOtYyG356ratqNBs1o6Bo/JWsWlco23Rbx6aU42c/cmADOysHD1P6HDqI+qbtvtMOY+8vpjENwRct8xbzWgqduVAAGEknKco0lX9H0zHqJ7Nzser0ssGmeZc1Vr8+TcvBGYhKtN/wDIiTgqDxbi7ehzgrJ7F7TFUEOsQ4taT+K5wtnU2PorGs/w9kw43kg7S8f2MnBqVldVybFwtOy1z+08Jt73Kx/iTtc8M5j2Q7BIqU8JLj3gGAB4IwOtMQZBOy1XFdoiticymREgkEHE5pIdAaSIBH7Kni0kYY1N/wAXprsdR0TFiyZHGcbdWn4SN5Q7WEwbyZMkn0nIcgtjQrNcLGfvkuC4Kq51RrSTBMRr0XVYwzEWMLe7eGyT8473u/ENCZkdEZMUZxba5NbqWgwJ7KptXfo28IhNCbCsnk4x/gWEuBWhoUFoTChESnLAoDEuQoQlK5ysIRgQxUV4lIKYMU4UIOBJUFWYEvdoCiEJoQiwEACgNUBMGooKZOFBCmFA6pjaoMKXDqnugNRQU2QAoLlJbKkophyiGi6H8k0hEhA0xGOUlymQlMII2Q14BvkbdNis2hXIIB6HroVgPLY8QMbWxEa4QSJ8lgcF2g2pibiIcw2mJIGUxrotbBp8yw/I4uvZpaLUwk/ib58Gi+MO1ncLXqgC1RgPTwxJ3yPouS4f4hOEtxQDAyJdAzjNdh/qN2W7iOHFan89IHvGjN1PMkb4TeNp2XnfAcM1wGsjTR37wVt9OjDfGcFylz+SOuz5I45Ypv8AS3/sb+jxTS0NAwjUw4ud/tzg+/1u7P4pzXkNJaA0WOYLXAj6FNwHCgYWADG75diYJIkXDoE53srviB1Km9tThm4mloa9pc4XBcXHxXBBAGWi6LJnqlPt3ZgQxt3s7sp43tN5qPFYzTYaddjpEgsdTa7m4BzngtOcEDCc04Gi+kx9bhziDqhLTc06jXSQHtza8ZQQD1FzreI4r+U55biYXPxtkYgyvYua6PCWvDcxBLmyLAjd9k8UafDY6QFSnBxESH4SflqUocYBz+ZvM5rk9VNSk3HlNs6LSxnhaT4aSHpdp03Oa57e4qyYxfI6N9QCN1uzxFWpVoh1Md3jD3GmBD3zIqPIgETflfczqO2OBqV6NOr3GEhhkYS9kuZ82FsvwtcbEBwOG4DbrM+AeyH06Lu8xNe2oYipILMLIEAlsE4rESL5KjlaWOUr/wBDRn1WLjWRW0qT9M7EOCbvEQoDFjnOMMQUh6YCEGEUFIA5RiKYQlPRLglxQElQ4FMMkwcnVhSK7qZTOKEKI9qKzKlpU4USjaG0hCMaEC2ikoKGu5IceQUeSHJNyhw2Ci6C9MZIQ4KGPTIoQNapkHRFkwA3TQ6EcFBanKV0or0HCEcOSSvxTaX4cbiCJgEMJygGzndbdVh9q9oupyMD2j/9QWuDScvA04i3f6arnOKqyS51Z0uuAx0NeYB8LgbiT6LrOmdHjCPzaivdFPJlyZJrHiTbbpV3st7S7QLwS6tIFyKjWtiNSQwfVafsirV4is00WOIxBrSAR3hviguJAaADmfotL8QcRUqVG0Q95i+Fxc6CdSeQ15ldz/pXVps4nuC6Xtovc3QCagm2hh+V5zV/V62EsfxQ4T/mjT0nTMulyPNNJ7XTt+Wu320encH2PSa1oNMTF8RxO8zP0svLfir4L7njHvphlLhXNDxY4Q7I0qbGAuLi4SGwAS8AHRej9jdrvqvqsdTa1zA3GWva6HEu/luwzDg0NMzrk02Vfxr2aK/DnCYqsD3UgLl8sdjpYfxB7A4RuAbxCzsM/ilcSWWPyKpHinF1XUw6m8OZUpXInxB5sDI6iCOqxanEYgalR5aXuc7DhLhJysPW+/rZU7NqcRxFLh6dNz6uAYmwwGACQHAHC1okySBEgbBbTjfh+twr2/xdPBjcCHYmuBw3JxNPlBi7maArTeZZcb3OuP3/AGK+BfBlUkrp8X2/c1XZvD06j2tDpGF4qBziA8GG4SyBguRfQwdAus7I+CG8PVDjWe9jC57GluHBiESXg+MxsANTseS4rhGd8HMaRdriRDZIIMNECGyNAOVl6t2ewuoUw8SSwSDtp7QsjqWOWDTxa4t1255PXJq1kytri/TtD0mkgERgHygzeMiOW0zur8EW0QAU2Jc7LJarwQchZvCaOSApwlQRHuQ0KXNlGApSI1QNfgjCjBzTscd0Y+SKQ6QoCVwM6KyQlw6pjYmJTKcjklJS7CELlMIe/rdM3omqHSDAhTJ290I4CkVgKQFBlTJXlbPGiCEBm6ZsqCClTHQYUAqBbVNZNWJgIUxySyPNSHJiTBwWDxnaz6M4GtkB0uIxGwvE2Hos9zwL7Xhc3X4qXmRYA+c57Lp/8PaOOVyyTinXCKuqy7KVln/UA8MLgH45klmEAAHxEEkiSQLRM8lzHanZLGv76mS4QQaZdMA6s0mdLT1SfxeKr4fEG+ENybAEFzjpJmwyA6zuqdAPES0bim0BvRznTi9F1mTTxcHF3TK+DU5NNmjki1a55OOqHu2NrNc41anhAiSD/TBuACAIzWT8NcS7g3/xTwXveHMew/MWuIIw7OBa10nKNNNj2l2K+me8pfzImWOMEyIxNdliA1zi0rR0xxVcikxj3vOIkktBaBEjQNIkSXXk5ZLFWlWFyeT+Gu50uo6nDVYYuHf12Sflv3Z7H8OfEjOKvSqgtBBqUzT/AJjZyDyHCSYPiAg4V2JpNxBxALhMHUSACAegXiPYHwF3ZFWrUcHggtbTdBEXhz+ujfUr153aTSwOmLAkZQ7VpOnXKyyVnxym4xdlaMtxq+2mM4aO0KdFhqYO7qWDTgqPa7FIFyHx1xHZajtrh3cfRp1KTi40w4hj8Ic8ujEGkWthAC6j+JZUa+mMLw5robY42unE2OhIXI0uHbwv8mm90MLoa8yR4rw/aZz5Kcs7xpSj3T7npixyeW3W2uU1ZzXZvYVSpUBqsLKbXGWuBbUlseHDnB36ruQ4Kzh+02uAbVbjG5+cdDqsl3ZjXjFRcHD+k2cPP9VT6jqc+tkpOml2S8Ff/KfDe1cGC4pw1VuouaYcC07FEc1jcp8oKa8DSUyRTg1QrEkxyeqQgIDJTlpBUuSVSEjkpwhNiOySHHT6JBQNaFOFqiERyTTGm14JewQLhLh2Q07hS0BHcO4RzQ2lOvsh4jIT52ShxHLojt3H27jGmf6h6ISISv6Fu+iWlQ0oxclGKyhZ52SZUSdvdQZUDqjcFjEckDojCpwphRMKS1IQpBSsPyD6cgjyXB8VWc172uEEEgjzXfNWp7b7GbxDcTTgqAWdFjGjuXPT2XQdC6rDSTcMi/S/PplLWad5UnHujiGVYJiwOds+dlt+EDYznloBzWpfTex5ZUBa5puPz5q6jxAb4TYHXnt0XfqUckN0XwzLceaa5RuC8n7sm7K7unXxuzcC2Z8MnIkZeaxaAcRlIGZSVnDIDLMnLoF4ZcEcsJY32aaIwySg1JHb4TqLKqpTBzsRkbHCdwCtV8N9p4waTnSWiW7xMEeUhb0OXzfW6WeizvG3yuz9o6HBmU4KSORdW7TFTA0kxYVA1obGjsWljccvXouA4R9MOdUf3tR93vNptkBoFmNdBzF8ue8eSnGvGeeUlTLjy2qMV/DM/D4eX4Z3H9J6KaPEOputLSPux1WQXHkkIJ0b7/YShlcSUdRXD5Nzw/aLKjQ2qAdjH3B6JeJ7HtipnENrT5HVafAQCAfe6yuE497IgyPryIV5Tx5V+pfv5HUZ8xKiA0mc/QjyQ6peFuppcQLjC/Q6/uOS1fEUHU3YXi2h0Kq5cDhyuV7/ALnk47e5ULhJO10737JZ3CruhNRHg/ZUGmdyUoNoT5J8MkoxEwHJAJVwKh0TzRtQbI+yoOuh5V2IREfRUuhFJCpLsS0u2yUGRmEknQpXh33dFoN3HYux/wBqFR4vsoRuI7vog0+Z9U2C8DLqrO76obRMKOwWx+hROsQleQP2Vrafr5KWmZT2jUGVh23upYSdVaGcv3UsadBzyT2kljKnNKhzMlkOBIuL+aUsOQhDgTeMqDAiBuriy0AX6qLiQQjaR+M83+M6pZxRdmC1h6jCBPsVh03te3ELtPtyOy33+oXBNJp1ScLcJa7mWmQAP9x9FwnCVywhwBwmxG436hfRemZm9Nja7UkYmo06c5Jd0/8Ak6GhUI8Ic6RlB05pONqOcQwOv+I6CduaKRAALTaJB3S0nNBlzgCd5/JbMWmUWvKX/puvhhjOHqFxElwwlxuYMSAeoCzviH4sZT/l0XsNSS0uILmsjOw+Y9SPMghc1xnFOawPa4OElrSPlDgATfWJbb+4brRU+Hc64aTEk221WF1Dp2DUZozkra7+n+TR0uSUIPd59+Dedj8e+txdIyXvxkd5U8RDQf8AtizWhzQ6YAzC9KC80+E6BZxdLG0tAdBkEeJzHFo6mQYXqLAJ/Zcz13GoZIRiklXhF7AnNN2VnojByWSXACOXJDWa39FiUWPifgohKGTqsgtsna0aablNKSfBOMJJ2ihhIy8j+S2Lu0mYCKoxNt1EkARzusQh20C+yw+0OFLqbmiJOkxJBnPTJWY5mlTPaP6uJIyKGCoC6m7EySASINjB95um7vda/wCHuDdToBtTwmXEi0iTYWnRbEU7W+i8JLnhEXD0h20mnl5ofw7d/VDTtE8/qgunbyRxXYdKuxX3LZj6XR3AnZMCZi3QKprTPPn+W6XHojX0MaI1P1SmkJiR1lMaZAnEP8JQ8zEx6QUq+hbG/AHhyMiE38O4XJ9AmY+Jk+iMVpmeQn6JpIlGCI7onU+gQp70f3IT/SPbErNM7G8RslgyAGGORt5mVktaBImfWOSgMaMwd8z9FLYS2Ioc9wPydDZE7tP6K9pkWHknbJyG32U1j+x7fsx2vdsck3eu0B+quDSfrkpYIyOsQJUlil4Y9n2Yvek5gnyMTmlzzaT6xCy6rQdTtmdeihtISI+p90nidicPsx8YEyIvrJSiqBbEAr3AE3I9ihvDtmwlxgRAkHql8MvAnjfs5D42pNqNo4i5zGueXNa0lznHCGg7NFyfJcT2hgqXptfhacHeCC1piYmYEDQddV6H8Tt4eoQww+pSl9gC25AwOkEAOIgO0jFcArku1uxy3hxUxBrXeIMsGuacTgKRzdhAc7c+I3MrtemuWDSxhNU/v7MfLFSyuSd0ctT7TdTlo8TTlNiN4+sbrK7N4ytUqCnSfga4tBOFpNz/AHWnOBrksAcOXENY01HOIAAzBcYaIzkkhejfEHYNLg2Umsc0FlNhqMaAKjqgwzUeb4pLsjYQbHJWlkluWO3zdCcIK50jmOPfUBwPf3jW+EFzQMYDnQ7BfCTLja4DgNFQ91MBs06jAATLQS0zaLiTYT82qx+M4p03aIyGHQZARsFU7jWAnCajdLWtk25aTlzXrJxgqb5+zwjcndcfR1Pwexj+Jpua2q4tlxdU+UQDpfE6LC4jNelurAj9guR+COyKjGGvUmarW4JPiDDDpNoE+G3qurDCLmQOYlcb1fUfNnqPKSo1dLjlGPKqyWvaNL9ECsEQ0/i9lW2Jifb81k8o93uRayMpj1UvZ5qm37fYSkjZFsW5oux8j5oc4EZe6qbGu+6YMvE/p6pchuY2PK3ugE7e6XRK0XFhzgoti3v2WS7M25yUr2k6+kg+oU4rfqoGp1P6Islf2SIEQSesk+qb7+5SGd1LGaz6/lZS3MalIkOIycbcreSMZvrKl1KbA+6U0j/UENyG3IgOd65pmcs+agUzFyPZTTY4g3H7JJsScgx/2hCO66eqFK2StjAQ2dDlePX1SueAJzAvy3z9FQX2mZibn0yFs1WatgQTNshrveLfoV7bvR6Fwe2JAJ1jKx/JOYi1shfFfoq3OMWePuMr9FIokE531ja4nldPc/QWybzeY5Dpr6+qgOIMAEz0gdeSHB0ECQd9Lcz1UMa7WTr0lL5X6FuZeAINxnoSLbWumJkEyY91ivp1MgQcjcROuYTlzhGIbSRGmcDX90b5BuY4EE3nXmN1qe2PiBnD08YbjfiaGAxEtOPGZExLY5zOxWB8UdvN4ZkNdjqE/IGkmCCGkhogCYz9FwfGcTUe57XSX7G5xNPijndy6PpnT4ygsuXz2X0Zuq1M922Pb39+iztTtB7zIIaHCSGgwT8pLjMuuDmTC11ftaoWYC/CB4QMLfFA1dEkAQInlkIWNV4vw4XAWJv4g4TmM49lhUaNSs9tOm0ve4w1gEn09yTlmVr6jLFR58FbDjlZn9jS2vSqNkFlWm8WLmkteDEDoui7d4//AO1Uqhxe1z3DxahpLXNPXP8A3Sug+G/gttGmSSavEFjyGYv5TXYHQGtPzGdXaxYLiOM/lvqMqNLr74SHbgkZ6EKto88cknJeOP2PTUYpRST7CcY5lyx5I2LYI85Mws34P7M/iOLY112t/mvnIhnytI1lxaCOZWnqOBNgQBeCZ8p6r0r/AE77N7ug6s/5qxtI/wC2ww3pJxeUKPUc+zE3fPZfuLS405peDrnmMIxXyGQHtYCyhmIn5hGnjmCOmiqL2NMEsGekZg8o3tKam6APG10Xy9MrLktqZtOKYYS4yXD3v5lN/DDz5G6bGeYB3Az8v8pxUcRPhkf3EW52sUvjiR+OJjnhHSfmOm0eSsdwfNwORyy1srWF2cDrJOQzQWOsbTvB+vnql8SI/HH0UGhHPzunHDgSSD0kx6fmrocZkEHO1xr7fql0jFOs3A6XP0TWKuRrGkL3LRE+dpzy6KTTBsAYz6IMC8kA3+aRfaTlkk7qbgkxI+YZ7eqTg/Q9v0O1oOnP79kBnIb8/oqnttEwbZib6g3Q6lF3OaBvf1F1DY/RGn6MjDFpA9EPZMGf8coWM17dHc7Ok8rHS6sxkm2W4/xkpbfolQ5GkmPRSGg6xnmQlxmctY5naYyQWm0WzkE5fpb6pbAoCyDIP0hIZn8IbviIdPMAR7q3uB9TnKGMaJgG+c/vonsFtEcAPw+4/RCtkDb0Qj4l7HtMJ+EG8ny9vvZODMZbaGdoTnimkxMgG5wWuDmRFlD3tBk4QTlaAdIlR2Ndjz2yK4O8xlqMuqA4z837e6sY0PItYibteALZXNslaQ04QAOtx9T0sjZIKkYjsROdp2ifZSJB1O9zZXucwDIWPPTkMh5oZTeRmNZMEdIF4S+Ng4spD3XHi2N+mR81Ipve8NZMm3IW12HNTWYWBxc/wtEkzZsSTNtt1s+zOIpNph7KlNwf4zLg04dInIi+fNWcGlnN272/94ISlXHk8/8AiXsw0OKqvr94+mGCrw7o/l96wNhr4yLXSdiH7tg9N8GcDwX8JTeWU31KzcVRz2te57iTjbJGQMiBYRe64n4i7Yp1DWqS91B1WaVNzo714EF1r4JJM7FonIDluzO0uNqP7nh3vmoZLGhpY2M3Q4EMAGohdJkxzWFLdz/ReCnGa30lx/Uz/jXsJv8A1R/DcG3ECGPwD5KZc2XyfwsEg8sUDQLs/hn4cpcJT8JD6rxD6nhvu1gOTZ9Yk6LP+GPh1vCUiHOx1qhxVX+Iuc6ZAkiS0TruTqt13Q3PoVhavV5Mj2RfC/mW4Q280YFV1QAVGBzsL6ReAflYKgLndIGXLfPzT4v4jFxNepi8LqtQMGYMG7xyiPM8l2/bvxIKNDiG05FSo4UqQAMuvgfUDiNHGpqPkG68s47iS90ky1vhGxvJIGkkk+YW70vTTxQua5ZU1U1NqnZPA8IatRlMWxva2dsR/wAr26hSbTa1jThaxrWgAaNAAB8guH/037Ka/HxJjwmGZkNcQQ4AH+07k30tPoJ4MG8SOk7ffks3q2ffkUI+O/5LGkx7Y7n5MbC3KTG4a3U/d+qcEXMu2AltomTl98lkfw4nI2O8RnmPP3QeE2B8ibehhZO5lyzHc2YMzvJn7zCamyNrZyB6xHtmru5aYOdgRex5gjNJQaSJLS3/AMi0nziR6qSl7HuEbTeZw2nk2xtkPe6GidZOsGOYyOytdScRmPKBHlCBTdBvPKc4tnonuiFlDajhk0SZm82kxrzHqke+o0hxAiCJBGYzAnP9lkhjwbTHl6GTZK+nUiYJ5QLjzsjcgsqFQxewjMiA3eTNtfRTgtcg5fiMRzhAoO1+/be6h9BxEmW5gRJNr5e6kpIZNSqGkeIN/PLWNjvqlPEOBAxCNREnO1zYHLRNTokADS2p2GQ8sk38O5zhlzEXNjEknS3onuT7BaED/Hm4jU4hg84j7KWrxQaQDNxY2AvkCTqh3ZzidZbeZLbncGfa3srRw2xAJM3MZHOx5otCtexG8QycRIzgkx/tOah/EGNbEXyInqfu6ufSMwKjSORxDlMDyVbxqXX5NebAZGwGiOA3IWnJggnKflnPKdhmqWscDhLnGdSzU5fKAYv5Qs0MZm5zyRkG29Yvf81Q+m38OIZZkkGLwWxz/dDXArE7p/8AX/6lCyWuA/C30d+qEfp9hb9DO7smBOv4GjLz30hUikQPDoLYjrvllPNO2qJ8JnLSNTrGf6Ky52jp63GS8W7IclL3OGQaOWI+cEC/nyTB5EajfUWM2jSE+dzbMcjtcgJCHmZho0IM657eUIGrLXPEggu/5WjKc4/wnHiu7I7m0zbPVYb2EWLsgNOom1pUNsIaY6gkdBCdkkint6g59CpTY6MWGYiYBkhwtYwNfJeX8d/E0w6n4zTdZwpvlpB+YQDaROY1XqNeTmbA5AGfYz5FYtfs2l+JkzydMdOi19J1JYcLxONrvfHcqZtLvmpp0+x5NxFc1CAYBgtbnhYBp1z+uq23w9THDvLoa6YxYgbiSbfSx9Yv2o7DoGCafiGRhzSSd8LQJsNllt7PgQGOts7Te5upw6pBW5RsjLSN9nRT2f8AEc4GiiMPymJAGwmIAH0Gc59NUPhJaBihxFiBJ+Vc6ez2NvhJvaXuz3FzfYLJPFVIw4HYcrvg25zKo6jPjyTUoRSLGPE4xqTs4b4m7MqQWNqYP5neClU8MPcHNOB5GuK3lyWHwvwbVDW1KuA07WY4lwJv4mkCNusZL0GvUqPjFSa6DIxBjsJ0icuq1PG8PVe0tPDuwvkOayq3S4IdibrFtNMlpY+rtyjaS559Nf3Kz0aUWk3249oX4deeHqEkOFNzYw2kGRGQiBeOp5rrmcXTcJFQRpMAgmbHnyC4Ch2ZUkA8NWIBAI/iGui0kEd4MrdQZ5LpeANTAA6kWmTb+XDQMg0B2EGY36XXl1PUabM1KC/V5fYNJgyY01KXHrubx/EsAnESRfkgcQ0+EVIOdgLgXsDI5eawX8OHiHNIkXIdDptoDH+VXU4Npm5blkSDI54ojl6rItF2jZ/xTBAxXcbTabxHX9Fc2niOuUSMcemi1LezhmHmROdjfMEgZXVh4NrDIJJi4JPiIyubA+/ohNeRNM2bmHKYMWl0XCqFA/icPJwIMchCopANt4h1jOJn8tla58frhuB7lP8AT6FTLYEeJ41mGzpri8lIeBHi9gOQVfe2kjLW4+vXogPJ8OwFzhvvYQNvXkgTRYXtMgDK5N8/K2aU84MXvHMTf6pmuINtdz7ADzSYnQZvnYTc3MYSTyUWgLGk3zE9LyNBNh6ZKHuNzJn+6SNsp+5Vbaj5ksIM2IM2mASYHpeLXQxzrSNdRkRfQR+SAJaBfMmIJiAJ2vzHokc46AZXkG2v4cldVrNBh2KJj5XO+jZhSxzScnDW8x7kHRG0LMZzamIeJmG8gtdJ2AcDAi+hnkgTMnDp8oIEne6zByHP18+qg050HTmEbQsw6Ykw5rb3+QxyEyROX6Kx0crxERn5q4tE2EG15yA5pSCDEQSMw0xY7gQltGRgGw/5D9EKPFy9ChLaMwq3EuAPhFo8jkJjnsnoioW4u7kf+QjewLrf4QhTj3f4GK6vhBJYRa92kgfTRTQ4im8SAQ0gO8ualCAQGvTmJcSLnwiD6lS6tTyxOl1mwAL57H3QhCAsc7ZhMkat8pyUOpg3AIzMg8r53QhIRJAyJOfn67KG07ze25+iEKIhINxYRF5vpeI/NKykRckcyJFvuApQgVkUqRLQRaZJlxJA+h/dPTY4iSMIGVwbZXmbHO1+iEIBtksAkti4A1JmZsbfRM2kDaBrv+vVQhML5Idw8mC2eptOW6Z1FwOXPMekZKEJ0FskMGeEDQ/TRS1ogR95alQhILZPiBs2bXJeRB0tedlDDEZCbtEZZm9yhCCSLWVPFEXsJERJy1n7Khrwcj/VmBP2B+ShCkiIDiBJYDcRaDqJsbJmtJOdhn12F+Y0/NShRGyKLsVhPKTMxnfMH9NUppMOevNyEJ+BMcPb8ocQYByuJsDlGiZtZpBE2voepQhTQEyDDZzmM7gRP3zTOblt++2RzQhAhS3ORbOBr9LqttO+bpOYGHW1ydghCQ0NTIIm+u2hhCEIA//Z</t>
         </is>
       </c>
     </row>
@@ -2282,124 +2282,124 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marnus Labuschagne</t>
+          <t>Abdul Rahman</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023_224</t>
+          <t>2023_215</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>124.1</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>27.6</v>
+        <v>50</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W15" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF15" t="n">
         <v>2</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AG15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
         <v>44</v>
       </c>
-      <c r="AD15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>5</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYYGBgaHB4eGhoaHBgeHh4jIxgeGSEaHBwcJS4lIyErIRwcJjgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzYsJCw0Nj89NDY0NDQxNDQ2NDQ0NDQ0MTQ0NjQxNDQ0MTQxNDE0NDQ0NDQ0NDQ0NTQ0NDQ0NP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUCAwYHAQj/xAA7EAACAQIEBAMGBAYCAQUAAAABAgADEQQSITEFQVFhBnGBEyIykaHBsdHh8AcUQlJiciPxghUzU5Ki/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EACwRAAICAQMDAQcFAQAAAAAAAAABAhEDBCExEkFRcQUTIjJhgbFCkaHB8BT/2gAMAwEAAhEDEQA/APZoiIAiIgCIiAIiIB8iRcbjUpIz1GCqouST3sPmdJ5x4p/iKW/48ESLjWoy2P8A4q23mR6TlnUrL/xZ43p4ZjSU5qml9rL2udL+eg77Tk63j/F1nWhhvZhmNjUsbAdmccv7itugnCYlh8TkliblmJuTuTbr3MgB2v7ikX3LHWc6iXSe+cJ4sKVK+Ir0SFFyVZjz+Jnb4ib7ADtK5v4jq7lMNhqle39Xwg9SBYm3mBPEzWZd2Y+QJ+pm5MU51GcEbEafWLHSfojw7xZ8QpdkVADYAMWNxuCSBt2l3PzfwrxXi8KMqs2S9wuZsoJN7gXG86LBfxKxTN77LlHJQFJ8jYwmco9vict4a8XUcSoAazdCykntvv6TpQ4JtfXe3OSImyIiAIiIAiIgCIiAIiIAiIgCIiAIifCIBVYvjVOn8bBR1Ib66bd9RIuI8U4YUzUWtTcLuEZWJ/xABvcm0g+MMciplqOyoNXFNczHmFJsQt99enrPDOMcYRql6VFaaAm1tWI1sWc87TlnaOh8Wcbq4ms+VytO6nfQACw/8t5T02RAzMTZfmWOwlW2PY5bfLodtTJCcOrVAL3y7nuechJlsU+xpWo9RswFhsO/qdgOskopAuWzfRf1kleHVB6W05dgbfhPmIwNVrAqSBv+kj1Il0Mhmrm2N/t85ieVwfQ2M3thSmyEdb8/WRq6sRa2vmJ040ze7qBYWt31+nOYq+YDKB5gAfSfKFIW+HXvzk2nhCRoLehi6Ci2ScChBUm1/T620ns/guu7UQGQoFGpzBsxOt73JuBa4O1xPFkJQgHQkjfQ+g5Ceo/w847RI/lySlQjMAfhfut9mHNZKLIzWx6BERJlQiIgCIiAIiIAiIgCIiAIiIAiJoxWIWmjOxsqglj2AvAPLP4wccF0woAsCHdud7EADoLE3855fhqKMGYi43udJY8cxj4nENUIP/IzNryW/O39q2Exo4f3L20Hwj7+chJlkUZ8C4VnqaiyjfvO+w+GAAFhaUvAaWVR31nRqOczyds1440jFMKp5TZ/LId1m1LzaEkCxIitgKZGUrIb+HaBNwJcZZ9tO2OlFQvh+iP6bnz+0y/9OQbKRbX9iWwHXaaKp6C5+UWco5fxHwwOuYDYWlLwHiBo4mizKGNNwDe3vKSNb/3DrO8r0sy2/HWcZxjhpVsyjn+sshIpyx7n6ABn2Vnh7Ee0w1BzuaaX88oB+olnNJjEREAREQBERAEREAREQBERAEg8Xw3tKFRLXzIwHnbT6ydEA/ONTBmmXVl9/wCA9tbW+lpJp0gLD0/GdB4zwPssS43zurjyY3/G/wApVtTAUc7kD66yqSL4k7DJr25W7D8Jf4YAgaSmwgOa1vX7S/pLoJQzREyCW5ekBpszaTHKCN5yixMxLxmmJt1ma05yiYDzWx7TJmC76SFiOI0wbZxmnUiDaRNEicQ4dnRrb9PLWVw4zZtrjnrY/KXvD8Uri49Qd/WSiqZCTTR0Xgd74NBr7pYf/q+nbWdDPPeCceXCvUosrsGfMgQDS++5Gm2k7vDV1dQym4I0mmLTMMotb9iRERJERERAEREAREQBERAEREARExY2gHF/xA4eCEr22OVj9VPzBHqJ5+F91b/u7T0PxL4hotRqUnVwrKQHABF+R3va43nm9KqW97v95XJp8F8YyjyjtMLh1VBoL2Gs+s0YOpdAd9JjiCeV5SzQiHjsbksBvKvEcSrn4EYjqF/CT6tBEUvUN9dt9eQUczeVmI8QlfhAAzKuhXQsSqjMd9jcqCBbUziV8BtJbswp42vf3hYdDOnwGIzKJSYl6qorVABnFxqrjcgglfhIItcXHfWTODOQqswyk7ickiUXZL4pTus5V6OGzEOxfXXW3oWnUcbQuhAJuVPw77bCcTS4Y7sgCqMrKSrag2a5Q23Vhoeek7E5NPsi/wAGMNcWUADTNcEepBNvWdDQwqghk5766GVdPg6sqe0yg01sClwT/seYGwBlnh1yiwvYdftDdM4k2tyDjKIFcudgobz1y2l/4L4pd6mHOye8h7HcfWVWOe2V7b+63lvbXuJn4WZP5lHXTMGQj0uPqB85KMviR1wTxNM9GiImk88REQBERAEREAREQBERAPkhcXBNGpl3yNb5SdMWF5xnVs7PE/DBDUXDa+82m5Jvzv2k5+GjL7osSOlvTtImMX+XGIy6WrWHlr95l4Yru+cMxYXvrrY89flMu6PUmlJF5w1Cq5Tyk7JczC0NU5fOJFSRoxWBWpbPqAdF2/7kWvwqkbXTbQWAIHYdpYu5I1/faYanYzidFnSVWMw7ZciLlA0BNtB0HbtM0QqoW50Fr+UnVKX6mRiVOoN4bs6lTNtY3A13/ZvIa0h8QAJ+Ulot0mCKt7HpcRwdkjJKjdLSTTc26SLSKk2BlktPS84cpUQseB7Jye3zvb7zV4SwbrUUPoxcMANbAe8SfMCWzUwU1Fx08jeXHAcAc5rMLaWUfiZbCNtFUsijBnQz7ETQeeIiIAiIgCIiAIiIAiIgCIiAeaeMuF2d12Wr7ytyzDcfP8ZzuAw9bDjOQHVrXRN9rZjfnPYOIYBKy5XFxy6g9Qes5TG+H61M+6PaJytuPMflKZwfKN2LPFxUZckNWzKCL6gHXfbYz40yWkytlcMCRcBhbTy9OcxcSprYnavY2JvYzbYCRnO0VanwqNzc+QG5+oHrINliZC4tUZ/+NCBfc9B+ciu7ollQOwsPiyi217yatHUnr+9TMsyjdlvJJBM+YfFAZQV15C17Hv1mVWo17WXLYW01vrck9OgmOdevyE+uy23M6kw7NNSiG1U5W62uD5iS8Bii10cZXXcde4PMGVjcUprVWiFdnYZgANAOrHkJPqUfeR10YEhvIi9vmBOS2I8su8N8Sg62YD6zsBONwerj/YfadkJfi4MWfk+xES0pEREAREQBERAEREAREQBERAEREA5/xJR+Frdv39Zz9YTruN081JuosfrOTqdesoyLc1YXsRam1+n2m6it2B3ulh87/lNT6TGm+Ugcr3HbtMzNKZo45g6tSmy0XCvpa4uO4PQnrInCMHRCkVS3tBkJzM18x91kW1gwLaC3aXla2hB3keoisfeW/wBDLE9qO0SHwWGAJObc5ffYWsdRvawFxNWJxFFP/bQM3ui2pGhzZgxuO3pND4dN8u215Iw9QbKonTnT5bZX4bCWqPVYDO51PQDZR2EtqS3mlzN+GGk5yJOkT+FJeoo73+Ws6wSk4Dh93PkPuZdzTjVRMOWVyPsREmVCIiAIiIAiIgCIiAIiIAiIgCInyAasQmZGXqCPpOCrHWx0/OcL4t8SY161Q08TUppmIVEbKAAbAXXX1vLvgXGfbUkLauAA4O4a2t/xvKcypIu00k20W5qXMxYc5hVW+v8A2P0kb+Ztvr3mU2cFmj6TYSJBp4xTpcR7bvJoKRIqPyAvMVYzFcWNmFv31m44pANTcdt4J9SMUDX12lpwvCl2CjzJ6CVlOtmNlBPb7mdL4cSzN2UfU/pLIK2UZZ7bF9SphVCjQAWE2RE0mEREQBERAEREAREQBERAEREARE+QD5KXxZxP+XwtR+ZGVP8AZvdHy1PpLq8828T+JqFTENh6pZKSXVmytmLahgotdb/CH6ZrfEDIyl0pum/QjLxdHm9V76HWaaLvTcOhsw+RHQ9RJ2MwpbPVpU3/AJfMcrEGwF7AE9e3L6yCDLU45I/7b6P6mZOWOVo7zgnFErp0cfEh5eXaS62G1vbXtPOqFVkYMhysNj9j2nb8H4ytQe9ow3mPLhcd1wepp9RHIqfJ9fh2aBwl+TN85cqewM32HcSm2anFFNT4O53dvnJuH4SAfeYt6yYHPUfKfVc8yJJEaRIpIFFlAA7SfwbiCJV9kzWeoDkvzyakedmv6GVaPOF/iHj3p1sKyMVZQ7BhyOZbHz0luPlFGb5We6T7KDwjx9cZh1qCwcWFRRya2tux3HnL6aDInZ9iIg6IiIAiIgCIiAIiIAiIgHyfJizgAkmwG5M5/iPGCdKei825ny6CZ8+phgjcn9u5KMXJ7E7ivF1pKQvvPsFHXlczyvxrhnerTZgCzjKXFgM3JTysBoPKdilO5uZ84jgUrUyjDQ7W3BGoYHqDPCftSbyqXCXY0+4i40zzxOLYk01wByIhYIcwIO+xbz1v6bTT4i4C2FZFZ1fOCRluDobbdNtb85J41wyotUCpsbLnA0bkGPRuomvA0aVKuVxqO6ECxUsRyAbqRYAadLT18OeLqWP1cV3fqYsmJrZ/ZvsUUzo1WU3UkEbESRj0Qu7UQ/s7nLcXsLZrEgWFuh5dZEInpRalEyNOL2O24FxsPZW0cDbr3X8uU6VHBE8npsRrcgjYjcdxOx8P8dD2p1SA+ysdA3Y9G+hmTLhrePB6Wn1d/DLnydMVjJF58vM9m020tBOE8bIKtY0v6lpqy9mu347eoncrtPNvF2KyY1KvLKAf9QbH8/SSVtbckJ1W48A+JWwdcMxPs292qv8Ajyb/AGU6+WYc5+gKFdXAKkEEX076gz8y8QphMQ4Hwt769LMM2na956B4J8RlUWg7G66UmG9jshP0Hy6S3LllHGskVa7rvR56SUnFnsMTmsDxirezLcd9G9TtLanxSmbAnKT1/PaQxa3Dk2Tp+GWODRYRPgM+zWQEREAREQBERAMSZqr1lRSzGwn2vVCqWOwnMY/EtUa525DpMWs1cdPHy3wicIOT+hlxDHtUPReS/c95CEzWnMvZz5fLmlkk5Sds2xioqkEp35zYqMJiBbdQZvpBToGKnodRKiRqxGFV12HrKnH8OSpSdHUe6jFWt7ykAm4+W3OXxUr8Q06jb9JrxOHDqSu5Uqe4II+8nCUoSTTpojJJqjybgPimpToPTVUdH+JHBOUkC9uotty1jFeHq9OitdgpRrahgTYjQn8NOstMR4dNXCUK1ED2q0wrLycrdCPO6mc/hcazqtM1HFIt7yEkhDcA3UkbWHlbSfV4MyyNyxUt915rweZlxuKV7rt9DQomf1lv4h4dQpFDQriori52JXXQkjqNALcj5SnTU3+U3QyLJFSXD8qjNKLizqvD3HzcUqzb6JUP0Rz+DehnUudZ5c7WnR8C4+VslYkroFc65eQD/wCP+XLnM+fD+qJv02p/RP8Ac6qo5VSeg0nn3jPC6oexH3nd4nYjuP3+sruI8PSqpDf9HqJmjLezfKNo5jB8G/msNTyG1ZFyqTs2UkGm3QncHrod7irwzsj+8vvI1mRrjbRlboZ3fgvh16Gdd1d7jqAbfPSTfEnhlcSPaJZMQBudFcAWyueTAaBvIHSVrUPDk6cnyvh+DHmxdS6o8oj8C8TB2KOTpsW3K6a352vY+h5zqMQmZbjXmJ5L7SrSDUWTK9xZX0Kt8IYHkLEqeRUztOH+LKFPLSrFqTIArLUBFmtrZhdSOY7Tz9bo3GXVjVp+NzuLKmqkdfw7HsotvbdT9pc0eIq2h909/wA5zOGrI/v0nV15lSD+Escl5Xg12bD8L3S7MsljjLc6EGJRUarL8LadNx8pYYLG57qwsw5cj3E9jT6/HmqPD8FEsbjuT4iJvKz5E+SPjauVTbc6CQnNQi5PhHUrdFXxCsXaw+Ffr1MhmlJSU5kac+R1E5ZpuT7m2CUVRDWlNq0pJCQycwfQylQZKyOac1NQvt8pNWx8xuOkxdbfnDhtYsj4eqR7p+vL9JkUynMvw/1Dp3HabWphuzDn1mCvYgnrZhFVzwOTn/D65BXo/wDx13A8ntWQjtZiPScT4w4WKWK9oq2SuLm2wYaN87g+pnfPTC46ov8ATXoIw/2psysfOzLM8dgFqrlcXF8w7HtNizvBm613X5W/8lfSpxpnmHC6q0qiu9IVUFwyNsbi3kfW/OWeJ4Y+Lqs+Gwxpo391lF/7ug5aDadtgMCiaBB6iXFOaX7WbfVGO9Vbe37FX/Iqq9ji8L4DCrmqPmb+1fhHqdT9JEWg1ByhUFTsbCxHQ+U9HUSBj+HK6nTUaiZsmszZPndrwXY8cIcIpMDjA4FOqoIA90qLFfLt5aRUwpXQm99iOY/e4kypw0LlNvdbmP6Ty8rzPEUWCMDrYFlPkL/UTmm1TxzUXw/4LuxC8GZUwhd/hzubdffMt1cuwYgKd7emmnXz7TkeFYo+yoqNiMwHdiWzHyvpOswLaTZ7Q1T6fdR+5TGG/UzTxDhdDEqFqpm0ur65xyOVvtz6Tl14LiMM71HYYjDhQrBxmY0xchrNu6a6c1Oh5TvFYAdBznM8cetXDU0dadNtGBXMzjoW/pv/AI695iwahxXRJ7Pz/RyUE3aW5V8M8O0mquaDth3AzI9FiF1FwSvwsp6ES+4Jxl8/8tilCVwPcddEq23y/wBraE5eYuRsbR+BYD+XsquzqLgZrXUcl03A117yR4mwftPZhTlc5mpuP6XWzp6ZhYjoxkvfKUnGTtee6/3g707WtmXiH3iIY5WVhyMhcOxvtRSq2y50DFf7Wt7ynyYEeknVxpKN4N+U/wAElT+5eU3BAImyVXD61mynYi489jLWfU6XOs2NS79zHOPS6ErsU12tyH7MmV3sCf3eV6CZvaGSoqC7ksa3sZZ8tNjTEzxpRRemY2n0az6Jg4tr9fse0g9twanGU35cj9j278ptVr/cT6CCPxE1FbG3Ll+RkeN1wd5MHUqbj4fw7eUVFDDzHzH5ibc3L6faaQMunLl2PQyEkl6EkUXG2Kvhap/oq+yc/wCNUZQf/sEMtWXXuDr+B+sjeIMIamGrqujZCV7MvvqfmBJhe5zcjY+jKG/G87OpY4+Va+3KOR2kyNTW1QibDVRXCF0DHZCyhvRSbkTVXouzMEbIWIDOPiVbG+QbZibC52uTOb8QcKwRo1vZGmK9Fc5Kvme4IBzm5Y+e4NowYYzaTb3fZXXqcnJx4O2QzMiU3hfHNWwtKo5u5BVj1KsUv62BlyDOuLhJxfKdHU7SaNNWiGUg6Dn+cg08wORh89LjqLyxZb3A02I8wb/lNGLpEqpJJIufU72lbjGm+5OL7HE8CwLFwg2T3SemUlfsZ2GHphQO5t+sj8Nw2VqrDd3Y36C9h95OrJYLbkZ3LNzk5EvoaXAzMGIAIsLkAXJsB5k6d5R1Kwz2pKlxe71L5AV3yrcE26kgecl+K6yphqzsbWVSutiXDqyBTya40PKYcLT24cgFFqDOgdTdkcEHfmGJvvoUtNei0qn8TV7vb0M2WcltEh0sRUzpndSrkKbKikFhdWFtcuqjXqekm8RqXoU6guCja3tcalGBtpcNK7iuVfaBQSzC2ZRfKBotO40GwJ17St4r4kqUwaLUgaTqzq+oZlf3wynYFGJUjW9uWkvy6Pra6FT8fkrxZWr6js8NQCFMuzM7AdMxLkDtmJ+cl4trL6iQPDtf2uGw9XqoPzW0mYvVkXqbmebNNXfJpVGdZipRhuCPrLvDVQygj/o8xKPGfDbuv4ydw9rOy8mGYeezD8D6z0vZmZwyOHZ/kqzRtWf/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMWFhUXExkYFxcWFRkYGhgVFRgXFxUWFxcYHSggHRolHRUYITIhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0rLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAABAUBAwYCB//EAEAQAAIBAgMEBgkCBAQHAQAAAAABAgMRBBIhBTFBURMiYXGBkQYyQlJyobHB8CPRFGKy8TOCkuEVJCVDg6LSB//EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAA0EQACAQIEAwUHBAIDAAAAAAAAAQIDEQQSITFBUZEFE2FxsVKBocHR4fAUIjJCIzMGgvH/2gAMAwEAAhEDEQA/AKYAGpsAAAAAAAAAAAAADKQBgEerjacXaU4p+f0PdLEwkrxnF9zQuZNoDQBgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABA0YvFKnHtk7Lu4tfJeLDMmjGbSjDRdZ8eSIVXGzlLLmtdPcrLRXNdHZk3aai3p9BjdnVYr1JX7iPMuZKoSXAr62Dk9dHd8zXCi07cfz9iVT2RXktIs11NlV46uMkMy5ju5cj3/AB0t13GS7eRdYLaUZ2TaT58LnM1731TvZLyNcKmV9lrPuMkbO6BB2Ti+khra6dvDhcmm5qZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI1ehnq0o8737EnfTvJJvwFDNUi1v18rEdX+LJKSvNI6DA4fXLHRF5DB27SFsukXEnJWuU4RT1Z1akneyKnGYdLcku5HP7XpXR1uLpuSvyZz21cO95iUTanI4XG0Fm1RSY6jZnT7R3lJjKd9SemypiFd6Gz0afWkv5fudAUWwElOS/lL4sxKDAAMmAAAAAAAAAAAAAAAAAAAAAAAAAAAAW/o3NdI01vX9ynR2OG2fCPRVVFLNdJp6Pq3WnavoaVHpYmowcndcCplHGJZlUpUk9VmduO4k7F23iXPJUqUq0b2zQauu9WRYT2DGtKUms2aOWzb0T4xfsvtRHwWxIYNXtreTWt23Pe5N6sr3tG6LqjeVjb6U+kH8Mml7UY204nKVsNVrZp4jF9ErXyxjJ2Vm7u2m5GfSyv0lWKbvlsXey6UMThZ0nbrP9RNt3ad1L+xiEtdTepTsjhsThkv8LEKqt/f4Glx5nQ4/YOR3uuqrRSXDvKrGxXDkbZrshcHHVnnZFCydR7vVT7eJaJnMxkoyj4F9gE+jjft+rJacruxXqUXGCmSAASlcAAAAAAAAAAAAAAAAAAAAAAAAAAAHU7Om5UqVk2o77cJJtO/gzli12DtNUZNSvlfLg+ZpUjdaE9CahJ34qx2mGq8L8CJtBRco9JLLFvi9+ttL8TVRq2aNG2K1OtljljNwkmm1dJreymnfc6Eb7o4r0njBVWoTTa3K+rJPo3iHkbXB6j0j2bDScYKMr6qNr+HZ3HvY2KpRg4JZb8/eMvbQ3u812Ssfiro5TG1PWLHF1es+SKmFJ1KkY+9NLzdjaKsV68rkf8AhnOoraK6XlxOjhGySRqoYSNNtLXXezeWKcbalStVz2S2QABIQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHTYatemmuMd/atGR/+GuXrVGob8sbR83xImx8Rvpvc9U+T437C6wii9G09NxSqJxkdPD1LrxRzm0sFh3dRlNvtk/3K/ZmGUZSzttNaJu9uR1+L2VSjJzaW7n9jl8ZOOZ2drXF9SacrrUqMZV61k7nrZKvWi+Tv47o/NorcRXV27mMFiXni93WRNaxz5SudQzB4qVEt7Mwkmk1xVyxZ2uVbrY9AAwZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJOzZWqR7/qmaNrOtCbnTu1fy46HvCevH4l9S8q0GnmSumtdCvVeWSZbw8FKL8Dicb6RVmnGSafj8yir4qcnxO7xGxnVlJuNtdDVW9HFFbtTRVUlsTSw8pcThIQb1ZLoYWU2uC4s6GvslQV5aI9U6UFuaS77HQ7PoLEz/c7JeOr+xQ7Qm8LTVk23xs7L78iPTo/nPtJeGfVXZp5aIhY3bVKmmoPPPckt1+be63cVWD2tUjvea7u0+3kX+0alLLGnB6rlwOZgYVG3OS0fPdnUAg4XaUJ9j5MmpnLudIyAAYAAAAAAAAAAAAAAAAAAAAAAAABgye6UW9FfX81MoN2KjamNkujjTvec0k1xakkl5n0jCO8b9px1fCxeXi6c4y07HrbwujtcHFKnvVnK9+Ft5WxcpKfdyVsuh0sLQjCkqsXdTV+mjR6dN8uJC2jiKdPf1pcIr6vkiNtbbV240ty0c//AJZy2JlJvV/naWMB2XVxf7lpHn9Fx89jGLx9DBaVdZ+wt/8As/6rw3aNmNxmaTk3d8Lbo9yIGKpRmrSUH9TE4nlQZ6nD9n4fDwcIR33b3f5yVjzGM7UxGMknUlZLaK0ivJfN3ZVVdlpPq38rnmOz376/0su4w5m6eFTi5bmjm4nsZ2cqMn5P5Nm9PtVwspxUvO662aKJ4CpHdaX52ijtCcHZrXla39y3o0rJPnwLCNBZoU+acpPlGOmVd7fyORhMPVrVcn9eL5ffwOxWxmAeGdaF4zWmS97+Ke9vR6W1K/D16zWaVO0e3T5byZCae5m7G8ikqNxd1w18OJ1sR2dGEf2t3OPQx0qj/clYuAacPWUlc3HKaa0Z007gAGAAAAAAAAAAAAAAAADBlLm7Li+S4k3CpWvFO1tZPf3LkSUqcqs8kFd+nn+eRpWqQpQzzenxfkaaeH9527N7JjtGLjHTnz7rmqMOO48tN6I9Fhez6dKzesuf0PPYnHzraLRcvqaoQtK99+8mLETydFm6l72W/uvyNNOn+c2blTM4ns2hiKqqzWq3S2fK/kWML29isLh5Yem1bdNq7i+Ljw+nA0ThpZLREerRd/AsFC+iV293eWNPBuLjGEFOq+eqi78FudubLVStToxSdkuit6JI5kFOrJyd29293r8XdnMywtluZHnTZ1dONWlUdOajKy1hJLVRst9t+iNOLwMYWklmUlmUbpvL2208DFPEwm7Jp6J6eP2JZwlCOZp72OYS4rfdfX/f5G2vFuVOl77zP4Y8PNom47CRks9Oytra9k1+/YeMD18VN29ShTilycnJv6G85aW8TEZXWbkn9F8Wa9orLNKPrStGHZLfKXdFa99iRgKazTnwVqUe6G9/6myNiZLppSWvRwsvib+82l/42WMKXRwUPdheT7XvK1KEYyeVWu2zappTS4/j9LEPFlbRpp1Mr3O680WOI3X/ADUr5SyzjLlJfUkq20N6N7OxDoVHTllfsyyv4Xufn9S4InpLhbVtN1Wnp8SWnzsbMFUzU4y5xXnxPN4unkqNHcwlTvKSf5+XJAAKpaAAAAAAAAAAAAABmEbtLtMpX0DdtT0qbnNw9lRV+96lts+h0lSFJX1klor2XF27CJWqZIya9ac0l5JX+p0/o9hlSoxqypRlGbcnUk/VhSk7xUPabaXi49h6aMVhqLUVq2+v2sealOeKqJ1Hovglw/OZB2lstUc0ZyvUb6kV7ML6SqO29rdFd5BhS9leL+56x+OdScqj9aUr9y4JdyPCk0rcXv7uRapxko/vepSqSi5PIrLge1FX09WP1PB6Ut67vN6/Sx5JCIn7MileT+Fbt8r6+CXzNalUX6kG4q7Sadnor2VtbWMbMms/LeWEdjzctGsr3Nvsv56bjl4mo1Vmn7KtfVePhy3udCMW8KlT3u72evg/XzIGDi5zcpuUrPV3bevNja90qUoyj1afvX4t2fJ67izxLhShlg31lxXFabznMW0u03wqdSo6trLRJeCvrbhqbYiUadKNFPM9XJ+Ltp0W5BxtS7aSspq6XKS0l3pqz8CP6P4xR6V29mHneUbeFmaMXaLvF21u1wfauTIODr2qzjuUpJrucJv63LFWdpR8zanTUqbXh6WLvZcL2b41HJ/5W0l4ycpEitVvCcuM62Rd0d/9LIuAqZKMZv2aeb6tfNi7TpU3vjDNL46v4/MzbKlEh/nNs9452hBe9Nvwiv3ZV45/Usdov9WEPcpa98t5f14YONGFanhM8eljB9NWlmvJXvkirW8SKtUyrRN3dtCxhqebilo3r+cin9IsNJ0YVVFtU3HM0nZJ2Wr4a28yBhYZY24Xdu5ttfJn0nacqKoVMNOo+ilhc1O2ZLpJNyjmjFttp29ZvcfOcO+pH4V8tDjY2bm87Vr/AJ15nSwNONNOCle2/h9uWxsABQL4AAAAAAAAAAAAN+DXXXi/JM0G7CytLwf0JaH+2PmvUir/AOqXk/Q90abq1acFwb87O2i70dlhsElTySqZoqTyxcnlve3qR63rX3tbjk9g43oq05Wu+jll4a3it/Zx8CXV2lUmrZssb3yx6q+XcemqQnUlaLskecjKFON5asm46hTpuSytybum3ZRV3oor78Cuit7ZmOv55mcQrQtxei8SxCOVWbuVJyzPkaaMrpdrb83p8kbJS4GJJJ2XBW8jCi7m5q9zNF62JHSNO93c0KGp5xFVxkuW41smF4HutiraX+ZTYzG27eziecdiNWivlXUurLR8HzNJystC1Ro8WR8dWbjdarn+5Ho6yg+Kf2a+78zdWouLvHy5mnOsyfqu+t93aUJ3b/d+anTha1kdO4LJSg/VyqU/hgk/rYbEg6knWlpnlmXw7oI1V05qFNf9xKLfKlFJzfjoiZjcQqVGclpplj9Fb84F2Vr3eyRzdbZVvJ/P6+hW0JdLXqS4OeVdyJ06reKVOLapwim1wbjub7f3Ho9hejpdJLk3r9TOyYLr1ZPWctOdiHRQUptLi79SVKVSco0k5NLKklfXbgWk3oyldPLddr+paVcQo6Jac3/cr8TK7vzORj8dQrJQpu7T9x28D2JjcJCVatHLGy0ur78kagAc0tAAAAAAAAAAAAA24d9ZeXmaj1Deu82hJxkmjWcc0WuafobaVLLUuvV1T7Lrj2X1ub1oaK61zXcXxa+6ejRup0ZzlLJFyUY5pNcI82ewTS14Hk2nJG+c1Ejxm5Si33/sX21fQjEKManSxfq56adpQjJpOSb0dr9nibpbJpxxWKjl/To06jSu/Zisqv8AE0RRxVKV8rv5dPmbywlSNr6X+7+RRUlvZJjQm4uajLLH1pWdl3vgditlKlVjFJWdHDJ6e06sFJ97yPzMYnaEqOHScL0a1Os3JRu+lqTllu+CSt+Ir/rszShG9/H81JP0Nr55Wt4HNVNj4iMHN0ZqKWZtq1lvuVu18NOCjni454ZoN8Y8zrtq7crywNFuS/VdSE7RWsYvKkuRo/8A0ajfD0JRX+DLoZeNOMvsZp4mpnjGaWra0vw+5l4allbg3ok9bcfscPX2fVzxpunLpJJWhld3fVNLtRWYjC30a42fNNbz6/trAf8AN7Orx96NKduajnh8nL5HzDakLVqvLpZ/1MzRr9+lpw+N2vkTVKXdcePyTKeMJR0aujM4xlvSZaEGvSTJXG3iawncsNnL2lbSnGnHsb1f28jGMXTVYQX+FS1k+cuRpwF8tlq0zdUUaaWeajyit/gl1pPyPOY7tWs5ypQWVJ+9nt+yf+N4Tu44ms8zavbaKv0b9/Ql4/EuaUE0o8VdrRcDTG+5OXYkvuyDPEVmn0WHk/5qkVFd9t5AxOBxUl15ZVyj1V8t5x5udR5pu78Wd1YrC4aOSjH3RVl1/wDSzxG0KcNJTimubzvyVzzhNoRrerfTi1bfwOaqbNa7y19HVaMlxUtfIlpwSkmcjGdpVKtOUHFJfHfmXAALRxAAAAAAAAAAAAAZjv8AEweqcrNPkwzK1epsqSXOz5PS5aYHAVv4d4qhdpQqKtDc1CLzLR74u3D3SjxEHe+njyLKeNrQ2dUdFuEoV1GTg2m6deNnF8bZoR8y7hO1a9aapTt5u+vmWe1f+P4TDUXiaLlq1pdW15aX+LOqjClPaP8AGVpS6GtRpOllzdZzSSi8vBODdt2qJ+0MLL/qFRLR1FG/c4Nrxzf+pzmDrwjhsDTc1enJud/ZWZSXgry+Zb1duw6WunKTpTV4pbnJ1FNu3O11fsOi6NTSye1vdGSt1SueXlXpu92tX6xfpsdLiamaUJcsTKPhRVWZR4CvUjQrYSqlKH8LKrB+6ms0Vfv8mQo+kqV+o3+tWmtUtKsZRivDMzVifShvC/w/RrPkUJVL6umuG6/Zv5msMLVSy5dLr3b6mZYmk5XzcH79tPf8jZCi54fAw96rVXnUVy29LMPRnhMX0VXpJqoqs43TyNNQaVlorRe/kzmsFtxwWHXRp9BKbWr6zm768rfsRNn7SlTdfRSVanKEk/53e67VqWJYeo55lwba21vNv01IYYinGOV8Uk3ytG3rc73ZFZVMVUw8n6scPXh3xhFS+x8r2qv1avxz/qZb0/SicMbHFZFdU1TcE2k4qOXf5PwKfFPNKUucm/N3M4XDypyd9rLrszbE14zikub6cCLF2I+InZMkyiRq/wAizN6EVPcm+ieF6ec1JuKjZu2930sr7t287ilgKNJdSnFN73a8n3yerOM9Cav61Rfyp+TZ3VTVHjcdHLiJHtMJWnUw0It6JWS4aMrMSyk2hIusXojncfUKTLkVoUOM3k7D0VFXW+UY38EV+KeparcvhX0LVFalDEvUGTBknKaAABkAAAAAAAAAAAA6XZdGMoQUop9Xik+0p/SqtkrUqFK0ITtKpGKSz2el+7KWeAxUIqN5xVoxWrXIpdsSz42M1rBQXWWqvrdXJOykv1V5bWfqkb9pSawlo/DyZLcT0po1OpF8YnnpFzieu72n7S6o8X3M/ZfRm+Mrh0zEKsV7UfMTrx96PmO9p+0uqMd1P2X0YhH8/PzUxJWPHTLnHzMTqrT1fMx3tP2l1Rnuaj/q+j+hCxrs7iNRNI945J7rESkmlayNHVgn/JdUWY0ZOP8AF9Ge3PkRcQnI31E9bX/3NE4y10fkRTqw5rqieFKS4PoTPRV5cTbg4tfR/ud5GpofOdmuUKsJNOyevc9DtqOPp8Zx80eY7Tj/AJsy4rzPTdmT/wANpaWfHxPW0Hocxjpas6HH4yDWk4v/ADI5rFu7OdlfI6alG26KivvLd/ZfQq6lGV/VfkWsizSRz8Q7swACYrgAAAAAAAAAAAAAAAyAYlwMLZ/nEBgGGTGGEAYBlhAGeJG9zBgAwzCBhAG3EHpGGAI7szwMoxIAIxwMoMAcQAAZAAAAAAB//9k=</t>
         </is>
       </c>
     </row>
@@ -2409,40 +2409,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Steven Smith</t>
+          <t>Izharulhaq Naveed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023_224</t>
+          <t>2023_215</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>121.3</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.1</v>
+        <v>50</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2475,31 +2475,31 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYZGRgaGhoYGBkYGRgaGhkaGhoZGhgaGBkcIS4lHB4rIRgaJzgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHhISHjQkISs0NDQ2NDE2NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0ND00NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABBEAACAQICBwQHBgUCBwEAAAABAgADEQQhBRIxQVFhcQYigZEHEzJCobHBUmJyktHwFCOCovHC4SQzQ2NzstIW/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EACYRAQEAAgICAQUAAgMAAAAAAAABAhEDMRIhBCIyQVFhBXETgfD/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQCkSG0v2kw2Gyq1VDfYXvP8AlGY6m00XSvpOqNdcPSCDc7nWb8gyHmYrZDkrqcjsbpvDURerXpp+J1H1nDtIdoMVXP8AMruR9kMVT8i2HwkBiayXIOsx3/5k3I5i7xU7f6OGzEa34UqN8QtvjMZvSPgRsNQ9E/UicFDkG6nZnz/3EyHxxsDlw+Vv3yi8qrwjuS+kjBf90daf6GZNHt9gGy9cV/FTqD4hbThFPGfaHlMlKgIuCI/IeD6EwensLV/5eIpseAdb+RzkmDPmjXHESRwOmcRRN6VeonIOSvihup8RCZF4voaJybRfpLrpYV6a1BvZe41viD8JvOhu1+ExNglQK59x7KxPBb5N4EypYmyxsMREZEREAREQBERAEREAREQBERAKRE0/td21p4S9OnapX+znqpfe5G/7oz6Q2JGwaX0xRwya9Zwo3DazHgq7SZy3tF6QK9e60L0aeYuLF2HNvd6L5zVdI4+piHNSq5dzlc7huAG4chMaRclzFVmJJJNycyTmSeJO+eHqBReWcTiNXIefCReIrk7/ACkbXIyquIa2szWuMlW3xO2RdZyTKVHvxhKbnYPOPX7K3fqGHdrhdt91/iDukjSswsNh8zzPA8pjU6ZHtAb8x+kyKNBhmrb73HyiysVjK86pXmOMz8KRvW42ncw5gj/eeVQnMXvMrC1NT3VI26h1h/UjDNemY5TO1rIo1Fbm2RP5SPvcOu6eFBU5bNhU/wCk/SZoxQPuMOBAv45d1hxtbwmJ6w3sBtJIW3nqHePu7RCWiyLvMSkumojoGXIjJh45ERVSwHMX6bMpcy2yyx02Ts/24xOGIVyatP7DnvD8D7fA3HSdU0D2ioYxdak3eHtI2TL1G8cxcTgUu4au1NldGKspurKbEHkZpMtM7jt9ISs0Hsh27Wtq0cSQlQ2CvsSodwP2W+B5bJvsqXabNKxERkREQBERAEREApETS+3var+GT1NI/wA9xe+R9Wpy1jzOdvOK05NsXt1209TrYfDsDVzDuD/yuS8X+XWcpZiSSSSTmSTck7ySdphmJJJzJNyTtJOZJlJFu1yaIgTxWeyk790Ro/Hv3rbh898jHqcJdxLGY60yYQ7+nunSO05TMpKTsBPjLYtbgBK+t1dhtJvs56ZJw53/AKy7STcCf7c/C0wabsx48ybDzkxhdHuwugJO247qDqxzPgJN9drx9vVLCve9vP8AxJE4ZCO/ZDx2Dx3eOUspo+oPaZD0Zrj5XmXRDoLE6yWuRm9hx4gdARaR20npfoaMOZQjXAvqk6quOIb3W57ONtsjse9I3F2DD20cAOp423/I/Ge6tV09gnV2oNoH4Punh8pg46oHvrKcrMt8iB7yBtosTcbsoYwXbBfEnXJJFyNUkbGyybn45z0mOLaqkfrtmP6rcL2333c5aYWOU1ZXacErMbCPdReZMqM6TonYXtqRq4bEt3dlOqxzHBKhO7g3geM53Ecuis2+k5Wc59HfawvbCV2u/wD0nPvAD2GO9huO8dM+iy5dos0rERGRERAEREAh+0umkwlBqrZn2UX7TkGw6ZEnkDOD4zFPVdqlRtZnOsx4k/IcpsPb3TxxWIKqf5VK6pY5MfffxOQ5AcZrEjK7XjNERElRMbHPZb+EyZZxqayG20ZjwgERWsNu3hLTggbR0nipe8qKdrFj++cSu3ukw8ZmYfDBt/idngNpnigutuy6ScwGEvkFA8MzxufpM8sm2GG2Nh8CBnbWO4H523SRpI7WBFxz1reFjl5Xk3g8IBa9ryVw+HUHYJn5N/BDLSdAAoup3XJt0ItbyEyKWgahsdl+Oc2ClRUZ2mWrxbEwQqaABFibHllnxmPitCsq5KHPHf8AEzZVaV1Ylacn0rouoneYFQbG2X0yEh6qzr2l9HCqjDeLEZfZNyJzDSWDKEg8fhNMcvwx5Mde4tYI5zOmFgl3zNm06c2XZERKSqjlSGUkEEEEbQRmCJ27sV2hGMod4j1tOy1BxPuuBwNj4gziEl+zGmmwldao9i4Wov2kJz8RtHSOXRZTbvsS1SqKyhlIKkAgjYQcwRLstmREQCk1jt7pj+GwraptUqfy0ttFx3mHRb+JE2icZ9JulfW4r1YN1orqf1tZn+Sj+mK9HJ7afaJRTeVmbQnqIgHmeoiAa3VFm8ZL6Ow6Pmy3tskVivabqZLaEa+XDZJy6acf3JenhEGxRJDCpMMmZ+FyznM7YlMMnKZ6JMHDPzkiGiWupeZFNZYR5kUzAmTTXKVAnoPl+/CVjJ5Rb5TSe2ejrd4DMXHUGx+s3lTaan2rb+Yq+46m/Ij/AB8JWLPNo+HoWXWsfpaXJnYlhqldhFrcLAkEfvhMGb49OTPsiVlJSCVlJWAda9GOl/WUDh2N3pezffTYnV8jcdLTeJwvsXpP+HxdNibKx9W/4XIGfRgp8J3SXL6RlPasSkrKSsYquER3OxVZj0Av9J864quaju7bXZnbqzFj852r0h4s08BVttfVpjo7AN/brTiEjJWMBERJW9REQBESn76c4W6OS26iCxK3d+pkhoKnkW8BPGPwZRtYZhtp5/4EytEKQh5sT8hMsstxthjcctVKLnJDDiRQe24+W2ZlPFMBkjeCmZadPlpM4dTJTDpNew2ljexU+Ikrh9KLbMRWHMtpEgg5C/72y/RQ3FzPOBbXBIE81Eqa2QFusR7ZwB3CGcjaPjNcx2lWR8q1JM7Mr1FA8duczsJi1cFhWRl94r3rbszu6mVovJLet3Ga52opazU3G4VBbjYbPjJ5sMx9lrjlb575B9oVIVCdocA8tYW8sop2nL3Gm1GboLatrbwb3+fxlqbThdACqpdnCrsBJA28ztzM13G4VqbvTbahseeQIPkROjDKX05uXjuP1LESsS2JaLREAETv/Z3H+vw1Kre5ZBrfiGTfEGcAnW/RVi9bCuh9yobfhYBh/drSse05dN4iIloaB6W69sPST7VS/wCVT+s5VOkel588Mv8A5D5ag+s5vIy7Xj0RESVEREATxXJ1GttI1R1Y2nuXsKLuo+8p8jcScumnD98eqmFVaGplcId+ZO3z+hlvRSdxQeF/OKQ13IbYLk+EvYHIDoJj+NOy4/VterI9rJlxOWXS++Yr6MYjXbWc3bW71stUhc9uRsedpLULbfhLlVgAcoY5eKcsfKaajiMIVQe1rgAHvHvNrMSwHujVKC3FSd8ldGs6oLkn9/vOesVh9Yy5TTVEeV8hjh49Nz7O4iwF9hEktNjWpORwtYEAksbZknZxtnwmt6EqEgXuAOG/rNmdQ62IuOEz01uLQMPgmZCqrqOQV1kt3DrKRqbLZAjxm5aO0QWQ66IhLK6lTcramiEIy2ILFCzXuLsRY7Z5GGVGyAtyFrcJIU652C/0EvzutM7xze5Pa7gsEKXdGSnOwyAPIbvCRnajDlqFTV9oKxXqBdflJlCTa8w9InuG/A/KQqT9ovtho4PgLoV1qOpWBX7osx8mJ6iax2qa+JY8UpE9dQX+FptdOuBUqYZs1KsgvvDJcA+fwml6be+IqciqfkREPxUzXj7Z/I9YSX9sCIlZs4iUlYgCdD9Elfv104qjeRYfWc8m7eit7Yt140mPk6frKnZZdOuRES2bmHpfHfwx+7V+dOc6nTfS7S7mHfgzr5qD/pnMRIy7aY9KxESTIiIAnpDYieYhTxurtm0sIdZXUhWJ74zsRv8AGWsH7I6CZGHxCkZm1t3ThLOHYXNtlzbznNZrt3+UvuM6gucyatHK/jLGGPeksadxflFuLjW6tcK1jtnptZunSXa2GGsWYX4cpiVcPrMCWbL2dViPO22Mo3HRWFA1eBsL9ZPLRZcxmLkbMiNmUgdDM2oisLWa97jNc8rcZIpgAtc1w73ZSGUuSp4WXYLbgIpdrtXcRiFZtXYR5TKo0L2+UxMVhA6gpky7OfIzM0dUOrZtoy6Qib0yBTI37L+Mw8f7P75SRcSM0jWVBrubIpDOeABBN4VO3ijopaJLlgzsxLuRsS5LavgLDrOYtWLku21yXPVyWPzm/dpe0FEUXSk4qO6lQEOsEDCzMzbByF7k2mgWm3HjqObnz8rJsiJWaOdSIiAJufosH/Gsf+y//vTmmTe/RPSviKrfZpgfmYf/ADHOyvTq0RE0ZtL9KeH1sFrfYqIfBrp82E5BO/dpsF6/C1qe9kbV/EveX+5ROAyMu149ERElRERAECIgFZdw/wBZalykc5HJN4teG6ySmGPeEka9chtQDMWHmAfkRIeg5FrbpM45VZQ42kAN4Xt+ngJyx2onEV01iNcE3sQCCfIbJk4AICDq3tuMwDhUtbVFt2UyMNgUvsI6Mw+Rmk0I2JnR2VkIUA3I5j6SYouGA29bXtNew2jqdthy2jXcbc/tcvjJjDaNVhk7ruyd/wD6yj1F2RIoi7VN+m7PfwMuUHB2ixHl5zEbQ1PVIu973DCo4YHcb62fQ3EysHTIUKx1iDtIGY528JNZ1lOcrzWu172w78yq+BYfRTNhqmad25xNhTpDeWduQXuqD1LN+WGM3lGfJdY1qERE6nERErAEREATpvolw/cr1OLqg/pXWP8A7icznafR9gvVYKnlm5aof6j3f7QvlKx7Tl02eIiWhScC7UaOOHxVanbLXLJ+BzrL5A28J32c49K+iiVp4lR7P8t8txzQnodYf1CTlPSsb7cziIkLIiIAlZQSsASolJWLLqqx+6Mqm9v3nM4Vzq6pzHOR7plee6dTKcd9O5lgAzLooBnItakkcI95U0qVM4ZL58cpNYZNUDORwIVFI42PKSOHYEDPOCrYzQZ6QWllXtv/AE/dp5evt4cf0iyRa9VqvH/J4Tnvap74l77QtMH8gNhy703yihPeI6X3c+c592iP/E1fxKPJEmnD9zHm+1GRKxOhyERKQCsrKSsAv4HCNWqJST2nYIOVza/ht8J9B4eiERUXIKAo6AWE5d6L9Fl67Yhh3Ka6q5bXbf4Lf8wnVpciMqrERKSTC0pgVr0nov7LqVPK+wjmDY+EzYgHzppHBNQqvRf20YqfmCORBB8ZjTqfpN7PGogxVNbvTFqgG9NzcyvyPKcsmdmmku1ZSViIyJSVgARE9pTLHIXsCTyAzJPARZXUVj3GTT2ZyjJbOeqanKXCl5yO+xaZOE94XFau3KVHCekoXMn3CTB0ouqB9Jn4TH5WAblkZFYTAtf9/GbDgcBb2t+eR+cPqP0v0Cz7chsPE8ekykp3NtwlxUAAAA47dk9o4I/f7EchRVxlnttnOZ6fN8TW/wDIfIKoHwnSna+X78ZqlbRdPEYivTJ1KuuCjgEhrorWqrsYZjMWI57JU5Jx+70z5cbcfTUIl/GYR6TtTqKUdDZl27cwVOxlIzBHzuBZnVLLNxyPMrERkT3SQsyqouzEKoG8k2AHUmeZv/oz7P67fxdRe6uVK/vNsZ+g2DmTwjk2Vum9dmdEjC4ZKXvAazni5zY9Nw5ASXiJozIiIAiIgHh1BBBFwciDvnFe2/Zk4SrrID6hzdT9g70P05dJ22YWktH08RTalVXWRhYj5EHcQcwYrNnLp88SsmO03Z+pg6uq2aNc03GxlG48GFxcSHmbQiIgD48htPACS+PpeoprTHtuRrniTu/CNnnxlOz+E131yO6mfV8tUeG3wEmO12jj/C/xAGdJ0ZvwswVvIsJ5/Pzy8uPHP+/9ujhx19VQCJMkJlkIRLi42EfCZFDgdn7vLmW3Xph1Uzl/DpM18KLXtPWFoi9iIyZmAbLPPdkT45yepuRvA/3mBgcMFz658jxkigAy3wL09Z5dfG3WekFt22/zzntBxldW/TdGY4mvJRJ0koUka1NHa33GZfith4TYm57pCdk6nr8Ziq49lClBOihmY+JKzn+RdceX/vyLdRMdruzgxVMMllrJ7BOxl302O4HaDuPK4PJ3plSVZSrAkMrCzKRtDDcZ3oTU+2PZb+IHrqIArgAMt7Cqo3HcHAvZt+QJtYjL4ny/H6Muvx/HDlHMJSe3UgkEEEEqwIsQwNiGG4g7pm6G0TUxVUUqQzObMb6qLvZjw+c9ie2bK7L6BbGVgguEXvVH+yvAfeOwee6dwwmGSmi00AVVAVQNwGyYWgdDU8JSFKmObMdrNvY/pukpNJNM7dkREZEREAREQBERAMHSujqeIptSqrrK3mDuKncRxnGu1HZargmubvRJstT/AEuB7LfA7uE7nLNeirqVdQysLFWAII4EGKzZy6fOUltGaGaoA7nVQ2It7TDiOAPGbl2i9Htgz4XeDdWuxXI+wPe6HOYuFQ6iXUofV07qwIKnUW6kHYRstynm/N58+PHWM1/XTxTHJTC4dUUKosBsA+PjNgwdFa1GpRbY6Mh6OpH1kUqzLwVbUYHdvng/8t8/L8um4+tNE0aGUGi4syMUYcGUlW8LjytJCgnetJHtro/VdcWg7r6q1Le64sFY/iFlvxUcZE4SsGtPXw5PL6p+W2F8sU3Tw9xln+sspRKtJHAi/wBZcrUMwbfrOiJr3QMyqZvMdABbdPQq2lJX227ZdQZfX/aYS1gTtljSGlVpqcx+mW+Bxh9r9LClTKKe8wt0G8yT9HujTSwqsws1Qmqb7QGtqg89UL5zRMFRbH4tFNyl9Z94VFzN/wARsv8AVynYsNTsLTz/AJnJ6mE/2jkuppflDPQlxKBO3IfGcnDxZ8t1jNuW5SdtW7SdkVxhFRCKdUWVmtdXW49sbSyi9j4HlsOgdC0sJTFOmObMfaduLH6bpIotshPc+j+PxXiwmOV3WGWW6rEROhJERAEREAREQBERAEREApMHHaMp1faXPcwyYeO/xmdEjPDHOaym4ctl3Go4zs+65p3x5N5b5FshBsQQRtByPlOhSzWwyuLMobqJ5fP/AIrHL3x3X8vTfD5Fn3TbSqeq6NRqC6OpUjfY7wdxG0HiBNGx+BqYWr6t896vuddzDnsBG48rX61W0BTOakr8R5HP4zC0p2Z9fT9W7CwN0YDvI2y4vtBBII3gzDj+Lz8N1lN4/wAb4c+Mu9tX0NXBAkyyAiRWH7M4ug9tQOv20ZbeKMdYHpeTP8JWAzpt5X29J244Za9ytbyYX3LGHVFtts9ki8Ti7XklicFXIyoudvu+W2Rh7N41tlEjqyC3m0vwy/SPPH82MY44KCZrGMxNTE1BTpgszGyqN9ttzuA3k7Jun/4HFVBZnpoOrOfIAD4zZuzPY6jg1J1i9RvbcgC/BVA9lRwvzMLxZ+Pqe/6MufDH87YnZTs8uFp6o7ztYu/2m3AcFG4dTtM2dKB6TJSkBsEuTDD/ABu75ct3f45M+a5X0tpTAlyInpcfHjhNYzTK3ZKxEsiIiAIiIAiIgCIiAIiIAiIgFIiIBWIiIEREYUiIiBKxEApKxEYUiViAJSViAIiIAiIgCIiAIiIB/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFRUWFhoXGBgXFxcVGBcdIRgWFx4bFhcYICggHRslIhgXIjEhJTUtLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0mICYyLS0tLSstLS8vLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKAAoAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcIAgH/xAA9EAACAQIDBQUGAwYGAwAAAAABAgADEQQSIQUGMUFREyJhcZEHMoGhscEjQtFSYnKC4fAUc5KiwvEVQ7L/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGB//EAC0RAAEDAgQDCAMBAQAAAAAAAAEAAhEDIQQSMUEFUWEicYGRobHB8BMUMuHR/9oADAMBAAIRAxEAPwDuMREIkREIkREIkRIHezejD7Po9tXbjoiD3nboPueUIp0mQWJ3wwFMkPjKAI4/iKbek4BvP7S8djSy5+ypEH8OmSoI6M3Fvp4SsUaQF+0Fri4HPhfzt4wswvVGyt68FiSVo4im5HK9ifINa/wk5PIFJm7oD5Ra9/EEXv4y67qe06vhqx7cmspCowYkkBSbFT1sTCQvRUTR2VtCniKKV6TZkqKGU/Y+I4EeE3oWEiIhEiIhEiIhEiIhEiIhEiIhFjqVAASSAALknQAdSZ5Z9qe8Yxu0KlRGz0qf4dLplHEjzbMb+Inpbeai74PEpT99qFRV56lGAnjcg3tzhZC3sORlvlvrr5eHjMjOS1zqOIBvceRkpsHdvE1LEI1j4HWdA2L7L2qlWqk0wOQ0Jmn5GqUUnESuY9ta4Kkix8LcJH1WsdDcdec9P4TdTCUlKikpuLEsLk+coW+/s6w+VqtDuMNSo934dJr+Ubrb8JIsv32Fb2pTVsFWewZs1IngCeK+F9D01ncZ5H2Xs9zXpUaQLVC4ChdSTf7Ces6IIVQdSAAfO0lUBWWIiFhIiIRIiIRIiIRIiIRIiIRJ5i332AuH21WpqLUyRWUeDAMQP5sw+E9LYqtkRnsWyqWsOJsL2HjOE704lMfjqGIANNmpdk6HRgQxNzfqH+U0e6BClpsJM7JsvfR6SAUsOagGl7n5ADhLtuhvquLQg0yjjQrxv4iRB3Cp1FC5yFsBYXFtb3FuenOS2ztnUqFdBTUKVGXQdFt9pBYCytwXG6xbz7+U8K4pCi1RudiB8AOshau9IxS5GovSV+7c66nSxtwMsm1t3aeKzj3XOmYHKw1BuD10+swYLdEUEKtUZ+FsxzEWH7R1iAWrIs7VVT2RbEttWqWGmHpsQeNyxCg/6Wad1nM902XCNi8QQaj1XREpoLtZVFyei3fj4TpStcXlhrpCpVGFp6L6iImyjSIiESIiESIiESIiESIiEXy3CcH3/PZYukwWzU7K3jqT6H7zvUqW/wBu/Rr4atVanerTpllYEj3e9qAbHnxmj2ypaT8sjmtTZOJDopHMCQO1Nr1cPi7jDPVS47ykHQgcvP6TS3U2qChS9iuk2a9XELUOV6AF9O0zAnprKwXQYMysGwMfUrO5eiaQ5XYHNfwHCb21atkY+EruzHxBe7NSIHOmT/0Zubdx4CkX1tMkrD2w5fW6ODzLfL3qjanj3QSAT6H1l/AmhsbBLSpIoFjkXNxNzbx+MkJYY3KFQq1M5SIibqJIiIRIiIRIiIRIiIRIiIRJir0wylSLgggjrcWmWQG9e9WHwFI1axP7qLYu3kDy8TCyGlxgCSvOeD2y2Hr31spII8AZ03Ze8OGrqO0CNp+YA/Wc92xsftQa9JT3iWtzsTfWRuz9iYlz3E9bj6SrYhXwCLLq21N6KFFPw8oH7th8LCQGC2jUxFYG1gGDOeQAPu+ZkdszcOqbPWcAdFuT6nhLxQ2UlCjkQW0+JPUmaucALKRrCTddUiUzd72g4XE1Ow79Or7tnAyk8LZgePnaXOWwQdFz6lGpSMPEJERMqNIiIRIiIRIiIRIiIRIkLtzeTD4UfiP3uSLq5+HL4znm19/MRXutEdlT6g2J/m4+lpo54ar+E4bXxJGUQOZ08OfgujbY3hw2GBNWqoIF8oN2P8o+84vt5m2nWerUayqt0QchqAPLW58TIXbOKe5VT2lQ6lj7ieJJ4mb24wakSalRqmYcDy1B0v5SCo8kLvUOGtw7HhgLnERmsALiR46W9Fadh4UIEVhpYSx4XCIjXA0PSaaGnUHdbUcuB9JNYej3B1kDdVy6oLbEQvx6Qa1hMWMo3E26CWJB6XnxicRTpglzbzmzhKibMwFzjeHYSU6i1xdahJBtwOh1PiNNZed0N+qVSktPEPlqrpmINmHIkjgevrKZvpijiMvYsaeS+pUMDfwPlKui1VsXRb82pnMp+HEfMTamS24XoBgGV8M2lXBBuQbWnbcjaZEL0jQxCOMyMrDqpDD1Ezzz/hcVVpHMlVkPVW0lp2Nv5iUsKtqydSCr/Bl0PxEsCqN1yMRwKqy9J2bpofvUwurxIXYG8lDFA9mSGHFWFm8x1EmpICDouLUpvpuyvEFIiJlaJERCJKNvzvX2YehRazgd9x+TwX97x5efCz7e2iKFCpW5qvd8WOij1InD6eJLt3jcuCSTzNsxkVVxAgLtcHwTK7zUqCQNBsT/AJy7lgZbsSbsx1JJa58TeZcjHT5D7n7TPs+zUx6E+UyPiQO6guRx6DzMrr1gPKPbz7lqnBqozVCCTwHIf1n2ii9wLdPCTlPdosVJrU2JXMoOYX6hRa5IOl7AehmtjcGtMhQ2Zh71vdB6KefnBCjbiGuMAye426n4HzpjpVusk8NtqqlrPcDk2vz4yKWlPvszy/vzE0jks1GMqWeAemqlau8lYsWGUX6a/WRlXEvUu1RiTcm5+whUtyn4y3mcp3UbKdKnem0Drv4LXLKPeBty0uPjPrtKfQf6Z9N3BmNzqAAOLE8APQm/QGZsHWQjvBONrd42/m/pJMpjNsoqmMpNqGlfNrA2HVYBiVHurf4CD2jcBlE2KjLrksLcjbT4jiJq1Gcg94HymCCDdSUK1Os3PSuOugI1EQLjkdF+4PEsjZkYhkINxyM61uttj/E0A5tnU5XA68bjwI19ZxpB3dPz1PkCfsstfs+2p2eJ7Mnu1Rl/mBOU/Ij+aZpOhyq8ZworUC8DtNuO7cfK6rERLa8WkREIue+1jaNloYcH33Lt5KGI+YPpOW0MQB2bHhkDehKt8ifSXP2o4nNj6A5IwT1pVG/5Sg1Esn+RWZG/y3vY/wC6VXmSva8NpilhmDmJPjB9lI0sYERqfEkrYDrlAI9QfWbODU8WPDkOHkB4dZWUxRVXD++lQp6gZSfQy27u4nD5e+SSp5km/kB5czMZVc/MAIAk9NdTY9BzV3G0lzLUWo7UtX7HJlsb5shbgVzG/S0ga9KpVqsxUlmYsbC/E35TPh9sKPdTW973A9LC/wA+MVdpMQRYa3634nmT4zJI3Kp0qb2Hst848zAE95ubGdForTmZVnys+wdJorJ7vv8AxfhE+CJjFWbFPWFm4WptAHIGAvkYMRzK2INvHX6zYoYcC7WBDksLZTYHXXLoCOn0mZdJ+03VRYC3kbD0N5IXTTy+K5b8I79k1maEQRMGbXHkPptgagEKIw7xDtbW4GU6kEWsRbhfhIrGMVJNxa17W6a8fhN/EYlQCRe50uTrbhYdBK7tTE3uo4kW9TDzMRsFvwXB1cP+Q1dXOLgJmB12k+gAC/dmViFDN7wzH46j6mSWGrlKqlfylbeYsfrI2hT76r+VRmb6/W0kt3cTldqji4a4sRe92B+0jhdurYExNtOa7vh6mZVa1rgG3S4vM0i93sWKmHpsL6LlN+N17vztf4yUl0GQvnNRhY8sOxI8kiIhaLhHtEr3xGfpiuPhnKfeRWMpqMTZvcxKZT/EvD5TPvf30qN0bP6Emau0r1cOjj30Ib4j9fvKUyvoLKeVgbGgHpb291XNt4UpmY+8O6374XVW9B6oOsxbGx5VmBOhaS+26naUs/VM/wCo9RKlQ0Nv3yJI3Rc7FzQrBzdD99ZXS8HiL2+f6SZWhUKdpkbIPzWOW/nwkbsTGNSoPh0oJUrFmDMVzsKZTuuvodfKWU7VxBKYegFakcGpKtlAsVGZ9dSQTy6TJpLf97ObNEamXAdnpymbT1WuuBfNkynMEzkae7bNf0ny+Ffsu1C9zNlv42vbrLEq0wwqGsvaNgh+F+Y/gcb38Ji2fRZtnlcpsab1i1tLiothfrlDTUsUbcZJEc2gzaJzZteWW2qq77OqhwuQ3ZO0A01Wxa48LA+kkMDsiuxyCmS2QPa4908De9tZaMTQDpRqfmpYYqf4XwzEH1BHxmlTxlPOKT1TTFTDYcq40sVHAnob/KZyQhxjntgNEja5i9zEyez2vFQgwNc5gKTnKcrWUmx6G0jcXUIuCCD0OlpOYbbWIXEYzO9uypOWC+6XAWmrAH4GaWMxzHB1KlRc9XEGnYkAHRwigAczlfh0jLPqpBiHNPaAg5BIO7o5iIAkzvAEXlVHaeOsL8wL/rKzsi9WoKrcbtboAP7Alm35wRourUwMtluQbgjs1v8AEksT5iQmDZEzWIu12C87X/qZkty2U9F4xFRtTRut/Q9fvJS1JrJUf9o5V+Gn3M3aCZVUeImlhtSi/lX521J9ZvtxTxN/lIiukQur+zyrfDFelT6qv9Za5RfZhVutYfwH/wCx9hL1LNL+QvB8VblxlQdfcApMOJayMeik/KZpp7Va1GqTypuf9pki5xXB9vC9N/4R9JpbMq3DUj+Zcw8/7+k3sYc1JvFR+kg7MKdOqvGnxlIaL6UbXH2CsWLUhXp+bD48R6/WVeiusuuO2jh3CMzZGIuNDY8iDKdUshIvrmtN2rkcQy5mmRA9NwugtiB2Jr0WcVFpBjYgd12ClFI1IVg3lczZ3c25R7NHrBjVooezK8HDDRW/hc3EotKoSgW5Obh4L4fG/rJfCCy36af38pIX3lYw2Ca6lkJ3mdCJ672me+BGquv/AJ6n/iaVSzZUw4pNYC9+yKaa8NRJXBb0WdVu/wDh+yFMppc/h5SbXte+vGUDDDW/Th+sksK55f8Af9JHJCuvwdJ+om0CfG/QibH5hXNN6KYLGzZThhQtYXzBcoPHhe/rNY7yYVmVKqOafY0kLLlDB05rrwNyJVXOYMnhx8ZpF7r49IBWP0aR0JBtedxpHdA05QN1ZsftGkWxRBKmu6BbgnKmfMSSPALJI7Zo1Q+HUIFoLem/us+RHVePHvNmEpmIOamCOI6zXR8rA3BzD4mZDjEffsrWpgabv6nzsLNbbmYaB4ncqS3nrFcQyKL0FAXryFz9vICVjFUEWr3P/Zlb6j7CT1VM2l/MStbRsuJRBp+Hm+JvBdmusBgoNY03ggX5mx9z5qw4NtCR0CD7zbLfiAfsrI7BPqOi/Mzew1yxbqDIyuqQr77L6tqrJ+1RzejqP+U6VOTbgVcuOVetNk9Fv/xnWZYo/wArw/HGxiyeYB+Phf/Z</t>
         </is>
       </c>
     </row>
@@ -2536,37 +2536,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>David Warner</t>
+          <t>Nijat Masood</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023_224</t>
+          <t>2023_215</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>164.7</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>50</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2617,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2648,12 +2648,12 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMVFhUVGB0bGBUXFhYVFxYYFxcWFxcXFRcYHSggGh0lGxUVITEhJSktLi4uGh8zODMsNygtLisBCgoKDg0OGhAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAO8A0gMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAYDBQcCAQj/xAA9EAABAwIEAwUGBQMDBAMAAAABAAIRAyEEBRIxQVFhBiJxgaETMpGxwfAHI0JS0RSy4XKCwjNikvEkQ2P/xAAaAQEAAgMBAAAAAAAAAAAAAAAAAgQBAwUG/8QANREAAgECAwUGBgEEAwEAAAAAAAECAxEEITEFEkFRwRNhcZGx8CIygaHR8eEUYoKiI7LiBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiKPjMU2mxz3bNBPwEoDM5wG61OYdo8NRMVKgBvbfaRw6hc67TdsdVbVTc7uEkAExZreHx+PVUXMszJ71Rxk7RvBvAP3utTqciahzOv1/wAScM0mGPPLYT/j+Vkb+IuGJAAIHFziAPICSVwY4gOO8c5P8Sfl5rzVxjtgZHMS0R4QZ81jekZsj9HYbtlgXmBiGyOjo8pAlb5jgQCNivynQxpadyD+6/yVhy3tbi8O5rmVHaej9TDxgtNvJZ7RrVGN1H6ORVLsf22pYwaXRTqj9M2d/pnj0+atq2J30ItWCIiyYCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDw50Ak8Fx/tj2nfWqPa0kU2gg94NHWXbxsYF7q8/iFmrqGG7hbLzBneI4ei4y2g7EQ0AxJNpBd1dwN+PQC8LTVlwN1OF8zX18yaJLe9PGIBiNgLxK0GIqFzi46p4GNlZczyiowkaSJGwHrI+nMrT1MO4bgR/pgf4UYtamZRdyAGwIBJ6f43K96iLd0eI49D/hTKmHtNvhPnIlYjSdykfuEmB9R1UyNjw3vcYf5D5cPuFNwxIBBA8LDwvt98FkwuXEi48xwnYiPgR5qT/ROBbI4EHkI/kTHmFByJ7rMGAxL6VRrmkhzeIEHlt8wV3fsN2xGMb7N7S2swd6B3XD9w5eC/P8ATrNDwCIHMmI24/BbfLczfQrNrNBOgh0EkgxYiRHDkibiyLVz9MotdkeZMxNBlZkQ4XA4HiPIrYqwaQiIgCIiAIiIAiIgCIiAIiIAiIgCIiA5t+KE1KtOkCY07cLzJ+A++MPs1lAptmLnnvH0W37c4WcQ13AsHwkzHw9VIwjYYFUqasu0FkjycEx3vNBULMOyGHqg6Rpd0mJ5mPFbhilUnhQTLMoqxQa/4dEA6Ht82xPnJWsq9jKzBFzwkbjwjx+BXU3PCiVist20IKmnqUTLezxYO/t6r7isAAO7Y8CN1acSFpcWLqC1JyWRz7PcphxcI1W2sDzgcDeVEwWoCP1CxG2rkQOe8qzZie8QbgiD4fzv8FqK9EQLXsL8xxngY8iFsvdFSUbM6j+EGJJo1mGe64GOUjl5Loa5h+DzpdW6NHzO/wAF09WKXylaeoREWwiEREAREQBERAEREAREQBERAEREBWu2VGRTPEuDZ6EhYKtPSAFse1dHVQkbtcDPgVWswzJweZae7IIDXECPKSq1XVlvDs2TGqSxsKs4TtTQLg0k6vD+VYqONa4AhaUkXW76Htw5KM8eiyV8WGjz8TCreYdqaTCW6TPQap8wjsZTsszZVbytTWNyF4bmdWoJbScOukwPMi4UGtVfIkX4rFrEG7mvzrDfqCr9QEdIPBWbMXnRdaN1AuI6qSK81mX78HKJ/PeeOkf3HZdMVJ/DekynSc3U0PcR3ZGqwN434q7K3T+VFSfzBERTIBERAEREAREQBERAEREAREQBERAV3tGSajWSYcxwjhMgXHO60ua1al/ZNaXkkgvJ0NHN0fIKz5vTGqk7kT8pHqFpKcKrUykzoUUnFNcurKR2hy/MnOYGva9h0l7hTotDLnWAHNLnNPDvSPRWHLKGgganFu3eAHAGRHwjw2W3dSnjI5HYKEymNVpjrfdRnK6tY206TjLVmv7VV3MbNPf/AAsGX5YCww+o1xpnRUBgGoW2PdEhoO25PQWWfOvdvssuR90BvDhOw6t5SoRaTJ1YN5Gly6nmsvNesNM9xlRtN8jkSwB3O88ditizDVHP77Y4xI36cYVgc0i5cfK0qDi6oifW5PqpTd3exrjT3VYqubMuQtUBD2t2vczEAdVtszqXndV7NKjpeWmIEnwkagOqhcbt2WjLMW5+Jw5Y0U2l0tJHedpv4NkTbfmuwLlGQsFZ+Cc259rJPJopvJnyXV1Yw6yZoxrV487dQiIrBSCIiAIiIAiIgCIiAIiIAiIgCIiA1XaF+mkHzAY9jidraoPoSq6bHwP+Fa83oh9Cqx2zmOHoVSqeMDw10wSATw4cVWrLO5dwsuBPdWWKkRPeO9/LoFExmYMot1Od4CRPqVTaWPZWxPtS1jRFy5oJLTaOvHaDdaVmXm7FrznQ6WBwvtJAnw5+SjZbifZVW4dx1CoCW8wWgEjwM/cqv9oThwdVOmC6xJJkgfpgvNhH3xHzJc6ptqaqjWh8e9x8IP0RxMKV2X+o+BB2WmxtWJvup1LMKVUdx4J5bHyBWkzOsGkB1rx0tv4KLeZl2saTO8RpaTx4LTBwqNaC6A6zubgNwPMN8l67QVi+Y2Hx3AFlO7EZQMVXbQLyyAXatOqwiwEiFlJvQr7yTuzoX4b5UWg1XCAwaGN4CYLjPE2aFfFFy/Bso0202e60eZ5k9VKV2Ed2NihVqb83IIiKZrCIiAIiIAiIgCIiAIiIAiIgCIiAx1zDXHofkuH5bmrvaaTI8gTfwXdF+es6pf0+OrNIsKhgG0jV3ZjgQJ81orq6RYw7s2butlrq3eeYbMl3vRwvE3A+7LLleHwbiWUvaPIbBLASLfqiLm88rqTlWMlu97eYA3hT3mgY1kNI4wPQ+a0RtezOjbjf35oiYnKsPp9zEEtvqLKjSBxBltxuenNVnMsBhS46XupunY03DYAiIFjcGVdX1KJ/+9xtJaSYIA/1bKA/Es2ZBA/UY8fruknFae/sZcb8U/BFabltam0VBqaCe6btPIETt4lO1GZEHvXIF+E8J+JHOfnvsTmIaHFxkhpgHjxuPvdc7zzGF5N7CIM77j0/93UYq7NVT4VY+HFkk3vPzt5q8fhrVDMZSItMsI8Q5wPy9FzKjUMG9/r1V37B4nTisMTYe0bvwmZ/4/FTtaSK995M/QSLFUrMb7zmjxIHzRlVpJAcCRuAQSPFXSkZUREAREQBERAEREAREQBERAEREAREQBUb8QuyZxMV6TdVRggt4vHAjmRy+zeUWGk1ZmU2ndH53oYt1GoWkXaQCBYkgwQY68+SuVCnSr0xuSeXDj4J+JHZZ7HnE0QSxx77QPcJuXGLaT8yqblOe+xdBcQADz4A8vu6pTjZnSoVlbMtw7MBpnXUkGQO6RFrEnfY8F8x7aVFkNtyBufLioA7YU4tUHjN/h02uqtneb+0J70wbGRe+5PCFC1ze6kEsjDmuZEySfMGY8uPDwlVzFVieu3mpFWrJB4X6bRz8lDqMJsBf0+C2xVijUk5BgLiAOnjH8re4WsWFpG9gOt14yrKS42sJueQ4efyW+wuWa6zBHdZLndABpA8yfQqE5puwypU3Um7Ja+/Tm8iZ2ZyVrXuxDu9J/JB/Q03NSD+qTpB4AW3V77NYkU8Q0kwHDS7le4J84Wnpti3Jew5Q33vbx5D+pk6vaLy6HVkVU7MZw9zhRcC4QYdxaB+7pw+Cta6EJqaujvUasasd6IREUjaEREAREQBERAEREAREQBERAEREBjq0w5paRIIgjmDYrjufdi2Oe8MJa5riCDcbkgjlx9N107tHnAw1KRd7rMb15noFTcJiHPbLyS/ZxPGTIJ+Xkq1eSukZoV4dt2PFq/lw8bXfgjnWO7G1G3BEdJ5+HgolTs3Wnhbhcx8F051Ym0Te3l1R+FEQAPmq2+zpqlE5U/s/UiI81Py3s8RwueK6C7BtAsPqPHr4r5SwoB6n78lHfZNUYo1eDyxtNm1hczxUjC0ok8Tfz8VLxjgfyxtbUetnAfI/BeAsHmNt47fn/Tw0jr3vl/j/wBr30VkLy93/tfSeSpvaDOTXq/0eHNp/OqjYDY029eHpvMSSucWnTcn3LV8kdN/D7PsNUBa2Wve5wa90RUDDYM5bkgcbkdL4uHZTTbSDQwQG8evG66LkfaawZWM8n8f938qzTrJfCzs4XFwsoPJLT+fz6FsReGOBEggg7EXC9q0dEIiIAiIgCIiAIiIAiIgCIiAKFmmPZQpPq1PdYJPM8gOpKkV6oaJueg3PhKp3anB4jEhlOYa50uDfdpsbeST7zzIjh81UxONpUMpSz5fnl14XITc1H4Fd+/f8FUfnL8bUdUFOq68BunZvIXgAdSCSbSo1LGVG45jNLgxzXUjaYcGmpMi0gsAPLUrnm7f6XB1DSEGmyGxfTJDZHMiSZ4m6oXZnAODG13kmpUh4BJIY1xDtLZ2mxMbnwXMw2IlXUptK17d9+Pry58iOFwKjiFJNuSzb53uuj+njlbKlOLr60/fNSGvBYJ++SgVH6Xaeass9AkSKg5L60ho1EgADc7LwHjb7nosuBw5xD9NtDffI4dB1MeQva065yjCLnJ2S9/oq4zGqhaMFecvlXV8kuPO1lxtqMLhquj2ha4gkkvAkSTc2tvN9rL46u3n8L/JdFpsAADRAAgDkAotXLqL/epsJ5wFx1tl3+KGXCz/ACuqPPy2KsrTz43V8/NdfE5B2zzhzGNo0T+bWtP7Gnc9CZ+Z4KDkeU+xbAuTcmNz/C7C7s1hHFxNBneEExcf6TwPUKk51kr8M+CZpH3Xf8Tyd9+F/C7Sp132aVn38f1y7ivisHUoU0k7x4+P44IhYdsC62FF/JQWFZqT4V056diz5Nnb6JidTOLT9ORV2wONZVbqYZ5jiOhC5hRqjmp2X5g6k8OaYjfkehW6nWcMnodDD4pwyeh0tFCy3MWVmy034t4j/Cmq8mnmjrJpq6CIiyZCIiAIiIAiIgCw1qkeKyOKgPdJlcrauOeHpqMPmlp3Ln0RspxufCV9RF5BtvNm81+eUQ+hUYdnCD4GyomQtIpiiRDqP5Z/2+6eoLdJXQMx/wCk/wAPkVUqlIF2q4dtIs6ORPEeK7myXelJf3dEc6tjlhMUpSV4uKTtrk3Z5+l10PFF40uBPuuMnpE/yowJqPL+HDnCk+wF/e7xuDBB9FlZRJhrAJJsG8T9Sunu2zZLEf8A0NJK1CDlLhdWXle78MvFM80MO57wxgueJ2A4q3YLCtpMDG7Dc8SeJKw5bgBSbzcfed8gOgU9ecx+M7aW7H5V9+/8EsJh5putWd6ktXyXJcPLLRcLnxfCvS+QuZa5ePICxYrDMqMLHiWncfx16qQimlbMPPJnOM2yk0KhYbtN2u59D1ChGmrx2ow+qiX8aZnyNnD1HwVQIXqMFiHWpKUtdH4o8lj6HYVnFaarwf6IpCyU8UW7gEcijwsL2q2aIM2uDzQNILGlrhsS4+llbezvakV3+wqN0VgJF5DwNyLC8Xhc3mPA7H6LZZJXazE0qzvepyAeEOtfrBcB4+C2RqunnwL+FrONRRbyfkddReQZ2XpdE7IREQBERAEREBgxRsogUjFnZQ6lQNaXHYAn4XXjdsz3sY1ySX2v1LFPKJGq5pTbWbQM63TBjuyBq0zzi/w5iZq5/WzWqXe3JLW+1p1AddhS0fm0jSmC7uVO+W7SZ7oC6AqWJpOG7lbLmnn7aT7yUXcx1GSCDsQR8VTw07HgrqFUMR7zv9R+q6Ox5O814dV6HE25FbsJeK9GYYW+yTBaRrcLnboOfiVr8pwftHyfdbv1B2VnKntTFW/4Y/X8dX3W5tGvZGDu+3n/AI9X0Xfd8mF8WkzbtLQoFzTqqPa0ucymJ0tESXuMNb7wsTNxZfchz5mKLw2nUaaemdWkjvCQJa4jVAkjcSJ3XIdCoob7WR399Xtc3SBEWqJILw50CV9B3++C8TMdfosTdtAjxiaGqm5n7mkeZH8rnh2v9xZdLXPc0paar2f/AKek6h6BdnZMrOcOGVvpr0OHtqGUJ97XVejIj2qO4KXU3AUasLldo4UWRXi8HZ238LG2pB0O2Pun6FSKlPU0jiLhRHAVGFpsfUEcfEFZLGqzOhdiM9Lv/jVTcD8s8SBJLT4DborouI9nMwIrUif+pSqta7rJAkdC0k+a7crtCpvJxeq9He3oztYKcpU7S4O3vzCIi3lsIiIAiIgIuN4LQdonk0hRb72Id7IdA5rjUf8A7abXnqQBxVgxgstDmssqU6uh7/ZsqANYJJe72YaOkgOEmALyV5DacLY6UnyT/wBcvumWIP4SuYfB+1xOIH6AxzY3FnYwf2YimfPorfgamqmx3NjT8QCq9keDqmg5mh1KpVLjVe4QWAuLQxn7nBggO22dewNmpsDQGiwAgDoLBUsW05WTvbL1u/q/TvMw0uZFSgSY6+vRXZu6rWUYfVWvsyT9B99Fb2XVVKNWb4JP19dDkbWoyqzpQXFtemf0WZu8Dh/ZsDePE8zxVQ7YdpqRrMwNJz3P1tfXNLekykRV0k7XLWh3JpM7gGxdoM1FGi8sIdWiKVORqfUdZjQPEjyk7Kl9jspLMvxlRpDq1Zr+/qD3ODWuAeXcnu1uEQIdPFa6ELqVerzVvGXG/JffS507KKVOGlvJI95zhDQZ7Rzixz6bnO0nU9+t+txax1rGrtdrZLjqLQpWT53h6FeocRUDKmot0jUQXHSatR0DSGhwbSbybSn9UDX9mP6rFY0l2I9rh9FOrUMCBrBcygDFiCATHAR+pe+0PZNmJxj2UqrmMqEipYOioabnvNOdo/KJ3E1bReOnX7FVZUqkmo2u7cOSslZZN3S4u98zWnJxUoLz/Z0oIsWHpaWtbJOkASdzAiSsq82WzCx3vdHH5BemC/hZfGfqH/d9AV6ZxUJP4l70JSMipfaalGI1cHNB8wS0/RXF5sVW+1lOBSd0LfiLfVXtnS3cSlzT/j0OZtWnvYVvk0+nUrR94KPjbOBUkDv+AUfGiZ8CvTHl4/MYjZw6qFjBofPB/wDcP5HyUsnU2V4xVL2lMjjuDyIuFk3RdnmeMCwDEU68e7uOZBhp8g53wC7Vg36mNPNoPouFYDFbTzv0Is4fGV27JnTQp9Ggf+Nj8lLDK2IbfGK/1f8A6Xmd3Atdi48U/VZejX0JyIi6RaCIiAIiIDDiB3SqBm+sv1VqVL2kEjVVeBpLSB3Q6DJaG9CZvN+hP2K0OMyqlUc4vBdqsQSYiIiPM/8AkV5/azjSrRqS0atlrk339+ZthmjQZPgKzKjHso0msk6Xio980nEGYc4Q4iTsY24q3LwxoAAAgCwA4AbBe15ytWdWV316m5KwC0/Z9lnv/cbeV/8AkthjKmmm88mmPGLLxllLTSYOk/G/1W6m93Dz/uaXldvoVakd7Ew/tUn52S6kHOKopOa+nRY+qd+7LwyCCZAkDYXtdamjmNa/sMOxrXX7lJ51Ra5EDb+FbiF9lKeIhCNpQTfN/i1jpU6tOEbOCb5+/wB95TMpzRuFY6n/AE7WN1ExTGjvGS7W15mYBv02Autj2erYdzz7Gg+n7NukOMaQHO1ENAcbk3JAvaTstxUwlNztTmNLoiSAbHgea+YbBUqZcabGs1Rq0iAYmLbcSttbE0ZRbUWpPvyb88/GyMznQcGowtLK3Jc8vDkvoiWiL4udcrmHY+J/4/4WVuywVD3x4EjxA/g+izt2UVr77kSlwPNbbxWr7UUpoE/sc0/Q+hW0qbgLDmVLXSqN5tMeMW9Vuw09ytv8mv5NGJhv0ZQ5p+hQA31WKqN1mmwPRYqhsT0PyXrzxMXxINC3mlExbqR8yPksmFEm4DpFm3uekXI6BT6bnucKdRgDXzbSGkQ0mWkcvqtVat2d3bRNvPOyzdlq7LXRcmzpUML2zte12l8rau8lvPJK7aXF56WKtmDNFQxs8ah4gd4ebb+S7b2abGHaOpv5lcdx9Evpx+um6bby3+R/cu1ZPS00KY/7Ztt3r2+Kt0Yt1VJaKMvu4W+yZe2dK8ZJ6/D9rk5ERdAvhERAEREB8K171sVrS5ee2+lu0/r0N1LiEXyUXlrm48VKYcIcAQeB2WRfAvqkpZGLcQi+L6hkL4hRQbAREWARcZbS79rhPgZaf7p8lKCj4xkscDxCYCtrptJ32PiLH1BWIPOxJr4bmUXd4L3C80+JXtSivhvzuzD1ObVxHd4gx8CQsdYANceTTfyWyzikG4ip4yP91/mtZiDBHLd3UCO75r2UJ78VJcVfz/Z4aVPdqODdrNrydjIGmlSb+9wGp3Kw7rfvmVnwrSxhe+3EA7tt6EmPgFO9q0XJtYzB8fqtRmON12FmzYc/FcWh2mKThKNru85PV9y5W0SV/K9/V4mVLBy7SM72jaEFoucsnnzcn5t7u7palTS5ruFT8tx5PE+yd5iR5hdj7NYgVMLReP2R5tlp9QVxx9HU19I2m4PI/pPiCAfJdO/DasXZfSkQQXgxz1uJ9SV6ehK0vH9nL2crSku78W9fsWpERXDqn//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVFRgVFRIYGBISGBgYGBgSGBgYGBISGBgZGhgYGBgcIS4lHB4sHxgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQkJCw0NDQxNDQ0NDYxNDY0NDQ/NDQ0NDQ2NjQ0NDQ0NjQ0NDQ0NDQ0NDQ0Nz00NDQ0NDQ0NP/AABEIAPUAzgMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQIDBAUGB//EAEAQAAIBAgQDBQUFBQcFAQAAAAECAAMRBBIhMQVBUSJhcYGRBhMyobFCUsHR8BQjYtLhM1Nyc5Ky8SRDgqLCFf/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACQRAQEAAgEDBAMBAQAAAAAAAAABAhEDEiExBEFRYRMUMnEi/9oADAMBAAIRAxEAPwDq4UaTTM+F2E0wJAR2iWSgEIAQgEIQgERMRaIQJLHU2MiDG50gVrGYkElaAhHaMCJ2gImAiAjgEBJSEBkwVecYECYCMgZKECBitJERGBDCrpNIEpww0E0QACEcLQACBkwIGBGUYisiKWdgqKLszEAKBzJMuYz5N7ccafEVnpK37qgxUKPtuujsRzINwO4XgdXjHt8blcMosPt1FJzd4W4sPH0nAr+1WMe//UPY/cCplHTsqD85lwPDSwBNwSDYWGg6/PlNycBb7Pq1v+RKfkxl1a0nFlZuRjTjGLU5hWq6WPadm0troxIN78+ndPTcG9t6isFxIzo1u2oVXX+JlGjDw10O85K+zlS2hHjfl5yirwZwNADbvN9P19Y68fk/Fn8PrWHrK6h0YMjAFWU3DA7EGWGfPPYHibpVOGduxUDOgP2Ki3LKB0IufLvM+iFgJdmQS8kEAgCx2EDSPMwEWEQksgEcCFoWkoWgRtC0naK0CNoWkrRWgLLI2llorQKsPtNAEpw40l4EAAjgJKAAQMcIFFU2F+k+E0gW7R+JibnqWOt/LNPvbLcT4tw3CdsIbjtFT3WJB89DIyuptOM3dPTYWh2V05cpsCIORv4THia2SyhWNxoFFzYdfWW4fjBWwfCVQp+1kuBOTpt7vR68ce1bkOmokWpqQdLHwE6FP3TAEXAPIqQd+k5OO4iSSlHDuwB+IgLfwvvImNq1zxkcg4bJjcO4GrOgP+qx18G+U+mAgcp89wiVHr0M9Mh0roR1y3NwelsoM+iTqw/nTz+XXVbCzsYip5mSil2ZWhHlhaAopLSK3dALRSULQFFJWitAQjtJWitApw40l8ow+0vgSEICOAWjgI4HN4tXdQoRspqMQWtcqApbS+l9LTxGM4WKVZHDE56jl72+IhmJFgLAm/rPbceT92Hvb3bBr9AQVJ8Bmv5TymIVsiOws6PepcHVjmUvfYi1rW5WnPyWyu3hxxuG/fbTiMOzL2Gs55jfSczEYWoofKWY1CuUl2/dAaMBfTXwE7+AKm0nxBCnaAv4dSbCUxuo1uMtZcDnVArHUC2u+nMzlrwmoayuxOQNmIzMucW2NuV+k72GCM5BbtAagX0vqBfa9tbbzRhyrBR1FwdbEd0Y7lTljjZpzFwHwK5LFXvoTfLZrC433t3z0uAIKLbYXAPUAkD6TkcQVrqE+LOuo5AHMx9AZ2OHG9JDa2ZQbdL62+cvxf1XPzyTGf60RWMlCdDkLLFaShAhC0laFoEYScUBAQAjhAVoWkrQgZsNtNEow40mi0AEcQjgAjiEcCLoGBBFwQQQeYM4PFOFFKL5H7IAsra2FwLA8rXv5T0AlOPS9Nx/A3qAbSueMyjTjzyxvZ4Th9chRba/pNfEeJVQcqDKugzHnpq3cJy6ze7cqRem5uvK99beIlnDeKLnYONDseYtt8pyye7suWu1Tp4Kq2prqM172Ztb2P6ElRxFagyIKmenci4UkKeWvKXYjFVs37plFMW+JRcn0lXGeJqqKqjtXF9LAHnt3/Qy/kyuM7u7gEWvVfN8CLa3ezDf/SZ6FUAAA2Gg7hOR7MYdhTLspVqxzAHQimPhv3m7N4MJ2ZthjqOPkzuV+iELQtHLsyIhHaK0AijiIgFoRwgKECIxAIWgIWgZsNtNEow+0vgOEIWgAjgJKACc/jvD6laiyUqhRwQwsbCoBujHkCNPSbncgEgXIBIHU8hLsLVzqrLqjqGU9VYXB+ca2jenhKmFzqUdNRoVcWI8ehnDxPCKim6Nr0f+YT6RxrhzOPeIv7xRqv8AeKOQ/iHI89ulvPAK4uDr37icmUvHdez0cLjy4793k0wuNFxYW5d9vP6zp8C4I9SshxBDKrXCbhuZzdRodJ3VpkWO8nhmK1FIYBmNlDbNoezflpfWTjnu6Uz4pJa9JHaQptmF9uoO4PMSwidTiRiMlaEBRSUUBQtHCBGElFAVoWjhAIRwgZMNtNMow+0vEAEYgI4CiJ6RXvpJqstIi06Q1mXg9QK9Sg29NsyX50XJK+jB17gFmxVsQZ5bCYqtiMS+JpEDD0c1Jb7VgQCSCNQbqpB1sCBa5NrTHc2pcpLp7WwnneK8KBcvStn3dARcg/b7j9frfRd6gUtVYKwvkpjICOYzAl7juYDum3C4Wml8ihSTfT7V97nr3yueEymqvhyZYXceZJddwbd4/GY8erF6BTf3g/8AdHUfMrM/t9h6i10dKrhXXOgzsUWogyvlQmw0KnvzGJccHp4cn+0qOLhd1yXzkDxAt/iE5+T0949Zb3K6+P1WPLvHWrH0DD0syAn4rC9uTW/QlDuym1r/AF8ustwtKyrplNhoOQ6eUxcXo13DCnUCEgZWA7aMDv2gVYEaWsPGdEm3HbppSoD+RkyJweG8MqIucYipUqMSHWu+ZGtsF07B6EeYM7GEq50vZxqVtUUqwZTqCD9edri4tFx14JfldlkZZaRMqsjCO0UAhCEBQtHCAoRwgZsPtL7SjD7TRAUTH1kgIASZNoqKtbbXvMuRjz+gkQlpNRLqsnGME1ekyJVKF9CQASRzG40PjLeHYOnSpLSQWRBbXmTqXPeTcmacsYHpz/P85O7rSNTe3HoKUdk+42Yf4W0Pz+k6aden0lFeiWdW5jMjd4tcf/PoZbSFpETXO9qcAtWiHKFvcutUqpsaiIe2gPLMmbztPJ8CSnVxyOiZKQzsqH7NlQFrX0u+tuW0+hqf13Tw/AeHe64s6D4FoOyjlkLoV+TAeRl7rLC436Z98c5lPt7s2lFSX1BKiJWLsr0tbjnb15H9dZqpJdT0Yg+GkEWaFFge8/X+srUsy/MQIjZbHNyY28tgf11gRK2LRCIyRiMhJQMcUAikhAwIwtJQgZcPtNEz0DpNAgEaCKWWtLY+VadpNFiEmhlqiDL6wEmw6+sg94Aw5dbH0ZfzkXAAuSAALkk2AHW5iLWI8v8AdOY/s9SZ2qKiDO1J9E1JVy9QE81cW06i+sY/aK6FKshNldWNr2VgTYW1sOWo9RMX7EP2tKw+IUqtJj1UvSemPQP85Dh/s+tFkYVXb3YstwNFb41PMqSb2OxA6CddR2x/ECPNdvkTJuvYNl1mLiuKFGi9UjSmjN6Cb3Gsy8VwnvqNSn/eIy+ZGkiJeEocfxKuC1Ue8J1Qqcmb7gN735XtvsLWnvMHiRWpo66Br5hzVgbMnje4PhPmtBiQ+ZR718tJtBdK6MCGI3CHIhBPK89r7O1CUqgfCMRUAtYDKAAdR33Om/dKy97HV6uTXHljNSzv/sdnEa6DkDe3d/UAevSVkybsFW4UtbUhQLtbYAaCw6f1mTB4gOgIuOobRluLgEeBEZVhjLrfsvtEZKRMqFCEIBCEDAIQhAy0NpoEz4faaIBLAdB1GkrElT5y2PlWrFkh4aSIk1aWqImhPLUfOHhGoB1Ghg3ePMSCsePbKjMNDYAdzFgPxE2YYdlfAfSZcdTzpYcynoHU/hLqL625CBoZZVUHwnow+dx+M5ntBx9MMgYjNUc2RL2zkbk9FHM+A5zy/F8RxOj7qqahdqzA+5RDkQhkIQqL3NjvvodTNceK2b8M8uSS68vfVFjUCDbfrSQLgLmJAUC9ydAOt+kppfccXivs1TrP7wVGpu3xmn9u3XUeuv1vpw2CWiopp/ZqL3Opeox3br1mipxKiMv71LuFKgMCWDOKYKgbjOwF+pnN4lxbLU90u4F3JG1wLAHlob37x3yuWsZutscsuSTDe5N6+tutT7Wg25+H5n+Y8xE9EKb2AvvbqSTc+Z+c4OF9pUChUQu51uRZQOR6nTlpJY7G1XzBahuigsKYyhb7ePI2J+syy5cdbndbHgzt+HakTM+AxXvED8zow+64+IfrkRNBky7m4pZZdUoQhJQcUcUAhCKBmobTRM2H2mgQHBTr4xRyYi+FybSYlasBcsQABckmwA7ydpzsR7QUQSqXcjmOyt/8R38gRJyzmPlGONyuo7ITuksp6zzFbj9U/CFUcrC59SbfKYqvE6zb1G8jl/22mOXqMY6cfS5Xz2exe360E5z1OQ3O9vpPKPULakknv1kq/tJTwyIro5ZrgMgUjKttNSLGx+UtxcvXlqRTl9P+PHe3C4/xJ3xbsf8AsMEQHYZD072ufCwna9peLtiBhBTd0Fdu0qsVIYuqWJG9mV7TDj+EpjB+04Rrl/jpv2SXXQ2J0DbXGx3v1hg+EYorh66ZF9y7pauSoR0que0OfaY7a3WerLjcJfePLyxymV+K7tXCCvxB6Ls5pU6KlkDsA4yJ2TY7EuCfCcTBVwCMMwd8KMTUfJTDOXWmt0QKu4Jyk8uffOjhMDiHx1dFxeWotJA1VEB94hSloFv2dCuoO45XnRx3B6dA4VKNUpWRnRCUD+8zrdy63AFh36A26SNyal+Eat7691PB+GKtR8RWQJ7hbqgtlpFy9ciw0JVaigcrk9083xLHPXqe6XRqhz1mG4p3+AHpsPC09Lx/FrTpGitX3lVqitXJsGsUJGYDQXyKuXpPOcFVUL1qlrt2iNzZfhUdTcn1E8z1XJblJXr+jwkxtjvoFRFRAPeuNL/YH32/WvqRcKJpoyqS1gDUYnUX5nqx+k4+Gxii9R3BrOb5FJOXoumygAeh5mGOx10yIGbOczuRa+t8ov1PlbTw5Nu6O5wbEZKpS/Zqi4/zFH4rf/SJ6AmeBw9epYMBZkIYHvGo+k9vhsQrorrs4v4HmPI3HlNuHLtpx+ow1er5XQjimznEIQgEjJRQMuH2miZ8PtNEAjkZIQK8RhadVQlRCygg2zMASNr5SL+c8/7R4WnTZGRQqkFCFFhmGoJ6k3OvdPTZ7C3PlMPGcEHoup1qGxT/ADBsB9POTyY9WN+U8WfTnK8wj3EqLSvBVORHrylmIFjPOy8berPK1JTiadNxldVZejAH6x02lOJBGvr3xjU5TshhKxQe7pAKiMSABaxvc695kq+DetUWpWfOEZmFMCydpixFgb/E1z15yOGIsW5934zqYBiwzbKPWb482ePiubLg48vMZqzuWQKqoqgB0oD3TVQuiq7jtZQAABfQDrrJCrXUo2pND33uy5zlRVFhcn4so2vN9eiuhAtm/WsdMD+st+xy+Nq/q8PnTzDcPqE9qo51BJIF2IFrkm9zub9SZopcNXnc2+8SfltPRtSQ78vxgtOmBqZllllld2tccccZqRyKfDltuPKb6GDHOXe+pr8K+sX7ST+tpXU919/BV0UDQTf7PEhHT7rZh4N/UH1mK+4Np0uDp8bcjZfEi5P1E04/6Zc+uh0xFHFOpwCEIQCKOImBlw+0vlGHGk0WgKTEhaTvpAmBt4QqsB2jy2HeYZ7a8hKqKFzmbbkJpWbx3HcMadYtay1e2O5ie2PXXzlJbMl+Y3nova2mrUg32qbX/wDE6N+B8p5XD1cra7MLTz+bHpyv29Tgz6sJ9L00seRmpUDCGDUG6nbfyjr9m1ufLpM8cdd21yY6vD13+e3pK2rVEFlYde0Ly8u3d5ympRJOsWmmKt7R1ycppCw5owPyNpIcf1sxyf5gI+Z0l37KL9/dLaeHXYj/AIlplv2U6bPcJxDPtUUg94mmmjNs629dJT/+Ph23pgdWXst6rYzfgvZJS2Y1Ki07aIStyetytwPGXmHV4Uyz6fKhqRG7+gtDDqzm1LM7DcW0B7zoB5zu4fgFFN2dx0d9PRQJ06dNVAVVCqOSgAfKaY8Pyxy9R2/5jgUeCV2+Ooia7KC5t6gA+s79CkqKFXZRbXn3nvlghNccJj4YZZ5ZeRCAgZZQoGEDABFGIoGbD7TRM+H2miARnaKNjpAETNYHYan8pczgDuEpbELewOvQROhcW2HOa6ZbYXQ1ib/BoPEX1nmeN8Hag9wCaLHst93+FvDrznt6VIDQdJHEYXOwv8Kg3B2N+szz45lNVrx8twu48DRrMtieXPkZZUxinnPR4r2Wps10JVTqVBOXy5iTT2WogDs+YZvzmH4K6r6vH2jyTYiJXY8wPHWeuT2ToHeo/gCv8svw/s5hk3plmHN2JB8tiJH69L6qfDyVCmzHKmZmP3FJPkBO1guAVT8Vqa9/ab0H4nynp8OiqMqoFA5KAB8pa01x4MZ57ss/U5Xx2c7D8Mp0x2RdhbtNqd+XIeUuMurHTzH1lUvZJ2jGZW96VoWjhISBCK8CYDiMYiaACBMUIDEUIoGfDHQTTM+H2miARPtHE+0CVFMoOUanfv8AEw9yx1LW7hJoZaq3mm2WlKrY6amX03JG2smtukmxFo2lSd5KCJzjYSdiGa0bPKnEqYmEbai4kS15nVTL6YhG0a40HjK5biPh8x9RKpStIIGEDKrFeBiEDAYiMIQCEIQCEIQM+G2E0QhAJB9oQkzyirEOk0U4Ql6ziyNoQkJK8ixhCBWxkYQkxWgSawhJQWI+E+X1EqEISmTXEREwhKrFCEICjhCAQhCARQhA/9k=</t>
         </is>
       </c>
     </row>
@@ -2663,124 +2663,124 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sean Abbott</t>
+          <t>Wafadar Momand</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023_223</t>
+          <t>2023_215</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>55.6</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
         <v>14</v>
       </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExIVFRMXFxcVFxYVFxUaFRcYGhgWGBUYGBcYHSggGBolGxcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS4tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABGEAACAQIDBQUEBggEBAcAAAABAgADEQQSIQUGMUFRE2FxgZEHIjKhQlJyscHwFCNigrLC0eEkMzTxc5Ki0hU1Q1N0g7P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAgMBBAUGB//EADkRAAIBAgMFBQYFAgcAAAAAAAABAgMRBCExBRJBUWEicYGRwQYUMqGx0RM0coLwM1IVQpKywuHx/9oADAMBAAIRAxEAPwCcYiIAiIgCImNSq3qOtvhy+hBP339IBkzFr4xEZVY2L3y95Fri/XXh3Gabfvb4wWDqVQCzkZaajmx0BJ5AXkC7X31x1bKKuIOhDBVsArDgRbUH+pmGySjc+matVVF2YAdSQB6mYNfbeHS2asgB0vmFh9o8vOfL+09vYuro2Irut72DtYE8dPwmJQ0GpI8NDr1ImN4yon1pRxtNxdaiMOoYHwl4VB1nydszbtbDVA1Ko6cr93QjUETtNk+0aqoy1VFRb30JU316cDwNxaxEbxjdPoCJxe5++NKvQBapmZRZ81s6kcM3cRrfrpO0kkyNhERAEREAREQBERAEREAREQBERAEREAREQBERAE0O2tqpha1J6rBaVQNTZjwVl95CT/zDzm+kG+2/e0PUGCpaimb1W5Z7aL4AHXvNuUwzKOc9p++ox9cdlmFGncKCT7xvoxXgO7nOGWprctf8/KeLSB1JPpLyWVSLXvztqJgkX69ccrHw1jCYi/LX75iLh2bUX6WHITKFIqNNDofP88pGyM3ZlthA46Ea27+Okt0RlIB4zDr4t76nXumZRQ1BZh4Gx+caEjJWu9P36ZYEcbHUD8R3SePZ3v8A0MfSWm7BMUq2ZG0z2Fi6de8cR858+tUZGFyTbQ35jxmKKzI4qIxVgdCNCD1HkfnMxIyR9ig31EqkT+w3esVaTYOq5NVS9SncklqZILC5+qx4dCJLEmQYiIgwIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGt3g2qmEw1XEP8ADTUm3U8FUeJIHnPk7a+0zWq1ah+J3Zm8WJJtfgNZ9He15wNl1QeJamB3nOPwB9J8zOcugAJ58/KYZJaHv6SCFW1tdSOnOdDsXYbVmsNFGpnOYfBlzbQSWNzcFkQX52J75VVlurIuow3nmXtl7m0rC9/AzoKW5OFtql5s8MomwFcATU32+Ju/hpaI0dPcfBf+yD4kzPo7Fo0vgpIvgov6zPXES1UrzDdzKTOe21sak4PuLfrYSNN6N2OzUunAcbcu/wAJLeJqXmk2hRBB6ERCbizNSmpLMhzdnbdTBYlK9I2ZDw+sp0ZT4ifWWyNoJiaNOvTN0qKGHnyPeOE+Ttu4XLVbL14dJOPsG2i1TBVaTA/qatlP7LqGt5HN6zop3OVJWJOiImSIiIgCIiAIiIAiIgCIiAIiIAiIgCIiARn7dlrHAoU/ylqg1ON72ITwAJ+Ynz0VsL87/PnPrrezAivgsRSIvmpPYd4UlfmBPkZ73mCSM3ZLBWudSSLCSrsJvdU9ZF2xsLnrIvIkf3kk4qq6hadFbueHQAczNetm7G3h8szrf/EETiwHpMijtageLAeJA++RxtrBtSTNWxNnb6KqS3pea3B7vtWDOnagIbMaikWNyNegupF+GhlcaStctdWV7JfMmigUbgRGNKICzaDrOQ3MoGgbVCxbkTwHhOg3gqHsmGW9xb1lbSLE5HNbZ30w9I5VOY9wmnG91Ope4tyv08Zo9pbLsQVCm5I+k1tQDcKD1J16TabNwie4tSkrB1HvopBUnirjheW7kEirem3Y5XecfrcykFWAa47tDJe9gKH9Drvb3Wr6eSID+fGRfvxso0HUDRWBtfyk1+x3B9lsqgLg5i7m3LMxNj38JsU9EalVWbO3iIlhSIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFqvUCqzNwAJPgBcz5a2/s2mMS60ASmtRidVW5JVAQNbA2n1JiaWdGX6ylfUWkVps+kEqU6qe8pyd4Kk2+VpTVm42NrDU1NPwIk3fI/Sk6gyXdgYYZyx42Akc19itSxNKoFKo7HLrw1Nxf5+ck3ZOgv+b8BKK0r2aL6UHG6fMrr7BotULugdjzJN7d3QTyjsmkgIprkB4hSdfG2nMzf4aiWHKW8TTVRrr3DnKcy9WZo2p2a9uGmkv41y1M+H3SxXrFiSxCAaAXA++bCnQVqV8/I38pgtSS1NJgFCte2p520M2z4dWFzb0mpwlXISQQwHEcfyZ0mGZGS68CJIg1Yjr2g4cPRBt8Lj53E7v2QbNqUcPUzNdWK2HQ2N/kQPKaTbuBR/dc+7mBI62N7eckjdxQMNTsLAgn1JM2aLvkaeIVot87L1NpERNk0RERAEREAREQBERAEREAREQBERAEREATid89lHN2q6KxFyBwYaajoRb0nbS3VphgVYAg6EHgZCcN5WLaNV05byIn2ngs1LKwUhbFSL3B56emsq2ax0HfKfaFi6uCxNKklK9CvoKrXsjXsU7+XrznuzHsw7iPvmlUg4KzOjCcZu8TpFxQRSSdBxmE+L4sdSeAHLx75kCgHDqfrXt3XuJqtsYKshXsSuQ/GxBLjpYc/GQi7lpkrhO01KA26gfKVnZgsbEjS2hOX0lzBUqC01atX+kVLFyBci68LTaHZ+FABzMQV4BnOumunCWpXKpVYxebZxtag9M6WNuUzdlYo3sOB4joZg7w0qNWmDhTUp1CbAnMCpWwJYNyuD4zf7Gw6rT1bMQLsxtckc9OGshJk0+KvbqYi0S7WCljcgAC5vpJEwVHs6aJ9VQPQTmtzlvUqN+zr+81x/DOtmzh42jc0MVO8t3kIiJsGqIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAcp7SthtjMC6IbVEK1U7yutr8ri8j/ZtUkC+hsL9x5/O8mTFUs6MvC4tIZWiyPUUg3V20PG17+c166yubeEfaaOvwuJzKtUfEvu1B1HWX8X1HAic3s/F5GzDhwI6ibiliB8P0Tqvd3TSOg48S7Rwy81uJV2FMH4DpFCoRpLwzHulikM+Zq8fRH1bfhLdLEZabC/E28ucubRdgdTMbA0hUqU6Z+FnUG3QkXmLNsxJ2V2dpuhhitEuRY1Dm/dGi/ifOb+W6aBQABYAWA6AcJcnRSsrHHnLek5PiIiJkiIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAJFG2qdsbiPtg6fZF/nJQxWJWmrOxsFGY+EjBb1Kr1GGrszHuvw9OE1sTNKNjcwcbzvyLBwl9Roe6VLVddCLibdMPpLi4MNymkmdS6RqqW1gOPz4zNp7bQDjPK2xFPOWV3cS+smpEJKDMXHbR7Q+6L9/KZG7oviqP2x8gTL9fZa00uJZ3V1xVH7TfwtJwd5LvRTO267cmShEROgcgREQBERAEREAREQBERAEREAREQBERAEREATWba2zSwiZ6rWBNlA1Zj0AmLt/efD4RT2j3e1xTW2Y9PC/fIb3i2/UxdQu50+io4KOgH4zDdjtbK2PPGSUppqnz59F99F32L+8W8L4nENWF1GgCg8AvC/U8/ObrYm3EeyPZG0Ab6J/oZxAMuU3/ANpGVKFVWl5ntq2zqFSmqdrbqsmtUl9V0ffqS7TUWlaixnDbv70GnZKt3TkeLL/advhqy1FDowZTwImjUoypuzPLYvB1MNK09OD4P7Poy84075ZaoRKy3WYxqa2lZppGPtWvdbCY+7Hu4mjf6xHqrTMrYe4nPbzL2dFmBIIUsLcQQLg/KWReaDgmt3REwRIEwG/eNoOrCsatMke7Uu4I6X5eRnd7L9qWFfSsr0jYXNgyX5/Dr8pv7yvZlWK2LiqDyW8ucc/lr5JkgRNRs3ePC4g2o4im7fVvZv8AlNjNvJHLlGUXaSsxERBEREQBERAEREAREQBERAERKHcKCSbAakngBAK5xm+m+6YQGnSs9f1CcdW6nunO71e0Jy7UsMwycO0AOc9SrcAOV7d8j8kEkm5J1JJuTMXPVbL9npTtVxKy4R4/u5d2vO2hVjMQ9Z2eoxLEkknmTLKy5p4TwpM25HsVFR0PCIU38YAnjDyMxpmTuVzZbH21Vw7ZkbTmpvlPiOfjNWrSoiS+JW1XJkZ041I7sldMkvZG8FKvofcf6p5/ZPOZWO92xkVJUK850eyt5yo7Ordl4X+kPM8po1aHGPkedxmxnHtUM1/bx8Ofdr3neIQQJod8KOamV5MCvqCJk7GxysbBrryPdG9luyDcgdT5Ga6lmcC1m0yKMHTJpIDxygeYNvwlIQ2mXh6dlUdAP6ypksxE6Mo5XPdU6XYjva2X0MRADqDY9Zu9lb2Y7D6LiTYfRY5l8g97eVpqqi21lQAYSPGxGphKdVbtSKb6o73A+1auB+sw6VO+mWU+hvN1sT2pUK1TJVpmipGjFswv0IC6DvkTrpof9569O+o4/fJqTOXU9nsHNdmNn0b/APD6Sw2KSoAyOrgi4KkEEHgdJkT5twW0alFhURmVk10ax627x3Sdd194KeNpZ10cWzpzBtxH7J5H+kknc8ztPY08HFTi96PO1rcr9/Pw5X3sREycYREQBERAEREASK/arveEBwqvkUf5rjiTypi3qfTrO83n2oMLhnq8wLIOrtovz18p8/7I3dq7SqtiazMuHFTKXFsxzOVNr6fFxPeJm18jfwko4de8yjdp2inpfVt9I5ZLNtrRGlrbwcqdO/IF7fwrLdbaOLC5yjIl8uY0rLfjbMRa9uUk7A4PA4Nh2Tjtc4qDs1d6ppmhTp1VNgSgzs1SxI1WcftyvVp4BMLjqVc4kNmou+XKihrVBnVyal9RlYXU85LdSLKu2cdVveq13dn6Wfm2+prNhbRepUIchhlzAZVXW/dNv4ad3Kc5u8wFa3UMPlm/lnR2i10ex2BXlXwe9OTbTabbb68e89y34eYnqi3HUfnhPAfXl/SVfFrw5HuP9JhcuJ2HlkenD5hdT6ywNDYzIVSL24jiPxE8xNMMMw8DMSjxWphN3LcpNOeIZcJklaaLC/gNoPRa99Pz6GdRtDaoq4R1Zrhhl7725zkqahrg6HkZaIKkg+k1qmHTkpHOxOAp16im8mmr9V1+/IuAaymsbteVI1te4yi0vlnodHjcoteWrEGZF+kpYXle7dGJK+YAvKVFjblKVaXGmE01kNcxUUETabs7aqYSqtRTfgHHJh9IH8O+aoHSVWk9cyurRhVi4SV01Zn0HsLbFLF0hVpE2vYg6MrDirDrNnIp9kW0VSrWos1s+Vlv9Zb3A77H/pkrQnc+Z7SwfumJlSWmq7n/ABrwEREyaIiIgCIiARv7YcdZcPRH0nLny91f4m9JF+5GOzdpg6lR0pfrawVL5qpVQWpZhql+zDAjW68RO79sTf4qj3Ul+b1JxWx9z3rLisQtXK6JWNFEYioXCq9zp8Nny2vf3hJRO5jaCjsyhNc5ecrv/j8jsqGKoqAtNA5/X1R+jIpp1E7OsoRnBCrUNBqTG5Lfq7kXmu2ts1ttYanikKU2U1gikvqFAeqHyrkRi2Zg99QQDrOpTamGwFE1iKQp1Bh6ho3XMWyKjtTS+hamQbWHwN1vI/2HvouBWvRo0zUp9u1WgWZkUDKUtUQaupXL7p5iZOEjXYDd8HC/pi10qdiKdSrTyMMnaMVCCrwaoOJXoRMqqlibTSPtmrUwpwnZ3Q1zXBQkAEixXINCOmptNqjGyk8SBeZiex9lqkt2pC2WTXLin6HpE9U8+fPvE94zyHG564udCOI+Y/tKkYA3+i2h7uss36eI/GVJrcddR5cflMN6cyFrLMt16eU3hZlgIRq3DQ2ve3LlaYroBpfwzfVPlrLpYStBfi7r3e7+ZdTnUttYCdd4eNaLmr3SfLXPS/S9xLijNYfS5H8DKCy2sPebmBcfhKVrJcjMQRyPXpwlvudd27DsymftDstSlCVeKcddbeDtZ9bNnX0sBgWWoQwW1NHAzKKgf3hUpqrH3+C6d41mi2xskUgrpVSrTbUFWAde56d7qZThcUyHMoBcC5DAEEceB4mVV9vVHUqUQDhYIo/P9hNGcbZFtClXpzvCTlF2+KXC36b346pPly1gnimetwlKDS/ASNrNI6zaWpQw1lwTa4rY3ZqO1cJUNr0wgYU78BUbMDm43Cg2seMq3b3cxGMSq4C0UollYsGY1CutkGhAtzPUQoNSucf/AB3BK95P/S81zWWa9M9DT057zlQToCB0IIPodZQkkk0kmdaMk0mncuUKrIwZGIYG4INiCOYIkz+zzbz4vDHtNalNshb64sCreNtD4d8hYySPY/j/APOoHoKo8sqt96+kWscH2iw0amEdS15RtnxtfPwz9eBJ0REHgBERAEREAh/2wNfF0x0pL82qTjam8dXCUitIlXZ6To1gQDT+MNfkwyafsazvvbDhgKlCpfUqUI5+61wf+s+kj6ngu3ZaeXMS4KjXjwH+0yj3FHCLGbIjTTSyvd6Jxk7+qNUtCtinNas5LNxdtWbpYdPlOt2BuJVrWK0fdP06psPIHQ+QnU7o4PCqapKivXpUzUF7dkSLXCA/FY2949dBOl2IijDNXxrYYjW9TLqCrFWLVGPvEsNMoFtAJlSTV4nGrV8Ps+X4dGlvTsu3Nc/7Y8FyeT53OQ2hurTweUV3dswJC0soTTiCzf8AbMDGbOovQapSRkamyAgsHujAi/AahgOH1p12LqnGYWroS1B81NyG/WUuBYEi54MOvuC85zYdS7VKTf8Aq0nQdM3xJ551A85rzqzjVSbyOxgMfUxFD8acneLzWiss9FZfD8zkSluPD885S4mXXQa21mI357putXR6SLuUXlWGqWZT9VwPulJEt4bW/wBomUO97cSbeaJD9m2zcGxq03pdpXUlgHF0CXBWw4XuZt6+yaeOwClcMuZ62d1plVZLOVfKxFrhRa0j3A7XrYauatJgpekEvYHXQm1+dp1m5WAw9elWeo9ZqlMtUemjMqlTcg2W2Ymx5zv4inK3vDk7Pca49+V1ZO6t1yPh0mqdeeFUVeLqR4JO0rJ6O+nLRsy8NsnD7MpIzqrM2KVe0YXbsgxZfCyqL2nE+0rBomNapTZGSqBVBQgi50bhwNxfzncYnYSYilRrF8Q+Fyh6WFpqpqe8xA98m590i9zoL6zH2vu7s5a5RqZRE7JnJLKAHzIRmJuy37O9joSe+V0qyhPfk25Z3y6pLjqstLrkzNWm5R3Uko5W8n8reJHiViyq406+IP8AS0u1KQYZhoeY/GbfejZdOhVXsVC0KikoRU7RWKmxKty8O+afDPY2PA6TnYhL8R8pZr5+t14H1XYWK94wFN37UEoy74pfVWfiWHm03Xog1gxF+ySrXAPAtTAFO/g7KfKayqJsNgYgJWUvfszmp1LcezqAByO8HK37s1mu2bW1oTngqqp6uPi1xS6tXS6mY1el+rasb561TQ3u5FMAC9jawqO1zzWdLg9qYehSZKWKdAxbtFZf8QKgylywUWyBCuq6Wy2JvNFt3YJTLnP6pana06ot2RupX4r5cpBU8bi3Ce4HderjK36bQKmmgp0PeJVa6LTCVKiNbUA8L6MFHWTR4zaNSk6jxFFxd3ksn2d2Nrr/AC7rVs7dNC1vZUFTsqwZ2zgglxZtGOXTplNPUTnlnUb24KrSVVq5RerVZFU3CqezvboC2Zrcs1pyytfykMk7Hr9iVXVwVOT1zXlJoqm73L2p+jYum5Puk5W+y1gfQ2PlNFPRxHiJhu50q9FVqcqctJJrzPpNGBAI1B1Blc1O7GIWphaDK2Ydmgve5uAAwPeCDNtB8mnFwk4vg7CIiCIiIgEV+2Cke1oPyKFbdCGuf4h6Tg8FXNOojjiCpHkbyT/a/R/w9Gpb4ahB/eW/8kimI8T6JsGSqYCCfC6fm/RnYbKrjDYtW40yQe40qgv5+43ymx2nhHwVcs1JqqdpmpVWAqIEcWCBL+7lc5i3L3TrNEpz4ZKn0qbGm32dXpn/APQeQkl7ISnjsCqVVDe7kNwDZlFgw77WMpovcnKB5/b2H7MKnGLcH6N9+b8UXN3qVTO6VyrOqBWCWygM9RgGsoBcggnQdbazhNr4Q4bEkDijBkPdfMhv6Tpd18KNn1MUcRUbIWXLia72NQKoUgg2FweBA1Gmtpd2jUw+MxACUatfs8iVXpsi01D2ZbliC5Aa5C8AZmvTc1kc7ZeOjhakt++61nbnw+3iR9vRgwtdmWwWpaqo4Gz+8Bfu1HlNKyevQySfaRsRFpUXRcqreloeAOZl1Pfm9ZHj0SODgjvmzDTqe42bi1Xw0Zp9M9css/CzMUyi2syHYkWIGnO0ssJGcWdNPmX65uqeN/lYza7B25VwrP2Sq3apkOa9hzB48dTNLhcSQPzp6cZdbEM3Fj8xOtR2jD3aNJwvlxeWvn9DweL9jp4naFTF/j7sZO6Sjd5qzzbss7vRm2w28WO7DsM6qKYKL8IOXh8XHMLCx7paxG3caxDNimNRRYA5bcjryOoB8RNYanvXHOWhxlEsc+EIrPl9zepexuDjffqVJfuSt5RWnC9zN2rtTGYnL2zq4QkqP1S2vb6oHSYTnU9LmeTwzVxFd1EuylbkrdTs7K2PS2apqlOclKze8081yslrx7kXKpuZdor3ywTwmXh2FvCYTTbZ05u0ciqnj61O60q9WkOisSnfek10PpMfG4/E1harjKpUaBEtSQfupYTwgnlKSh6GJLK5pT2Tg5z35Ulfu+bSyb62MSjhVQllvfLxZ3Y/My9hKRygAEnu4kynENZePE2nebm4RFUMBdj9I8f7TTrVFBlWIxVDAx3IRWmUVZLPj/EaTC7r13F2UIP2iQfQC8uYndZlHxqfX+kkKoukwMRTvNSWJqdxxZbaxUnlZLu+9zH9mOLNFnwz/C5zUzfS4ABHddQD+7JKkSlmpOHTRlII8RJK2JtRcTSFRdDwZfqtzE2qNXfWep5/aMpVKrrNLPW3P/s2EREvOeIiIBxftX/0P/2L/C8hpOCxEwtT33s3+S/c/Q6HYn+RX/c/ikkezf8A0z/8X+RIiVz/AK67vRmvt3+hV/XH/bE1W8P/AJxhPsVfuaZfs1+PaH/yf5RES88QZ/tI/wBE320+8yH6HGIk4fCz3ns1+Rl+p/SJViOHpMQxEy9D0FL4SheJlcRKqPEtWhSIHGexIQ0XeGeQYiWSBSeUyaPA+ERMw9F6EJGtxfGYFP4vOIhnkMX+df6jN2vwp/8AFH3NJK3N/wAsRE0cVqi/bP5jwXqdRUmIYiaMjiI0+O5zfezrjW/c/mnsS/C/GirFf02drEROkcoREQD/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRUYGBgYGBgYGhkaGBgYGBkZGBkZGhgYGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHzQrISs0NDY0MTQ0NDQxNDY0NDQ0NDE0NDQ0NDQ0NDQ0MTQ0MTQ0MTQ0NDQ0NDQ0NDE0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQMEBQIGB//EAD0QAAEDAgMECAUCBAUFAAAAAAEAAhEDIQQxQQUSUXEiMmGBkaGx8AYTwdHhQlJygrLxFSMzYpI0g6LC0v/EABoBAQADAQEBAAAAAAAAAAAAAAABAgQDBQb/xAAqEQACAgEEAQMDBAMAAAAAAAAAAQIRAwQSITFBMjNRBRMiYYGR0TRxof/aAAwDAQACEQMRAD8AtIKEKxcISXSSASEIJQCQmmUByEEJpIAQmkgBC4r1msEvcGjUuIAjtJyWdjNvYemDLw4jRnT7pFp71BBphCycB8RUKpgP3Tl04bfhwVyptCm3N4PYOk7uaL6KbJLSSzBt6h+4xO7O6d0nOA7I9ysU9pUnCQ9n8xDSOYdEd6iyC2gqOliGP6r2nkQpIQAhNKFICEIQgBJNJACEFCAEJShATICEISIlMIQgEUBCYQAkgolABCSarY/HMot3nugaCCSSNAAgLC89t7bzWSynLn5EgndZ4GC/05rG2v8AEb6hLWOcxkZDMzq5w07B3ysDEb28BGgyyjXs4SqtgtYnEvfG8XHMy4ucDGUT7sqcCRpxjxykf3XVWoYAvpbTmDCi3pgQJy79J9FAOhUJytOd+HqpKVUjXjB7CCDyXD2kZ/eLXy9F2KeeVwY0mMxnmgJ61QlrW2loI3hreRPbooxJiDcCZu6b5Q7UdlrqEMIGXAxnY5OHfouwctMh9QLaajslAdGo5r99pIcIIc2WxrHJey+HNvmqRSqDpxZ9gHgcb9aOHArw5mZvKubPxW49jwOpUa4xAO7m8XzkSEB9OQFBhsSyo0OY7eaRIN5jLI3BsZ4EFTqyZAIKEKQCEQgoBFCChAEoQhASoQhCQQUQhACEJhAIpJoQHK+d7f2l86q4g9BktZBkWPWGlzrrbu9l8Q4z5VB5HWcN0c3WnwlfOCz6DTyn6KrYOQ+SLDPKwHfb1TqvBg2HIzr2AQuHvE2yNtbcR74rqDbIxpb8Wt5qCEROdvC+emmV45qZ9MZeyBr3g+Q4rvcE5Re2Vu/6pinMETIM37cxIUWTtFg2bxLHHLq84OQz1EaWPFDgQN8RLSCQD2ZyOw88uK7cyC14zaBp+0iCY/lv2IoEtFxbdjTm0GeGXIpaG1iLw7dIJJ3ZIN4ya8ctfFcYem5z2tnU/wDgHzI0yJ/mXDKHSB0me4GT5LtxHWjrPJ1mN42PPeAU2KaFEwONgYkgwCfXyKkbTAIm/wCowRcC/dbVFUHetGV8om4PkuatQdHdnh4QD4oD0+wt07kOgucQbxuwy728XSyeUg2K9XRcS0TnrHEEj6LxPw6x7cRTaJLXtc7luiTzElpB/wB0L3AClAaEIKsQCSaRQAhCZQCQlCEBMhNCEiRCE0AkwhJAMpIQgPJ/GeIMspjKC48yd0X8fVeODTnlGXLVb/xPiN+u4DJsN8pPm5Ym5ETnqOHu65vsJEbGScpPOCVPToZAA6Zkfa/kreDwpcbDh+Lar0WztntBHRHaSJ7rrlLJRpx4Nxhf4Q8gODe+bZ81Zw2yn2kR3t9le4oYUBskQOVu5WaezGETujnquTyyZoWGMTyNHYgc2bzItYWNyJVQbKkloBHAGCcuxfRG4BoER5eabcHA/Eemab2PtxPnztgPizLhsa28/cLKxWzi05Zcu3gvq4w4uPp78F5/bOyQTOhztHepjNrsrLFF9Hzo09Z1tw7zw+5TazWZABN7m1/fetnG7PANiDGeRPvsWfWYJjKxMj0+nuF2UrM0oOPZvfBrWH5j46fRbM5MgQ0cBI8hwXqSvDfClbcxG7bptIjl0gfEea9yusejgxIKaSsAKEIQCQmkgBCSEBOhCEJBCAlKAEIQgEUFMpFQD5xtZ3+c8iY3nR6SqxYLTmdfU+SubcZFd9o6ZtzDT9VWw2HmCe7+3guUnR0gmzd2VT6HbrbK1xGhgL0GAZEdvjmsbZQM3093W1TdCyS5Z6UFUT0dJjCBIkgWubctCe3tVlgF4WVhq3pZXG1iptFaZbnio3vGoJ7BqovmE6WHauXVff0S0TRfoOt0hHYPOVnbUg8CCfCBc27vFBqHVUqtUzce/ZUtqiFHmzMxOz2mXGT2Tzz4ry+PoiTbLt7vBevxdToleRxe9vGbjTkD2ahIdnPMuCjs47mIpkSOmBx61vC6+gheCotl9M/72z3cu5e9ha4vgwSXIFIhOEFdCBFCChCAKSaEAQhKEICZOUk0JECgppIAQhCAEoTUOIrBgkyeQk88wobrslRcnSPB/EjYrv8A4geEy0T9FqbMwoDQ4iSRbkqPxO4Oqb7TLXsBaf4bHvBF9Vv029BttB6LNmNenXLs5ZGQ9wtHCsk5SZymAOZ+1ysV7y1xiQBrA077JtpYnrUgRrJtzzF+a5KNmiU9q6Pb4WjAuYPACAPHVTOpD39189diNosmzxNrBh145q7s/atbeioXZixAnt7lLikikZNntPlwmKQ1PBUqFdzotblKobQx72PknojTPkQq8HRno6jQBoTHYFl4pnp4LyNXaWPe47m9BJ/SzLvU9M44H/MB/lgnviytts5qbT6NSq0dyq4nBMe06Hj7zVduIeDEE8RaRy0WhhxInJVpo6WpI8nhaf8AnsZqH+i9rK8nTMYt7t0kMLzA1cei1vfe69TSDg0b4AcbwJsO2VqhJKk+zDLFKVyXSOkimkV2OAFEpoKEChCEIAhCEICVMIQhIISTQCBRKYSQAFRxrRvB3Bjh4kfZXpUGJZJAvfo+Mz5Bcs3pO+m9w8z8Q4Fvyi8CCDJHr3RHktXDNBDR2D0Cj27Ba9sky3O2VgLZix8lLQtCyt/ibdv5WV8e17Oo2bzpA7fUrj5WINIVW1HuLXgvpUy0O+XBBIIaSTO7cCIJsVtBm+PfgpaGzewDXUenMpGVdicbRifDeDrVWVKmJqVmBjHAPL4DnmC0Bjm6AOnOd9otF4MMXvI33tMCbWMGYnt17JW9jcJAzjzPnks2lhiOjeCb8e5JSsjHCvJp7PrGLaRf+3u6h2kN4EuO6W345HQZz74KzgGCLRMqXFUZkjQqh2aR5yrgPmYYvY5z6zHneZ8xzQ5m65oFMNI3gCWu6NzGuSfw9sis+m51epVpBrCGuNR4L3l+8HbjybBo3bATPG62MNgG7xvndajcGA2LEG2Q8+K6qfFGeWNXdnn8Bh6xPTIcJznO+gNx4nNa1TD7gVgUov5BcVXSDOio3Z0oz9h4UF9WAN51YROQljDJ4C5VnEAh8Hg8c4gzwVDD4p9Ko5wMNcROWZYPCzVo4o7zg8Gxa497i0OHg3zVlzLgr1B/FMhQgIW48wcJJpIQJBQUIAQhCAmQkglCQTSSQDKJQEFAEqGuYgjMbwHMtO75hTFcV2y2BnmOYv8ARUmrizphltmmYArfMY9xzAg9kFW6QUlbZzXMLx0XuBktgTaL6HRRYZ2R95LF4PTb5s18KQRbx87q7vRqs3Dv77eivhgIzUhlfEmVUfa2qukR7+yzarAXkucN4kwC4SYtYKrRMaLWz5udJVo5k6aqfAbm4BBkZn8QljalIHMMB/c4DnnCnbwHJWIMiI1uD9OfYpw8iO3wUNGzf3NnmIsfqrQYI4+9VKRRsW4M1QxNp7Vae6MrRp9vPxVXEiyMgwce8neYxpc8vYbDIBgAJOmZWsxhaxrCZLRB5kknuy8CpMHuNDiQN5zpmLkABsA/y+q5eyLX77ntlXxxuVlM0qxUchJNC2HnChCEIQIoRCJQAhEoQEqIQUShIIKEIARCAiEAJOy8k0QoHRWayDJDzGgytl0tBZZ4aQTNjP5+y2AqGMZ054gHvFj9PFZ541FWbMedydMkovyWnh3zaco9nishnYr2GqQJXBM1eC/VpjOVkYyiwuJMO4ggEERqpMTijFzE/VZWIxzGE7zpPCYiLxP0HDRSEbVDCEAbj91uURPcCSp69FkzA3iN0u3RvRPVnQXyWJhtsU3Nguc0jgWkHxyXZ21SmIETo/pedu1OS209Fhy3djIDvVxsEe/BYVGuxwBa+QTbQgzF/fitDD1MxKHKQVwqdY+vqp6z5Kp4l4APZ6p5IbDD1XBouCLkS0EiSTmglctbAA4AeiZWyMVEwTnKXDfAIQkVcoCEpQhAIKChACEIQEpRKEISAQUk0AIRCEA4SQgoBKptJnQ3v2m/J0D1hW0nsBBByIgqslaomEtskzPw7pVukRBnKPBZFN5a4tObSW+cSrzKywtUenF2h4/ZgeBJNriCQRxy5jNZ9DZzWHqnS8T3znwWzh3azM+XLUemfFWejFxJy45JbLpqzNNWhaWD/gT9FM99J7d1rB/wKtMgnqiOKnp0xwU7mS2YlPYrLmHC8wCQO8NW1QO43lZSx771WdUF7Rpy/KM5t2ch9yffFQVHSQNJnmBc/ZKq+NeeSdIanUeA4Ht1U41ckcsrqLZ2SgoQtp54kk0KQIolMpIAKEIQAhEIQEqEFCEgkmhACEk0AAIKJSJQDK5UTMUx3Vew6Wc0/XtCka8HIjxCmmVtGNj6R33EZhziO870HxVSnitMiNPfqtLFDpntg+X4WfisLvc+KwypSaZ6UbcE0XsNVgTNz+Mveq08JUDszwE8LR9F5Fr3s6OY4ajktHC7UDetaOYTaRbXZ6xm5FrLsNHHz5fleY/xxnH+/apX7caRY+AJ7c+CbSd36mvVqwCO4LOrYoCb+/fqqVXFvcIaD32j3ZdYfCFxl5k8NByH1TjyOW+Cxhml7pd1ZkDjwJ7Ffeb+KdGnAVHa+N+QzfLS4SBAMG+s+80g7kkiMiSg2y3KF5h/xe0ZUj3vA/8AVWtifEHz3FrmBl4bBJ0HWJ4k8Fv2SPN3I3UIQqlgKSEIAQUIQAhCEBKkmghCQSQhACaUpygEsH4hxUg0gcgd/mbBvdJPhwWrtDFfLYXamzR28eQzXlCZMnUyfG61afFu/JmXPk28HmRXc1xaTMOP9/BXBXEEzEC54LjamEO+CNbHS8SCfei0dh7ODqjGG4ANR1rHdhrG8pcSqTyPEnZbHjWRqjT2CxzW9IEbx3gDYwYgkacY7VuMpTZVarCHA9yv4cryZycpbme5CKjHavBUxOCtMKqzDA/2+i9H8sEKnUw0H37CqpE7UU8PgmH9IJ5QVcGEYOAOec+CnpUefipmUr5kq1kUioMONPurVDDW996nZRv9FaZThVbJ4ICyFl7Vw7ajSxwkHTlkRwMxBWw8KlVZKhNrlENJ8M+abV2OaboJG64wx9w2Ys14/S48crZQbR/D5O86JBBB5aeoXr/ijDj5DgRaQsPYOFIZvu6zvQZfdetod2WSXweRrlHErR6zCYxrwNHRcfVvEK1Kwfl93qr+DxRnceb6HU6QfEXWrPpHH8o9GTBqlL8Zdl4oQUFYTaBRKJQgBCSEBMgoSQkcJEoQUAIUVfEMYJe4Ds1PIZlYWP2+4A/LbHAuuTJAB3chn2q0YORSU0iPbuJD37ou1gj+b9R9PBUBkoqzjJjjx9+ymx8+/BetBKMUkedOTk7ZxjaW+0xnEjwCfwvXArtk2NMM75n1lWGNtmB7/CpVaW68PbnbLOb/AJ81k1+FuG6P7mrQ5VGdM9riqE371HQMLjY+0BVZuuPSA8VbFK5XgtUe/GVlrDOVmpRkKlSsVr0BIVSW6KTGQpmhTuopbikpZyxsqVDBddvaoJKtQKKnTlWXsVbH4oUaTnnPS8SdArJBujyfxZW33tw7cgZf4Zenio6Y3RoAFSwzHOL6zjZ0kucYEXuToM7mMgrVVjokZcWneaR/E2Qvofp0IQx35Z899RlOeSmqSFVxUZKoHOd0iUwyT+ZUjKPYMl6DuRgSUS1T245ji17Q4ANcHCzoM56G4cNMtblaeH2lTf8Aq3TwdbwOXmvM41kFjo/czPk4eYf4rpjbLzJ4FuaN8cz2pnsULylGs9nUeW9k2P8AKbK/S2w8ddgd2g7p5wbHyXGWnkujtHPF9m5CFl/4yz9r/Bv/ANIVPsz+C33IfJsFBSLouTZZWK2r+mny3jlw6IOfMqsIufCLymo9mjXrtYJcY4ak8hmsjFbWe6zBujiY3vsPPmqjZLt5xLiTc652vyC5LciBp9PytkNOlyzJLO30V3y4ySZ4kyTeFSxwIaLZuZ/UPsVpOeBB95j7LPx1Tea0H97J4Ab0n6K8opLgom2yZ4u4dvofwjC07Oc47rGyXOOgH1y8eQNipSiX1HBjPM62F5N/wVlYuvUrwymwtpjIH9X+53E9n1uu0pKK47KRju76IcZt9wJbhxuMH6i0F7+0kgx75LTwFZ9SlNcfMa4zvAlr2wRBBaLER97FZ1PZbWkFxLidBYZwreGa+ndggEXBJvl52zWWWKU07b/o1Y80Mck0k/0fk2aOzyIfQfvRmHQDykWWthtotJ3XgsdwIz+6wsHiDvSwbj9WHqu/hOh7Ld2a16FZlUEEQ4dZpzHby5Lyc+CeN8/yfRYJ4NRG4cP4NgQ7JX8MbQvO03vpdUb7eBMEcjl4+K0sPtmnrvNIzkG3OL6ZrhGEpdEZofa9X8m0BKTmqqzGsd1XtPeJ8M107FjiEcJLho4pp8pnYzTr1msEuIAGpWbiNpNBiQTBIE3MZwNVl4qsSQ6pJP6WC/KVWmuzThwvJ/ov4naxcD8toa0ZvfkOQ1WBjNoAjWrnul1mEgT0GDrczYeS6xLSYNW/7aY6o53vHuclDTZm5xuQNIHIcGyTAW3S6WWZ2+F8lNbqcWkhtjzJ/wDCtinHcca3TJEBnVYCbCGjPTt4Lz2Gw76bv8t7mk8DbhcZar0dWgXnee6w6oGS5pYIzNl7UcKikoqqPl56iU5OUnbZm1toVWHpsp1AcyW7r/FquYHG06p3YLHn9DjLTAvuuz994t/4cHGTFo8lw7AMNt2wPgeI8l0Skn2cpSi1yv3K21KTm/LB/e4yMo3HXB1GV02tsrbsJJEuLomJJIExMc4XL2Jtbk2/JVSW1JeCFolMHlb8ro2MKNrZ0UtVQJJHBC5goS18k2bu1/8ASdzH9QWI7Mc/q1NC83TdmzN0dsyHM+rlwcvfAJoW5dGb4IH6c/qqWP6jv4fuhC5M6ROdv50f4B/SFpUcm8m/RCFafaIXpK2D/wBTuP8AUrNbMckIXfwzlLwcvzHMfRWcP/1FPkfQIQvO1nts9j6T76N4a+9FlY3rD+J/9KELztP6j3PqXtMjpdTu+hVxvUHd6hCFtl2jw4dHOz+uf4Kanf8A67kIXn5/Wz6HQe0ipiuv/wBsf1OQ7qjuQhe3ofYR8x9Z/wAlnNRJuY98UIXoLyeK/BOzXmo6OR5oQuUuzovQcHJVXa8kIV5FMfRw7NvvijD5uQhc5dmiJ0hCFxLn/9k=</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cameron Green</t>
+          <t>Alex Carey</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2799,16 +2799,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>69.2</v>
+        <v>57.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2823,91 +2823,91 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>69.2</v>
+        <v>57.9</v>
       </c>
       <c r="M19" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>28</v>
+      </c>
+      <c r="X19" t="n">
         <v>30</v>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>30</v>
-      </c>
-      <c r="R19" t="n">
-        <v>40</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>26</v>
-      </c>
-      <c r="X19" t="n">
-        <v>35</v>
-      </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>Batting Allrounder</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExMWFhUXFxgYFxcXFxgXFxgYFRcXGRcYGhcYHSggGBolHRgYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyYtLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEMQAAEDAgMFBQYEBAUCBwEAAAEAAhEDIQQSMQVBUWFxEyKBkaEGMkKxwdFScuHwFCOCkjNiorLxB1MVFjRzg5PSJP/EABoBAAIDAQEAAAAAAAAAAAAAAAECAwQFAAb/xAA3EQABAwIDBQgBAwMEAwAAAAABAAIRAyESMUEEUWGB8AUTcZGhscHRIhTh8TIzQhUjJKI0UnL/2gAMAwEAAhEDEQA/ALtk7EdWAcXZWmY6N1d03J9rbHFIZ6by9lgZaQROhnRwPELQ2Fj2OpikSA7KWw4wD3swE8DJBUdr7TyM7NsZu7OhktcHZnEbzGknXzzMLcMrDwMwT1K5+rhXtIDmkEiQCI01TUsO9wJa0kDUgWG9GU9ohubLTjMZdLpBs62mkumL6aqZ2tJksm5IDnBwBdEiC27bCBYiNbqOBvUUN3rLlJa9Pbjh8PhmgR3YkRcjLY8yg8bjTVy5tRvmdzR82k/1FcQN6BDYsfRCJJJJUqSSSS5cmc6Fb2TgztHDKzi6w+5QzKgzF7hLGZZHEucB8pPkhsZ7YODu6xrgLibiRMevrHBStprV2HYG1W95Uy3Jq22w0wGhvN5I8mgTKZ3tKWm7CRxaIHS51WPhdstLyalIOzEAkzLd7ojUn6RNgtPGsoF4ph/vDMGsGc0m9JhrjbU2B4m8hEWWuzZaLRZg8p91pUPaOk85KlMidHCCfEI9mBNQF9JzXNEyZmI3EDQ8jC4qtgGtcSCxwF47riB+WSR4eC0sDXqUnirTmSNDBZUAtE/FwnUTv0SuaDkq9bs6lUuBhPp+3LyW43CHe8+AA+cq5mzwblzoGpkeQtqtTDYqljQKtMBhAio0xIO/QXnj0TUKIq1OznK0DS0njvmSJuNIVdwdjwtPPrVZD9nNN0OF+upWHicPlaXBxteDB+iYIvbFPIKjMwdECRHEA6EwZm3JDQjfVV3thNCUKcJQhKSFGFKEqDC8hrBM79G+f2VrcIfid4Nt66/JAkZJwwqhxA1MJhVbxnoCfktmlskxLWtGWxm5J331sD6Kqgwu5CJJ3AIF0DEclJ3JWZ2o5+R+ymx4OhBWjUqjd7o0PHjfj+iBqD+afyj5lKDIyQLAFGElOE66UsIRJJIAlwaDEgmeilUIEpnOA1UqbHO91pPM2Hqj24RjWNcB3iXd43No8lfSaAA5wMF0W4b946TNkneA5b49YU4o71ltw7zvaPM/ZWMwLj8fU5bD1WtjKdNz2iiN1490DSbn/Lw3zvUaVHtHdkw21LuPPlvjoi7FjwNzTikNyxq9BzQXBwIAJuINuhUGmy0NrUTTD2n8PnPz3eMrPbong5FQ1GgFOq69TKJViG2h7l9ARPRcBJSNzVlfKMtEse7Oe9Drw4C4boYgEdDzm7CeybKkBpcSOWXX8R3/AKKO1q2bEUhTYDLW5ncSQO4By+oXo2xqIbTaN8X+ysuN4C9jRphjABkud2b7G0qc9pDpvESPNLFeybAS6kA3NE8o/c9YO5dlUFtEKSliFLmuGxHslVkP7WSPhLWmT4i3huWXjaRpmQ1oa8xUY4SzOIvGrSZs4EcyCBPpb2GLLD27swVGktEPj+7kdy4hdbJcZhK7KFRtSmIJ95oJfnB3cz5mV1OMwjbVA6GOEiNSCNI8d6wMDhXOa6mRBEkEZgO7uImQfFbRqONCnmEGAI6ADRQ1BLZByWb2kxoaHEXWdtSoMoaB7zxc3cb5rnwQ+VSxt3sbwBcfkE8KECAFgvuU0JEWU4TQulLCM2Lbs7E92YA/yyisPhyH98RlGY8LExHEEj0T7HpE06NRuoblM6d10cLWBuLozEU3umfeJy20yiLnxnWYlQPewtdf8pj1N/e6vNYQB5+g+YQWGqVTLGGAZ6Cfl4QoYhwAyM03n8TuJ5IuqMo7OmJPxFV/wzWe+b/hGqU1cUYuQ+fr3QwmI8z8deSkMUHUhSDDm0nodZjgByvCxXN/mPuDAaLaaT9VpVKxNgMreA+vFZmHuXu4uPkLKfvHOu5RvyVkJlOEksqOFnqzBsmqPyPPlCrV+z3xXpHiS3+5pA9YUz5wmM4PsoKcYxK2aOFa6iCXHMJgcCTYRlm+Zs67rqquzMW02g2bv56krV/gG6xvBn8o+iqfRIBy+84yXHd+9ygrvgj8YifCd/W/irwZZAYhwYMjdfiPHkqqNB1ng5Y+I21BFj47kQ4Mp2AzvJjdAJ47gha9VziQ7UGLac45LqeKJblvOp8FG6NfLdzQu1XDI6O8XEAuNiZI3fdDQp7QN2N5z/aP1UYVhuSr1LlNChVp5gQroVGLq5Gly4JIV2xKZqdlN3B5p6X96R6O9F6MK7KYlxjcOZ5Ln9nez3YubUYXEGo3MDEgglhNtxkdF0eJwx1b72g5SrIzlexpNc2mGvzGazcV7TObIZhqr43iAPMo7B1zVbmLMpi44eO9cxtbAYt72y4NbvABcZ3S4j1blF9BF+pwDC2mGn8ME8TxTSdVJhAyWPtrbVWmclKm1zuL3ZW+lyhWYrFu98UDxDHO8ri3VBbSw7jVDxMtltrGCDBB3Xg+EWuiNm7HLW05qOJb7xc4uLvMmLcDfggCSExaAfnq6bE4IdsajSWucKZIkjTMYPAmL8gU9TFzZ1o+i0Np0QHdoLva1paDFm5h2kNO8tzXHBcrtWo5r3Mb8VoOrTvjkq20UsYiVl7e99MteDY6cRH2FDtM9R9TdOVvRv31VsKNKnlAHBWwoLCwWGSXEkqEKQCeFKEJXQtb2UcCypT3sf8A6Xd4esrarMAE/wDF965LBYzsKofEtcMjhpfVp8/qjsZjqr9H5RwAt9/VSuNMsuLn7+7q1TfAuiqtYi1NsDj+/mUF/DuIggXdOYuOaI06TuWXUztN3HkZsehNgeRHirKOOI97TQkSIPBzd3XRVW0nsH4EX4fJKY1GE/kD5j2hHYmnkY5xOgn7eqAwlOGNHL53U8fWLy2lMg953QafvorgERiDfyN/jqUlXAT+AUITqcJIYkmFY6arIGYatIcOrTKnClCuzCohdpRxjHU21JAa4A357uqxtobYpmQ0kjeQI8y6IWJgKmUmmerOhuR++aLq02nXwOhHQrqzg6xCuiqYkKbMRSdaPA7+k6+CKpuZugLDrUS05TF9JsHbwHAe66CCHCNUv4tzQRc7hPvNdwPEc1C7ZwcifMpm1y3QeX0rsTUz1nEaNGUfM+qaFHD0srQPPqrYTQAIGiqvcXuLjqmhC7Rpk0zGouPBGQkWyuBi64CF3Ww8b2zaTgHZCzODfLmN3NPMGfILZqGbLzrYHtJ/BUX06jHvAcSzLEBrrkEnnJ8V3YqTDtzgD5q6HDML1VKu2s0OBvAnx/dO9gm+5C4zH02OY15gvdlYAHEuMF3wg5QAJkwEfXaIQWJrMZ33FrTBAJ1vqBvITlTNWDi8bT7RwacxyhxEHSYkHQ9EbgnAtnyQFXE03vaGOaXhoBAO+LxOt5utOlUBbAskCkdZB7Uw7nupVA7K2iS9wvLpaQxo3RNzPJcy6kS8vdc6CdwW7tStUY915a4AQRpA4rJdcyqtaoMgsLtGuKjgwf4yOcqMJwE+VPlVXEs7CownAUoU4QlGFRWohzS070sBXJ7jvebrzHFXgIfFYYmHNs8ac+SIcMimAha+F2e2pTc5zhabWiNb3ta1+q5+uMmpuB3Sb5m6FjuPVEM2iIOaQ4agTfdbgmoUXVHZ36fC1SkgC4j58E5vkls7DZRmOp9BuCMAVkJwFWc+TK4NVcJ1ZCZLKbCsWEsqlCeFelZ8KivSJuLOFwUZs7GyQ74mmS2+7eIuoQh62Hk5mmHDeuB3p2mFr7cxjKglwytAi+pmdLxNgVh4WmXHO7gAOcb1NtBzzmqHTQf8IsBFz9+aZxkpQnhKFOFEShCrhPCsAUHuA1XSjhQe1m/yndF6bg3zTH5WkdHNBXkO3NuOpsJbSFRvxHMRHhGnNetbIfmw9F4F+yp2ni0Ejw+itUgQLrY7MBAcfBW4gF7MoMcxr4LOxeBpgl2TtH8anfNtwn3RyEI5lZsqypimAbpUzStYEjJc5V2e113UmW0huXT1WhhG6NiITV8S0XJv+4VOJcW0C50jMYtrHh4eaBdqlq1MDS86LD9oKoLpaPjHjeyznCabnzJIvyv7vJEGDMlxgzfkfunfSaZN7gTG+dD1WeXyZK80ZcZKrp4dpBlkeP2KlgaQDWmLkCVdRYL3J3XKspUw0ADQKMvOUohqYBRqVA2BBJOgGquAVNUZXh8EiIMXi8zCQGUYUTWiO66TMC028VNtcRMH3ssbweahVGcsiYl1xIItzUW0yAGwZFQSeN/eRtCMKVTKXe4XFu8RA5XN1aa4GaZsY6kgGBx1UaLsktcD7xIIBIIJndvUeyIe54Ew7TiC0SRzXW16yTQrDXvGRxMAmItM8+STsQQQMjpOnu7td6rfBfmOcAtbEB3E2MBEvbL6Z3Q71ASmBpoiAo9qf+27/T90kXCZR4huTYVgusCVXQpkgOJMm+tukIiFXTokaOtwifCVfxWWfCFpOMiC6STM+7AJnXlwVhcbgHV8TwESrRREAA6Oseckx805Y2DfU5pG47kS4JoUKzMrZBdqN8700ktc+dxgDd15q3JIIL50OkaGU7qIOaDAcL8L70MS6FCjTkavGmpI8lPBssHEkkzqeasosItmmN0AQpUqeUAJC7NNCeEDhW53PDtQfTd9fJX18Y1thc8PudyymYx9PEU3ujsqsUiLSyoZLTO8E93/AJUlJpQeQARqtHE7La4EESCII6rrvZLHxSFB/vUwB1A913kPMFYxRGDqZXNfwseY3/QqRroKl7M2ksrBhydbnofO3gVu4zAdoczXFruI0PULOxOw8QRIqNnjBC6PDiQCFc2mrGFenLiuUwXs89pBqPJRm1wHRRB7zWi3GTc+YW5WpmQuB/6g4h2HxeGrgkNfTex3/wAbswPUCoT0BSuZLSAqu24jRMX6unOGE79b87ykMOOJi1rbjI3I1mJp1RJIa/fwPMdU5wp1FxyWY9rmrFbDhLSg6dEDSf3+/VWgKZZCcBQlyfCoBqcBTATgJZTYUPWeREDmen7+Si6oeOmaf7hHmJRgCcBdiG5HCg3F24ndAgDXwSNZ0Tuy6x8WWZ+iOhPC7GNybChKlQ3y30j1n6DxRDLieKshPCQngmDVCElZCZLKMLChPCeE4Cvys3CqW0I0Pnxgj6pChz3R8rlX5VOFxeU0IY0Lkzrr6fZSFDW9iI05k/VXwq8XVyNnyXYibIhqrgNkk9fOfuszF4wvMNNuP2Q+Pc4vykzHzROGpkaR0KsNpxcqCpViwTYcndf0+mq38R7EPr03MrONMObIjvltTUOsBEGNDdG+xmDZUqPe6mJZEEgES46tO8iD5rsnNWZt23VKb8FOx1P0tPs3YGVWd7U32GWS8ywTqjQaVeO2p92pBkEgCHA8HAhw/MtBlOoWOe2m94jRgBJ8yJPILqcRs+k6pndTaagbAcRcsB055SfUHerKYgzuOvXj4qJ/apgYW313co++F1MOxWl5JcY0Az875cPMKn2ex7HsHeHMToeC3M4XP47ZAee0pnJU4mwd1jfz8wUJhdsOpuLKrSCNZ18hYjmFsbHt9Ou2BnqOsxxHordTaRSdFf8AGcnf4nn/AIngbbnFdSWriP8AqZhO0whqj3qD21G/0mHDoQSuio7XpkCHR1EehWV7RY5nZuptcHOdIiZF+MblbLmwp+9ptbjLhG+QuIxBrMpU6rKTn4d9MRUpyatOCMpqUwJIEatmwMjcpYfajyBlkG0Oae4ecjceOi7r2YoBuHa0aN7o6NDf1RlTA0yZdTYSDIJaCQeIMWPNYL+0jSqOpubME3mNdftZLOzGVqTKrDhJAOW/duWM9mJytcaIdMbxPiAratEMpipVAYDvBzQToHQLeEroaPBOBFh/mj5hUv8AUXkjE0ccxPvHkr/+ntEw484+ACfNc1/D2lpzDiFXlXQP2Qw1O1BLXEXg2McW71jZ2VA5zD7ri17d7XDUEfuVbY9tUFzJtEjdP8FVH0XUyA6L5cY6H2VRCeFKFKEspYUITwpwnhCUVGEoUoTwhKaE0JKUJISuhYcJAKQCmAr0rOwquE8KYCcBCU0JoQtRueq1u5oLz4aesIwBC4T36r93cp+L5+wUtG7kSIBKwqt6hPNHUIIj0KCaZdPFaDKYIVxZb11fsNrWknRlt49/zXVOHj+/QrkvYYOD6gJmWDXWx9dV1/7heb7QH/Idy9gvUdlH/it5+5Qj2/6bjm24I8pH9qqqU4KJc0T6Ho60/vgFGk2WNJ3tHmAqREhaai39ChdqbPbWbBs4e6778RyRuVKLcxcdEWPcxwc0wUtSm2o0teJBXn+KpOY4seMrh5HgQd4PFUtEXI/RdvtXZorsjR4ksPA72nkVxjgfdgzNwdZ0uvUbFtY2ht7EZj5H1ovG7fsJ2V9rg5H4PEeq7LY1DLh6Y3kZv7iXfIoiqLSiuzAAA0AjwCryaheWe4vcXnUz53XsqbBTYGDQAeQhU0nIloktPP6EfZczjvaENP8ALYHMytPaPcabDmGYAd03jMe9Edm7gtzZmM7RgdEH4m/hcPebPxQZEjWFK/ZqtNge4QDkg2q1xwgot4l3T6fqfRZOPpU6Lm5aIHavLaj2tiCRILyNbwL81tjef3ZD4rDdpTcwkjMIzDUE3kTzRoVO7qBxy18NfJR1mF7CBnp1xyXOVacEhRhGV6Zy3MuaSHGIkttMbp1Q8LQqNwuhZoylRhPCUJ4UcpoShNClClCWUYUISUoSXSjCxoTwoYl+VpdwV2HwgdmL+9DSY0aDb4fvKvaSVnht4Q/bt3S78on10Uz2kxDRpqZN+Q+6Jw9KTpYAkjSw3Iqp2Jo2/wAQ9c0zBtm/y8d8xdSMaHEgab0Q20rKyVPxDwb+qqwuH/8A5i8mXHENk6RBDQPn5rVc3IP853a5Z+blRgcI5tLE4cmXNPaN9HW8WeqQPIGMZAtnwJg8rjrOZlPE17dcJ88/hcw1sTyd6H/haFO3QocUv5lVnGSPAyPmrcI+RlduWiVguK6T2QcP4jqxw8iD9F2JPFcJ7OHLiaZ5m++7Xfou9kFYPaTYrDwHyvSdjunZyNzj7AofEMm/XyP7B8EsHemBzcPJxH0Vjm7lRs8w0jg5/q9xWeDmtfRPjcQylTfVqODWMaXPcdAALlee7cqltOjiGYbsq9WqzsKhfmxJEtJ7a1mvaYyZiBmaCBu6v272TUxeCq0KUZ3FhgmA4Me1xbJsJA374WR7NezmKdWbice8udTAFJhLSQRoTk7oA14k3Ol9DZBSYzvXOFifxvJgWsNCT+RJiBxVWtiLsIHPdvv7cV2D2weS5b2jwoZWa8aPueTmkZvMQfNdY9tuiyPaajmozvaR690/NRdnv7uu0b/xPP8AeFD2pS7zZnb2/kOX7SFsuWftxzm0KrmPDH9m/K4kAB2U5blFYKpmpsdxa0+YCvhVAMJvofZXicYka/K4PZlCo3AfymNOKa3+ZTqZnuGV/dexs5mnLBa0bnAXICr2Tg67mYfEUagont3MfSD3mhWYKjwXd7vS4Z4kfE2wyhdPj9nYl73FuJLWGIbB7o+KHC54+kwqm7PxFNzMtYVGZmlzagvAMuLSZ70aXF1qu2rG0gubJJOuRmWyRBEukTMf+2UINlaACHjLiPWBB8LHRbFEz0H1v9VcXT0Qb8SxuZznBrGWvaSFnYj2lYBLWOI3FxDAema/os2jSqVLME9b8vVCvtFKj/ccB1uz9Fbj2tZViwFa39bWz6gefVZ7mwYVf/mRlVzWuotIDpB7SSHD4h3dfFTxrKhlwIa2RzcZnwHqtM0qgpNxiCLctPS3JZorUnucaZkZ5HnnvMnq6cQLkwOaoONp7jm/KC71AhQpYYTJ7xF+93p4ATvOlkbjsA6mA4uBk3toTPkNPElBlGZN7dcUcRiQhf40fgf5D6lOcaBq14/pJ+UqwMygEi590RPiQq3gg94EHn9/EeaUMaRIFkMTgo/+KUfx+jvskualJWf0jN565Je9K1NoD+W7p9QtbA4UF72OMCI4TedY6b93VAYunNNw/wAp+S3MHh21abHkTmYP9v6lBjja03+o+fJIxklZ9RgY14EmXQCRq0cDAnS/VOykKQzOHePujhz6rTdhgIMTlFhwJ670HVogHPVMnc0fJV3PlxBETeNTwHsdNFIacX6HH6QDabnnSTvUMI7s8Yxrn5u1YadtAbQJ/pjxRVfEOIAAysdJAETAsc0aX3LF21VNNra7QC6k5rwDoS0gwrAY98sdaREe089AlpvFN4IQ9enFUOGhlp6tMH6KFZkHMNVqbXID4bo45wf/AHZeI8HDzQD3tm1+J0HiVotdiAdvWDWb3dQt3GPhF7Lf2dWk8uAaHtJncJvfhErs6m3cMPjnoHEeYC43DYOq4dynbiCI80WNhVyJJaPCfqq9fY213Aum25aexfrKTCKVOZOoj3LfddINv4c/GR1Y8euVN/GMBzg5mkmC3vDnoufd7PVf+83+1W7Mw1ai4tJPe0IuDG6+hifJUNq7Naxhe0m2+PgBauzV9sxxWpgA6jT/ALFdXhsQ2o2WEGPPxCumbrJwzXDvGZ/EAA8dYs9qONWLkiDExpfRw5FZUrRhEFVOMeY9TCi+oWgwC4jQCJPSSAud2ltWqa9ShnpsnI6i6YLpdamTpJO62kXlSMpl8xp1/PCTkE9Ok55/HdK6Voj6Kxc/j6gwzC8ubUcawqZXatGhcxsy4gkCRpmFrLT2bjm1SYqMfIbUbkBswgC5Nicwdw3WR7shuIZIvpENxtu3fG6PvWPJFlVvcAbqTjdYXthijSwmKqN1ZQqEdS0tHqfRIBiOFRGwlcY3bT8VUzAEy6abBuBvK3cN7Ml/frv6MFgOp3+Cxf8Ap05nZmpaTYcgLfOV6BQdIXqaDWgYWjKyzKHZ7X/71f8AJxvfID58MhlCxnbBoN0p/wCpxPqUZRpAs7IcRlk+klHVKaGq0N6lfTaRDhZaB2ekRAaB4ABA1KWSnB1ef9I0/fNSpUyGh9QkgCGNO+w8hYW/ZObTa8ZnfB68zxQr6L6hzO7ree4dFh12mk4sJsczv3AclQdTLXRFx1KEFc5xU1IMx++G5XbTrOf33DJDTA1J19NNw3pdsxv+GJP4j9AgNouOR28m3mYTMe4jCLDryURsM5XP9keCddZ/4e1JH9e3cm/TnehIR/svW/lupHWk4j+l12n5jwQcIDGzTeKnwnuv+hUmz1MLo3qI2uuh2jtWk2wdLuABPluKxf46mTJnmT9SLBO5oIvBHogcRQjvCS3iNRxynfqO6eKJDajpy8EO8O4eUrUpmnqG+OqD24Gva2kPiMmPwtv++iCp1Cy4jSY0a8by38LuIRezqZeXVT8Xdb+X9/VRmmGHHJtx109b9WkFYuGGBfhCxcTtbuUaAc3t6gyMzTZjHZZMa2Glpywuj2Ls1jILiXv/ABOjX/KBZvgFwe2vZqscW2pTcMzBnaHGMwpE1IB4623wvR8MbNIMhwDh4iVr0y0tGE6ddeKs7DTphznR+ec6wd3zyzWxSCuyoXDvRrApwrxN1U9iDxNOxF9N1vULVyoXE0krmSIKYFY+HxL22zkxuN/U3KL7eo4RYCI0Oh6lDOYQ42HVHYZs6qn+iouzYPJNIGipc17hlzEiMu7SIuQhauw2vcHOa0kCL3EcCDY6rebT8FNtK6sM2Wm2waB4ICs4ZGFh7SwpqUjTNJheKZZTfeWwLeoCo9n8+HaylVOVrC6zWSHA375F5DiTMb10NSkOCFfhgSoamwUi0sFgTPUynG0OLcBy43jPKcs+jdXsxlMmc7f7gPQrG9pMlWkcO7vNqjvwfgBBiRvOnQHkjH4AKo4DkqbeywxwcHG1+rpQG6rlG+zbaTmnDVeyYAczCS8GTIgudIv1+UdBsbHuDe+0g3HGYOo5HXxRbcGOCvZhRwWg2mQ6UZbEKwY4H4Hen3VNbFuNskDib+iIbShM+FKQdUghVYUw8EIfaLC4kFwjcN3kjcPGZYW2WFtS0jWw1jiBo7pqqe20cTQ8WI1VTanAESJ5os4eTmJEwBYRYBC4miDVpMF75z0bp6obD43TMQJ0cPdMfI8iitkAvL6x+Lut/KP1+SyXio2XOd/JsoWupvsGwfGVpJJ4SVOymgrMhQq0g4Fp0KthLKrcqnCx6LzTd2Tz+R3Ebltvx4NEU8sHSbxYnnOgHLch8XhG1G5XeB3hZv8AAViezLu5+LiOHHwVunWBkzB1/ZRlpabIdlDtXljPcBzExpxjqt9lMAAAQBYKOGwzWNytFvU8yroVarVxm2XV07GQFmbaYWhtVo71NwcOcG48dPFT2dUALqI0b36Z40394R0BH7CNr08zSOIWDRY7JRqA3pPfSeeDAS5pPINLx4K1sVaCAfDzv7i3j5uXmlFQD+nPwNj8HxaF1GFqrWoGVzWCxbajRUZ7pnwI1B5rdwNaVtNK0iQ9oc02KPhRc2VJME6QGFn4rCyqaYc08fRaT3qhzVGW7lIDa6GxW1S0T2biBrlgm3Ikei5Ct/1BpiplIq0o1zsLd8aeq7CpSQGKwAcIIBB3ESEhc5SsazVEbN2u2s0OZUDwd4IPyWgyoeC5Ol7LMYc1F76Tte7BaerHAghWVcfi8NepT7Wn/wBylcj81I3H9JPRMHnUJTTv+K6k1E3aLJ2bt6jWbmaRHK4B4EatPIhaQa1wkHyKcGckkb1aHhSBCEcwjQpNcVy6EQVS9qTaqtDkCJRCENiDvBT+0WGY6m12jiZtrPHrcanRTrQgtuPe4hlMd4gX4DruUG02pHqFX2q7QVgMpOqv7MWJ/wATgC0+8OH6rqKVINAaNAICo2dgG0mwLk+8eP6IyF5qvWxmBkFFSp4RfNQhJThJQKaFgQXvcMxDWwIaYJJEyTqqcU/K8guqACmD3ZN5dc/coyphjmzNcWkiDYEGNJB3pCkA6XOBJZBERIBMmPFX8Y5dcM1QwoftHg08xvkeXAaEgDgrcHSLg17nOJMGAYaJvEDVKnQa0sl05QQBxDoj0Cag0NgNq92bNInfoHcLoOIIt7cT9hEDeqcFVdUhuYjLJcZ7zu8YA5cT4KVIy9wJqe+QInKBaxOivGEbAAdDmGzt4LjOUjgZ0UqdEhxipGZxMZRcjUA+CLnCTHXpu+lwadVTToHtXNzvgNafeOpLp+SzcY4sp4umNSWVPC7XfNvgVvtoQ8vnUAR0JP1WXtgtp1WVHCWkOY8cWuaQR8kaNQ4xFzbzF/WI5ouYCxzTaZ9bLm/ZjaJp1jRJ/l5BmndUcZHkDB/RdvhaxaV5lhJJe7e5y6/Yu0g8BhPebpzjTxXoJuq/ZG2X7h+uXjqOeY4yNQF3dCtIRGaQsfAuluqJNWN6llbZbdFucFS5wQrsWOKHq4xu5AldCMLwq3vCyzijxCUzq7y/VJKaIRzsQAnZUc7QW9ELTLRf1N1extap7jco/E7XwCiqV6dES90e/lmuK5b2n2G6m7+JoPDHjWIGbw3jqrtm7VqA02VW5Kr2l7Q24cAXA/lPdd3Tw5oz2g9malZhAqOkatmx/RZlPCOp19nOfudUpuP9DAAeri7zVRu1sqH/AG7Z58Ale8gLfZtYfFB5jXyUzjmnRw6Gx9U2O2FTc8kd0nghf/LjfxHzKQdqMH9QulD+Cm/aIGqhU2wNzgOpVNLYmQkPY6oJ7rhBsdxBNiE7/Z1n8xwb3g4FnAgAWjgTITHtKnP8JTW3BPS2uzVzwTwC2HV3tYXFggNLve7xIEgER9VnnZIJqQ3LLKeWY95pJgx4IypUe9j2mm5rixw3FsxoDKpbVt3fMDQBGt+EhK55dw6KnTxWZwa0TYF5mzZExzdyUcNiar2hwptgi3fM/wC1RwtB1IgASx2o3sdFzzafRQ2VQyZQaTmuggutHH8X0VEhkEjl6zr96Z5lBikT17ojtK3/AG2f/Yf/AMJI1JQ4huHr9qTDx9vpZcKp+Gk5pP0iCCPU+fJEwlCsgkZKrhlCDCm1xNrxFhwupOwsxfQuP9zg7x0RMJ4XYyjhCEGEIuHX1Mi0gzujifNP/Cb815kQLSXZj9PJFwnhDvCjgCjC5j2ur7uA9Tb5SuqhcJ7RVM1R35o8h+qs7C3FVHBV9tdgouPLzWPhWQ31UqRIMixRIZDPzGPAQT6x5FUikt1ed0uu52PVcaVJ4d3nTM6SHEbtNyK2g14AJeI3w3T1uqvZzDThqPKT/rct04QEEESOC8/V26u17mB1gT7le02cl1JhOrR7BctiqZYRLpB33i+k8FF7y0hu92lrHx08F1lLZrMuUiRungmq7PYAO7Ld44cCOBSjb6w1UsrlqWGqkxkdffaD4z9Fp4PZL3akDkLuHnC26bMtibHQ/dWOAJhwg/PoUru0K7hAMeH3muJQ2FwDWXDQT+IyT66I+kFSSW63HH7qym9VA6TJN+KUpFgmDobfYrJ2ps7tDTB1ZUDuvPrZa1b5fv8AfVSZ3p8D5FS03FrrJSs/EDvKuFfiRdVQlq2efFIBZNCDd2kkwYJtyDXDdzE+iOhPCUOjREtlAta4uE5oOa3ebAkwZHgIN9OaixlRpae8QGiRJMuyunU8Y9FowlCPecF2BA0e0BAdJ1uLzMRpwObwhPh+0lpIMQGm++JzR1kI2FKEC+dEcHFQhJSTpJTLMTpJKyqadJJJBMFIJwmSQRSK8/2t/iH85+iSS0ezf7h8FQ7S/scwqzo3of8Ae5QGqSS2FgHNeh+yX/pWf1f73LfakkvLV/7z/F3uV7HZf/HZ/wDLfYJUdPNPV913Q/JJJI3JTaqh/wDh+H1SxXut8EklEcuQT681ZuPRD4ZJJE5hAZFEbz0KfD6+fzSSUzMx1uSFD4vcqUkkK39Z5ewQbknSSSUSKSdJJBFOkkkuRTpJJIIr/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhQVFhMVFxUYGBcXFRYWFxgZFxUYGhoXFRcaHSggGB0lGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYCAwQHAQj/xABCEAABAwEFBAYHBAkEAwAAAAABAAIRAwQFEiExBkFRYRMicYGRoQcyUrHB0eEUQrLwIzM0YnKCkqLCFVPS8SRjg//EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAA3EQACAQIDBgMHAwMFAQAAAAAAAQIDEQQhMQUSQVFhcbHB0RMygZGh4fAzcoIiIzRCQ0Sy8RT/2gAMAwEAAhEDEQA/APcUREAREQBERAEREAREQBERAEXPa7Q2mx1R+TWNLjlOQEnJRB2usYs1O1GpFGoJaS1094iRosN2BPoo+7r3oV2dJSqNeziPkttlvClUJFOo1xGoBE+CyLHWiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAoq/r+s9jZ0loqBjSYE5lx4NaMyV03na20aVSq6IY1zsyBMCYk6TovzRtJfVe3l1ormHF0NYJwsYRADZ8zxzWkpWNoxuei376Y7M8VaNKz1Hsc1zQ5xDASRE4Tnhz1VFqbZPbQpUHUbNhptc2XtLz1vZaSAyOwqsZNEYu0ZOd4bvouQ1Bj3u7T+Qo7tkiSRL3btBXsoc2z1i1jyCY0nvCk9n9rK1nr9OHB1Qggg9WQSCZ1E5BV8sGCQYgzBI7BHPVclqpkGSc5nLeN8cEtcM/QmyfpRo13No16dSnWOUnCWuPKDJPYM16HSqBwBGhX5Eo24Oc1pnI5HKe7sK9v9G23XSOFltBJfADahIzO5rhkQTGRznvC3jJ6M0lFao9QREUhoEREAREQBERAEREAREQBERAEREAREQBERAERc142jo6VSp7DHO/paT8EB5r6X9qsGGxUoNR7S9+hwgA9U8CRnxXjlS2YgWjCInlrw4bvBdlc1a1WpUdONxxvJ3F+Zz7Ny5GWJri4DdoB2R5qrOabuyzCDtZENVoQ/I5nfOYM8d/asq1PC8F2ZLQ4gCIJ0y7BPep07O1B1yNM+xan3PUc4Ho3jLrEgj6gIqsWZdGS4HAwgdZ2gBkZT2CNDmvtkLXDr5NJyjrHjnPBdF53W9oH6OBrMHNc1nphwjTPXhxWVJNXMOLTsZNsgLgR1fPn/VyUzZS4Q5p6NzCCDo6QdRwOWma5G2F/VxBxA6wIgzO/PuWWM5iD1sss9+c5/mVhu4UWj9B+j/aj7bRLahHT04D4+8CMngbpzHaFbl+fvR/ejrPbLO49UVX9C4A5QWiJ54s1+gVPCV0QzVmERFuaBERAEREAREQBERAEREAREQBERAEREAURtdTxWK0DjSePJS6iNq6gbY7QTupu9yw9DK1PzxeNndUe2kB13kB0cgNfFWWw7P06OHIFxiStNko467CNese6c571N2lhD44Fc2rodSgiTsNlaMwM10myg6gLVYiYXfTaq9i3c4Lbs/TqsLSM90buxUy1ejZ7SXtONvsjquK9LbktlSYUibWhHKKep53/olF4bhpvbhjU5d6i9orqFESwawfPP4+K9ANnDSYGZiTxhV/a6zdQcwswk941qxSiQOxVm6W22fIR0odzgGR+FfodeHejiift1EDdJPc0SvcV0qehyamoREUhGEREAREQBERAEREAREQBERAEREAREQBQG29ek2xVhVdAcwtGRMu3ac1PqgekuoTUoU88JbVLhujqjPxUdWe7BsloU/aVFH80uVLYQB+Ko45ClIJ3S/Kf6SuWpfDOkJ3DeVK3PZBSstct0c9rGQfutAJAPa5yrzrFUqPdGFjIMQASXRkDOgneqUmpNIvQTjdljuvaGgThxieCstGu05heas2edhc8es3RpazracIwkCc54c1O7O1XYwxxPZOi0mt12JqbclcuP2lozUbX2ls4dhL24uC+XpZNwO7MkwqnarpnERgBBybgnFIOZd2xx1nksRzdjMslcslW82EzuO/87ljfVIPslQ6wA5p10ImO6VA/Z67Q0hjHAk9XCAQ0RBJ0zz8NFZLvss0KtM6OYYHCQZjx8lsluztxNXJyhcifRk1otxedMBaDE5kgAE9gPkvY15JcVnY2lS6MjHipVHDedJnu3cl60DkrlCe9dcijiaShuvmvzxPqIinKoREQBERAEREAREQBERAEREAREQBERAFTPSTY3Oote31hLf6oI/DHermo++7IatB7GxiIkTpIzC0qR3oNElGe5UUjzewgGw0zp1nF3J0wQttKw04BjPiDC32enhsxBEHG+RERpuXNYa05LnS4djrQ4rqz7WaA05HvMrguhkVMW8ruvS1BrS1ubj5LguhoNSMYyHEeCjJkWK0nEZ5BY/YmEA6Hll4hc1orNaQC9onSSAewSuuy2kzhcMtxWVqYayN1OxNiTiPatljp9bkEtVbKFusPqqSKTkiGo7RI+7rK11djWiGtDWSN53+Ga9CVd2cssk1CMhk3KM95ViVzDxtG/Mo4ye9NRXBBERTlQIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAqW2eR/l+JVKsVSCr1txRPRteNBLT36eY8155Sqw9vCVzcV7508L+mdF71Bu1Kwsl3A9ac9cjC577sRc8Oa85DQHLvWVlsUN6zng9oPvCiiW0r6kzY7O0CcPiAT55rrpWkHIxqomjYAR67ieZA9wlKV3vDg4OMjcSSCO9ZYcbEzaKqkrkbie0c8/eoarVk5Kd2TYXVSdzR78vmtqOc0iCu/wChst6Ii6hyAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiLhvS86dBhfUMDOBvMcAsN2V2YbSV2bLyph1Ko1wkFjvcvHbXQh0ToVxXl6Q7RbLxs9BjjTodLmxpPWDZPXP3tNNF320nGSFQxTUrMuYGW9FtaGNnrw6Hdi66zcWTfooeuZg713WG8ABBA3qumi7v2yZLXfRLfWzXRVdJgalRf+rZQDAWNO2RnP55LLcUYdTkSGCJPNXTZGjhpOJ1cc/DIKjWRxdmdBoPiVJ2bbFtmtP2Z4lhpseY9YYi4SOOgyUmHlGMt5lbGTUKW9LS6PRUWiy2llRofTcHNOhC3rplEIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIq9fm2FksuT6mJ/sMGI95GTe8rDaSuzDaSuzPaXaSlZG59ao6cLAfN3ALy2972qVw+pUdLnZDgBwaOC5L0tj61V1R56ziT2cB3LmAJyXNq1nN9DkV8Q6j6FO2ZB+3Y561IkjtmPiV6TjLiTxVGsdl6O8HN3PZiHl/xKvtiE5LSq7tdkeowLjKjFriaH0jqtP2HEfop77NIW6z2UaHM8d58FFYtPqQlG495Pgu6z3a0HIfFTAs4A+q+sp5rO6YSRpwhsDgvPts6pbbqNobOEt6I9rZcD3y7wV/tmioO3j8LaIjM1gY7BB962pt3suJFiqanSknyLddF7VbOQ+meGJp9Vw5j4r0W4b+pWlvVMPHrMJzHMcRzXlemXILXd9pexwfTJa5pkEfnyUtGs4djx9DFSpZarke4IoW4L8p2im3rAVYGJmhxb4G8SppdKMlJXR2oyUldaBERZNgiIgCIiAIiIAiIgCLRabSym0vqODWjUuMBVK9tuWiW2dmI+27IdzdT3wtJ1IwV5MjnVjBXky41HholxAA1JMDxVavTbSz05FOarv3cmd7vlKol43nWrma1QuHDRo7GjJLLdtV/qsMcYy8SqVXGqKvp1dinLFym92lG7+f0R03ttHarRIc/Aw/dZLR3nUqtXjZh0buWfgrlZtmnH9Y4N5NEnx0XRbLoo06Tzgkx94/DRcirtSknq5Pp6uxmGzsVVac8u7z+S+xSKtNfLKzrLrosn85lSN33FUxAuGEE5zqByHFWateFJXm7ePwRQo0KlZ7sFfwXd6Fbvyx4atKsNWnCezP896sVkpwuO/7mqUamMuc6mT1S4yGn2CIgcjvXXdlvDsnCD+c1mnUjVgpxeX5kei2Y/Zp4eb/qTeXTmua10z5om7Lpmtj2EaLnspkyNF3YFIjrmpoJWREBHiN+SwxZZmUFjmrsJhUvamm19so0yQG0hjcSchJESeZAVuvK3hgECTuHH6KOui6RXrvfUgl4AqRoGHRnIHTiddy1lOMIuctEjn4/EKK9jHOcskl14vklr1t3a01WyuKx6lWS0bJYJ+yvwgjKm8lzQRuB1AI9yhKllqUpNSm9nHIub3OG5VqONo1dHZ8nqedr7Nr0dFvLmvTUzpvg8N4hWS7Nq69KA49I3g71u53zlQV32bpXsjE5kw4tBynQzHGFN1dnHfcfPJwj3fJSSx1OjOzlZ/NfS5ihhcS050lpk1o/k9S23dtRZ6uRdgdwdkO52im2uBzGa8ktVgq0/WYY4j5hZ3fe1aj+reQOGrfA5LoUscpK+TXNNE6xk4Pdqxz+X0Z60ipt27aAwK7I/ebp3tVqs1qZUbiY4OHEH38FchVjP3WXKdaFT3WdCIikJQiIgC5bba2UmOqPMNaP+gOa6lSdu7ZiIpA5NzPafkFHVnuRuR1am5HeKzfd71bXVznDMMpiYHdvdzXbY9mnuE1HBvLX6DzXZszdwYBVcOs8Et/dbu7zqpyzer24j5ryWM2jNzcYPu/TgMNs9VF7Wvm3nb19NEuBwWS6qVOIaJ9p35y7l3tC2Fq+MGU8Vx5OU3eTu+p2IRjBbsFZdDE6rmtNEPEO0W+qessStdDc5qdipt9VgB4wJ8VsDFmsmhL31MJJGt9na8FrwC05EESCqXfFxdBUy/Vu9U7xxbPEK+MC122ytqsLHb9DwO4q5gsS6E7/AOl6rz7lHH4RYinl7y0flfX0KXZbU5mufb811/6iDqY8T7lG2mi6m8scIIMfUcisQV6hJNXRwKW18XR/pbvbhJX+F7p/NslH21p1P9rlprW72R3n5LictR1gZk6AalY3ESVdu4qatG0eyz+rfqb6dldVeA2XPdlnrH0V0u67WUaYY3XVzt7jxK03FdnQsl36x2vIeyPipMrz+PxftpbkfdX16+n5bq7OwcqS9rVznLW/Dp35/LhnpLFgQughaiFzLHUMbOxrfVAE6wIW5zVqW2m5ED4N647XdNKpq0T7TYH/AH3qQWcLeDcHeLs+hrUjGcd2SuuufiVK2bOPaCabscbog924rRcV5uoVQ7PDMObxG8EcQrkFXNpLuMmswaeuBvjR3zXYwW0Jb6jUfZ9epw8bs5U17Whlbh05rzWlj0ClUDgHNMggEHkVsVY2OvDE11InNmbezLLzHirOvW05qcVJElKoqkFJBERbkhptFYMa57tGgk9gErym97Q6tXLRqSAeWIOnyV325tuCgxgOdarTZ/LixO8mx3qk7OjHUqvO7D55e6VzNpVvZwclwX1eS8irUXta0aXz/OyLjAHRxphgeCzpaMHaueqf0bDwXSdWLxJ6A2VXQ0nkvmgA5LXXMgD2iB+fBfazpOWgWWzCNbjmvi+L6ozY+hZtCgbftVZqUz0lTDOI0aT6rWxrie0YRHCVJ3RedK0021aLsVN0wYIII1BBzBCmdGpGO84tLt8TRVIt2TO5qIi1MkPtHdnSM6Ro67B/U3eO7VVNoXowVOvyxinVIHqu6w79R4yu3svEPOlLuvNeaPO7ZwqVq8ez8n5MjYVg2XuwT0zxpIYPe74BQdGkXODRq6PMq+U6YaA1ujQAO5S7TruEFBavw+5DsfDKdR1ZaR07/ZZmRRfV8Xnz04KxIX0rTaLTTYAXvABmN8xrAGqKLbsjN0s2fVkxR5viicpfl/6qnj6srqs9oa4BzSC07xy7cweSzKlOGck13TMRnGWjOuFkNFixfRvQBawJbnoZnvWdU5HsWBO7gB5/QLVmyKfcN4dFUD+DmyORyI8l6lTeCARoRI715RfNHo6zo9VzmvHeTI8ZV+2RtfSWcA603OYf5Tl/bC9xgK3tI3WjV/U8zhL06k6MuHl9rE4iIuidA879JFri02Vk5Nlx/meB7gVD7HOyq8ujn+tw+IWr0kV8VvcPYYxvliP4lnsaJFY+1hHeMTh5wuBtZ3pT7pfVFPCvex3a/wBIltOdIciVue71T+6T5LRZnSxw7HDvWyk6Ws7x+fFeUPRGcy9vIE/D4r5UqSctAtQqQDxgDyWum5ZB0BRG0l50qTW03tfWq1TDLPTMPqcjwZxJyy35hSjqgAk6DM9gXj917bGna69rqUhVqVBhpy/D0bZMNGRyiBlw5lX8Bg513KUVfd4XtdvJK/Di2+Sss2QYiqoJJ8fAuG0201qsVFoqU6DTWY9tJlEuJpOAEOdIAe0TuAzhTewFzmy2GlTcIe7ruHAu0b3CB2gqrbIXNWt9o/1C3ZsBHQsIhpwnqkN3MBzHtHPt9MK3xbhSgqELXvebWl1eyX7U2urzzNKScnvvThfl9zFEWS5xYChNqqUtpu5nzE/4qcUVtKP0I5Pb7iPireCdsRDv45FPaEd7C1F08MyEuOnNdnKfJp+Kt6rGzLJqk8Gn3hWYKfakr1rckvUq7GjbD35yfkvI+oiweXAdUAngThHjBXOSudYrW1+1rbKRZ6bTUtVVowNGjcZLWk7yZBho4blr2ZuSo2nZ6NVnRmnTqNa3pHPmQwulwPVkgnCMhEDJab22XqVrQ21vpsdUbVoxTbU0pUQ45OcGguLyDGQjerFeNnqVqJhhZVacTWuLdRORLSRDgS3XRy6lLEUaPs0u831z0vdWSfLnYqOMpOTfwRGWzqENJDoOnrAyZIiYDctPFfLgtg6ToS8BopGoWuw59LWcKbmu1PVY7l1mqEu+hVfXDLM6pTBn7Q0ggUDJmM4xcI3mYwrt2+2WpV2U3NhtVgwNykGm1pcQf4WhxB7t6sYhQco0Jzyed/etll9LLJ2SV9GR096znFfnct7MlsOqgtlrJXo2dtK0ODnMJwuBJlhgtBneJI7gpV1bI+C4lSKhJxTuk9Vx6l+Luk9DY93vHzXO12c9/jkP7QPFZF4M8M57Bl9FqpnfvOaibN7ENtcBhpneS4e4qT9HNpxfaG7sbXD+bEP8QozbBpwU3bgXDvgR+Er56L6n6as3ixp8HD/kvV7Gf9qHx8WebxOW0O9v+p6UiIvQF08T22BNtrO4vjwAHwUhsi2KTnD/AHD5BvzXJtO3FUquH+478RUnsWyaNQcHz/aF5naj/sv9y8Sjs13xb/l4k9ZngPHBwj+r65IZGJu8HEO7X88lpAy7D5H5GPErotugd95ebZ6Q4n1pd2/X5rOm9QlrtHRvg5BxlpOgPsnkpKyWgOa1zdCJ/PuU25aNzW+ZKjhrxVfs3o/sDanSdG50kkMe6aY5BsZjkSVM0HruYVmFapTuoSavrbiYlCMtUdARawVmojJkgXxfVtYBcN9Wd1SmWsEmZiQMhPFd6+LenNwkpLVZkdWmqkHCWjViGuKxPpueXiJDQMwd5nTuUusiVis1qsqs3OWv2saYehGhTVOOivr1dz6Fk0r4EUaJyHvi5XVnh7KppkCOqCJ/iIIlcRuS1OJmrkCYPTVBI3dUDJWZFahi6sYqKenQnjiaiio3yWmSy+PqVl1O20BiB6QDPJzqrYk6tIDhlGnBaTf1Oo4Nq0Zc9oZjpmCQXeqHZHCSOOatZcuW0MaRDmNc3WI36ytv/qg/fgr81k/oZ9tCf6kE+2X/AL6ZGdSooy2V+sANTHl9YXRaq4AJ0Ci7K4u6+86dipcLkCJNmcN3CMR5DctrDvG/TvyCwosywjtcVuBgyPu5Dm4j4D3qOxsVrbi1iWUG7uue/qt/yWz0an/yn82uHhhUVtOP/KcODWz24PqVLej4RaW8w/8ACvWbNio06duOfzzPKV6jlj3fhK3yyPTURF3zqHjl+a1P43/iKlNgP1dX+L/FqIvM7T/Rl3XiznbM/wAt/wAvIk6mj/4Xe5brZ6oX1F5tcPzkenZT9r/1H8zfes9h/wBm/wDpW/GiLof8b+RB/u/D0LLQ1C76a+oqTJTaxbAviLAM0REAKIi2MArFEWGZMkCIiB9X1EWzMGLlzVERasIrm2X7LV7B+Jq6bHoOwIikl+ku78Ihe98iWsv3u1fW7v43r6ircyTgUq//ANrqfyfhClNif2qn2P8AwlEXsMF7lPtHyPHVP81/v8z05ERdw7R//9k=</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>Cameron Green</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2926,115 +2926,115 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>114.3</v>
+        <v>69.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>30</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>30</v>
+      </c>
+      <c r="R20" t="n">
+        <v>40</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="W20" t="n">
+        <v>26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="n">
         <v>17</v>
       </c>
-      <c r="X20" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10</v>
-      </c>
       <c r="AC20" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
       </c>
-      <c r="AE20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>3</v>
-      </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
         <v>1</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Batting Allrounder</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIWFRUXFRcVFRUVEBUVFhUYFhUWFxgVFRUYHSggGBolGxUVITEhJSkrLi4uFyAzODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAIDBQYBB//EAEkQAAIBAgMEBwMIBwcCBwEAAAECAAMRBBIhBTFBUQYTImFxgZEyobEUI0JSYsHR8AdTcoKSouEVJDM0k7LxVMJDVWNzlaTiFv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAQQFAAb/xAA1EQACAgECBAQEBQMEAwAAAAAAAQIRAyExBBJBURNhgfBxkbHBFCKh0eEFMkJSU9LxFUOS/9oADAMBAAIRAxEAPwDy+KKKVTJFFFOgTiRAR4EQWSBYJI20VpKqzpSRZxGBHASQU4bh8FpcwZSSJSbIFOkgKGFY7EpSHaB7gOPieA75R18bnDbhfdp8DfSFjg5aliGBz12Ca2KRTlJ17hOpiEPH10lIxIa5O7d+fGT0WZr87a9wjvDVDvw0KLpbHcb+BjxKfDM4N84He+mnha5HlLfDuHFwQedr294BtFThyiMuBx1RIkeEjMhktNopihvVyMpC7zr09JHMdQCUjAkLanEUhcxFAbJImEMdJAyQkyGgYickrCRkQ0wTkUUUkgUUUU44UUUQnEnQI9ROASVRBJEokqrOKsIpJeA2SkcppJxTnQloZhMPfWKlKtQ0hmGwfEw3qhCFpyDGram5+yfhEczk6GqPQx219oLUuptYMcpsQbcNQdfAiV1PDsbW1AOnn3yXEYTXT+pl/wBHthh+0QbeO+atqK0NGELdIp6GzHe1lvvtbW0sDsGqvayEDe2nAfkTe7KwqLoqgffNBQpi2UgEeEU8paXDaanhnyfUlr791t/rJtnkoxI3cVOhYfZ7xPaquzaNQFXRSD3CefdJtgthHDJrRbQG5Fvsk/CSsiloxeXhqj3RHh6OdcygngdDoeR75x8E/wBRv4TC9k4ekwJIvuv2jbjwB36QtsDR/ViVJyUZNamRPGouirp4Fzpkb+EyT5JUGhpt/Afwhh2dR+oB4Ej4GR1MOo9hqin7NVx98jmi+4NIC6s8RbxEbVp6Qo4uuugrsRyqKtQfzCSbdYiq9MhBkVNVW2Ylblj3wq6oik1oVDGDuIWF0kVRYaYFAjLI2EIZZGwjEwAcickjCMIhJkHIoooRAo4CcEeogtknQJMixgEnpCAwkTUkh+HoDjB6YtCKbm1oibbGRJxhr7tTD6FOwkeApkkKouToBLSnQVWyWNWoN6IbKn/uVToPAaxDt/AbFEVKiTuBJ5AQbGU1IanmzMQQUpjORcfSI0XzMvV2ez6Vnsv6qldE/eb2n9ZLUppTAVFCjkoAEV4kIvTV/Jfv9BvLWp5dUw7NdjcLmAAtvI0bw/5noz4DqqCACx52tv1md27SUPlW1rqSA3DNc6cJsOnbA0lIcqDrccQBffNNy54prqaOJrdFNhb5tDLqkjHcZ50tOuXbq2qDKMxzk2IHI8+601HQ7ENWTLUzL2sl763FibfxCRKFItY8l6UXlTGU6dy9QDxYXku0Eo4zBVlRgSq5t27Lrf0vMXU2dVNdSLXLWYEXNMaa82O/Tum/wlBlw9ZCAHFNwtrdrs93wkcqVMiUpStUedbPw2Qab7QvPLvG7EWkgXNdgCb99gbeGspGSVczfPqY/GYpwmnLqtCN6pkTyY0+P5/OojGSCmUmA1YZt9b4qp+xT/2yJ0h+0Uvia3ctMfyxyl+VjIx0ZSpTkVVZYinBK66zlLUBoCcSBlhjrIGWOiwGgZhImEIYSJhGIEitFH2inEHAJIojFEmQSGSE4TBM+7dzhrUBTHZFzzO4eAg6YsgZV84VTDOLcvSIk3dvYYqIQSd8JwyXMfRwTHcJa4TZh4kRU8iSDjFsJ6O0fnlv3n0BhHRh7UqjcWrOfhC9j0FWoLd+vkYF0c/wP33+6V5yvHfmWIqkW1JtZFjQbiSYYayXF0+zm4Aget/wlK256BdDD4OpkrgV1zhhV1PaZRZgSt+5W08Dvm66QYANQpP7SqoHuGsotp7IWoTU3stN8q63LEdkqQdCDrNDsl3bCItUZXtqvLlpw0tNvHmjkXMvl5mqskclTXqZY0s1zck95J9b75Z7KRRh6BpgAq5BtvuSdT4kSPFUurY30EptnNWaqAKhKKmXKBZSL39ni17HN4xm6G6Jpo3OOormDAWLAE6cZY7KodlnO4AyjpYm+j5xdjbMSwF+Cngumg4TTVBloNbfkY+4wUTkklEye1zlVr33jq777MDe/Lhp3SqwWyTWU9WwzrvQ6EjgVO4+dpNtHGvVy5rAKLAeO8mG7EFCk4YuzvuCqrKt20sSRcym5KctNvkZHF5/HyWv7VovfmMxWwanU0VVPnLsWGmmY8Tu4LKfH4EUjlLBn+ll9le7NxM3W0K51FuyLZ7HXna8x+1BhzdqVQgnUq6sfRgPj6xuSFRX7lWUUikydoDvHxheLPz+IP2kHokHw5zVUH21+Ij11eu3Oq3u0gf4kR2BzoD6QGqJZ1l0lfUFzJiwGCushYQp1kFQR0WAwRxImEJZZAwjkARWijooRA1ZKsjWTrBZxJTEscErt2V8+XmYLhUG9t3IbzLDryRZeyvIffEZH2GxD0rBBvzHkPZHjzktDEsx/NoElK4lthMNYSrPlW+46Ntlpst7Oo46/Awbo0v93buqN9x++EYIBXU98h6OHs1k5VW+AH3RUtcXqNRa7NZCcrjQ7juIP4S6rbMBplc2hbMWI3ACU+DqlCcqLf6xJJ8uAl1WYsy083aC5j3tobRnDwg3q1frs9Kbej+vxJb0KtaSZslME29p23+AHCSVzla3PX00PuyywpVXbeqm2lzodO8CUfSTEEU3Kiz02G/j2VNvAhvdF8PJfiWo1VdL01W9pFrh1RXbeYG3L8LygooFOZ3a3JbWHoIRT2/Rr0ip7Ljgd4P4QfDY7XUWtw+M1I2XIyVmswFGm6XFRwRzY5e643S92hVtQOu9MvjcW0mQwG0bsF3gnXymnxRL0hcakiw5DX37orNJxhJ+RGaX5XXYzQoQvBqEdXbcpzW5kagetoYaAUXMrsW95kRm29DHqjibVZXLN2g/tr3d3eJR1xvG/kYZVEDxEtqTluKY3ZVO9dO659AYzAapm+szN6sZNs17da/1aTHzI0ncNRC00/ZHvEZN/loNLQHrjhA7aSxqpAqyyYsBglUQeoJJUJO6MI5x6FsgcQapCqkGeMiAyHWKSWijASNYQiyJBJgJDJRPSWGUBBKTSywS6RE3QyJZ4RN0sb2gODMMtxlGe5YjsORtQe+TbEW1euveGHmST/uEhpiFbPFsUD9dLedr/CnO/wDXJBLcvqNCxvbSEUsMTrvYm5PnwheGo3XWS0VCgn0mbJvYsxiKnTsCTzv+fOVPSbBF6TOiktlAdRvIXcQOJHv9JaVHa9uG8aeo/PORFjK8OJljnzrcuwx8qPDcXstixZL3vwEmoYeuN+o5kXPrPTNubGF+vprv/wAQDgfr+B498BXCKw3T02DiY5oKaC8HqiDobgwCWYAngbTYU6ecEAgG+hOg3cTw0vM9s2kKZMtsHjVXE0cOx0qUajeedQD5a+sHPKKg+bb39Nzp424NIBx6EMRmVrb8pJA7r2lZWENxVAozJY3UkSBqRtrMtaMxpFbVEr8QJb1gBKzEmWcbF0KmtsPU51KiUx363h9an6cIwUv8vTP2qzf9smxgv5Q8stUhtUgBzAcSl4ZVrAd0EY33woWhTBHS0HexEMqgQWoY+IDAqoIOshaT1mvB3EfEWMincs5CAH0zHiQ02kyyGEiSikuMBpvErqLWh1JjpEZNUMiXWEGknVhfW/lBsINJM1iRKUtx6C1sTePd8j06n1XF/DQn+XMPOdoINJptn7NVVDuLsbEX+jysOcT4qx6sdDG5ukWC1MotI7xhIvvHwkyi/wCdZmZMnMzRhCiJ6gsSSFy63JsBbfc8rTuErU6yCpSYMpvYg3GhsRfxBld0oH9zxBGvzNTxFlJ1mY/RNtMdVUT6rZ2HNW0zeII17j3RseFU+HnmT2aVeT6+/wBSPFrIodzdpodd2498psdgOqe49htV7ua+U0FenfUaiMr0hUpsn0t6ftD8284PBZ/By8rej92WYyrXoY5jY+6U/SbHNTrYfErupEU2/ZbefW3pNDtDAPT32IvY2N7GVm0sGXSots2ZbBebEWUDztPQKUMkd7TtP7/INrTQ3NaimIpLVG8qO0N+7S/MTP43Y1YC4s4+ydfQyw6IHLSXB1Ko61adny332+ix+kNDMntzbm2MA7dbTpVqIJAqilowvoXykZCR3WvMfBjy5JfkafSm6t94977N3+pn8RjxrWUX6ff9x9bCPuy28SBBKmDJIUWBJtr3zS9FOleHx4KlQlYDtU2sbj6yH6Q94ndr7LFFmrgfNqpa19zW0HgZZUnHL4WRVJdCt4MXDni7RRuwatVcbkC0l/dFyPWQV3k2z8MVpgt7TAufFjf13SKrDck5NiZFUwzE33CJpOadieRjKq6R1igWqIBXAMPrGAOI+ADBHSDVIXUgzx8WKZFFFFDBoYhhVIwVDCKTSJEoKpi8Pw7i9vSVqd0Jw17iJmrQaL3D1OEIo6tAFrgXtvhGCaVJR6jkzR7Ew2eoq8B2j4D8gec1eIlL0LQZaj8Tp5CxPxEusRuuJmcQ9aNLh1UL7gq23HjwPGdKNT7S3K8RvK944le7eOHKcQ91/j6QyieI1Eoy3LSGVqKVUIIuGUqw4FWFiNO475570S2YuB2xUw6sSj0iUvvAbKwB52sRPRqYynT2T7jy/PHxmR2/hVG1cPUU9oojeKCoyNY/vIfAGX+Am2suLo4SdecVd/JNCs0VcZeaNTh8LUpllV1yX7AZSSv2QQRpyhGQnVm7iALf1tH4ypZS11FlDXY2UC2pY8AN/lKGhtVhiqNPrGdK6ObPRFMqVGZXTQHIbEWNzK+Ph55ubl6KT/8AlOT8tletWMlmUavrX6uvuXJ2bTKsgAFxbTcPCVvR3B3eqzjWmQigjc2W5b0It5y7X3iClKi4jMq3o1aZztcdiohULcbzdSRf7IhYJuOOcO+vv7/BBubqu5DX2XTLB17D30ddCCOP3Q4o1u2Qwtvy28b8ImEo9vtUavh6QUdVWVwzNmK9YhVkQgbibNqfrc7RWHDzycG9Kv0W/wBNuoM8rSsoemnQ9XHyjCAU66dodX2c5Gotbc3I+u+4quh3T1qzrgscoZap6oVAMrXfshai95Nri1po6GHqUcQ9PDpqwJWnUORHdFva63C9knh9U7pjKew6p2tQd6QpFqnX1EVrqj0WLOAeILID+/NvAl4c8WepKMXKLb1VK60b03a1a6dUUp3alDRt0107G26QbNaib71OgNrW7jM889J2phOuV042uD3g3F55viVNyDoRoR4cJWwy5l6i88OR6A1QCDOIQ8iy3lqJVA3W8ExYsLS0qWAlNiqlzHQ1Fy0BKkHeTPIXMtIUyOKcihkESGTJB1hKGSyESo9oXRrWN4FHpFySYSZZUnuZY0KlhYSrw8PoHW8rZENibf8AR5WJpOxN+3UX0K6egmhxF13ajf4A/dMD+i3H3qV8Md61TUHgQyMPTqz+9PQ+Fj5Hl/SZPHQcc0l6r4NJmzha8NAiVVJ35W4cj+MKRdeTe4+MgfDqeAI4j7xHUEK6A5l5HePAzNY8MXW+mvEfePxnl3TzGYijj8O1rqn+EQNSCb1FPkQe4HuM9RQX+7mPxlF0vwjOKRCi2dusawNkFN2t3BmVQfG3GW+BzrFm5pK1TXzT9/CxeWPPGvNP5M70xp1nwJ6lS7/NEqBmLKrKzAL9LcLjiLwHorhMXXxDY3Gr1Zy5KVKxXKDvbKdV4jXU5jwtNTh/YX9kfCSCMxcdKGB4lFa3+b/KpcvMl2T5Vb3q1dAywpz57fw6Wtn30vuScAfI/nwkgHDgd0bSO/vkq07gjluiYwvb3/2HYOwkNWjmVgqoXschdcwB7+Nr8oTVI05/fGqdQYKpSJA0wmJNVah6gFVygrTbUGxIue0Bcc4HUwLdatWpTCNYqArAg9Y1JST32T3zSUjAtpi7Ad6/j90s5nWK/T56P9GyfE5pU0vRVt76plX0ge1FnKlkV1zrxKi556i+UnuExmM7YFVSpDDcL6a2vqANCCDYnhffPQTYgg6g3uDuI5GZGrsypQqNTyK2HZiyNUDMKRCkb1N1v7HIi15b/puaGTG8MtHdrzb9/L4FHioOORSq00ovRvl7PTWuktHW+mrM1WQDU/GDPilAuD+eUZtnCFHtmzX1VlYEH0lUQb6y4sT/AMtzPctdCbEYst4QRzJnW0DqtHRXYW2J2g7mPYyBmjkgGxZooy8UMEYpkyGDqZMpnM4JUwilA0MKRoqSDQWhhNNpXq8nV4poNMuOidUUto0qg0FYGi45lvYbxzBR4GetMJ4iHIsy+0hDqeRU3B9QJ7RRrh6aOGHaUN3G4vpKP9Sx/lhkXVU/itv0+ho8FO04voRVDYySi9/GRVPGSURMObL6ClktSiHUodzAj1FvWRC0JoiTjabolgSKVAU8AB6aSRTHbQFiG56eYg4rDnOcXB0ybvULpmGUjKpa4klTaaIFufaYKBxJJt/WWeHlzTUVuxc9FbJse6hrXANr7xzMjSpfWZvpCcOcSDUBLZQC3zmi5lJBy6A2LW798ECimqthq7dlWaqS2ZVyqCAw4XLBbDjeauT+jttyjNX2opfj1F01t56/LT6m7pPKTbO2KaVkpsbE06lQeFPItvEmqLeEj2Ntc1qd2Uo66OpBBBIuDY8CNZnOktRWrhiP8JD2uWexI/lSUY4JZJvBPTv6fzRexVOpRej+gXU27ULg2sL6ICLkcc0jO3KnXKWOpOlMGygcb/jKulVIHWPoTaw+AnarqBnzDMdBz8xNaPDYY1UVtXp+7vffzLWht26itRIqqpRxqTYEa6WPMEXnlW2NnfJ6pQkMN6sNzKdzdx0Okv8AEY8k5RcqALWvbv8A+ZFiKJxNMoQQ66oTp+6e4xODA8aavTouy7X1KXFcJ4i5o7/XyMhiWuJWs0sq4tdToQbEHeCN4lZUlyBgyI2aRNJGEiYxyFnIo28UI4jUyVTIo9TJZAQpkytBVMlUwGggtWkgaDK0eGi2gg2idZv/ANG2MPUVqTEBab5gSbACoCTrwF1Y+ZnmyVLG8WOxNRVsjHIzIaiBioqKpvkNud4Tw+PhliutU/f09R/Dz5J2elbQ6YpcjDU843dawIT90b290rTtus/tVCO5eyPdv85abRpUnoJUogZCilbciNPcZlWYgyrDg8OPaNvu9TejRf0MSDv1h+GxeU3BI8Db4TN4R7y1wxvGSV6FiL0Lba22q4FMLZ0ZiCTo6EKSCGGhU2tqL6jWADaNa+4DxYn4SUjgY00COAPuMqS4XFJ3KIDxpNtETYmsx1qN4J2RG1C4KsXZSpupzksCeI5Sxpui79O4ypxu2KCkg7/GWceCEP7El8PdgtLZjK71GObrHN9b57eO6Oz1AQ2Yhhua/a/i36wahi6b6qTca33W7rcZImIHE34RlNO7OdSjyvbt0CaGNqo9SoGBapbNcadkWFgDpppA8SHe5YnU5jYAXPAeA09JN8pEnp1lPpA8Nczn1fU6EIxVRVAfyfNbNc23X4QingByhS23yZHE6hg2hgwOEsMJhxcDdI6VTlC6DqTr5GTSO1MD0/wHVYtrbnRX8zcG3mvvmUqT0P8ASjSvTo1xvDGmx55lzD/a3rPNXeMijzfFx5c0l6/PUa5kRM6zSNjHIqHYoy8Ukg5OgzkUmrOJFMN2bhHrVFpJa7X1Y2VQoLMzHgoAJPhBsJhKtU5adNnPJVJ+E2eA6N1KGGdq9Snhqlb5s9a9mShoXsguxd2AG72VbnKnE544o1a5nsvj1rfRa7eW7G44Ob209/UydEFiABcncBxj7y2xO0MNQU08IGdyCGxDixsdCKSfQB5nXwlGHhwk5600ul7/ABrp6690iGqJgZPWAKDnu9PyIIrQygmZW+za55A6fG0fhdTOjuX/AOj/AG3cNhH3WLUz3G+ZPW5HiYdtHCEEj0mBxeO6iwpGzAhs3eDcCeiYDaK4rDrWXeRZl5MNCJOaFOzZ4TLzRp9NvgV+BuDvmiShcBl85micr3G4maXAYgZe4yszRg7O9eYVSryLMDwnCoGsBh1RYVKaupDC/wAfKeU9Jtl4inVY0zmW+gZdfWenUao5xuJwivvtOhNxdgTgpKjyPD7UrU9KlJh3qLy22dtuk+gqa8ibfGbHF7IAFxM7tHo3QqHtJY810McskXuhLxyWzsNpEH+hhFKmT7LfjMv/AGDiqB+YrXH1X1HhD8JtV1IXEUzTO4MDdCfHhOa6p2SpNbo0IV+JEkAaNo1bjXyM7c8NYA1ND6WKINiLSzwuLG6/G8qq1VbDMADz3SvqY+mp1qqPMfdJqznOMd2Wv6R8UPkKLxastvJXJ/PfPLiZ6LtPB/L8PloVKVSpTAekq1bVGJuKtNka29chBH1DzmBx+za1E5atJ0P2kIg4c+ObcE9VpXX0W9em6Z5/j3zZXJbd/en8agjGMJiJnJZooiiiihEGtOG2PS31cRiTypItJD5trOf/ANRhaf8AltnUV5NWZqzehsJk5oNmbFppTGKxxKUTrSojStibfUH0KfNz5bxM7NgxQV5pSlfRvd9lGPKn9t9FbLEJyb/IkvT7u2XmA6RYp6bYmvVNPCobLSoqKPyipwopkAOXizcB3zIbT2jUxFVq1U3ZjfTQAbgqjgoFgB3R+2drPiXBYBEQZaVJBZKSfVUfE7yZXxvC8Msbc6Sb6LZLt5vq312WiRGXI5aXa+pKGjgZCDJA0siiQGaTorQ61MZSHtHCl18aVSm9h4zLgzSdAsSUx1EDdUJpsO6opHuNj5RWZuMHJdNfVa/YbhrxEn7vT7mPx9LMVI+lrfkOJPhYwjYfSFsNVJAJpMArJfgNxH2gPW5nNtUzSBpEdrO694AbUetvQyuo0fm6hK9oZd44Nf8ACaEknaLeNuKTPSPlVOtTFWk4YceBHiOEssE/Z3zySnXZFRkYqQz6g24JpNlsfaVU0VZiCTfhbieUpZ0sas1MPEXo0bJMTaPOMsLTN09p/WHpC0x6n6XuMrqcWO8UtGqG/ZMmp4uoOHvlSuPT63uMnXE3AIBIa4Btytce8es5zgt2dzoPfFMRBspN8xAhuF2dUcC2g8JaYPowGPaJ9IiXF4Y9SLKJcJcXDCN2lRpLSLV7sgIGgvqb2A9DPQKWwaNOmxCXbKbFtbacJ5x00TJhUH1q4/lpv+MBcdeWOOK36sVmyuOOUl0M2+2WU2oXRBuViGv433eAkVbblc/Tt+yoHvlcTIyZo0YUuIyy3k/nQ6rUZjdiSeZNzITOkxpMIQOo1mRg6MVZSGVgbEEG4Im3qdIsW9E4rDVTZbfK8MwFRKbfraaNe1JuIHsm/C0wRML2XtGph6gq0mysNN1wwO9WXcykbxEcTw0c1Ok2tr1Xmn5efR+VpsxZOS10fb6l+OllGp/mNn4epzakDRf1XT3RwXY1XjicK3flrUx8DIMTsqli0avgVy1AM1bB3uy86mH4vT+zvXwtM1E4cGKarHzQa3Sk9H8G3GuzWj6NhTnJf3U72dfff46mu/sDZn/mn/1X/GKZCKO/DZP92Xyh/wAAPEj/AKV85fubLaWJwGGqs9NaeJrCwpoo/ulEKLAsd+IfS99FJJmY2ltCrXqGrWcu53k8uAAGgA5DSCRQsHDRxa23Kqt712XZeS9W2dPK5abLsKKKKWBQogYopxI4Gaz9GeF6zaFI8KYao3kuUfzMsyM0/R7bAwlBihHX136sH9VSQXLnkSSQP2b8InPGcsbjDd6L16/BLX9Nx2CudN7LX5fyUHTypfH1yu4VXy/xsb++C4EmrTxJZhnC0yF+sMzKbeGYQ7pjVpVcRno0yidXTFr5u0FsxvrvN4HsPCC5dmy27OUj2gQbm/cQPWXIpUvb96FpzXKysNL5m/Kpb1S//bN/s/YzLTRSPoL7xKLZWz1qJSpFgM+LAJYgZUWmLsb7h2z6T2Bvkulq1Ld+tT8Zkf1fiHjcIrzf0/kucNUrZjKfR5zDsP0UY75r6GJwwA+epaf+sn4wpMfhh/49L/WT8ZhvisrLdIz+D6Jpa5H/ACJpcBsemFy5RbRx3cD93pFT2ph9R19Lff8Axk/GS4ba2HBX+8UuIPzycfOK5pSkuY60WOHwyjcIXTpiVibXw1v8xR3/AK+n+MmTbOG/6ij/AK9P8ZaxLbQCTLGol1I7p49+lbsLhk5tWY+XVgfEz1b+2sL/ANTR/wBen+M8i/TBjKb1cOKdRHCpUJKOrAFmG+x+zLuHHfE45VspfT+SpxM14Ml8PqYItGlowtGkzZMccWjSZyKFRAooopJBLhsQ9N1emxR1N1ZTYg8wRNPQ2rhsS6tiQtDEgg/KBTzUaxB3YmiNxPF156iZOKIzcPHLq9Gtmt9enmvJ2hkMjj8Ox6n/AGZs7ngP/k//AMzs8rimd/4zL/vS/X/kP/Ew/wBC9+goooprlQUUUU44UUUU44U7FFIZzEJ2KKR0OW4jGxRQ4bATOxRRRwIooopDOOGcMUUBkoU6s7FAewa3OGKKKSSKKKKQcKKKKccKKKKccKKKKccf/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExMWFhUXFxgYFxcXFxgXFxgYFRcXGRcYGhcYHSggGBolHRgYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyYtLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEMQAAEDAgMFBQYEBAUCBwEAAAEAAhEDIQQSMQVBUWFxEyKBkaEGMkKxwdFScuHwFCOCkjNiorLxB1MVFjRzg5PSJP/EABoBAAIDAQEAAAAAAAAAAAAAAAECAwQFAAb/xAA3EQABAwIDBQgBAwMEAwAAAAABAAIRAyESMUEEUWGB8AUTcZGhscHRIhTh8TIzQhUjJKI0UnL/2gAMAwEAAhEDEQA/ALtk7EdWAcXZWmY6N1d03J9rbHFIZ6by9lgZaQROhnRwPELQ2Fj2OpikSA7KWw4wD3swE8DJBUdr7TyM7NsZu7OhktcHZnEbzGknXzzMLcMrDwMwT1K5+rhXtIDmkEiQCI01TUsO9wJa0kDUgWG9GU9ohubLTjMZdLpBs62mkumL6aqZ2tJksm5IDnBwBdEiC27bCBYiNbqOBvUUN3rLlJa9Pbjh8PhmgR3YkRcjLY8yg8bjTVy5tRvmdzR82k/1FcQN6BDYsfRCJJJJUqSSSS5cmc6Fb2TgztHDKzi6w+5QzKgzF7hLGZZHEucB8pPkhsZ7YODu6xrgLibiRMevrHBStprV2HYG1W95Uy3Jq22w0wGhvN5I8mgTKZ3tKWm7CRxaIHS51WPhdstLyalIOzEAkzLd7ojUn6RNgtPGsoF4ph/vDMGsGc0m9JhrjbU2B4m8hEWWuzZaLRZg8p91pUPaOk85KlMidHCCfEI9mBNQF9JzXNEyZmI3EDQ8jC4qtgGtcSCxwF47riB+WSR4eC0sDXqUnirTmSNDBZUAtE/FwnUTv0SuaDkq9bs6lUuBhPp+3LyW43CHe8+AA+cq5mzwblzoGpkeQtqtTDYqljQKtMBhAio0xIO/QXnj0TUKIq1OznK0DS0njvmSJuNIVdwdjwtPPrVZD9nNN0OF+upWHicPlaXBxteDB+iYIvbFPIKjMwdECRHEA6EwZm3JDQjfVV3thNCUKcJQhKSFGFKEqDC8hrBM79G+f2VrcIfid4Nt66/JAkZJwwqhxA1MJhVbxnoCfktmlskxLWtGWxm5J331sD6Kqgwu5CJJ3AIF0DEclJ3JWZ2o5+R+ymx4OhBWjUqjd7o0PHjfj+iBqD+afyj5lKDIyQLAFGElOE66UsIRJJIAlwaDEgmeilUIEpnOA1UqbHO91pPM2Hqj24RjWNcB3iXd43No8lfSaAA5wMF0W4b946TNkneA5b49YU4o71ltw7zvaPM/ZWMwLj8fU5bD1WtjKdNz2iiN1490DSbn/Lw3zvUaVHtHdkw21LuPPlvjoi7FjwNzTikNyxq9BzQXBwIAJuINuhUGmy0NrUTTD2n8PnPz3eMrPbong5FQ1GgFOq69TKJViG2h7l9ARPRcBJSNzVlfKMtEse7Oe9Drw4C4boYgEdDzm7CeybKkBpcSOWXX8R3/AKKO1q2bEUhTYDLW5ncSQO4By+oXo2xqIbTaN8X+ysuN4C9jRphjABkud2b7G0qc9pDpvESPNLFeybAS6kA3NE8o/c9YO5dlUFtEKSliFLmuGxHslVkP7WSPhLWmT4i3huWXjaRpmQ1oa8xUY4SzOIvGrSZs4EcyCBPpb2GLLD27swVGktEPj+7kdy4hdbJcZhK7KFRtSmIJ95oJfnB3cz5mV1OMwjbVA6GOEiNSCNI8d6wMDhXOa6mRBEkEZgO7uImQfFbRqONCnmEGAI6ADRQ1BLZByWb2kxoaHEXWdtSoMoaB7zxc3cb5rnwQ+VSxt3sbwBcfkE8KECAFgvuU0JEWU4TQulLCM2Lbs7E92YA/yyisPhyH98RlGY8LExHEEj0T7HpE06NRuoblM6d10cLWBuLozEU3umfeJy20yiLnxnWYlQPewtdf8pj1N/e6vNYQB5+g+YQWGqVTLGGAZ6Cfl4QoYhwAyM03n8TuJ5IuqMo7OmJPxFV/wzWe+b/hGqU1cUYuQ+fr3QwmI8z8deSkMUHUhSDDm0nodZjgByvCxXN/mPuDAaLaaT9VpVKxNgMreA+vFZmHuXu4uPkLKfvHOu5RvyVkJlOEksqOFnqzBsmqPyPPlCrV+z3xXpHiS3+5pA9YUz5wmM4PsoKcYxK2aOFa6iCXHMJgcCTYRlm+Zs67rqquzMW02g2bv56krV/gG6xvBn8o+iqfRIBy+84yXHd+9ygrvgj8YifCd/W/irwZZAYhwYMjdfiPHkqqNB1ng5Y+I21BFj47kQ4Mp2AzvJjdAJ47gha9VziQ7UGLac45LqeKJblvOp8FG6NfLdzQu1XDI6O8XEAuNiZI3fdDQp7QN2N5z/aP1UYVhuSr1LlNChVp5gQroVGLq5Gly4JIV2xKZqdlN3B5p6X96R6O9F6MK7KYlxjcOZ5Ln9nez3YubUYXEGo3MDEgglhNtxkdF0eJwx1b72g5SrIzlexpNc2mGvzGazcV7TObIZhqr43iAPMo7B1zVbmLMpi44eO9cxtbAYt72y4NbvABcZ3S4j1blF9BF+pwDC2mGn8ME8TxTSdVJhAyWPtrbVWmclKm1zuL3ZW+lyhWYrFu98UDxDHO8ri3VBbSw7jVDxMtltrGCDBB3Xg+EWuiNm7HLW05qOJb7xc4uLvMmLcDfggCSExaAfnq6bE4IdsajSWucKZIkjTMYPAmL8gU9TFzZ1o+i0Np0QHdoLva1paDFm5h2kNO8tzXHBcrtWo5r3Mb8VoOrTvjkq20UsYiVl7e99MteDY6cRH2FDtM9R9TdOVvRv31VsKNKnlAHBWwoLCwWGSXEkqEKQCeFKEJXQtb2UcCypT3sf8A6Xd4esrarMAE/wDF965LBYzsKofEtcMjhpfVp8/qjsZjqr9H5RwAt9/VSuNMsuLn7+7q1TfAuiqtYi1NsDj+/mUF/DuIggXdOYuOaI06TuWXUztN3HkZsehNgeRHirKOOI97TQkSIPBzd3XRVW0nsH4EX4fJKY1GE/kD5j2hHYmnkY5xOgn7eqAwlOGNHL53U8fWLy2lMg953QafvorgERiDfyN/jqUlXAT+AUITqcJIYkmFY6arIGYatIcOrTKnClCuzCohdpRxjHU21JAa4A357uqxtobYpmQ0kjeQI8y6IWJgKmUmmerOhuR++aLq02nXwOhHQrqzg6xCuiqYkKbMRSdaPA7+k6+CKpuZugLDrUS05TF9JsHbwHAe66CCHCNUv4tzQRc7hPvNdwPEc1C7ZwcifMpm1y3QeX0rsTUz1nEaNGUfM+qaFHD0srQPPqrYTQAIGiqvcXuLjqmhC7Rpk0zGouPBGQkWyuBi64CF3Ww8b2zaTgHZCzODfLmN3NPMGfILZqGbLzrYHtJ/BUX06jHvAcSzLEBrrkEnnJ8V3YqTDtzgD5q6HDML1VKu2s0OBvAnx/dO9gm+5C4zH02OY15gvdlYAHEuMF3wg5QAJkwEfXaIQWJrMZ33FrTBAJ1vqBvITlTNWDi8bT7RwacxyhxEHSYkHQ9EbgnAtnyQFXE03vaGOaXhoBAO+LxOt5utOlUBbAskCkdZB7Uw7nupVA7K2iS9wvLpaQxo3RNzPJcy6kS8vdc6CdwW7tStUY915a4AQRpA4rJdcyqtaoMgsLtGuKjgwf4yOcqMJwE+VPlVXEs7CownAUoU4QlGFRWohzS070sBXJ7jvebrzHFXgIfFYYmHNs8ac+SIcMimAha+F2e2pTc5zhabWiNb3ta1+q5+uMmpuB3Sb5m6FjuPVEM2iIOaQ4agTfdbgmoUXVHZ36fC1SkgC4j58E5vkls7DZRmOp9BuCMAVkJwFWc+TK4NVcJ1ZCZLKbCsWEsqlCeFelZ8KivSJuLOFwUZs7GyQ74mmS2+7eIuoQh62Hk5mmHDeuB3p2mFr7cxjKglwytAi+pmdLxNgVh4WmXHO7gAOcb1NtBzzmqHTQf8IsBFz9+aZxkpQnhKFOFEShCrhPCsAUHuA1XSjhQe1m/yndF6bg3zTH5WkdHNBXkO3NuOpsJbSFRvxHMRHhGnNetbIfmw9F4F+yp2ni0Ejw+itUgQLrY7MBAcfBW4gF7MoMcxr4LOxeBpgl2TtH8anfNtwn3RyEI5lZsqypimAbpUzStYEjJc5V2e113UmW0huXT1WhhG6NiITV8S0XJv+4VOJcW0C50jMYtrHh4eaBdqlq1MDS86LD9oKoLpaPjHjeyznCabnzJIvyv7vJEGDMlxgzfkfunfSaZN7gTG+dD1WeXyZK80ZcZKrp4dpBlkeP2KlgaQDWmLkCVdRYL3J3XKspUw0ADQKMvOUohqYBRqVA2BBJOgGquAVNUZXh8EiIMXi8zCQGUYUTWiO66TMC028VNtcRMH3ssbweahVGcsiYl1xIItzUW0yAGwZFQSeN/eRtCMKVTKXe4XFu8RA5XN1aa4GaZsY6kgGBx1UaLsktcD7xIIBIIJndvUeyIe54Ew7TiC0SRzXW16yTQrDXvGRxMAmItM8+STsQQQMjpOnu7td6rfBfmOcAtbEB3E2MBEvbL6Z3Q71ASmBpoiAo9qf+27/T90kXCZR4huTYVgusCVXQpkgOJMm+tukIiFXTokaOtwifCVfxWWfCFpOMiC6STM+7AJnXlwVhcbgHV8TwESrRREAA6Oseckx805Y2DfU5pG47kS4JoUKzMrZBdqN8700ktc+dxgDd15q3JIIL50OkaGU7qIOaDAcL8L70MS6FCjTkavGmpI8lPBssHEkkzqeasosItmmN0AQpUqeUAJC7NNCeEDhW53PDtQfTd9fJX18Y1thc8PudyymYx9PEU3ujsqsUiLSyoZLTO8E93/AJUlJpQeQARqtHE7La4EESCII6rrvZLHxSFB/vUwB1A913kPMFYxRGDqZXNfwseY3/QqRroKl7M2ksrBhydbnofO3gVu4zAdoczXFruI0PULOxOw8QRIqNnjBC6PDiQCFc2mrGFenLiuUwXs89pBqPJRm1wHRRB7zWi3GTc+YW5WpmQuB/6g4h2HxeGrgkNfTex3/wAbswPUCoT0BSuZLSAqu24jRMX6unOGE79b87ykMOOJi1rbjI3I1mJp1RJIa/fwPMdU5wp1FxyWY9rmrFbDhLSg6dEDSf3+/VWgKZZCcBQlyfCoBqcBTATgJZTYUPWeREDmen7+Si6oeOmaf7hHmJRgCcBdiG5HCg3F24ndAgDXwSNZ0Tuy6x8WWZ+iOhPC7GNybChKlQ3y30j1n6DxRDLieKshPCQngmDVCElZCZLKMLChPCeE4Cvys3CqW0I0Pnxgj6pChz3R8rlX5VOFxeU0IY0Lkzrr6fZSFDW9iI05k/VXwq8XVyNnyXYibIhqrgNkk9fOfuszF4wvMNNuP2Q+Pc4vykzHzROGpkaR0KsNpxcqCpViwTYcndf0+mq38R7EPr03MrONMObIjvltTUOsBEGNDdG+xmDZUqPe6mJZEEgES46tO8iD5rsnNWZt23VKb8FOx1P0tPs3YGVWd7U32GWS8ywTqjQaVeO2p92pBkEgCHA8HAhw/MtBlOoWOe2m94jRgBJ8yJPILqcRs+k6pndTaagbAcRcsB055SfUHerKYgzuOvXj4qJ/apgYW313co++F1MOxWl5JcY0Az875cPMKn2ex7HsHeHMToeC3M4XP47ZAee0pnJU4mwd1jfz8wUJhdsOpuLKrSCNZ18hYjmFsbHt9Ou2BnqOsxxHordTaRSdFf8AGcnf4nn/AIngbbnFdSWriP8AqZhO0whqj3qD21G/0mHDoQSuio7XpkCHR1EehWV7RY5nZuptcHOdIiZF+MblbLmwp+9ptbjLhG+QuIxBrMpU6rKTn4d9MRUpyatOCMpqUwJIEatmwMjcpYfajyBlkG0Oae4ecjceOi7r2YoBuHa0aN7o6NDf1RlTA0yZdTYSDIJaCQeIMWPNYL+0jSqOpubME3mNdftZLOzGVqTKrDhJAOW/duWM9mJytcaIdMbxPiAratEMpipVAYDvBzQToHQLeEroaPBOBFh/mj5hUv8AUXkjE0ccxPvHkr/+ntEw484+ACfNc1/D2lpzDiFXlXQP2Qw1O1BLXEXg2McW71jZ2VA5zD7ri17d7XDUEfuVbY9tUFzJtEjdP8FVH0XUyA6L5cY6H2VRCeFKFKEspYUITwpwnhCUVGEoUoTwhKaE0JKUJISuhYcJAKQCmAr0rOwquE8KYCcBCU0JoQtRueq1u5oLz4aesIwBC4T36r93cp+L5+wUtG7kSIBKwqt6hPNHUIIj0KCaZdPFaDKYIVxZb11fsNrWknRlt49/zXVOHj+/QrkvYYOD6gJmWDXWx9dV1/7heb7QH/Idy9gvUdlH/it5+5Qj2/6bjm24I8pH9qqqU4KJc0T6Ho60/vgFGk2WNJ3tHmAqREhaai39ChdqbPbWbBs4e6778RyRuVKLcxcdEWPcxwc0wUtSm2o0teJBXn+KpOY4seMrh5HgQd4PFUtEXI/RdvtXZorsjR4ksPA72nkVxjgfdgzNwdZ0uvUbFtY2ht7EZj5H1ovG7fsJ2V9rg5H4PEeq7LY1DLh6Y3kZv7iXfIoiqLSiuzAAA0AjwCryaheWe4vcXnUz53XsqbBTYGDQAeQhU0nIloktPP6EfZczjvaENP8ALYHMytPaPcabDmGYAd03jMe9Edm7gtzZmM7RgdEH4m/hcPebPxQZEjWFK/ZqtNge4QDkg2q1xwgot4l3T6fqfRZOPpU6Lm5aIHavLaj2tiCRILyNbwL81tjef3ZD4rDdpTcwkjMIzDUE3kTzRoVO7qBxy18NfJR1mF7CBnp1xyXOVacEhRhGV6Zy3MuaSHGIkttMbp1Q8LQqNwuhZoylRhPCUJ4UcpoShNClClCWUYUISUoSXSjCxoTwoYl+VpdwV2HwgdmL+9DSY0aDb4fvKvaSVnht4Q/bt3S78on10Uz2kxDRpqZN+Q+6Jw9KTpYAkjSw3Iqp2Jo2/wAQ9c0zBtm/y8d8xdSMaHEgab0Q20rKyVPxDwb+qqwuH/8A5i8mXHENk6RBDQPn5rVc3IP853a5Z+blRgcI5tLE4cmXNPaN9HW8WeqQPIGMZAtnwJg8rjrOZlPE17dcJ88/hcw1sTyd6H/haFO3QocUv5lVnGSPAyPmrcI+RlduWiVguK6T2QcP4jqxw8iD9F2JPFcJ7OHLiaZ5m++7Xfou9kFYPaTYrDwHyvSdjunZyNzj7AofEMm/XyP7B8EsHemBzcPJxH0Vjm7lRs8w0jg5/q9xWeDmtfRPjcQylTfVqODWMaXPcdAALlee7cqltOjiGYbsq9WqzsKhfmxJEtJ7a1mvaYyZiBmaCBu6v272TUxeCq0KUZ3FhgmA4Me1xbJsJA374WR7NezmKdWbice8udTAFJhLSQRoTk7oA14k3Ol9DZBSYzvXOFifxvJgWsNCT+RJiBxVWtiLsIHPdvv7cV2D2weS5b2jwoZWa8aPueTmkZvMQfNdY9tuiyPaajmozvaR690/NRdnv7uu0b/xPP8AeFD2pS7zZnb2/kOX7SFsuWftxzm0KrmPDH9m/K4kAB2U5blFYKpmpsdxa0+YCvhVAMJvofZXicYka/K4PZlCo3AfymNOKa3+ZTqZnuGV/dexs5mnLBa0bnAXICr2Tg67mYfEUagont3MfSD3mhWYKjwXd7vS4Z4kfE2wyhdPj9nYl73FuJLWGIbB7o+KHC54+kwqm7PxFNzMtYVGZmlzagvAMuLSZ70aXF1qu2rG0gubJJOuRmWyRBEukTMf+2UINlaACHjLiPWBB8LHRbFEz0H1v9VcXT0Qb8SxuZznBrGWvaSFnYj2lYBLWOI3FxDAema/os2jSqVLME9b8vVCvtFKj/ccB1uz9Fbj2tZViwFa39bWz6gefVZ7mwYVf/mRlVzWuotIDpB7SSHD4h3dfFTxrKhlwIa2RzcZnwHqtM0qgpNxiCLctPS3JZorUnucaZkZ5HnnvMnq6cQLkwOaoONp7jm/KC71AhQpYYTJ7xF+93p4ATvOlkbjsA6mA4uBk3toTPkNPElBlGZN7dcUcRiQhf40fgf5D6lOcaBq14/pJ+UqwMygEi590RPiQq3gg94EHn9/EeaUMaRIFkMTgo/+KUfx+jvskualJWf0jN565Je9K1NoD+W7p9QtbA4UF72OMCI4TedY6b93VAYunNNw/wAp+S3MHh21abHkTmYP9v6lBjja03+o+fJIxklZ9RgY14EmXQCRq0cDAnS/VOykKQzOHePujhz6rTdhgIMTlFhwJ670HVogHPVMnc0fJV3PlxBETeNTwHsdNFIacX6HH6QDabnnSTvUMI7s8Yxrn5u1YadtAbQJ/pjxRVfEOIAAysdJAETAsc0aX3LF21VNNra7QC6k5rwDoS0gwrAY98sdaREe089AlpvFN4IQ9enFUOGhlp6tMH6KFZkHMNVqbXID4bo45wf/AHZeI8HDzQD3tm1+J0HiVotdiAdvWDWb3dQt3GPhF7Lf2dWk8uAaHtJncJvfhErs6m3cMPjnoHEeYC43DYOq4dynbiCI80WNhVyJJaPCfqq9fY213Aum25aexfrKTCKVOZOoj3LfddINv4c/GR1Y8euVN/GMBzg5mkmC3vDnoufd7PVf+83+1W7Mw1ai4tJPe0IuDG6+hifJUNq7Naxhe0m2+PgBauzV9sxxWpgA6jT/ALFdXhsQ2o2WEGPPxCumbrJwzXDvGZ/EAA8dYs9qONWLkiDExpfRw5FZUrRhEFVOMeY9TCi+oWgwC4jQCJPSSAud2ltWqa9ShnpsnI6i6YLpdamTpJO62kXlSMpl8xp1/PCTkE9Ok55/HdK6Voj6Kxc/j6gwzC8ubUcawqZXatGhcxsy4gkCRpmFrLT2bjm1SYqMfIbUbkBswgC5Nicwdw3WR7shuIZIvpENxtu3fG6PvWPJFlVvcAbqTjdYXthijSwmKqN1ZQqEdS0tHqfRIBiOFRGwlcY3bT8VUzAEy6abBuBvK3cN7Ml/frv6MFgOp3+Cxf8Ap05nZmpaTYcgLfOV6BQdIXqaDWgYWjKyzKHZ7X/71f8AJxvfID58MhlCxnbBoN0p/wCpxPqUZRpAs7IcRlk+klHVKaGq0N6lfTaRDhZaB2ekRAaB4ABA1KWSnB1ef9I0/fNSpUyGh9QkgCGNO+w8hYW/ZObTa8ZnfB68zxQr6L6hzO7ree4dFh12mk4sJsczv3AclQdTLXRFx1KEFc5xU1IMx++G5XbTrOf33DJDTA1J19NNw3pdsxv+GJP4j9AgNouOR28m3mYTMe4jCLDryURsM5XP9keCddZ/4e1JH9e3cm/TnehIR/svW/lupHWk4j+l12n5jwQcIDGzTeKnwnuv+hUmz1MLo3qI2uuh2jtWk2wdLuABPluKxf46mTJnmT9SLBO5oIvBHogcRQjvCS3iNRxynfqO6eKJDajpy8EO8O4eUrUpmnqG+OqD24Gva2kPiMmPwtv++iCp1Cy4jSY0a8by38LuIRezqZeXVT8Xdb+X9/VRmmGHHJtx109b9WkFYuGGBfhCxcTtbuUaAc3t6gyMzTZjHZZMa2Glpywuj2Ls1jILiXv/ABOjX/KBZvgFwe2vZqscW2pTcMzBnaHGMwpE1IB4623wvR8MbNIMhwDh4iVr0y0tGE6ddeKs7DTphznR+ec6wd3zyzWxSCuyoXDvRrApwrxN1U9iDxNOxF9N1vULVyoXE0krmSIKYFY+HxL22zkxuN/U3KL7eo4RYCI0Oh6lDOYQ42HVHYZs6qn+iouzYPJNIGipc17hlzEiMu7SIuQhauw2vcHOa0kCL3EcCDY6rebT8FNtK6sM2Wm2waB4ICs4ZGFh7SwpqUjTNJheKZZTfeWwLeoCo9n8+HaylVOVrC6zWSHA375F5DiTMb10NSkOCFfhgSoamwUi0sFgTPUynG0OLcBy43jPKcs+jdXsxlMmc7f7gPQrG9pMlWkcO7vNqjvwfgBBiRvOnQHkjH4AKo4DkqbeywxwcHG1+rpQG6rlG+zbaTmnDVeyYAczCS8GTIgudIv1+UdBsbHuDe+0g3HGYOo5HXxRbcGOCvZhRwWg2mQ6UZbEKwY4H4Hen3VNbFuNskDib+iIbShM+FKQdUghVYUw8EIfaLC4kFwjcN3kjcPGZYW2WFtS0jWw1jiBo7pqqe20cTQ8WI1VTanAESJ5os4eTmJEwBYRYBC4miDVpMF75z0bp6obD43TMQJ0cPdMfI8iitkAvL6x+Lut/KP1+SyXio2XOd/JsoWupvsGwfGVpJJ4SVOymgrMhQq0g4Fp0KthLKrcqnCx6LzTd2Tz+R3Ebltvx4NEU8sHSbxYnnOgHLch8XhG1G5XeB3hZv8AAViezLu5+LiOHHwVunWBkzB1/ZRlpabIdlDtXljPcBzExpxjqt9lMAAAQBYKOGwzWNytFvU8yroVarVxm2XV07GQFmbaYWhtVo71NwcOcG48dPFT2dUALqI0b36Z40394R0BH7CNr08zSOIWDRY7JRqA3pPfSeeDAS5pPINLx4K1sVaCAfDzv7i3j5uXmlFQD+nPwNj8HxaF1GFqrWoGVzWCxbajRUZ7pnwI1B5rdwNaVtNK0iQ9oc02KPhRc2VJME6QGFn4rCyqaYc08fRaT3qhzVGW7lIDa6GxW1S0T2biBrlgm3Ikei5Ct/1BpiplIq0o1zsLd8aeq7CpSQGKwAcIIBB3ESEhc5SsazVEbN2u2s0OZUDwd4IPyWgyoeC5Ol7LMYc1F76Tte7BaerHAghWVcfi8NepT7Wn/wBylcj81I3H9JPRMHnUJTTv+K6k1E3aLJ2bt6jWbmaRHK4B4EatPIhaQa1wkHyKcGckkb1aHhSBCEcwjQpNcVy6EQVS9qTaqtDkCJRCENiDvBT+0WGY6m12jiZtrPHrcanRTrQgtuPe4hlMd4gX4DruUG02pHqFX2q7QVgMpOqv7MWJ/wATgC0+8OH6rqKVINAaNAICo2dgG0mwLk+8eP6IyF5qvWxmBkFFSp4RfNQhJThJQKaFgQXvcMxDWwIaYJJEyTqqcU/K8guqACmD3ZN5dc/coyphjmzNcWkiDYEGNJB3pCkA6XOBJZBERIBMmPFX8Y5dcM1QwoftHg08xvkeXAaEgDgrcHSLg17nOJMGAYaJvEDVKnQa0sl05QQBxDoj0Cag0NgNq92bNInfoHcLoOIIt7cT9hEDeqcFVdUhuYjLJcZ7zu8YA5cT4KVIy9wJqe+QInKBaxOivGEbAAdDmGzt4LjOUjgZ0UqdEhxipGZxMZRcjUA+CLnCTHXpu+lwadVTToHtXNzvgNafeOpLp+SzcY4sp4umNSWVPC7XfNvgVvtoQ8vnUAR0JP1WXtgtp1WVHCWkOY8cWuaQR8kaNQ4xFzbzF/WI5ouYCxzTaZ9bLm/ZjaJp1jRJ/l5BmndUcZHkDB/RdvhaxaV5lhJJe7e5y6/Yu0g8BhPebpzjTxXoJuq/ZG2X7h+uXjqOeY4yNQF3dCtIRGaQsfAuluqJNWN6llbZbdFucFS5wQrsWOKHq4xu5AldCMLwq3vCyzijxCUzq7y/VJKaIRzsQAnZUc7QW9ELTLRf1N1extap7jco/E7XwCiqV6dES90e/lmuK5b2n2G6m7+JoPDHjWIGbw3jqrtm7VqA02VW5Kr2l7Q24cAXA/lPdd3Tw5oz2g9malZhAqOkatmx/RZlPCOp19nOfudUpuP9DAAeri7zVRu1sqH/AG7Z58Ale8gLfZtYfFB5jXyUzjmnRw6Gx9U2O2FTc8kd0nghf/LjfxHzKQdqMH9QulD+Cm/aIGqhU2wNzgOpVNLYmQkPY6oJ7rhBsdxBNiE7/Z1n8xwb3g4FnAgAWjgTITHtKnP8JTW3BPS2uzVzwTwC2HV3tYXFggNLve7xIEgER9VnnZIJqQ3LLKeWY95pJgx4IypUe9j2mm5rixw3FsxoDKpbVt3fMDQBGt+EhK55dw6KnTxWZwa0TYF5mzZExzdyUcNiar2hwptgi3fM/wC1RwtB1IgASx2o3sdFzzafRQ2VQyZQaTmuggutHH8X0VEhkEjl6zr96Z5lBikT17ojtK3/AG2f/Yf/AMJI1JQ4huHr9qTDx9vpZcKp+Gk5pP0iCCPU+fJEwlCsgkZKrhlCDCm1xNrxFhwupOwsxfQuP9zg7x0RMJ4XYyjhCEGEIuHX1Mi0gzujifNP/Cb815kQLSXZj9PJFwnhDvCjgCjC5j2ur7uA9Tb5SuqhcJ7RVM1R35o8h+qs7C3FVHBV9tdgouPLzWPhWQ31UqRIMixRIZDPzGPAQT6x5FUikt1ed0uu52PVcaVJ4d3nTM6SHEbtNyK2g14AJeI3w3T1uqvZzDThqPKT/rct04QEEESOC8/V26u17mB1gT7le02cl1JhOrR7BctiqZYRLpB33i+k8FF7y0hu92lrHx08F1lLZrMuUiRungmq7PYAO7Ld44cCOBSjb6w1UsrlqWGqkxkdffaD4z9Fp4PZL3akDkLuHnC26bMtibHQ/dWOAJhwg/PoUru0K7hAMeH3muJQ2FwDWXDQT+IyT66I+kFSSW63HH7qym9VA6TJN+KUpFgmDobfYrJ2ps7tDTB1ZUDuvPrZa1b5fv8AfVSZ3p8D5FS03FrrJSs/EDvKuFfiRdVQlq2efFIBZNCDd2kkwYJtyDXDdzE+iOhPCUOjREtlAta4uE5oOa3ebAkwZHgIN9OaixlRpae8QGiRJMuyunU8Y9FowlCPecF2BA0e0BAdJ1uLzMRpwObwhPh+0lpIMQGm++JzR1kI2FKEC+dEcHFQhJSTpJTLMTpJKyqadJJJBMFIJwmSQRSK8/2t/iH85+iSS0ezf7h8FQ7S/scwqzo3of8Ae5QGqSS2FgHNeh+yX/pWf1f73LfakkvLV/7z/F3uV7HZf/HZ/wDLfYJUdPNPV913Q/JJJI3JTaqh/wDh+H1SxXut8EklEcuQT681ZuPRD4ZJJE5hAZFEbz0KfD6+fzSSUzMx1uSFD4vcqUkkK39Z5ewQbknSSSUSKSdJJBFOkkkuRTpJJIIr/9k=</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glenn Maxwell</t>
+          <t>Marnus Labuschagne</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3053,106 +3053,106 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>72</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>36</v>
+      </c>
+      <c r="X21" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="M21" t="n">
-        <v>10</v>
-      </c>
-      <c r="N21" t="n">
-        <v>40</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" t="n">
-        <v>15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>29</v>
-      </c>
-      <c r="X21" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYVFRUZFhgaHBoaGhwZHBocHBwcGhwcGhwdHBgcIS4lHSQsIRocJzomKy8xNjU4GiQ7QDs0Py40NTEBDAwMEA8QHhISHzosJSs0ND82NDQ2NTQ9MTY0MTQ0NjQ0NDY0NDQ0NTQ0ODQ2NDQ0NDQ2NDY6NDQ0NDQ9NDQ0NP/AABEIAOgA2gMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEDBAUHAgj/xAA9EAACAQIEAwYFAgQFBAMBAAABAgADEQQSITEFQVEGImFxgZETMqHB8LHRB0JS4RQjYnKSFkOC8USishX/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEBQEG/8QAKxEAAgEDAwIGAgMBAQAAAAAAAAECAxEhBBIxBUETIlFhcYGRoSMyscEU/9oADAMBAAIRAxEAPwDs0REAREQBERAERMLifEKeHptWqtlRBcnr0AHMnYCAZc1OO7S4SibVMTSU9MwJ9hczj/ar+IWIxDOlE/BoarYWzsNNWblt/La3U7yGfHLDKST4XPnoNzPLnp9CVu3nD1/+Uh20FzubdJ7odtcC5t/iFXkM3dzf7b7z551Ivow8De/iOhHQjXbwNlK1mAvdTtysdxtrr9IuD6kwfEaNW/wqqVLb5GVredjpMufL/wDiGAzI7I4HzKSC672e1rkHX0vpeTPsn/EavQK08STWS9gSSXA20Y6ty+bXlz0Jix26JhcM4jTr01q0mzIwBB1B15EHUHwMzZ6eCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCcU/i72jL1xhKbWWmP8w8s7WOnkptffvMOc7Q72BJ2AJ9p8u8YxBqValRr5qjsx8yx0vPGeowadIX0Nz4GZGQMLHRhsdvz7TK4Vwl6oYoosm5ba/QeJtNjxDgji3cN7WPiD485HcS2Nq5pUOh5EHW/UbE+ex8z6YlcX1G3Mcweh/P2kjXgNVwGC3tYHUX/fkD4GZuG7FVX1sRprpuPQ6w5IKEmRBMQee4N/MWsR+dZeZ7g2105ev2v9ZLMZ2LKag3+0jONwDU+6b6aG3uD+feeKSZ7KnKKyb/sN2vqYSoO9ek7AOp+W3cBYdGCg2PhY+HfsBi1q00qIbqwuOR8QRyINwRyInykmjGx39rzsn8JOOkl8G5JyqXQ6a2IzBud9Ra2lvHUyRA6pERJHgiIgCIiAIiIAiIgCIiAIiIAiIgCIiAYfE6gWjVZvlCOT5BTefOGLwjOwItdib/6c3fP0vPo3jNEPQrIb2ZHGn+0zinZfC53dyDYgL6n5/wD6gD1kJuxOCu7El7L8LWnRTSxOp6yTpTBFiAfOYmGQKAALTORwJm3ZN0YqxUUVGwHsNp5KGXWeWaz/AJvDZJRRrsat5E+0PClcZrayV16omtx4BH56Ty+RKODkmOwJRvzWbfsnjvh4qg5a1nW9uQLa3tYkam/W823aPAZlzKALX+gJkUwdMmoBzLKPc2v4cpohK6ME47WfVMS3TWwA6ACXJaViIiAIiIAiIgCIiAIiIAiIgCIiAIiIBh8Uv8GrbfI9vPKZzHsZTHwC1uZ28hOhcV4jTs9AtlZkYXI7ozKbXbYTnfAsSaeBzquZszADqcwAuRKptNYLqaad2SOkepmfRoCQKrisYpDWW58QB1sB9t5ep9psYhCvhzbnkAJ/45r/AE5bypRNPiexPBRPSW61DTWYfD+JGombUX8Ok03aTjVRBlpi7HQcz6Db3MWXBPdbJsMUFGp+00+IxKtohuek0VLDY6vfPUIW/eCDNa3LugLf10lH4IdQtV841yuAvqBv9p5sRFzb7GdjKedCOY29BtIXgKQ/xKg7Z006jOLSVYQuAVfUjQnqJGa1YpiQQL2ddBpfUHextJwwZ6ivY+lYnOcF2urvXXUFNSwAFgOim2ZiOt50QHnLoyUuCudKULX7nuIiSKxERAEREAREQBERAEREAREQBERAIdxHXEOCN2A9MlwfpNTTwa0kKDYVGIA0Aza7dPDxko49gtRWXe2VvrlPpcj1mgeoHQMNO9qOhtaxHL1maaabOgmpQTXbBpq2HqO7gu1FSjBWQEtmsQoLKMyKDYnLqethaYXDOFOvxDXqOSbBAztU1uupLMRbRje4Pe/06y+kgtfeK4XkoJGx3A9T9p6peWzDp3aZZ4G1mZTtfS++0j3FWzYna4A0W+XMemaxtfr5zf0tD7kzQ10Bck8j97i3iDKrluzBXifCFq4cKL/EBa5ucgUowAVFPcIJzA2a53J5a5ODsgTI7AglmuWK6k2yqfksLLpYNrcSYKSVBIB/1AC/qOXKWcQqyblixX4SvuI3iadrXN2tYyN8WQI+fLctoD06nzt+klGOALaSPcV77BFF2JAUeI1P0I95FcHjS3JGx4J/2St9Sy6b3yk7fm07XRUhVB3AAPtOafw84TmqKW1WjmY9M7aADysxnT5fSVlcp1U7tR9D1ERLTKIiIAiIgCIiAIiIAiIgCIiAIiIBaq0wylTsRaRHG0QLqfmBynxIBIPsD7yYzV8ZwQZGcDvKAwI55Tex66XHrITjdFtKe3DI3hGmW690+s19B+krX4mi3F7m3p5Xmb2OgpXR6wq5j3iALfaaXG0GzsVO3MSwnGAWLl6gWxsMwKgDQkraw2566zV8QxuV/iK9R12PfYL5BFNr356xYOa4JlwfFLUpKwFmF1YdGUkNLGMM03BuMJTXLlsGN+epP819b895tMbVDLcWI35zxnu5WI/i61rkdLDz5ff2mLwfBValUFKbNa/ygsBdrakbestY57kgXtex9/Hf89J3/DRR/neAX1u1T7iThG+DJKdm2SngHDBQpBf5j3mI/qO48htNrETSlZWMrbbuysRE9PBERAEREAREQBERAEREAREQBERAEt1EBBB2IIPrLkQDmCFkd6ZBBViPHfQ/n6TV4qkQzlELqticratcH5b6MfM8hykn7Y4NqVZcQvyPZW6K1ra+dgfQzWYLEK6leY0PjzHh+CZZR2s20pqSsy1g+EGrSIp0yysLEq1PMP5rFSwynqCOUrX4S9OkA1FlAFyztTXmL2GbS/TeeyyIe9mVtO8hyk8hqN+XvLT4hHAILt0zEsenPae+Wxbb3X4NRSpjOQE7gJu2YW3tmXw8egvMrGH4a5VY5eXhcWImdhUAuxtc3tvtaRfi+ONioP8ANa5PXzEhyyM2orBR6g3J8b+R3sPT6+vQv4Z2C1xzHw7+oYn6kzmIq2tfW2luvMD3v7Tof8NcTZ6iE6sobzYEk/8A6JlkcSRlllM6NEpKzQUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGJxHBLWpvScXVhY+HQjxB1nIanxMPiHpOSCpA10BNzZhY6gg3HnO0SEdveDioUrIAKtilzswHeCk8iLtY+JHiISSsTg3fBohW+Iny62PntoQDy+sxlOS72UjXa40sNel7+0wKeNembMCr3F1e/I67+Y1F9jPL8RU2uQPmv8A7b35+BPlfylWDVvR7x/Fbg++v9tuch+NxXf1NwL6eJ5eO0zeKY/Oe4hba19RfT38vGY2B4W7NmcEmLpFck5PBewFNmszb7KOnmfLnJBwziDYdw6nvLr5ncgjoRp6zxQwmUba9fCY/EKJsqqCWZgoA5km35/aVbslzgowyTXhfbuvVqGmaSWVSzuA1gNl3b+Y7DwPQyZcC4qK6XNgymzAfQjwM5rSoCkgQG53dv6mtYny5AdPWZ3Bcc1GoGXbZh1XmJONVp54OEtT/Jh4OpRLVCsHUOpuGAIPgZdmo3CIiAIiIAiIgCIiAIiIAiIgCIiAIiUgFLyMdpuIrmWh/Mdb9DYkL6gMfbrN7xDFrSptUbZR7nYD1NhOO9qOIVA9KoNX+J8ZulkNzc8ltp5SqpK2CqVVxnGK5b/RKTY911Vxyzi/0N5jvwWkdciKbD5VAOnjaZlIKVBXY6jxBFx5aES8o67Sm51dqNE3AFLDTSZH/wDNVRoOn5+dZuQRbSY9QX/OsiWJWNM9ADW3tLdHDhTnbVrWX/SNifM6+hPWZ+IQXA/Ldfpb0mLiWkGcbqera/ij9lh9YW3W0t2vLHEMUKSg2zMxyoo3YnkeijcnkPMQjixveyJ32KxwYVKRdSVysFv3gGvrl5Akfqeclk4vwPCtRb4ue9Zjdm21O4Hhy9BOh8G7RBrLU0PX9/3mqFRcM6dGvGyi/wAknieQ19tp6lxsEREAREQBERAEREAREQBESkAShnipUABJNgOZ0HvIzxLilWrmFAZaS/NUIN28KY/m/NRzqq1oUleTsRb7JXZru1fFBUcUlbuoTm6Fv7fqTID2kpmq+Hpq2jOqtY7rqxv4d39JM8NwEHvVhmHRtSQDclj9haRehQqvWruTZVqMiIALKwAS4tt3WygX0HnMFLUqtN2XBVDTS8aMpPOcexJuFPZFHgLct72+0yalcWJ5DTXcdB/eaxWCuF5BPLVSPsw9pRHz1Co0RCtyd2Itp5aD28povg7KNtfQfg6ft7wdBvfT+w/POY3xbfNpqD6r4ddB7CWqFF8Q2Vdud9gOrW666D+4hOcYxcpOyRRX1Uafl5b4SLGPRazotMsagvYoRa1tQxIItzudNDa5lzieAZMoJDAgd4cmtqp+39pK8DwxKSZUHmTufP8AblPdfBqylWFweX6W8Zxp9SfiJpeX9v3MFTRusnOT8z/C9jntSstNWZjYJvbUnkABzJ2tNdgqFRmNWspVyMqof+0m4FjzO5PO8nP/AEnTLIzOzhWLkNbvNy0A2E3eM4fTqizoDbY7MPJt5c+pwTtFXXqUR6fLZzZnP0FpfR5t8b2cdNaRzr0OjenJvpNMwscrAow3DXU/WbaVeFRXizBUozpu0lY3vCeONT0+Zf6T9v6ZMcDj0qi6nXmDuPSczGkyMNiSpDKSpGxB1mmFVr4LaOplDDyjqESPcH7QB7LUIDcjsrfsZIRNUZKSujpQnGauisREkTEREAREQBERAKSzXrBR1PT9zyl0mat6mY5pz9fq/Ahjl8E4R3Mt1ELG7nN0W1lH/jzPib+k9Mt5USs+aqVZ1JXk7svUVHgtPSuG8QR9JDHw+V2dBcOFLroO+BlzqTzygAjnYHeTkCQ+toxHQkext9p0umSzJfBzdfVlRlCcecmJVHfzqDfK3IixNrXvvtGHTINND+X8P1l8z1hsM1Rgq7nc8gOZM6kpKKcnwZJdS1FW0I4v6cnjB4JqzZV0A+Zt8o+56CS/CYVaahEFgPcnmSeZlcJhVpqFUadeZPMky9Pn9XqpVpWXC4R0tLplSW6WZPliUtKxMJtAERKz1HgJmPisIlRcrqGHjy8QdxMgDnKH9ZJNrKItJqzIXxbg5o95SWQnfmpPJuo8fw6y06DWphgVIuG0I8OftIJiqBR2pndSR5jkfUTt6HUuqnGXK/aOJrtN4TUo8P8ARYLkTecH7UmkAtW7IPVlHUf1W6dNtrHRMLzDf89J0YycXdGejUlB3R2OhXV1DIQykAgg3BB5gy7OX9kOP/4er8Gof8qo1h0R22I6K3Mcmv1nUJsjLcrnXpzU1crERJExERAEREAxsY1lMwEGgmZxD5R5iYpnzHVpN6i3ojTS4KTHpY2mztTVwXAJK87A5SRf5gG0JF7HQz1jMWlJc7GwzIvmzsEUe7CRHD8TZFpV2Swzln1Uj4bKzZkUC6gBi/e1FwL6sRko0XOLf4+T2UrMm0i3E6eWq/ib+4v+pMlMj/Hl/wAweKj6Fpp6e7VbeqOd1ON6KfozWWkn4Xg/hrr8zat+3p+81PBsLnfMRouvm3L239pJJZ1Gvd+Gvsp6bQsnVl9FYvE1FXj9EKWBZz8R6QCixL0wS4u1gAArHMSBYb6i/MjTlP8Aqjrtpcm0brKiRtu0zgIxw5COpcM1RRZVIDFhYgEZl0vz0vrbccMxgqoHVWUEsLNa4KsVYaEg2IOoMlU09SnmSsjxTTwjMEQIBlKJlTBjnLVZ7An0HmZ63bJ4simbknkNB9zIx2jod5K3JgVPoSV9wT7STOMqW52+pmBx+hmoZQO8NV81Bb9AfeX6Sp4dVN/f2Z9ZT8Sk0vr6ISuynxEx6y2Zh6+//qZDbIPEn01P3EtYwd+/hPpEfOReTW49LoWtfKCGH9SHf239J0jsFxo16Hw3bNUpWBP9SG+R/UCx8ROfO1mHQ6H1m0/hxV+FjWoE/MrZf9SjvAeY3/5S2nKzN+mlaVjrURE1nREREAREQDFxw7vkQfrMJjNhiRdT5TWq15811hWrJ+qNFHgweKUMzYYHUCurEHnlSow9iAfSaDg+DvSrAjulVoINtXpUqTAeWTlyJkg4o5X4bgAlXJUMyoCWR1F2PK78gT4GWOz2U00GYOy5mLLmK5mY3IZgL6Gw6DSZ6cnCjc8eZG5tNFx8d5f9p/WbyaTiqZq6ryso92N/pPNE/wCXc+yZm16vR2ru0bLhtDJTUcz3j5nX9h6TMlBMPHU6pF6VVUIvfMmdTqNbBlN7A7HntM8m6k22+WaYRUIKK7IivaLtHWbEHBYSyvcK9Qj5WZQ1lOwIVgb6m/LSX+FcGWl/k16qdylmBKqqf5hysCW+cn4ZJZtdjptGB4GUrLiKb08Q1nZy7FCXqMSzjKrAAKcqrpYE6y72twS/EpV2RnphWp1AoJYZiChAAPMsDofmE61GcIThCKxbL9WQkpJNvkxKzfDfNSDMb3Ui6qxJCoS5U5y2bKBYC1wLfMcns5xKgl0NYKSRSRGJAvTZlLa6KXdiQL6jLzvKdkuC1EGesSqKS1Omx23Gdhspy7LyuSdTpoeJ9mFq4hv8O+RHcr3hmQ1MrvUyEEWVcoB3GZyBbLaJOlUcqTbslzyRSkrSS+jpQlZi4Ckyois2Zgihm/qZVAY2PU6zJnEeMGkop1PkJZfVlXpdj9p6Js5HVR9Cf3nml87eQEi3wj091dWUeN/aeKmtRR0Vj72H7z0NX8h+s8Uzeo56AL9zPU/9Fv8ACE8UwuSqyAWCk28Q2o/b0mJiVuT5ST8fwlwlTpdW9dV9j+sjjr3jpPpNLV8Skn37nzWppeFWa7dvhmmr/KdRpYeV9RMjA1SmIwtcaFXRW/21NP0Yn1ipSAbUKQFYgL/NlJPe6G2bXwHlGApoalKk7k3dARbQAMhVg3pa3L2miEsnUemioqUOUk/lM7TKyglZ0C0REQBERALVUaHymrA1m3aai+o8ftPn+tR80H8l9F8mh4pSq5wzBWbN3AiguFVtBmc2UkE94dT4mbbh+D+GupZmaxYs2Y3sBYHSw0GgH1mYYE5k6rcdpNRzcTUAZsV/t19lA/Vpt4yC97C/XnPKNTZfHKaKqtLxLZ4dz0JRluCP0lRKyouI5V7NAG9NzckXD2I3udgCbncE66y1/wBNuveVkzWOysh2IHeBJFuWh/eTxNK1lVY/4Xf+ip3ZFBj69POjAuQCQrqWOXb5h8yk6X1OuszOA4tKrswoIjouQspFwpNwtrAgaX25Te2nm+t7evOJ6mMovy2fqjxzjKLW3PqVY8/zxgmUlvNbT28phuQSLddrMp81PqLj6ge8uU/maWMULqbb7jzBuPqJ7SoCMw2K397SDfclbBdw+7GeMJsx/qYmez3U8bfrK4ZLKBJrsiL7sxeMU70HHSx/4sD9pDQbFr9bSf1qYYFTsQQfIi05/iFK5w3zAkHzU5ftO102a2uPucTqUXuU/XBhth1DKcoC3JJ1vdjZvS15jcXXIUcHK9PuHxC6qw9x9JnPYLrppzmNUAqKyaEqttP6dhe3/jr4CdZQla9nYjR1TdN05Z9GdZ4XixVo06o/mVW9SNR7zLkO/hnjC+Gam29J2T/xIDD6lvaTKbFlG6DvFMrERJEhERAPDbGad9gehEROB1rmH2XUe5eP56RETjy5LioOl5TMDsQbdIieW5I9z0J6iJ4ChMRE8PShnkmIkWeo8TxVW4033ERIEiyz3W/5eeMOO7b/AFW9Cb/cxEi+CRk4jUKOpmTliJbDuVPhFJDO1OHy1GtoHAYefyt9j6xE39Ok1WVjB1CKdH7NT8Pu2/Tl5EzGBKPnXxBF9CG0IiJ9BOtOXLOLSxIlfYCmFq4ors/w3A8Dm/8AXmDJzETVS/qjtUf6I//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYYGBgaHB4eGhoaHBgeHh4jIxgeGSEaHBwcJS4lIyErIRwcJjgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzYsJCw0Nj89NDY0NDQxNDQ2NDQ0NDQ0MTQ0NjQxNDQ0MTQxNDE0NDQ0NDQ0NDQ0NTQ0NDQ0NP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUCAwYHAQj/xAA7EAACAQIEBAMGBAYCAQUAAAABAgADEQQSITEFQVFhBnGBEyIykaHBsdHh8AcUQlJiciPxghUzU5Ki/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EACwRAAICAQMDAQcFAQAAAAAAAAABAhEDBCExEkFRcQUTIjJhgbFCkaHB8BT/2gAMAwEAAhEDEQA/APZoiIAiIgCIiAIiIB8iRcbjUpIz1GCqouST3sPmdJ5x4p/iKW/48ESLjWoy2P8A4q23mR6TlnUrL/xZ43p4ZjSU5qml9rL2udL+eg77Tk63j/F1nWhhvZhmNjUsbAdmccv7itugnCYlh8TkliblmJuTuTbr3MgB2v7ikX3LHWc6iXSe+cJ4sKVK+Ir0SFFyVZjz+Jnb4ib7ADtK5v4jq7lMNhqle39Xwg9SBYm3mBPEzWZd2Y+QJ+pm5MU51GcEbEafWLHSfojw7xZ8QpdkVADYAMWNxuCSBt2l3PzfwrxXi8KMqs2S9wuZsoJN7gXG86LBfxKxTN77LlHJQFJ8jYwmco9vict4a8XUcSoAazdCykntvv6TpQ4JtfXe3OSImyIiAIiIAiIgCIiAIiIAiIgCIiAIifCIBVYvjVOn8bBR1Ib66bd9RIuI8U4YUzUWtTcLuEZWJ/xABvcm0g+MMciplqOyoNXFNczHmFJsQt99enrPDOMcYRql6VFaaAm1tWI1sWc87TlnaOh8Wcbq4ms+VytO6nfQACw/8t5T02RAzMTZfmWOwlW2PY5bfLodtTJCcOrVAL3y7nuechJlsU+xpWo9RswFhsO/qdgOskopAuWzfRf1kleHVB6W05dgbfhPmIwNVrAqSBv+kj1Il0Mhmrm2N/t85ieVwfQ2M3thSmyEdb8/WRq6sRa2vmJ040ze7qBYWt31+nOYq+YDKB5gAfSfKFIW+HXvzk2nhCRoLehi6Ci2ScChBUm1/T620ns/guu7UQGQoFGpzBsxOt73JuBa4O1xPFkJQgHQkjfQ+g5Ceo/w847RI/lySlQjMAfhfut9mHNZKLIzWx6BERJlQiIgCIiAIiIAiIgCIiAIiIAiJoxWIWmjOxsqglj2AvAPLP4wccF0woAsCHdud7EADoLE3855fhqKMGYi43udJY8cxj4nENUIP/IzNryW/O39q2Exo4f3L20Hwj7+chJlkUZ8C4VnqaiyjfvO+w+GAAFhaUvAaWVR31nRqOczyds1440jFMKp5TZ/LId1m1LzaEkCxIitgKZGUrIb+HaBNwJcZZ9tO2OlFQvh+iP6bnz+0y/9OQbKRbX9iWwHXaaKp6C5+UWco5fxHwwOuYDYWlLwHiBo4mizKGNNwDe3vKSNb/3DrO8r0sy2/HWcZxjhpVsyjn+sshIpyx7n6ABn2Vnh7Ee0w1BzuaaX88oB+olnNJjEREAREQBERAEREAREQBERAEg8Xw3tKFRLXzIwHnbT6ydEA/ONTBmmXVl9/wCA9tbW+lpJp0gLD0/GdB4zwPssS43zurjyY3/G/wApVtTAUc7kD66yqSL4k7DJr25W7D8Jf4YAgaSmwgOa1vX7S/pLoJQzREyCW5ekBpszaTHKCN5yixMxLxmmJt1ma05yiYDzWx7TJmC76SFiOI0wbZxmnUiDaRNEicQ4dnRrb9PLWVw4zZtrjnrY/KXvD8Uri49Qd/WSiqZCTTR0Xgd74NBr7pYf/q+nbWdDPPeCceXCvUosrsGfMgQDS++5Gm2k7vDV1dQym4I0mmLTMMotb9iRERJERERAEREAREQBERAEREARExY2gHF/xA4eCEr22OVj9VPzBHqJ5+F91b/u7T0PxL4hotRqUnVwrKQHABF+R3va43nm9KqW97v95XJp8F8YyjyjtMLh1VBoL2Gs+s0YOpdAd9JjiCeV5SzQiHjsbksBvKvEcSrn4EYjqF/CT6tBEUvUN9dt9eQUczeVmI8QlfhAAzKuhXQsSqjMd9jcqCBbUziV8BtJbswp42vf3hYdDOnwGIzKJSYl6qorVABnFxqrjcgglfhIItcXHfWTODOQqswyk7ickiUXZL4pTus5V6OGzEOxfXXW3oWnUcbQuhAJuVPw77bCcTS4Y7sgCqMrKSrag2a5Q23Vhoeek7E5NPsi/wAGMNcWUADTNcEepBNvWdDQwqghk5766GVdPg6sqe0yg01sClwT/seYGwBlnh1yiwvYdftDdM4k2tyDjKIFcudgobz1y2l/4L4pd6mHOye8h7HcfWVWOe2V7b+63lvbXuJn4WZP5lHXTMGQj0uPqB85KMviR1wTxNM9GiImk88REQBERAEREAREQBERAPkhcXBNGpl3yNb5SdMWF5xnVs7PE/DBDUXDa+82m5Jvzv2k5+GjL7osSOlvTtImMX+XGIy6WrWHlr95l4Yru+cMxYXvrrY89flMu6PUmlJF5w1Cq5Tyk7JczC0NU5fOJFSRoxWBWpbPqAdF2/7kWvwqkbXTbQWAIHYdpYu5I1/faYanYzidFnSVWMw7ZciLlA0BNtB0HbtM0QqoW50Fr+UnVKX6mRiVOoN4bs6lTNtY3A13/ZvIa0h8QAJ+Ulot0mCKt7HpcRwdkjJKjdLSTTc26SLSKk2BlktPS84cpUQseB7Jye3zvb7zV4SwbrUUPoxcMANbAe8SfMCWzUwU1Fx08jeXHAcAc5rMLaWUfiZbCNtFUsijBnQz7ETQeeIiIAiIgCIiAIiIAiIgCIiAeaeMuF2d12Wr7ytyzDcfP8ZzuAw9bDjOQHVrXRN9rZjfnPYOIYBKy5XFxy6g9Qes5TG+H61M+6PaJytuPMflKZwfKN2LPFxUZckNWzKCL6gHXfbYz40yWkytlcMCRcBhbTy9OcxcSprYnavY2JvYzbYCRnO0VanwqNzc+QG5+oHrINliZC4tUZ/+NCBfc9B+ciu7ollQOwsPiyi217yatHUnr+9TMsyjdlvJJBM+YfFAZQV15C17Hv1mVWo17WXLYW01vrck9OgmOdevyE+uy23M6kw7NNSiG1U5W62uD5iS8Bii10cZXXcde4PMGVjcUprVWiFdnYZgANAOrHkJPqUfeR10YEhvIi9vmBOS2I8su8N8Sg62YD6zsBONwerj/YfadkJfi4MWfk+xES0pEREAREQBERAEREAREQBERAEREA5/xJR+Frdv39Zz9YTruN081JuosfrOTqdesoyLc1YXsRam1+n2m6it2B3ulh87/lNT6TGm+Ugcr3HbtMzNKZo45g6tSmy0XCvpa4uO4PQnrInCMHRCkVS3tBkJzM18x91kW1gwLaC3aXla2hB3keoisfeW/wBDLE9qO0SHwWGAJObc5ffYWsdRvawFxNWJxFFP/bQM3ui2pGhzZgxuO3pND4dN8u215Iw9QbKonTnT5bZX4bCWqPVYDO51PQDZR2EtqS3mlzN+GGk5yJOkT+FJeoo73+Ws6wSk4Dh93PkPuZdzTjVRMOWVyPsREmVCIiAIiIAiIgCIiAIiIAiIgCInyAasQmZGXqCPpOCrHWx0/OcL4t8SY161Q08TUppmIVEbKAAbAXXX1vLvgXGfbUkLauAA4O4a2t/xvKcypIu00k20W5qXMxYc5hVW+v8A2P0kb+Ztvr3mU2cFmj6TYSJBp4xTpcR7bvJoKRIqPyAvMVYzFcWNmFv31m44pANTcdt4J9SMUDX12lpwvCl2CjzJ6CVlOtmNlBPb7mdL4cSzN2UfU/pLIK2UZZ7bF9SphVCjQAWE2RE0mEREQBERAEREAREQBERAEREARE+QD5KXxZxP+XwtR+ZGVP8AZvdHy1PpLq8828T+JqFTENh6pZKSXVmytmLahgotdb/CH6ZrfEDIyl0pum/QjLxdHm9V76HWaaLvTcOhsw+RHQ9RJ2MwpbPVpU3/AJfMcrEGwF7AE9e3L6yCDLU45I/7b6P6mZOWOVo7zgnFErp0cfEh5eXaS62G1vbXtPOqFVkYMhysNj9j2nb8H4ytQe9ow3mPLhcd1wepp9RHIqfJ9fh2aBwl+TN85cqewM32HcSm2anFFNT4O53dvnJuH4SAfeYt6yYHPUfKfVc8yJJEaRIpIFFlAA7SfwbiCJV9kzWeoDkvzyakedmv6GVaPOF/iHj3p1sKyMVZQ7BhyOZbHz0luPlFGb5We6T7KDwjx9cZh1qCwcWFRRya2tux3HnL6aDInZ9iIg6IiIAiIgCIiAIiIAiIgHyfJizgAkmwG5M5/iPGCdKei825ny6CZ8+phgjcn9u5KMXJ7E7ivF1pKQvvPsFHXlczyvxrhnerTZgCzjKXFgM3JTysBoPKdilO5uZ84jgUrUyjDQ7W3BGoYHqDPCftSbyqXCXY0+4i40zzxOLYk01wByIhYIcwIO+xbz1v6bTT4i4C2FZFZ1fOCRluDobbdNtb85J41wyotUCpsbLnA0bkGPRuomvA0aVKuVxqO6ECxUsRyAbqRYAadLT18OeLqWP1cV3fqYsmJrZ/ZvsUUzo1WU3UkEbESRj0Qu7UQ/s7nLcXsLZrEgWFuh5dZEInpRalEyNOL2O24FxsPZW0cDbr3X8uU6VHBE8npsRrcgjYjcdxOx8P8dD2p1SA+ysdA3Y9G+hmTLhrePB6Wn1d/DLnydMVjJF58vM9m020tBOE8bIKtY0v6lpqy9mu347eoncrtPNvF2KyY1KvLKAf9QbH8/SSVtbckJ1W48A+JWwdcMxPs292qv8Ajyb/AGU6+WYc5+gKFdXAKkEEX076gz8y8QphMQ4Hwt769LMM2na956B4J8RlUWg7G66UmG9jshP0Hy6S3LllHGskVa7rvR56SUnFnsMTmsDxirezLcd9G9TtLanxSmbAnKT1/PaQxa3Dk2Tp+GWODRYRPgM+zWQEREAREQBERAMSZqr1lRSzGwn2vVCqWOwnMY/EtUa525DpMWs1cdPHy3wicIOT+hlxDHtUPReS/c95CEzWnMvZz5fLmlkk5Sds2xioqkEp35zYqMJiBbdQZvpBToGKnodRKiRqxGFV12HrKnH8OSpSdHUe6jFWt7ykAm4+W3OXxUr8Q06jb9JrxOHDqSu5Uqe4II+8nCUoSTTpojJJqjybgPimpToPTVUdH+JHBOUkC9uotty1jFeHq9OitdgpRrahgTYjQn8NOstMR4dNXCUK1ED2q0wrLycrdCPO6mc/hcazqtM1HFIt7yEkhDcA3UkbWHlbSfV4MyyNyxUt915rweZlxuKV7rt9DQomf1lv4h4dQpFDQriori52JXXQkjqNALcj5SnTU3+U3QyLJFSXD8qjNKLizqvD3HzcUqzb6JUP0Rz+DehnUudZ5c7WnR8C4+VslYkroFc65eQD/wCP+XLnM+fD+qJv02p/RP8Ac6qo5VSeg0nn3jPC6oexH3nd4nYjuP3+sruI8PSqpDf9HqJmjLezfKNo5jB8G/msNTyG1ZFyqTs2UkGm3QncHrod7irwzsj+8vvI1mRrjbRlboZ3fgvh16Gdd1d7jqAbfPSTfEnhlcSPaJZMQBudFcAWyueTAaBvIHSVrUPDk6cnyvh+DHmxdS6o8oj8C8TB2KOTpsW3K6a352vY+h5zqMQmZbjXmJ5L7SrSDUWTK9xZX0Kt8IYHkLEqeRUztOH+LKFPLSrFqTIArLUBFmtrZhdSOY7Tz9bo3GXVjVp+NzuLKmqkdfw7HsotvbdT9pc0eIq2h909/wA5zOGrI/v0nV15lSD+Escl5Xg12bD8L3S7MsljjLc6EGJRUarL8LadNx8pYYLG57qwsw5cj3E9jT6/HmqPD8FEsbjuT4iJvKz5E+SPjauVTbc6CQnNQi5PhHUrdFXxCsXaw+Ffr1MhmlJSU5kac+R1E5ZpuT7m2CUVRDWlNq0pJCQycwfQylQZKyOac1NQvt8pNWx8xuOkxdbfnDhtYsj4eqR7p+vL9JkUynMvw/1Dp3HabWphuzDn1mCvYgnrZhFVzwOTn/D65BXo/wDx13A8ntWQjtZiPScT4w4WKWK9oq2SuLm2wYaN87g+pnfPTC46ov8ATXoIw/2psysfOzLM8dgFqrlcXF8w7HtNizvBm613X5W/8lfSpxpnmHC6q0qiu9IVUFwyNsbi3kfW/OWeJ4Y+Lqs+Gwxpo391lF/7ug5aDadtgMCiaBB6iXFOaX7WbfVGO9Vbe37FX/Iqq9ji8L4DCrmqPmb+1fhHqdT9JEWg1ByhUFTsbCxHQ+U9HUSBj+HK6nTUaiZsmszZPndrwXY8cIcIpMDjA4FOqoIA90qLFfLt5aRUwpXQm99iOY/e4kypw0LlNvdbmP6Ty8rzPEUWCMDrYFlPkL/UTmm1TxzUXw/4LuxC8GZUwhd/hzubdffMt1cuwYgKd7emmnXz7TkeFYo+yoqNiMwHdiWzHyvpOswLaTZ7Q1T6fdR+5TGG/UzTxDhdDEqFqpm0ur65xyOVvtz6Tl14LiMM71HYYjDhQrBxmY0xchrNu6a6c1Oh5TvFYAdBznM8cetXDU0dadNtGBXMzjoW/pv/AI695iwahxXRJ7Pz/RyUE3aW5V8M8O0mquaDth3AzI9FiF1FwSvwsp6ES+4Jxl8/8tilCVwPcddEq23y/wBraE5eYuRsbR+BYD+XsquzqLgZrXUcl03A117yR4mwftPZhTlc5mpuP6XWzp6ZhYjoxkvfKUnGTtee6/3g707WtmXiH3iIY5WVhyMhcOxvtRSq2y50DFf7Wt7ynyYEeknVxpKN4N+U/wAElT+5eU3BAImyVXD61mynYi489jLWfU6XOs2NS79zHOPS6ErsU12tyH7MmV3sCf3eV6CZvaGSoqC7ksa3sZZ8tNjTEzxpRRemY2n0az6Jg4tr9fse0g9twanGU35cj9j278ptVr/cT6CCPxE1FbG3Ll+RkeN1wd5MHUqbj4fw7eUVFDDzHzH5ibc3L6faaQMunLl2PQyEkl6EkUXG2Kvhap/oq+yc/wCNUZQf/sEMtWXXuDr+B+sjeIMIamGrqujZCV7MvvqfmBJhe5zcjY+jKG/G87OpY4+Va+3KOR2kyNTW1QibDVRXCF0DHZCyhvRSbkTVXouzMEbIWIDOPiVbG+QbZibC52uTOb8QcKwRo1vZGmK9Fc5Kvme4IBzm5Y+e4NowYYzaTb3fZXXqcnJx4O2QzMiU3hfHNWwtKo5u5BVj1KsUv62BlyDOuLhJxfKdHU7SaNNWiGUg6Dn+cg08wORh89LjqLyxZb3A02I8wb/lNGLpEqpJJIufU72lbjGm+5OL7HE8CwLFwg2T3SemUlfsZ2GHphQO5t+sj8Nw2VqrDd3Y36C9h95OrJYLbkZ3LNzk5EvoaXAzMGIAIsLkAXJsB5k6d5R1Kwz2pKlxe71L5AV3yrcE26kgecl+K6yphqzsbWVSutiXDqyBTya40PKYcLT24cgFFqDOgdTdkcEHfmGJvvoUtNei0qn8TV7vb0M2WcltEh0sRUzpndSrkKbKikFhdWFtcuqjXqekm8RqXoU6guCja3tcalGBtpcNK7iuVfaBQSzC2ZRfKBotO40GwJ17St4r4kqUwaLUgaTqzq+oZlf3wynYFGJUjW9uWkvy6Pra6FT8fkrxZWr6js8NQCFMuzM7AdMxLkDtmJ+cl4trL6iQPDtf2uGw9XqoPzW0mYvVkXqbmebNNXfJpVGdZipRhuCPrLvDVQygj/o8xKPGfDbuv4ydw9rOy8mGYeezD8D6z0vZmZwyOHZ/kqzRtWf/2Q==</t>
         </is>
       </c>
     </row>
@@ -3171,52 +3171,52 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marcus Stoinis</t>
+          <t>Mitchell Marsh</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023_222</t>
+          <t>2023_224</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>138.1</v>
+        <v>114.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>38.1</v>
+        <v>52.4</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3228,55 +3228,55 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>36.7</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI22" t="n">
         <v>16</v>
       </c>
-      <c r="AC22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>1</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITERUTExMWFRUWGBkaFxYXFhcVFxcaGhgXFx8aFxgYHSkiGBslGxgXITEhJSorLy8uGx8zODMtNygtLisBCgoKDg0OGxAQGi0lICUwLS02LSstLS8tLS4tLS0wLy0tLS0tLS0uLS0tLS8tLS0tLS0vLS0tLS0wLS4tLS0tL//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUCCAH/xABIEAABAwIDBQUDCAgDBwUAAAABAAIRAyEEEjEFBiJBURNhcYGRBzKhFCNCYrHB0fAzUnKSosLh8RU0giRDU3Oys9IWRHSDxP/EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAA6EQABAwIDBQUHAQgDAQAAAAABAAIRAyEEEjFBUWFxgQUykaGxExQiwdHw8WIVMzVCUnOC4SNTwgb/2gAMAwEAAhEDEQA/ALxRERERERERERERERERERERERERQ/eT2jbOwbiyrWzVBqym0vcLkXOgggzfkoOz27B1R2TAk0hzNYNeZ0OXIRJNonnqURXQirPZ3tq2dUcBUZXog/Scxr2z/wDU5zvOFO9kbZw+KZnw9ZlVvMtcDB1hw1aY5FEXRREREREREREREREREREREREREREREREREREREREREREREREREVUe2Pf2lRovwdCqflBjPkLhkbNwXjRx7jIjvCm++213YXA16zCA8MdkLvda7KTJ6xBMczA5r5Qec73l7iXOB4jeXTEOJ1Mc+fiiyBK1qtXO6SBJPgAOgAAAC26OGmjGjnOnW2UC5IHK3mYhfuA2TWe4AU3HyP3qS/8ApjEhvuWgARE2IMW8B6LTO0GJUopOImFHqBZxGGw22Zzcznu5BoOkWsOUX0K3NkbYxGHqB9N9Sg8wO0YC1vUBwdwuGouOuq7Wx90qzgWODmWEnumTB71y9sbuvwtUhpljmuBcRYHofqmNUzjRZ9k4CYX0R7P97m4+kQ4tFemB2jRaQZhwHS0HvHKYUuXzX7KNtOo4ym9xME9lU8HFtz14hPqF9KLLTIUThGiIiLZaoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKt/box52cMoJHaMaY+jmeyHHlFi2/NwVC7NwDflLheGwYOs2++f6r6m3z2d8owNelzLMw/aYRUHxaFQrsCyk1tQ3c5oJPcGjVav7qlpCXBdjYtAc/EKWYKmLKC7N23AzNoVqgGpay3jJhTXdrbFKsCcpa4DRwAv5FUywrpteNF2KVJosVxdtbLZVBaR4dy6u09pUsMJeCSel9B0J71w270YeoYAeyTHEwgeunNC10SEzAGCq32jgHYR72MaTLS8OaAHDIQ/MSDq2OQvN9L/T+ArZ6VN/6zGu9Wgqo9ubBNc0nU/eeRTn9u0+EEq4KFINa1rdGgAeAEBW6ZloK5tcQ8hZURFuoURERERERERERERERERERERERERERERERERERERERFD/AGg70vwTKApBpqVqmUF4JYAIJkAg3kCeUyqzq0W1W0gWDiaXQJGWSSABzAM+imPtvoH5NQqhuY06xAA142O9fdlRDCPDn0Q08PZMaSdSBJE8+9RVCYIVuixpynmvGE2XVcCO3NLjBDRnDA0G7YYQTPMhwPTVbm0sSKWKpimTBMEEkmDFi43InSbqT4LCNYwmfP8ABQcgVMY0zwl8Zj3T96rSSIV/2bQZUp2rVqVCHA5ToYiwjUEgxdYKWzcQ1rBUxDa+ge17dbNHDbhvmPmNIv0m029plBDtBY9RzHit3ZuHpOzRALSQQRcHvC1BdEQsuY2ZX5gQKTGFjZFOo1wBcYgB3MyRAJ5clNdlY0VqTagBAdNjIIIJBFwDqOih5ADX5tDlFtTc+vRS3YlHJh6Y7p/eJd96s0nEwDu+aoYljQ0u2zHSF0ERFOqaIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIi5e8Wx2YvDvoPMZoLXASWOBlrh4EKjMQ00azmOd7jw0nkcpqMk9Lg+q+h1RftJwXYbQqZhwVwHDpxG58RUDj5hR1BIU1FxBWHbmNxVEuloDJIa7jdwgwPdFuRWhsnYVWq9tWpOXX5ulUMi83DRrHXkV0/8YFahT4pc2GP/abw5vOF2sBXNBo4XcXNjoJGt58+ahZuV90G8+vyWi7Ztai4187mtaDrhHiG6xm18+fRdDCOrmoKr2gCDxjM3OyJGZjgCCCW/vFdqpLgKlQOFh77i4rnY/aIc2x925HPnAHoT5Bau1hbAxf6/NdLZeatUbTEaG50i9/ip5TaAABoBA8lCdwaZdVqO5MbA/1Gf5SpyrFMQ1c6s6XQiIikUKIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKtvbRgw6hRqQJY5wE8w4NMH91WOXRc2CpPfff2jjqlTB0ADRpAuFcn9JUBDYpjTJlL784tA1HQrZneCrqlijRdI0OoN4PUfAKUbC26TAdUM3uT/XwWhU2L2jJy+fPyKx7M3OFQ2qFv2/AiVBmaRdXAHtNl2tr70usGviSQBrysT53/ALrJs2q97yWMzSetgb8+5Z8D7O6bTnfUc7u07tZJUt2fsxlNvC0AAQPBaOqNAstmseTJKke4uGFOk8Ey4kFx8uQ5AKUqit594KuEx2CrUz7va5hye1xohzHdQYEdCAeSvGjUDmhw0cAR4ESrLGn2TX7DPiNVTrQKrm7o8wsiIiyo0RERERERERERERERERERERERERERERERERFjqPABJIAAkk2AA5koiyLw94AJJAAuSbADqVX+8ftWwlCWYcHFP6tIbRHjUvm68II7wqn3s3sx2P4K1SGOIiiyWU9fpCZd14ie6FapYOrUvEDioX12NMSpN7WvaKKx+R4N80YPbVW6VejGHnT5kiztNJzVdsx3Z1GuOhsT46H1C/aZBlwFiTHcyTHwAC2qNHM2OV/OxNpuVe9zBpFjdo8TqPTxUQxGV4cdhEqyd3aYe2NF1aWzzTeYGYHy9FGNy6zuzykyWHLPUCysTCgOAM6BeWLrr0YFl5wlMwPsWTaGIbTpknQL3UEeK4W+FWMO91yAOS1mTCRaVWmP2n8sxVR7jDaBAYBzEmfVw18F2t3d78ZgSOzdmpE3pPBdTk3ht/myb6G5IsVEqGH7MPJnM4yRNzradBz6903XqltSpTku46Js+lPugGA5vQzH3r17KPscMGObmI2evXwG8gXHms4xGJLs+UHQxInZPA77ncCbK/t3PaRgcSA17vk9Q/RqEZSfq1ND0vlJ6Kagr5axOGDfnWODqFQZgYgB1pB6Wme9p5krq7C3sxeDMUKxDR/un8dLSYyn3NR7pBKqDCU6zPaUHWOw+m8HgQpatSph6hpV23G6/XiDvGq+kUVb7v8AtXw9SGYlhoO0ziX0j4kcTPMEDqp/g8ZTqtD6T2vYdHMcHNPmFSqUn0zDxClY9rxLStlERRrdERERERERERERERERERERERYMViGU2OqPcGsY0uc46NaBJJ7gERcvefeXD4Gia1d0DRjBd9R36rBzPeYA5kKh9799MVtF+R/zVA3ZRaeEkGfnD9N0XvYRYTdaO928T9o4x9dxIpt4aLD9CnOpH6xPE700AWmwCIFiOXMERE/D17l2cJhA0BztfT73rn4jEHuhYqeGj8QvdLCuq1mhnc0m0XOYmb8h8YWYvnKes9TBjSxsQRC7L6PybBuqADtHttoIEZpvpAl37oUmOqmjTAp3e85Wj9R28mi58Nq37LoNr1pq2YwZnH9I2c3RA8dih7GRUNMAO7PV8mLRIAi9+fndZXYUuDCXPM5TYkXLxyBjMGE99l42bQy0SYvUIi4FtPvcV0Td4jQEDv8A/L7FZo05ZDrk/enTpKqYir8ZyCBJ4x1PPyW5svHVWXDpIJBDrB0WzW0MHSYKn+w95qNQBjj2T/1XTBP7RET3GFW1Jl3XPf6DwjU6yszSZv8AhbWZPl+rEesGJ7Nw+Iu4Qd4+e/rfiFJQ7Sr0LAyNx+W7pbgrK2tt2lRN3Z3cmNIJ68R+iPzdQXbW2quIdxmKYuGM92dZJ5gRqehiJtqZYkjvifXl/T4BY6ZuSbgSB5RPwTB9lUcNDu87ednIfZ4pi+1a2JBbo3cNvM6n0XppE9ADHpkOn+o+ndK1KjAWmRM6jlrUbf4LYpCG+tvUT6EdywiSyR3P5jv5jxXRN1zhY67Vi2DjhQf2dS9CofGAeGfESAfBdTa2zTSh4Jc1zeEd4gxPkYPP4nj4jB5m+Bj7wfhp0J7lJd1cYK9Kphn2fTBN9dT/ANLvgQFxcY04N3vTLNsHjeDYPH6m2ne3U2lenwT29oUfdH3eASwnUH+nfDvI6bFxW059XD0MLNsvE1aNXPRqPpkauY5zCTe1ozADWe7wPljY4ekk9bkmI1m40/v7DosAJPwHW3w668pHYLNhXmxUIuFcG4W+z67xh8SQakHJUAy541a8CwdzkAA6RIvYS+fd2sweHCczXDJoSDMg27wLeCvrCV89Nj4jM0GDqJEwV5rGikzEGnT1EEjYCb26QeEr0GHpVfdWV36OJA32MXtvB8FsIiKstkREREREREREREREREVae3LbRo4FlBph2IffrkZDiP3izylWWqJ9u+JzY2jSmzaYgfWc50/ANVjCszVQPv7lR1nQwqu8BYCb9eo6z5fbK3+zOomecHXT4znM9Z6mdWiyGgxPUfHXke/yWUPIggWPq2bQe7l8P1cnomCBBXFqEkyFma2XiBcyWzOojhgxFyPPPKn+2936dbBdo/RjsogTYQ2BaQ5zhFtZHeoAJMEcnA2B1EZvo2tmHp52LtHajxTw1KgQ9od8pziSA0ANGYcwyr2wvbhYqmKa4VqdYR8Aeb6Scs3vqAQN86GFcoVWtwdVlxJYTGuVuY+ToJ2W3WURp7sYx7g1uGqAtvBaW6nq8AX8l18D7OcU6CRTpyZhzpI11yBwJUloYgte+pRDXOZTbmqdm9wdmc0wXniqOeQBmjmIADSTvjGY1xkMeBDiGink4mGwmo2QHi5EnlBJlp8nif8A6DtIn/jFJotdwdIMA7TaQZAI9RMlLD4ePizE8DI27QN9rfWODhPZg/V2Ia0/UY5/xLmledqblUaWFq1m1nudTmeENYSHBrhzuLiQdea7/wDh+Mc8UjUJLYeKj6jpFqTZAYLwWVeEm+ck6SdbamzKraVRlQj/AC73uDCXSWNDeIkCZdUq1IjVzugKr4ftjtB9ZntMSO805WtYAROlhMEbCQR/NFpkNCjEClwkk7uJ2fhVZWeA0k8h93Lp6+uilO6m7dLE4QyajazCA7I01A0ObILmATc9oJkDh8JiWKJOVvV4HkCM38IP9V3N3dvVcJVL2XDm5XNzQCLGQYMQbgw6JNoJC9/iG1XsIpGHCIMeIvv2LlYd9Njwajczb206iFu4zdCq0HsqjasCzfdeTH1ZYHQ2cufMYsJXvau6L2GiKTDHY0zUNRzKYD3F8sBeW34fdubKanEvqAOqvHG0y2rSo52NBuHFjumUkXI5gRb8o0TTEinmu6XFruEOddvCZAEwet9QufTxOJDfign16A7Isuk9mBcZyvYNo+Fx4ZXaAXvJtxm0Mpbi4kj6AtzzdANQCOQ/NlixG7nyKoyu+q0uxFQ4aGumHy5ribCQCGeal22966OHbUpMo0TXEtth+zDHAukkvu4jKYgRcGeShONz1aOCfUdw0sRiHE5rud8y8Hi1Orj3B3eRqfeq+GqCsAGuaRpe7Te+mzz4KWg7C0sXTNAvkOEyR/U0RA36QeS0dqOHavyjVxMdenl4eGpWtRpwepdcnqT90Rby8Dape6e+eU8JFh/pI8Ps9dI1i/UaGPMSb9b8p7LW5QBu+/Meq4lSp7R7nDaSfOVIt0Cw1eN5pgFsuDcxaQHRw8wHRIHQq79nVmvZmY7M0udB7sx+CoLZuBxFQzQpPqFojM1rnAX5wL6Gw+Ct32d1AcM7/mG3TgZ+C832lhyzEmq24dE7w4CIO6QLcZ3helweIZVwDaTjDqZMC3xNJJkWmQTe+gFtVLURFSWqIiIiIiIiIiIiIiIiKt97938NVxva4hvaF2RrA4kMbDdCG+8HQ6S6w1sASbIVbbzONSs4EOyy5rIIymoJYKb4OZoOYCdIe4fSaVJTeWS4blvTp+0eGn7+zH4uuFvvu1TpYVrqNMNqNhzj7rnMa0NcHgANDgXsdmABgGbXVcmIJ8ZtB9HRfxzK89lbIf2VTte1NKqDLHfpG5h71RsCXQcpaDGUNkHQUbtHZ7qNRzTZzCWkAzEX4SPeaRPvHQ6tXZ7OrPewg7NL7D46a9Vze06NNlQZTO8xafLl0N9gxukD+aPHWRNuvQHnxKR7hbTLH1CHtZFJ7KZccoAz0yQ0AEBxIqkWMSFwBBBEROoGk3v1B/InVaOx6hykau4R1PvVtB5KxicO2u00Hd1wM6HQg6HXw5qnTflaXAXBHO4I++IBVsYPfbCYZhDGvque4vcRLaZc6RGepxmA0DMRfXUkLxW9pVY2p0GN/bzO5gcsvX+qbtey972NdiK/Zki7KbQ5w7i8mAb8gR3qX4X2bbPpjiFR8al9TL69mGrzrex+xaTsz2F7tpcXE+Ra3yjcr3tMa4ZWkNHT6EqDu9oOMIsKQ8Gm1mnmT1K1cZvri6tNzHOblcC10U2gwQQdZ7/xVjs2HsZlow8jk6tmP8TyV+YvBbJp03VOyova2M3Zw88RgSGnmbSVYFPsqkczcM0RtLW7OJWzKGMqHIKhJNoE3nYqIqt+cY3oKj/5FnouIcHAwQ6Qe8GQe86fgrp2fs7ZvygllBkDDhzg9heAKjmPaCHSJiNF1cNUwQHDQEfVwryP4aa6P7VYbtaSOf53Ku/sypTOV5g8jzHrKp/Bb01881YqMLpe3saAzyCDfJrBPfqt7Fb2cQLaYcALmo1pc5xc9xcS2Moi0T9G6th3yJ3vUG/6sK8f9VNauIwOyT77MK3xDKR+481oO0KUiaZHL8fY5Bb+6Vf+zx/Kpba+0nYir2jmsa6AIaCBDZA94k+7A10A5LhY/EOD6Tcxj5yACYzFrGEgdSJH9lYHtK3boYcU6+GI7KqS0tDs7Wus7hN7OvbkR3wq6xLg6szq3MbSSJyfG3cr7ajKtEZNLW5OEj5G9wqjWvo1pOsG/Q3+i6FBkNsYPI2HThHI6D8FlpvYCM5ytm8QTE3yyeIwfOdVgcHaCBpzAi4t3DUSfwX41mUyNYILiJIsbNbHhr8dFZBI0VYgbVcOwNuPr1KQkUm1aL8lMuLj2lPhLGSYjLUpVMwEjIRAUy2VlPaOa0DO+eGIdwth8jXM3KfMKr9g7Rwbg0NxFek+kx4osqANDqr6RDnOrS4XJIAlgaIAAvNk7s1HuonOCCKjwJEWDiAY+3vlefxlJjRmaI2btpjnaL3kzddylULgBM6nxjw++nZREXOVhERERERERERERERERfhKqyrtzCMrGpiKjWk27EsJqA9pJLmgTcsBEgdZNlP96MX2ODxFQatpPj9oggfEhfLeHcXvLiZLiSSTJJLhJJ56q7g6Aqm+iiq4g0WnLqdvD/fyV5UvafgWWa2s8csrWR5ZqgIVd767VpYvFPxFFjmBzW5g8NBL2iMxDSRoGXkaKPtJ7p621t1PWO/xWQNiOL8f92OvQH4rs0sIym7O2Z5rj1cU54ymIXnIII16WGl/WxBWpset2WIl2jcRRdfTKXlxJ+PPquiKfn1gG/ouRtXheSR7wbbQkCpBH8SkqjQnjPKCsUXaxw9Qr4pYh1RtXEVa1WlRpvNOmyi/s3VC1wp53u73GI5R67B2+52CxsFxdhmOc1zw15jIXDNwhroym5bpEybmKbB2nVNAANpVsPUGYMc7K9ufk4wRa2l5vbQTDZuzm1qWIpPhnb0i1/ZWyh4yANLhxENnicNToBAHlRSeHBzusz66HZEL2GJqURTcxsH+mIEC2o72Y/EHFwkki5hRnYm8+MxeIw1AVXUppVadUhrB892ddzX2bHuik+1rrt7vV6+I2fiq+JcXTTc1jDBDTRpFj3j6zqwee6BC7Gw91cPSeyqzOXMccpLheKFLDSYAnhpA+LnHnA6WC2JSpYY4Vubs3CoDLpd84XOdfrLit6pEEAX/ACufQOWo1x0BB81E9rA06LRTcaT30cDTdVZDXhtTEUqJObrlJAPJR3buLrUmY1jcTVeaWEoQ/tCDmbiy0ulhgOjhJFzF1ZGJ2TReXU6jczHUWUyC4iWhxIuIgzzF7BcrC7tbOyVmOY3KR2JBqvE02v7QA8euckl2pJuStqZDWweC2xD/AGlTMFEdlbRxNRlDD9viKVGvjMQGvdUHyllGiwEU31Llrs+bnNuilWxsfVZi6ramINanQwdEudYNe9xee0gEgEtZ1Xt2wMA+hUbUa0tfVdWvUcPnXC7mEOls9GkC5tda2J2Xs0PfYZ+yFEsp1HyGmkaYYKbHQ3gcYMAiZlSOAvKrtkmyrbbu1n18JSNetmq1JdldQbRdAaYc1wA7dhDhBywOK5lQjAy6q9x6xoDeBpbqrWxu4tGuWg52UWNDWU3PJdAJPE5xJgSAGgwAPFQilsugMbVw9E/NsyyQZ5QRJ5kq1Rx9JoDNgkk8dw+vktKuBqmXbTAjbzWLDU8xytAJPKC4+jfLXqt//AKxEihUiLTlaY/ZMRrp3BTPZzadJobTaGju+88102OBCq1e3nzDGCOOvlAHmrNPsJmr3meFh5yVWtXBvpkFzHs/abb1iOQVteyzaLn0X0i6RTylgOoBmR3AQI8SuRiWiCDcHlqCuluPs7scTnaeCrSeI/Vc1zDB6i5I6cXcs/tQYum5j2wdZGn1FufRRv7M91cHsdI0vr4ix8uqsFERVVsiIiIiIiIiIiIiIiIot7SqT37NrsY0uc402ho5zVpzPRsTJ6SqV3b2VSFntDyDz08h0X0Ft4f7NVjXIY9FQmxDFQ+K0rVXtZlaYHDorOFpsc7M4SpG7BUf+HT/AHG93d3BeqeEpf8ACp/uN/BYK2IuslKqNSY75VAvfvPiV1Mrdy6FfYuHqMh9Jsnm3gPw181Wu92xXtqClS44AIuA7K6REHU8P9lYR2jDZkR1BkLlYCl2rnViJLzDe5gt8dVaoY2uwFocSDsmfCdFUr4Oi8h5Akbfkd/VQ7dvdjFg/pTRGpyvdPjDSAfVTTDbHqZXf7VijMTNVxBju0XTwmDMZjYchr9q3RReNRHjI/usuxte2UxG5YbhaUQRPNQ6vsCqAG9uXxpnnmZ0k/notR2xq4uACe4wZt1/v4qb1aRPLzWP5PHM/cp6fbGKYIzA9AoX9l4Z5kg9Cf8AagNfBYo1CXMc4Q0NJuLF08yRy/Omvhdm4jjHZO/SGOGLfN3+BVjPoryaCsDt+sB3R5/VV3dh0Se8fL6Kvv8AAMSWx2bQfrOb1J5eP9lMdjE4emxjW3bN/rG5d5m66TaSysw8Kjiu0auIADogblew2BpYeSyZO9Yvlz3DiYXO/WLzHk0D4yuTjdl1H1u2aGtOUNIgmYMzPmfVSihTC2HNGsSqgc5Wvh0URY2vZsAdXa+ghdrCUiBcyukG0zygrVxTosFoVuCFp4oyQBzU93UwOSkHG5vB7jH4BQF7eJo5kgK1MFTy02t6AKzhRqVSxzrALYREVtc5ERERERERERERERERae1mzReBzEetl897NqQ93cT9q+isU2WO8DHjC+fWYaMVWZ0qPb8TCgxAloVvBn4iFs0CXOnkuuylbRauDoFguDK3WvPOyqxC6AMrXrbPaZmTNjqJ8YX7QwrmDgLgB5j4rOHjqtujV71rdbGFzcQ7ExALSB1Bb8RP2LXZt2oxwbWDmA2Ds0sJ7ncvAwu+8k8gtavgxUBa4Ag6g39VnMRqtYC808TOjw4D8+az1arhy+8KP4jdd1MThqpaf1HEuYe4c225ady0m7yVKJyYljmcpN2nwd+MLcX0WhMaqRtx4kzZZ24tui0KG0qFYDSeSyjBMIs4jwMhYjes8lvNxLV77cdVxThHgmH6LKGu6hYhbLssI6rZpVD1XAZXLYlbdDabViFjVSBlNpF1hxVFoGb0XNZtMei/MRj3PFzYaIdFs1t1sbGoipi2A8jMef8Ac+Ss1V/uFhnPruqkWAP4D+b4qwFdoNysXNxb81TkiIilVVERERERERERERERERFRm8DW0tqVmm0w4eXD/L8VeapL2wYJ9PaNKqBw1WWPLM0w5vplPmo6olqsYYxUW+1si15v5Fa+Iw56rgYTaLqd81j15LZr7wtPNVIXSkLZ7Izqs1Ng0zH1XFqbRa+w9QVr5yL9tHiJ+8JCxKllOANSsvylo5j1UKd2p/8ActA7mH8ViyjR9dx8wPuTKFjMprV2swC7gFyto7QpVmluXP4CVG6u0MJS6OP1yXHymVp4ve8xFJkjQaD4BS08PUf3Gk9FE+s1upWHE4SpRdmpS0a5f6LdwW9hYPnbHqCozjNrV6hgnLJ0FvUlc44ZxN/WdVdbgapHxBU34poPwq0cPvKyoAQ4Hz/BZBtpvO3jcKrBQIjqdPgfvWxjDUbkGZw8yo6mFDXhk3N1PTrOdTdUiwi6sxu22C5PXz0XirtrDm5EHqLFVmK1UsLg90DUz4LHSq1CZLnGL3JI6rb3BwIE6iVH78I0Vj4XGuqVQzDh9dxmGNaXPgRJtyHVTTZeycbW4Pkz6XV1UZGjvvc+QK4fsLw7fl7nDQYeoAOcipRaf4Qw/wCpXssVcMKbspWjMa4iQFytg7JbhqQpg5jq55EFx8OQ6D75K6qIsAQoSSTJRERZWEREREREREREREREREVe+2r/ACdD/wCQ3/t1URau7pUlLvhVNjPz6KPs97zRFCr7tV0qeo8F4rat/PJEWEX6/QeK5+L90+CItm6rBUdb73munyb4BEXcwndPNcOvsXp/6f8APQrzh/0g8ERdCp+8/wAj6hQfy/4rJhv8wzwP/bWxvH7jf2h9jl+ouUP4g7+275rvU/4Kf7rfktXC/oKng37lq4X8fsRF0amtPl/6K4bf5+fyCuD2If51/wDyqn/5leKIuPi/3p6K3S7gRERVlIiIiIiIiIiIiIv/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIWFRUXFRcVFRUVEBUVFhUYFhUWFxgVFRUYHSggGBolGxUVITEhJSkrLi4uFyAzODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAIDBQYBB//EAEkQAAIBAgMEBwMIBwcCBwEAAAECAAMRBBIhBTFBUQYTImFxgZEyobEUI0JSYsHR8AdTcoKSouEVJDM0k7LxVMJDVWNzlaTiFv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAQQFAAb/xAA1EQACAgECBAQEBQMEAwAAAAAAAQIRAyExBBJBURNhgfBxkbHBFCKh0eEFMkJSU9LxFUOS/9oADAMBAAIRAxEAPwDy+KKKVTJFFFOgTiRAR4EQWSBYJI20VpKqzpSRZxGBHASQU4bh8FpcwZSSJSbIFOkgKGFY7EpSHaB7gOPieA75R18bnDbhfdp8DfSFjg5aliGBz12Ca2KRTlJ17hOpiEPH10lIxIa5O7d+fGT0WZr87a9wjvDVDvw0KLpbHcb+BjxKfDM4N84He+mnha5HlLfDuHFwQedr294BtFThyiMuBx1RIkeEjMhktNopihvVyMpC7zr09JHMdQCUjAkLanEUhcxFAbJImEMdJAyQkyGgYickrCRkQ0wTkUUUkgUUUU44UUUQnEnQI9ROASVRBJEokqrOKsIpJeA2SkcppJxTnQloZhMPfWKlKtQ0hmGwfEw3qhCFpyDGram5+yfhEczk6GqPQx219oLUuptYMcpsQbcNQdfAiV1PDsbW1AOnn3yXEYTXT+pl/wBHthh+0QbeO+atqK0NGELdIp6GzHe1lvvtbW0sDsGqvayEDe2nAfkTe7KwqLoqgffNBQpi2UgEeEU8paXDaanhnyfUlr791t/rJtnkoxI3cVOhYfZ7xPaquzaNQFXRSD3CefdJtgthHDJrRbQG5Fvsk/CSsiloxeXhqj3RHh6OdcygngdDoeR75x8E/wBRv4TC9k4ekwJIvuv2jbjwB36QtsDR/ViVJyUZNamRPGouirp4Fzpkb+EyT5JUGhpt/Afwhh2dR+oB4Ej4GR1MOo9hqin7NVx98jmi+4NIC6s8RbxEbVp6Qo4uuugrsRyqKtQfzCSbdYiq9MhBkVNVW2Ylblj3wq6oik1oVDGDuIWF0kVRYaYFAjLI2EIZZGwjEwAcickjCMIhJkHIoooRAo4CcEeogtknQJMixgEnpCAwkTUkh+HoDjB6YtCKbm1oibbGRJxhr7tTD6FOwkeApkkKouToBLSnQVWyWNWoN6IbKn/uVToPAaxDt/AbFEVKiTuBJ5AQbGU1IanmzMQQUpjORcfSI0XzMvV2ez6Vnsv6qldE/eb2n9ZLUppTAVFCjkoAEV4kIvTV/Jfv9BvLWp5dUw7NdjcLmAAtvI0bw/5noz4DqqCACx52tv1md27SUPlW1rqSA3DNc6cJsOnbA0lIcqDrccQBffNNy54prqaOJrdFNhb5tDLqkjHcZ50tOuXbq2qDKMxzk2IHI8+601HQ7ENWTLUzL2sl763FibfxCRKFItY8l6UXlTGU6dy9QDxYXku0Eo4zBVlRgSq5t27Lrf0vMXU2dVNdSLXLWYEXNMaa82O/Tum/wlBlw9ZCAHFNwtrdrs93wkcqVMiUpStUedbPw2Qab7QvPLvG7EWkgXNdgCb99gbeGspGSVczfPqY/GYpwmnLqtCN6pkTyY0+P5/OojGSCmUmA1YZt9b4qp+xT/2yJ0h+0Uvia3ctMfyxyl+VjIx0ZSpTkVVZYinBK66zlLUBoCcSBlhjrIGWOiwGgZhImEIYSJhGIEitFH2inEHAJIojFEmQSGSE4TBM+7dzhrUBTHZFzzO4eAg6YsgZV84VTDOLcvSIk3dvYYqIQSd8JwyXMfRwTHcJa4TZh4kRU8iSDjFsJ6O0fnlv3n0BhHRh7UqjcWrOfhC9j0FWoLd+vkYF0c/wP33+6V5yvHfmWIqkW1JtZFjQbiSYYayXF0+zm4Aget/wlK256BdDD4OpkrgV1zhhV1PaZRZgSt+5W08Dvm66QYANQpP7SqoHuGsotp7IWoTU3stN8q63LEdkqQdCDrNDsl3bCItUZXtqvLlpw0tNvHmjkXMvl5mqskclTXqZY0s1zck95J9b75Z7KRRh6BpgAq5BtvuSdT4kSPFUurY30EptnNWaqAKhKKmXKBZSL39ni17HN4xm6G6Jpo3OOormDAWLAE6cZY7KodlnO4AyjpYm+j5xdjbMSwF+Cngumg4TTVBloNbfkY+4wUTkklEye1zlVr33jq777MDe/Lhp3SqwWyTWU9WwzrvQ6EjgVO4+dpNtHGvVy5rAKLAeO8mG7EFCk4YuzvuCqrKt20sSRcym5KctNvkZHF5/HyWv7VovfmMxWwanU0VVPnLsWGmmY8Tu4LKfH4EUjlLBn+ll9le7NxM3W0K51FuyLZ7HXna8x+1BhzdqVQgnUq6sfRgPj6xuSFRX7lWUUikydoDvHxheLPz+IP2kHokHw5zVUH21+Ij11eu3Oq3u0gf4kR2BzoD6QGqJZ1l0lfUFzJiwGCushYQp1kFQR0WAwRxImEJZZAwjkARWijooRA1ZKsjWTrBZxJTEscErt2V8+XmYLhUG9t3IbzLDryRZeyvIffEZH2GxD0rBBvzHkPZHjzktDEsx/NoElK4lthMNYSrPlW+46Ntlpst7Oo46/Awbo0v93buqN9x++EYIBXU98h6OHs1k5VW+AH3RUtcXqNRa7NZCcrjQ7juIP4S6rbMBplc2hbMWI3ACU+DqlCcqLf6xJJ8uAl1WYsy083aC5j3tobRnDwg3q1frs9Kbej+vxJb0KtaSZslME29p23+AHCSVzla3PX00PuyywpVXbeqm2lzodO8CUfSTEEU3Kiz02G/j2VNvAhvdF8PJfiWo1VdL01W9pFrh1RXbeYG3L8LygooFOZ3a3JbWHoIRT2/Rr0ip7Ljgd4P4QfDY7XUWtw+M1I2XIyVmswFGm6XFRwRzY5e643S92hVtQOu9MvjcW0mQwG0bsF3gnXymnxRL0hcakiw5DX37orNJxhJ+RGaX5XXYzQoQvBqEdXbcpzW5kagetoYaAUXMrsW95kRm29DHqjibVZXLN2g/tr3d3eJR1xvG/kYZVEDxEtqTluKY3ZVO9dO659AYzAapm+szN6sZNs17da/1aTHzI0ncNRC00/ZHvEZN/loNLQHrjhA7aSxqpAqyyYsBglUQeoJJUJO6MI5x6FsgcQapCqkGeMiAyHWKSWijASNYQiyJBJgJDJRPSWGUBBKTSywS6RE3QyJZ4RN0sb2gODMMtxlGe5YjsORtQe+TbEW1euveGHmST/uEhpiFbPFsUD9dLedr/CnO/wDXJBLcvqNCxvbSEUsMTrvYm5PnwheGo3XWS0VCgn0mbJvYsxiKnTsCTzv+fOVPSbBF6TOiktlAdRvIXcQOJHv9JaVHa9uG8aeo/PORFjK8OJljnzrcuwx8qPDcXstixZL3vwEmoYeuN+o5kXPrPTNubGF+vprv/wAQDgfr+B498BXCKw3T02DiY5oKaC8HqiDobgwCWYAngbTYU6ecEAgG+hOg3cTw0vM9s2kKZMtsHjVXE0cOx0qUajeedQD5a+sHPKKg+bb39Nzp424NIBx6EMRmVrb8pJA7r2lZWENxVAozJY3UkSBqRtrMtaMxpFbVEr8QJb1gBKzEmWcbF0KmtsPU51KiUx363h9an6cIwUv8vTP2qzf9smxgv5Q8stUhtUgBzAcSl4ZVrAd0EY33woWhTBHS0HexEMqgQWoY+IDAqoIOshaT1mvB3EfEWMincs5CAH0zHiQ02kyyGEiSikuMBpvErqLWh1JjpEZNUMiXWEGknVhfW/lBsINJM1iRKUtx6C1sTePd8j06n1XF/DQn+XMPOdoINJptn7NVVDuLsbEX+jysOcT4qx6sdDG5ukWC1MotI7xhIvvHwkyi/wCdZmZMnMzRhCiJ6gsSSFy63JsBbfc8rTuErU6yCpSYMpvYg3GhsRfxBld0oH9zxBGvzNTxFlJ1mY/RNtMdVUT6rZ2HNW0zeII17j3RseFU+HnmT2aVeT6+/wBSPFrIodzdpodd2498psdgOqe49htV7ua+U0FenfUaiMr0hUpsn0t6ftD8284PBZ/By8rej92WYyrXoY5jY+6U/SbHNTrYfErupEU2/ZbefW3pNDtDAPT32IvY2N7GVm0sGXSots2ZbBebEWUDztPQKUMkd7TtP7/INrTQ3NaimIpLVG8qO0N+7S/MTP43Y1YC4s4+ydfQyw6IHLSXB1Ko61adny332+ix+kNDMntzbm2MA7dbTpVqIJAqilowvoXykZCR3WvMfBjy5JfkafSm6t94977N3+pn8RjxrWUX6ff9x9bCPuy28SBBKmDJIUWBJtr3zS9FOleHx4KlQlYDtU2sbj6yH6Q94ndr7LFFmrgfNqpa19zW0HgZZUnHL4WRVJdCt4MXDni7RRuwatVcbkC0l/dFyPWQV3k2z8MVpgt7TAufFjf13SKrDck5NiZFUwzE33CJpOadieRjKq6R1igWqIBXAMPrGAOI+ADBHSDVIXUgzx8WKZFFFFDBoYhhVIwVDCKTSJEoKpi8Pw7i9vSVqd0Jw17iJmrQaL3D1OEIo6tAFrgXtvhGCaVJR6jkzR7Ew2eoq8B2j4D8gec1eIlL0LQZaj8Tp5CxPxEusRuuJmcQ9aNLh1UL7gq23HjwPGdKNT7S3K8RvK944le7eOHKcQ91/j6QyieI1Eoy3LSGVqKVUIIuGUqw4FWFiNO475570S2YuB2xUw6sSj0iUvvAbKwB52sRPRqYynT2T7jy/PHxmR2/hVG1cPUU9oojeKCoyNY/vIfAGX+Am2suLo4SdecVd/JNCs0VcZeaNTh8LUpllV1yX7AZSSv2QQRpyhGQnVm7iALf1tH4ypZS11FlDXY2UC2pY8AN/lKGhtVhiqNPrGdK6ObPRFMqVGZXTQHIbEWNzK+Ph55ubl6KT/8AlOT8tletWMlmUavrX6uvuXJ2bTKsgAFxbTcPCVvR3B3eqzjWmQigjc2W5b0It5y7X3iClKi4jMq3o1aZztcdiohULcbzdSRf7IhYJuOOcO+vv7/BBubqu5DX2XTLB17D30ddCCOP3Q4o1u2Qwtvy28b8ImEo9vtUavh6QUdVWVwzNmK9YhVkQgbibNqfrc7RWHDzycG9Kv0W/wBNuoM8rSsoemnQ9XHyjCAU66dodX2c5Gotbc3I+u+4quh3T1qzrgscoZap6oVAMrXfshai95Nri1po6GHqUcQ9PDpqwJWnUORHdFva63C9knh9U7pjKew6p2tQd6QpFqnX1EVrqj0WLOAeILID+/NvAl4c8WepKMXKLb1VK60b03a1a6dUUp3alDRt0107G26QbNaib71OgNrW7jM889J2phOuV042uD3g3F55viVNyDoRoR4cJWwy5l6i88OR6A1QCDOIQ8iy3lqJVA3W8ExYsLS0qWAlNiqlzHQ1Fy0BKkHeTPIXMtIUyOKcihkESGTJB1hKGSyESo9oXRrWN4FHpFySYSZZUnuZY0KlhYSrw8PoHW8rZENibf8AR5WJpOxN+3UX0K6egmhxF13ajf4A/dMD+i3H3qV8Md61TUHgQyMPTqz+9PQ+Fj5Hl/SZPHQcc0l6r4NJmzha8NAiVVJ35W4cj+MKRdeTe4+MgfDqeAI4j7xHUEK6A5l5HePAzNY8MXW+mvEfePxnl3TzGYijj8O1rqn+EQNSCb1FPkQe4HuM9RQX+7mPxlF0vwjOKRCi2dusawNkFN2t3BmVQfG3GW+BzrFm5pK1TXzT9/CxeWPPGvNP5M70xp1nwJ6lS7/NEqBmLKrKzAL9LcLjiLwHorhMXXxDY3Gr1Zy5KVKxXKDvbKdV4jXU5jwtNTh/YX9kfCSCMxcdKGB4lFa3+b/KpcvMl2T5Vb3q1dAywpz57fw6Wtn30vuScAfI/nwkgHDgd0bSO/vkq07gjluiYwvb3/2HYOwkNWjmVgqoXschdcwB7+Nr8oTVI05/fGqdQYKpSJA0wmJNVah6gFVygrTbUGxIue0Bcc4HUwLdatWpTCNYqArAg9Y1JST32T3zSUjAtpi7Ad6/j90s5nWK/T56P9GyfE5pU0vRVt76plX0ge1FnKlkV1zrxKi556i+UnuExmM7YFVSpDDcL6a2vqANCCDYnhffPQTYgg6g3uDuI5GZGrsypQqNTyK2HZiyNUDMKRCkb1N1v7HIi15b/puaGTG8MtHdrzb9/L4FHioOORSq00ovRvl7PTWuktHW+mrM1WQDU/GDPilAuD+eUZtnCFHtmzX1VlYEH0lUQb6y4sT/AMtzPctdCbEYst4QRzJnW0DqtHRXYW2J2g7mPYyBmjkgGxZooy8UMEYpkyGDqZMpnM4JUwilA0MKRoqSDQWhhNNpXq8nV4poNMuOidUUto0qg0FYGi45lvYbxzBR4GetMJ4iHIsy+0hDqeRU3B9QJ7RRrh6aOGHaUN3G4vpKP9Sx/lhkXVU/itv0+ho8FO04voRVDYySi9/GRVPGSURMObL6ClktSiHUodzAj1FvWRC0JoiTjabolgSKVAU8AB6aSRTHbQFiG56eYg4rDnOcXB0ybvULpmGUjKpa4klTaaIFufaYKBxJJt/WWeHlzTUVuxc9FbJse6hrXANr7xzMjSpfWZvpCcOcSDUBLZQC3zmi5lJBy6A2LW798ECimqthq7dlWaqS2ZVyqCAw4XLBbDjeauT+jttyjNX2opfj1F01t56/LT6m7pPKTbO2KaVkpsbE06lQeFPItvEmqLeEj2Ntc1qd2Uo66OpBBBIuDY8CNZnOktRWrhiP8JD2uWexI/lSUY4JZJvBPTv6fzRexVOpRej+gXU27ULg2sL6ICLkcc0jO3KnXKWOpOlMGygcb/jKulVIHWPoTaw+AnarqBnzDMdBz8xNaPDYY1UVtXp+7vffzLWht26itRIqqpRxqTYEa6WPMEXnlW2NnfJ6pQkMN6sNzKdzdx0Okv8AEY8k5RcqALWvbv8A+ZFiKJxNMoQQ66oTp+6e4xODA8aavTouy7X1KXFcJ4i5o7/XyMhiWuJWs0sq4tdToQbEHeCN4lZUlyBgyI2aRNJGEiYxyFnIo28UI4jUyVTIo9TJZAQpkytBVMlUwGggtWkgaDK0eGi2gg2idZv/ANG2MPUVqTEBab5gSbACoCTrwF1Y+ZnmyVLG8WOxNRVsjHIzIaiBioqKpvkNud4Tw+PhliutU/f09R/Dz5J2elbQ6YpcjDU843dawIT90b290rTtus/tVCO5eyPdv85abRpUnoJUogZCilbciNPcZlWYgyrDg8OPaNvu9TejRf0MSDv1h+GxeU3BI8Db4TN4R7y1wxvGSV6FiL0Lba22q4FMLZ0ZiCTo6EKSCGGhU2tqL6jWADaNa+4DxYn4SUjgY00COAPuMqS4XFJ3KIDxpNtETYmsx1qN4J2RG1C4KsXZSpupzksCeI5Sxpui79O4ypxu2KCkg7/GWceCEP7El8PdgtLZjK71GObrHN9b57eO6Oz1AQ2Yhhua/a/i36wahi6b6qTca33W7rcZImIHE34RlNO7OdSjyvbt0CaGNqo9SoGBapbNcadkWFgDpppA8SHe5YnU5jYAXPAeA09JN8pEnp1lPpA8Nczn1fU6EIxVRVAfyfNbNc23X4QingByhS23yZHE6hg2hgwOEsMJhxcDdI6VTlC6DqTr5GTSO1MD0/wHVYtrbnRX8zcG3mvvmUqT0P8ASjSvTo1xvDGmx55lzD/a3rPNXeMijzfFx5c0l6/PUa5kRM6zSNjHIqHYoy8Ukg5OgzkUmrOJFMN2bhHrVFpJa7X1Y2VQoLMzHgoAJPhBsJhKtU5adNnPJVJ+E2eA6N1KGGdq9Snhqlb5s9a9mShoXsguxd2AG72VbnKnE544o1a5nsvj1rfRa7eW7G44Ob209/UydEFiABcncBxj7y2xO0MNQU08IGdyCGxDixsdCKSfQB5nXwlGHhwk5600ul7/ABrp6690iGqJgZPWAKDnu9PyIIrQygmZW+za55A6fG0fhdTOjuX/AOj/AG3cNhH3WLUz3G+ZPW5HiYdtHCEEj0mBxeO6iwpGzAhs3eDcCeiYDaK4rDrWXeRZl5MNCJOaFOzZ4TLzRp9NvgV+BuDvmiShcBl85micr3G4maXAYgZe4yszRg7O9eYVSryLMDwnCoGsBh1RYVKaupDC/wAfKeU9Jtl4inVY0zmW+gZdfWenUao5xuJwivvtOhNxdgTgpKjyPD7UrU9KlJh3qLy22dtuk+gqa8ibfGbHF7IAFxM7tHo3QqHtJY810McskXuhLxyWzsNpEH+hhFKmT7LfjMv/AGDiqB+YrXH1X1HhD8JtV1IXEUzTO4MDdCfHhOa6p2SpNbo0IV+JEkAaNo1bjXyM7c8NYA1ND6WKINiLSzwuLG6/G8qq1VbDMADz3SvqY+mp1qqPMfdJqznOMd2Wv6R8UPkKLxastvJXJ/PfPLiZ6LtPB/L8PloVKVSpTAekq1bVGJuKtNka29chBH1DzmBx+za1E5atJ0P2kIg4c+ObcE9VpXX0W9em6Z5/j3zZXJbd/en8agjGMJiJnJZooiiiihEGtOG2PS31cRiTypItJD5trOf/ANRhaf8AltnUV5NWZqzehsJk5oNmbFppTGKxxKUTrSojStibfUH0KfNz5bxM7NgxQV5pSlfRvd9lGPKn9t9FbLEJyb/IkvT7u2XmA6RYp6bYmvVNPCobLSoqKPyipwopkAOXizcB3zIbT2jUxFVq1U3ZjfTQAbgqjgoFgB3R+2drPiXBYBEQZaVJBZKSfVUfE7yZXxvC8Msbc6Sb6LZLt5vq312WiRGXI5aXa+pKGjgZCDJA0siiQGaTorQ61MZSHtHCl18aVSm9h4zLgzSdAsSUx1EDdUJpsO6opHuNj5RWZuMHJdNfVa/YbhrxEn7vT7mPx9LMVI+lrfkOJPhYwjYfSFsNVJAJpMArJfgNxH2gPW5nNtUzSBpEdrO694AbUetvQyuo0fm6hK9oZd44Nf8ACaEknaLeNuKTPSPlVOtTFWk4YceBHiOEssE/Z3zySnXZFRkYqQz6g24JpNlsfaVU0VZiCTfhbieUpZ0sas1MPEXo0bJMTaPOMsLTN09p/WHpC0x6n6XuMrqcWO8UtGqG/ZMmp4uoOHvlSuPT63uMnXE3AIBIa4Btytce8es5zgt2dzoPfFMRBspN8xAhuF2dUcC2g8JaYPowGPaJ9IiXF4Y9SLKJcJcXDCN2lRpLSLV7sgIGgvqb2A9DPQKWwaNOmxCXbKbFtbacJ5x00TJhUH1q4/lpv+MBcdeWOOK36sVmyuOOUl0M2+2WU2oXRBuViGv433eAkVbblc/Tt+yoHvlcTIyZo0YUuIyy3k/nQ6rUZjdiSeZNzITOkxpMIQOo1mRg6MVZSGVgbEEG4Im3qdIsW9E4rDVTZbfK8MwFRKbfraaNe1JuIHsm/C0wRML2XtGph6gq0mysNN1wwO9WXcykbxEcTw0c1Ok2tr1Xmn5efR+VpsxZOS10fb6l+OllGp/mNn4epzakDRf1XT3RwXY1XjicK3flrUx8DIMTsqli0avgVy1AM1bB3uy86mH4vT+zvXwtM1E4cGKarHzQa3Sk9H8G3GuzWj6NhTnJf3U72dfff46mu/sDZn/mn/1X/GKZCKO/DZP92Xyh/wAAPEj/AKV85fubLaWJwGGqs9NaeJrCwpoo/ulEKLAsd+IfS99FJJmY2ltCrXqGrWcu53k8uAAGgA5DSCRQsHDRxa23Kqt712XZeS9W2dPK5abLsKKKKWBQogYopxI4Gaz9GeF6zaFI8KYao3kuUfzMsyM0/R7bAwlBihHX136sH9VSQXLnkSSQP2b8InPGcsbjDd6L16/BLX9Nx2CudN7LX5fyUHTypfH1yu4VXy/xsb++C4EmrTxJZhnC0yF+sMzKbeGYQ7pjVpVcRno0yidXTFr5u0FsxvrvN4HsPCC5dmy27OUj2gQbm/cQPWXIpUvb96FpzXKysNL5m/Kpb1S//bN/s/YzLTRSPoL7xKLZWz1qJSpFgM+LAJYgZUWmLsb7h2z6T2Bvkulq1Ld+tT8Zkf1fiHjcIrzf0/kucNUrZjKfR5zDsP0UY75r6GJwwA+epaf+sn4wpMfhh/49L/WT8ZhvisrLdIz+D6Jpa5H/ACJpcBsemFy5RbRx3cD93pFT2ph9R19Lff8Axk/GS4ba2HBX+8UuIPzycfOK5pSkuY60WOHwyjcIXTpiVibXw1v8xR3/AK+n+MmTbOG/6ij/AK9P8ZaxLbQCTLGol1I7p49+lbsLhk5tWY+XVgfEz1b+2sL/ANTR/wBen+M8i/TBjKb1cOKdRHCpUJKOrAFmG+x+zLuHHfE45VspfT+SpxM14Ml8PqYItGlowtGkzZMccWjSZyKFRAooopJBLhsQ9N1emxR1N1ZTYg8wRNPQ2rhsS6tiQtDEgg/KBTzUaxB3YmiNxPF156iZOKIzcPHLq9Gtmt9enmvJ2hkMjj8Ox6n/AGZs7ngP/k//AMzs8rimd/4zL/vS/X/kP/Ew/wBC9+goooprlQUUUU44UUUU44U7FFIZzEJ2KKR0OW4jGxRQ4bATOxRRRwIooopDOOGcMUUBkoU6s7FAewa3OGKKKSSKKKKQcKKKKccKKKKccKKKKccf/9k=</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Steven Smith</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3307,115 +3307,115 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>121.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AC23" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVFRgWFRUYGRgaGhkYGBkYGRgaGRgYGBgaGhgaGBocIS4lHR4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQlISE0NDQ0NjQ1NDQ0NjQ0PzQ0NDE0NDQ0NDQ1NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABCEAACAQIDBQUEBwcDBAMBAAABAgADEQQSIQUxQVFhBiJxgaEHEzKRQlJyscHR8BQjYoKSsuEzovEkY3PCQ4PSFv/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACcRAAICAQQBBAIDAQAAAAAAAAABAhEDBBIhMUETUWFxBSKBsfEy/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABIshtr9o8JhtKtVc31F7z/ANI1HiZSNp+0qo1xh6SqOD1DmbxyjQfMxNpDSbNPjDF7Yw1L/Ur00+06g/K8xHaXaDFVrmriHI+qGKp/Sth6SuPtUfRUk8b/AK1k7h7Te6vbrZy6e/uf4UqH1y29Y1f2iYAbjUPgn5mYU21TY93XhOibWW2qtfyENzHtRuC+0XAf90eNP8jHNHt3s5v/AJiv2qdQeoW0whNqoTqCPWPqdZW1VgfAw3MNqN+wm3MJV/08RTY8g63+R1kkDPnER/gtr4mib0q9RegY5fND3T5iG4Np9ARJlWzPaPiEsK1Nag4svca3qD6S77H7WYPE2C1Arn6D2VieS30byJlJpktNE/CEIxBCEIAEIQgAQhCABCEIAEIQgAQhCABEhKl2s7ZUsLenTtUr8vopfi5HH+Ea+EASsndrbXoYZM9Zwo4DezHko3kzMu0Hb3EVrrQvRTUXFs7Dq30fBfnKvj8dVrualVi7nieA4ADgOgjaQ5WWo0K7EkkkknUk6knqYlp6kdtXF5Fyr8Tei8T+AklHjamLAUrx/V5Clid0AnE/8xCYwPSmdbrxIHrOM9gQBHQBRx+e70nujTJOgN+FjFSiRvFxwKkHXwvPeUAhrELcBtDbXjJKHlGtUXT4uh3+R56bpIUqqsAQd8i67sN1t/y158OBiU63M66359Dcb/GANEzCNsNXzDXeN4jgRkln2B20xWHIV2NWn9Vz3h9l9/kbiafsLtBh8Wuak3eHxI1g6+I4jqNJhU6Yeu6MroxVlN1ZTYg9JSlRLjZ9ERZROyXbla2WliSEqGwV9yOeAP1W9D03S9Sk7JaoWEIRiCEIQAIQhAAhCEACJCU7t12o/Zk91SP75xe+h92p0zfaOtvnE3Q0rG3bftj7nNQw7A1NRUcH/T6L/H93jMtdiSSSSTqSTck8SSd5gzEkkm5OpJ3kneTCQ3ZaVBCEIhnHE1wi5m/5PIdZXatQuxdt5+QHAeUc7Sr53I1sug8eM8UcJUf4QPwETdFRi5dDRieU9pTJO78ZPYTZai2bU/rdJXDYNBuUfKZvL7G0cDfbKrTwjHn+vunQYU/VOnTS0vFHBL9Ua+sk6GBp7si6b9N35SPVZp6ETPqWFYiwXTw1B8+E91MM4GU5wNxGvp03TSqWDpj4UA8p0bDA71B8hF6jK9GJljUWy5deVxa5GuhNrkTl7hk1v0uLX16zT6uz6e/It/CReP2HTcDIiqb3O+xFt1r841l9xPAvBnyVHRrn9Wk7Se4vI7a+z2QX1ynUG+/kY12VXYOF4HQzeLtWck4uLonoRYRkhNB7EdsiMuHxL93dTqMdRySoTw5N5GZ9AwToTVn0XFme9gO1Je2Grtdx/pOfpAD4CeJHA8R66DNE7IaoWEIRiCEIQAIQhACI7R7ZTCUGqtqfhRfrOQbDw0JPQGYdi8S9V2d2zMxLMeZP3CWDtztw4nEFVP7umSia6Mfpv5nQdAOcrczk7LiqEhFhEUJPFRgFJO4Ak+U6RltZ7Uz1IHlfWAEGguRzJvLJh0sgAlcwvxCWbDDQTHKdOBDugkksNTEZ0Ukhh1MxOpElhkGkkaYEY4UGPg0AOoUTsqCN1qX4TsjE8IAJUQRi6yTyExvWpRMaZSu1+F7gIHEf8Sl4A5aq9dPnNH7UUC1LTgwPoR+Imb4pMrAjh+E3xPijkzrmyxwnlDcCehNjmCFosIAKjlSGUkEEEEbwRqCJs/Y3b4xdDvEe9Sy1BzPBwORsfMGYvJXs1thsLXWoPgvlcfWQnXzG8eEcXQmrN2hOVKorKGUgqQCCNxB1BE6zQzCEIQASVrt1tf8AZ8K2U2ep+7S28XHeYeC387SyzIfaPtL3uKyA92iMn87WZ/uUfyyZOkNK2VC09QhMzQIQhGASM22e4PtD7ryTkXt9TkQ8m16XBtABjs2lmfoNZZqS62EgdifEfCTjMw+Ed46DkJzz/wCjswqo2SFIgb5LYF0Y2zC/jILBbOZz3qmXra5J890et2ZpEX/aHzfaQegF5PBo2y00KA5i8cCheVDC4o0iAKmcA9PW0tezsYHtENNjijhRHdOmLX0njG4XMosbecqWMoUw2VsYVYa2ylrHdfujuwVA2y4VHUcY3rJcXEg8FgnK9zEo4NviW349I+VcRS3gONdRcacLrw5XuYMEzjjqIdGXiQfG/SZVtSlY/MeHKa7UTW48RffM37SUQtRwPrG3mRY/IiXjdOjPMrjZ5wb5kU9NfEaGd412apFNb9flmNo6nQcQQhCABEixIAat7NNre8oGgxu1L4b7yjE2+RuPC0usxDsdtL9nxdNibKx92/2XIGvgwU+U2+XF8ESXIsIkWUScMVXFNHdtyqWPgovPn7E1y7u7b3ZnPixLH75snb7FGngatt75aY8HYBv9uaYvIkXEIQhIKCEIsYHl2sCeQvGe0aDumneBsbW1BG6xEdYhCyMBvI+7X8I62Y2dL5TbKAPtAWPzMylJp8HXhhGUOUV/Yi989Bb11llpjSMXwoWsWUWDLqP4wbN9w9ZIURpM5O3ZpCO1UNWp1HcasE4hTqR06+vhGFTCulTccoDLnz1FPfYlXIDXzKrAAbjl1lhRwI0xbBtN8cZNCljT7IzDnNUd+9a5ygm5twzHiZadj1yGtflIWhQVY92ZU79+UmTs1hGjQGq3UddPSUKrhVBqKUvqpTMb5srAtnsd7WIuNwMuOArZgQeO6csVgRmvaJdg4rlMrfZfYrqrMVqKyq4DI5BdqjKVLqxKBUCkZbNmzm4sJZ9le+UZawW+7u/CeoU/D4XI5W3Tth2Cid3cNulSlfZEYKPCOWKUX03TNu1aWrm3EDrv0/D0mlYhdJA4LZq1MYzuuYU0Vram7tcJpxtZ28hykxdMclaogtnbBb3ae8bIWKogyn4mPdzct48LyNZSCQd4JB8QbGXbtTVK+7X4R71GudDohv5X+6VPaqWr1R/3H/vM2hJu7MdRCKimlQ0hFhNDkEtCLCMBCJvHZ7He/wAPSqXuWQZvtDRvUGYRNV9l+KLYZ0P0Kht9lwGH+7NKj2TLousIQlkFF9qla1Ckn1ql/wClT+cy2aL7V31w6/8AkPyyD8Znczl2aR6EhFiSRhFhFgALvjOpUK+6Tcvw+eYg/hHk5tQV7qwuCbgjQqeY9PlImvJ06eXcTviqQTIqjRSbnnm1v844pNpOWIw1TJ8YYAC4Yd7TqN50iYV7iYM6VwyQRc3Cea+HI1tO+D3gSepUEy3bdaIsqqJnHIDUk6bufSSvZn9nfMVYMQbXBv6RljQBmynKGBUjgQd+kcbAKhtwHVQBoDqYCLSmIwxqe5WooqqASmbvA772t4aC86Yl7sR6ffOXu6bMr2QMLEMFGbQG1z/MdOs7Vk7wPzMBpCU6fMR4lEAT3Roi150eBLYxxJ0kfhksjuGsQ4fj3gistr9DmnfH1LZjYmyk/wCPGcKmza9Sk9NmVEtYFNXa+pYk6DUnT1guw7InE4pMUl6nwU6qsx5oEcso8colZr1mdmdvidi5A3AsbkDwvaTu16dOhR93TvYtYlt7t9I+AAt5yvTfGuLOfVSuSiukEIRZocgkWEIwCX/2VVu/XXmqN8iR+MoEuXsvqf8AVOOdJj8nT8449il0avCEJoZma+1gd7DHpV++nM+mk+1en3KD8mdfmoP/AKzNpnLs0j0EIQkjFhCEACKjEG4iQg1Y02naHq4pbd4HwjTAf4nmGENmYdb+R/yJjOKiuDqx5HJ0yZwu+SVWuShA4CRVJrER5iAcjAb2G/iPCYo3Ip1dzbnJbAYYKhP07aBTrIEYHMQC726u35yewGylW3fYaad99PImVwaRryTWHw72FrfZB49ZIo5sA3SRVPY5Nn969xu772+QNvnHBwVRWRveO1jqrEFSp38N/GDFKvDJ6junmoYqHS851TpEQQO1a6oCzfDcX8MwvO2J7RYZBmFUMTrlTvMeluHnaQ3aN8yOBuXIT/M4X8L/AClXmuOKasxy5XF0h3tPHNWcuRYfRX6o/PiY0hC02RyNtu2EIQgIIsSLGAkt/sxH/WN/4X/vpyoS7+yynfEVW+rTA/qYf/mOPYn0ajCEJoZlP9pmHzYPN9Sop8m7n3sJk03btHg/fYatT4sjW+0veX1AmEyJdlx6EhFhIKCEIQAIQhAAnFmIN+RIPhO0521PjM8nR0YFcn9EpQqAgER6K1xbylfo1Mhy624co5oYjW850jpslEyg3MlsIVYaaASuGrdrS1bJw4yg+B/KOjSLRL4OkFG7hHYe2to3D2/x6CeWxQuNbg8ugJt46COiJMfZtIxx9YKpJMKmKFvEaAcdLyKBao2vwDUdSN/y5SbF3wRG00PuHLb2ZGPTvrYeQ+8yuy27fT9y5+z/AHrKmZvhf6nNqFUl9CQiwmpziQiwjAIQhEATR/ZVQ7lepzZUHktz/cJnE2PsFg/d4Onpq5aof5j3f9oX5S49ky6LLCEJZAkwvtNs84fE1adtM5ZPsOcy/IG3lN0me+1DZd1p4hR8PcfwOqHyOYfzCTJcFRfJnEIQmZYsSLCACWiiEWABPAGpjhKByNUbuot+9a+Yj6KjifQRthnDDMAbGxAO+Y5JJ8LwdOni91np6dxG5JX9co+ZN3GeWpg7/wBeMyOiSDBMosT+ctWAxVlAvy46j8v8Soph2GqmPcPcHTMD0H4/OKxK0XF8ULXuBfn6b+GkaPiCTpcbrX0tY8eQ8esZYOiTpa/DvXI8dfP1krhsDxf5a9DCwoVaN1ubknS3XnytrHyIFUKOH618Z5UDSwAA3cLTo4v+juiRSIftAn7l/Af3CU2XvaxARiwDAAkg7iBqQfKV/auxrUlxNEE0WFnFyxpMN5J3lDzPw8dDcXjyqL2vyYaiLdSISEW0AJ1HIJPUIQA8z1CeYAOMFhWq1Epp8TsEHS53+W/ym9UKQRVVdygKPACwmZ+zTZZes1dh3aYyr1dvyW/9Qmoy4oiTFhCEskIz2nglr0npN8LqVPS+4jqDY+UeQgB8/bQwb0aj0n+JGKn7wR0IIPnG80z2j7BLoMTTW7ILVAOKcG6lfuPSZnMmqNE7CEWEQwjrZuCNVwo0UaueS34dTuH+I3RGZgqglibADeTLjsjZ/ukCm2Y95yPrcADxAGnz5zl1WdYo8dvouEdzIrtRRy4cqosoFgBuAA0EgNn07In2V/tE0h9kpiKbI2mYEX5dZRcJhmVQrCzJdGHJkOVvK4nHp8lxa+TtxrkEQTjUp25x+qT09G4nSmauIzpDpJLAOocXGn6teccPQOo0EkUwIOu4wJosOGRCoYC2mkKka4VCBYk/hHTpGKjmug/XjOqr+vvgq2nVQIiqIntHWWnQqO25UbzLDKB8zLB2TwLU8HRRx3silwde8yjMDz5SnbRq/tmMo4RNUVveViPqp3rHpfKPFppiiwtOTUy4Uf5MM8vBR9v9igbvhbKd5pE2U8/dsfhP8J05ESispBIIIIJBBBBBG8EHcZuREzn2h4AJXSqu6ohV+WemRZvEo9j0QTo0molJ7ZfwcskuypQimJPQICLTQswVRdmIVQOJJsAPMxJevZzsHM37U47q6Ur/AEm3M3gNw6k8o0rE3SLt2b2WMNh0pfSAu55u2rfkOgEloQmpmEIQgAQhCAHh1BBBFwdCDxmPds+zZwtTMgPuXN1P1DxQ/h08JskabRwNOtTanUXMjCxH3EHgQdbxNWNOjAo4p4Ooyl8pCKLszaKB5y5f/wAi1KtkA7m/3p7zMvJb6K3Ow+cc9q8Aq4XIgst1uBxFxe54zyc2tcZ7Kr7OqONNXZB9nMEnu1ralnBsd2VbkWA4E218bSfRI22IBkZAD3KjrrxVwtZCOlquX+SSKpPN1E25Nt/54NYKkOtnPlaVztPhRTxJYDuVlD//AGL3XF+qhD5mT9HQx3jMEmIpGm3HVW4ow+Fh4eouOMWDJtf2Ve2W4oBSdkpmMy703anUFmVirDqOXQixB4giSWG13T04yOn6PCUxeSeHSc1px2iiaoljimJ7vOYYT0HEZKPSpIjtHtgUEIB750H5x1tPaSUkJJlDw6Pj8UqXOUksxG9UW2YjqbhR1YSOlbG5F19mGziKb4lx3qrWUnfkTcfNsx8Asv0b4LDCmiqqhQoACjcoAsAOgEcTy5z3ycvc4py3Ss8mVTt7hFdMOWYoorFSQL2NSlURSRxGbLcS22ld7ZUc6UaYFy9cED7FKpU/9Jphk1K18k8OrMyxmFem5RxrvBGqsp3Mp4g+moNiJxlx2TRpYlPdV1uV1RgSGS+8qw4aC4NwdNJxq9iK5cLSdXUnUv3WQfWNhZh4WPSejp9ZHJ+r4Y543F/BF9mthti6wUXCDWo/1V5D+I7h/ibPhcOtNFRFAVQAoHACM9ibIpYWkKdMdWY72bix/LhJOejFUc0nYQhCUIIQhAAhCEACEIQA51EBFjILbeDHu2DEW4ElVHmSQJYJxxFBKilXQMrCzKwBUjkQdDOXUaWGZc8P3LjNx6Mt2bj6KY40UrJUFamPgOYJWo5jkZlGUlkz6Xv3AOIvZ8s89puzbe7z4VBnplaiItlOZCGCqbbmtlPRjO+HKsAwBAYBgGBVgGFwGU6ggGxB3EGeNq8DjX61497rydWOafk5hY7w1S2+cwgG+DMJwco1I7tdsD9pT3lIfv0ByjQe8Ua5DfS/1SdxNtxMo+xtoX7jXBBIIIIII3gg7jcbpppxSU1Jc20vaxLW6KNZU9tts6szP7uqlY6h6aqrOwFhmDNlY/a16z0dPnVbZCjKUflDjDMCNZ7eoF4yp7H2+GGV+46izA3ChhoRfgbgix3cZ3xO1xbeOh01nobWuzRTjJWmTFbGWjSrtOwOsgX2nfj6yOxeLYkKvHS/8R3AfWPQawUW3QSnGKtht3aTVGyg8eYHqdB4maD7Oezr0qZrOMr1LaaEqik5Byub5v6eUpuxOy2KqVFdqRWmrKzmspQMA3eRVYXYso4C3emjY6piFPvFZlZjZU3qqjmp0J4eZnFrc8YJQTu+6MVNzulX2WhUA3RTIPCbaa4SqlmtfMo0813jyvJZK6sLqQeduHiOE4FKL6Zk4yj2dLys9qFd62HSm5p1EFWur5QyhlVaQVlO9W98wNtbA2Oksi6yHpbFq1cY+Ie6ooSlTXi6qGZm36AtUI11/djpOvTY5yb2q2l/YpUnyVzY+ErVsQ1qfu3BBrrrkRzqWRj8SP8AEtiTqQbWmj4agEUAeZO8z3SpqosoAHSe7z18Glhje6uWZzyuSrwj1CEJ1mQQhCABCEIAEIQgAQhCABCEIAJG2JwaPqw1G4jQxzCTKEZKpK0NNroh8Rs224X8DY/5jd1I3DLztv8AmdZYJ4amp3gGeXn/ABkZ843Xx4No5q7VlIwOGszX4sQb6k3N9Sd85Y7Yyam10O8Dep5iWupsdCSVJBJvzF/P84Ps5uBB9J5svx2og7q/pnR68WYp2uoPhq2dMpSulnBUMrVFGVjY7jlysCDcHNKjVx1VibMF5KFXw32ufnxm1dr+yFbEUXWkLNoyi4yl1OhGuhIuD0MzbB9kdpIxZsFVzKCFsoPebS4INtBfXrPa0jk8f7qmuOTizcSuPNkXSV1UZgWdjlRF3sx0UH/EvvYvsq+HxFKtiLNUuSOKrnUr3eGmbhJPsL2GqUycRiR+9N1Rbf6aHfv3Mee+3K5l6fA6ABb5dRcjQ85yazLlf6YouvNLv4NsfHM3b/o5sczdFjbEIGcDgJI0MEwGpA9Z7pbPUEkkknynnx/H559qr9y/VjHz0QWGohqzNbQd0eQ1kgNkktmGnXUH0krRwyL8IAnad2H8RFc5XfwiJahvo40KAUbyTzO+d4QnsQxxgqiqRg232LCEJYghCEACEIQAIQhAAhCEACEIQAIQhABIQhABYQhABIRYQASEIQAIQhJXYwhFhKEJFhCACQhCACwhCABCEIAEIQgAQhCAH//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYZGRgaGhoYGBkYGRgaGhkaGhoZGhgaGBkcIS4lHB4rIRgaJzgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHhISHjQkISs0NDQ2NDE2NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0ND00NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABBEAACAQICBwQHBgUCBwEAAAABAgADEQQhBRIxQVFhcQYigZEHEzJCobHBUmJyktHwFCOCovHC4SQzQ2NzstIW/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EACYRAQEAAgICAQUAAgMAAAAAAAABAhEDMRIhBCIyQVFhBXETgfD/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQCkSG0v2kw2Gyq1VDfYXvP8AlGY6m00XSvpOqNdcPSCDc7nWb8gyHmYrZDkrqcjsbpvDURerXpp+J1H1nDtIdoMVXP8AMruR9kMVT8i2HwkBiayXIOsx3/5k3I5i7xU7f6OGzEa34UqN8QtvjMZvSPgRsNQ9E/UicFDkG6nZnz/3EyHxxsDlw+Vv3yi8qrwjuS+kjBf90daf6GZNHt9gGy9cV/FTqD4hbThFPGfaHlMlKgIuCI/IeD6EwensLV/5eIpseAdb+RzkmDPmjXHESRwOmcRRN6VeonIOSvihup8RCZF4voaJybRfpLrpYV6a1BvZe41viD8JvOhu1+ExNglQK59x7KxPBb5N4EypYmyxsMREZEREAREQBERAEREAREQBERAKRE0/td21p4S9OnapX+znqpfe5G/7oz6Q2JGwaX0xRwya9Zwo3DazHgq7SZy3tF6QK9e60L0aeYuLF2HNvd6L5zVdI4+piHNSq5dzlc7huAG4chMaRclzFVmJJJNycyTmSeJO+eHqBReWcTiNXIefCReIrk7/ACkbXIyquIa2szWuMlW3xO2RdZyTKVHvxhKbnYPOPX7K3fqGHdrhdt91/iDukjSswsNh8zzPA8pjU6ZHtAb8x+kyKNBhmrb73HyiysVjK86pXmOMz8KRvW42ncw5gj/eeVQnMXvMrC1NT3VI26h1h/UjDNemY5TO1rIo1Fbm2RP5SPvcOu6eFBU5bNhU/wCk/SZoxQPuMOBAv45d1hxtbwmJ6w3sBtJIW3nqHePu7RCWiyLvMSkumojoGXIjJh45ERVSwHMX6bMpcy2yyx02Ts/24xOGIVyatP7DnvD8D7fA3HSdU0D2ioYxdak3eHtI2TL1G8cxcTgUu4au1NldGKspurKbEHkZpMtM7jt9ISs0Hsh27Wtq0cSQlQ2CvsSodwP2W+B5bJvsqXabNKxERkREQBERAEREApETS+3var+GT1NI/wA9xe+R9Wpy1jzOdvOK05NsXt1209TrYfDsDVzDuD/yuS8X+XWcpZiSSSSTmSTck7ySdphmJJJzJNyTtJOZJlJFu1yaIgTxWeyk790Ro/Hv3rbh898jHqcJdxLGY60yYQ7+nunSO05TMpKTsBPjLYtbgBK+t1dhtJvs56ZJw53/AKy7STcCf7c/C0wabsx48ybDzkxhdHuwugJO247qDqxzPgJN9drx9vVLCve9vP8AxJE4ZCO/ZDx2Dx3eOUspo+oPaZD0Zrj5XmXRDoLE6yWuRm9hx4gdARaR20npfoaMOZQjXAvqk6quOIb3W57ONtsjse9I3F2DD20cAOp423/I/Ge6tV09gnV2oNoH4Punh8pg46oHvrKcrMt8iB7yBtosTcbsoYwXbBfEnXJJFyNUkbGyybn45z0mOLaqkfrtmP6rcL2333c5aYWOU1ZXacErMbCPdReZMqM6TonYXtqRq4bEt3dlOqxzHBKhO7g3geM53Ecuis2+k5Wc59HfawvbCV2u/wD0nPvAD2GO9huO8dM+iy5dos0rERGRERAEREAh+0umkwlBqrZn2UX7TkGw6ZEnkDOD4zFPVdqlRtZnOsx4k/IcpsPb3TxxWIKqf5VK6pY5MfffxOQ5AcZrEjK7XjNERElRMbHPZb+EyZZxqayG20ZjwgERWsNu3hLTggbR0nipe8qKdrFj++cSu3ukw8ZmYfDBt/idngNpnigutuy6ScwGEvkFA8MzxufpM8sm2GG2Nh8CBnbWO4H523SRpI7WBFxz1reFjl5Xk3g8IBa9ryVw+HUHYJn5N/BDLSdAAoup3XJt0ItbyEyKWgahsdl+Oc2ClRUZ2mWrxbEwQqaABFibHllnxmPitCsq5KHPHf8AEzZVaV1Ylacn0rouoneYFQbG2X0yEh6qzr2l9HCqjDeLEZfZNyJzDSWDKEg8fhNMcvwx5Mde4tYI5zOmFgl3zNm06c2XZERKSqjlSGUkEEEEbQRmCJ27sV2hGMod4j1tOy1BxPuuBwNj4gziEl+zGmmwldao9i4Wov2kJz8RtHSOXRZTbvsS1SqKyhlIKkAgjYQcwRLstmREQCk1jt7pj+GwraptUqfy0ttFx3mHRb+JE2icZ9JulfW4r1YN1orqf1tZn+Sj+mK9HJ7afaJRTeVmbQnqIgHmeoiAa3VFm8ZL6Ow6Pmy3tskVivabqZLaEa+XDZJy6acf3JenhEGxRJDCpMMmZ+FyznM7YlMMnKZ6JMHDPzkiGiWupeZFNZYR5kUzAmTTXKVAnoPl+/CVjJ5Rb5TSe2ejrd4DMXHUGx+s3lTaan2rb+Yq+46m/Ij/AB8JWLPNo+HoWXWsfpaXJnYlhqldhFrcLAkEfvhMGb49OTPsiVlJSCVlJWAda9GOl/WUDh2N3pezffTYnV8jcdLTeJwvsXpP+HxdNibKx9W/4XIGfRgp8J3SXL6RlPasSkrKSsYquER3OxVZj0Av9J864quaju7bXZnbqzFj852r0h4s08BVttfVpjo7AN/brTiEjJWMBERJW9REQBESn76c4W6OS26iCxK3d+pkhoKnkW8BPGPwZRtYZhtp5/4EytEKQh5sT8hMsstxthjcctVKLnJDDiRQe24+W2ZlPFMBkjeCmZadPlpM4dTJTDpNew2ljexU+Ikrh9KLbMRWHMtpEgg5C/72y/RQ3FzPOBbXBIE81Eqa2QFusR7ZwB3CGcjaPjNcx2lWR8q1JM7Mr1FA8duczsJi1cFhWRl94r3rbszu6mVovJLet3Ga52opazU3G4VBbjYbPjJ5sMx9lrjlb575B9oVIVCdocA8tYW8sop2nL3Gm1GboLatrbwb3+fxlqbThdACqpdnCrsBJA28ztzM13G4VqbvTbahseeQIPkROjDKX05uXjuP1LESsS2JaLREAETv/Z3H+vw1Kre5ZBrfiGTfEGcAnW/RVi9bCuh9yobfhYBh/drSse05dN4iIloaB6W69sPST7VS/wCVT+s5VOkel588Mv8A5D5ag+s5vIy7Xj0RESVEREATxXJ1GttI1R1Y2nuXsKLuo+8p8jcScumnD98eqmFVaGplcId+ZO3z+hlvRSdxQeF/OKQ13IbYLk+EvYHIDoJj+NOy4/VterI9rJlxOWXS++Yr6MYjXbWc3bW71stUhc9uRsedpLULbfhLlVgAcoY5eKcsfKaajiMIVQe1rgAHvHvNrMSwHujVKC3FSd8ldGs6oLkn9/vOesVh9Yy5TTVEeV8hjh49Nz7O4iwF9hEktNjWpORwtYEAksbZknZxtnwmt6EqEgXuAOG/rNmdQ62IuOEz01uLQMPgmZCqrqOQV1kt3DrKRqbLZAjxm5aO0QWQ66IhLK6lTcramiEIy2ILFCzXuLsRY7Z5GGVGyAtyFrcJIU652C/0EvzutM7xze5Pa7gsEKXdGSnOwyAPIbvCRnajDlqFTV9oKxXqBdflJlCTa8w9InuG/A/KQqT9ovtho4PgLoV1qOpWBX7osx8mJ6iax2qa+JY8UpE9dQX+FptdOuBUqYZs1KsgvvDJcA+fwml6be+IqciqfkREPxUzXj7Z/I9YSX9sCIlZs4iUlYgCdD9Elfv104qjeRYfWc8m7eit7Yt140mPk6frKnZZdOuRES2bmHpfHfwx+7V+dOc6nTfS7S7mHfgzr5qD/pnMRIy7aY9KxESTIiIAnpDYieYhTxurtm0sIdZXUhWJ74zsRv8AGWsH7I6CZGHxCkZm1t3ThLOHYXNtlzbznNZrt3+UvuM6gucyatHK/jLGGPeksadxflFuLjW6tcK1jtnptZunSXa2GGsWYX4cpiVcPrMCWbL2dViPO22Mo3HRWFA1eBsL9ZPLRZcxmLkbMiNmUgdDM2oisLWa97jNc8rcZIpgAtc1w73ZSGUuSp4WXYLbgIpdrtXcRiFZtXYR5TKo0L2+UxMVhA6gpky7OfIzM0dUOrZtoy6Qib0yBTI37L+Mw8f7P75SRcSM0jWVBrubIpDOeABBN4VO3ijopaJLlgzsxLuRsS5LavgLDrOYtWLku21yXPVyWPzm/dpe0FEUXSk4qO6lQEOsEDCzMzbByF7k2mgWm3HjqObnz8rJsiJWaOdSIiAJufosH/Gsf+y//vTmmTe/RPSviKrfZpgfmYf/ADHOyvTq0RE0ZtL9KeH1sFrfYqIfBrp82E5BO/dpsF6/C1qe9kbV/EveX+5ROAyMu149ERElRERAECIgFZdw/wBZalykc5HJN4teG6ySmGPeEka9chtQDMWHmAfkRIeg5FrbpM45VZQ42kAN4Xt+ngJyx2onEV01iNcE3sQCCfIbJk4AICDq3tuMwDhUtbVFt2UyMNgUvsI6Mw+Rmk0I2JnR2VkIUA3I5j6SYouGA29bXtNew2jqdthy2jXcbc/tcvjJjDaNVhk7ruyd/wD6yj1F2RIoi7VN+m7PfwMuUHB2ixHl5zEbQ1PVIu973DCo4YHcb62fQ3EysHTIUKx1iDtIGY528JNZ1lOcrzWu172w78yq+BYfRTNhqmad25xNhTpDeWduQXuqD1LN+WGM3lGfJdY1qERE6nERErAEREATpvolw/cr1OLqg/pXWP8A7icznafR9gvVYKnlm5aof6j3f7QvlKx7Tl02eIiWhScC7UaOOHxVanbLXLJ+BzrL5A28J32c49K+iiVp4lR7P8t8txzQnodYf1CTlPSsb7cziIkLIiIAlZQSsASolJWLLqqx+6Mqm9v3nM4Vzq6pzHOR7plee6dTKcd9O5lgAzLooBnItakkcI95U0qVM4ZL58cpNYZNUDORwIVFI42PKSOHYEDPOCrYzQZ6QWllXtv/AE/dp5evt4cf0iyRa9VqvH/J4Tnvap74l77QtMH8gNhy703yihPeI6X3c+c592iP/E1fxKPJEmnD9zHm+1GRKxOhyERKQCsrKSsAv4HCNWqJST2nYIOVza/ht8J9B4eiERUXIKAo6AWE5d6L9Fl67Yhh3Ka6q5bXbf4Lf8wnVpciMqrERKSTC0pgVr0nov7LqVPK+wjmDY+EzYgHzppHBNQqvRf20YqfmCORBB8ZjTqfpN7PGogxVNbvTFqgG9NzcyvyPKcsmdmmku1ZSViIyJSVgARE9pTLHIXsCTyAzJPARZXUVj3GTT2ZyjJbOeqanKXCl5yO+xaZOE94XFau3KVHCekoXMn3CTB0ouqB9Jn4TH5WAblkZFYTAtf9/GbDgcBb2t+eR+cPqP0v0Cz7chsPE8ekykp3NtwlxUAAAA47dk9o4I/f7EchRVxlnttnOZ6fN8TW/wDIfIKoHwnSna+X78ZqlbRdPEYivTJ1KuuCjgEhrorWqrsYZjMWI57JU5Jx+70z5cbcfTUIl/GYR6TtTqKUdDZl27cwVOxlIzBHzuBZnVLLNxyPMrERkT3SQsyqouzEKoG8k2AHUmeZv/oz7P67fxdRe6uVK/vNsZ+g2DmTwjk2Vum9dmdEjC4ZKXvAazni5zY9Nw5ASXiJozIiIAiIgHh1BBBFwciDvnFe2/Zk4SrrID6hzdT9g70P05dJ22YWktH08RTalVXWRhYj5EHcQcwYrNnLp88SsmO03Z+pg6uq2aNc03GxlG48GFxcSHmbQiIgD48htPACS+PpeoprTHtuRrniTu/CNnnxlOz+E131yO6mfV8tUeG3wEmO12jj/C/xAGdJ0ZvwswVvIsJ5/Pzy8uPHP+/9ujhx19VQCJMkJlkIRLi42EfCZFDgdn7vLmW3Xph1Uzl/DpM18KLXtPWFoi9iIyZmAbLPPdkT45yepuRvA/3mBgcMFz658jxkigAy3wL09Z5dfG3WekFt22/zzntBxldW/TdGY4mvJRJ0koUka1NHa33GZfith4TYm57pCdk6nr8Ziq49lClBOihmY+JKzn+RdceX/vyLdRMdruzgxVMMllrJ7BOxl302O4HaDuPK4PJ3plSVZSrAkMrCzKRtDDcZ3oTU+2PZb+IHrqIArgAMt7Cqo3HcHAvZt+QJtYjL4ny/H6Muvx/HDlHMJSe3UgkEEEEqwIsQwNiGG4g7pm6G0TUxVUUqQzObMb6qLvZjw+c9ie2bK7L6BbGVgguEXvVH+yvAfeOwee6dwwmGSmi00AVVAVQNwGyYWgdDU8JSFKmObMdrNvY/pukpNJNM7dkREZEREAREQBERAMHSujqeIptSqrrK3mDuKncRxnGu1HZargmubvRJstT/AEuB7LfA7uE7nLNeirqVdQysLFWAII4EGKzZy6fOUltGaGaoA7nVQ2It7TDiOAPGbl2i9Htgz4XeDdWuxXI+wPe6HOYuFQ6iXUofV07qwIKnUW6kHYRstynm/N58+PHWM1/XTxTHJTC4dUUKosBsA+PjNgwdFa1GpRbY6Mh6OpH1kUqzLwVbUYHdvng/8t8/L8um4+tNE0aGUGi4syMUYcGUlW8LjytJCgnetJHtro/VdcWg7r6q1Le64sFY/iFlvxUcZE4SsGtPXw5PL6p+W2F8sU3Tw9xln+sspRKtJHAi/wBZcrUMwbfrOiJr3QMyqZvMdABbdPQq2lJX227ZdQZfX/aYS1gTtljSGlVpqcx+mW+Bxh9r9LClTKKe8wt0G8yT9HujTSwqsws1Qmqb7QGtqg89UL5zRMFRbH4tFNyl9Z94VFzN/wARsv8AVynYsNTsLTz/AJnJ6mE/2jkuppflDPQlxKBO3IfGcnDxZ8t1jNuW5SdtW7SdkVxhFRCKdUWVmtdXW49sbSyi9j4HlsOgdC0sJTFOmObMfaduLH6bpIotshPc+j+PxXiwmOV3WGWW6rEROhJERAEREAREQBERAEREApMHHaMp1faXPcwyYeO/xmdEjPDHOaym4ctl3Go4zs+65p3x5N5b5FshBsQQRtByPlOhSzWwyuLMobqJ5fP/AIrHL3x3X8vTfD5Fn3TbSqeq6NRqC6OpUjfY7wdxG0HiBNGx+BqYWr6t896vuddzDnsBG48rX61W0BTOakr8R5HP4zC0p2Z9fT9W7CwN0YDvI2y4vtBBII3gzDj+Lz8N1lN4/wAb4c+Mu9tX0NXBAkyyAiRWH7M4ug9tQOv20ZbeKMdYHpeTP8JWAzpt5X29J244Za9ytbyYX3LGHVFtts9ki8Ti7XklicFXIyoudvu+W2Rh7N41tlEjqyC3m0vwy/SPPH82MY44KCZrGMxNTE1BTpgszGyqN9ttzuA3k7Jun/4HFVBZnpoOrOfIAD4zZuzPY6jg1J1i9RvbcgC/BVA9lRwvzMLxZ+Pqe/6MufDH87YnZTs8uFp6o7ztYu/2m3AcFG4dTtM2dKB6TJSkBsEuTDD/ABu75ct3f45M+a5X0tpTAlyInpcfHjhNYzTK3ZKxEsiIiAIiIAiIgCIiAIiIAiIgFIiIBWIiIEREYUiIiBKxEApKxEYUiViAJSViAIiIAiIgCIiAIiIB/9k=</t>
         </is>
       </c>
     </row>
@@ -3668,6 +3668,1403 @@
         </is>
       </c>
       <c r="AM25" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSExIWExUVFRYWGRgYFxgdFRgYFxgYGx0YFRUaHiggGx8lGxgYITEhJyk3Li4uFx8zODMvNyotLisBCgoKDg0OGxAQGy0lICUtLS0tNS8tLS0vMDAtKy0tNS0tLS0tLy0tLysvLS0tLS8tLS0tLy0tLy4tLS8tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUIAgH/xABDEAABAwIDBQUEBggGAgMAAAABAAIRAyEEEjEFBkFRYQcTInGBIzKRoRRCUmKx8CRyc4KSwdHhU4OissLxM1QWF0P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGB//EADIRAAIBAwEEBwgDAQEAAAAAAAABAgMRITEEEkFhBSJRcYGR8BMyQqGxwdHhFCPxYgb/2gAMAwEAAhEDEQA/ALxREQBERAEREAREQBERAERcfb+8mFwTA/E1m0wZyi5e6PsMEud6DigOwiqPHduVAOIo4SrUjQvc1k+gDiFo/wD3fVmfoIyjX2hmelli5mzLqRVXs/tnoVHNb9Gqgn6pLQZ5MMw49DBPCTZT/YW3aGMp95RfmFpabPaTwc03CyYOqiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA4G+W8tLZ2FdXqeI+7TZMGo86NB4cyeABK83bb2xWxtd1bEPDqjuF8jBwYxp0aBw4mSbklTTtz2uauOZhh7uHaARN3VKwa826MDL9XLlbsbluqtD3H3hI8vVR1JqKyTUqbk7IiMht3RpMcfh+dVr/Ti6WQBMj/r1hWRiOzd50dPnPP1XV2N2esps9oAXai2hUP8AIhYm/jTbKjxLO8MGWPEWP9NQt/dvebE7PxDKrCZYXAsJs4OiWu6GAfMT1Vn7V3ToOEPbPXiPLiFU28uF7msWhxe0aGDPrI9PRbUqynhGtag6auz1lsXadPFUKeIpGWVWhw5idQRwIMg9Qt9VB2F72U30jgHDJUbmqMvZ4Jlwa36pGsD7x6K31YKoREQBERAEREAREQBERAEREAREQBERAEREAREQHnbtDcHbdxFNwHifRb5A0aUzy8M/FWhsKgGsAA0soP2lYNjts0atOSS5lOrawfTAdMg8WQL8uq2aW+lVmbucNnY0kFznNaCRrBcQFSrx35K3rJfoPci76/ospq/HgclF92N7TiXd3UoOovuQDBaQOThZfW8+9D8N4adA1XRJEwB5lRbubEnM2tpU5BPRVtv/AIVhpCYBBifjN/zou43fmq5pc/CgMuDle1zh6NJ+fyXB3ucK2D7xhkZg4HmJ0+CxCDhNNm85qdNpEe7NvDtXBmmZPfwI4tLSHSOjSfgvU6879ieBYMf3z2Ehs06ZEQKjmw5xH6tv8zovRC6SaZy5RatfiERFk1CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKn7SMGGY2k8NHic2oTx0FK3P3gt3/AOPUatMnuwc7A03IIGvhI92/KCpHvpsR+IZNNmd+UgXAIOoIkgcSuLu5iZp/n86qjWvGR1KMlOK7l+D6wmAZRdShsFuVo55QCLnUm9yTJhamNw3e1nHKHFrmkT93lNlt4nHs78Nc4MtIzcYBNuq5R2qxuIIa9riHX5RzKgbepZjFJH23dqiCancNYcxcXTLySSbXtcmw5qLb1WpVKbRqIi0XtbgrAxGMD6ZBEH86FQHblX2rOUsP+qf7rZO8iOaSja1iS7nbGGEfQoB2Z2Zrn/rEy6/IgTB5K1FH9lbDLKgqvLZaDAE6u1LiR5/FSBXaMZJNy1Zz9pqRk0o6JWCIimKwREQBERAEREAREQBERAEREAREQBERAEREAVQbTxFTCvxFBvvg+Ho1z5B/hcPirfUF7SdilzBjabS51Ee0aPr0hcnzbc9RPIKKrDeRNQqbkivzsaviahbiG3sWlz2hvDQk6f0TE7nOpjMa7JNoa4ukTazWQIB4FSvEY/NTFSi5ptJb8dOS08LiK7iG1CwRcmLzxEcLKnvOx1dyPr19jkbKp18NIquzNcAcpNx4gRf4ytXGjvMVRY3i9o09D+P4LY29twMq5TBa0Zupgxp5gAeq1tmYd9NrcS8e0cWuA+yAQQPMmJ/smnWZC1vdWPAv1Fgw1cVGNe27XtDh5ESFnXROUEREAREQBERAEREAREQBERAEREAREQBERAEREARFr47F06NN1Wq9tOmwZnOcYaAOJKApPerC1NmY2p3bS7DuPeU2ge6CJyRyDs0dI5SuLid6CQMoeXG0BpnW/wDT90KW4ne2ltOu91FhFOkRTa52tQXOeOAJmBrzg2G3h9kU2mcgnyVCtUUZtWOlRpylTWSJ7sbtPqluIxeojJTmwjQu5mylO0qEwOGvwXSeAwFziA0CSToAFVe9m9bsWTSpSyhcHg6r1dyb93jx5CKMZ15esE8p09nj6uyRYntLxGHY3D4R1J7WEgvcxzgBMhrXZgDF+HK9l1OyzezEVtoVGYms6ocQwxJ8LX05cAxgs0ZC/TWBMqqWNgawt/Ym2hhMTQr+J3d1GOLWxmLJ8WsC7cwHOV1Ix3YpHInLek32nqxFzdhbaoYyi2vh6gqU3cRqDxa4atI5FdJDUIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIotvzvpQ2ZSD6gNSo+e7pN950akk+60SJPXQoCTPeACSYAuSdAPNUf2tbbq7TrU8Bs+cRSZ46rqd6ZqEkNDqnu5WgE6wSeiklHZ2I2tSbWx730qLwHMwlIlrQ06Gs73nuIgxaOh0kmzNk0qDBTo0202DgBqeZPE9SvP7d0/So3hQW/JeEfPj2YxzJ6dBvMsIqXcbZf0evWw+YPc2A5490vZ7wb0a6Wzx6KY4vaDaIdUquysa0a6lxmGtA1NtFt7sbnPwmeajaxe5zzUIynxuJILZPHreVuVdx6VWuK2IqOrNbpSgNpg8yBc6aTfjayz/MoSzKe9hZSy3bsxa/O1uxFyNVU6aS1+hXVZ20NrEsoU3U8PMG8A/tKuh/UbPqtraHZVWp0QadZtSqAS4GzfJrtSRzOvRXEA1oDWgAAQAAAABwAWJ2oXM2rputCSVC0Unpr53152t9LQbm+7zyeZd5dm4jB5G1qZY6oCRMECCAYA43GvMLhUpMzrY31JEq3u3Nud2FEgBoruJP+UL+ZB+Cq3CYBzna2jlEjyXqOj9ontGzRqzVm76aYbXPgVaiUZNHb3L3or7OrCrRMsMZ6ZJyPbyI4OF4dwk8JB9I7sbx0MfRFai7kHNPvMdycPwPFeYX7PLV0N3Nv4jZ9YVqBvo5rpyPb9lwB/6Vxo1PVCKvtw+0qnj6ncVaYoVolsOzMqRqASAQ6Lxy4qwVqAiIgCIiAIiIAiIgCIiAIiIAiIgC8/CidubcqveZw1Ajy7phORn+Y7M49C7krq3txZo4DFVW+8zD1nD9YMdHzhVl2T0O4wFSsBJr4hwbb6rIp3dIAu18EnVwVDpHaJUaD3Pek91cr6vwSZvBXeSSYvGYmtiKTKDmNw8zmbLnODHeLxRlAIAiCbEkg8JWGqN7t7Jp0azn02k5wZe4lzmjwgUxUdcNhosLkiTJuZMvJ7RGCajFKyXZnx1+r7SxFs/QFytqbbbTd3LAalYtnK1rnBjft1SLNaOUyeC6Nd0NJvoTYSfQQbrgNpU8laO9zViC5z2+KR9V0EWtoAIkjkBY2Sjv5tdeteSWedjO5OS6qPrHY2qHlufIeEBha3QeIkH7QvNzFrrs0bwZBkAyDI0vBGq49LZNE0Po9N4fnOZxzw9vinwMmWtB4ehkkldnBYNlKm1lP3WWuSTfmTfVY22jSlFKKtZtrCXV+Wl8a4WTSO9Fve7CnO14h2PDSfDSoszDhq9wnzzT+6ophacCT77jJ6cm+gXa3+xgqY7Ev1Aq5PPumhkermx+8uMHZWk6kCfM/wByvX7JD2dCEexIryd2zcoUswJPMhaeMw4XVwbMrADcjU8zxPxlau0GXHWQpzU5WHzMeHsJa5pBBBgggyCDzBuOq9GbibfOOwbKro7xpLKkaZ28Y4Zmlro+9C86usVbHYe4/pTZ8MUSB19pf4R8AjMlrIiLUBERAEREAREQBERAEREAREQEe7QWk7Lx0f8Aq1z8Kbj/ACXA3R2EG4LCNdYtoUyRAPjeM7vekDxONwJtqpxjcMKtN9J3u1GOYfJwIPyKi+1dpfRW0mtbmnPP3WUqL3kjrLWtA+/0XD6alP8ArjDi5fJfhktJLLZ2aFANnLxMm5JnzKyOUUG28U+saVIUT3c94XB4EEVaYcL6CvRqTr4SwayVr7L3hxTmU6lcUAKrMPUGQPGVlXM45w4692x/qFwp0J7t8X71clUlcmoC+44KJ1t5alKmC6k1z/0anlBI9vVGeo2bw1rCwjzhSwKWNPdSb4/hflGG7muzCMY/O1gBIykjWLa89BdZCQDPLVZiVxt5Mb3OFrVtTTo1D5lrSW/EwtNob1WW9L9v++abXZbZScnlnnzH1zUqFx1e8uPqS78Qvqo67RzI+V/5LlHGXY0XAm/Q6T8SPRfr8TdzvsiB5usP5le6sUzuUsYDHV0D5n8B81kxtQHKfvBcFryC0cm5j+9p8h810gCaQJ4un0A/usAYhnH0/PzVjdhlf22Jp82U3D91zgf9wVd1TYjmB8VYHYdhz9JxFTg2k1v8bp/BiMyXIiItQEREAREQBERAEREAREQBERAYMXXFOm950a1zvgJUA3iFfv21RTfUpM7vwU6RdUJZUplxBmIc2q9sfccZtbv9omP7nAvI1fUoUh/mVWNP+klZ6NWY8z+K8109tPsKlJ2viS83EsUY7yfh9yEdziGuqE0Kgq4fBYhrntY7LWNRlN7WsdfvHd8ax8OluJX3tllSmxg7uoabKdOlUa2m51Qt7gjwRxGZ3qItKn7NVrVjqfzr/Zcep0i11nFcf9789y7MEipXwQTFmrVxDH5WikcZTY4kuFTO7EsqNytiD7CjhgSTaSBxVjly1m8RrER6IXktkcFHU2zeiko2sn5J5/JlQMjqq5u3sH9Iw1agf/1puZPUix8wb+i3nDj9V3yXwymRM/nqFSnUqxeHnt56p+Kyv0yRRjY8u1qbmviI1kHmNfnHwX5h6clrTxJc7ybYfgfipF2i4PuMZiGAEe0NVh4e1GaB+84j0XBptOUxq+Gjy5r6bSqqrBVFpJJ+av8Ao5zVnYzYZuaX/bdb9Uf2XZxDI7tnOBYE3J5C510C18LSEgDRsD4a/wAlL90NjHEvrOY4NqMApscRPdkgFzgJ1gwDwuotq2mOz0nVlorfN2zy7cPuehtCLk7I0Kmwv0eu51KrSdSpte17yId4oylgENNjaSRx6yrsLq+PFDmyi74GoP5rib5Yujh8ONn4d/eHN3ld/AuBByiOMgE8soFzK6fYgf0nEDnRB+Dx/VQ7DKpKnKc72b6t7+7ZK9m21vWbtfF8W0Mztey9f4XIiIrhoEREAREQBERAEREAREQBERAR3fPdz6fRZTFU0nU6zKzTEtLmTAe2xIudDrB4QtajWIYxxb4jfL1PD4/kqVqFGiRWdSc7wXqa6CSCJOk/10N15z/0NBTjSm+Dfla/2LOzytvevWpnZnqSYDwObop9REOmOfO08vqjVyjIRkPL6h/Zn+XTS+ZYhjWucacREwCOAygQB6+QPBfv0iafiaIGh4+EWkC026dBFzxG2o2lHD1XJ6Pv44S5SWpJq8HXaYqN6yPz81rfSQyo5jRmJsdA1pNwHONgfuiXReFhxtezRckETlMHKbA5hpmmLX96D4SRj2lhSMjwB4fqQAyCW2HrAM+eovNT2X2cN+qruMrxSxdNZd9WnZ6WbSbukrvR1LtKPFfc/ab3uJZLi03HdtAHl3jic3oGlbuDpOaDm6XzPcT55iY9F91HB7G1G3kBw8jdZW1AWg81DPaPepJKKtdWWqvpfXD0/ZlR+K9ype2jADOyrHv0i2eGak6RPmHx6Kt9mi+Y3gWnm7+0K7u1fBd5gc/+G8H91wLSPiW/BU1stns25RJNoGpOggL1fQ1Xf2SP/Lcfnf6NEFVdY38LYkxOUfn5rX2fjajS/JVezMfFlJAdc2cJgiSdVKdn7lYxzYJpUgdSZc75QuxgezykweOvUcTrlDGj0lpPzV516fHJutlqPgV9izBEaf1mQp/2Hn9LrfsP+bVj2puHSiWV6gMcQxw9RAPzXY7IdjvoYnEl0Ob3bGh4mCcxJB5Gwsto14TwtTFTZ6lNXawWqiItyEIiIAiIgCIiAIiIAiIgCIiAKFYyqPpD7i0CZESXgxbQ8upHEqaqC45v6TWAPEzOYG+SwIItfrwtxXF6cX9Ue/8Af2JqOr7jY7rwu8DczgDLmWAAAEttebRbTpf8qNg5iQPaZYm4LjOWIjledI9f3CMDWho0ytAgQPedYfnivvG8T+ofUd5f5fJeP9q3OUfD7eGGW93CZ+VmHugb+yJbe05SQHHyaC7104LoOYKlKLRUaWkj3rg3ngVhwkEu/a9f8Ic/XRajM1N7mss3M3N90Odllo56iNII+zfp77nJQfxw+7XyWmH52K6jh8mbOycV4chEubJyjkSZHQB2Zt/sL92fWNTMYDWhxbEy6RBDp4eXzWnXosw9XvGufLifADOc+RubnjpOoW9Tpvlr3ZaDLkMiajh+qNNb2kc1Xp7N7eD3Y3txeLJrN825XvayVuw33rMw7y4c1sFXYBLjRfA++BLbfrAKB9l2ApDCMrd23vHOqy4gFwAqPaGg8BAVmOs7odfP/r8FAd0Wd0KtAWFLFV2AcmmoXt/0vCudE7RaMqLebp+Sd/Pq+KsT0o3qX5P6omIaFq4gws1N61ca5dtvBZisnJ2lVsVIOzulGHe/7dV3waGj8ZUT2rWsVPt0MP3eCoDmzOf3yX/8lZ2RdZsr7c7QS5naREV85YREQBERAEREAREQBERAEREAUJ2kQMbUbm94T5OIZby/mQOSmVR4aCSYABJPQKp9nbSdWfVrEnxPe8C1g57IHpI/h6BcnpmKls1uaty4fcnoJ3bJFSqmQ0+E5gGyRbiQ69xYWHTSxWV8mIOafem06XAE5YgWN7cblc9tc1XNA95pDnAWLg0wYHqNdLdCui+mWhzieEjUXdPAmRJOkCNL6rx02k84k8W5/XLd9eepatmxvYOoAwucYEufe5gkhsAfdkR6LRZii09+XZmPaPZwLGwAnnNjeJPJZMFVaX9w5ji3LY/VNoJ8gIHm420SlRaHyLsw+nJ9UyAPQkzGkkcF0ZUN+UEsWsr4aUV1m/Prd2O0gi9TJVeMMHOIOfLnfUMEttOWmDYAT7xsJ5TGszaBY72kNDjJJMmWllnvJvIe2AOMtE2K+8VVDmZvecCQZEEvl9MZuQJcfRpABsFo0MIXBzXEHLTIkwGAEVWuHO9VuYk/ZBJmAIq+0b0r/AvdXLstpvLVt57LPXZLhxJHSqZ2iQRI0OoPLzBVfveaW0sZTIgP7mu08HTTFNxHk6m31cpxgg/IC4EHgSIniYm5vxiL2XH3swAeaVYCHNLmE8crxJH8TWH0WmyzdHa92Sa3saNYbTTV84dl3XfaT0nZqxmwlXMAVj2m6yw7IPgCybRPhXpOBcWpE9q1SQQLk2VyYaiGMawaNaG/AQqQFb24GsVWf7gr0V7ZFZMobe7uPiERFcOeEREAREQBERAEREAREQBERAR/frEmngK5Grmhn8bg0/IlVtu2BneJAOSRPu6izuQ68LKe9pp/QD+0p/7lW+znHM6A4eECRqJc2SOXhm65nSD6jVr446a+s8C7QX9T7yUYVrhVJJNKGhsywnNqbPDgbQZA48ZXSqva2C6rmI0lwj0YwC/XLYTdadJgysNQOLbGQ0lsgus4AE3aRYrMyrSDQ1uZ93Q3KSTmEQRHnrGq8vOKhO8YN4VnbNmrrOl9FlPN8cDLzqzfwmc5aDTDjmLnfZbmMuPXl6rZ2jDKQyWYyA0Rc5iGl5mBMExMACeBtrsPdNIcJc8jOGwTYS2k3gbCSOJte6/HOzllbVxcC1uawzUyQACYz5WtNiJ7wiYN7MIKNKVD4tZc3rud3bqlpmzI5PO95fn8GjQIBa4y0ue9uVpNnOFUAwLGqAyM1rO1gLpVqgpZTlzPd/46VoZH16kWsdBppx008BhnPc1zc0uEMa7QNyhoLm6CzMxPUAG1/vahZVDmtdkptim6r9ZxAc4+k3JHDQ8o6F1F1GleOI3z1r3dl8W7nXi1m+Vl/X6fsUsZFdhdLzUzNNQnwyI8NNvKTr5x0/d5a5a2nABzVRPkGuM/JYdj0XnKaly0lrJ1ptkCCI94gcbxbnPN3jcTiabZkDM6/DQAR5E69VFGHtNphJ5aeebV3y4eDeiRJRebI3dns8K+NruyMut7ANsAuPvHUzTGjQvQrCOhfNiO7sYTvcXRm+esHnqGEuj4NV3qquzykDi6dv8Ax0Xu9SA3/kVaq6Wze5fmcvbH10uxIIiKwVAiIgCIiA//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Marcus Stoinis</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023_222</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>29</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>40</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>21</v>
+      </c>
+      <c r="X26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITERUTExMWFRUWGBkaFxYXFhcVFxcaGhgXFx8aFxgYHSkiGBslGxgXITEhJSorLy8uGx8zODMtNygtLisBCgoKDg0OGxAQGi0lICUwLS02LSstLS8tLS4tLS0wLy0tLS0tLS0uLS0tLS8tLS0tLS0vLS0tLS0wLS4tLS0tL//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUCCAH/xABIEAABAwIDBQUDCAgDBwUAAAABAAIRAyEEEjEFBiJBURNhcYGRBzKhFCNCYrHB0fAzUnKSosLh8RU0giRDU3Oys9IWRHSDxP/EABoBAQACAwEAAAAAAAAAAAAAAAADBAECBQb/xAA6EQABAwIDBQUHAQgDAQAAAAABAAIRAyEEEjFBUWFxgQUykaGxExQiwdHw8WIVMzVCUnOC4SNTwgb/2gAMAwEAAhEDEQA/ALxRERERERERERERERERERERERERQ/eT2jbOwbiyrWzVBqym0vcLkXOgggzfkoOz27B1R2TAk0hzNYNeZ0OXIRJNonnqURXQirPZ3tq2dUcBUZXog/Scxr2z/wDU5zvOFO9kbZw+KZnw9ZlVvMtcDB1hw1aY5FEXRREREREREREREREREREREREREREREREREREREREREREREREREVUe2Pf2lRovwdCqflBjPkLhkbNwXjRx7jIjvCm++213YXA16zCA8MdkLvda7KTJ6xBMczA5r5Qec73l7iXOB4jeXTEOJ1Mc+fiiyBK1qtXO6SBJPgAOgAAAC26OGmjGjnOnW2UC5IHK3mYhfuA2TWe4AU3HyP3qS/8ApjEhvuWgARE2IMW8B6LTO0GJUopOImFHqBZxGGw22Zzcznu5BoOkWsOUX0K3NkbYxGHqB9N9Sg8wO0YC1vUBwdwuGouOuq7Wx90qzgWODmWEnumTB71y9sbuvwtUhpljmuBcRYHofqmNUzjRZ9k4CYX0R7P97m4+kQ4tFemB2jRaQZhwHS0HvHKYUuXzX7KNtOo4ym9xME9lU8HFtz14hPqF9KLLTIUThGiIiLZaoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKt/box52cMoJHaMaY+jmeyHHlFi2/NwVC7NwDflLheGwYOs2++f6r6m3z2d8owNelzLMw/aYRUHxaFQrsCyk1tQ3c5oJPcGjVav7qlpCXBdjYtAc/EKWYKmLKC7N23AzNoVqgGpay3jJhTXdrbFKsCcpa4DRwAv5FUywrpteNF2KVJosVxdtbLZVBaR4dy6u09pUsMJeCSel9B0J71w270YeoYAeyTHEwgeunNC10SEzAGCq32jgHYR72MaTLS8OaAHDIQ/MSDq2OQvN9L/T+ArZ6VN/6zGu9Wgqo9ubBNc0nU/eeRTn9u0+EEq4KFINa1rdGgAeAEBW6ZloK5tcQ8hZURFuoURERERERERERERERERERERERERERERERERERERERFD/AGg70vwTKApBpqVqmUF4JYAIJkAg3kCeUyqzq0W1W0gWDiaXQJGWSSABzAM+imPtvoH5NQqhuY06xAA142O9fdlRDCPDn0Q08PZMaSdSBJE8+9RVCYIVuixpynmvGE2XVcCO3NLjBDRnDA0G7YYQTPMhwPTVbm0sSKWKpimTBMEEkmDFi43InSbqT4LCNYwmfP8ABQcgVMY0zwl8Zj3T96rSSIV/2bQZUp2rVqVCHA5ToYiwjUEgxdYKWzcQ1rBUxDa+ge17dbNHDbhvmPmNIv0m029plBDtBY9RzHit3ZuHpOzRALSQQRcHvC1BdEQsuY2ZX5gQKTGFjZFOo1wBcYgB3MyRAJ5clNdlY0VqTagBAdNjIIIJBFwDqOih5ADX5tDlFtTc+vRS3YlHJh6Y7p/eJd96s0nEwDu+aoYljQ0u2zHSF0ERFOqaIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIi5e8Wx2YvDvoPMZoLXASWOBlrh4EKjMQ00azmOd7jw0nkcpqMk9Lg+q+h1RftJwXYbQqZhwVwHDpxG58RUDj5hR1BIU1FxBWHbmNxVEuloDJIa7jdwgwPdFuRWhsnYVWq9tWpOXX5ulUMi83DRrHXkV0/8YFahT4pc2GP/abw5vOF2sBXNBo4XcXNjoJGt58+ahZuV90G8+vyWi7Ztai4187mtaDrhHiG6xm18+fRdDCOrmoKr2gCDxjM3OyJGZjgCCCW/vFdqpLgKlQOFh77i4rnY/aIc2x925HPnAHoT5Bau1hbAxf6/NdLZeatUbTEaG50i9/ip5TaAABoBA8lCdwaZdVqO5MbA/1Gf5SpyrFMQ1c6s6XQiIikUKIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKtvbRgw6hRqQJY5wE8w4NMH91WOXRc2CpPfff2jjqlTB0ADRpAuFcn9JUBDYpjTJlL784tA1HQrZneCrqlijRdI0OoN4PUfAKUbC26TAdUM3uT/XwWhU2L2jJy+fPyKx7M3OFQ2qFv2/AiVBmaRdXAHtNl2tr70usGviSQBrysT53/ALrJs2q97yWMzSetgb8+5Z8D7O6bTnfUc7u07tZJUt2fsxlNvC0AAQPBaOqNAstmseTJKke4uGFOk8Ey4kFx8uQ5AKUqit594KuEx2CrUz7va5hye1xohzHdQYEdCAeSvGjUDmhw0cAR4ESrLGn2TX7DPiNVTrQKrm7o8wsiIiyo0RERERERERERERERERERERERERERERERERFjqPABJIAAkk2AA5koiyLw94AJJAAuSbADqVX+8ftWwlCWYcHFP6tIbRHjUvm68II7wqn3s3sx2P4K1SGOIiiyWU9fpCZd14ie6FapYOrUvEDioX12NMSpN7WvaKKx+R4N80YPbVW6VejGHnT5kiztNJzVdsx3Z1GuOhsT46H1C/aZBlwFiTHcyTHwAC2qNHM2OV/OxNpuVe9zBpFjdo8TqPTxUQxGV4cdhEqyd3aYe2NF1aWzzTeYGYHy9FGNy6zuzykyWHLPUCysTCgOAM6BeWLrr0YFl5wlMwPsWTaGIbTpknQL3UEeK4W+FWMO91yAOS1mTCRaVWmP2n8sxVR7jDaBAYBzEmfVw18F2t3d78ZgSOzdmpE3pPBdTk3ht/myb6G5IsVEqGH7MPJnM4yRNzradBz6903XqltSpTku46Js+lPugGA5vQzH3r17KPscMGObmI2evXwG8gXHms4xGJLs+UHQxInZPA77ncCbK/t3PaRgcSA17vk9Q/RqEZSfq1ND0vlJ6Kagr5axOGDfnWODqFQZgYgB1pB6Wme9p5krq7C3sxeDMUKxDR/un8dLSYyn3NR7pBKqDCU6zPaUHWOw+m8HgQpatSph6hpV23G6/XiDvGq+kUVb7v8AtXw9SGYlhoO0ziX0j4kcTPMEDqp/g8ZTqtD6T2vYdHMcHNPmFSqUn0zDxClY9rxLStlERRrdERERERERERERERERERERERYMViGU2OqPcGsY0uc46NaBJJ7gERcvefeXD4Gia1d0DRjBd9R36rBzPeYA5kKh9799MVtF+R/zVA3ZRaeEkGfnD9N0XvYRYTdaO928T9o4x9dxIpt4aLD9CnOpH6xPE700AWmwCIFiOXMERE/D17l2cJhA0BztfT73rn4jEHuhYqeGj8QvdLCuq1mhnc0m0XOYmb8h8YWYvnKes9TBjSxsQRC7L6PybBuqADtHttoIEZpvpAl37oUmOqmjTAp3e85Wj9R28mi58Nq37LoNr1pq2YwZnH9I2c3RA8dih7GRUNMAO7PV8mLRIAi9+fndZXYUuDCXPM5TYkXLxyBjMGE99l42bQy0SYvUIi4FtPvcV0Td4jQEDv8A/L7FZo05ZDrk/enTpKqYir8ZyCBJ4x1PPyW5svHVWXDpIJBDrB0WzW0MHSYKn+w95qNQBjj2T/1XTBP7RET3GFW1Jl3XPf6DwjU6yszSZv8AhbWZPl+rEesGJ7Nw+Iu4Qd4+e/rfiFJQ7Sr0LAyNx+W7pbgrK2tt2lRN3Z3cmNIJ68R+iPzdQXbW2quIdxmKYuGM92dZJ5gRqehiJtqZYkjvifXl/T4BY6ZuSbgSB5RPwTB9lUcNDu87ednIfZ4pi+1a2JBbo3cNvM6n0XppE9ADHpkOn+o+ndK1KjAWmRM6jlrUbf4LYpCG+tvUT6EdywiSyR3P5jv5jxXRN1zhY67Vi2DjhQf2dS9CofGAeGfESAfBdTa2zTSh4Jc1zeEd4gxPkYPP4nj4jB5m+Bj7wfhp0J7lJd1cYK9Kphn2fTBN9dT/ANLvgQFxcY04N3vTLNsHjeDYPH6m2ne3U2lenwT29oUfdH3eASwnUH+nfDvI6bFxW059XD0MLNsvE1aNXPRqPpkauY5zCTe1ozADWe7wPljY4ekk9bkmI1m40/v7DosAJPwHW3w668pHYLNhXmxUIuFcG4W+z67xh8SQakHJUAy541a8CwdzkAA6RIvYS+fd2sweHCczXDJoSDMg27wLeCvrCV89Nj4jM0GDqJEwV5rGikzEGnT1EEjYCb26QeEr0GHpVfdWV36OJA32MXtvB8FsIiKstkREREREREREREREREVae3LbRo4FlBph2IffrkZDiP3izylWWqJ9u+JzY2jSmzaYgfWc50/ANVjCszVQPv7lR1nQwqu8BYCb9eo6z5fbK3+zOomecHXT4znM9Z6mdWiyGgxPUfHXke/yWUPIggWPq2bQe7l8P1cnomCBBXFqEkyFma2XiBcyWzOojhgxFyPPPKn+2936dbBdo/RjsogTYQ2BaQ5zhFtZHeoAJMEcnA2B1EZvo2tmHp52LtHajxTw1KgQ9od8pziSA0ANGYcwyr2wvbhYqmKa4VqdYR8Aeb6Scs3vqAQN86GFcoVWtwdVlxJYTGuVuY+ToJ2W3WURp7sYx7g1uGqAtvBaW6nq8AX8l18D7OcU6CRTpyZhzpI11yBwJUloYgte+pRDXOZTbmqdm9wdmc0wXniqOeQBmjmIADSTvjGY1xkMeBDiGink4mGwmo2QHi5EnlBJlp8nif8A6DtIn/jFJotdwdIMA7TaQZAI9RMlLD4ePizE8DI27QN9rfWODhPZg/V2Ia0/UY5/xLmledqblUaWFq1m1nudTmeENYSHBrhzuLiQdea7/wDh+Mc8UjUJLYeKj6jpFqTZAYLwWVeEm+ck6SdbamzKraVRlQj/AC73uDCXSWNDeIkCZdUq1IjVzugKr4ftjtB9ZntMSO805WtYAROlhMEbCQR/NFpkNCjEClwkk7uJ2fhVZWeA0k8h93Lp6+uilO6m7dLE4QyajazCA7I01A0ObILmATc9oJkDh8JiWKJOVvV4HkCM38IP9V3N3dvVcJVL2XDm5XNzQCLGQYMQbgw6JNoJC9/iG1XsIpGHCIMeIvv2LlYd9Njwajczb206iFu4zdCq0HsqjasCzfdeTH1ZYHQ2cufMYsJXvau6L2GiKTDHY0zUNRzKYD3F8sBeW34fdubKanEvqAOqvHG0y2rSo52NBuHFjumUkXI5gRb8o0TTEinmu6XFruEOddvCZAEwet9QufTxOJDfign16A7Isuk9mBcZyvYNo+Fx4ZXaAXvJtxm0Mpbi4kj6AtzzdANQCOQ/NlixG7nyKoyu+q0uxFQ4aGumHy5ribCQCGeal22966OHbUpMo0TXEtth+zDHAukkvu4jKYgRcGeShONz1aOCfUdw0sRiHE5rud8y8Hi1Orj3B3eRqfeq+GqCsAGuaRpe7Te+mzz4KWg7C0sXTNAvkOEyR/U0RA36QeS0dqOHavyjVxMdenl4eGpWtRpwepdcnqT90Rby8Dape6e+eU8JFh/pI8Ps9dI1i/UaGPMSb9b8p7LW5QBu+/Meq4lSp7R7nDaSfOVIt0Cw1eN5pgFsuDcxaQHRw8wHRIHQq79nVmvZmY7M0udB7sx+CoLZuBxFQzQpPqFojM1rnAX5wL6Gw+Ct32d1AcM7/mG3TgZ+C832lhyzEmq24dE7w4CIO6QLcZ3helweIZVwDaTjDqZMC3xNJJkWmQTe+gFtVLURFSWqIiIiIiIiIiIiIiIiKt97938NVxva4hvaF2RrA4kMbDdCG+8HQ6S6w1sASbIVbbzONSs4EOyy5rIIymoJYKb4OZoOYCdIe4fSaVJTeWS4blvTp+0eGn7+zH4uuFvvu1TpYVrqNMNqNhzj7rnMa0NcHgANDgXsdmABgGbXVcmIJ8ZtB9HRfxzK89lbIf2VTte1NKqDLHfpG5h71RsCXQcpaDGUNkHQUbtHZ7qNRzTZzCWkAzEX4SPeaRPvHQ6tXZ7OrPewg7NL7D46a9Vze06NNlQZTO8xafLl0N9gxukD+aPHWRNuvQHnxKR7hbTLH1CHtZFJ7KZccoAz0yQ0AEBxIqkWMSFwBBBEROoGk3v1B/InVaOx6hykau4R1PvVtB5KxicO2u00Hd1wM6HQg6HXw5qnTflaXAXBHO4I++IBVsYPfbCYZhDGvque4vcRLaZc6RGepxmA0DMRfXUkLxW9pVY2p0GN/bzO5gcsvX+qbtey972NdiK/Zki7KbQ5w7i8mAb8gR3qX4X2bbPpjiFR8al9TL69mGrzrex+xaTsz2F7tpcXE+Ra3yjcr3tMa4ZWkNHT6EqDu9oOMIsKQ8Gm1mnmT1K1cZvri6tNzHOblcC10U2gwQQdZ7/xVjs2HsZlow8jk6tmP8TyV+YvBbJp03VOyova2M3Zw88RgSGnmbSVYFPsqkczcM0RtLW7OJWzKGMqHIKhJNoE3nYqIqt+cY3oKj/5FnouIcHAwQ6Qe8GQe86fgrp2fs7ZvygllBkDDhzg9heAKjmPaCHSJiNF1cNUwQHDQEfVwryP4aa6P7VYbtaSOf53Ku/sypTOV5g8jzHrKp/Bb01881YqMLpe3saAzyCDfJrBPfqt7Fb2cQLaYcALmo1pc5xc9xcS2Moi0T9G6th3yJ3vUG/6sK8f9VNauIwOyT77MK3xDKR+481oO0KUiaZHL8fY5Bb+6Vf+zx/Kpba+0nYir2jmsa6AIaCBDZA94k+7A10A5LhY/EOD6Tcxj5yACYzFrGEgdSJH9lYHtK3boYcU6+GI7KqS0tDs7Wus7hN7OvbkR3wq6xLg6szq3MbSSJyfG3cr7ajKtEZNLW5OEj5G9wqjWvo1pOsG/Q3+i6FBkNsYPI2HThHI6D8FlpvYCM5ytm8QTE3yyeIwfOdVgcHaCBpzAi4t3DUSfwX41mUyNYILiJIsbNbHhr8dFZBI0VYgbVcOwNuPr1KQkUm1aL8lMuLj2lPhLGSYjLUpVMwEjIRAUy2VlPaOa0DO+eGIdwth8jXM3KfMKr9g7Rwbg0NxFek+kx4osqANDqr6RDnOrS4XJIAlgaIAAvNk7s1HuonOCCKjwJEWDiAY+3vlefxlJjRmaI2btpjnaL3kzddylULgBM6nxjw++nZREXOVhERERERERERERERERfhKqyrtzCMrGpiKjWk27EsJqA9pJLmgTcsBEgdZNlP96MX2ODxFQatpPj9oggfEhfLeHcXvLiZLiSSTJJLhJJ56q7g6Aqm+iiq4g0WnLqdvD/fyV5UvafgWWa2s8csrWR5ZqgIVd767VpYvFPxFFjmBzW5g8NBL2iMxDSRoGXkaKPtJ7p621t1PWO/xWQNiOL8f92OvQH4rs0sIym7O2Z5rj1cU54ymIXnIII16WGl/WxBWpset2WIl2jcRRdfTKXlxJ+PPquiKfn1gG/ouRtXheSR7wbbQkCpBH8SkqjQnjPKCsUXaxw9Qr4pYh1RtXEVa1WlRpvNOmyi/s3VC1wp53u73GI5R67B2+52CxsFxdhmOc1zw15jIXDNwhroym5bpEybmKbB2nVNAANpVsPUGYMc7K9ufk4wRa2l5vbQTDZuzm1qWIpPhnb0i1/ZWyh4yANLhxENnicNToBAHlRSeHBzusz66HZEL2GJqURTcxsH+mIEC2o72Y/EHFwkki5hRnYm8+MxeIw1AVXUppVadUhrB892ddzX2bHuik+1rrt7vV6+I2fiq+JcXTTc1jDBDTRpFj3j6zqwee6BC7Gw91cPSeyqzOXMccpLheKFLDSYAnhpA+LnHnA6WC2JSpYY4Vubs3CoDLpd84XOdfrLit6pEEAX/ACufQOWo1x0BB81E9rA06LRTcaT30cDTdVZDXhtTEUqJObrlJAPJR3buLrUmY1jcTVeaWEoQ/tCDmbiy0ulhgOjhJFzF1ZGJ2TReXU6jczHUWUyC4iWhxIuIgzzF7BcrC7tbOyVmOY3KR2JBqvE02v7QA8euckl2pJuStqZDWweC2xD/AGlTMFEdlbRxNRlDD9viKVGvjMQGvdUHyllGiwEU31Llrs+bnNuilWxsfVZi6ramINanQwdEudYNe9xee0gEgEtZ1Xt2wMA+hUbUa0tfVdWvUcPnXC7mEOls9GkC5tda2J2Xs0PfYZ+yFEsp1HyGmkaYYKbHQ3gcYMAiZlSOAvKrtkmyrbbu1n18JSNetmq1JdldQbRdAaYc1wA7dhDhBywOK5lQjAy6q9x6xoDeBpbqrWxu4tGuWg52UWNDWU3PJdAJPE5xJgSAGgwAPFQilsugMbVw9E/NsyyQZ5QRJ5kq1Rx9JoDNgkk8dw+vktKuBqmXbTAjbzWLDU8xytAJPKC4+jfLXqt//AKxEihUiLTlaY/ZMRrp3BTPZzadJobTaGju+88102OBCq1e3nzDGCOOvlAHmrNPsJmr3meFh5yVWtXBvpkFzHs/abb1iOQVteyzaLn0X0i6RTylgOoBmR3AQI8SuRiWiCDcHlqCuluPs7scTnaeCrSeI/Vc1zDB6i5I6cXcs/tQYum5j2wdZGn1FufRRv7M91cHsdI0vr4ix8uqsFERVVsiIiIiIiIiIiIiIiIot7SqT37NrsY0uc402ho5zVpzPRsTJ6SqV3b2VSFntDyDz08h0X0Ft4f7NVjXIY9FQmxDFQ+K0rVXtZlaYHDorOFpsc7M4SpG7BUf+HT/AHG93d3BeqeEpf8ACp/uN/BYK2IuslKqNSY75VAvfvPiV1Mrdy6FfYuHqMh9Jsnm3gPw181Wu92xXtqClS44AIuA7K6REHU8P9lYR2jDZkR1BkLlYCl2rnViJLzDe5gt8dVaoY2uwFocSDsmfCdFUr4Oi8h5Akbfkd/VQ7dvdjFg/pTRGpyvdPjDSAfVTTDbHqZXf7VijMTNVxBju0XTwmDMZjYchr9q3RReNRHjI/usuxte2UxG5YbhaUQRPNQ6vsCqAG9uXxpnnmZ0k/notR2xq4uACe4wZt1/v4qb1aRPLzWP5PHM/cp6fbGKYIzA9AoX9l4Z5kg9Cf8AagNfBYo1CXMc4Q0NJuLF08yRy/Omvhdm4jjHZO/SGOGLfN3+BVjPoryaCsDt+sB3R5/VV3dh0Se8fL6Kvv8AAMSWx2bQfrOb1J5eP9lMdjE4emxjW3bN/rG5d5m66TaSysw8Kjiu0auIADogblew2BpYeSyZO9Yvlz3DiYXO/WLzHk0D4yuTjdl1H1u2aGtOUNIgmYMzPmfVSihTC2HNGsSqgc5Wvh0URY2vZsAdXa+ghdrCUiBcyukG0zygrVxTosFoVuCFp4oyQBzU93UwOSkHG5vB7jH4BQF7eJo5kgK1MFTy02t6AKzhRqVSxzrALYREVtc5ERERERERERERERERae1mzReBzEetl897NqQ93cT9q+isU2WO8DHjC+fWYaMVWZ0qPb8TCgxAloVvBn4iFs0CXOnkuuylbRauDoFguDK3WvPOyqxC6AMrXrbPaZmTNjqJ8YX7QwrmDgLgB5j4rOHjqtujV71rdbGFzcQ7ExALSB1Bb8RP2LXZt2oxwbWDmA2Ds0sJ7ncvAwu+8k8gtavgxUBa4Ag6g39VnMRqtYC808TOjw4D8+az1arhy+8KP4jdd1MThqpaf1HEuYe4c225ady0m7yVKJyYljmcpN2nwd+MLcX0WhMaqRtx4kzZZ24tui0KG0qFYDSeSyjBMIs4jwMhYjes8lvNxLV77cdVxThHgmH6LKGu6hYhbLssI6rZpVD1XAZXLYlbdDabViFjVSBlNpF1hxVFoGb0XNZtMei/MRj3PFzYaIdFs1t1sbGoipi2A8jMef8Ac+Ss1V/uFhnPruqkWAP4D+b4qwFdoNysXNxb81TkiIilVVERERERERERERERERFRm8DW0tqVmm0w4eXD/L8VeapL2wYJ9PaNKqBw1WWPLM0w5vplPmo6olqsYYxUW+1si15v5Fa+Iw56rgYTaLqd81j15LZr7wtPNVIXSkLZ7Izqs1Ng0zH1XFqbRa+w9QVr5yL9tHiJ+8JCxKllOANSsvylo5j1UKd2p/8ActA7mH8ViyjR9dx8wPuTKFjMprV2swC7gFyto7QpVmluXP4CVG6u0MJS6OP1yXHymVp4ve8xFJkjQaD4BS08PUf3Gk9FE+s1upWHE4SpRdmpS0a5f6LdwW9hYPnbHqCozjNrV6hgnLJ0FvUlc44ZxN/WdVdbgapHxBU34poPwq0cPvKyoAQ4Hz/BZBtpvO3jcKrBQIjqdPgfvWxjDUbkGZw8yo6mFDXhk3N1PTrOdTdUiwi6sxu22C5PXz0XirtrDm5EHqLFVmK1UsLg90DUz4LHSq1CZLnGL3JI6rb3BwIE6iVH78I0Vj4XGuqVQzDh9dxmGNaXPgRJtyHVTTZeycbW4Pkz6XV1UZGjvvc+QK4fsLw7fl7nDQYeoAOcipRaf4Qw/wCpXssVcMKbspWjMa4iQFytg7JbhqQpg5jq55EFx8OQ6D75K6qIsAQoSSTJRERZWEREREREREREREREREVe+2r/ACdD/wCQ3/t1URau7pUlLvhVNjPz6KPs97zRFCr7tV0qeo8F4rat/PJEWEX6/QeK5+L90+CItm6rBUdb73munyb4BEXcwndPNcOvsXp/6f8APQrzh/0g8ERdCp+8/wAj6hQfy/4rJhv8wzwP/bWxvH7jf2h9jl+ouUP4g7+275rvU/4Kf7rfktXC/oKng37lq4X8fsRF0amtPl/6K4bf5+fyCuD2If51/wDyqn/5leKIuPi/3p6K3S7gRERVlIiIiIiIiIiIiIv/2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Adam Zampa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023_223</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>60</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>67</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>67</v>
+      </c>
+      <c r="R27" t="n">
+        <v>60</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIVFhUVGRgWGBcYFRUWGhcXGBgWFxoYGBgYHSggGBonGxUXITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQ8AugMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xAA/EAABAwEEBwUGBQQCAgMBAAABAAIRAwQSITEFBiJBUWFxE4GRobEHMlLB0fBCYnKC4RQjorKSwmPxM0ODJP/EABoBAAIDAQEAAAAAAAAAAAAAAAAEAgMFAQb/xAA0EQABAwIDBQYGAQUBAAAAAAABAAIRAyEEEjFBUWFxsQUTIoGR8BQyocHR4UIjJDRSsvH/2gAMAwEAAhEDEQA/AO4oiIQiIiEIiIhCIix1agaC5xAAEknIAb0IWRQuktZKNKQJqOH4WCYPAnIKr6d1sNWRTltLdudV58Qz1VUt2kmmA5wA+FpwHWM0u+tHyq5tLernV17fMNotHIuL3d93AeK07Rr/AFW5tpN/5E+AOCq9Cuw5Mc4chgta16WLBAZhwMHyJnyUM796n3bVf9H6/U3CXjEcJjvkSOqkbDrSHnENAOUOmBzkYjmFySlpim6QWNBGcDEDImDu5grY0fTYxwAe6CHEGZ3E/RdFR29RLAu6Uqk5iD94hZlzfVDWCqxzadeXMJhruA+Yxy6ro4KYa4OFlSRC+oiKS4iIiEIiIhCIiIQiIiEIiIhCIiIQipftF0kG020dztuoOLGmGtPJzvG6VdFyP2j2tta2ClOw0APImTdxI87vU9FXUPhU2CSoWz33/wB1+Lne4NzQcJPM5AfUBKoYwXnuDRPC85x4NBzP3AjDzpfSjWYYNuwIH4ZEBoHxQIJ5RkFE2rtLrKkgOdg0RejfdAOZ3nCecJYCSmbwvWktKktN1oaNwdNR0cSJutHLFV+ge1Lg5rCYJDgwNMjGDGWAOKuuitSnva19R0OOMAeoW1X1NuE3Yh2+MunVSBAXe6cVzuzPLHjMwQ5s58CD3GDyKl7LbG070yW3jdH5BBA6kkDuKtLNTmDadJUNpXQAbIGS5nCDRIC1aGni95gYDM7u5dR1D1kcXNoVDLX4MJJMOGMAnMbuRjiuK2Sz3S/i3HhI5KyanaQPatE5G807wW4x1ifBdIyeJqr+axX6JReWnASvSbSyIiIQiIiEIiIhCIiIQiIiEIiIhCx1XwCYmATHRcA0ppM1LRUqkBrQbxMzjJujHM745ruWnS7+nqhoJcWEADPERxwzzX5v0o8MJaJJBxwutnLdi7rPiqatyFbTMArG6atS9i7HZYDMnfPzPQblf9VdXiCKtYS4CGjc0TMBR2olkaQ6oW44MB7pIHAYhXuzNS7jsCdpNtJW81ghYbQ1ZqQwOK8E4wV0qwarQtEQq3b6UhWa2AAKAtjmiZcAeqguuKoml6QplzhhkOeMgnz9U9npnSFnDmyL4McYk5ZblsaxtBAduMt7zl5wpT2V6MD7XTcSNmXDLgRdj8R+iuFxCRfYrviIiaSyIiIQiIiEIiIhCIiIQiIiEIiIhCx1aYc0tOTgQd2BwXDdatTjSfW7N18NxggB2504YEQV3ZVbWexw/tfwkQZ3ECI6Ef6qurIEhXUGhzsp26c1QtTKJFlZGZLiepP/AKWza7d2eDqzrwBMBjnkQJJusxwGKktH2HsWBoMi8SOhMgeBW+2ztMGOhyjoQlv5JxoOWFUtC6xWh7jB7RgN28aZbJiYmTjy5K0se5zC7I/ZWEaHY0js2hoBvQBhPGMgV7FT3vveh+qnTaYuqlpTSFeu6pTom7dDpN66XFom607py+yoXR9kqFsmlLr0Q57w4j4iDh3Ky6LaG16gGTiTH3kVK1miJPqgOAEKBYS6ZVR01Yi6g7DEAOjPIgqU9m1G7bKTWCffLzwDWGemLh4rae8RUduawnvyHmQp32T6LDBXrZl7oH5QdpzR33fBSYJICqfDQSd0etl0NERNpJEREIRERCEREQhEREIRERCEREQhFH6Xpl9NzAMSJ8DOHNSCwWx0MJmI38FwroMGVRmvBEAfx9F6szzgqxV0of69jGyKf9wRuMguBI5EQOvNWSmcUmVosfJ0W+XiFFAi868Yzju5fea3jXA6rQtLGEl5aJIgnAEjrmokyr22VXt1oDLQ0sIJvAOaDjDt8easNp91Q9pZQpOL5a3iSSfMrb/qb9MOGLSJB4/coIXCdZWKjYjXD6Qe1l+4LzshttPnEdYXS9W9EtstBtJsn8TicCXHMxu4RyVQ1IpOdWLmxsie680HyJXRU1SbaVnVnmcuxERFaqEREQhEREIRERCEREQhEREIRERCEWta7NfBExIgiJBWyo3TWk20GScXHBo4nj0C44gC645waMxXMNL16VGuKWw15c3tar6tNz7wxFMNZhTaTAAAx8YlKVfGDnu5j6qpa1WIVKlO0H3qZBd+anM+R2vHirRQxaJEjl9+fIJIuBhX4Gt3zC8ag+/VbtZgc2CSOhIMciFHO0a1pJBfBB/G8kHvK2v6i5g7Ebj9eC2KddkLgkFaTXWsq4/RzSBDf3EknxdJHcshcYjcMFIWytiSMuC8aAbftNJsTLwYOUDaJPHAFduTCjWdAkq66naO7KjeI2n+m71KsKInQIELKcZMoiIuriIiIQiIiEIiIhCIiIQiIiEIiL4hC+rmGmq9Q13ir74MRuA3RyjEdVP6xa3BgcyhBOIv7gfyjf1XMrBpA3gHuJL9qScS44uBPEkz48UtWeHWCzMZVa8ZWnT0UxXEysmrdo96g7NglnOnlH7cB0LeawmqFo25pBbUYbr2GWnnwPI4g8il1XgMV8PVk6Gx98FaXMxz681g/o84JaOAy3bjkFi0ZpRtdl8CHDB7d7Xbx05raNRdXroBEhRFvsdTHbw6BRFq0pUslM16boqUywtJxkl7QZnMEEg8iVZ7aZCpmttnJs7mjMuafCT6wpNiVRVbLSuz6naz0rfQFVmDxAqMnFrvmDuKsK/M/s50xVste+w4RDgciN7SOIz7l+hNCaYZaGy3Bw95szHMHe07immvBMbVltf4iw6hSiIisViIiIQiIiEIiIhCIiIQiItDSulGUGy7Fx91ozP0HNcJgSVwkNElbNptDWNLnuDQN5VI1j1nvgspmGeZ68uSjNMaSfXeXOOG4DIDl9VD1aUpSpVzWGiyq+MzeFunVadsrXlGOsd8hjQS45NAJPdCsOjdDPrvutMAYudndB9SeCu+jtFUqAu02wd7ji53Mn5Zclm4nHNoeEXd05/jop4TCPr+KYbv/H56qhVLFXpNb2rRejEAg+mExjHVYK9ZlySRB9eEbyr9pSxCoII+Xgd2fmtSy6s2dhbVDJLTMGSAIIwnrKWb2mMniHi4aJl3ZU1LGG/X8eZXOdA2lzbSHBrhTqtxvNLb0ZOE/eSuVTEKX1g0EKgL6YmcSzieLeDvX1qTK7m7LpMb4xHUfMYdFoUMQyu3M3zG73s/MgaOFxApRQq2P8TscOB2HYQfIkQtxj5MSozTVlvG5xCw13ubUa4HArParVLgTBMdFcnyNijtE6ObRdUL8O0YQ3Cf7oEtw57TTlg4LLq/pesIvA0qtPAPbehw+E7wR3hZrU+9dHwuvnwwHjd8Fc7PotoJkCfv+Epia/cEHXN9oWVXoMq1XN2gNuNb5lt6E13aYbXI4X8Af3N+YVzpVGuAc0gg5EKpUaLbsQMOW5KFodQc11OA13vU8mk8vgdzGBjHiDD9sNLstQQN+v2XW4eowfNm8oPv0VyRYqFYPaHDIieCyrbBnRRRERdQiIiEIiIhC1NIWxtGmXvyGQ3k7gOa5zbbW6q91R5xd5DgOW5WPXZriaZ/C2QR+YxB8AR/7VVeUlUqB5IGwx5rJx1R2fIdB9Z2rA4rxaMLruBIPn9Qti5jHEFbuhKIe9kiRMnu/mEvUeGNLjsBPokKbC94aNpj1Vj0TYRRpNbGLtpx/McfCMO7mtqsdm98Of6Tn4Z9y+sbLS3eMj5gpSN4EfECD1xBHiF5Vzy92Z2p1XsmMDGhrdAsFWnlzlh9Wn74r1Z8oP2V5s5LqQO+Ae8R8wswGM/EJ71FSWNuAhQmntEipttbtbwMzzH5vXrnOvWBytoVnUnh7NevA8P/AEXVVegyswseLe7j3wNlzmtZATOPVvz3LG2zxvd/iFb9OaNmarB+to3/AJh8/Hiq+QvT4euyuzM3zG4rz9Wti8K7u85jZy4Tcctiw2GzTUptjN4EciRPkr5GKq+g6U12/llx7gR6kK1QsntR/wDVa3cOp/S0OygTSc47T9h9yVjOBnx6LDXbLXt3jbb6/VbLhuWtWlpB4eizhdaqm9VrTfpEfCY7iA71JU2qrqaYfWbu2SPF3yIVqXr+z358Mw8I9CR9kpVEOKIiJ1VoiIhCIiIQqZrnXN4MG/aPcIHzVZIy+53/ACUxrRWvWl8Yht1vpPngo2LpxZLSQYn3RJbB+E4OwKyXRSJG0ucecuJ98EkcFVxlRzm7y0WOrQJ2GAB5yQADcjDMOHMH5fypHQYPaOjc15HhI8yo23NuRnsOAOIOYg4jCYJPcpzVUf3KkjIAeJn/AKqnFuHw7iNo62SWEpluKaw6g/8AMz0VhDsQRk4fyPVYqJh7h+YOHRwE/wCQcvlHBgHwG73NMD/GD3r64f3R+Zo/xJP/AGK8ySvVBLC3+33u/wBisrB5LzZBsDv9SvYXdyCsTmrA9zZDC5oc73QXAE9BmVi03bW0aT6j6gpNbm+LxEmNlv4nnICDiRgcjzLXU0anYUadjq0bbVrUXU6lUN7Y0yXDtS9rnO94AXHEEZwIV1CiargPrG7U8ht4aqt78q6dRdtAb8R3hV3WKxdm+80Q1xiODs/AjHuKslpEPDuJHjl9PBauk6PaNezeRI/UMvP5qzCYjuqofsOvL9a/olUYzD99SLduzn+9P2AoPVrF1V3Cm75fRWhzcOiq2qrsaw/8ZPn/ACre0Ydfore0p+JM8OgVXZkfDNjj1VN1ot5dXbZQ8CWsfda5zXOBNRpabu6QzePeOa1ND29lmc+nVcGU5lxedlpIcPewDZDWS3HF2c4Ldq2Mt0jVrXHOpPoNpVIpvJvyYumJu3WCS3IuHdGP0JUNS0UqzqlSm6i8guxBcXsdTdTIyfsmWxgW4CCFfSdS7nITsB2SZIBidrd38hc2srnA5p8lcdVbS2naHUnHaqAhp3E04kd7TPcVdFxrSNq/pG2Wq28f6fsXQ73i0tNNzTgNxjJdgoVQ9rXNMtcA4HiCJB8FtdluHcZdxP1M/dQqnxxy9/RZURFoqCIiIQiIiELnNqp361QkxFQu9ThHULXutJLXHaJa4mSGgmfHPM81jtVXbcQN5O7DdOOf8Lw9zTGGImXEyXbp5ALGq0nOfOgOnlfbskeutgqMLjKNKm14aTUaSf5RJJAiIA8MEkzIGWL28VGCHU8CCIBAzBEY84Vg1QbNEv8AxEgH9oA9SVXAReIBG4+Ks2rALWAHJ5cW9xg/PwSvaVqEcR+eoSvZ0uxRLgZgm+zQdLKSA23j4wHd8XHeQZ4r43G4eAJ8oXq0YFjuBuno/D/YNWKyvxI+G/6tI8ivPlehWzTwaAgzXxvFeqfFCFzrXrWOlR0nZmV2vdRs7DXusAdNZ4e2m4gkTdDTGOBesWpdKppC21NKVmXWMBpWdpxiJBIO+6HOk73VD8KsOtGpVmttZlaqajXNAYbjgA9oJIDpBIgl2IjPpE7ZaDabG06bAxjAGtaMgBuTzsRRbQDaYOciCdgEkmOJmCdxiFSGOLySbbEtZ2HcsR1Bla9Q4rNVBOB+961az4SrVaoXRoFO1vZuffA6Ft8eQVradlv3wUONHsdUbUl15oGURvGOE748FKvdkFdi6oqFrhrlAPMJfDUnUg5p0zEjkVG6csRqtF2o6m4GbzZmN4wImeahzoQAlxqvLwSQ70JnamImCFZK2S0awXaGIqMblaYCb7xzRAKputlBws7mudfc1rCXY4xVBk9x8lfvZfbzVsDATJpE0+4QW/4uA7lWNI41qgiQAGxuIEAg+alPZiBRqWmzY5tqs/SQPOHNW32VWGZ1M63PSffFI4lp7xr99up9hdCREW6q0REQhF4e6ATwxXtQutNs7OgQM3mOg3+WHeouMAlRe8MaXHYqJWzMb8OoEZ+C8xJjx78fl5Jc+4K+OYQMIw5FIlxOpledzvGhI5W9/iyxlu3OM5ie7ZHKVc6tPs6TCP8A6oJ6ZO9SVVNHVGiqw1MGgyTiRhiAY5wrlSe17SA4Oa4RIII6YLE7UcZaItc8J2X5dVudlEuzOcZNhs0F9OZ3bF9twmm6M4kdRiPMBaWi6ofUtDhlNMd5ptqHyexetG1iWBpzbLD+3Ce8Qe9aWptqFShUIHu161M8+zd2YP8AxY3wWUBMncteYt73/ZTT+C9jJYxmvtV0BQC6sZK+grE0rLRZJxyCiLmELUttSHAcRK06xwWzaG3nuUXpKqWQezL7rhgPCR0lXsEmAutaXHKNqzWe3tg3ds7QEGRebjHOTHcVksluLi2/DS5vuw6ZBxPIcjio3QbX9rUiGMe682mRIhx2y0tOy5rQcMZy3SMOm3vpvbWDmNaH3REl13Bxvg+8JDsPPJXd0C/INunppu4LR+FYandNI0kGZJtppGtjG43kQrKSC0HcROIIOPEHEHkVoEzEraszwWOg1HAGQ94i8HbQLeLYK0a78CqWi5CzqjS1xBUMATUqc3O/2JWXV/StP+vpEH3QabnDI3smnjB381UdZNNPFarRZstmHHeZE4H8Ix6q4+zfVF2zaa7brRjTpnAuO57huHAb88s9/AYNweKp8vPaVnYivnPds33PJdRREW+hEREIRUH2p2yvQpMrU6bX02khxJOyXRBIGYMRM59Vflo6Y0c20UKlF/u1Glp5TkeoMHuUXDMIUHsD2wVxTRWkrZXaHNZQAOPu1Dn/APopanRtQzbSPQVG/wDc+i3NG6P7ACln2YDCeJaIJHgpZpSJiU2OzcKWiWdfyoEXt9N45jab9fJeXWo0wXtdi3gceQkfNWGFG6TsjHDFoniokTZK1exqZvSJafUfkc5PJauida7oPbQHYm9uJunB3DdjkY3b8mpNs7INaZAtBdUM/hdVe+o2f+d09eSoenmzVp0M+0eGH9Gbj4AhW8Ml3ADLklPgqUOi2b6cvPZwWdiMVWplrX6tJ/Edb7QukNbC1LTU3LzYrbfotfviHfqGB+vesdPacvM1AWEtOoXoqbg9ocNCs9Jq2nbLV8oU1i0k/ADihrYEru2Fpsxx4qK01RlzNt8PlgaIgugunLZyzOGClgFr6QEOYOCspuhyk12Uz798r7iFFWa0Pp0roADwZxbiAcXDHjgPsL5VJqNax1NpFR4LTEzua08DDj4rct2j5bUcwNvOAIlxnD3sMhhHfwWXQ2j2NaH1CC5z2HEwBUExdHHHDoOCuDpEt1Oka9dn2OmqfOIpA97oRJ4yY46CdeB3rYqP/tA3putuYCBLZGAjDER3KNI2B3+iktNPhq0w3ZHT5EqFIixG9ZzjdVzVnR9F2lS6q0Pl2yHCQHdm0gxvMjeuxLh9G29lbb/wPafANlduBnEL2WDP9IDgOiTqMDdNvVekRE0q0REQhEReXmAShC5q9+28/mJ81s0zKj6bs1vUTgsyVtAQF7e5aNuqbJWa1VIxUFpzSIbSc7cAT4IJUHEAXVTsb+00kXbmNgffUnwVupV2mQDMZwDHjkqDqu5zqr3b3Z95kq71IpUY3qThFty8bjXZ6pKm9V7aXdszcCxw7wQf9ArXY6MCSqb7NW3+3cciad3uNST4lX4DcvL41v8Acu8ugXoMAf7do5j0JX1oUbb3y4BSLzgoebzyUu61k0FnpBV2ppGs8tqRTFI1LjRMuGOZGWXrlGKmbfbxSZeiSTDRIbjxLjgBzKq7W0qtRj6VKKxqXC3tiWAwXBwLMLuyTA4Hkn8A+gwPNdmaYjwh1hMiC5sTbxXiIgyo1sPiHhr6ZgXm8edgZAuIMAzrICkqji1j3NwIpV4MDc/n0X2yF5DG1Ks/3KERDcagLoHMRgtfSlqIptayk28WPvxTfVw7RzXNwktaXNJJ5hbNCu7sWv7Tsmu7Gm660bIdTDi6cxuaJyvdy06na7S8vbT8Rm5iRLpEEBxFiRAImZ0sq29jVAAxzxaJEkj/AF0ETJuNd1iVFWrSBdWY01n9oXkVKRgRwAHy9IVgeMv3eQj5Kt1LU++4srOqta8UwS4Y3mENmMyHwJ5qwtp3GsbMlrIniYxPik8bifiHtdlywNJnaTbwtgCYaDJAAGYxKlTwpw7YLp8iDYDWSb6TpJJMBc10raP/AOmr+sjwwXadSNJivZGGdpguO7sj4R5rgdvqzXrH/wAlT/dyv3sv0x2dfsydmrs/u/CfHDvW5hjlDeQ6IeMzOS6+iIn0oiIiEItXSFW5SqOP4WuPktpResk/01SOA8JErhMBdaJIC5yx+CkqeSjxTkLdsR2VmwtnRa9sOBXO9aKj+zA/CXub/wAQ0+G0PBdGtTM1z/XwuHZiNkF/iYP1KGfOEnjZ7qR58l81Lswz4qT1hrmpUbQZm4x0G8+CiNU6wY173ZME9+775KW1aoF5daX5vwZ+ic+8+im/VeUq2eXH2VfdRqIYKjQMA2mP91aQq7qeP/l6U/8AurEV5rH/AOQ7y6Bb3Z3+K3z/AOite21IaVH2cYTxWTSFSXRu+/ojW4AcUiSnwsVs0b2zQb9wtMtN0PHAgtOBH0WpYNEinVa6+5xY41C4xtOLXNy3NAdgB4lTjW4LXd78DMkBSDzly7FLO6In31UfpjRVM02tLTgTBvODtpxJEg4iScN25bdvsNPsHNi4CGmWQ0y0ANOWMAAQZwwXvSWL2N5yvmnakMDeKmHOJAn37CC9xiSbez6qt2DR7WwCS4lweSYGI93BsCBhgpSudsLFZm7Y5L7WxdHd8laXFzrqBJOq4x2t4l3xEnxMqV0NaS17XNMEEEHooKkcAOQUjYMCF6iFGkV+ltH2ntaVOoPxta7xErZVe1DrXrFS/Leb4OKsKfaZAKTcIJCIiKS4iw2mgHscw5OBHiFmRCFyOw3m3qbveYXMM8WmN637KYzyW3rXZOztRdGFQB/fkfMT3qPs1Qys94h0LVY7M0FbVqbhPeqlrLYe1plsYggjqP4lXF+X34qCt7c+Krda4XXNztLTtXNn1drsAYDnQ48hn9Osrodii40DAAAAclzK30jStTxuDpHR20PVdB0JWvMCtfoCF5DGMLTdXvVBuxUPNo8AT81M1HwCVF6ssij+pxPcAG+oK2LfUk3R38gvLY5013c49LLdwDYw7OU+t1rUxeJJ4j5reosxleLPT+XzW1TCTCdK813wOa8WOljeOa+PxcvtsqXGQPedst6n6Lo1lc4LBZhfqufubgOq0dJ1L9SNzVIvijSjf6niogtwxzdmrGayhfbGNonkSsJdjPT1WxQwvHlC1T9Fa25KiuLWtwbUe2Iio9o/a4j5LZ0ZaQ50AHDfGC19Z6Ybbq4nAVHE9Hbfo5NCth2cg/YXrGQWB28DoqaTjML9A+zJ82Lo93o0/NW1Uv2WPmyvHCofNrforom6fyhVVPnKIiKagiIiEKs69WO/QFQZ0zP7TgfkqbY3bxHr5yun2+h2lN7PiaR4hcqs9MgkYCDCVri4KdwrrEKVa4kYiJ+81GW5qlKbcFH22n4H0S7k01c610s0PZU4i6eoxHkfJTGpL3VbrG4kkAffDevustmD6Lh8O1PT+FLex+g2+90e40nnJMDyveKqqVe7oOd/r7H1KxMfhw+sGf7Eem3oV0ljBSphjdwgd2/1PesNGnP14rKaZeeX3gtllOF5My4yVpgBogLwxkL3kF9OC1yS8wMt64bLq9UoxJyGJKxMxJquwEQ0Hc3j1K92t7QIPujdx4LTl1Xkz1XQhY6rjUM/hGSwVcSt6sIELTIU2oK+DAFah3rPVctWlmVewKJXK/aJZ7lrLt1VjHd7R2Z/0Hio7QZk9N6uXtIsDi2k8Rsucw9HC8PNh8VVNE04MAL0eEqZqAHl6WVbGnPK7V7Jnf2aw4Pb6K+Lnnskfs1mx8J9QuhrSpfIFTW+coiIrFWv/9k=</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sean Abbott</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023_223</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>54</v>
+      </c>
+      <c r="E28" t="n">
+        <v>36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>150</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>91</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>91</v>
+      </c>
+      <c r="R28" t="n">
+        <v>60</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>30</v>
+      </c>
+      <c r="W28" t="n">
+        <v>14</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExIVFRMXFxcVFxYVFxUaFRcYGhgWGBUYGBcYHSggGBolGxcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS4tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwIDBAUGAQj/xABGEAACAQIDBQUEBggEBAcAAAABAgADEQQSIQUGMUFRE2FxgZEHIjKhQlJyscHwFCNigrLC0eEkMzTxc5Ki0hU1Q1N0g7P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAgMBBAUGB//EADkRAAIBAgMFBQYFAgcAAAAAAAABAgMRBCExBRJBUWEicYGRwQYUMqGx0RM0coLwM1IVQpKywuHx/9oADAMBAAIRAxEAPwCcYiIAiIgCImNSq3qOtvhy+hBP339IBkzFr4xEZVY2L3y95Fri/XXh3Gabfvb4wWDqVQCzkZaajmx0BJ5AXkC7X31x1bKKuIOhDBVsArDgRbUH+pmGySjc+matVVF2YAdSQB6mYNfbeHS2asgB0vmFh9o8vOfL+09vYuro2Irut72DtYE8dPwmJQ0GpI8NDr1ImN4yon1pRxtNxdaiMOoYHwl4VB1nydszbtbDVA1Ko6cr93QjUETtNk+0aqoy1VFRb30JU316cDwNxaxEbxjdPoCJxe5++NKvQBapmZRZ81s6kcM3cRrfrpO0kkyNhERAEREAREQBERAEREAREQBERAEREAREQBERAE0O2tqpha1J6rBaVQNTZjwVl95CT/zDzm+kG+2/e0PUGCpaimb1W5Z7aL4AHXvNuUwzKOc9p++ox9cdlmFGncKCT7xvoxXgO7nOGWprctf8/KeLSB1JPpLyWVSLXvztqJgkX69ccrHw1jCYi/LX75iLh2bUX6WHITKFIqNNDofP88pGyM3ZlthA46Ea27+Okt0RlIB4zDr4t76nXumZRQ1BZh4Gx+caEjJWu9P36ZYEcbHUD8R3SePZ3v8A0MfSWm7BMUq2ZG0z2Fi6de8cR858+tUZGFyTbQ35jxmKKzI4qIxVgdCNCD1HkfnMxIyR9ig31EqkT+w3esVaTYOq5NVS9SncklqZILC5+qx4dCJLEmQYiIgwIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGt3g2qmEw1XEP8ADTUm3U8FUeJIHnPk7a+0zWq1ah+J3Zm8WJJtfgNZ9He15wNl1QeJamB3nOPwB9J8zOcugAJ58/KYZJaHv6SCFW1tdSOnOdDsXYbVmsNFGpnOYfBlzbQSWNzcFkQX52J75VVlurIuow3nmXtl7m0rC9/AzoKW5OFtql5s8MomwFcATU32+Ju/hpaI0dPcfBf+yD4kzPo7Fo0vgpIvgov6zPXES1UrzDdzKTOe21sak4PuLfrYSNN6N2OzUunAcbcu/wAJLeJqXmk2hRBB6ERCbizNSmpLMhzdnbdTBYlK9I2ZDw+sp0ZT4ifWWyNoJiaNOvTN0qKGHnyPeOE+Ttu4XLVbL14dJOPsG2i1TBVaTA/qatlP7LqGt5HN6zop3OVJWJOiImSIiIgCIiAIiIAiIgCIiAIiIAiIgCIiARn7dlrHAoU/ylqg1ON72ITwAJ+Ynz0VsL87/PnPrrezAivgsRSIvmpPYd4UlfmBPkZ73mCSM3ZLBWudSSLCSrsJvdU9ZF2xsLnrIvIkf3kk4qq6hadFbueHQAczNetm7G3h8szrf/EETiwHpMijtageLAeJA++RxtrBtSTNWxNnb6KqS3pea3B7vtWDOnagIbMaikWNyNegupF+GhlcaStctdWV7JfMmigUbgRGNKICzaDrOQ3MoGgbVCxbkTwHhOg3gqHsmGW9xb1lbSLE5HNbZ30w9I5VOY9wmnG91Ope4tyv08Zo9pbLsQVCm5I+k1tQDcKD1J16TabNwie4tSkrB1HvopBUnirjheW7kEirem3Y5XecfrcykFWAa47tDJe9gKH9Drvb3Wr6eSID+fGRfvxso0HUDRWBtfyk1+x3B9lsqgLg5i7m3LMxNj38JsU9EalVWbO3iIlhSIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFqvUCqzNwAJPgBcz5a2/s2mMS60ASmtRidVW5JVAQNbA2n1JiaWdGX6ylfUWkVps+kEqU6qe8pyd4Kk2+VpTVm42NrDU1NPwIk3fI/Sk6gyXdgYYZyx42Akc19itSxNKoFKo7HLrw1Nxf5+ck3ZOgv+b8BKK0r2aL6UHG6fMrr7BotULugdjzJN7d3QTyjsmkgIprkB4hSdfG2nMzf4aiWHKW8TTVRrr3DnKcy9WZo2p2a9uGmkv41y1M+H3SxXrFiSxCAaAXA++bCnQVqV8/I38pgtSS1NJgFCte2p520M2z4dWFzb0mpwlXISQQwHEcfyZ0mGZGS68CJIg1Yjr2g4cPRBt8Lj53E7v2QbNqUcPUzNdWK2HQ2N/kQPKaTbuBR/dc+7mBI62N7eckjdxQMNTsLAgn1JM2aLvkaeIVot87L1NpERNk0RERAEREAREQBERAEREAREQBERAEREATid89lHN2q6KxFyBwYaajoRb0nbS3VphgVYAg6EHgZCcN5WLaNV05byIn2ngs1LKwUhbFSL3B56emsq2ax0HfKfaFi6uCxNKklK9CvoKrXsjXsU7+XrznuzHsw7iPvmlUg4KzOjCcZu8TpFxQRSSdBxmE+L4sdSeAHLx75kCgHDqfrXt3XuJqtsYKshXsSuQ/GxBLjpYc/GQi7lpkrhO01KA26gfKVnZgsbEjS2hOX0lzBUqC01atX+kVLFyBci68LTaHZ+FABzMQV4BnOumunCWpXKpVYxebZxtag9M6WNuUzdlYo3sOB4joZg7w0qNWmDhTUp1CbAnMCpWwJYNyuD4zf7Gw6rT1bMQLsxtckc9OGshJk0+KvbqYi0S7WCljcgAC5vpJEwVHs6aJ9VQPQTmtzlvUqN+zr+81x/DOtmzh42jc0MVO8t3kIiJsGqIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAcp7SthtjMC6IbVEK1U7yutr8ri8j/ZtUkC+hsL9x5/O8mTFUs6MvC4tIZWiyPUUg3V20PG17+c166yubeEfaaOvwuJzKtUfEvu1B1HWX8X1HAic3s/F5GzDhwI6ibiliB8P0Tqvd3TSOg48S7Rwy81uJV2FMH4DpFCoRpLwzHulikM+Zq8fRH1bfhLdLEZabC/E28ucubRdgdTMbA0hUqU6Z+FnUG3QkXmLNsxJ2V2dpuhhitEuRY1Dm/dGi/ifOb+W6aBQABYAWA6AcJcnRSsrHHnLek5PiIiJkiIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAJFG2qdsbiPtg6fZF/nJQxWJWmrOxsFGY+EjBb1Kr1GGrszHuvw9OE1sTNKNjcwcbzvyLBwl9Roe6VLVddCLibdMPpLi4MNymkmdS6RqqW1gOPz4zNp7bQDjPK2xFPOWV3cS+smpEJKDMXHbR7Q+6L9/KZG7oviqP2x8gTL9fZa00uJZ3V1xVH7TfwtJwd5LvRTO267cmShEROgcgREQBERAEREAREQBERAEREAREQBERAEREATWba2zSwiZ6rWBNlA1Zj0AmLt/efD4RT2j3e1xTW2Y9PC/fIb3i2/UxdQu50+io4KOgH4zDdjtbK2PPGSUppqnz59F99F32L+8W8L4nENWF1GgCg8AvC/U8/ObrYm3EeyPZG0Ab6J/oZxAMuU3/ANpGVKFVWl5ntq2zqFSmqdrbqsmtUl9V0ffqS7TUWlaixnDbv70GnZKt3TkeLL/advhqy1FDowZTwImjUoypuzPLYvB1MNK09OD4P7Poy84075ZaoRKy3WYxqa2lZppGPtWvdbCY+7Hu4mjf6xHqrTMrYe4nPbzL2dFmBIIUsLcQQLg/KWReaDgmt3REwRIEwG/eNoOrCsatMke7Uu4I6X5eRnd7L9qWFfSsr0jYXNgyX5/Dr8pv7yvZlWK2LiqDyW8ucc/lr5JkgRNRs3ePC4g2o4im7fVvZv8AlNjNvJHLlGUXaSsxERBEREQBERAEREAREQBERAERKHcKCSbAakngBAK5xm+m+6YQGnSs9f1CcdW6nunO71e0Jy7UsMwycO0AOc9SrcAOV7d8j8kEkm5J1JJuTMXPVbL9npTtVxKy4R4/u5d2vO2hVjMQ9Z2eoxLEkknmTLKy5p4TwpM25HsVFR0PCIU38YAnjDyMxpmTuVzZbH21Vw7ZkbTmpvlPiOfjNWrSoiS+JW1XJkZ041I7sldMkvZG8FKvofcf6p5/ZPOZWO92xkVJUK850eyt5yo7Ordl4X+kPM8po1aHGPkedxmxnHtUM1/bx8Ofdr3neIQQJod8KOamV5MCvqCJk7GxysbBrryPdG9luyDcgdT5Ga6lmcC1m0yKMHTJpIDxygeYNvwlIQ2mXh6dlUdAP6ypksxE6Mo5XPdU6XYjva2X0MRADqDY9Zu9lb2Y7D6LiTYfRY5l8g97eVpqqi21lQAYSPGxGphKdVbtSKb6o73A+1auB+sw6VO+mWU+hvN1sT2pUK1TJVpmipGjFswv0IC6DvkTrpof9569O+o4/fJqTOXU9nsHNdmNn0b/APD6Sw2KSoAyOrgi4KkEEHgdJkT5twW0alFhURmVk10ax627x3Sdd194KeNpZ10cWzpzBtxH7J5H+kknc8ztPY08HFTi96PO1rcr9/Pw5X3sREycYREQBERAEREASK/arveEBwqvkUf5rjiTypi3qfTrO83n2oMLhnq8wLIOrtovz18p8/7I3dq7SqtiazMuHFTKXFsxzOVNr6fFxPeJm18jfwko4de8yjdp2inpfVt9I5ZLNtrRGlrbwcqdO/IF7fwrLdbaOLC5yjIl8uY0rLfjbMRa9uUk7A4PA4Nh2Tjtc4qDs1d6ppmhTp1VNgSgzs1SxI1WcftyvVp4BMLjqVc4kNmou+XKihrVBnVyal9RlYXU85LdSLKu2cdVveq13dn6Wfm2+prNhbRepUIchhlzAZVXW/dNv4ad3Kc5u8wFa3UMPlm/lnR2i10ex2BXlXwe9OTbTabbb68e89y34eYnqi3HUfnhPAfXl/SVfFrw5HuP9JhcuJ2HlkenD5hdT6ywNDYzIVSL24jiPxE8xNMMMw8DMSjxWphN3LcpNOeIZcJklaaLC/gNoPRa99Pz6GdRtDaoq4R1Zrhhl7725zkqahrg6HkZaIKkg+k1qmHTkpHOxOAp16im8mmr9V1+/IuAaymsbteVI1te4yi0vlnodHjcoteWrEGZF+kpYXle7dGJK+YAvKVFjblKVaXGmE01kNcxUUETabs7aqYSqtRTfgHHJh9IH8O+aoHSVWk9cyurRhVi4SV01Zn0HsLbFLF0hVpE2vYg6MrDirDrNnIp9kW0VSrWos1s+Vlv9Zb3A77H/pkrQnc+Z7SwfumJlSWmq7n/ABrwEREyaIiIgCIiARv7YcdZcPRH0nLny91f4m9JF+5GOzdpg6lR0pfrawVL5qpVQWpZhql+zDAjW68RO79sTf4qj3Ul+b1JxWx9z3rLisQtXK6JWNFEYioXCq9zp8Nny2vf3hJRO5jaCjsyhNc5ecrv/j8jsqGKoqAtNA5/X1R+jIpp1E7OsoRnBCrUNBqTG5Lfq7kXmu2ts1ttYanikKU2U1gikvqFAeqHyrkRi2Zg99QQDrOpTamGwFE1iKQp1Bh6ho3XMWyKjtTS+hamQbWHwN1vI/2HvouBWvRo0zUp9u1WgWZkUDKUtUQaupXL7p5iZOEjXYDd8HC/pi10qdiKdSrTyMMnaMVCCrwaoOJXoRMqqlibTSPtmrUwpwnZ3Q1zXBQkAEixXINCOmptNqjGyk8SBeZiex9lqkt2pC2WTXLin6HpE9U8+fPvE94zyHG564udCOI+Y/tKkYA3+i2h7uss36eI/GVJrcddR5cflMN6cyFrLMt16eU3hZlgIRq3DQ2ve3LlaYroBpfwzfVPlrLpYStBfi7r3e7+ZdTnUttYCdd4eNaLmr3SfLXPS/S9xLijNYfS5H8DKCy2sPebmBcfhKVrJcjMQRyPXpwlvudd27DsymftDstSlCVeKcddbeDtZ9bNnX0sBgWWoQwW1NHAzKKgf3hUpqrH3+C6d41mi2xskUgrpVSrTbUFWAde56d7qZThcUyHMoBcC5DAEEceB4mVV9vVHUqUQDhYIo/P9hNGcbZFtClXpzvCTlF2+KXC36b346pPly1gnimetwlKDS/ASNrNI6zaWpQw1lwTa4rY3ZqO1cJUNr0wgYU78BUbMDm43Cg2seMq3b3cxGMSq4C0UollYsGY1CutkGhAtzPUQoNSucf/AB3BK95P/S81zWWa9M9DT057zlQToCB0IIPodZQkkk0kmdaMk0mncuUKrIwZGIYG4INiCOYIkz+zzbz4vDHtNalNshb64sCreNtD4d8hYySPY/j/APOoHoKo8sqt96+kWscH2iw0amEdS15RtnxtfPwz9eBJ0REHgBERAEREAh/2wNfF0x0pL82qTjam8dXCUitIlXZ6To1gQDT+MNfkwyafsazvvbDhgKlCpfUqUI5+61wf+s+kj6ngu3ZaeXMS4KjXjwH+0yj3FHCLGbIjTTSyvd6Jxk7+qNUtCtinNas5LNxdtWbpYdPlOt2BuJVrWK0fdP06psPIHQ+QnU7o4PCqapKivXpUzUF7dkSLXCA/FY2949dBOl2IijDNXxrYYjW9TLqCrFWLVGPvEsNMoFtAJlSTV4nGrV8Ps+X4dGlvTsu3Nc/7Y8FyeT53OQ2hurTweUV3dswJC0soTTiCzf8AbMDGbOovQapSRkamyAgsHujAi/AahgOH1p12LqnGYWroS1B81NyG/WUuBYEi54MOvuC85zYdS7VKTf8Aq0nQdM3xJ551A85rzqzjVSbyOxgMfUxFD8acneLzWiss9FZfD8zkSluPD885S4mXXQa21mI357putXR6SLuUXlWGqWZT9VwPulJEt4bW/wBomUO97cSbeaJD9m2zcGxq03pdpXUlgHF0CXBWw4XuZt6+yaeOwClcMuZ62d1plVZLOVfKxFrhRa0j3A7XrYauatJgpekEvYHXQm1+dp1m5WAw9elWeo9ZqlMtUemjMqlTcg2W2Ymx5zv4inK3vDk7Pca49+V1ZO6t1yPh0mqdeeFUVeLqR4JO0rJ6O+nLRsy8NsnD7MpIzqrM2KVe0YXbsgxZfCyqL2nE+0rBomNapTZGSqBVBQgi50bhwNxfzncYnYSYilRrF8Q+Fyh6WFpqpqe8xA98m590i9zoL6zH2vu7s5a5RqZRE7JnJLKAHzIRmJuy37O9joSe+V0qyhPfk25Z3y6pLjqstLrkzNWm5R3Uko5W8n8reJHiViyq406+IP8AS0u1KQYZhoeY/GbfejZdOhVXsVC0KikoRU7RWKmxKty8O+afDPY2PA6TnYhL8R8pZr5+t14H1XYWK94wFN37UEoy74pfVWfiWHm03Xog1gxF+ySrXAPAtTAFO/g7KfKayqJsNgYgJWUvfszmp1LcezqAByO8HK37s1mu2bW1oTngqqp6uPi1xS6tXS6mY1el+rasb561TQ3u5FMAC9jawqO1zzWdLg9qYehSZKWKdAxbtFZf8QKgylywUWyBCuq6Wy2JvNFt3YJTLnP6pana06ot2RupX4r5cpBU8bi3Ce4HderjK36bQKmmgp0PeJVa6LTCVKiNbUA8L6MFHWTR4zaNSk6jxFFxd3ksn2d2Nrr/AC7rVs7dNC1vZUFTsqwZ2zgglxZtGOXTplNPUTnlnUb24KrSVVq5RerVZFU3CqezvboC2Zrcs1pyytfykMk7Hr9iVXVwVOT1zXlJoqm73L2p+jYum5Puk5W+y1gfQ2PlNFPRxHiJhu50q9FVqcqctJJrzPpNGBAI1B1Blc1O7GIWphaDK2Ydmgve5uAAwPeCDNtB8mnFwk4vg7CIiCIiIgEV+2Cke1oPyKFbdCGuf4h6Tg8FXNOojjiCpHkbyT/a/R/w9Gpb4ahB/eW/8kimI8T6JsGSqYCCfC6fm/RnYbKrjDYtW40yQe40qgv5+43ymx2nhHwVcs1JqqdpmpVWAqIEcWCBL+7lc5i3L3TrNEpz4ZKn0qbGm32dXpn/APQeQkl7ISnjsCqVVDe7kNwDZlFgw77WMpovcnKB5/b2H7MKnGLcH6N9+b8UXN3qVTO6VyrOqBWCWygM9RgGsoBcggnQdbazhNr4Q4bEkDijBkPdfMhv6Tpd18KNn1MUcRUbIWXLia72NQKoUgg2FweBA1Gmtpd2jUw+MxACUatfs8iVXpsi01D2ZbliC5Aa5C8AZmvTc1kc7ZeOjhakt++61nbnw+3iR9vRgwtdmWwWpaqo4Gz+8Bfu1HlNKyevQySfaRsRFpUXRcqreloeAOZl1Pfm9ZHj0SODgjvmzDTqe42bi1Xw0Zp9M9css/CzMUyi2syHYkWIGnO0ssJGcWdNPmX65uqeN/lYza7B25VwrP2Sq3apkOa9hzB48dTNLhcSQPzp6cZdbEM3Fj8xOtR2jD3aNJwvlxeWvn9DweL9jp4naFTF/j7sZO6Sjd5qzzbss7vRm2w28WO7DsM6qKYKL8IOXh8XHMLCx7paxG3caxDNimNRRYA5bcjryOoB8RNYanvXHOWhxlEsc+EIrPl9zepexuDjffqVJfuSt5RWnC9zN2rtTGYnL2zq4QkqP1S2vb6oHSYTnU9LmeTwzVxFd1EuylbkrdTs7K2PS2apqlOclKze8081yslrx7kXKpuZdor3ywTwmXh2FvCYTTbZ05u0ciqnj61O60q9WkOisSnfek10PpMfG4/E1harjKpUaBEtSQfupYTwgnlKSh6GJLK5pT2Tg5z35Ulfu+bSyb62MSjhVQllvfLxZ3Y/My9hKRygAEnu4kynENZePE2nebm4RFUMBdj9I8f7TTrVFBlWIxVDAx3IRWmUVZLPj/EaTC7r13F2UIP2iQfQC8uYndZlHxqfX+kkKoukwMRTvNSWJqdxxZbaxUnlZLu+9zH9mOLNFnwz/C5zUzfS4ABHddQD+7JKkSlmpOHTRlII8RJK2JtRcTSFRdDwZfqtzE2qNXfWep5/aMpVKrrNLPW3P/s2EREvOeIiIBxftX/0P/2L/C8hpOCxEwtT33s3+S/c/Q6HYn+RX/c/ikkezf8A0z/8X+RIiVz/AK67vRmvt3+hV/XH/bE1W8P/AJxhPsVfuaZfs1+PaH/yf5RES88QZ/tI/wBE320+8yH6HGIk4fCz3ns1+Rl+p/SJViOHpMQxEy9D0FL4SheJlcRKqPEtWhSIHGexIQ0XeGeQYiWSBSeUyaPA+ERMw9F6EJGtxfGYFP4vOIhnkMX+df6jN2vwp/8AFH3NJK3N/wAsRE0cVqi/bP5jwXqdRUmIYiaMjiI0+O5zfezrjW/c/mnsS/C/GirFf02drEROkcoREQD/2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Josh Inglis</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023_223</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>30</v>
+      </c>
+      <c r="X29" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMWFhMSFhUXFhASEhIQFRgYFxUYFhUXFxcYHSggGBolGxYVITEhJSkrLy4uFx8zODMsNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABEEAABAwIDBAYGBwYFBQEAAAABAAIDBBEFEiEGMUFREyJhcYGRBzKhscHRFDNCUmKSsiMkcnPh8VOCg6LwJTRDRMII/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADQRAAIBAgMFBgUDBQEAAAAAAAABAgMRBCExEkFRYXEFEzKBsfAikcHR4WKh8RQzQsLyBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIixTStY0ueQ1rQSXOIAAG8kncgKrabaamoIulqZA0G+Vg1e8jg1vFcd2j9LNbOf3Rv0eIHebSSO7TcWb3C/etZ9JG0Arq+SSN2aFnUidqRlG9wHIm6oKIG5BNz2X96g2WRibRVbeYm4WfVyN7W5We0BecK9JGJ05P7yZR92cB489/tWpzxyXyetdYm0T9WvuLLiZK3I77sJ6WYqt4gqg2GU2DXg9Rx5a+qV09fjMU2Wzg7UcRprzuv0B6K9v46iJtNUSAVLNG3P1jQNLHi7sU0yto6Yi8tdcXHFel0iEREAREQBERAEREAREQBERAEREAREQBERAEREAXPPTbjZp8OMbfWq3dFe2gbYueb87C3iuhrkf/wCiAfo1L/Pdp/pu+XtRnVqcr2fwnp3BrOFszraALqGD7PwRNsGA83EXJWu7DRBjALamxJst/p2iyxzld2N8IpIrpcHp3HWJtxuIFioMuytNmzFhJ7yFsDdHXtosj5RyXEWOKNFxvZ2AtIDAAeIWo7JURgxCIOjz9cANzmO9zoQ7ge9dKxIXWnPpC/EKJrdM1RG2/ZnB+CnTk72Ka0Fs3P0JQStdG1zQQCNzhYjsPapK8tFtF6WowhERAEREAREQBERAEREAREQBERAEREAREQBERAFy308BjqanGYZ2zh2S4zZTFIL25XsupLjvpEi6Waovck2a0DW3RtuT2D5qE5bKLaNPbb5IrMEc1kTT2Aq3jxOa2ZsQI5F4aVCwGFrmsH4R7lnxPZwSB13PNxYWI07gskbN5m53SyM1FtW1z8kkTmO56Ob5hWmJYoyGMvcLBVdFgzG2IZYtaADca24ntXraMNfGwOFwHWI8FJ62CTsUB2ifOT0cPVH2nvDb9wWfY4dLiNL0jMrmSOda9xdsTyCDyuoT9nmuzFocC6wAuAG9o48FsuwdA1ldFmNy1shaTzy29xKsjsqSsU1NrZdzriIi0GIIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAtB23whzS+Vvqyg6nWzi2xB7DZb8sNTTtkaWPaHNO8FRnHaRZTqOErnDdmqvqgn7AsVukM7cmYlc8xB30StqYLWa2V2UH7jjmb3ixU6qxCR0DRDclzw0jjr7lklG0jdTmtk2SoxcNBe4ZYzexALj5DVQMVxan+j5ukG8EA6Hy3qjiw+pmJjmaY8pFszwAe5fcY2WDYxlZ1hbrulY4HnpfRdUSTm0XmHVYc3Ubxdrt1x3Kbsm7/qMQvuElvyFaHg1bNnawse1pNmufxtvV/shUudi0Aab2c+9ter0br39nmpQVpldWd4M7miItR54REQBERAEREAREQBERAEREAREQBERAEREAREQBRMRnyRkjedB3lS1QYhVh87odxja11uYdfUc91lmxlV0qMprX75X8iUVdpHCtuaeSKsLpnFxlJcHONyW3017N3gveB4uGPaOBcDfkAuo7YbJR1sOUnLIy5jlG9p5Hm08QuK4hhs1JIYpmWcBcOHEcHNPELBg8TGrFRfiX7819eZpu0zsEk7DH0m9tr81S1GJRvGUNtfTNktdaRhm0L2gMc4hnIkq1qtp48gGm467zf4Lasi+NTmfdo8SEMLWt9cOuOzS3xWz+g3BSelrn/avFGCNeBe6/K9h4FaZshgDsVqgx78sLLOkN7OLb+q3tNvDVfoqjpWRMbHG0NYwANY0WAAV1ONkY6tTaZnREVpSEREAREQBERAEREAREQBERAEREAREQBERAERVVZiH2Y/F/yVVatClHakdSuS6mrazTeTwHxWr4zBK54qY9ZYr/ALPg6P7UfxHaFYMZxJueZWW9l4NfHVKjy04cevG6y/OZcqasfKGpZLG2Rhu14uOzmDyIVDtps6ypj1Fnt1ZIN7T8uxey76HMXf8Aqzuu4f4Uh+1/CePJbEQCOYKxVI93JSpvLc965dVo+Kz0aJwk3k9fefmcDqcE6zmSMyyDfbQHtHYVXu2csezvXZdosAD+sALjcePcexagKPrWI1G8L1sPiu9hfSS1X25cC1RTMOwVO6Koe6PQxMYbcDqSR5X8122mqGyNDmnQ6rl2xMBE81x62Wx8Ny2KSJ0bzkcWm1xlJHeqY9oOhWkpK6dvLL7FdWnd5G6otYp8dlZ9YA8cx1XfJXNDiccujTZ33XaH+q9WhjqFbKLz4PJmaUHHUnIiLWRCIiAIiIAiIgCIiAIiIAiIgCIiAIiiV9Rkbp6x0HzUZzUIuUtEdSuRcUqL/s2n+Ij3KLHHYbl9gi/upQavlcTWlWntP+DVCKSMIC8EKSWrBKOW+2hWdNrUkQKmLPdptk3W35ud+xRMOqTTObBK68TzaGVx3H/CcfcfBW5Zr2OGneq3GmwdEfpIHRhzTqCesDpoNVdCX+LzT3Ljua5+qut5XNbzxjG0MTT0cQM0u7Iw9UH8b9w7tSubbXY5X00ueWNuSRvVyt6rSN99LldQpIYg0OhDcjhcFgFj3WWDaHBm1MDmEXcOsw8nAaeB3eKnhZ04Vk5rLR8V/G9cDlTb2Xs6lHs1ikTKSOoqHsidMLi5Db206oOp3KBim237WMmlmEOodUEX37jlbc27VcYbg1PNFDI6MXETGgcGhosWgcLG6u4aVrG5QOr5qM9nvJSlHPPfpny+t+hNttLMj0wZKwPY45XC4NvmvhpnNs4bxrcaeSmtbbcsh3HzWdwW4XLfDarpGAneND81MVRhYyvI4Ov8/mrdfVYGs6tFSlro/L8WM81Z2CIi1kAiIgCIiAIiIAiIgCIiAIiIAqapd0kht6rdPHip+IVIjYXeSqsOfmF7W03d/FeR2pXtaktdX9C2lHeTALaL6F8X268YvPhWF/8AX5r05+qxvcq5Zg+O/qFQ7bYc6aOIBxDelbmAJaCdcgJGoBdZpP4le5l6nia9hY4XDxa3x7LLtGpsyT4CSyOc7MNlhkkERP7Jri+lc4uDsrySQSLtdkezdpdpW+UVQ1zGvbq17Q4doIuFrOItdBVGXpIQ7o+jf0nSNz3JLXHK0gOsBrxstiwinDaeEA5srGguF7GwsTr23WrEPb+N77emf45alcMsiJhjOjfLHwEheB+GTrfqLvJW2T+yqcUk6OWKX7Dz0L+wuN4nfmu3/OrhmoVE+PH2/wB8+lia4FTtBijaaPPlL3H1YxvPWDd/IZgVB2X2jFUHBwa14zdVji4FoNr3IBBvwsvO1NLnqaQvuYR0oe1ptYubZj3W3gG2nyVDBs/K6rljlY1rDE90U8DXxnqlvR63t9p1287rXTpUXS+J2et+V7ZceLXAqlJpnQKSa2Q8iL+4rYFqVIXZGZvWIbfhrpfTvutpjdcA8wFt7Kn44dH9H6I5U3MyIiL2CoIiIAiIgCIiAIiIAiIgCIiA1naeVwc1p9U5beeqk0IsFLxukbJHroWuaQfEaLXsYxBrAI87w91yY4GGSbI3e4W9QfiPhqvmsbRlHESd77VmvfvI0wkthF+SvDita2FqjIydzZHyQdORA+Rxe4sDRm6x1Lc2ay2aRY6sXGVmSi7owTFY3O07QsjwsElxry3qgmfI33PgPeVkq4Gy9R27W9iR3blV4HVZ5JWn/wAbreFyR7LK1pDo53euR2oyd+P5DtY1iLZiQE5nxFuZoLRHJwBsA7Nqdd6scLwB0T2ue9r8oNrNc2xtYEXcd2o8VfxssG9l3HvXpy2utUazevJFSiiJNStewscLg8O7Ue0L3AN+u9fZCsER1VT0JaH3E6R0jHNY8xv0tI3Ug33248dFRjZwkl0lTM599Hg5beF1smZYJipwqSivh+hZGrOKsn766+RXUEJYGRlxeW/bdqTY7ytponXYOy49q16BvXJ5ADzd/RXmHyjrM4tsfA/2K29mzf8AUNcU/uUVM43ZOREX0JnCIiAIiIAiIgCIiAIiIAiIgIOMSZYXutfKLgDeSCLBcf2dGI1klQwsMDJ3kzVjmkS9HubBEHchxtz4ldixX6p3gfJwUCB2g42FrjVeL2lVUJ2ss0s3us2W04OR5w+gjgibDEMrI2hrR2D4rO7cvrXcfNG8QvHbvmXmKRU2OYrHTRmWQ6DQN4ucfVaO0q54LmPpWnd0kLT9WxrpBrvf6vsF/NW4PD9/iFTej16LUrr1O7puRbejyvMzaqV9uk6W1xoBeNug7FuUQ6rR94rl/odq7sqWHe57Xjxu0+5q6hCLuA5Bc7SjsYqcUraW6NIYd3pq/vMkTHUN57+4I9/FQMVrGx5nvNmMbdxAJIaN+gUWTaGEwxSszOZPI2JhAsQ45h1gToOqfYqoxk80sr287Xt8iTnFOzfvQspHLFGestck2rv0LWROc6SSVrhmHUZFJ0bnnn1iNFFw7aipdKWy0ojDJGsf17kZhmPkNVojh6jTy/ddPVFbqxubs0KJK7RxVNLtDI3EhSkDoXMADrdbpCwvAvfdZpUHDcTlfLC1zyQ+nnc5tgAXsnawO0G+1/NcVCSSb3pPyd7eh3vE3ZdPQ2elOo5uN/AD5lZ4qjJODwcWs/MbD22VHiW0FPSG8r7vIAZE2xeb8hw7yrLD8JnmkbNVWjaxweymY7McwN2ukdxINtBotOBwtWdRVVlFO93v6cfTmcqVEls6v3r7vyNpREX0ZSEREAREQBERAEREAREQBERAVG1ND01JNHnLMzD122uMvW491lx3DsAqrXZUuHhl/SQu3Yp9TL/A/wDSVzvBXdQdypq1JRsky+hRp1LuST8ik6fF4N0hkHIku9jrqXS+kWaMgVUB7XDqH4g+xbQxeaiFjhZzQRyIBWWUKc/HBPys/mrMueHivC2vO/7O6JWDY7BUi8T7neWHRw8OPguZel7GopJGRROzOizB7huBJHV8LK2xzAqaNrpmZonMBdeN2UXA5cPBcozGR9zqXEkntOq5hMDThW7yLeWifF5a71blcxYiUox2ZWz39OXXmzevRjL0czR98Ob8R7l2Wh1u48VxjZLq1MP8xo/Np8V2z1W9wWDtunbExl+n0bR3Ay2qb6/k1jbR/wC6zfjdFH+aVoPsuqOrjbBHJTg36Csppm9jJJANO65Ww7R4a+ogbG1pcHTRl9iBZgN3FVWJbGFsjvowyxSQOY4ucTaQOa9jrHfq0KnC1KaobM3q2/ls8+CaWTvfcdqxn3l0tyXr+PkQIKRzWtnY4dJTVVWHREj9pC6YmSw5j1vBe8YeRLWlu9klO63MdE7MB2kC3iptVspNLFE4TNiqG9N0jmtzNInN5A34KzGzzc0ry8npuhNrDTohbfxupRqwWbld5rT9afmsm0+b5DYlolb/AJa9cjUsexS1TNIyKR2SSklEzW3ZG1sbcweeF2uKkxTBtQMhBLYaoDX71YwgHlo4LbMN2bhjjlju57Z2ta/ORqGsEelgLaBY4MEp2Dqxi4uA43c62YHee1rT4Lrr0rJJPK3nkuOmj+fz6qc9Xv8Auyg2mw6J8znFgLy0DORroNNeC6ZhlR0kMb/vMafG2vtWiV8N5XHsHuWxbEVN4XRnfE/T+F2o9uYeC9XBN93FfpRfWj8CZsiIi3GUIiIAiIgCIiAIiIAiIgCIiAhYs4CCUncI3/pK5ngzrNAXQNr3EUc1t5bbzcB8Vz2KF2S7d4Cy4h5o24RZNmwwvXypksFDwirzsB48Vkrb2We5pZo3pAxi0RiB60h1/hGp+S0bCoruuVHxurfJUSOcTo4gN5AGyl4f1BmO8r0sPDZSPDxc9pt+RsWFy2ni/ms94Xc6x2lua4Rsm0yVUJO4yxW/MCu4ynM8BeJ/6CS2odH6os7OVoy6kunbZoSo3LI0LFUbl4iyRuMUA0WIFZqdYbe9dejZwzQKEXb/APnFTYjvUEDU+Ks4nGV8sYzkrLsvPlqyzhIw+bTcewlYpHanvUCgqMtbT9r8v5gQvoaHwqHl6Fzjem1y/J0pERegeeEREAREQBERAEREAREQBERAQcapxJTysP2mO91wue4TJdg7QunPbcEc9FyjC35XPYfsPc38riFmxCyTNeFeqJGHtyvfbQFx0U+qBssEHFZJX9VZTWct202eyO6do6kjiCRua/eWnv3ha3cmzBw3nsXZ6aBkwlgeLtlaNPG1/C4PgudYxsxLRylrxdpPUlHquHfwPYtWExO3J0peJac191v+Z4+Mpd29paehZ7FRWqoBye32C67NSt1JXI9iYiauO2tsx/2ldjpYja5FuxeV26nLEwit0f8AaR3s/Km3z+iM6wTrOVHlXky1NqPNOsJGrlmp1jeOuUW84z7CFE3F3ZdZ82VyiuOj/wDm8rtN3TRyRVVD9T3lVeFHNX04/HfyaT8FOqH7+8qLss3NiMf4Wvd/tI+K+ipZuPkXv+2+n0OpIiL0TzgiIgCIiAIiIAiIgCIiAIiIAuTYq3o6+oZuBeXj/OA73krrK5l6QIujrWP4Sxjzabe6yprq8S/Du0zzSv3r1O7QqLC9ZZnafJYTeYML1qGjNlzAi/hor5+CueHMeQ5h+y8XB+S1OnsZ2AmwLt9/at1BnbbVrxpY7vNeTjElVT32RGV/fuxW7MbJ/Rqt0jXZosrg1rjdzXEi47RbcVugKg4dKTfMLHvupjjZcnXnU+Oo75W+RkjTjDKKPMhWB692J1Xh53rG5XdywQrFN6/gs0QWN41vx3KcXaRx6HiVml1CqT1XdtverHMAFX4mw5CR3olaaa3nHoa5Lrm7ysvo8YHVsruLIrebh8ljy3HtUr0dNtWVH8tn6ivpqK+JL3oWVcqbOioiLcYAiIgCIiAIiIAiIgCIiAIiIAtC9JX1lN/qf/KIoT8LLKXjRU06zBEWFm8g0/1zP4x71vLkReXj/HEi9TLTet4D3lWLty+Io09ZFNTVDgofNfUVdbVdDiPUS8u3lfUUHqup0wS7vJYaz1PA+5EUt5FGuQ7lL2F/7yo/ls/UURfQ0vEW1vAzfERFrMIREQBERAEREB//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>David Warner</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023_224</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>56</v>
+      </c>
+      <c r="E30" t="n">
+        <v>34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>50</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>54</v>
+      </c>
+      <c r="X30" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMVFhUVGB0bGBUXFhYVFxYYFxcWFxcXFRcYHSggGh0lGxUVITEhJSktLi4uGh8zODMsNygtLisBCgoKDg0OGhAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAO8A0gMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAYDBQcCAQj/xAA9EAABAwIEAwUGBQMDBAMAAAABAAIRAyEEBRIxQVFhBiJxgaETMpGxwfAHI0JS0RSy4XKCwjNikvEkQ2P/xAAaAQEAAgMBAAAAAAAAAAAAAAAAAgQBAwUG/8QANREAAgECAwUGBgEEAwEAAAAAAAECAxEEITEFEkFRwRNhcZGx8CIygaHR8eEUYoKiI7LiBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiKPjMU2mxz3bNBPwEoDM5wG61OYdo8NRMVKgBvbfaRw6hc67TdsdVbVTc7uEkAExZreHx+PVUXMszJ71Rxk7RvBvAP3utTqciahzOv1/wAScM0mGPPLYT/j+Vkb+IuGJAAIHFziAPICSVwY4gOO8c5P8Sfl5rzVxjtgZHMS0R4QZ81jekZsj9HYbtlgXmBiGyOjo8pAlb5jgQCNivynQxpadyD+6/yVhy3tbi8O5rmVHaej9TDxgtNvJZ7RrVGN1H6ORVLsf22pYwaXRTqj9M2d/pnj0+atq2J30ItWCIiyYCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDw50Ak8Fx/tj2nfWqPa0kU2gg94NHWXbxsYF7q8/iFmrqGG7hbLzBneI4ei4y2g7EQ0AxJNpBd1dwN+PQC8LTVlwN1OF8zX18yaJLe9PGIBiNgLxK0GIqFzi46p4GNlZczyiowkaSJGwHrI+nMrT1MO4bgR/pgf4UYtamZRdyAGwIBJ6f43K96iLd0eI49D/hTKmHtNvhPnIlYjSdykfuEmB9R1UyNjw3vcYf5D5cPuFNwxIBBA8LDwvt98FkwuXEi48xwnYiPgR5qT/ROBbI4EHkI/kTHmFByJ7rMGAxL6VRrmkhzeIEHlt8wV3fsN2xGMb7N7S2swd6B3XD9w5eC/P8ATrNDwCIHMmI24/BbfLczfQrNrNBOgh0EkgxYiRHDkibiyLVz9MotdkeZMxNBlZkQ4XA4HiPIrYqwaQiIgCIiAIiIAiIgCIiAIiIAiIgCIiA5t+KE1KtOkCY07cLzJ+A++MPs1lAptmLnnvH0W37c4WcQ13AsHwkzHw9VIwjYYFUqasu0FkjycEx3vNBULMOyGHqg6Rpd0mJ5mPFbhilUnhQTLMoqxQa/4dEA6Ht82xPnJWsq9jKzBFzwkbjwjx+BXU3PCiVist20IKmnqUTLezxYO/t6r7isAAO7Y8CN1acSFpcWLqC1JyWRz7PcphxcI1W2sDzgcDeVEwWoCP1CxG2rkQOe8qzZie8QbgiD4fzv8FqK9EQLXsL8xxngY8iFsvdFSUbM6j+EGJJo1mGe64GOUjl5Loa5h+DzpdW6NHzO/wAF09WKXylaeoREWwiEREAREQBERAEREAREQBERAEREBWu2VGRTPEuDZ6EhYKtPSAFse1dHVQkbtcDPgVWswzJweZae7IIDXECPKSq1XVlvDs2TGqSxsKs4TtTQLg0k6vD+VYqONa4AhaUkXW76Htw5KM8eiyV8WGjz8TCreYdqaTCW6TPQap8wjsZTsszZVbytTWNyF4bmdWoJbScOukwPMi4UGtVfIkX4rFrEG7mvzrDfqCr9QEdIPBWbMXnRdaN1AuI6qSK81mX78HKJ/PeeOkf3HZdMVJ/DekynSc3U0PcR3ZGqwN434q7K3T+VFSfzBERTIBERAEREAREQBERAEREAREQBERAV3tGSajWSYcxwjhMgXHO60ua1al/ZNaXkkgvJ0NHN0fIKz5vTGqk7kT8pHqFpKcKrUykzoUUnFNcurKR2hy/MnOYGva9h0l7hTotDLnWAHNLnNPDvSPRWHLKGgganFu3eAHAGRHwjw2W3dSnjI5HYKEymNVpjrfdRnK6tY206TjLVmv7VV3MbNPf/AAsGX5YCww+o1xpnRUBgGoW2PdEhoO25PQWWfOvdvssuR90BvDhOw6t5SoRaTJ1YN5Gly6nmsvNesNM9xlRtN8jkSwB3O88ditizDVHP77Y4xI36cYVgc0i5cfK0qDi6oifW5PqpTd3exrjT3VYqubMuQtUBD2t2vczEAdVtszqXndV7NKjpeWmIEnwkagOqhcbt2WjLMW5+Jw5Y0U2l0tJHedpv4NkTbfmuwLlGQsFZ+Cc259rJPJopvJnyXV1Yw6yZoxrV487dQiIrBSCIiAIiIAiIgCIiAIiIAiIgCIiA1XaF+mkHzAY9jidraoPoSq6bHwP+Fa83oh9Cqx2zmOHoVSqeMDw10wSATw4cVWrLO5dwsuBPdWWKkRPeO9/LoFExmYMot1Od4CRPqVTaWPZWxPtS1jRFy5oJLTaOvHaDdaVmXm7FrznQ6WBwvtJAnw5+SjZbifZVW4dx1CoCW8wWgEjwM/cqv9oThwdVOmC6xJJkgfpgvNhH3xHzJc6ptqaqjWh8e9x8IP0RxMKV2X+o+BB2WmxtWJvup1LMKVUdx4J5bHyBWkzOsGkB1rx0tv4KLeZl2saTO8RpaTx4LTBwqNaC6A6zubgNwPMN8l67QVi+Y2Hx3AFlO7EZQMVXbQLyyAXatOqwiwEiFlJvQr7yTuzoX4b5UWg1XCAwaGN4CYLjPE2aFfFFy/Bso0202e60eZ5k9VKV2Ed2NihVqb83IIiKZrCIiAIiIAiIgCIiAIiIAiIgCIiAx1zDXHofkuH5bmrvaaTI8gTfwXdF+es6pf0+OrNIsKhgG0jV3ZjgQJ81orq6RYw7s2butlrq3eeYbMl3vRwvE3A+7LLleHwbiWUvaPIbBLASLfqiLm88rqTlWMlu97eYA3hT3mgY1kNI4wPQ+a0RtezOjbjf35oiYnKsPp9zEEtvqLKjSBxBltxuenNVnMsBhS46XupunY03DYAiIFjcGVdX1KJ/+9xtJaSYIA/1bKA/Es2ZBA/UY8fruknFae/sZcb8U/BFabltam0VBqaCe6btPIETt4lO1GZEHvXIF+E8J+JHOfnvsTmIaHFxkhpgHjxuPvdc7zzGF5N7CIM77j0/93UYq7NVT4VY+HFkk3vPzt5q8fhrVDMZSItMsI8Q5wPy9FzKjUMG9/r1V37B4nTisMTYe0bvwmZ/4/FTtaSK995M/QSLFUrMb7zmjxIHzRlVpJAcCRuAQSPFXSkZUREAREQBERAEREAREQBERAEREAREQBUb8QuyZxMV6TdVRggt4vHAjmRy+zeUWGk1ZmU2ndH53oYt1GoWkXaQCBYkgwQY68+SuVCnSr0xuSeXDj4J+JHZZ7HnE0QSxx77QPcJuXGLaT8yqblOe+xdBcQADz4A8vu6pTjZnSoVlbMtw7MBpnXUkGQO6RFrEnfY8F8x7aVFkNtyBufLioA7YU4tUHjN/h02uqtneb+0J70wbGRe+5PCFC1ze6kEsjDmuZEySfMGY8uPDwlVzFVieu3mpFWrJB4X6bRz8lDqMJsBf0+C2xVijUk5BgLiAOnjH8re4WsWFpG9gOt14yrKS42sJueQ4efyW+wuWa6zBHdZLndABpA8yfQqE5puwypU3Um7Ja+/Tm8iZ2ZyVrXuxDu9J/JB/Q03NSD+qTpB4AW3V77NYkU8Q0kwHDS7le4J84Wnpti3Jew5Q33vbx5D+pk6vaLy6HVkVU7MZw9zhRcC4QYdxaB+7pw+Cta6EJqaujvUasasd6IREUjaEREAREQBERAEREAREQBERAEREBjq0w5paRIIgjmDYrjufdi2Oe8MJa5riCDcbkgjlx9N107tHnAw1KRd7rMb15noFTcJiHPbLyS/ZxPGTIJ+Xkq1eSukZoV4dt2PFq/lw8bXfgjnWO7G1G3BEdJ5+HgolTs3Wnhbhcx8F051Ym0Te3l1R+FEQAPmq2+zpqlE5U/s/UiI81Py3s8RwueK6C7BtAsPqPHr4r5SwoB6n78lHfZNUYo1eDyxtNm1hczxUjC0ok8Tfz8VLxjgfyxtbUetnAfI/BeAsHmNt47fn/Tw0jr3vl/j/wBr30VkLy93/tfSeSpvaDOTXq/0eHNp/OqjYDY029eHpvMSSucWnTcn3LV8kdN/D7PsNUBa2Wve5wa90RUDDYM5bkgcbkdL4uHZTTbSDQwQG8evG66LkfaawZWM8n8f938qzTrJfCzs4XFwsoPJLT+fz6FsReGOBEggg7EXC9q0dEIiIAiIgCIiAIiIAiIgCIiAKFmmPZQpPq1PdYJPM8gOpKkV6oaJueg3PhKp3anB4jEhlOYa50uDfdpsbeST7zzIjh81UxONpUMpSz5fnl14XITc1H4Fd+/f8FUfnL8bUdUFOq68BunZvIXgAdSCSbSo1LGVG45jNLgxzXUjaYcGmpMi0gsAPLUrnm7f6XB1DSEGmyGxfTJDZHMiSZ4m6oXZnAODG13kmpUh4BJIY1xDtLZ2mxMbnwXMw2IlXUptK17d9+Pry58iOFwKjiFJNuSzb53uuj+njlbKlOLr60/fNSGvBYJ++SgVH6Xaeass9AkSKg5L60ho1EgADc7LwHjb7nosuBw5xD9NtDffI4dB1MeQva065yjCLnJ2S9/oq4zGqhaMFecvlXV8kuPO1lxtqMLhquj2ha4gkkvAkSTc2tvN9rL46u3n8L/JdFpsAADRAAgDkAotXLqL/epsJ5wFx1tl3+KGXCz/ACuqPPy2KsrTz43V8/NdfE5B2zzhzGNo0T+bWtP7Gnc9CZ+Z4KDkeU+xbAuTcmNz/C7C7s1hHFxNBneEExcf6TwPUKk51kr8M+CZpH3Xf8Tyd9+F/C7Sp132aVn38f1y7ivisHUoU0k7x4+P44IhYdsC62FF/JQWFZqT4V056diz5Nnb6JidTOLT9ORV2wONZVbqYZ5jiOhC5hRqjmp2X5g6k8OaYjfkehW6nWcMnodDD4pwyeh0tFCy3MWVmy034t4j/Cmq8mnmjrJpq6CIiyZCIiAIiIAiIgCw1qkeKyOKgPdJlcrauOeHpqMPmlp3Ln0RspxufCV9RF5BtvNm81+eUQ+hUYdnCD4GyomQtIpiiRDqP5Z/2+6eoLdJXQMx/wCk/wAPkVUqlIF2q4dtIs6ORPEeK7myXelJf3dEc6tjlhMUpSV4uKTtrk3Z5+l10PFF40uBPuuMnpE/yowJqPL+HDnCk+wF/e7xuDBB9FlZRJhrAJJsG8T9Sunu2zZLEf8A0NJK1CDlLhdWXle78MvFM80MO57wxgueJ2A4q3YLCtpMDG7Dc8SeJKw5bgBSbzcfed8gOgU9ecx+M7aW7H5V9+/8EsJh5putWd6ktXyXJcPLLRcLnxfCvS+QuZa5ePICxYrDMqMLHiWncfx16qQimlbMPPJnOM2yk0KhYbtN2u59D1ChGmrx2ow+qiX8aZnyNnD1HwVQIXqMFiHWpKUtdH4o8lj6HYVnFaarwf6IpCyU8UW7gEcijwsL2q2aIM2uDzQNILGlrhsS4+llbezvakV3+wqN0VgJF5DwNyLC8Xhc3mPA7H6LZZJXazE0qzvepyAeEOtfrBcB4+C2RqunnwL+FrONRRbyfkddReQZ2XpdE7IREQBERAEREBgxRsogUjFnZQ6lQNaXHYAn4XXjdsz3sY1ySX2v1LFPKJGq5pTbWbQM63TBjuyBq0zzi/w5iZq5/WzWqXe3JLW+1p1AddhS0fm0jSmC7uVO+W7SZ7oC6AqWJpOG7lbLmnn7aT7yUXcx1GSCDsQR8VTw07HgrqFUMR7zv9R+q6Ox5O814dV6HE25FbsJeK9GYYW+yTBaRrcLnboOfiVr8pwftHyfdbv1B2VnKntTFW/4Y/X8dX3W5tGvZGDu+3n/AI9X0Xfd8mF8WkzbtLQoFzTqqPa0ucymJ0tESXuMNb7wsTNxZfchz5mKLw2nUaaemdWkjvCQJa4jVAkjcSJ3XIdCoob7WR399Xtc3SBEWqJILw50CV9B3++C8TMdfosTdtAjxiaGqm5n7mkeZH8rnh2v9xZdLXPc0paar2f/AKek6h6BdnZMrOcOGVvpr0OHtqGUJ97XVejIj2qO4KXU3AUasLldo4UWRXi8HZ238LG2pB0O2Pun6FSKlPU0jiLhRHAVGFpsfUEcfEFZLGqzOhdiM9Lv/jVTcD8s8SBJLT4DborouI9nMwIrUif+pSqta7rJAkdC0k+a7crtCpvJxeq9He3oztYKcpU7S4O3vzCIi3lsIiIAiIgIuN4LQdonk0hRb72Id7IdA5rjUf8A7abXnqQBxVgxgstDmssqU6uh7/ZsqANYJJe72YaOkgOEmALyV5DacLY6UnyT/wBcvumWIP4SuYfB+1xOIH6AxzY3FnYwf2YimfPorfgamqmx3NjT8QCq9keDqmg5mh1KpVLjVe4QWAuLQxn7nBggO22dewNmpsDQGiwAgDoLBUsW05WTvbL1u/q/TvMw0uZFSgSY6+vRXZu6rWUYfVWvsyT9B99Fb2XVVKNWb4JP19dDkbWoyqzpQXFtemf0WZu8Dh/ZsDePE8zxVQ7YdpqRrMwNJz3P1tfXNLekykRV0k7XLWh3JpM7gGxdoM1FGi8sIdWiKVORqfUdZjQPEjyk7Kl9jspLMvxlRpDq1Zr+/qD3ODWuAeXcnu1uEQIdPFa6ELqVerzVvGXG/JffS507KKVOGlvJI95zhDQZ7Rzixz6bnO0nU9+t+txax1rGrtdrZLjqLQpWT53h6FeocRUDKmot0jUQXHSatR0DSGhwbSbybSn9UDX9mP6rFY0l2I9rh9FOrUMCBrBcygDFiCATHAR+pe+0PZNmJxj2UqrmMqEipYOioabnvNOdo/KJ3E1bReOnX7FVZUqkmo2u7cOSslZZN3S4u98zWnJxUoLz/Z0oIsWHpaWtbJOkASdzAiSsq82WzCx3vdHH5BemC/hZfGfqH/d9AV6ZxUJP4l70JSMipfaalGI1cHNB8wS0/RXF5sVW+1lOBSd0LfiLfVXtnS3cSlzT/j0OZtWnvYVvk0+nUrR94KPjbOBUkDv+AUfGiZ8CvTHl4/MYjZw6qFjBofPB/wDcP5HyUsnU2V4xVL2lMjjuDyIuFk3RdnmeMCwDEU68e7uOZBhp8g53wC7Vg36mNPNoPouFYDFbTzv0Is4fGV27JnTQp9Ggf+Nj8lLDK2IbfGK/1f8A6Xmd3Atdi48U/VZejX0JyIi6RaCIiAIiIDDiB3SqBm+sv1VqVL2kEjVVeBpLSB3Q6DJaG9CZvN+hP2K0OMyqlUc4vBdqsQSYiIiPM/8AkV5/azjSrRqS0atlrk339+ZthmjQZPgKzKjHso0msk6Xio980nEGYc4Q4iTsY24q3LwxoAAAgCwA4AbBe15ytWdWV316m5KwC0/Z9lnv/cbeV/8AkthjKmmm88mmPGLLxllLTSYOk/G/1W6m93Dz/uaXldvoVakd7Ew/tUn52S6kHOKopOa+nRY+qd+7LwyCCZAkDYXtdamjmNa/sMOxrXX7lJ51Ra5EDb+FbiF9lKeIhCNpQTfN/i1jpU6tOEbOCb5+/wB95TMpzRuFY6n/AE7WN1ExTGjvGS7W15mYBv02Autj2erYdzz7Gg+n7NukOMaQHO1ENAcbk3JAvaTstxUwlNztTmNLoiSAbHgea+YbBUqZcabGs1Rq0iAYmLbcSttbE0ZRbUWpPvyb88/GyMznQcGowtLK3Jc8vDkvoiWiL4udcrmHY+J/4/4WVuywVD3x4EjxA/g+izt2UVr77kSlwPNbbxWr7UUpoE/sc0/Q+hW0qbgLDmVLXSqN5tMeMW9Vuw09ytv8mv5NGJhv0ZQ5p+hQA31WKqN1mmwPRYqhsT0PyXrzxMXxINC3mlExbqR8yPksmFEm4DpFm3uekXI6BT6bnucKdRgDXzbSGkQ0mWkcvqtVat2d3bRNvPOyzdlq7LXRcmzpUML2zte12l8rau8lvPJK7aXF56WKtmDNFQxs8ah4gd4ebb+S7b2abGHaOpv5lcdx9Evpx+um6bby3+R/cu1ZPS00KY/7Ztt3r2+Kt0Yt1VJaKMvu4W+yZe2dK8ZJ6/D9rk5ERdAvhERAEREB8K171sVrS5ee2+lu0/r0N1LiEXyUXlrm48VKYcIcAQeB2WRfAvqkpZGLcQi+L6hkL4hRQbAREWARcZbS79rhPgZaf7p8lKCj4xkscDxCYCtrptJ32PiLH1BWIPOxJr4bmUXd4L3C80+JXtSivhvzuzD1ObVxHd4gx8CQsdYANceTTfyWyzikG4ip4yP91/mtZiDBHLd3UCO75r2UJ78VJcVfz/Z4aVPdqODdrNrydjIGmlSb+9wGp3Kw7rfvmVnwrSxhe+3EA7tt6EmPgFO9q0XJtYzB8fqtRmON12FmzYc/FcWh2mKThKNru85PV9y5W0SV/K9/V4mVLBy7SM72jaEFoucsnnzcn5t7u7palTS5ruFT8tx5PE+yd5iR5hdj7NYgVMLReP2R5tlp9QVxx9HU19I2m4PI/pPiCAfJdO/DasXZfSkQQXgxz1uJ9SV6ehK0vH9nL2crSku78W9fsWpERXDqn//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Glenn Maxwell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023_224</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>40</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" t="n">
+        <v>15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYVFRUZFhgaHBoaGhwZHBocHBwcGhwcGhwdHBgcIS4lHSQsIRocJzomKy8xNjU4GiQ7QDs0Py40NTEBDAwMEA8QHhISHzosJSs0ND82NDQ2NTQ9MTY0MTQ0NjQ0NDY0NDQ0NTQ0ODQ2NDQ0NDQ2NDY6NDQ0NDQ9NDQ0NP/AABEIAOgA2gMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEDBAUHAgj/xAA9EAACAQIEAwYFAgQFBAMBAAABAgADEQQSITEFQVEGImFxgZETMqHB8LHRB0JS4RQjYnKSFkOC8USishX/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEBQEG/8QAKxEAAgEDAwIGAgMBAQAAAAAAAAECAxEhBBIxBUETIlFhcYGRoSMyscEU/9oADAMBAAIRAxEAPwDs0REAREQBERAERMLifEKeHptWqtlRBcnr0AHMnYCAZc1OO7S4SibVMTSU9MwJ9hczj/ar+IWIxDOlE/BoarYWzsNNWblt/La3U7yGfHLDKST4XPnoNzPLnp9CVu3nD1/+Uh20FzubdJ7odtcC5t/iFXkM3dzf7b7z551Ivow8De/iOhHQjXbwNlK1mAvdTtysdxtrr9IuD6kwfEaNW/wqqVLb5GVredjpMufL/wDiGAzI7I4HzKSC672e1rkHX0vpeTPsn/EavQK08STWS9gSSXA20Y6ty+bXlz0Jix26JhcM4jTr01q0mzIwBB1B15EHUHwMzZ6eCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCcU/i72jL1xhKbWWmP8w8s7WOnkptffvMOc7Q72BJ2AJ9p8u8YxBqValRr5qjsx8yx0vPGeowadIX0Nz4GZGQMLHRhsdvz7TK4Vwl6oYoosm5ba/QeJtNjxDgji3cN7WPiD485HcS2Nq5pUOh5EHW/UbE+ex8z6YlcX1G3Mcweh/P2kjXgNVwGC3tYHUX/fkD4GZuG7FVX1sRprpuPQ6w5IKEmRBMQee4N/MWsR+dZeZ7g2105ev2v9ZLMZ2LKag3+0jONwDU+6b6aG3uD+feeKSZ7KnKKyb/sN2vqYSoO9ek7AOp+W3cBYdGCg2PhY+HfsBi1q00qIbqwuOR8QRyINwRyInykmjGx39rzsn8JOOkl8G5JyqXQ6a2IzBud9Ra2lvHUyRA6pERJHgiIgCIiAIiIAiIgCIiAIiIAiIgCIiAYfE6gWjVZvlCOT5BTefOGLwjOwItdib/6c3fP0vPo3jNEPQrIb2ZHGn+0zinZfC53dyDYgL6n5/wD6gD1kJuxOCu7El7L8LWnRTSxOp6yTpTBFiAfOYmGQKAALTORwJm3ZN0YqxUUVGwHsNp5KGXWeWaz/AJvDZJRRrsat5E+0PClcZrayV16omtx4BH56Ty+RKODkmOwJRvzWbfsnjvh4qg5a1nW9uQLa3tYkam/W823aPAZlzKALX+gJkUwdMmoBzLKPc2v4cpohK6ME47WfVMS3TWwA6ACXJaViIiAIiIAiIgCIiAIiIAiIgCIiAIiIBh8Uv8GrbfI9vPKZzHsZTHwC1uZ28hOhcV4jTs9AtlZkYXI7ozKbXbYTnfAsSaeBzquZszADqcwAuRKptNYLqaad2SOkepmfRoCQKrisYpDWW58QB1sB9t5ep9psYhCvhzbnkAJ/45r/AE5bypRNPiexPBRPSW61DTWYfD+JGombUX8Ok03aTjVRBlpi7HQcz6Db3MWXBPdbJsMUFGp+00+IxKtohuek0VLDY6vfPUIW/eCDNa3LugLf10lH4IdQtV841yuAvqBv9p5sRFzb7GdjKedCOY29BtIXgKQ/xKg7Z006jOLSVYQuAVfUjQnqJGa1YpiQQL2ddBpfUHextJwwZ6ivY+lYnOcF2urvXXUFNSwAFgOim2ZiOt50QHnLoyUuCudKULX7nuIiSKxERAEREAREQBERAEREAREQBERAIdxHXEOCN2A9MlwfpNTTwa0kKDYVGIA0Aza7dPDxko49gtRWXe2VvrlPpcj1mgeoHQMNO9qOhtaxHL1maaabOgmpQTXbBpq2HqO7gu1FSjBWQEtmsQoLKMyKDYnLqethaYXDOFOvxDXqOSbBAztU1uupLMRbRje4Pe/06y+kgtfeK4XkoJGx3A9T9p6peWzDp3aZZ4G1mZTtfS++0j3FWzYna4A0W+XMemaxtfr5zf0tD7kzQ10Bck8j97i3iDKrluzBXifCFq4cKL/EBa5ucgUowAVFPcIJzA2a53J5a5ODsgTI7AglmuWK6k2yqfksLLpYNrcSYKSVBIB/1AC/qOXKWcQqyblixX4SvuI3iadrXN2tYyN8WQI+fLctoD06nzt+klGOALaSPcV77BFF2JAUeI1P0I95FcHjS3JGx4J/2St9Sy6b3yk7fm07XRUhVB3AAPtOafw84TmqKW1WjmY9M7aADysxnT5fSVlcp1U7tR9D1ERLTKIiIAiIgCIiAIiIAiIgCIiAIiIBaq0wylTsRaRHG0QLqfmBynxIBIPsD7yYzV8ZwQZGcDvKAwI55Tex66XHrITjdFtKe3DI3hGmW690+s19B+krX4mi3F7m3p5Xmb2OgpXR6wq5j3iALfaaXG0GzsVO3MSwnGAWLl6gWxsMwKgDQkraw2566zV8QxuV/iK9R12PfYL5BFNr356xYOa4JlwfFLUpKwFmF1YdGUkNLGMM03BuMJTXLlsGN+epP819b895tMbVDLcWI35zxnu5WI/i61rkdLDz5ff2mLwfBValUFKbNa/ygsBdrakbestY57kgXtex9/Hf89J3/DRR/neAX1u1T7iThG+DJKdm2SngHDBQpBf5j3mI/qO48htNrETSlZWMrbbuysRE9PBERAEREAREQBERAEREAREQBERAEt1EBBB2IIPrLkQDmCFkd6ZBBViPHfQ/n6TV4qkQzlELqticratcH5b6MfM8hykn7Y4NqVZcQvyPZW6K1ra+dgfQzWYLEK6leY0PjzHh+CZZR2s20pqSsy1g+EGrSIp0yysLEq1PMP5rFSwynqCOUrX4S9OkA1FlAFyztTXmL2GbS/TeeyyIe9mVtO8hyk8hqN+XvLT4hHAILt0zEsenPae+Wxbb3X4NRSpjOQE7gJu2YW3tmXw8egvMrGH4a5VY5eXhcWImdhUAuxtc3tvtaRfi+ONioP8ANa5PXzEhyyM2orBR6g3J8b+R3sPT6+vQv4Z2C1xzHw7+oYn6kzmIq2tfW2luvMD3v7Tof8NcTZ6iE6sobzYEk/8A6JlkcSRlllM6NEpKzQUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGJxHBLWpvScXVhY+HQjxB1nIanxMPiHpOSCpA10BNzZhY6gg3HnO0SEdveDioUrIAKtilzswHeCk8iLtY+JHiISSsTg3fBohW+Iny62PntoQDy+sxlOS72UjXa40sNel7+0wKeNembMCr3F1e/I67+Y1F9jPL8RU2uQPmv8A7b35+BPlfylWDVvR7x/Fbg++v9tuch+NxXf1NwL6eJ5eO0zeKY/Oe4hba19RfT38vGY2B4W7NmcEmLpFck5PBewFNmszb7KOnmfLnJBwziDYdw6nvLr5ncgjoRp6zxQwmUba9fCY/EKJsqqCWZgoA5km35/aVbslzgowyTXhfbuvVqGmaSWVSzuA1gNl3b+Y7DwPQyZcC4qK6XNgymzAfQjwM5rSoCkgQG53dv6mtYny5AdPWZ3Bcc1GoGXbZh1XmJONVp54OEtT/Jh4OpRLVCsHUOpuGAIPgZdmo3CIiAIiIAiIgCIiAIiIAiIgCIiAIiUgFLyMdpuIrmWh/Mdb9DYkL6gMfbrN7xDFrSptUbZR7nYD1NhOO9qOIVA9KoNX+J8ZulkNzc8ltp5SqpK2CqVVxnGK5b/RKTY911Vxyzi/0N5jvwWkdciKbD5VAOnjaZlIKVBXY6jxBFx5aES8o67Sm51dqNE3AFLDTSZH/wDNVRoOn5+dZuQRbSY9QX/OsiWJWNM9ADW3tLdHDhTnbVrWX/SNifM6+hPWZ+IQXA/Ldfpb0mLiWkGcbqera/ij9lh9YW3W0t2vLHEMUKSg2zMxyoo3YnkeijcnkPMQjixveyJ32KxwYVKRdSVysFv3gGvrl5Akfqeclk4vwPCtRb4ue9Zjdm21O4Hhy9BOh8G7RBrLU0PX9/3mqFRcM6dGvGyi/wAknieQ19tp6lxsEREAREQBERAEREAREQBESkAShnipUABJNgOZ0HvIzxLilWrmFAZaS/NUIN28KY/m/NRzqq1oUleTsRb7JXZru1fFBUcUlbuoTm6Fv7fqTID2kpmq+Hpq2jOqtY7rqxv4d39JM8NwEHvVhmHRtSQDclj9haRehQqvWruTZVqMiIALKwAS4tt3WygX0HnMFLUqtN2XBVDTS8aMpPOcexJuFPZFHgLct72+0yalcWJ5DTXcdB/eaxWCuF5BPLVSPsw9pRHz1Co0RCtyd2Itp5aD28povg7KNtfQfg6ft7wdBvfT+w/POY3xbfNpqD6r4ddB7CWqFF8Q2Vdud9gOrW666D+4hOcYxcpOyRRX1Uafl5b4SLGPRazotMsagvYoRa1tQxIItzudNDa5lzieAZMoJDAgd4cmtqp+39pK8DwxKSZUHmTufP8AblPdfBqylWFweX6W8Zxp9SfiJpeX9v3MFTRusnOT8z/C9jntSstNWZjYJvbUnkABzJ2tNdgqFRmNWspVyMqof+0m4FjzO5PO8nP/AEnTLIzOzhWLkNbvNy0A2E3eM4fTqizoDbY7MPJt5c+pwTtFXXqUR6fLZzZnP0FpfR5t8b2cdNaRzr0OjenJvpNMwscrAow3DXU/WbaVeFRXizBUozpu0lY3vCeONT0+Zf6T9v6ZMcDj0qi6nXmDuPSczGkyMNiSpDKSpGxB1mmFVr4LaOplDDyjqESPcH7QB7LUIDcjsrfsZIRNUZKSujpQnGauisREkTEREAREQBERAKSzXrBR1PT9zyl0mat6mY5pz9fq/Ahjl8E4R3Mt1ELG7nN0W1lH/jzPib+k9Mt5USs+aqVZ1JXk7svUVHgtPSuG8QR9JDHw+V2dBcOFLroO+BlzqTzygAjnYHeTkCQ+toxHQkext9p0umSzJfBzdfVlRlCcecmJVHfzqDfK3IixNrXvvtGHTINND+X8P1l8z1hsM1Rgq7nc8gOZM6kpKKcnwZJdS1FW0I4v6cnjB4JqzZV0A+Zt8o+56CS/CYVaahEFgPcnmSeZlcJhVpqFUadeZPMky9Pn9XqpVpWXC4R0tLplSW6WZPliUtKxMJtAERKz1HgJmPisIlRcrqGHjy8QdxMgDnKH9ZJNrKItJqzIXxbg5o95SWQnfmpPJuo8fw6y06DWphgVIuG0I8OftIJiqBR2pndSR5jkfUTt6HUuqnGXK/aOJrtN4TUo8P8ARYLkTecH7UmkAtW7IPVlHUf1W6dNtrHRMLzDf89J0YycXdGejUlB3R2OhXV1DIQykAgg3BB5gy7OX9kOP/4er8Gof8qo1h0R22I6K3Mcmv1nUJsjLcrnXpzU1crERJExERAEREAxsY1lMwEGgmZxD5R5iYpnzHVpN6i3ojTS4KTHpY2mztTVwXAJK87A5SRf5gG0JF7HQz1jMWlJc7GwzIvmzsEUe7CRHD8TZFpV2Swzln1Uj4bKzZkUC6gBi/e1FwL6sRko0XOLf4+T2UrMm0i3E6eWq/ib+4v+pMlMj/Hl/wAweKj6Fpp6e7VbeqOd1ON6KfozWWkn4Xg/hrr8zat+3p+81PBsLnfMRouvm3L239pJJZ1Gvd+Gvsp6bQsnVl9FYvE1FXj9EKWBZz8R6QCixL0wS4u1gAArHMSBYb6i/MjTlP8Aqjrtpcm0brKiRtu0zgIxw5COpcM1RRZVIDFhYgEZl0vz0vrbccMxgqoHVWUEsLNa4KsVYaEg2IOoMlU09SnmSsjxTTwjMEQIBlKJlTBjnLVZ7An0HmZ63bJ4simbknkNB9zIx2jod5K3JgVPoSV9wT7STOMqW52+pmBx+hmoZQO8NV81Bb9AfeX6Sp4dVN/f2Z9ZT8Sk0vr6ISuynxEx6y2Zh6+//qZDbIPEn01P3EtYwd+/hPpEfOReTW49LoWtfKCGH9SHf239J0jsFxo16Hw3bNUpWBP9SG+R/UCx8ROfO1mHQ6H1m0/hxV+FjWoE/MrZf9SjvAeY3/5S2nKzN+mlaVjrURE1nREREAREQDFxw7vkQfrMJjNhiRdT5TWq15811hWrJ+qNFHgweKUMzYYHUCurEHnlSow9iAfSaDg+DvSrAjulVoINtXpUqTAeWTlyJkg4o5X4bgAlXJUMyoCWR1F2PK78gT4GWOz2U00GYOy5mLLmK5mY3IZgL6Gw6DSZ6cnCjc8eZG5tNFx8d5f9p/WbyaTiqZq6ryso92N/pPNE/wCXc+yZm16vR2ru0bLhtDJTUcz3j5nX9h6TMlBMPHU6pF6VVUIvfMmdTqNbBlN7A7HntM8m6k22+WaYRUIKK7IivaLtHWbEHBYSyvcK9Qj5WZQ1lOwIVgb6m/LSX+FcGWl/k16qdylmBKqqf5hysCW+cn4ZJZtdjptGB4GUrLiKb08Q1nZy7FCXqMSzjKrAAKcqrpYE6y72twS/EpV2RnphWp1AoJYZiChAAPMsDofmE61GcIThCKxbL9WQkpJNvkxKzfDfNSDMb3Ui6qxJCoS5U5y2bKBYC1wLfMcns5xKgl0NYKSRSRGJAvTZlLa6KXdiQL6jLzvKdkuC1EGesSqKS1Omx23Gdhspy7LyuSdTpoeJ9mFq4hv8O+RHcr3hmQ1MrvUyEEWVcoB3GZyBbLaJOlUcqTbslzyRSkrSS+jpQlZi4Ckyois2Zgihm/qZVAY2PU6zJnEeMGkop1PkJZfVlXpdj9p6Js5HVR9Cf3nml87eQEi3wj091dWUeN/aeKmtRR0Vj72H7z0NX8h+s8Uzeo56AL9zPU/9Fv8ACE8UwuSqyAWCk28Q2o/b0mJiVuT5ST8fwlwlTpdW9dV9j+sjjr3jpPpNLV8Skn37nzWppeFWa7dvhmmr/KdRpYeV9RMjA1SmIwtcaFXRW/21NP0Yn1ipSAbUKQFYgL/NlJPe6G2bXwHlGApoalKk7k3dARbQAMhVg3pa3L2miEsnUemioqUOUk/lM7TKyglZ0C0REQBERALVUaHymrA1m3aai+o8ftPn+tR80H8l9F8mh4pSq5wzBWbN3AiguFVtBmc2UkE94dT4mbbh+D+GupZmaxYs2Y3sBYHSw0GgH1mYYE5k6rcdpNRzcTUAZsV/t19lA/Vpt4yC97C/XnPKNTZfHKaKqtLxLZ4dz0JRluCP0lRKyouI5V7NAG9NzckXD2I3udgCbncE66y1/wBNuveVkzWOysh2IHeBJFuWh/eTxNK1lVY/4Xf+ip3ZFBj69POjAuQCQrqWOXb5h8yk6X1OuszOA4tKrswoIjouQspFwpNwtrAgaX25Te2nm+t7evOJ6mMovy2fqjxzjKLW3PqVY8/zxgmUlvNbT28phuQSLddrMp81PqLj6ge8uU/maWMULqbb7jzBuPqJ7SoCMw2K397SDfclbBdw+7GeMJsx/qYmez3U8bfrK4ZLKBJrsiL7sxeMU70HHSx/4sD9pDQbFr9bSf1qYYFTsQQfIi05/iFK5w3zAkHzU5ftO102a2uPucTqUXuU/XBhth1DKcoC3JJ1vdjZvS15jcXXIUcHK9PuHxC6qw9x9JnPYLrppzmNUAqKyaEqttP6dhe3/jr4CdZQla9nYjR1TdN05Z9GdZ4XixVo06o/mVW9SNR7zLkO/hnjC+Gam29J2T/xIDD6lvaTKbFlG6DvFMrERJEhERAPDbGad9gehEROB1rmH2XUe5eP56RETjy5LioOl5TMDsQbdIieW5I9z0J6iJ4ChMRE8PShnkmIkWeo8TxVW4033ERIEiyz3W/5eeMOO7b/AFW9Cb/cxEi+CRk4jUKOpmTliJbDuVPhFJDO1OHy1GtoHAYefyt9j6xE39Ok1WVjB1CKdH7NT8Pu2/Tl5EzGBKPnXxBF9CG0IiJ9BOtOXLOLSxIlfYCmFq4ors/w3A8Dm/8AXmDJzETVS/qjtUf6I//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nathan Ellis</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023_221</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>150</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>49</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>49</v>
+      </c>
+      <c r="R32" t="n">
+        <v>48</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>11</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgUFRUZGBgaGhgaGBwaHBgaGhocGhkaGRgYGBocIS4lHB4rIRkYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHBISGjokJSs0NDQ0NDQ0PzU0NjQ0NTQ0NTQ0NzQxNDQ0NDQ1NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0PzQxNP/AABEIARsAsgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAwQCBQYBBwj/xAA+EAACAQIEAwUFBQcEAgMAAAABAgADEQQSITEFQVEiYXGBkQYTMrHwFEKhwdEHI1JiksLhcoKy8TOTFRZ0/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QAJxEBAQACAgIBAwMFAAAAAAAAAAECEQMxIUESBFFxIkKBMmHB4fD/2gAMAwEAAhEDEQA/APs0REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREDyInzv2v9uWRmoYZgrKcrVbB7MDqqqRYkcybyWyLJb07XinFqGHTPXqLTXlc6nuAGpPhNEf2g8P1/f3tfTJU1HmvznxHi9arVPva1WpVexAZrkAEk2X+Ec7CwmopJdrC569fHTb1mfk38Pu/S3B/afC4mwpVVzG5yEgPYcyvLQg/9GbuflpXumo7S/iO+57t53PsV+0OtSK08QxqUL5czAl6eo1zD41AvcHXXfS0TL7pcPs+2xIqNRWUMpBVgCpGxBFwR5SWbYIiICIiAiIgIiICIiAiIgIiICIiBqvaLF+6w1Vw2UhCFPRm7K277kWnwDE0Wd8vX7tsxt33n1n9pPEAq06II1JduunZT1u/9M5bgnDVQZ92a5J8T+lpxzvl34sdxz+H4K1rZT4G3yNwPKSrwOxsKe/TT5zvaNDullKQ6TG3f4RwFT2VaxYAAkbd3Qyk3s6wQjUDUm2xABsB+vfPp5TulbE0NNo2fCNZ+yzj7hjgqtyLk0TcEKArMyHW4Glx5z6jPjtfDfZ6q10HaV1cDXXKe0PAgkec+v02BAYbEAjwOs7YXceXkx+NSRETbmREQEREBERAREQEREBERAREQPn3t/hM9dL7Gn/xZr/8hKOASygTo/bOmCaLaXGceuS//Gc9TrqD2jacM+3s4f6dtxRItPZQTjFAEKXF5dSqrbG8y6JUYRiLEStUxiJqxsBIF4xRfRW9QRG/Bryq46mCDflrPo1BLKo6KB6CcJTAZ1W+jMo9SP1nfidePp5ufuPYiJ0cCIiAiIgIiICIiAiIgIiIHkqcTqlKNRgbFUdgellJluVsfRz0nQfeRl9QR+cl6Wdx80wz9impJzZQxB31Au1uROkV6b7IAOpMlSi12dhzGU/yk6g9OQt3S/hxfSeWV9Gzbn8RQrhmNRwaYXs9hPit/pvvbny8psvZ+5F2Ppt0meJQE2IFvIfjJsFT102tbTbult2mOOlfi4NxY2Glza+hOpAOmkq4aliO3dhkB7G2osuvrmOvVRyJm2ycmt5ySjTANgB6D5xKXHarhgct2FmG50F9dxOg9kKj3xCtfKrrlB5XQFrdbnX1mrqLe47jN17IU3FJjUADlrG2uwuBfna83h/VHPl1ML/DooiJ3eIiIgIiICIiAiIgIiICIiAiIgctxfgzFmdCMlixGtwQCSFFrG5HUWv3TR4dyCCJ9ArLcEHmCPUT53QW4ttcEeo3nDkxk6evhyuU8+jEUQ7BmOg1UdT18J5hhUUsQxIJ0BtYDoLD53kfEaL51dHOX76ALci33GPwkHW3PqJbwJoMt3NRG5hmOmpNgdQdLDSYkd7l/ZgKZuwdmIblp2dLaEC/reSYFynYJvYaHqOR8ev/AFMMc9LVafvWazWNyFBuMoLNob3bkdFPdfDh+EZUHvKhqPbtNZVBJABsq6AfoIs0ku/TY4XDtUbKtr2Lam2mg6d4nW4GhkQLe5G57ybn5zR+ziXqO3JVt/UQf7TOlnbjnjby82Vt09iInRwIiICIiAiIgIiICIiAiIgIiYM1hcwMa1QAEkgaczafO10t5Sz+0NiDhnse1UFPT+azAeWU/jK95x5b509fBj4tenWe5+W8idiJ7SrL3Tl59O8s9rSNfTSZtIRUv8Iklo/J+HTezYHuieZY39BabifO+HPWfGpRpuyotMVKmU/dLMtvElQB5nlPoSG4nowu8Xh5ZrKs4iJtzIiICIiAiIgIiICImJNtTA9iVKuPUaL2j3besrNUZviNh0G3n1lkF2piVGl7nukBrFhfYA7Svl+6POT0lsbdRLqRGo9q8J7zDOR8VMrVXn/4yHYeahh5zRIL7G43Hf0nbEWnH4/DDD1AlrUnuaZ5Id2p9wG47jblOPNj+56vp8/2onS0zpKn3lB8pI63EjVxOD06Z6bATxhJEXnK9SrmqJQQ9tzluPuLu7eIAJEndXqbbv2awgGetzfLTB/lpl/73cf7RN41XLra88oUVRVRRZVAVR0AFgJhiTsPOe3HHUkfOyy+WVqxTxKtsdeh0MnmqKTNKzL3joZbiy2USCjiFbTY9D+XWTzIREQEREBERAirVMov6eM1lVGY9pifl5CWKr5m7hoP1nrLsfrSak0iJKQA0mWWSZYyyjGmnOeOSDfpJl0Ei3gTsLynj8ClVGpsNG9VI2Ze8S1Qa6+GkgxdcgHIMz8ug8f0k1vwsuruOOoo9Jmo1RqvwtydeTDu+UzdwJvqOGZ0tWAc3O+4v/C33fKcPx6jXoV1XKzq5tTIFy+vw2H3xfUeYnmz47PM6e7i5pl4vbZY/FMq2XVjoLakk7Ad83/slwVqKmpVH719+eVb6KD37nyHKVuB8PKlWqrerfRSQQg6m2mbw29ZsBxIpVdWvkLafy947r7j6PTj49ea5c3L8v04t0BKz6kn08pYLaXGumnnsRIhtOseVgFnvu5mJkBLsQNQBmdOsy6HtD8R+sktPFXX8YFpTeZSrTax7jLMxYr2IiAlfF1LLbmdP1k812Oqdq3QfPX9JZPIjRtfruk9N738pVpntW+tQf8AE9w7doD60vNou3njH6+UxvzhZB67aTwCwtG57hMoHgQa9+89CgbRECOpprJBSBsxA01Fx8JsQSOhsSPMyOtLCjQDuF5KIadCxLHc793QStVwqvowvLlWpyEwRJR5TphVCjYTO0ztK3v7myj1IF+8AXNoEszWQZmG6+h/IgTNHvqNvz5wJxMAdPG31857feQM1j4Afjc/lAzcy0puAZSGwlqgez6yZCaIiZVjeaTE1Llj3mbavVCqzGwABJvoNBfUzkeH8RLn3dQZay3zry3tddTcarEykykvtqceWWNyk8Tttg9mB7gfkZMmj+spO3ZB6aH5zP3+qt3fKddMNg7626m/+PW3oZINBaUcM+Y5vq3IeO585cZQwIuddNCQfIjUSUcpx3jfa/duMqEC6ulidTrkxSXvlNgybA985vHcTquWqsz2qMUpqlVlym47QpKxLAAZRsCTzM+kNw2mUKMGZS2Yhndje1viZr27r27pjheDYem2ZKNNWGzBRmHgdxJsTcPwxp00pl2cqoBdviY8ybyxPYgRVjLCD6+UrVxcqOp/DnLSyUYZZ7PWnkoAzWe5UopZQSANbXI5EW58xNjKGLpGxFiRmDAA2zC92TXQ7k2Oh5yxKxw2GU3162K51O5B+919NJcon4u9m+dpToAq1wD964y5A7MQV3FyR27nlfWXqS2UDfqep3J9YtvsmvQzW16b+BmFTf0/Af5ntZv09dPzv5SFqnaP14fXjJFSltbfWn0ZZwp0Pj+QlBG1lzBnceH5/pGXQtxETCtR7S1smGqN3KP6mCn5ziqhZbVK7FijhUAsCXZlZzoNQvf4TtOPVbIqhSxY6Dl2VL9o8hdQL66kTlsHgKlV0NVSq0r6EfG5bOxHUZra87Dvt5+XHL5Szv19nv8ApssJx5TLWvf3/hvDuejC/nKda425a+XMS4w08DKlZraz3R89Lg61rjzH6zaUas51CGZRnyDNe+nQkoL6akD8e6bClXANr3tuf0iwbtWmUqUat5KuIS4XOtzmAGYXJX4gBe5tz6TGhNF5XfGUwrsXXLTvnOYWSyhjn/hIUg68iJDX4lSUhWcXNN6oGpvTS2Zxbl2h430jVNxdQXkgQ9Zzp9qqIT3irWe5eyCmyvlRFd3yPl7AVla/POtrk2locdT3nu7Nc1FpA2FszUDXB3uAEU353tpLcb9k3Pu3BM8BlKjxBWIGYXLOq7i5QkOB4WM9fiVEZM1VB7z4Lugz7DsAntbjbrMyy9eWrLO1y8jdQRYzH3y3y5hm6XF/TeZFpUYqlu89TqYZ7Tx3tKOJqkKxAvZS3oLy6GWJxGthr9afOarjHFlw9P3jDMzMqIt7Xdr2F+gAY+R6y0ptvqfoTkPbzB4io+FWgjO3706fCGPuwpZjYDTMdTyMnJbMb8e/TOVsl03PtFj3XCCqqZlzIawUkEU93ZbamzZL9wbledB7M4lnQlje2RQ2+YBQbk8ySSf91uU1vs9gqiUslYq50FtSAmUDIxPxG+cnl2pt/Z3hyYel7lL5V6m5JJJJJ/DwAnn+GVszt148wm97bmIidW3O+1VHMq76ZzYFwfh0KlCGuDqMpBvsbzkcLxvEqXDKXyLTOTI2e16oINyCruPdm7X2HZ1Num9sveD3TJmBuykrmJUMUGawBv01FhmubWzDnMLxNGRg9MVawWiyEhBncUveBFLnsuoNUgE8nseU649Je3VONfw/Sa7GG316S3Trh0V1N1dVZT3MAwPoRKWLfrNCpg3HvqasDbtuSNhlXKM3d2z+E21TCoNVYASlwRL1XO6imq+bsx/tHrLlTB66SCXC1rmwOk5rB1XXHAHLkGMxCCwOYNWwor3JvbKbbW3vOiXC5RcnbbxkxUXvYb3vYb7Xv1tLLraWbcZgMUzLjlZWC4qli6lNmy5Xam9RCUsxI7D0BYgaobXGscO4ZXV1ZgzqcHiKVEi5/dBKT0Va2zlqjrY2JybTvqQsNPwnqi5mryd+GfhHJ4vhlVMPRVErPXyMUrKwR6VY06aorquUe6soVr6Wpi4JN5ZHC6n20Vyr2+1XvdsmQYAoKmS+W+e65rX5S9xg1XxFKhSrNS/d1KpKhWzMj0VVXDDVLO9wLX010mv4fxCq3EHpio7KK1UMjAe6WilFLOrlb5xVZAQGOj6gbxLdfxTU2t0DZqR6fa6h/rt/dOc9oFYpSXs5BgbVCy5si16tFHqKLjtILuL/AMJm/LWQN/DhcS39TqR8jPGxdcVFw9KnTdKdLDGqH+JkquyEISQq5VpsxDXzbCxnj+lv6t/b/T0883jpHweipx+JcrQYpURFZ7HELlw1IdjT4Dma5uPvTp3fWcvheMU2qV3XD089D7SalQBQ4WmzIilrXLPkckX0Ve8SZ+KYo/Z7UqGaszggVKjhFWmXDZgg17LKRbQle+eqy2vNLNN1iGO48JAWdabsRoFY25nQ2HhLVNtT0jGN2H8LeugmW2spDXqflLVJb9rusv8Ap5t5/IDrKWGXNp93n3936y+GlomWX8CNCe/8h+s14M2WC+Ad5PztMZdEWYiJhWm46dU8G/tnP4nBU3YF02LEMpKm7oyM113OVjYm9tCJvPaFrMng/wDbKtHEXFlQsPK34zrj0zUNKktNFproqBVTUnsWsmp1NtB5TWY5+U21ZNPga2uxBtfcC3LummxmFa9wTb+YG485pVz2ebtuvVQfQ2/ObgVppPZodt72uFF7G+56zbYlLG/WZEderc2lIcZpB6iPnQUgC7sjBBcIQBUGhYh103OttpPeajieEdTUrjPlzYNiq9pSKWIR6j5FGYsqJy3F9Dpbck6St5V4vQRBUNRchpvVBF2zU0ALuuW+YDMu3WZf/MUV97me3u1DP2WOVSmfNoNRbp4TiMVhnOGVkpVGV04rSUKjlrYmqWw7FCAyq2UakAC4JtL3E8FUH2t2Vu1hUTYkE/ugcttyLMNJZhOt/wDbZtsnhu+InC1xTxLVXCq60TlzIGL1adqVVGXMBnVCR2TbfSZ4T7N9syK9QV1erUZSjhSKyhWGc08uS9MEENqUtc7TQ8Vo1q6OKNMsKlfE4hC4dBlp0lp021UnNnYMqkDNk3A1nR8LZmxdWoVZQ2GwhFwRqXxLlTcbjMLjcXks/STzVOprQb/8qj/2Mw/KTNhbY0lMUiM60jUo2U1WSiamXJduyjZzm7J20IvpHTQ+6UW3pYNfWq15qWqr9vKae8+2mqVt2xRTh+VX7kLdm+1zaeX6Sb3+P8vRz+vzVr/604SsKVSnmxFHEpUa57TVKrvSe4BuFWo6k/6bbTbYThrL7litKmKa1l93SU+7vUZCrKSBayq19NTUPnzH7OwwdVcf+PC0mRuq4p/tFh4Ndf8AZO8Guk9We5e9vPjPHSNZjxKnekRtqpPgGGklRNbSPi7gUzc2F1H4zHttr1qDYbS0hkFLCZlupBlkUcouTtND1jN1hhZV8BNFe86FRbSc8iMoiJhWq47hcyZhutz5Hf8AI+U0OHrAdlnyjofyPOdkROW4tw0oSy6oT/SehPTofLx3jl6SpM6AXRc38zEhf8zT41nYnM/Z5BRYGZrWYaG+nWQuSTOmhN7PLaow6ofms6GomYTR8GT95f8AlPzE3iHcdPz1maKJoEGTjlJGqL1kBfW8ok3IEtLK2GG7SyslHonqnWeCEOsgkvInEkM8YXgQJTUahVBsFuAAcq3yrpyFzYcrmekzIqRFJbm/IfOUZ00sO8ynxtM1K2vxDbzP6S+0o8VeyrrbU/KSdjU4LOh7Oa3MS+KubfeVM55tPVa+g2mxdwozOo/mH4G/5To5q+E4awznmOz4dfObOcsrukexETKkwZQRYi4O8ziBzPFuHZO0BdPxTz/h+X4zUmieWvz9OflO7nO8U4OVu9EXXdk3Hin6enSdMc/VTSpwxCGNwRpzHeJsg1iDy2P5GavhbAltGGgFiSRqeV5tbXF+v0ZaPMThb6jeV0ok6HlLeHe/ZO4/EcjMnjYwGmkzWRFpIJBmDPEOs8WeKdYEhMB5gTrPYGNV9JnS6dJENT4S0qhRfpvFHh3+tzNfxf4V/wBX5GX1+esq8R2UBcxzWA77ROxp1TS50E3PDuGXsziw+6p+bfpJ8Dw/LZ31bkOS+Hf9d82cmWXqEj2IiYUiIgIiICIiBpcbTVWcqALgFrczuT8phhmuGXzHgf8AMyrtdm7yfSUFqFGDdDY+E6yeEWXbK4bpv4TOriBykmJpZlzL09RNYiEG1pYLSvrLIlNPCWwYozExB1noMjvrIJWEjd9LSdZItIb2k2McNSsLmK7XIXzMlqOFFzKiNux3MCdTqJNhDck+NvW0qodC3XQSxhNGt3W+Ul6F6IiYUiIgIiICIiAkdRrAnoCfQSSQ4r4G8DEGkzc+/wDO0ixKa+MzG0YzYH62nZDh2JscjeX6S3VpA6zQu5uNZv6eoHhFgqFLGZhpJidpAkCys8qKN56kirbyCWnUHOTPiVA3lCpK5l0LFSuXPdJ6aljbkN5UpzZ0BoIvgR1W1AGy7/X1vM6LWZfEfjp+chTn3mZtv5j5yDbxETkpERAREQP/2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Josh Hazlewood</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023_224</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" t="n">
+        <v>42</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>21</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVFRgWFRUYGRgaGhkYGBkYGRgaGRgYGBgaGhgaGBocIS4lHR4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQlISE0NDQ0NjQ1NDQ0NjQ0PzQ0NDE0NDQ0NDQ1NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABCEAACAQIDBQUEBwcDBAMBAAABAgADEQQSIQUxQVFhBiJxgaEHEzKRQlJyscHR8BQjYoKSsuEzovEkY3PCQ4PSFv/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACcRAAICAQQBBAIDAQAAAAAAAAABAhEDBBIhMUETUWFxBSKBsfEy/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABIshtr9o8JhtKtVc31F7z/ANI1HiZSNp+0qo1xh6SqOD1DmbxyjQfMxNpDSbNPjDF7Yw1L/Ur00+06g/K8xHaXaDFVrmriHI+qGKp/Sth6SuPtUfRUk8b/AK1k7h7Te6vbrZy6e/uf4UqH1y29Y1f2iYAbjUPgn5mYU21TY93XhOibWW2qtfyENzHtRuC+0XAf90eNP8jHNHt3s5v/AJiv2qdQeoW0whNqoTqCPWPqdZW1VgfAw3MNqN+wm3MJV/08RTY8g63+R1kkDPnER/gtr4mib0q9RegY5fND3T5iG4Np9ARJlWzPaPiEsK1Nag4svca3qD6S77H7WYPE2C1Arn6D2VieS30byJlJpktNE/CEIxBCEIAEIQgAQhCABCEIAEIQgAQhCABEhKl2s7ZUsLenTtUr8vopfi5HH+Ea+EASsndrbXoYZM9Zwo4DezHko3kzMu0Hb3EVrrQvRTUXFs7Dq30fBfnKvj8dVrualVi7nieA4ADgOgjaQ5WWo0K7EkkkknUk6knqYlp6kdtXF5Fyr8Tei8T+AklHjamLAUrx/V5Clid0AnE/8xCYwPSmdbrxIHrOM9gQBHQBRx+e70nujTJOgN+FjFSiRvFxwKkHXwvPeUAhrELcBtDbXjJKHlGtUXT4uh3+R56bpIUqqsAQd8i67sN1t/y158OBiU63M66359Dcb/GANEzCNsNXzDXeN4jgRkln2B20xWHIV2NWn9Vz3h9l9/kbiafsLtBh8Wuak3eHxI1g6+I4jqNJhU6Yeu6MroxVlN1ZTYg9JSlRLjZ9ERZROyXbla2WliSEqGwV9yOeAP1W9D03S9Sk7JaoWEIRiCEIQAIQhAAhCEACJCU7t12o/Zk91SP75xe+h92p0zfaOtvnE3Q0rG3bftj7nNQw7A1NRUcH/T6L/H93jMtdiSSSSTqSTck8SSd5gzEkkm5OpJ3kneTCQ3ZaVBCEIhnHE1wi5m/5PIdZXatQuxdt5+QHAeUc7Sr53I1sug8eM8UcJUf4QPwETdFRi5dDRieU9pTJO78ZPYTZai2bU/rdJXDYNBuUfKZvL7G0cDfbKrTwjHn+vunQYU/VOnTS0vFHBL9Ua+sk6GBp7si6b9N35SPVZp6ETPqWFYiwXTw1B8+E91MM4GU5wNxGvp03TSqWDpj4UA8p0bDA71B8hF6jK9GJljUWy5deVxa5GuhNrkTl7hk1v0uLX16zT6uz6e/It/CReP2HTcDIiqb3O+xFt1r841l9xPAvBnyVHRrn9Wk7Se4vI7a+z2QX1ynUG+/kY12VXYOF4HQzeLtWck4uLonoRYRkhNB7EdsiMuHxL93dTqMdRySoTw5N5GZ9AwToTVn0XFme9gO1Je2Grtdx/pOfpAD4CeJHA8R66DNE7IaoWEIRiCEIQAIQhACI7R7ZTCUGqtqfhRfrOQbDw0JPQGYdi8S9V2d2zMxLMeZP3CWDtztw4nEFVP7umSia6Mfpv5nQdAOcrczk7LiqEhFhEUJPFRgFJO4Ak+U6RltZ7Uz1IHlfWAEGguRzJvLJh0sgAlcwvxCWbDDQTHKdOBDugkksNTEZ0Ukhh1MxOpElhkGkkaYEY4UGPg0AOoUTsqCN1qX4TsjE8IAJUQRi6yTyExvWpRMaZSu1+F7gIHEf8Sl4A5aq9dPnNH7UUC1LTgwPoR+Imb4pMrAjh+E3xPijkzrmyxwnlDcCehNjmCFosIAKjlSGUkEEEEbwRqCJs/Y3b4xdDvEe9Sy1BzPBwORsfMGYvJXs1thsLXWoPgvlcfWQnXzG8eEcXQmrN2hOVKorKGUgqQCCNxB1BE6zQzCEIQASVrt1tf8AZ8K2U2ep+7S28XHeYeC387SyzIfaPtL3uKyA92iMn87WZ/uUfyyZOkNK2VC09QhMzQIQhGASM22e4PtD7ryTkXt9TkQ8m16XBtABjs2lmfoNZZqS62EgdifEfCTjMw+Ed46DkJzz/wCjswqo2SFIgb5LYF0Y2zC/jILBbOZz3qmXra5J890et2ZpEX/aHzfaQegF5PBo2y00KA5i8cCheVDC4o0iAKmcA9PW0tezsYHtENNjijhRHdOmLX0njG4XMosbecqWMoUw2VsYVYa2ylrHdfujuwVA2y4VHUcY3rJcXEg8FgnK9zEo4NviW349I+VcRS3gONdRcacLrw5XuYMEzjjqIdGXiQfG/SZVtSlY/MeHKa7UTW48RffM37SUQtRwPrG3mRY/IiXjdOjPMrjZ5wb5kU9NfEaGd412apFNb9flmNo6nQcQQhCABEixIAat7NNre8oGgxu1L4b7yjE2+RuPC0usxDsdtL9nxdNibKx92/2XIGvgwU+U2+XF8ESXIsIkWUScMVXFNHdtyqWPgovPn7E1y7u7b3ZnPixLH75snb7FGngatt75aY8HYBv9uaYvIkXEIQhIKCEIsYHl2sCeQvGe0aDumneBsbW1BG6xEdYhCyMBvI+7X8I62Y2dL5TbKAPtAWPzMylJp8HXhhGUOUV/Yi989Bb11llpjSMXwoWsWUWDLqP4wbN9w9ZIURpM5O3ZpCO1UNWp1HcasE4hTqR06+vhGFTCulTccoDLnz1FPfYlXIDXzKrAAbjl1lhRwI0xbBtN8cZNCljT7IzDnNUd+9a5ygm5twzHiZadj1yGtflIWhQVY92ZU79+UmTs1hGjQGq3UddPSUKrhVBqKUvqpTMb5srAtnsd7WIuNwMuOArZgQeO6csVgRmvaJdg4rlMrfZfYrqrMVqKyq4DI5BdqjKVLqxKBUCkZbNmzm4sJZ9le+UZawW+7u/CeoU/D4XI5W3Tth2Cid3cNulSlfZEYKPCOWKUX03TNu1aWrm3EDrv0/D0mlYhdJA4LZq1MYzuuYU0Vram7tcJpxtZ28hykxdMclaogtnbBb3ae8bIWKogyn4mPdzct48LyNZSCQd4JB8QbGXbtTVK+7X4R71GudDohv5X+6VPaqWr1R/3H/vM2hJu7MdRCKimlQ0hFhNDkEtCLCMBCJvHZ7He/wAPSqXuWQZvtDRvUGYRNV9l+KLYZ0P0Kht9lwGH+7NKj2TLousIQlkFF9qla1Ckn1ql/wClT+cy2aL7V31w6/8AkPyyD8Znczl2aR6EhFiSRhFhFgALvjOpUK+6Tcvw+eYg/hHk5tQV7qwuCbgjQqeY9PlImvJ06eXcTviqQTIqjRSbnnm1v844pNpOWIw1TJ8YYAC4Yd7TqN50iYV7iYM6VwyQRc3Cea+HI1tO+D3gSepUEy3bdaIsqqJnHIDUk6bufSSvZn9nfMVYMQbXBv6RljQBmynKGBUjgQd+kcbAKhtwHVQBoDqYCLSmIwxqe5WooqqASmbvA772t4aC86Yl7sR6ffOXu6bMr2QMLEMFGbQG1z/MdOs7Vk7wPzMBpCU6fMR4lEAT3Roi150eBLYxxJ0kfhksjuGsQ4fj3gistr9DmnfH1LZjYmyk/wCPGcKmza9Sk9NmVEtYFNXa+pYk6DUnT1guw7InE4pMUl6nwU6qsx5oEcso8colZr1mdmdvidi5A3AsbkDwvaTu16dOhR93TvYtYlt7t9I+AAt5yvTfGuLOfVSuSiukEIRZocgkWEIwCX/2VVu/XXmqN8iR+MoEuXsvqf8AVOOdJj8nT8449il0avCEJoZma+1gd7DHpV++nM+mk+1en3KD8mdfmoP/AKzNpnLs0j0EIQkjFhCEACKjEG4iQg1Y02naHq4pbd4HwjTAf4nmGENmYdb+R/yJjOKiuDqx5HJ0yZwu+SVWuShA4CRVJrER5iAcjAb2G/iPCYo3Ip1dzbnJbAYYKhP07aBTrIEYHMQC726u35yewGylW3fYaad99PImVwaRryTWHw72FrfZB49ZIo5sA3SRVPY5Nn969xu772+QNvnHBwVRWRveO1jqrEFSp38N/GDFKvDJ6junmoYqHS851TpEQQO1a6oCzfDcX8MwvO2J7RYZBmFUMTrlTvMeluHnaQ3aN8yOBuXIT/M4X8L/AClXmuOKasxy5XF0h3tPHNWcuRYfRX6o/PiY0hC02RyNtu2EIQgIIsSLGAkt/sxH/WN/4X/vpyoS7+yynfEVW+rTA/qYf/mOPYn0ajCEJoZlP9pmHzYPN9Sop8m7n3sJk03btHg/fYatT4sjW+0veX1AmEyJdlx6EhFhIKCEIQAIQhAAnFmIN+RIPhO0521PjM8nR0YFcn9EpQqAgER6K1xbylfo1Mhy624co5oYjW850jpslEyg3MlsIVYaaASuGrdrS1bJw4yg+B/KOjSLRL4OkFG7hHYe2to3D2/x6CeWxQuNbg8ugJt46COiJMfZtIxx9YKpJMKmKFvEaAcdLyKBao2vwDUdSN/y5SbF3wRG00PuHLb2ZGPTvrYeQ+8yuy27fT9y5+z/AHrKmZvhf6nNqFUl9CQiwmpziQiwjAIQhEATR/ZVQ7lepzZUHktz/cJnE2PsFg/d4Onpq5aof5j3f9oX5S49ky6LLCEJZAkwvtNs84fE1adtM5ZPsOcy/IG3lN0me+1DZd1p4hR8PcfwOqHyOYfzCTJcFRfJnEIQmZYsSLCACWiiEWABPAGpjhKByNUbuot+9a+Yj6KjifQRthnDDMAbGxAO+Y5JJ8LwdOni91np6dxG5JX9co+ZN3GeWpg7/wBeMyOiSDBMosT+ctWAxVlAvy46j8v8Soph2GqmPcPcHTMD0H4/OKxK0XF8ULXuBfn6b+GkaPiCTpcbrX0tY8eQ8esZYOiTpa/DvXI8dfP1krhsDxf5a9DCwoVaN1ubknS3XnytrHyIFUKOH618Z5UDSwAA3cLTo4v+juiRSIftAn7l/Af3CU2XvaxARiwDAAkg7iBqQfKV/auxrUlxNEE0WFnFyxpMN5J3lDzPw8dDcXjyqL2vyYaiLdSISEW0AJ1HIJPUIQA8z1CeYAOMFhWq1Epp8TsEHS53+W/ym9UKQRVVdygKPACwmZ+zTZZes1dh3aYyr1dvyW/9Qmoy4oiTFhCEskIz2nglr0npN8LqVPS+4jqDY+UeQgB8/bQwb0aj0n+JGKn7wR0IIPnG80z2j7BLoMTTW7ILVAOKcG6lfuPSZnMmqNE7CEWEQwjrZuCNVwo0UaueS34dTuH+I3RGZgqglibADeTLjsjZ/ukCm2Y95yPrcADxAGnz5zl1WdYo8dvouEdzIrtRRy4cqosoFgBuAA0EgNn07In2V/tE0h9kpiKbI2mYEX5dZRcJhmVQrCzJdGHJkOVvK4nHp8lxa+TtxrkEQTjUp25x+qT09G4nSmauIzpDpJLAOocXGn6teccPQOo0EkUwIOu4wJosOGRCoYC2mkKka4VCBYk/hHTpGKjmug/XjOqr+vvgq2nVQIiqIntHWWnQqO25UbzLDKB8zLB2TwLU8HRRx3silwde8yjMDz5SnbRq/tmMo4RNUVveViPqp3rHpfKPFppiiwtOTUy4Uf5MM8vBR9v9igbvhbKd5pE2U8/dsfhP8J05ESispBIIIIJBBBBBG8EHcZuREzn2h4AJXSqu6ohV+WemRZvEo9j0QTo0molJ7ZfwcskuypQimJPQICLTQswVRdmIVQOJJsAPMxJevZzsHM37U47q6Ur/AEm3M3gNw6k8o0rE3SLt2b2WMNh0pfSAu55u2rfkOgEloQmpmEIQgAQhCAHh1BBBFwdCDxmPds+zZwtTMgPuXN1P1DxQ/h08JskabRwNOtTanUXMjCxH3EHgQdbxNWNOjAo4p4Ooyl8pCKLszaKB5y5f/wAi1KtkA7m/3p7zMvJb6K3Ow+cc9q8Aq4XIgst1uBxFxe54zyc2tcZ7Kr7OqONNXZB9nMEnu1ralnBsd2VbkWA4E218bSfRI22IBkZAD3KjrrxVwtZCOlquX+SSKpPN1E25Nt/54NYKkOtnPlaVztPhRTxJYDuVlD//AGL3XF+qhD5mT9HQx3jMEmIpGm3HVW4ow+Fh4eouOMWDJtf2Ve2W4oBSdkpmMy703anUFmVirDqOXQixB4giSWG13T04yOn6PCUxeSeHSc1px2iiaoljimJ7vOYYT0HEZKPSpIjtHtgUEIB750H5x1tPaSUkJJlDw6Pj8UqXOUksxG9UW2YjqbhR1YSOlbG5F19mGziKb4lx3qrWUnfkTcfNsx8Asv0b4LDCmiqqhQoACjcoAsAOgEcTy5z3ycvc4py3Ss8mVTt7hFdMOWYoorFSQL2NSlURSRxGbLcS22ld7ZUc6UaYFy9cED7FKpU/9Jphk1K18k8OrMyxmFem5RxrvBGqsp3Mp4g+moNiJxlx2TRpYlPdV1uV1RgSGS+8qw4aC4NwdNJxq9iK5cLSdXUnUv3WQfWNhZh4WPSejp9ZHJ+r4Y543F/BF9mthti6wUXCDWo/1V5D+I7h/ibPhcOtNFRFAVQAoHACM9ibIpYWkKdMdWY72bix/LhJOejFUc0nYQhCUIIQhAAhCEACEIQA51EBFjILbeDHu2DEW4ElVHmSQJYJxxFBKilXQMrCzKwBUjkQdDOXUaWGZc8P3LjNx6Mt2bj6KY40UrJUFamPgOYJWo5jkZlGUlkz6Xv3AOIvZ8s89puzbe7z4VBnplaiItlOZCGCqbbmtlPRjO+HKsAwBAYBgGBVgGFwGU6ggGxB3EGeNq8DjX61497rydWOafk5hY7w1S2+cwgG+DMJwco1I7tdsD9pT3lIfv0ByjQe8Ua5DfS/1SdxNtxMo+xtoX7jXBBIIIIII3gg7jcbpppxSU1Jc20vaxLW6KNZU9tts6szP7uqlY6h6aqrOwFhmDNlY/a16z0dPnVbZCjKUflDjDMCNZ7eoF4yp7H2+GGV+46izA3ChhoRfgbgix3cZ3xO1xbeOh01nobWuzRTjJWmTFbGWjSrtOwOsgX2nfj6yOxeLYkKvHS/8R3AfWPQawUW3QSnGKtht3aTVGyg8eYHqdB4maD7Oezr0qZrOMr1LaaEqik5Byub5v6eUpuxOy2KqVFdqRWmrKzmspQMA3eRVYXYso4C3emjY6piFPvFZlZjZU3qqjmp0J4eZnFrc8YJQTu+6MVNzulX2WhUA3RTIPCbaa4SqlmtfMo0813jyvJZK6sLqQeduHiOE4FKL6Zk4yj2dLys9qFd62HSm5p1EFWur5QyhlVaQVlO9W98wNtbA2Oksi6yHpbFq1cY+Ie6ooSlTXi6qGZm36AtUI11/djpOvTY5yb2q2l/YpUnyVzY+ErVsQ1qfu3BBrrrkRzqWRj8SP8AEtiTqQbWmj4agEUAeZO8z3SpqosoAHSe7z18Glhje6uWZzyuSrwj1CEJ1mQQhCABCEIAEIQgAQhCABCEIAJG2JwaPqw1G4jQxzCTKEZKpK0NNroh8Rs224X8DY/5jd1I3DLztv8AmdZYJ4amp3gGeXn/ABkZ843Xx4No5q7VlIwOGszX4sQb6k3N9Sd85Y7Yyam10O8Dep5iWupsdCSVJBJvzF/P84Ps5uBB9J5svx2og7q/pnR68WYp2uoPhq2dMpSulnBUMrVFGVjY7jlysCDcHNKjVx1VibMF5KFXw32ufnxm1dr+yFbEUXWkLNoyi4yl1OhGuhIuD0MzbB9kdpIxZsFVzKCFsoPebS4INtBfXrPa0jk8f7qmuOTizcSuPNkXSV1UZgWdjlRF3sx0UH/EvvYvsq+HxFKtiLNUuSOKrnUr3eGmbhJPsL2GqUycRiR+9N1Rbf6aHfv3Mee+3K5l6fA6ABb5dRcjQ85yazLlf6YouvNLv4NsfHM3b/o5sczdFjbEIGcDgJI0MEwGpA9Z7pbPUEkkknynnx/H559qr9y/VjHz0QWGohqzNbQd0eQ1kgNkktmGnXUH0krRwyL8IAnad2H8RFc5XfwiJahvo40KAUbyTzO+d4QnsQxxgqiqRg232LCEJYghCEACEIQAIQhAAhCEACEIQAIQhABIQhABYQhABIRYQASEIQAIQhJXYwhFhKEJFhCACQhCACwhCABCEIAEIQgAQhCAH//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kane Richardson</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2020_018</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>63</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>63</v>
+      </c>
+      <c r="R34" t="n">
+        <v>54</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>13</v>
+      </c>
+      <c r="X34" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUQEhIWFhUVGBUVFhUWFRUVFRUWFRcWFxcVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHSUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABAEAACAQIDBQUECQIFBAMAAAABAgADEQQSIQUGMUFREyJhcYEykaGxBxQjQlJicsHRM/CCkrLh8RUkQ9JTg8L/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QAMREAAgECBQEGBgICAwAAAAAAAAECAxEEEiExQVEFEyJhcfCBkaGxwdEy4UJSJHLx/9oADAMBAAIRAxEAPwDm0UILQ5IiC0OHBAYUVBCgAIcEEAAIcAggIOFDkPFY4Loup+AgxksmNvXUcSPfKGtXZuJMWKJ4e8yOYaiWabSQm1iPEjSSe1XqJS0kbkD77SSjjg2nxhmHlLQQSvWoy6ixEm0auYeMadyLVhdoRioUkIKFaHBABMSYqEYAIIiCI4YkwAaYRthHWiGEQyZDgggAIcKHAAQQ4IAFDghwAKHaEIjEVMqkwERNpYqwKjidJTCPVHvcniYvC4Nqh0Eg5cssS4QdFL2juIqHgRwmi2Vu/exMt33OFRT11tKHViaO4l0MPRqKutj6amSWCVLWVvWWWP3Or0e8oJHhG6eFdT0PMWHzAk1NMg6cluiqqUjTNxw6HnHFqAajT++EkbRpBRcNr0vK5apHH/mSIsuUa4ipEwVa+kly1O5S1ZhQoqFGIKJMVEmACTEGLMSYAIMbaOGNtEMliKhQ4ACCHCgAIIcEBAggggAcr9qNwEnyrx73qW6RSehKO5EWnmawmq2ZhQAAJUbNo3e/SxmkwcyVZX0N2HjyXey6M0uBQaTPbOvNPgaJteZjaThRDcoVTd2g5zMgJ62jy1bSXSqm2ok1YhqYDe3cPtVLULBwNBewa3LznJsZhXpMUdSrDkfdPS1RgRMRv/sWlVpGoy95b6jj5yyFRp2KKtJNXW5yDDV8rCXiNeZxxY26S62c90H98Jri9TBLVEqFDglhWJhGKMSYAJMSYoxJgAgxDRZiGgMkxUIQCIBQghQxAAQQ4UABBBBAQJTbTpEOX4g6XHIjlLoSLhbdkwe1i7Xv5DhK6krWL6UFJMk7DX7MtzOg8gI+ca6NZVuefOHsWkAgHLWSaiMGATu34txPpM7tc0wukrEvAb0FDapRYen8zd7C21Tqi4nO8BsapVFXtmayi6Na9zrp1vw5iI3Xq1VrCk17Xt4iRlGyuidOTvZnXTi6am5MgYjfrBIcjPYjwNvfH9pbIBpgKdQt9ZzXF7Pr9orISTnIKqoJA5EXHnCJObaV0b3D72Yeqe6dDpf+Y7t5O1w9UD8DEegvKvZmDrq2StTV1IBzqLEE8iPCX31TJTItYWI9LSMkkwTclqedanEydgiyFAwIDXtcEX8RflNz9He7KtWetUXNlYimCLgWJu5HhoB5x76RKSs9gfYekRfWxcVLgdAQo08JozpNIyqheDkZeEYcBmkxiYRhmEYAJMRFmJMAEGNNHTG2gBKhwQRDBDhRUACgghwECCCHAAhK/Ft3QLaZmJ8jlMlYirk14j5eMr62MTXXlYfwZXUV7F1J2vfk0mzPYWaTCYdHADCZXdqoGS00mz2sZklobqVpWLDHItJO77rnSZ/YbAV1Y82kzePHZU89BGt2DT7cB3DMtrqD7IkeC3RM6mjhgPKMLspA2bL6jT3xhdoUiyqjqHIzZCwuQOJtLGlXLsOAW2o53jTJNJ7D/ZgCwEgbQqd0+UsKr2Ez282LFOk7nkDbztGyOiRVbq4dlYMG0KtoCbWzEm4mS+kCr9utJeJPaN4ADIg/1H1l/sTblLD4YO7AMbrqf8Ry9TMLtzGGtWNXhmJ06ACwHuk4x1KatTLBLl/YSIIcKbUcwSYRijEmACTEmLMQYgEGNtHDG2jAlwCCCIYIcKGICDggggAYgMEEBlZj6jN3FFyOY5esp3U31mirYa4tnIHQW19ZS4sKGso0Eg7kix2LjOzt5zZYDFqRec6w9SxlxQxjLTNjqZTUjcvpVLF7vFtKmwynW3LxlHgdoZGZiOpNtCfAtGlwhdc98xvw/vjL3YuxM4zZ1U9CAQeoN5FKMVY0RVSrK60JmD3xTtaNR6CWSwBAsw5HXi06ps/G0a/2lGoG4XA4+onOKW4mYXV0PQcvgZVUqlbZmJyHThorXBBOnrE4p7E3np/yaaOyYzEgDxnOt+9tB6boDwHxOktN4t4F+ro/AsPdfScy2tizUIUc+XQcrwpxb1ZVWnbQq6TMxsSb8rn4S1olyQGQi3MkW9JUK3eFuN5oUGms0xWtzHJ6JBwocKWFYRiTFGJMAEmJMUYkxAIMaaOmNtGBJghQxEMOGIQhwEHDhQ4ACCHBABNTgZnKrakAXJPHnNFVphhYyBiqKIOAueHI+d5CSJJ2RW4LDF3KjiAT6iL7QgZTe99ZL2Cv2p/SfmIW2MPZs44HjK83isy7J4MyDo4zKAIMRiyeBMr0aOBpLKr3IqbtY1O7G2mom7M3dGgvofCV+2tqtiKxqE68pWmrfhGSeHnEoJO5KVVtWLvGbSqVwiWuRoqjmfKM4nA1KFTJU0cqCR0Lcj4zcfR/uuy/91XWx/8AGhGv6j0md35UNjantCwQXGvK/wC8gpLNlRNwahnluygwWFyuC1tb29Nby3kDC0CXzXJt10lhNETMxMKKhRkRJiTFGJMAEmJMWYgwAQY20cMbaAEkQ4mHAYcOFFCAgxDhRUACEO0EZxlfsx4nh/MAbsFicQEHjyEocXVLG5MerOWNzGjSvBorUtbsnbupZmY8xYSyxiXvKrAvlMtkOaY5vW506VstimqbNYarr4c5FZWXiCJqxhyJOw2ADkXUEeUXftbieHT2Mns3Y+IxBApUma5te1l9WOk6Pul9H/YutbEEMy6hB7IbqfxGarY+FCoFAsBylzRp2EJVHLRE4UIx1erGsRoJx7eZr4usfzAajTRROyYicm28oGKrr+ZSfMqLyzCpOdn0KO0JuNJNdSopsT4eEXDq0ucQD1m2VNrY5tLEKWj0DhQ4JWaBJiTFmJMAEGJMWYgwAbaNtHWjTQAkCKEQIoQuMVDEstlbFqV9RZV/E3PyHPzm02HuKl7sDUI430Qen8zFiMfRpPK3eXSKu/fxv5ElBswmCwFWsbU6bN4gae/hL7B7lYl/ayp63M61h9iFEARQLfhsB8I7R2ffiwB6cflONW7Wxb/hTyLq/wBytEtVOPU5zR3TpYdTUqd7KCSxtYW6DlOVbSxRrVWqfiJsOi8h7p3v6QMGKeArsXt3bC3MkjScFNG1pu7HjVq56tV3lstU9N3tprf6GfEyUbRQzTo3kinQj4XKuZtF/EQbX84qjiUvxJ62UzvJRXJhlKT2QBgSBe0l4PDmaLD4IVMOjAaECPjZRCFra8pzZ7tHdp7J+SI+EwmemdNRrJ2yaNtfhJO7FLMSPQiTqmAyE2lGUvLzZ5FpPBlLhKlhLqmtwJJAIK3nItp1e1xeKqA6drlHkihfmJ1zG1LUnZeIB46ThdHFPRzu9M5WdmzacyeU14WyndnO7RbdLKuX8yxKGJKRijtam5yrmLH7oRi3uEn0sFXqezQqn/62X5zbUxFKH8pJerSOMqNT/V/I2G42AwuNovQr01L0jdW1V+zbgMw10N/fLOp9HOEb2HrDyZWHxWM/Rvu3XpVmr1lVUKlchN2JuCCeQtb4zpDMo0FhPJY3EuOIk8NU8L10lpd72TfXXQ69CL7tKa1OY1/ou/BiD/jQfsZmNvbl4rCDOV7RB9+nc2814idopVDUcgeyvTn5mSKVEPfXgbeEjS7TxEH4pJ+Tsn81b3wWOmjzVEmd023upg8QbGgoZs16id1tPvXHta9eM47t/ZD4Os1F+WqtyZTwYTs4PtGniW4pNSXDt9P7SK5QcSpaNNHWjTzeQHxJWAwpquqDnx8BzMiCbPdHZ+VO1I1fh4KOHvmTGYjuKTlzsvUnGN2afYWzwoAt3R3R6TVYahlHYn2W1Q+P4SflKzYFQHNQbRr508eomip0g6leY4HoRwM8bUea6ZqWgzs6qWDUj7SH3g8DJFNLOB1HykFgUr0q3AOTQqj8xBKMPVbestMQLOh8xM2SxJkDb+w0xtE0KjMFJBuvHQyuwO4mBoAWohiPvP3j8ZqiITiaI1qkYOEZNJ8Xdv7+JW4xbu0VFbZ9I0zTamhRtCuUWI8pzPfH6LSt8RgRdeLUDxHjSPP9J9Ok6ni9SF8ZOIsPISzC4mph5Zqbt1XD9V+d/MU4KaszzXsraNbDEqB3b95DwuOOn3Wm/wBi7So4lbKbNbVG0Yfz5iafezcqnjQa1IBK/G/Bang/j+acpxeBai5R1KOp1B0IPh/M9bhcRSxkLx0kt10/a818jD39TCytJXj726emxv8AZWA7Krm5E6y02rhPvCc+wO8OJpCwqZh0YBvjx+Msqm+tdhlKU/Ozf+0teHmal2nQa1bXw/VyzoVL1VXxmg2jtKlh0zVHCjlfifADiTObNtesWLBipPQW+JvKnF1mdizMWPUkk/GOOGl/kyNTtSntTTfrov2XG8O9T17ol1pdOb/q6Dwkbd7dXEbUa/8AToKe9UI0Hgg+83wEtty9yHxpFardKAPHg1S3JOg/N7p1ulQSlQWnSUIpAVVAsAD/ALTndodpLDp0qP8ALl9P3L7c9CinTlXl3lT4f10Xvzdfu5uphcElqNMAni51dvNv2lxUUcLR2o2URoa6zy025ScpO76vc3rYJEsDGeVzJRGkq9q1MtJyONrDzOg+cSQwYIkUS49qqxy+ug+Ak/KFApDkLseg5nzMapUwpUfdpIPfb/mIclhl51NWPRenukXL378xjtAZrv10XwUcPfxmQ+kjdv61Q7SmPtaV2XqyfeTz5jxHjNwBbQctI1iBy6/KX4erKjNVI7ohJX0PMTRp5od99m/VsZVpgWUnOv6X1+d5nnnuqc1Ugpx2av8AMykihTzMqj7xA95tOoYOiFyqOAAHumB3XoZ8TT/Ldz/hBt8bTo2GXWcHtipecYdFf5/0i2nsW1PA9qt0Nqiag/v5HhLjZuNzWYizA5Kg6N18jIWGptYMmjrw8fynzkpSr2xCjRu5VXoeGviDOBMvRN2ph7qxHHRh+pDmU/C3rH8U10WoOqt6H/mDCtcGmeK8+qngYjBJmw+ToGX1W4/aR3Q9iwiYzgqmamjdVEe52gIrmF6gHST34SHQF6jeEl1GAFyQB1JsPeY0AWGlRvLu5Qxwy1BlcezUX2l8D+IeBlrhqqtqrBh1BBHwi6nGWQqTpyU4OzXJGUVJWexxHb27dfAtaoLoTZai+yfA/hPgZTVtJ6HqUFqKUdQysLFSLgjxE5vvV9HzC9TCHMOPZMbHyRjp6H3z02C7ZhUWWvpLrw/Xp9vQ5VfAuLzU9V05X7+/qYKocovNtuXuKXtiMWtk9paR0LdDU6Dwl3unuWlEriMRZqg1VeK0j/8ApvHlNTWrWoO/W9vU2Ez9o9r5r06D05l+unr8i3C4O3iqb9P2LpN9jdRa4sABYAHQACHWcKyqeCC/TXgP3hqlqSL+ic53z299fr/9MwlLt2FVGrNfKo7FwSgblYixblY2uZxKFF1ZZVot2+EuXwvqjfOdlc2mN21SpvlYs73y5EUnKSL2ZuANtZCxO9a0wzPQdQpym5XNcC/DyIPqJHwWCVe2OIdKdQOjk5tAClgVZuuovxNpSbSqmoGWlmK1B2ZsDlszAKgF9QSSdek6EcDTjGLmm7pO99PNbq722130ZRKpPWx0ShUDqGHAgHxFxex6HWVu1VuaafiqJ7gcx+UyOG3n+oVa9J8Me0ardiDlGRVVEsLa91VN+d5pdnbTpYyrRqUjdQrsQeKtoLMOusw1sJUpRU2vC9nxqr8X+HUtp1oSlZPVcFpidEI5u3wjuGS129B6SP2od7A3y93/ABc5MpHT4D9zMMVd2Zc9hYjdRefpHR8BENrrLrEWci+mPB2qUK4HtK9M+akMvzac2edm+l3C5sGH/wDjqI3obqf9U4y89d2VUzYWPk2vz+TNNamo3Fp3rO3RPmw/idD2UA5NI6P7VM/itxWYTcBdazeCD4mbGgAzBc2U3uj/AIXHA+XUdJyO1NcRL0X2RbT2NJgGtodOWvIx6qvYVcx/pVrLU/K/BX9eBicE/wBYUhhlrL3aqePJl8CNQZOw69qjUampAyn8y8m85yZMtWg4iEWI4pp5qeI/ceUd2ebF16OT6N3v3kLB1mp91/u91j1H3W/aTTZKo/OvxU/wZVF6knsN7Kb7O34WdfTMbSSH748QfhIeBP8AXHR2+Ov7xNXEZWQ/lf5SUWJ7i6FRVWpVZgq3PebgLaXMydfaOArZqlZK+KQaNWNM/Vk11stwAo6gHzMz+9+2RUxKYapm+r0SudF0LtoWY9eNhD3k3tbGquztn0CqPZTpZmH4Qo0VepM7FDAzUYvXxat3SUY+b3vbWydrdeMkq0W2umnqOfR8iHbOKOCGXBqpFhfIW7oDKOhYOR4Tqri5lDuPuyuzsOKZINR+9Vbqx5DwHCX6C5vMeMqRqVLx2Vkn1srXfqXU00tRZNhG3XTzjjdImoNLTPcmQMVUyUfE6DzOka2x3KCp+ke6DGnPVp0xwBufSDbXeemnjI9RofxeLFNFOSo+gIFNCx05dAfOYTdPduvgq4xL0Xc1Vquyqad0erULZCWYXsp18Z0Oi1tPdM3W3YqFiy12UE3yAsRxvYEnhNVCplUo3sno9L3XTTbcI0oVH45ZbarRvX4Bb2bKFcU66lVrU/uOygOh402IOhHEHz6ys3O2ADXbFuopKD9lQzhyGtY1GN/Ow8SZZ4bdQnWpW1I1yi59S19Y5W3UsL06puOFwFP+ZbW4TTGrCNJ0VU35t9L+/IslhMM6mZ1Nf+unr/dw969nHEafVy4po5U2Ql3dCqAXN8qlrm9uAteT9lbPp0ajBEVbIqnKAL2GplV/0XGMAy4goea5343PMDXS2sub9mtaq2mVNdb+ytyb85lrJKMYRldX2V+fjYdSjCn4ozUm+l9Le+CFsg9y441Gcg9AzMSfQW94luG4AeQ/mUO63dwqO3Hs1v4C1/jcmXGCvqx46AeF9QPdY+sy8t9WVPoS2PLkPiZSUd5aJZkqK1JgxUlrFbg29ocvMS5p668uX7mZbbuCSvWagVKVHVjSqIe67AXyVF66cRNmDowqycJPV7evv/1GrCRozclWTta91urbu3Ktq+bLTkT9IyBtn1z+UMPQgicFedfxe0M2y8ThaptVpI4yniaa8PO3D0nIHne7Hi405xfEvwjFjKEqFZ05br6rhryZs9xDlV2PAuFPll/3mtxdAgBh5g+I5TMbkUM1B/F/kBNhsrEj+lU/vxE5PaEv+RO3X8IUFoWWzKvbKtWmbVkFv1oPuN1I5S9pOKoFVNHXQjr1UzK4nDvhHFdNUNi1uX5v5mlw9QOBXpcT7S9f95yp9VsW8E2rSV7P10PkeRjOIbKoudUZRf8AK2gP99JLosDqOB4jxkHbtBjSfLxKMB+oDMnxFvWK1379+YIVglscQetTT/Kv8yu2spAHgbe+Ue2mxbu1TC1HGlNjSVu8c1JWzqBxI1uJmzvRi6ZYVszjmrqb6dDYEGbI4Sc4Zlz79DoUezZ16eenKLf+t7NfPT8eZuNp7k4XFv2751cgZsjWDW0uQefjLXYW7uGwQIoUwCfac95282OtvDhFbvbTp4mgtWm1wRqOanmrDkZZAyM61Vx7uUnZcPj4HLdJRk7qz9NRRhqIFipTfUkFE1DbWLkXaFTKjHwMHsBW7L79Zn6C0dqDPX/SDC2GLKT1j2GTVm66SMdhvckKIu8aSOrJXQCwIoCEBFwENubSl3uqdnga/Vk7P1rEUx8Xl08q9uYVatMK/srUp1G8RSYVAPeqxKSTTY7XIdFMiU6J5DPU8FUcPkJZUwSAvM99vDNy/aUtCt2j3PFwCfBWN7f5KZ/zS6pvpmP3u8fAfdX3RRWgSJDvYacToBMdvrXahiMNUB0pjMPMOc3vFpsKOvePE8PBevmZm9+MNSrLTSoKntMcydmNAtypaqQovppxNppw1TJUTNGBrU6VZSqLw2afO6aI21a+GxfbGkKLdpQqd9G+1zAaq6ctGOvO3hOENOlYrCjBVaeIomo1MqjBnWwZWuHpkjTMBb3znWLtna3DM1vK5tPUYKo6k5z4drfBtNFWPoxhklTbcGrJvfTj7fXRHQdyFthlPVnPxtNQ2FDWPA3NjM9uslsLS8QT7yZq8IMyW5gmecxjvXm/N/cojsO7OxRU9jVFwdNY7g1ODqAA3oVD3T+An7p8IpaIqpqO+vDxEk017uVxmRtCD90zHJdCxMuFW3eHA8o8RcSu2cSn2TG44o3UdD4iWKypajZi9q4d3bELTJV1yNTKmxDU10sfEaesrd2t4ae0f+yxtNWZwQrkWJIF/aGobTiJpa9PJWrHmzKR5ZF/f5TmW3kfA43tkFjmFambXFy2a1ul7i3QzqdkYlwnKm9vvwzpYWlHEQlSekrXg9mnbWz3s9LrbfnbUPXwuywRQxDtUViDTy3plR/46rcAw1GYe6a/YW3KWLp9pTPD2kNsyHoR8jznMk3goY0MMRhkRySe0o3Q3PNka4b3gyqbFVcDUFahVBHIjQMBxWovEf3absZhY1fFCyfvf9mqrhO+gs9+96uzv5Xjpbpe0l6HRtjNiNos9Vq5p0layonHqLny585MxVWrgGQtVNWnUfKQ3tLfkPnfwlTuyi41PrODrHD1LntqXtAMdTp+EnUaRyruxtF6q1auJp1cjXUOpCKP0LYGDq0nOzlFU7fwcbNabXtvf/LNc87KnODtJPMi63r27Uw5oYfDqr4jEPlQNfKqLq7sAb2FwPWVGI3qFXD1w1lrYcstRRwuoJDAHlpbzEKvupi8RjHxlTEmgVy06PZWb7Me1mv7NzyHWZjam5GJ+uVWGJDjE06iVHZcpBNgvdHtaDjMLjh+5yuSzaO+t78ra1rfVDWa9xzdPfevhOyp7SUiliQHo4oDu94ezUt8+XlrJuBqVMXtLaOF+s1FpdlT7M029i7J3qfK519811Pd2i+DTA10FSmtNUNxbVQBmU8VN9QRqJU7p7jJs2tVrJWZ1qKECsACoDZhdufSCrUMs5JWnayVtH4k7rporNbdAs7oxm9u7rYSrgqa43GOMTX7Ny9fULddUygWOp43mpxuzMPsSk+OWriKlXKadNa1Y1FZ3tbu25WvfoDLfbO7qY6rh6rOy/VqnaKFAIY6aNfgNOUc25utSxtelVruzJR4UNOyY9X5nlp4eJijiovJGo3azzJc6t2+KsvQMm9jHbOxpw1Gljvrna1i2avS7TN3XPALfS3D1HSbbeHFVqmGSrhCSHsxKe3kIv3Yh90dn2IGEpLe+qplIvzBHOUmJ2W2EwgwqY+qpVy1KooAcAj+mRfUAkn1l7xdGrKE/wDJS5jdNO7taO+V7Lo9NgVOWy+hmq23KQqdmdq4zCVRfTEUgUJ8SOXrNztDElcOtJqvaVCEV3FhmsO81hwBmUGwMRihlxuMfEJcHsylNFNuGYqoY+V5ep2VG1+8fwj+9JfVwPfWzuyV77O/o8sX6prTguhTa3H9nqxZiRo5CL5HKD7lVvfLmnXDsfwjU+PJR8PhKuniKr6KAg8Bc++S6dM0wBfib253tYTLieznTTnD+KXO45RLZWJ8+JPSADMfyj4mMU2v3R6mSCfuj0H7mcplZT43ZALMyMVzWzKbNTaxYkFDpqW1PlOD7x4XscTWpAWCuQAOAvrYeGs9F1UtzuZw36T6GTaFQ29tKb+uXKf9M7fYdR97KL5X2a/BTV2P/9k=</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mitchell Starc</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023_224</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>50</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" t="n">
+        <v>53</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>53</v>
+      </c>
+      <c r="R35" t="n">
+        <v>42</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>50</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSExIWExUVFRYWGRgYFxgdFRgYFxgYGx0YFRUaHiggGx8lGxgYITEhJyk3Li4uFx8zODMvNyotLisBCgoKDg0OGxAQGy0lICUtLS0tNS8tLS0vMDAtKy0tNS0tLS0tLy0tLysvLS0tLS8tLS0tLy0tLy4tLS8tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUIAgH/xABDEAABAwIDBQUEBggGAgMAAAABAAIRAyEEEjEFBkFRYQcTInGBIzKRoRRCUmKx8CRyc4KSwdHhU4OissLxM1QWF0P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGB//EADIRAAIBAwEEBwgDAQEAAAAAAAABAgMRITEEEkFhBSJRcYGR8BMyQqGxwdHhFCPxYgb/2gAMAwEAAhEDEQA/ALxREQBERAEREAREQBERAERcfb+8mFwTA/E1m0wZyi5e6PsMEud6DigOwiqPHduVAOIo4SrUjQvc1k+gDiFo/wD3fVmfoIyjX2hmelli5mzLqRVXs/tnoVHNb9Gqgn6pLQZ5MMw49DBPCTZT/YW3aGMp95RfmFpabPaTwc03CyYOqiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA4G+W8tLZ2FdXqeI+7TZMGo86NB4cyeABK83bb2xWxtd1bEPDqjuF8jBwYxp0aBw4mSbklTTtz2uauOZhh7uHaARN3VKwa826MDL9XLlbsbluqtD3H3hI8vVR1JqKyTUqbk7IiMht3RpMcfh+dVr/Ti6WQBMj/r1hWRiOzd50dPnPP1XV2N2esps9oAXai2hUP8AIhYm/jTbKjxLO8MGWPEWP9NQt/dvebE7PxDKrCZYXAsJs4OiWu6GAfMT1Vn7V3ToOEPbPXiPLiFU28uF7msWhxe0aGDPrI9PRbUqynhGtag6auz1lsXadPFUKeIpGWVWhw5idQRwIMg9Qt9VB2F72U30jgHDJUbmqMvZ4Jlwa36pGsD7x6K31YKoREQBERAEREAREQBERAEREAREQBERAEREAREQHnbtDcHbdxFNwHifRb5A0aUzy8M/FWhsKgGsAA0soP2lYNjts0atOSS5lOrawfTAdMg8WQL8uq2aW+lVmbucNnY0kFznNaCRrBcQFSrx35K3rJfoPci76/ospq/HgclF92N7TiXd3UoOovuQDBaQOThZfW8+9D8N4adA1XRJEwB5lRbubEnM2tpU5BPRVtv/AIVhpCYBBifjN/zou43fmq5pc/CgMuDle1zh6NJ+fyXB3ucK2D7xhkZg4HmJ0+CxCDhNNm85qdNpEe7NvDtXBmmZPfwI4tLSHSOjSfgvU6879ieBYMf3z2Ehs06ZEQKjmw5xH6tv8zovRC6SaZy5RatfiERFk1CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKn7SMGGY2k8NHic2oTx0FK3P3gt3/AOPUatMnuwc7A03IIGvhI92/KCpHvpsR+IZNNmd+UgXAIOoIkgcSuLu5iZp/n86qjWvGR1KMlOK7l+D6wmAZRdShsFuVo55QCLnUm9yTJhamNw3e1nHKHFrmkT93lNlt4nHs78Nc4MtIzcYBNuq5R2qxuIIa9riHX5RzKgbepZjFJH23dqiCancNYcxcXTLySSbXtcmw5qLb1WpVKbRqIi0XtbgrAxGMD6ZBEH86FQHblX2rOUsP+qf7rZO8iOaSja1iS7nbGGEfQoB2Z2Zrn/rEy6/IgTB5K1FH9lbDLKgqvLZaDAE6u1LiR5/FSBXaMZJNy1Zz9pqRk0o6JWCIimKwREQBERAEREAREQBERAEREAREQBERAEREAVQbTxFTCvxFBvvg+Ho1z5B/hcPirfUF7SdilzBjabS51Ee0aPr0hcnzbc9RPIKKrDeRNQqbkivzsaviahbiG3sWlz2hvDQk6f0TE7nOpjMa7JNoa4ukTazWQIB4FSvEY/NTFSi5ptJb8dOS08LiK7iG1CwRcmLzxEcLKnvOx1dyPr19jkbKp18NIquzNcAcpNx4gRf4ytXGjvMVRY3i9o09D+P4LY29twMq5TBa0Zupgxp5gAeq1tmYd9NrcS8e0cWuA+yAQQPMmJ/smnWZC1vdWPAv1Fgw1cVGNe27XtDh5ESFnXROUEREAREQBERAEREAREQBERAEREAREQBERAEREARFr47F06NN1Wq9tOmwZnOcYaAOJKApPerC1NmY2p3bS7DuPeU2ge6CJyRyDs0dI5SuLid6CQMoeXG0BpnW/wDT90KW4ne2ltOu91FhFOkRTa52tQXOeOAJmBrzg2G3h9kU2mcgnyVCtUUZtWOlRpylTWSJ7sbtPqluIxeojJTmwjQu5mylO0qEwOGvwXSeAwFziA0CSToAFVe9m9bsWTSpSyhcHg6r1dyb93jx5CKMZ15esE8p09nj6uyRYntLxGHY3D4R1J7WEgvcxzgBMhrXZgDF+HK9l1OyzezEVtoVGYms6ocQwxJ8LX05cAxgs0ZC/TWBMqqWNgawt/Ym2hhMTQr+J3d1GOLWxmLJ8WsC7cwHOV1Ix3YpHInLek32nqxFzdhbaoYyi2vh6gqU3cRqDxa4atI5FdJDUIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIotvzvpQ2ZSD6gNSo+e7pN950akk+60SJPXQoCTPeACSYAuSdAPNUf2tbbq7TrU8Bs+cRSZ46rqd6ZqEkNDqnu5WgE6wSeiklHZ2I2tSbWx730qLwHMwlIlrQ06Gs73nuIgxaOh0kmzNk0qDBTo0202DgBqeZPE9SvP7d0/So3hQW/JeEfPj2YxzJ6dBvMsIqXcbZf0evWw+YPc2A5490vZ7wb0a6Wzx6KY4vaDaIdUquysa0a6lxmGtA1NtFt7sbnPwmeajaxe5zzUIynxuJILZPHreVuVdx6VWuK2IqOrNbpSgNpg8yBc6aTfjayz/MoSzKe9hZSy3bsxa/O1uxFyNVU6aS1+hXVZ20NrEsoU3U8PMG8A/tKuh/UbPqtraHZVWp0QadZtSqAS4GzfJrtSRzOvRXEA1oDWgAAQAAAABwAWJ2oXM2rputCSVC0Unpr53152t9LQbm+7zyeZd5dm4jB5G1qZY6oCRMECCAYA43GvMLhUpMzrY31JEq3u3Nud2FEgBoruJP+UL+ZB+Cq3CYBzna2jlEjyXqOj9ontGzRqzVm76aYbXPgVaiUZNHb3L3or7OrCrRMsMZ6ZJyPbyI4OF4dwk8JB9I7sbx0MfRFai7kHNPvMdycPwPFeYX7PLV0N3Nv4jZ9YVqBvo5rpyPb9lwB/6Vxo1PVCKvtw+0qnj6ncVaYoVolsOzMqRqASAQ6Lxy4qwVqAiIgCIiAIiIAiIgCIiAIiIAiIgC8/CidubcqveZw1Ajy7phORn+Y7M49C7krq3txZo4DFVW+8zD1nD9YMdHzhVl2T0O4wFSsBJr4hwbb6rIp3dIAu18EnVwVDpHaJUaD3Pek91cr6vwSZvBXeSSYvGYmtiKTKDmNw8zmbLnODHeLxRlAIAiCbEkg8JWGqN7t7Jp0azn02k5wZe4lzmjwgUxUdcNhosLkiTJuZMvJ7RGCajFKyXZnx1+r7SxFs/QFytqbbbTd3LAalYtnK1rnBjft1SLNaOUyeC6Nd0NJvoTYSfQQbrgNpU8laO9zViC5z2+KR9V0EWtoAIkjkBY2Sjv5tdeteSWedjO5OS6qPrHY2qHlufIeEBha3QeIkH7QvNzFrrs0bwZBkAyDI0vBGq49LZNE0Po9N4fnOZxzw9vinwMmWtB4ehkkldnBYNlKm1lP3WWuSTfmTfVY22jSlFKKtZtrCXV+Wl8a4WTSO9Fve7CnO14h2PDSfDSoszDhq9wnzzT+6ophacCT77jJ6cm+gXa3+xgqY7Ev1Aq5PPumhkermx+8uMHZWk6kCfM/wByvX7JD2dCEexIryd2zcoUswJPMhaeMw4XVwbMrADcjU8zxPxlau0GXHWQpzU5WHzMeHsJa5pBBBgggyCDzBuOq9GbibfOOwbKro7xpLKkaZ28Y4Zmlro+9C86usVbHYe4/pTZ8MUSB19pf4R8AjMlrIiLUBERAEREAREQBERAEREAREQEe7QWk7Lx0f8Aq1z8Kbj/ACXA3R2EG4LCNdYtoUyRAPjeM7vekDxONwJtqpxjcMKtN9J3u1GOYfJwIPyKi+1dpfRW0mtbmnPP3WUqL3kjrLWtA+/0XD6alP8ArjDi5fJfhktJLLZ2aFANnLxMm5JnzKyOUUG28U+saVIUT3c94XB4EEVaYcL6CvRqTr4SwayVr7L3hxTmU6lcUAKrMPUGQPGVlXM45w4692x/qFwp0J7t8X71clUlcmoC+44KJ1t5alKmC6k1z/0anlBI9vVGeo2bw1rCwjzhSwKWNPdSb4/hflGG7muzCMY/O1gBIykjWLa89BdZCQDPLVZiVxt5Mb3OFrVtTTo1D5lrSW/EwtNob1WW9L9v++abXZbZScnlnnzH1zUqFx1e8uPqS78Qvqo67RzI+V/5LlHGXY0XAm/Q6T8SPRfr8TdzvsiB5usP5le6sUzuUsYDHV0D5n8B81kxtQHKfvBcFryC0cm5j+9p8h810gCaQJ4un0A/usAYhnH0/PzVjdhlf22Jp82U3D91zgf9wVd1TYjmB8VYHYdhz9JxFTg2k1v8bp/BiMyXIiItQEREAREQBERAEREAREQBERAYMXXFOm950a1zvgJUA3iFfv21RTfUpM7vwU6RdUJZUplxBmIc2q9sfccZtbv9omP7nAvI1fUoUh/mVWNP+klZ6NWY8z+K8109tPsKlJ2viS83EsUY7yfh9yEdziGuqE0Kgq4fBYhrntY7LWNRlN7WsdfvHd8ax8OluJX3tllSmxg7uoabKdOlUa2m51Qt7gjwRxGZ3qItKn7NVrVjqfzr/Zcep0i11nFcf9789y7MEipXwQTFmrVxDH5WikcZTY4kuFTO7EsqNytiD7CjhgSTaSBxVjly1m8RrER6IXktkcFHU2zeiko2sn5J5/JlQMjqq5u3sH9Iw1agf/1puZPUix8wb+i3nDj9V3yXwymRM/nqFSnUqxeHnt56p+Kyv0yRRjY8u1qbmviI1kHmNfnHwX5h6clrTxJc7ybYfgfipF2i4PuMZiGAEe0NVh4e1GaB+84j0XBptOUxq+Gjy5r6bSqqrBVFpJJ+av8Ao5zVnYzYZuaX/bdb9Uf2XZxDI7tnOBYE3J5C510C18LSEgDRsD4a/wAlL90NjHEvrOY4NqMApscRPdkgFzgJ1gwDwuotq2mOz0nVlorfN2zy7cPuehtCLk7I0Kmwv0eu51KrSdSpte17yId4oylgENNjaSRx6yrsLq+PFDmyi74GoP5rib5Yujh8ONn4d/eHN3ld/AuBByiOMgE8soFzK6fYgf0nEDnRB+Dx/VQ7DKpKnKc72b6t7+7ZK9m21vWbtfF8W0Mztey9f4XIiIrhoEREAREQBERAEREAREQBERAR3fPdz6fRZTFU0nU6zKzTEtLmTAe2xIudDrB4QtajWIYxxb4jfL1PD4/kqVqFGiRWdSc7wXqa6CSCJOk/10N15z/0NBTjSm+Dfla/2LOzytvevWpnZnqSYDwObop9REOmOfO08vqjVyjIRkPL6h/Zn+XTS+ZYhjWucacREwCOAygQB6+QPBfv0iafiaIGh4+EWkC026dBFzxG2o2lHD1XJ6Pv44S5SWpJq8HXaYqN6yPz81rfSQyo5jRmJsdA1pNwHONgfuiXReFhxtezRckETlMHKbA5hpmmLX96D4SRj2lhSMjwB4fqQAyCW2HrAM+eovNT2X2cN+qruMrxSxdNZd9WnZ6WbSbukrvR1LtKPFfc/ab3uJZLi03HdtAHl3jic3oGlbuDpOaDm6XzPcT55iY9F91HB7G1G3kBw8jdZW1AWg81DPaPepJKKtdWWqvpfXD0/ZlR+K9ype2jADOyrHv0i2eGak6RPmHx6Kt9mi+Y3gWnm7+0K7u1fBd5gc/+G8H91wLSPiW/BU1stns25RJNoGpOggL1fQ1Xf2SP/Lcfnf6NEFVdY38LYkxOUfn5rX2fjajS/JVezMfFlJAdc2cJgiSdVKdn7lYxzYJpUgdSZc75QuxgezykweOvUcTrlDGj0lpPzV516fHJutlqPgV9izBEaf1mQp/2Hn9LrfsP+bVj2puHSiWV6gMcQxw9RAPzXY7IdjvoYnEl0Ob3bGh4mCcxJB5Gwsto14TwtTFTZ6lNXawWqiItyEIiIAiIgCIiAIiIAiIgCIiAKFYyqPpD7i0CZESXgxbQ8upHEqaqC45v6TWAPEzOYG+SwIItfrwtxXF6cX9Ue/8Af2JqOr7jY7rwu8DczgDLmWAAAEttebRbTpf8qNg5iQPaZYm4LjOWIjledI9f3CMDWho0ytAgQPedYfnivvG8T+ofUd5f5fJeP9q3OUfD7eGGW93CZ+VmHugb+yJbe05SQHHyaC7104LoOYKlKLRUaWkj3rg3ngVhwkEu/a9f8Ic/XRajM1N7mss3M3N90Odllo56iNII+zfp77nJQfxw+7XyWmH52K6jh8mbOycV4chEubJyjkSZHQB2Zt/sL92fWNTMYDWhxbEy6RBDp4eXzWnXosw9XvGufLifADOc+RubnjpOoW9Tpvlr3ZaDLkMiajh+qNNb2kc1Xp7N7eD3Y3txeLJrN825XvayVuw33rMw7y4c1sFXYBLjRfA++BLbfrAKB9l2ApDCMrd23vHOqy4gFwAqPaGg8BAVmOs7odfP/r8FAd0Wd0KtAWFLFV2AcmmoXt/0vCudE7RaMqLebp+Sd/Pq+KsT0o3qX5P6omIaFq4gws1N61ca5dtvBZisnJ2lVsVIOzulGHe/7dV3waGj8ZUT2rWsVPt0MP3eCoDmzOf3yX/8lZ2RdZsr7c7QS5naREV85YREQBERAEREAREQBERAEREAUJ2kQMbUbm94T5OIZby/mQOSmVR4aCSYABJPQKp9nbSdWfVrEnxPe8C1g57IHpI/h6BcnpmKls1uaty4fcnoJ3bJFSqmQ0+E5gGyRbiQ69xYWHTSxWV8mIOafem06XAE5YgWN7cblc9tc1XNA95pDnAWLg0wYHqNdLdCui+mWhzieEjUXdPAmRJOkCNL6rx02k84k8W5/XLd9eepatmxvYOoAwucYEufe5gkhsAfdkR6LRZii09+XZmPaPZwLGwAnnNjeJPJZMFVaX9w5ji3LY/VNoJ8gIHm420SlRaHyLsw+nJ9UyAPQkzGkkcF0ZUN+UEsWsr4aUV1m/Prd2O0gi9TJVeMMHOIOfLnfUMEttOWmDYAT7xsJ5TGszaBY72kNDjJJMmWllnvJvIe2AOMtE2K+8VVDmZvecCQZEEvl9MZuQJcfRpABsFo0MIXBzXEHLTIkwGAEVWuHO9VuYk/ZBJmAIq+0b0r/AvdXLstpvLVt57LPXZLhxJHSqZ2iQRI0OoPLzBVfveaW0sZTIgP7mu08HTTFNxHk6m31cpxgg/IC4EHgSIniYm5vxiL2XH3swAeaVYCHNLmE8crxJH8TWH0WmyzdHa92Sa3saNYbTTV84dl3XfaT0nZqxmwlXMAVj2m6yw7IPgCybRPhXpOBcWpE9q1SQQLk2VyYaiGMawaNaG/AQqQFb24GsVWf7gr0V7ZFZMobe7uPiERFcOeEREAREQBERAEREAREQBERAR/frEmngK5Grmhn8bg0/IlVtu2BneJAOSRPu6izuQ68LKe9pp/QD+0p/7lW+znHM6A4eECRqJc2SOXhm65nSD6jVr446a+s8C7QX9T7yUYVrhVJJNKGhsywnNqbPDgbQZA48ZXSqva2C6rmI0lwj0YwC/XLYTdadJgysNQOLbGQ0lsgus4AE3aRYrMyrSDQ1uZ93Q3KSTmEQRHnrGq8vOKhO8YN4VnbNmrrOl9FlPN8cDLzqzfwmc5aDTDjmLnfZbmMuPXl6rZ2jDKQyWYyA0Rc5iGl5mBMExMACeBtrsPdNIcJc8jOGwTYS2k3gbCSOJte6/HOzllbVxcC1uawzUyQACYz5WtNiJ7wiYN7MIKNKVD4tZc3rud3bqlpmzI5PO95fn8GjQIBa4y0ue9uVpNnOFUAwLGqAyM1rO1gLpVqgpZTlzPd/46VoZH16kWsdBppx008BhnPc1zc0uEMa7QNyhoLm6CzMxPUAG1/vahZVDmtdkptim6r9ZxAc4+k3JHDQ8o6F1F1GleOI3z1r3dl8W7nXi1m+Vl/X6fsUsZFdhdLzUzNNQnwyI8NNvKTr5x0/d5a5a2nABzVRPkGuM/JYdj0XnKaly0lrJ1ptkCCI94gcbxbnPN3jcTiabZkDM6/DQAR5E69VFGHtNphJ5aeebV3y4eDeiRJRebI3dns8K+NruyMut7ANsAuPvHUzTGjQvQrCOhfNiO7sYTvcXRm+esHnqGEuj4NV3qquzykDi6dv8Ax0Xu9SA3/kVaq6Wze5fmcvbH10uxIIiKwVAiIgCIiA//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mitchell Starc</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023_224</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>50</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>53</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>53</v>
+      </c>
+      <c r="R36" t="n">
+        <v>42</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>50</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
         <is>
           <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSExIWExUVFRYWGRgYFxgdFRgYFxgYGx0YFRUaHiggGx8lGxgYITEhJyk3Li4uFx8zODMvNyotLisBCgoKDg0OGxAQGy0lICUtLS0tNS8tLS0vMDAtKy0tNS0tLS0tLy0tLysvLS0tLS8tLS0tLy0tLy4tLS8tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUIAgH/xABDEAABAwIDBQUEBggGAgMAAAABAAIRAyEEEjEFBkFRYQcTInGBIzKRoRRCUmKx8CRyc4KSwdHhU4OissLxM1QWF0P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGB//EADIRAAIBAwEEBwgDAQEAAAAAAAABAgMRITEEEkFhBSJRcYGR8BMyQqGxwdHhFCPxYgb/2gAMAwEAAhEDEQA/ALxREQBERAEREAREQBERAERcfb+8mFwTA/E1m0wZyi5e6PsMEud6DigOwiqPHduVAOIo4SrUjQvc1k+gDiFo/wD3fVmfoIyjX2hmelli5mzLqRVXs/tnoVHNb9Gqgn6pLQZ5MMw49DBPCTZT/YW3aGMp95RfmFpabPaTwc03CyYOqiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA4G+W8tLZ2FdXqeI+7TZMGo86NB4cyeABK83bb2xWxtd1bEPDqjuF8jBwYxp0aBw4mSbklTTtz2uauOZhh7uHaARN3VKwa826MDL9XLlbsbluqtD3H3hI8vVR1JqKyTUqbk7IiMht3RpMcfh+dVr/Ti6WQBMj/r1hWRiOzd50dPnPP1XV2N2esps9oAXai2hUP8AIhYm/jTbKjxLO8MGWPEWP9NQt/dvebE7PxDKrCZYXAsJs4OiWu6GAfMT1Vn7V3ToOEPbPXiPLiFU28uF7msWhxe0aGDPrI9PRbUqynhGtag6auz1lsXadPFUKeIpGWVWhw5idQRwIMg9Qt9VB2F72U30jgHDJUbmqMvZ4Jlwa36pGsD7x6K31YKoREQBERAEREAREQBERAEREAREQBERAEREAREQHnbtDcHbdxFNwHifRb5A0aUzy8M/FWhsKgGsAA0soP2lYNjts0atOSS5lOrawfTAdMg8WQL8uq2aW+lVmbucNnY0kFznNaCRrBcQFSrx35K3rJfoPci76/ospq/HgclF92N7TiXd3UoOovuQDBaQOThZfW8+9D8N4adA1XRJEwB5lRbubEnM2tpU5BPRVtv/AIVhpCYBBifjN/zou43fmq5pc/CgMuDle1zh6NJ+fyXB3ucK2D7xhkZg4HmJ0+CxCDhNNm85qdNpEe7NvDtXBmmZPfwI4tLSHSOjSfgvU6879ieBYMf3z2Ehs06ZEQKjmw5xH6tv8zovRC6SaZy5RatfiERFk1CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKn7SMGGY2k8NHic2oTx0FK3P3gt3/AOPUatMnuwc7A03IIGvhI92/KCpHvpsR+IZNNmd+UgXAIOoIkgcSuLu5iZp/n86qjWvGR1KMlOK7l+D6wmAZRdShsFuVo55QCLnUm9yTJhamNw3e1nHKHFrmkT93lNlt4nHs78Nc4MtIzcYBNuq5R2qxuIIa9riHX5RzKgbepZjFJH23dqiCancNYcxcXTLySSbXtcmw5qLb1WpVKbRqIi0XtbgrAxGMD6ZBEH86FQHblX2rOUsP+qf7rZO8iOaSja1iS7nbGGEfQoB2Z2Zrn/rEy6/IgTB5K1FH9lbDLKgqvLZaDAE6u1LiR5/FSBXaMZJNy1Zz9pqRk0o6JWCIimKwREQBERAEREAREQBERAEREAREQBERAEREAVQbTxFTCvxFBvvg+Ho1z5B/hcPirfUF7SdilzBjabS51Ee0aPr0hcnzbc9RPIKKrDeRNQqbkivzsaviahbiG3sWlz2hvDQk6f0TE7nOpjMa7JNoa4ukTazWQIB4FSvEY/NTFSi5ptJb8dOS08LiK7iG1CwRcmLzxEcLKnvOx1dyPr19jkbKp18NIquzNcAcpNx4gRf4ytXGjvMVRY3i9o09D+P4LY29twMq5TBa0Zupgxp5gAeq1tmYd9NrcS8e0cWuA+yAQQPMmJ/smnWZC1vdWPAv1Fgw1cVGNe27XtDh5ESFnXROUEREAREQBERAEREAREQBERAEREAREQBERAEREARFr47F06NN1Wq9tOmwZnOcYaAOJKApPerC1NmY2p3bS7DuPeU2ge6CJyRyDs0dI5SuLid6CQMoeXG0BpnW/wDT90KW4ne2ltOu91FhFOkRTa52tQXOeOAJmBrzg2G3h9kU2mcgnyVCtUUZtWOlRpylTWSJ7sbtPqluIxeojJTmwjQu5mylO0qEwOGvwXSeAwFziA0CSToAFVe9m9bsWTSpSyhcHg6r1dyb93jx5CKMZ15esE8p09nj6uyRYntLxGHY3D4R1J7WEgvcxzgBMhrXZgDF+HK9l1OyzezEVtoVGYms6ocQwxJ8LX05cAxgs0ZC/TWBMqqWNgawt/Ym2hhMTQr+J3d1GOLWxmLJ8WsC7cwHOV1Ix3YpHInLek32nqxFzdhbaoYyi2vh6gqU3cRqDxa4atI5FdJDUIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIotvzvpQ2ZSD6gNSo+e7pN950akk+60SJPXQoCTPeACSYAuSdAPNUf2tbbq7TrU8Bs+cRSZ46rqd6ZqEkNDqnu5WgE6wSeiklHZ2I2tSbWx730qLwHMwlIlrQ06Gs73nuIgxaOh0kmzNk0qDBTo0202DgBqeZPE9SvP7d0/So3hQW/JeEfPj2YxzJ6dBvMsIqXcbZf0evWw+YPc2A5490vZ7wb0a6Wzx6KY4vaDaIdUquysa0a6lxmGtA1NtFt7sbnPwmeajaxe5zzUIynxuJILZPHreVuVdx6VWuK2IqOrNbpSgNpg8yBc6aTfjayz/MoSzKe9hZSy3bsxa/O1uxFyNVU6aS1+hXVZ20NrEsoU3U8PMG8A/tKuh/UbPqtraHZVWp0QadZtSqAS4GzfJrtSRzOvRXEA1oDWgAAQAAAABwAWJ2oXM2rputCSVC0Unpr53152t9LQbm+7zyeZd5dm4jB5G1qZY6oCRMECCAYA43GvMLhUpMzrY31JEq3u3Nud2FEgBoruJP+UL+ZB+Cq3CYBzna2jlEjyXqOj9ontGzRqzVm76aYbXPgVaiUZNHb3L3or7OrCrRMsMZ6ZJyPbyI4OF4dwk8JB9I7sbx0MfRFai7kHNPvMdycPwPFeYX7PLV0N3Nv4jZ9YVqBvo5rpyPb9lwB/6Vxo1PVCKvtw+0qnj6ncVaYoVolsOzMqRqASAQ6Lxy4qwVqAiIgCIiAIiIAiIgCIiAIiIAiIgC8/CidubcqveZw1Ajy7phORn+Y7M49C7krq3txZo4DFVW+8zD1nD9YMdHzhVl2T0O4wFSsBJr4hwbb6rIp3dIAu18EnVwVDpHaJUaD3Pek91cr6vwSZvBXeSSYvGYmtiKTKDmNw8zmbLnODHeLxRlAIAiCbEkg8JWGqN7t7Jp0azn02k5wZe4lzmjwgUxUdcNhosLkiTJuZMvJ7RGCajFKyXZnx1+r7SxFs/QFytqbbbTd3LAalYtnK1rnBjft1SLNaOUyeC6Nd0NJvoTYSfQQbrgNpU8laO9zViC5z2+KR9V0EWtoAIkjkBY2Sjv5tdeteSWedjO5OS6qPrHY2qHlufIeEBha3QeIkH7QvNzFrrs0bwZBkAyDI0vBGq49LZNE0Po9N4fnOZxzw9vinwMmWtB4ehkkldnBYNlKm1lP3WWuSTfmTfVY22jSlFKKtZtrCXV+Wl8a4WTSO9Fve7CnO14h2PDSfDSoszDhq9wnzzT+6ophacCT77jJ6cm+gXa3+xgqY7Ev1Aq5PPumhkermx+8uMHZWk6kCfM/wByvX7JD2dCEexIryd2zcoUswJPMhaeMw4XVwbMrADcjU8zxPxlau0GXHWQpzU5WHzMeHsJa5pBBBgggyCDzBuOq9GbibfOOwbKro7xpLKkaZ28Y4Zmlro+9C86usVbHYe4/pTZ8MUSB19pf4R8AjMlrIiLUBERAEREAREQBERAEREAREQEe7QWk7Lx0f8Aq1z8Kbj/ACXA3R2EG4LCNdYtoUyRAPjeM7vekDxONwJtqpxjcMKtN9J3u1GOYfJwIPyKi+1dpfRW0mtbmnPP3WUqL3kjrLWtA+/0XD6alP8ArjDi5fJfhktJLLZ2aFANnLxMm5JnzKyOUUG28U+saVIUT3c94XB4EEVaYcL6CvRqTr4SwayVr7L3hxTmU6lcUAKrMPUGQPGVlXM45w4692x/qFwp0J7t8X71clUlcmoC+44KJ1t5alKmC6k1z/0anlBI9vVGeo2bw1rCwjzhSwKWNPdSb4/hflGG7muzCMY/O1gBIykjWLa89BdZCQDPLVZiVxt5Mb3OFrVtTTo1D5lrSW/EwtNob1WW9L9v++abXZbZScnlnnzH1zUqFx1e8uPqS78Qvqo67RzI+V/5LlHGXY0XAm/Q6T8SPRfr8TdzvsiB5usP5le6sUzuUsYDHV0D5n8B81kxtQHKfvBcFryC0cm5j+9p8h810gCaQJ4un0A/usAYhnH0/PzVjdhlf22Jp82U3D91zgf9wVd1TYjmB8VYHYdhz9JxFTg2k1v8bp/BiMyXIiItQEREAREQBERAEREAREQBERAYMXXFOm950a1zvgJUA3iFfv21RTfUpM7vwU6RdUJZUplxBmIc2q9sfccZtbv9omP7nAvI1fUoUh/mVWNP+klZ6NWY8z+K8109tPsKlJ2viS83EsUY7yfh9yEdziGuqE0Kgq4fBYhrntY7LWNRlN7WsdfvHd8ax8OluJX3tllSmxg7uoabKdOlUa2m51Qt7gjwRxGZ3qItKn7NVrVjqfzr/Zcep0i11nFcf9789y7MEipXwQTFmrVxDH5WikcZTY4kuFTO7EsqNytiD7CjhgSTaSBxVjly1m8RrER6IXktkcFHU2zeiko2sn5J5/JlQMjqq5u3sH9Iw1agf/1puZPUix8wb+i3nDj9V3yXwymRM/nqFSnUqxeHnt56p+Kyv0yRRjY8u1qbmviI1kHmNfnHwX5h6clrTxJc7ybYfgfipF2i4PuMZiGAEe0NVh4e1GaB+84j0XBptOUxq+Gjy5r6bSqqrBVFpJJ+av8Ao5zVnYzYZuaX/bdb9Uf2XZxDI7tnOBYE3J5C510C18LSEgDRsD4a/wAlL90NjHEvrOY4NqMApscRPdkgFzgJ1gwDwuotq2mOz0nVlorfN2zy7cPuehtCLk7I0Kmwv0eu51KrSdSpte17yId4oylgENNjaSRx6yrsLq+PFDmyi74GoP5rib5Yujh8ONn4d/eHN3ld/AuBByiOMgE8soFzK6fYgf0nEDnRB+Dx/VQ7DKpKnKc72b6t7+7ZK9m21vWbtfF8W0Mztey9f4XIiIrhoEREAREQBERAEREAREQBERAR3fPdz6fRZTFU0nU6zKzTEtLmTAe2xIudDrB4QtajWIYxxb4jfL1PD4/kqVqFGiRWdSc7wXqa6CSCJOk/10N15z/0NBTjSm+Dfla/2LOzytvevWpnZnqSYDwObop9REOmOfO08vqjVyjIRkPL6h/Zn+XTS+ZYhjWucacREwCOAygQB6+QPBfv0iafiaIGh4+EWkC026dBFzxG2o2lHD1XJ6Pv44S5SWpJq8HXaYqN6yPz81rfSQyo5jRmJsdA1pNwHONgfuiXReFhxtezRckETlMHKbA5hpmmLX96D4SRj2lhSMjwB4fqQAyCW2HrAM+eovNT2X2cN+qruMrxSxdNZd9WnZ6WbSbukrvR1LtKPFfc/ab3uJZLi03HdtAHl3jic3oGlbuDpOaDm6XzPcT55iY9F91HB7G1G3kBw8jdZW1AWg81DPaPepJKKtdWWqvpfXD0/ZlR+K9ype2jADOyrHv0i2eGak6RPmHx6Kt9mi+Y3gWnm7+0K7u1fBd5gc/+G8H91wLSPiW/BU1stns25RJNoGpOggL1fQ1Xf2SP/Lcfnf6NEFVdY38LYkxOUfn5rX2fjajS/JVezMfFlJAdc2cJgiSdVKdn7lYxzYJpUgdSZc75QuxgezykweOvUcTrlDGj0lpPzV516fHJutlqPgV9izBEaf1mQp/2Hn9LrfsP+bVj2puHSiWV6gMcQxw9RAPzXY7IdjvoYnEl0Ob3bGh4mCcxJB5Gwsto14TwtTFTZ6lNXawWqiItyEIiIAiIgCIiAIiIAiIgCIiAKFYyqPpD7i0CZESXgxbQ8upHEqaqC45v6TWAPEzOYG+SwIItfrwtxXF6cX9Ue/8Af2JqOr7jY7rwu8DczgDLmWAAAEttebRbTpf8qNg5iQPaZYm4LjOWIjledI9f3CMDWho0ytAgQPedYfnivvG8T+ofUd5f5fJeP9q3OUfD7eGGW93CZ+VmHugb+yJbe05SQHHyaC7104LoOYKlKLRUaWkj3rg3ngVhwkEu/a9f8Ic/XRajM1N7mss3M3N90Odllo56iNII+zfp77nJQfxw+7XyWmH52K6jh8mbOycV4chEubJyjkSZHQB2Zt/sL92fWNTMYDWhxbEy6RBDp4eXzWnXosw9XvGufLifADOc+RubnjpOoW9Tpvlr3ZaDLkMiajh+qNNb2kc1Xp7N7eD3Y3txeLJrN825XvayVuw33rMw7y4c1sFXYBLjRfA++BLbfrAKB9l2ApDCMrd23vHOqy4gFwAqPaGg8BAVmOs7odfP/r8FAd0Wd0KtAWFLFV2AcmmoXt/0vCudE7RaMqLebp+Sd/Pq+KsT0o3qX5P6omIaFq4gws1N61ca5dtvBZisnJ2lVsVIOzulGHe/7dV3waGj8ZUT2rWsVPt0MP3eCoDmzOf3yX/8lZ2RdZsr7c7QS5naREV85YREQBERAEREAREQBERAEREAUJ2kQMbUbm94T5OIZby/mQOSmVR4aCSYABJPQKp9nbSdWfVrEnxPe8C1g57IHpI/h6BcnpmKls1uaty4fcnoJ3bJFSqmQ0+E5gGyRbiQ69xYWHTSxWV8mIOafem06XAE5YgWN7cblc9tc1XNA95pDnAWLg0wYHqNdLdCui+mWhzieEjUXdPAmRJOkCNL6rx02k84k8W5/XLd9eepatmxvYOoAwucYEufe5gkhsAfdkR6LRZii09+XZmPaPZwLGwAnnNjeJPJZMFVaX9w5ji3LY/VNoJ8gIHm420SlRaHyLsw+nJ9UyAPQkzGkkcF0ZUN+UEsWsr4aUV1m/Prd2O0gi9TJVeMMHOIOfLnfUMEttOWmDYAT7xsJ5TGszaBY72kNDjJJMmWllnvJvIe2AOMtE2K+8VVDmZvecCQZEEvl9MZuQJcfRpABsFo0MIXBzXEHLTIkwGAEVWuHO9VuYk/ZBJmAIq+0b0r/AvdXLstpvLVt57LPXZLhxJHSqZ2iQRI0OoPLzBVfveaW0sZTIgP7mu08HTTFNxHk6m31cpxgg/IC4EHgSIniYm5vxiL2XH3swAeaVYCHNLmE8crxJH8TWH0WmyzdHa92Sa3saNYbTTV84dl3XfaT0nZqxmwlXMAVj2m6yw7IPgCybRPhXpOBcWpE9q1SQQLk2VyYaiGMawaNaG/AQqQFb24GsVWf7gr0V7ZFZMobe7uPiERFcOeEREAREQBERAEREAREQBERAR/frEmngK5Grmhn8bg0/IlVtu2BneJAOSRPu6izuQ68LKe9pp/QD+0p/7lW+znHM6A4eECRqJc2SOXhm65nSD6jVr446a+s8C7QX9T7yUYVrhVJJNKGhsywnNqbPDgbQZA48ZXSqva2C6rmI0lwj0YwC/XLYTdadJgysNQOLbGQ0lsgus4AE3aRYrMyrSDQ1uZ93Q3KSTmEQRHnrGq8vOKhO8YN4VnbNmrrOl9FlPN8cDLzqzfwmc5aDTDjmLnfZbmMuPXl6rZ2jDKQyWYyA0Rc5iGl5mBMExMACeBtrsPdNIcJc8jOGwTYS2k3gbCSOJte6/HOzllbVxcC1uawzUyQACYz5WtNiJ7wiYN7MIKNKVD4tZc3rud3bqlpmzI5PO95fn8GjQIBa4y0ue9uVpNnOFUAwLGqAyM1rO1gLpVqgpZTlzPd/46VoZH16kWsdBppx008BhnPc1zc0uEMa7QNyhoLm6CzMxPUAG1/vahZVDmtdkptim6r9ZxAc4+k3JHDQ8o6F1F1GleOI3z1r3dl8W7nXi1m+Vl/X6fsUsZFdhdLzUzNNQnwyI8NNvKTr5x0/d5a5a2nABzVRPkGuM/JYdj0XnKaly0lrJ1ptkCCI94gcbxbnPN3jcTiabZkDM6/DQAR5E69VFGHtNphJ5aeebV3y4eDeiRJRebI3dns8K+NruyMut7ANsAuPvHUzTGjQvQrCOhfNiO7sYTvcXRm+esHnqGEuj4NV3qquzykDi6dv8Ax0Xu9SA3/kVaq6Wze5fmcvbH10uxIIiKwVAiIgCIiA//2Q==</t>
         </is>
